--- a/Calendario.xlsx
+++ b/Calendario.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SEBAS\Documents\Calendario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A26747F5-AA67-494D-A1A0-3482A24D836D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{243B879E-C313-4DE2-BBCD-7473D903C8D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="49">
   <si>
     <t>:30</t>
   </si>
@@ -119,7 +119,64 @@
     <t>Agenda Semana del 13 al 18</t>
   </si>
   <si>
-    <t>Dormir</t>
+    <t>DORMIR</t>
+  </si>
+  <si>
+    <t>LUN</t>
+  </si>
+  <si>
+    <t>MAR</t>
+  </si>
+  <si>
+    <t>DOM</t>
+  </si>
+  <si>
+    <t>MIE</t>
+  </si>
+  <si>
+    <t>JUE</t>
+  </si>
+  <si>
+    <t>VIE</t>
+  </si>
+  <si>
+    <t>SAB</t>
+  </si>
+  <si>
+    <t>Nombre</t>
+  </si>
+  <si>
+    <t>Semestre</t>
+  </si>
+  <si>
+    <t>DESAYUNO</t>
+  </si>
+  <si>
+    <t>TRABAJO</t>
+  </si>
+  <si>
+    <t>GYM</t>
+  </si>
+  <si>
+    <t>DESCANSO</t>
+  </si>
+  <si>
+    <t>ALMUERZO</t>
+  </si>
+  <si>
+    <t>ESTUDIAR EN LA U</t>
+  </si>
+  <si>
+    <t>CENA</t>
+  </si>
+  <si>
+    <t>LABORATORIO</t>
+  </si>
+  <si>
+    <t>CLASE INFO</t>
+  </si>
+  <si>
+    <t>CLASE DEPORTES</t>
   </si>
 </sst>
 </file>
@@ -648,7 +705,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -691,9 +748,6 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -725,9 +779,6 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="18" fontId="14" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -783,25 +834,46 @@
     <xf numFmtId="0" fontId="19" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1322,8 +1394,8 @@
   </sheetPr>
   <dimension ref="A1:I56"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="F49" sqref="F49:F50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1336,790 +1408,1073 @@
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="27" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="36" t="s">
+    <row r="1" spans="1:9" s="26" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="47" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="26" t="s">
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="45"/>
+    </row>
+    <row r="2" spans="1:9" s="24" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="G2" s="26">
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="G2" s="25">
         <v>5</v>
       </c>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-    </row>
-    <row r="3" spans="1:9" s="27" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="51" t="s">
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+    </row>
+    <row r="3" spans="1:9" s="26" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="50" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="50"/>
+      <c r="G3" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="I3" s="44" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" s="33" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="40"/>
+      <c r="B4" s="41"/>
+      <c r="C4" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="H4" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="I4" s="37" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" s="20" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="47">
+        <v>6</v>
+      </c>
+      <c r="B5" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="58"/>
+      <c r="D5" s="52" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="52" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="52" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" s="52" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" s="52" t="s">
+        <v>29</v>
+      </c>
+      <c r="I5" s="58"/>
+    </row>
+    <row r="6" spans="1:9" s="20" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="48"/>
+      <c r="B6" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="59"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="53"/>
+      <c r="G6" s="53"/>
+      <c r="H6" s="53"/>
+      <c r="I6" s="59"/>
+    </row>
+    <row r="7" spans="1:9" s="20" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="47">
+        <v>7</v>
+      </c>
+      <c r="B7" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="56"/>
+      <c r="D7" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="H7" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="I7" s="58"/>
+    </row>
+    <row r="8" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="49"/>
+      <c r="B8" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="57"/>
+      <c r="D8" s="55"/>
+      <c r="E8" s="55"/>
+      <c r="F8" s="55"/>
+      <c r="G8" s="55"/>
+      <c r="H8" s="55"/>
+      <c r="I8" s="57"/>
+    </row>
+    <row r="9" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="38"/>
+      <c r="B9" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="57"/>
+      <c r="D9" s="55"/>
+      <c r="E9" s="55" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" s="55"/>
+      <c r="G9" s="55" t="s">
+        <v>39</v>
+      </c>
+      <c r="H9" s="55"/>
+      <c r="I9" s="57"/>
+    </row>
+    <row r="10" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="43"/>
+      <c r="B10" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="59"/>
+      <c r="D10" s="53"/>
+      <c r="E10" s="53"/>
+      <c r="F10" s="53"/>
+      <c r="G10" s="53"/>
+      <c r="H10" s="53"/>
+      <c r="I10" s="59"/>
+    </row>
+    <row r="11" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="47">
+        <v>8</v>
+      </c>
+      <c r="B11" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="56"/>
+      <c r="D11" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="54" t="s">
+        <v>47</v>
+      </c>
+      <c r="F11" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="G11" s="54" t="s">
+        <v>47</v>
+      </c>
+      <c r="H11" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="I11" s="56"/>
+    </row>
+    <row r="12" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="49"/>
+      <c r="B12" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="57"/>
+      <c r="D12" s="55"/>
+      <c r="E12" s="55"/>
+      <c r="F12" s="55"/>
+      <c r="G12" s="55"/>
+      <c r="H12" s="55"/>
+      <c r="I12" s="57"/>
+    </row>
+    <row r="13" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="38"/>
+      <c r="B13" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="57"/>
+      <c r="D13" s="55"/>
+      <c r="E13" s="55"/>
+      <c r="F13" s="55"/>
+      <c r="G13" s="55"/>
+      <c r="H13" s="55"/>
+      <c r="I13" s="57"/>
+    </row>
+    <row r="14" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="43"/>
+      <c r="B14" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="59"/>
+      <c r="D14" s="53"/>
+      <c r="E14" s="53"/>
+      <c r="F14" s="53"/>
+      <c r="G14" s="53"/>
+      <c r="H14" s="53"/>
+      <c r="I14" s="59"/>
+    </row>
+    <row r="15" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="47">
+        <v>9</v>
+      </c>
+      <c r="B15" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="18"/>
+      <c r="D15" s="54" t="s">
+        <v>39</v>
+      </c>
+      <c r="E15" s="54" t="s">
+        <v>47</v>
+      </c>
+      <c r="F15" s="54" t="s">
+        <v>39</v>
+      </c>
+      <c r="G15" s="54" t="s">
+        <v>47</v>
+      </c>
+      <c r="H15" s="54" t="s">
+        <v>39</v>
+      </c>
+      <c r="I15" s="56"/>
+    </row>
+    <row r="16" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="49"/>
+      <c r="B16" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="17"/>
+      <c r="D16" s="51"/>
+      <c r="E16" s="55"/>
+      <c r="F16" s="51"/>
+      <c r="G16" s="55"/>
+      <c r="H16" s="51"/>
+      <c r="I16" s="57"/>
+    </row>
+    <row r="17" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="38"/>
+      <c r="B17" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" s="18"/>
+      <c r="D17" s="60" t="s">
+        <v>40</v>
+      </c>
+      <c r="E17" s="55"/>
+      <c r="F17" s="60" t="s">
+        <v>40</v>
+      </c>
+      <c r="G17" s="55"/>
+      <c r="H17" s="60" t="s">
+        <v>40</v>
+      </c>
+      <c r="I17" s="57"/>
+    </row>
+    <row r="18" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="43"/>
+      <c r="B18" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="12"/>
+      <c r="D18" s="53"/>
+      <c r="E18" s="53"/>
+      <c r="F18" s="53"/>
+      <c r="G18" s="53"/>
+      <c r="H18" s="53"/>
+      <c r="I18" s="59"/>
+    </row>
+    <row r="19" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="47">
+        <v>10</v>
+      </c>
+      <c r="B19" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="18"/>
+      <c r="D19" s="54" t="s">
+        <v>41</v>
+      </c>
+      <c r="E19" s="54" t="s">
+        <v>40</v>
+      </c>
+      <c r="F19" s="54" t="s">
+        <v>41</v>
+      </c>
+      <c r="G19" s="54" t="s">
+        <v>40</v>
+      </c>
+      <c r="H19" s="54" t="s">
+        <v>41</v>
+      </c>
+      <c r="I19" s="28"/>
+    </row>
+    <row r="20" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="49"/>
+      <c r="B20" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" s="17"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="55"/>
+      <c r="F20" s="55"/>
+      <c r="G20" s="55"/>
+      <c r="H20" s="55"/>
+      <c r="I20" s="17"/>
+    </row>
+    <row r="21" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="38"/>
+      <c r="B21" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21" s="18"/>
+      <c r="D21" s="55"/>
+      <c r="E21" s="55"/>
+      <c r="F21" s="55"/>
+      <c r="G21" s="55"/>
+      <c r="H21" s="55"/>
+      <c r="I21" s="18"/>
+    </row>
+    <row r="22" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="43"/>
+      <c r="B22" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" s="12"/>
+      <c r="D22" s="53"/>
+      <c r="E22" s="53"/>
+      <c r="F22" s="53"/>
+      <c r="G22" s="53"/>
+      <c r="H22" s="53"/>
+      <c r="I22" s="17"/>
+    </row>
+    <row r="23" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="47">
+        <v>11</v>
+      </c>
+      <c r="B23" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" s="18"/>
+      <c r="D23" s="54" t="s">
+        <v>41</v>
+      </c>
+      <c r="E23" s="54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" s="54" t="s">
+        <v>41</v>
+      </c>
+      <c r="G23" s="54" t="s">
+        <v>44</v>
+      </c>
+      <c r="H23" s="54" t="s">
+        <v>41</v>
+      </c>
+      <c r="I23" s="28"/>
+    </row>
+    <row r="24" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="49"/>
+      <c r="B24" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24" s="17"/>
+      <c r="D24" s="55"/>
+      <c r="E24" s="55"/>
+      <c r="F24" s="55"/>
+      <c r="G24" s="55"/>
+      <c r="H24" s="55"/>
+      <c r="I24" s="17"/>
+    </row>
+    <row r="25" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="38"/>
+      <c r="B25" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="C25" s="18"/>
+      <c r="D25" s="55"/>
+      <c r="E25" s="55"/>
+      <c r="F25" s="55"/>
+      <c r="G25" s="55"/>
+      <c r="H25" s="55"/>
+      <c r="I25" s="18"/>
+    </row>
+    <row r="26" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="43"/>
+      <c r="B26" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" s="12"/>
+      <c r="D26" s="53"/>
+      <c r="E26" s="53"/>
+      <c r="F26" s="53"/>
+      <c r="G26" s="53"/>
+      <c r="H26" s="53"/>
+      <c r="I26" s="17"/>
+    </row>
+    <row r="27" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="47">
+        <v>12</v>
+      </c>
+      <c r="B27" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" s="18"/>
+      <c r="D27" s="54" t="s">
+        <v>41</v>
+      </c>
+      <c r="E27" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="F27" s="54" t="s">
+        <v>41</v>
+      </c>
+      <c r="G27" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="H27" s="54" t="s">
+        <v>41</v>
+      </c>
+      <c r="I27" s="28"/>
+    </row>
+    <row r="28" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="49"/>
+      <c r="B28" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="C28" s="17"/>
+      <c r="D28" s="51"/>
+      <c r="E28" s="51"/>
+      <c r="F28" s="51"/>
+      <c r="G28" s="51"/>
+      <c r="H28" s="51"/>
+      <c r="I28" s="17"/>
+    </row>
+    <row r="29" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="38"/>
+      <c r="B29" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="C29" s="18"/>
+      <c r="D29" s="60" t="s">
+        <v>42</v>
+      </c>
+      <c r="E29" s="54" t="s">
+        <v>41</v>
+      </c>
+      <c r="F29" s="60" t="s">
+        <v>42</v>
+      </c>
+      <c r="G29" s="54" t="s">
+        <v>41</v>
+      </c>
+      <c r="H29" s="60" t="s">
+        <v>42</v>
+      </c>
+      <c r="I29" s="18"/>
+    </row>
+    <row r="30" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="43"/>
+      <c r="B30" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="C30" s="12"/>
+      <c r="D30" s="53"/>
+      <c r="E30" s="51"/>
+      <c r="F30" s="53"/>
+      <c r="G30" s="51"/>
+      <c r="H30" s="53"/>
+      <c r="I30" s="17"/>
+    </row>
+    <row r="31" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="47">
+        <v>1</v>
+      </c>
+      <c r="B31" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="C31" s="18"/>
+      <c r="D31" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="E31" s="54" t="s">
+        <v>41</v>
+      </c>
+      <c r="F31" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="G31" s="54" t="s">
+        <v>41</v>
+      </c>
+      <c r="H31" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="I31" s="28"/>
+    </row>
+    <row r="32" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="49"/>
+      <c r="B32" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="C32" s="17"/>
+      <c r="D32" s="51"/>
+      <c r="E32" s="55"/>
+      <c r="F32" s="51"/>
+      <c r="G32" s="55"/>
+      <c r="H32" s="51"/>
+      <c r="I32" s="17"/>
+    </row>
+    <row r="33" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="38"/>
+      <c r="B33" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="C33" s="18"/>
+      <c r="D33" s="60" t="s">
+        <v>40</v>
+      </c>
+      <c r="E33" s="55"/>
+      <c r="F33" s="60" t="s">
+        <v>40</v>
+      </c>
+      <c r="G33" s="55"/>
+      <c r="H33" s="60" t="s">
+        <v>40</v>
+      </c>
+      <c r="I33" s="18"/>
+    </row>
+    <row r="34" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="43"/>
+      <c r="B34" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="C34" s="12"/>
+      <c r="D34" s="53"/>
+      <c r="E34" s="53"/>
+      <c r="F34" s="53"/>
+      <c r="G34" s="53"/>
+      <c r="H34" s="53"/>
+      <c r="I34" s="17"/>
+    </row>
+    <row r="35" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="47">
         <v>2</v>
       </c>
-      <c r="B3" s="51"/>
-      <c r="G3" s="28" t="s">
+      <c r="B35" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="C35" s="18"/>
+      <c r="D35" s="54" t="s">
+        <v>40</v>
+      </c>
+      <c r="E35" s="54" t="s">
+        <v>41</v>
+      </c>
+      <c r="F35" s="54" t="s">
+        <v>48</v>
+      </c>
+      <c r="G35" s="54" t="s">
+        <v>41</v>
+      </c>
+      <c r="H35" s="54" t="s">
+        <v>40</v>
+      </c>
+      <c r="I35" s="28"/>
+    </row>
+    <row r="36" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="49"/>
+      <c r="B36" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="C36" s="17"/>
+      <c r="D36" s="55"/>
+      <c r="E36" s="55"/>
+      <c r="F36" s="55"/>
+      <c r="G36" s="55"/>
+      <c r="H36" s="55"/>
+      <c r="I36" s="17"/>
+    </row>
+    <row r="37" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="38"/>
+      <c r="B37" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="C37" s="18"/>
+      <c r="D37" s="55"/>
+      <c r="E37" s="55"/>
+      <c r="F37" s="55"/>
+      <c r="G37" s="55"/>
+      <c r="H37" s="55"/>
+      <c r="I37" s="18"/>
+    </row>
+    <row r="38" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="43"/>
+      <c r="B38" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="C38" s="12"/>
+      <c r="D38" s="53"/>
+      <c r="E38" s="53"/>
+      <c r="F38" s="53"/>
+      <c r="G38" s="53"/>
+      <c r="H38" s="53"/>
+      <c r="I38" s="17"/>
+    </row>
+    <row r="39" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="47">
+        <v>3</v>
+      </c>
+      <c r="B39" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="C39" s="18"/>
+      <c r="D39" s="60" t="s">
+        <v>40</v>
+      </c>
+      <c r="E39" s="54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" s="54" t="s">
+        <v>48</v>
+      </c>
+      <c r="G39" s="54" t="s">
+        <v>44</v>
+      </c>
+      <c r="H39" s="60" t="s">
+        <v>40</v>
+      </c>
+      <c r="I39" s="28"/>
+    </row>
+    <row r="40" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="49"/>
+      <c r="B40" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="C40" s="17"/>
+      <c r="D40" s="53"/>
+      <c r="E40" s="55"/>
+      <c r="F40" s="55"/>
+      <c r="G40" s="55"/>
+      <c r="H40" s="53"/>
+      <c r="I40" s="17"/>
+    </row>
+    <row r="41" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="38"/>
+      <c r="B41" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="C41" s="18"/>
+      <c r="D41" s="54" t="s">
+        <v>44</v>
+      </c>
+      <c r="E41" s="55"/>
+      <c r="F41" s="55"/>
+      <c r="G41" s="55"/>
+      <c r="H41" s="54" t="s">
+        <v>44</v>
+      </c>
+      <c r="I41" s="18"/>
+    </row>
+    <row r="42" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="43"/>
+      <c r="B42" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="C42" s="12"/>
+      <c r="D42" s="53"/>
+      <c r="E42" s="53"/>
+      <c r="F42" s="53"/>
+      <c r="G42" s="53"/>
+      <c r="H42" s="53"/>
+      <c r="I42" s="17"/>
+    </row>
+    <row r="43" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="47">
+        <v>4</v>
+      </c>
+      <c r="B43" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="C43" s="18"/>
+      <c r="D43" s="54" t="s">
+        <v>44</v>
+      </c>
+      <c r="E43" s="54" t="s">
+        <v>40</v>
+      </c>
+      <c r="F43" s="54" t="s">
+        <v>48</v>
+      </c>
+      <c r="G43" s="54" t="s">
+        <v>40</v>
+      </c>
+      <c r="H43" s="54" t="s">
+        <v>44</v>
+      </c>
+      <c r="I43" s="28"/>
+    </row>
+    <row r="44" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="49"/>
+      <c r="B44" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="C44" s="17"/>
+      <c r="D44" s="55"/>
+      <c r="E44" s="55"/>
+      <c r="F44" s="55"/>
+      <c r="G44" s="55"/>
+      <c r="H44" s="55"/>
+      <c r="I44" s="17"/>
+    </row>
+    <row r="45" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="38"/>
+      <c r="B45" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="C45" s="18"/>
+      <c r="D45" s="55"/>
+      <c r="E45" s="55"/>
+      <c r="F45" s="55"/>
+      <c r="G45" s="55"/>
+      <c r="H45" s="55"/>
+      <c r="I45" s="18"/>
+    </row>
+    <row r="46" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="43"/>
+      <c r="B46" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="C46" s="12"/>
+      <c r="D46" s="53"/>
+      <c r="E46" s="53"/>
+      <c r="F46" s="53"/>
+      <c r="G46" s="53"/>
+      <c r="H46" s="53"/>
+      <c r="I46" s="17"/>
+    </row>
+    <row r="47" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="47">
+        <v>5</v>
+      </c>
+      <c r="B47" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="C47" s="15"/>
+      <c r="D47" s="54" t="s">
+        <v>44</v>
+      </c>
+      <c r="E47" s="60" t="s">
+        <v>42</v>
+      </c>
+      <c r="F47" s="54" t="s">
+        <v>48</v>
+      </c>
+      <c r="G47" s="60" t="s">
+        <v>42</v>
+      </c>
+      <c r="H47" s="54" t="s">
+        <v>44</v>
+      </c>
+      <c r="I47" s="15"/>
+    </row>
+    <row r="48" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="48"/>
+      <c r="B48" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="C48" s="13"/>
+      <c r="D48" s="53"/>
+      <c r="E48" s="53"/>
+      <c r="F48" s="53"/>
+      <c r="G48" s="53"/>
+      <c r="H48" s="53"/>
+      <c r="I48" s="13"/>
+    </row>
+    <row r="49" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="47">
         <v>6</v>
       </c>
-      <c r="I3" s="46" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" s="35" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="42"/>
-      <c r="B4" s="43"/>
-      <c r="C4" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="38" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="38" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="38" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="38" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" s="38" t="s">
-        <v>17</v>
-      </c>
-      <c r="I4" s="39" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="49">
-        <v>6</v>
-      </c>
-      <c r="B5" s="44" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="53" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="17"/>
-    </row>
-    <row r="6" spans="1:9" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="52"/>
-      <c r="B6" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="54"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="13"/>
-    </row>
-    <row r="7" spans="1:9" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="49">
+      <c r="B49" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="C49" s="15"/>
+      <c r="D49" s="54" t="s">
+        <v>44</v>
+      </c>
+      <c r="E49" s="60" t="s">
+        <v>46</v>
+      </c>
+      <c r="F49" s="54" t="s">
+        <v>44</v>
+      </c>
+      <c r="G49" s="60" t="s">
+        <v>42</v>
+      </c>
+      <c r="H49" s="54" t="s">
+        <v>44</v>
+      </c>
+      <c r="I49" s="15"/>
+    </row>
+    <row r="50" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="48"/>
+      <c r="B50" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="C50" s="13"/>
+      <c r="D50" s="53"/>
+      <c r="E50" s="53"/>
+      <c r="F50" s="53"/>
+      <c r="G50" s="53"/>
+      <c r="H50" s="53"/>
+      <c r="I50" s="13"/>
+    </row>
+    <row r="51" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="47">
         <v>7</v>
       </c>
-      <c r="B7" s="44" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="55" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="30"/>
-      <c r="H7" s="30"/>
-      <c r="I7" s="29"/>
-    </row>
-    <row r="8" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="50"/>
-      <c r="B8" s="32" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="56"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="17"/>
-    </row>
-    <row r="9" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="40"/>
-      <c r="B9" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="C9" s="56"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="19"/>
-    </row>
-    <row r="10" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="45"/>
-      <c r="B10" s="41" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="54"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="17"/>
-    </row>
-    <row r="11" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="49">
+      <c r="B51" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="C51" s="15"/>
+      <c r="D51" s="60" t="s">
+        <v>42</v>
+      </c>
+      <c r="E51" s="60" t="s">
+        <v>46</v>
+      </c>
+      <c r="F51" s="60" t="s">
+        <v>42</v>
+      </c>
+      <c r="G51" s="60" t="s">
+        <v>42</v>
+      </c>
+      <c r="H51" s="60" t="s">
+        <v>42</v>
+      </c>
+      <c r="I51" s="15"/>
+    </row>
+    <row r="52" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="48"/>
+      <c r="B52" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="C52" s="13"/>
+      <c r="D52" s="53"/>
+      <c r="E52" s="53"/>
+      <c r="F52" s="53"/>
+      <c r="G52" s="53"/>
+      <c r="H52" s="53"/>
+      <c r="I52" s="13"/>
+    </row>
+    <row r="53" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="47">
         <v>8</v>
       </c>
-      <c r="B11" s="44" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11" s="55" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="30"/>
-      <c r="I11" s="29"/>
-    </row>
-    <row r="12" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="50"/>
-      <c r="B12" s="32" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" s="56"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="17"/>
-    </row>
-    <row r="13" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="40"/>
-      <c r="B13" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="C13" s="56"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="19"/>
-    </row>
-    <row r="14" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="45"/>
-      <c r="B14" s="41" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="54"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="17"/>
-    </row>
-    <row r="15" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="49">
+      <c r="B53" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="C53" s="15"/>
+      <c r="D53" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="E53" s="60" t="s">
+        <v>46</v>
+      </c>
+      <c r="F53" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="G53" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H53" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="I53" s="15"/>
+    </row>
+    <row r="54" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="48"/>
+      <c r="B54" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="C54" s="13"/>
+      <c r="D54" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="E54" s="53"/>
+      <c r="F54" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="G54" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="H54" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="I54" s="13"/>
+    </row>
+    <row r="55" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="47">
         <v>9</v>
       </c>
-      <c r="B15" s="44" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" s="19"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="30"/>
-      <c r="H15" s="30"/>
-      <c r="I15" s="29"/>
-    </row>
-    <row r="16" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="50"/>
-      <c r="B16" s="32" t="s">
-        <v>4</v>
-      </c>
-      <c r="C16" s="17"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="18"/>
-      <c r="I16" s="17"/>
-    </row>
-    <row r="17" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="40"/>
-      <c r="B17" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="C17" s="19"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="20"/>
-      <c r="I17" s="19"/>
-    </row>
-    <row r="18" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="45"/>
-      <c r="B18" s="41" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18" s="12"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="18"/>
-      <c r="I18" s="17"/>
-    </row>
-    <row r="19" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="49">
-        <v>10</v>
-      </c>
-      <c r="B19" s="44" t="s">
-        <v>3</v>
-      </c>
-      <c r="C19" s="19"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="30"/>
-      <c r="H19" s="30"/>
-      <c r="I19" s="29"/>
-    </row>
-    <row r="20" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="50"/>
-      <c r="B20" s="32" t="s">
-        <v>4</v>
-      </c>
-      <c r="C20" s="17"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="18"/>
-      <c r="I20" s="17"/>
-    </row>
-    <row r="21" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="40"/>
-      <c r="B21" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="C21" s="19"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="20"/>
-      <c r="G21" s="20"/>
-      <c r="H21" s="20"/>
-      <c r="I21" s="19"/>
-    </row>
-    <row r="22" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="45"/>
-      <c r="B22" s="41" t="s">
-        <v>5</v>
-      </c>
-      <c r="C22" s="12"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="18"/>
-      <c r="H22" s="18"/>
-      <c r="I22" s="17"/>
-    </row>
-    <row r="23" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="49">
+      <c r="B55" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="B23" s="44" t="s">
-        <v>3</v>
-      </c>
-      <c r="C23" s="19"/>
-      <c r="D23" s="30"/>
-      <c r="E23" s="30"/>
-      <c r="F23" s="30"/>
-      <c r="G23" s="30"/>
-      <c r="H23" s="30"/>
-      <c r="I23" s="29"/>
-    </row>
-    <row r="24" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="50"/>
-      <c r="B24" s="32" t="s">
-        <v>4</v>
-      </c>
-      <c r="C24" s="17"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="18"/>
-      <c r="G24" s="18"/>
-      <c r="H24" s="18"/>
-      <c r="I24" s="17"/>
-    </row>
-    <row r="25" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="40"/>
-      <c r="B25" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="C25" s="19"/>
-      <c r="D25" s="20"/>
-      <c r="E25" s="20"/>
-      <c r="F25" s="20"/>
-      <c r="G25" s="20"/>
-      <c r="H25" s="20"/>
-      <c r="I25" s="19"/>
-    </row>
-    <row r="26" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="45"/>
-      <c r="B26" s="41" t="s">
-        <v>5</v>
-      </c>
-      <c r="C26" s="12"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="18"/>
-      <c r="H26" s="18"/>
-      <c r="I26" s="17"/>
-    </row>
-    <row r="27" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="49">
-        <v>12</v>
-      </c>
-      <c r="B27" s="44" t="s">
-        <v>11</v>
-      </c>
-      <c r="C27" s="19"/>
-      <c r="D27" s="30"/>
-      <c r="E27" s="30"/>
-      <c r="F27" s="30"/>
-      <c r="G27" s="30"/>
-      <c r="H27" s="30"/>
-      <c r="I27" s="29"/>
-    </row>
-    <row r="28" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="50"/>
-      <c r="B28" s="32" t="s">
-        <v>4</v>
-      </c>
-      <c r="C28" s="17"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="18"/>
-      <c r="G28" s="18"/>
-      <c r="H28" s="18"/>
-      <c r="I28" s="17"/>
-    </row>
-    <row r="29" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="40"/>
-      <c r="B29" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="C29" s="19"/>
-      <c r="D29" s="20"/>
-      <c r="E29" s="20"/>
-      <c r="F29" s="20"/>
-      <c r="G29" s="20"/>
-      <c r="H29" s="20"/>
-      <c r="I29" s="19"/>
-    </row>
-    <row r="30" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="45"/>
-      <c r="B30" s="41" t="s">
-        <v>5</v>
-      </c>
-      <c r="C30" s="12"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="18"/>
-      <c r="G30" s="18"/>
-      <c r="H30" s="18"/>
-      <c r="I30" s="17"/>
-    </row>
-    <row r="31" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="49">
-        <v>1</v>
-      </c>
-      <c r="B31" s="44" t="s">
-        <v>11</v>
-      </c>
-      <c r="C31" s="19"/>
-      <c r="D31" s="30"/>
-      <c r="E31" s="30"/>
-      <c r="F31" s="30"/>
-      <c r="G31" s="30"/>
-      <c r="H31" s="30"/>
-      <c r="I31" s="29"/>
-    </row>
-    <row r="32" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="50"/>
-      <c r="B32" s="32" t="s">
-        <v>4</v>
-      </c>
-      <c r="C32" s="17"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="18"/>
-      <c r="G32" s="18"/>
-      <c r="H32" s="18"/>
-      <c r="I32" s="17"/>
-    </row>
-    <row r="33" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="40"/>
-      <c r="B33" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="C33" s="19"/>
-      <c r="D33" s="20"/>
-      <c r="E33" s="20"/>
-      <c r="F33" s="20"/>
-      <c r="G33" s="20"/>
-      <c r="H33" s="20"/>
-      <c r="I33" s="19"/>
-    </row>
-    <row r="34" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="45"/>
-      <c r="B34" s="41" t="s">
-        <v>5</v>
-      </c>
-      <c r="C34" s="12"/>
-      <c r="D34" s="18"/>
-      <c r="E34" s="18"/>
-      <c r="F34" s="18"/>
-      <c r="G34" s="18"/>
-      <c r="H34" s="18"/>
-      <c r="I34" s="17"/>
-    </row>
-    <row r="35" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="49">
-        <v>2</v>
-      </c>
-      <c r="B35" s="44" t="s">
-        <v>11</v>
-      </c>
-      <c r="C35" s="19"/>
-      <c r="D35" s="30"/>
-      <c r="E35" s="30"/>
-      <c r="F35" s="30"/>
-      <c r="G35" s="30"/>
-      <c r="H35" s="30"/>
-      <c r="I35" s="29"/>
-    </row>
-    <row r="36" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="50"/>
-      <c r="B36" s="32" t="s">
-        <v>4</v>
-      </c>
-      <c r="C36" s="17"/>
-      <c r="D36" s="18"/>
-      <c r="E36" s="18"/>
-      <c r="F36" s="18"/>
-      <c r="G36" s="18"/>
-      <c r="H36" s="18"/>
-      <c r="I36" s="17"/>
-    </row>
-    <row r="37" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="40"/>
-      <c r="B37" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="C37" s="19"/>
-      <c r="D37" s="20"/>
-      <c r="E37" s="20"/>
-      <c r="F37" s="20"/>
-      <c r="G37" s="20"/>
-      <c r="H37" s="20"/>
-      <c r="I37" s="19"/>
-    </row>
-    <row r="38" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="45"/>
-      <c r="B38" s="41" t="s">
-        <v>5</v>
-      </c>
-      <c r="C38" s="12"/>
-      <c r="D38" s="18"/>
-      <c r="E38" s="18"/>
-      <c r="F38" s="18"/>
-      <c r="G38" s="18"/>
-      <c r="H38" s="18"/>
-      <c r="I38" s="17"/>
-    </row>
-    <row r="39" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="49">
-        <v>3</v>
-      </c>
-      <c r="B39" s="44" t="s">
-        <v>11</v>
-      </c>
-      <c r="C39" s="19"/>
-      <c r="D39" s="30"/>
-      <c r="E39" s="30"/>
-      <c r="F39" s="30"/>
-      <c r="G39" s="30"/>
-      <c r="H39" s="30"/>
-      <c r="I39" s="29"/>
-    </row>
-    <row r="40" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="50"/>
-      <c r="B40" s="32" t="s">
-        <v>4</v>
-      </c>
-      <c r="C40" s="17"/>
-      <c r="D40" s="18"/>
-      <c r="E40" s="18"/>
-      <c r="F40" s="18"/>
-      <c r="G40" s="18"/>
-      <c r="H40" s="18"/>
-      <c r="I40" s="17"/>
-    </row>
-    <row r="41" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="40"/>
-      <c r="B41" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="C41" s="19"/>
-      <c r="D41" s="20"/>
-      <c r="E41" s="20"/>
-      <c r="F41" s="20"/>
-      <c r="G41" s="20"/>
-      <c r="H41" s="20"/>
-      <c r="I41" s="19"/>
-    </row>
-    <row r="42" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="45"/>
-      <c r="B42" s="41" t="s">
-        <v>5</v>
-      </c>
-      <c r="C42" s="12"/>
-      <c r="D42" s="18"/>
-      <c r="E42" s="18"/>
-      <c r="F42" s="18"/>
-      <c r="G42" s="18"/>
-      <c r="H42" s="18"/>
-      <c r="I42" s="17"/>
-    </row>
-    <row r="43" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="49">
-        <v>4</v>
-      </c>
-      <c r="B43" s="44" t="s">
-        <v>11</v>
-      </c>
-      <c r="C43" s="19"/>
-      <c r="D43" s="30"/>
-      <c r="E43" s="30"/>
-      <c r="F43" s="30"/>
-      <c r="G43" s="30"/>
-      <c r="H43" s="30"/>
-      <c r="I43" s="29"/>
-    </row>
-    <row r="44" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="50"/>
-      <c r="B44" s="32" t="s">
-        <v>4</v>
-      </c>
-      <c r="C44" s="17"/>
-      <c r="D44" s="18"/>
-      <c r="E44" s="18"/>
-      <c r="F44" s="18"/>
-      <c r="G44" s="18"/>
-      <c r="H44" s="18"/>
-      <c r="I44" s="17"/>
-    </row>
-    <row r="45" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="40"/>
-      <c r="B45" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="C45" s="19"/>
-      <c r="D45" s="20"/>
-      <c r="E45" s="20"/>
-      <c r="F45" s="20"/>
-      <c r="G45" s="20"/>
-      <c r="H45" s="20"/>
-      <c r="I45" s="19"/>
-    </row>
-    <row r="46" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="45"/>
-      <c r="B46" s="41" t="s">
-        <v>5</v>
-      </c>
-      <c r="C46" s="12"/>
-      <c r="D46" s="18"/>
-      <c r="E46" s="18"/>
-      <c r="F46" s="18"/>
-      <c r="G46" s="18"/>
-      <c r="H46" s="18"/>
-      <c r="I46" s="17"/>
-    </row>
-    <row r="47" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="49">
-        <v>5</v>
-      </c>
-      <c r="B47" s="44" t="s">
-        <v>11</v>
-      </c>
-      <c r="C47" s="15"/>
-      <c r="D47" s="16"/>
-      <c r="E47" s="16"/>
-      <c r="F47" s="16"/>
-      <c r="G47" s="16"/>
-      <c r="H47" s="16"/>
-      <c r="I47" s="15"/>
-    </row>
-    <row r="48" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="52"/>
-      <c r="B48" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="C48" s="13"/>
-      <c r="D48" s="14"/>
-      <c r="E48" s="14"/>
-      <c r="F48" s="14"/>
-      <c r="G48" s="14"/>
-      <c r="H48" s="14"/>
-      <c r="I48" s="13"/>
-    </row>
-    <row r="49" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="49">
-        <v>6</v>
-      </c>
-      <c r="B49" s="44" t="s">
-        <v>11</v>
-      </c>
-      <c r="C49" s="15"/>
-      <c r="D49" s="16"/>
-      <c r="E49" s="16"/>
-      <c r="F49" s="16"/>
-      <c r="G49" s="16"/>
-      <c r="H49" s="16"/>
-      <c r="I49" s="15"/>
-    </row>
-    <row r="50" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="52"/>
-      <c r="B50" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="C50" s="13"/>
-      <c r="D50" s="14"/>
-      <c r="E50" s="14"/>
-      <c r="F50" s="14"/>
-      <c r="G50" s="14"/>
-      <c r="H50" s="14"/>
-      <c r="I50" s="13"/>
-    </row>
-    <row r="51" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="49">
-        <v>7</v>
-      </c>
-      <c r="B51" s="44" t="s">
-        <v>11</v>
-      </c>
-      <c r="C51" s="15"/>
-      <c r="D51" s="16"/>
-      <c r="E51" s="16"/>
-      <c r="F51" s="16"/>
-      <c r="G51" s="16"/>
-      <c r="H51" s="16"/>
-      <c r="I51" s="15"/>
-    </row>
-    <row r="52" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="52"/>
-      <c r="B52" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="C52" s="13"/>
-      <c r="D52" s="14"/>
-      <c r="E52" s="14"/>
-      <c r="F52" s="14"/>
-      <c r="G52" s="14"/>
-      <c r="H52" s="14"/>
-      <c r="I52" s="13"/>
-    </row>
-    <row r="53" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="49">
-        <v>8</v>
-      </c>
-      <c r="B53" s="44" t="s">
-        <v>11</v>
-      </c>
-      <c r="C53" s="15"/>
-      <c r="D53" s="16"/>
-      <c r="E53" s="16"/>
-      <c r="F53" s="16"/>
-      <c r="G53" s="16"/>
-      <c r="H53" s="16"/>
-      <c r="I53" s="15"/>
-    </row>
-    <row r="54" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="52"/>
-      <c r="B54" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="C54" s="13"/>
-      <c r="D54" s="14"/>
-      <c r="E54" s="14"/>
-      <c r="F54" s="14"/>
-      <c r="G54" s="14"/>
-      <c r="H54" s="14"/>
-      <c r="I54" s="13"/>
-    </row>
-    <row r="55" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="49">
-        <v>9</v>
-      </c>
-      <c r="B55" s="44" t="s">
-        <v>11</v>
-      </c>
       <c r="C55" s="15"/>
-      <c r="D55" s="16"/>
-      <c r="E55" s="16"/>
-      <c r="F55" s="16"/>
-      <c r="G55" s="16"/>
-      <c r="H55" s="16"/>
+      <c r="D55" s="60" t="s">
+        <v>42</v>
+      </c>
+      <c r="E55" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="F55" s="60" t="s">
+        <v>42</v>
+      </c>
+      <c r="G55" s="60" t="s">
+        <v>42</v>
+      </c>
+      <c r="H55" s="60" t="s">
+        <v>42</v>
+      </c>
       <c r="I55" s="15"/>
     </row>
     <row r="56" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="52"/>
-      <c r="B56" s="41" t="s">
+      <c r="A56" s="48"/>
+      <c r="B56" s="39" t="s">
         <v>0</v>
       </c>
       <c r="C56" s="13"/>
-      <c r="D56" s="14"/>
-      <c r="E56" s="14"/>
-      <c r="F56" s="14"/>
-      <c r="G56" s="14"/>
-      <c r="H56" s="14"/>
+      <c r="D56" s="53"/>
+      <c r="E56" s="61" t="s">
+        <v>42</v>
+      </c>
+      <c r="F56" s="53"/>
+      <c r="G56" s="53"/>
+      <c r="H56" s="53"/>
       <c r="I56" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="C7:C10"/>
-    <mergeCell ref="C11:C14"/>
+  <mergeCells count="107">
+    <mergeCell ref="G55:G56"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="H55:H56"/>
+    <mergeCell ref="F39:F42"/>
+    <mergeCell ref="F43:F46"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="E39:E42"/>
+    <mergeCell ref="G39:G42"/>
+    <mergeCell ref="E43:E46"/>
+    <mergeCell ref="G43:G46"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="G47:G48"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="H47:H48"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="H49:H50"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="H51:H52"/>
+    <mergeCell ref="G51:G52"/>
+    <mergeCell ref="F35:F38"/>
+    <mergeCell ref="H35:H38"/>
+    <mergeCell ref="D43:D46"/>
+    <mergeCell ref="H43:H46"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="E35:E38"/>
+    <mergeCell ref="G35:G38"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="H33:H34"/>
+    <mergeCell ref="E31:E34"/>
+    <mergeCell ref="G31:G34"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="F19:F22"/>
+    <mergeCell ref="H19:H22"/>
+    <mergeCell ref="D23:D26"/>
+    <mergeCell ref="F23:F26"/>
+    <mergeCell ref="H23:H26"/>
+    <mergeCell ref="E19:E22"/>
+    <mergeCell ref="G19:G22"/>
+    <mergeCell ref="E23:E26"/>
+    <mergeCell ref="G23:G26"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="E15:E18"/>
+    <mergeCell ref="G15:G18"/>
+    <mergeCell ref="E11:E14"/>
+    <mergeCell ref="F11:F14"/>
+    <mergeCell ref="G11:G14"/>
+    <mergeCell ref="H11:H14"/>
+    <mergeCell ref="F7:F10"/>
+    <mergeCell ref="H7:H10"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="D7:D10"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="D19:D22"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="D35:D38"/>
+    <mergeCell ref="D47:D48"/>
     <mergeCell ref="A55:A56"/>
     <mergeCell ref="A51:A52"/>
     <mergeCell ref="A49:A50"/>
@@ -2133,18 +2488,11 @@
     <mergeCell ref="A27:A28"/>
     <mergeCell ref="A31:A32"/>
     <mergeCell ref="A35:A36"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A53:A54"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="I1" r:id="rId1" display="By Vertex42.com" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-  </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.4" right="0.4" top="0.4" bottom="0.5" header="0.3" footer="0.25"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter scaleWithDoc="0">
     <oddFooter>&amp;L&amp;8&amp;K01+048Class Schedule Template © 2017 by Vertex42.com&amp;R&amp;8&amp;K01+048https://www.vertex42.com/ExcelTemplates/class-schedule-template.html</oddFooter>
   </headerFooter>
@@ -2164,80 +2512,80 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.75" style="21" customWidth="1"/>
-    <col min="2" max="2" width="3" style="21" customWidth="1"/>
-    <col min="3" max="3" width="8.5" style="21" customWidth="1"/>
-    <col min="4" max="8" width="13.25" style="21" customWidth="1"/>
-    <col min="9" max="9" width="8.5" style="21" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="21"/>
+    <col min="1" max="1" width="3.75" style="20" customWidth="1"/>
+    <col min="2" max="2" width="3" style="20" customWidth="1"/>
+    <col min="3" max="3" width="8.5" style="20" customWidth="1"/>
+    <col min="4" max="8" width="13.25" style="20" customWidth="1"/>
+    <col min="9" max="9" width="8.5" style="20" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="27" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="36" t="s">
+    <row r="1" spans="1:9" s="26" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="47" t="s">
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="45" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="26"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-    </row>
-    <row r="3" spans="1:9" s="27" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="51" t="s">
+    <row r="2" spans="1:9" s="24" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="25"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+    </row>
+    <row r="3" spans="1:9" s="26" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="51"/>
-      <c r="G3" s="28" t="s">
+      <c r="B3" s="50"/>
+      <c r="G3" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="46" t="s">
+      <c r="I3" s="44" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="35" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="33"/>
-      <c r="B4" s="34"/>
-      <c r="C4" s="38" t="s">
+    <row r="4" spans="1:9" s="33" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="31"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="38" t="s">
+      <c r="D4" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="38" t="s">
+      <c r="E4" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="38" t="s">
+      <c r="F4" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="38" t="s">
+      <c r="G4" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="38" t="s">
+      <c r="H4" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="I4" s="39" t="s">
+      <c r="I4" s="37" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="23">
+      <c r="A5" s="22">
         <v>6</v>
       </c>
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="23" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="15"/>
@@ -2249,8 +2597,8 @@
       <c r="I5" s="15"/>
     </row>
     <row r="6" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="22"/>
-      <c r="B6" s="31" t="s">
+      <c r="A6" s="21"/>
+      <c r="B6" s="29" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="13"/>
@@ -2262,10 +2610,10 @@
       <c r="I6" s="13"/>
     </row>
     <row r="7" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="23">
+      <c r="A7" s="22">
         <v>7</v>
       </c>
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="23" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="15"/>
@@ -2277,8 +2625,8 @@
       <c r="I7" s="15"/>
     </row>
     <row r="8" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="22"/>
-      <c r="B8" s="31" t="s">
+      <c r="A8" s="21"/>
+      <c r="B8" s="29" t="s">
         <v>0</v>
       </c>
       <c r="C8" s="13"/>
@@ -2290,10 +2638,10 @@
       <c r="I8" s="13"/>
     </row>
     <row r="9" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="23">
+      <c r="A9" s="22">
         <v>8</v>
       </c>
-      <c r="B9" s="24" t="s">
+      <c r="B9" s="23" t="s">
         <v>3</v>
       </c>
       <c r="C9" s="15"/>
@@ -2305,8 +2653,8 @@
       <c r="I9" s="15"/>
     </row>
     <row r="10" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="22"/>
-      <c r="B10" s="31" t="s">
+      <c r="A10" s="21"/>
+      <c r="B10" s="29" t="s">
         <v>0</v>
       </c>
       <c r="C10" s="13"/>
@@ -2318,10 +2666,10 @@
       <c r="I10" s="13"/>
     </row>
     <row r="11" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="23">
+      <c r="A11" s="22">
         <v>9</v>
       </c>
-      <c r="B11" s="24" t="s">
+      <c r="B11" s="23" t="s">
         <v>3</v>
       </c>
       <c r="C11" s="15"/>
@@ -2333,8 +2681,8 @@
       <c r="I11" s="15"/>
     </row>
     <row r="12" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="22"/>
-      <c r="B12" s="31" t="s">
+      <c r="A12" s="21"/>
+      <c r="B12" s="29" t="s">
         <v>0</v>
       </c>
       <c r="C12" s="13"/>
@@ -2346,10 +2694,10 @@
       <c r="I12" s="13"/>
     </row>
     <row r="13" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="23">
+      <c r="A13" s="22">
         <v>10</v>
       </c>
-      <c r="B13" s="24" t="s">
+      <c r="B13" s="23" t="s">
         <v>3</v>
       </c>
       <c r="C13" s="15"/>
@@ -2361,8 +2709,8 @@
       <c r="I13" s="15"/>
     </row>
     <row r="14" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="22"/>
-      <c r="B14" s="31" t="s">
+      <c r="A14" s="21"/>
+      <c r="B14" s="29" t="s">
         <v>0</v>
       </c>
       <c r="C14" s="13"/>
@@ -2374,10 +2722,10 @@
       <c r="I14" s="13"/>
     </row>
     <row r="15" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="23">
+      <c r="A15" s="22">
         <v>11</v>
       </c>
-      <c r="B15" s="24" t="s">
+      <c r="B15" s="23" t="s">
         <v>3</v>
       </c>
       <c r="C15" s="15"/>
@@ -2389,8 +2737,8 @@
       <c r="I15" s="15"/>
     </row>
     <row r="16" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="22"/>
-      <c r="B16" s="31" t="s">
+      <c r="A16" s="21"/>
+      <c r="B16" s="29" t="s">
         <v>0</v>
       </c>
       <c r="C16" s="13"/>
@@ -2402,10 +2750,10 @@
       <c r="I16" s="13"/>
     </row>
     <row r="17" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="23">
+      <c r="A17" s="22">
         <v>12</v>
       </c>
-      <c r="B17" s="24" t="s">
+      <c r="B17" s="23" t="s">
         <v>11</v>
       </c>
       <c r="C17" s="15"/>
@@ -2417,8 +2765,8 @@
       <c r="I17" s="15"/>
     </row>
     <row r="18" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="22"/>
-      <c r="B18" s="31" t="s">
+      <c r="A18" s="21"/>
+      <c r="B18" s="29" t="s">
         <v>0</v>
       </c>
       <c r="C18" s="13"/>
@@ -2430,10 +2778,10 @@
       <c r="I18" s="13"/>
     </row>
     <row r="19" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="23">
+      <c r="A19" s="22">
         <v>1</v>
       </c>
-      <c r="B19" s="24" t="s">
+      <c r="B19" s="23" t="s">
         <v>11</v>
       </c>
       <c r="C19" s="15"/>
@@ -2445,8 +2793,8 @@
       <c r="I19" s="15"/>
     </row>
     <row r="20" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="22"/>
-      <c r="B20" s="31" t="s">
+      <c r="A20" s="21"/>
+      <c r="B20" s="29" t="s">
         <v>0</v>
       </c>
       <c r="C20" s="13"/>
@@ -2458,10 +2806,10 @@
       <c r="I20" s="13"/>
     </row>
     <row r="21" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="23">
+      <c r="A21" s="22">
         <v>2</v>
       </c>
-      <c r="B21" s="24" t="s">
+      <c r="B21" s="23" t="s">
         <v>11</v>
       </c>
       <c r="C21" s="15"/>
@@ -2473,8 +2821,8 @@
       <c r="I21" s="15"/>
     </row>
     <row r="22" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="22"/>
-      <c r="B22" s="31" t="s">
+      <c r="A22" s="21"/>
+      <c r="B22" s="29" t="s">
         <v>0</v>
       </c>
       <c r="C22" s="13"/>
@@ -2486,10 +2834,10 @@
       <c r="I22" s="13"/>
     </row>
     <row r="23" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="23">
+      <c r="A23" s="22">
         <v>3</v>
       </c>
-      <c r="B23" s="24" t="s">
+      <c r="B23" s="23" t="s">
         <v>11</v>
       </c>
       <c r="C23" s="15"/>
@@ -2501,8 +2849,8 @@
       <c r="I23" s="15"/>
     </row>
     <row r="24" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="22"/>
-      <c r="B24" s="31" t="s">
+      <c r="A24" s="21"/>
+      <c r="B24" s="29" t="s">
         <v>0</v>
       </c>
       <c r="C24" s="13"/>
@@ -2514,10 +2862,10 @@
       <c r="I24" s="13"/>
     </row>
     <row r="25" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="23">
+      <c r="A25" s="22">
         <v>4</v>
       </c>
-      <c r="B25" s="24" t="s">
+      <c r="B25" s="23" t="s">
         <v>11</v>
       </c>
       <c r="C25" s="15"/>
@@ -2529,8 +2877,8 @@
       <c r="I25" s="15"/>
     </row>
     <row r="26" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="22"/>
-      <c r="B26" s="31" t="s">
+      <c r="A26" s="21"/>
+      <c r="B26" s="29" t="s">
         <v>0</v>
       </c>
       <c r="C26" s="13"/>
@@ -2542,10 +2890,10 @@
       <c r="I26" s="13"/>
     </row>
     <row r="27" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="23">
+      <c r="A27" s="22">
         <v>5</v>
       </c>
-      <c r="B27" s="24" t="s">
+      <c r="B27" s="23" t="s">
         <v>11</v>
       </c>
       <c r="C27" s="15"/>
@@ -2557,8 +2905,8 @@
       <c r="I27" s="15"/>
     </row>
     <row r="28" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="22"/>
-      <c r="B28" s="31" t="s">
+      <c r="A28" s="21"/>
+      <c r="B28" s="29" t="s">
         <v>0</v>
       </c>
       <c r="C28" s="13"/>
@@ -2570,10 +2918,10 @@
       <c r="I28" s="13"/>
     </row>
     <row r="29" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="23">
+      <c r="A29" s="22">
         <v>6</v>
       </c>
-      <c r="B29" s="24" t="s">
+      <c r="B29" s="23" t="s">
         <v>11</v>
       </c>
       <c r="C29" s="15"/>
@@ -2585,8 +2933,8 @@
       <c r="I29" s="15"/>
     </row>
     <row r="30" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="22"/>
-      <c r="B30" s="31" t="s">
+      <c r="A30" s="21"/>
+      <c r="B30" s="29" t="s">
         <v>0</v>
       </c>
       <c r="C30" s="13"/>
@@ -2598,10 +2946,10 @@
       <c r="I30" s="13"/>
     </row>
     <row r="31" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="23">
+      <c r="A31" s="22">
         <v>7</v>
       </c>
-      <c r="B31" s="24" t="s">
+      <c r="B31" s="23" t="s">
         <v>11</v>
       </c>
       <c r="C31" s="15"/>
@@ -2613,8 +2961,8 @@
       <c r="I31" s="15"/>
     </row>
     <row r="32" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="22"/>
-      <c r="B32" s="31" t="s">
+      <c r="A32" s="21"/>
+      <c r="B32" s="29" t="s">
         <v>0</v>
       </c>
       <c r="C32" s="13"/>
@@ -2626,10 +2974,10 @@
       <c r="I32" s="13"/>
     </row>
     <row r="33" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="23">
+      <c r="A33" s="22">
         <v>8</v>
       </c>
-      <c r="B33" s="24" t="s">
+      <c r="B33" s="23" t="s">
         <v>11</v>
       </c>
       <c r="C33" s="15"/>
@@ -2641,8 +2989,8 @@
       <c r="I33" s="15"/>
     </row>
     <row r="34" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="22"/>
-      <c r="B34" s="31" t="s">
+      <c r="A34" s="21"/>
+      <c r="B34" s="29" t="s">
         <v>0</v>
       </c>
       <c r="C34" s="13"/>
@@ -2654,10 +3002,10 @@
       <c r="I34" s="13"/>
     </row>
     <row r="35" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="23">
+      <c r="A35" s="22">
         <v>9</v>
       </c>
-      <c r="B35" s="24" t="s">
+      <c r="B35" s="23" t="s">
         <v>11</v>
       </c>
       <c r="C35" s="15"/>
@@ -2669,8 +3017,8 @@
       <c r="I35" s="15"/>
     </row>
     <row r="36" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="22"/>
-      <c r="B36" s="31" t="s">
+      <c r="A36" s="21"/>
+      <c r="B36" s="29" t="s">
         <v>0</v>
       </c>
       <c r="C36" s="13"/>
@@ -2682,10 +3030,10 @@
       <c r="I36" s="13"/>
     </row>
     <row r="37" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="23">
+      <c r="A37" s="22">
         <v>10</v>
       </c>
-      <c r="B37" s="24" t="s">
+      <c r="B37" s="23" t="s">
         <v>11</v>
       </c>
       <c r="C37" s="15"/>
@@ -2697,8 +3045,8 @@
       <c r="I37" s="15"/>
     </row>
     <row r="38" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="22"/>
-      <c r="B38" s="31" t="s">
+      <c r="A38" s="21"/>
+      <c r="B38" s="29" t="s">
         <v>0</v>
       </c>
       <c r="C38" s="13"/>
@@ -2710,10 +3058,10 @@
       <c r="I38" s="13"/>
     </row>
     <row r="39" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="23">
+      <c r="A39" s="22">
         <v>11</v>
       </c>
-      <c r="B39" s="24" t="s">
+      <c r="B39" s="23" t="s">
         <v>11</v>
       </c>
       <c r="C39" s="15"/>
@@ -2725,8 +3073,8 @@
       <c r="I39" s="15"/>
     </row>
     <row r="40" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="22"/>
-      <c r="B40" s="31" t="s">
+      <c r="A40" s="21"/>
+      <c r="B40" s="29" t="s">
         <v>0</v>
       </c>
       <c r="C40" s="13"/>
@@ -2867,7 +3215,7 @@
     </row>
     <row r="17" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
-      <c r="B17" s="48" t="s">
+      <c r="B17" s="46" t="s">
         <v>22</v>
       </c>
       <c r="C17" s="4"/>

--- a/Calendario.xlsx
+++ b/Calendario.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SEBAS\Documents\Calendario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97D1606A-E742-49FC-8F1D-4F4836B9F26A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{039EEF04-E6E9-4EFA-A6F5-F2754861C8A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Semana1" sheetId="3" r:id="rId1"/>
@@ -624,7 +624,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -747,61 +747,55 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1322,7 +1316,7 @@
   </sheetPr>
   <dimension ref="A1:I56"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A37" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A40" workbookViewId="0">
       <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
@@ -1363,10 +1357,10 @@
       <c r="I2" s="22"/>
     </row>
     <row r="3" spans="1:9" s="23" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="54" t="s">
+      <c r="A3" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="54"/>
+      <c r="B3" s="49"/>
       <c r="G3" s="24" t="s">
         <v>27</v>
       </c>
@@ -1400,79 +1394,79 @@
       </c>
     </row>
     <row r="5" spans="1:9" s="20" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="52">
+      <c r="A5" s="46">
         <v>6</v>
       </c>
       <c r="B5" s="36" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="44"/>
-      <c r="D5" s="51" t="s">
+      <c r="D5" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="51" t="s">
+      <c r="E5" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="51" t="s">
+      <c r="F5" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="51" t="s">
+      <c r="G5" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="51" t="s">
+      <c r="H5" s="50" t="s">
         <v>18</v>
       </c>
       <c r="I5" s="44"/>
     </row>
     <row r="6" spans="1:9" s="20" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="55"/>
+      <c r="A6" s="47"/>
       <c r="B6" s="33" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="45"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="47"/>
-      <c r="H6" s="47"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="51"/>
+      <c r="F6" s="51"/>
+      <c r="G6" s="51"/>
+      <c r="H6" s="51"/>
       <c r="I6" s="45"/>
     </row>
     <row r="7" spans="1:9" s="20" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="52">
+      <c r="A7" s="46">
         <v>7</v>
       </c>
       <c r="B7" s="36" t="s">
         <v>1</v>
       </c>
       <c r="C7" s="42"/>
-      <c r="D7" s="48" t="s">
+      <c r="D7" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="48" t="s">
+      <c r="E7" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="48" t="s">
+      <c r="F7" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="G7" s="48" t="s">
+      <c r="G7" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="H7" s="48" t="s">
+      <c r="H7" s="52" t="s">
         <v>18</v>
       </c>
       <c r="I7" s="44"/>
     </row>
     <row r="8" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="53"/>
+      <c r="A8" s="48"/>
       <c r="B8" s="26" t="s">
         <v>2</v>
       </c>
       <c r="C8" s="43"/>
-      <c r="D8" s="49"/>
-      <c r="E8" s="49"/>
-      <c r="F8" s="49"/>
-      <c r="G8" s="49"/>
-      <c r="H8" s="49"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="53"/>
+      <c r="G8" s="53"/>
+      <c r="H8" s="53"/>
       <c r="I8" s="43"/>
     </row>
     <row r="9" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1481,15 +1475,15 @@
         <v>0</v>
       </c>
       <c r="C9" s="43"/>
-      <c r="D9" s="49"/>
-      <c r="E9" s="59" t="s">
+      <c r="D9" s="53"/>
+      <c r="E9" s="56" t="s">
         <v>28</v>
       </c>
-      <c r="F9" s="49"/>
-      <c r="G9" s="59" t="s">
+      <c r="F9" s="53"/>
+      <c r="G9" s="56" t="s">
         <v>28</v>
       </c>
-      <c r="H9" s="49"/>
+      <c r="H9" s="53"/>
       <c r="I9" s="43"/>
     </row>
     <row r="10" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1498,49 +1492,49 @@
         <v>3</v>
       </c>
       <c r="C10" s="45"/>
-      <c r="D10" s="47"/>
+      <c r="D10" s="51"/>
       <c r="E10" s="57"/>
-      <c r="F10" s="47"/>
+      <c r="F10" s="51"/>
       <c r="G10" s="57"/>
-      <c r="H10" s="47"/>
+      <c r="H10" s="51"/>
       <c r="I10" s="45"/>
     </row>
     <row r="11" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="52">
+      <c r="A11" s="46">
         <v>8</v>
       </c>
       <c r="B11" s="36" t="s">
         <v>1</v>
       </c>
       <c r="C11" s="42"/>
-      <c r="D11" s="48" t="s">
+      <c r="D11" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="58" t="s">
+      <c r="E11" s="55" t="s">
         <v>36</v>
       </c>
-      <c r="F11" s="48" t="s">
+      <c r="F11" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="G11" s="58" t="s">
+      <c r="G11" s="55" t="s">
         <v>36</v>
       </c>
-      <c r="H11" s="48" t="s">
+      <c r="H11" s="52" t="s">
         <v>18</v>
       </c>
       <c r="I11" s="42"/>
     </row>
     <row r="12" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="53"/>
+      <c r="A12" s="48"/>
       <c r="B12" s="26" t="s">
         <v>2</v>
       </c>
       <c r="C12" s="43"/>
-      <c r="D12" s="49"/>
-      <c r="E12" s="59"/>
-      <c r="F12" s="49"/>
-      <c r="G12" s="59"/>
-      <c r="H12" s="49"/>
+      <c r="D12" s="53"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="53"/>
+      <c r="G12" s="56"/>
+      <c r="H12" s="53"/>
       <c r="I12" s="43"/>
     </row>
     <row r="13" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1549,11 +1543,11 @@
         <v>0</v>
       </c>
       <c r="C13" s="43"/>
-      <c r="D13" s="49"/>
-      <c r="E13" s="59"/>
-      <c r="F13" s="49"/>
-      <c r="G13" s="59"/>
-      <c r="H13" s="49"/>
+      <c r="D13" s="53"/>
+      <c r="E13" s="56"/>
+      <c r="F13" s="53"/>
+      <c r="G13" s="56"/>
+      <c r="H13" s="53"/>
       <c r="I13" s="43"/>
     </row>
     <row r="14" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1562,49 +1556,49 @@
         <v>3</v>
       </c>
       <c r="C14" s="45"/>
-      <c r="D14" s="47"/>
+      <c r="D14" s="51"/>
       <c r="E14" s="57"/>
-      <c r="F14" s="47"/>
+      <c r="F14" s="51"/>
       <c r="G14" s="57"/>
-      <c r="H14" s="47"/>
+      <c r="H14" s="51"/>
       <c r="I14" s="45"/>
     </row>
     <row r="15" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="52">
+      <c r="A15" s="46">
         <v>9</v>
       </c>
       <c r="B15" s="36" t="s">
         <v>1</v>
       </c>
       <c r="C15" s="18"/>
-      <c r="D15" s="48" t="s">
+      <c r="D15" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="E15" s="58" t="s">
+      <c r="E15" s="55" t="s">
         <v>36</v>
       </c>
-      <c r="F15" s="48" t="s">
+      <c r="F15" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="G15" s="58" t="s">
+      <c r="G15" s="55" t="s">
         <v>36</v>
       </c>
-      <c r="H15" s="48" t="s">
+      <c r="H15" s="52" t="s">
         <v>28</v>
       </c>
       <c r="I15" s="42"/>
     </row>
     <row r="16" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="53"/>
+      <c r="A16" s="48"/>
       <c r="B16" s="26" t="s">
         <v>2</v>
       </c>
       <c r="C16" s="17"/>
-      <c r="D16" s="50"/>
-      <c r="E16" s="59"/>
-      <c r="F16" s="50"/>
-      <c r="G16" s="59"/>
-      <c r="H16" s="50"/>
+      <c r="D16" s="54"/>
+      <c r="E16" s="56"/>
+      <c r="F16" s="54"/>
+      <c r="G16" s="56"/>
+      <c r="H16" s="54"/>
       <c r="I16" s="43"/>
     </row>
     <row r="17" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1613,15 +1607,15 @@
         <v>0</v>
       </c>
       <c r="C17" s="18"/>
-      <c r="D17" s="46" t="s">
+      <c r="D17" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="E17" s="59"/>
-      <c r="F17" s="46" t="s">
+      <c r="E17" s="56"/>
+      <c r="F17" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="G17" s="59"/>
-      <c r="H17" s="46" t="s">
+      <c r="G17" s="56"/>
+      <c r="H17" s="58" t="s">
         <v>29</v>
       </c>
       <c r="I17" s="43"/>
@@ -1632,49 +1626,49 @@
         <v>3</v>
       </c>
       <c r="C18" s="12"/>
-      <c r="D18" s="47"/>
+      <c r="D18" s="51"/>
       <c r="E18" s="57"/>
-      <c r="F18" s="47"/>
+      <c r="F18" s="51"/>
       <c r="G18" s="57"/>
-      <c r="H18" s="47"/>
+      <c r="H18" s="51"/>
       <c r="I18" s="45"/>
     </row>
     <row r="19" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="52">
+      <c r="A19" s="46">
         <v>10</v>
       </c>
       <c r="B19" s="36" t="s">
         <v>1</v>
       </c>
       <c r="C19" s="18"/>
-      <c r="D19" s="48" t="s">
+      <c r="D19" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="E19" s="48" t="s">
+      <c r="E19" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="F19" s="48" t="s">
+      <c r="F19" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="G19" s="58" t="s">
+      <c r="G19" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="H19" s="48" t="s">
+      <c r="H19" s="52" t="s">
         <v>30</v>
       </c>
       <c r="I19" s="25"/>
     </row>
     <row r="20" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="53"/>
+      <c r="A20" s="48"/>
       <c r="B20" s="26" t="s">
         <v>2</v>
       </c>
       <c r="C20" s="17"/>
-      <c r="D20" s="49"/>
-      <c r="E20" s="49"/>
-      <c r="F20" s="49"/>
-      <c r="G20" s="59"/>
-      <c r="H20" s="49"/>
+      <c r="D20" s="53"/>
+      <c r="E20" s="53"/>
+      <c r="F20" s="53"/>
+      <c r="G20" s="56"/>
+      <c r="H20" s="53"/>
       <c r="I20" s="17"/>
     </row>
     <row r="21" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1683,11 +1677,11 @@
         <v>0</v>
       </c>
       <c r="C21" s="18"/>
-      <c r="D21" s="49"/>
-      <c r="E21" s="49"/>
-      <c r="F21" s="49"/>
-      <c r="G21" s="59"/>
-      <c r="H21" s="49"/>
+      <c r="D21" s="53"/>
+      <c r="E21" s="53"/>
+      <c r="F21" s="53"/>
+      <c r="G21" s="56"/>
+      <c r="H21" s="53"/>
       <c r="I21" s="18"/>
     </row>
     <row r="22" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1696,49 +1690,49 @@
         <v>3</v>
       </c>
       <c r="C22" s="12"/>
-      <c r="D22" s="47"/>
-      <c r="E22" s="47"/>
-      <c r="F22" s="47"/>
+      <c r="D22" s="51"/>
+      <c r="E22" s="51"/>
+      <c r="F22" s="51"/>
       <c r="G22" s="57"/>
-      <c r="H22" s="47"/>
+      <c r="H22" s="51"/>
       <c r="I22" s="17"/>
     </row>
     <row r="23" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="52">
+      <c r="A23" s="46">
         <v>11</v>
       </c>
       <c r="B23" s="36" t="s">
         <v>1</v>
       </c>
       <c r="C23" s="18"/>
-      <c r="D23" s="48" t="s">
+      <c r="D23" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="E23" s="58" t="s">
+      <c r="E23" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="F23" s="48" t="s">
+      <c r="F23" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="G23" s="58" t="s">
+      <c r="G23" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="H23" s="48" t="s">
+      <c r="H23" s="52" t="s">
         <v>30</v>
       </c>
       <c r="I23" s="25"/>
     </row>
     <row r="24" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="53"/>
+      <c r="A24" s="48"/>
       <c r="B24" s="26" t="s">
         <v>2</v>
       </c>
       <c r="C24" s="17"/>
-      <c r="D24" s="49"/>
-      <c r="E24" s="59"/>
-      <c r="F24" s="49"/>
-      <c r="G24" s="59"/>
-      <c r="H24" s="49"/>
+      <c r="D24" s="53"/>
+      <c r="E24" s="56"/>
+      <c r="F24" s="53"/>
+      <c r="G24" s="56"/>
+      <c r="H24" s="53"/>
       <c r="I24" s="17"/>
     </row>
     <row r="25" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1747,11 +1741,11 @@
         <v>0</v>
       </c>
       <c r="C25" s="18"/>
-      <c r="D25" s="49"/>
-      <c r="E25" s="59"/>
-      <c r="F25" s="49"/>
-      <c r="G25" s="59"/>
-      <c r="H25" s="49"/>
+      <c r="D25" s="53"/>
+      <c r="E25" s="56"/>
+      <c r="F25" s="53"/>
+      <c r="G25" s="56"/>
+      <c r="H25" s="53"/>
       <c r="I25" s="18"/>
     </row>
     <row r="26" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1760,49 +1754,49 @@
         <v>3</v>
       </c>
       <c r="C26" s="12"/>
-      <c r="D26" s="47"/>
+      <c r="D26" s="51"/>
       <c r="E26" s="57"/>
-      <c r="F26" s="47"/>
+      <c r="F26" s="51"/>
       <c r="G26" s="57"/>
-      <c r="H26" s="47"/>
+      <c r="H26" s="51"/>
       <c r="I26" s="17"/>
     </row>
     <row r="27" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="52">
+      <c r="A27" s="46">
         <v>12</v>
       </c>
       <c r="B27" s="36" t="s">
         <v>8</v>
       </c>
       <c r="C27" s="18"/>
-      <c r="D27" s="48" t="s">
+      <c r="D27" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="E27" s="48" t="s">
+      <c r="E27" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="F27" s="48" t="s">
+      <c r="F27" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="G27" s="48" t="s">
+      <c r="G27" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="H27" s="48" t="s">
+      <c r="H27" s="52" t="s">
         <v>30</v>
       </c>
       <c r="I27" s="25"/>
     </row>
     <row r="28" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="53"/>
+      <c r="A28" s="48"/>
       <c r="B28" s="26" t="s">
         <v>2</v>
       </c>
       <c r="C28" s="17"/>
-      <c r="D28" s="50"/>
-      <c r="E28" s="50"/>
-      <c r="F28" s="50"/>
-      <c r="G28" s="50"/>
-      <c r="H28" s="50"/>
+      <c r="D28" s="54"/>
+      <c r="E28" s="54"/>
+      <c r="F28" s="54"/>
+      <c r="G28" s="54"/>
+      <c r="H28" s="54"/>
       <c r="I28" s="17"/>
     </row>
     <row r="29" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1811,19 +1805,19 @@
         <v>0</v>
       </c>
       <c r="C29" s="18"/>
-      <c r="D29" s="46" t="s">
+      <c r="D29" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="E29" s="48" t="s">
+      <c r="E29" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="F29" s="46" t="s">
+      <c r="F29" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="G29" s="48" t="s">
+      <c r="G29" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="H29" s="46" t="s">
+      <c r="H29" s="58" t="s">
         <v>31</v>
       </c>
       <c r="I29" s="18"/>
@@ -1834,49 +1828,49 @@
         <v>3</v>
       </c>
       <c r="C30" s="12"/>
-      <c r="D30" s="47"/>
-      <c r="E30" s="50"/>
-      <c r="F30" s="47"/>
-      <c r="G30" s="50"/>
-      <c r="H30" s="47"/>
+      <c r="D30" s="51"/>
+      <c r="E30" s="54"/>
+      <c r="F30" s="51"/>
+      <c r="G30" s="54"/>
+      <c r="H30" s="51"/>
       <c r="I30" s="17"/>
     </row>
     <row r="31" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="52">
+      <c r="A31" s="46">
         <v>1</v>
       </c>
       <c r="B31" s="36" t="s">
         <v>8</v>
       </c>
       <c r="C31" s="18"/>
-      <c r="D31" s="48" t="s">
+      <c r="D31" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="E31" s="48" t="s">
+      <c r="E31" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="F31" s="48" t="s">
+      <c r="F31" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="G31" s="48" t="s">
+      <c r="G31" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="H31" s="48" t="s">
+      <c r="H31" s="52" t="s">
         <v>32</v>
       </c>
       <c r="I31" s="25"/>
     </row>
     <row r="32" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="53"/>
+      <c r="A32" s="48"/>
       <c r="B32" s="26" t="s">
         <v>2</v>
       </c>
       <c r="C32" s="17"/>
-      <c r="D32" s="50"/>
-      <c r="E32" s="49"/>
-      <c r="F32" s="50"/>
-      <c r="G32" s="49"/>
-      <c r="H32" s="50"/>
+      <c r="D32" s="54"/>
+      <c r="E32" s="53"/>
+      <c r="F32" s="54"/>
+      <c r="G32" s="53"/>
+      <c r="H32" s="54"/>
       <c r="I32" s="17"/>
     </row>
     <row r="33" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1885,15 +1879,15 @@
         <v>0</v>
       </c>
       <c r="C33" s="18"/>
-      <c r="D33" s="56" t="s">
+      <c r="D33" s="59" t="s">
         <v>29</v>
       </c>
-      <c r="E33" s="49"/>
-      <c r="F33" s="46" t="s">
+      <c r="E33" s="53"/>
+      <c r="F33" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="G33" s="49"/>
-      <c r="H33" s="46" t="s">
+      <c r="G33" s="53"/>
+      <c r="H33" s="58" t="s">
         <v>29</v>
       </c>
       <c r="I33" s="18"/>
@@ -1905,48 +1899,48 @@
       </c>
       <c r="C34" s="12"/>
       <c r="D34" s="57"/>
-      <c r="E34" s="47"/>
-      <c r="F34" s="47"/>
-      <c r="G34" s="47"/>
-      <c r="H34" s="47"/>
+      <c r="E34" s="51"/>
+      <c r="F34" s="51"/>
+      <c r="G34" s="51"/>
+      <c r="H34" s="51"/>
       <c r="I34" s="17"/>
     </row>
     <row r="35" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="52">
+      <c r="A35" s="46">
         <v>2</v>
       </c>
       <c r="B35" s="36" t="s">
         <v>8</v>
       </c>
       <c r="C35" s="18"/>
-      <c r="D35" s="58" t="s">
+      <c r="D35" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="E35" s="48" t="s">
+      <c r="E35" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="F35" s="48" t="s">
+      <c r="F35" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="G35" s="48" t="s">
+      <c r="G35" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="H35" s="48" t="s">
+      <c r="H35" s="52" t="s">
         <v>29</v>
       </c>
       <c r="I35" s="25"/>
     </row>
     <row r="36" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="53"/>
+      <c r="A36" s="48"/>
       <c r="B36" s="26" t="s">
         <v>2</v>
       </c>
       <c r="C36" s="17"/>
-      <c r="D36" s="59"/>
-      <c r="E36" s="49"/>
-      <c r="F36" s="49"/>
-      <c r="G36" s="49"/>
-      <c r="H36" s="49"/>
+      <c r="D36" s="56"/>
+      <c r="E36" s="53"/>
+      <c r="F36" s="53"/>
+      <c r="G36" s="53"/>
+      <c r="H36" s="53"/>
       <c r="I36" s="17"/>
     </row>
     <row r="37" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1955,11 +1949,11 @@
         <v>0</v>
       </c>
       <c r="C37" s="18"/>
-      <c r="D37" s="59"/>
-      <c r="E37" s="49"/>
-      <c r="F37" s="49"/>
-      <c r="G37" s="49"/>
-      <c r="H37" s="49"/>
+      <c r="D37" s="56"/>
+      <c r="E37" s="53"/>
+      <c r="F37" s="53"/>
+      <c r="G37" s="53"/>
+      <c r="H37" s="53"/>
       <c r="I37" s="18"/>
     </row>
     <row r="38" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1969,48 +1963,48 @@
       </c>
       <c r="C38" s="12"/>
       <c r="D38" s="57"/>
-      <c r="E38" s="47"/>
-      <c r="F38" s="47"/>
-      <c r="G38" s="47"/>
-      <c r="H38" s="47"/>
+      <c r="E38" s="51"/>
+      <c r="F38" s="51"/>
+      <c r="G38" s="51"/>
+      <c r="H38" s="51"/>
       <c r="I38" s="17"/>
     </row>
     <row r="39" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="52">
+      <c r="A39" s="46">
         <v>3</v>
       </c>
       <c r="B39" s="36" t="s">
         <v>8</v>
       </c>
       <c r="C39" s="18"/>
-      <c r="D39" s="46" t="s">
+      <c r="D39" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="E39" s="58" t="s">
+      <c r="E39" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="F39" s="48" t="s">
+      <c r="F39" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="G39" s="48" t="s">
+      <c r="G39" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="H39" s="46" t="s">
+      <c r="H39" s="58" t="s">
         <v>29</v>
       </c>
       <c r="I39" s="25"/>
     </row>
     <row r="40" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="53"/>
+      <c r="A40" s="48"/>
       <c r="B40" s="26" t="s">
         <v>2</v>
       </c>
       <c r="C40" s="17"/>
-      <c r="D40" s="47"/>
-      <c r="E40" s="59"/>
-      <c r="F40" s="49"/>
-      <c r="G40" s="49"/>
-      <c r="H40" s="47"/>
+      <c r="D40" s="51"/>
+      <c r="E40" s="56"/>
+      <c r="F40" s="53"/>
+      <c r="G40" s="53"/>
+      <c r="H40" s="51"/>
       <c r="I40" s="17"/>
     </row>
     <row r="41" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2019,13 +2013,13 @@
         <v>0</v>
       </c>
       <c r="C41" s="18"/>
-      <c r="D41" s="58" t="s">
+      <c r="D41" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="E41" s="59"/>
-      <c r="F41" s="49"/>
-      <c r="G41" s="49"/>
-      <c r="H41" s="58" t="s">
+      <c r="E41" s="56"/>
+      <c r="F41" s="53"/>
+      <c r="G41" s="53"/>
+      <c r="H41" s="55" t="s">
         <v>33</v>
       </c>
       <c r="I41" s="18"/>
@@ -2038,47 +2032,47 @@
       <c r="C42" s="12"/>
       <c r="D42" s="57"/>
       <c r="E42" s="57"/>
-      <c r="F42" s="47"/>
-      <c r="G42" s="47"/>
+      <c r="F42" s="51"/>
+      <c r="G42" s="51"/>
       <c r="H42" s="57"/>
       <c r="I42" s="17"/>
     </row>
     <row r="43" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="52">
+      <c r="A43" s="46">
         <v>4</v>
       </c>
       <c r="B43" s="36" t="s">
         <v>8</v>
       </c>
       <c r="C43" s="18"/>
-      <c r="D43" s="58" t="s">
+      <c r="D43" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="E43" s="58" t="s">
+      <c r="E43" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="F43" s="48" t="s">
+      <c r="F43" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="G43" s="48" t="s">
+      <c r="G43" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="H43" s="58" t="s">
+      <c r="H43" s="55" t="s">
         <v>33</v>
       </c>
       <c r="I43" s="25"/>
     </row>
     <row r="44" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="53"/>
+      <c r="A44" s="48"/>
       <c r="B44" s="26" t="s">
         <v>2</v>
       </c>
       <c r="C44" s="17"/>
-      <c r="D44" s="59"/>
-      <c r="E44" s="59"/>
-      <c r="F44" s="49"/>
-      <c r="G44" s="49"/>
-      <c r="H44" s="59"/>
+      <c r="D44" s="56"/>
+      <c r="E44" s="56"/>
+      <c r="F44" s="53"/>
+      <c r="G44" s="53"/>
+      <c r="H44" s="56"/>
       <c r="I44" s="17"/>
     </row>
     <row r="45" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2087,11 +2081,11 @@
         <v>0</v>
       </c>
       <c r="C45" s="18"/>
-      <c r="D45" s="59"/>
-      <c r="E45" s="59"/>
-      <c r="F45" s="49"/>
-      <c r="G45" s="49"/>
-      <c r="H45" s="59"/>
+      <c r="D45" s="56"/>
+      <c r="E45" s="56"/>
+      <c r="F45" s="53"/>
+      <c r="G45" s="53"/>
+      <c r="H45" s="56"/>
       <c r="I45" s="18"/>
     </row>
     <row r="46" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2102,127 +2096,127 @@
       <c r="C46" s="12"/>
       <c r="D46" s="57"/>
       <c r="E46" s="57"/>
-      <c r="F46" s="47"/>
-      <c r="G46" s="47"/>
+      <c r="F46" s="51"/>
+      <c r="G46" s="51"/>
       <c r="H46" s="57"/>
       <c r="I46" s="17"/>
     </row>
     <row r="47" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="52">
+      <c r="A47" s="46">
         <v>5</v>
       </c>
       <c r="B47" s="36" t="s">
         <v>8</v>
       </c>
       <c r="C47" s="15"/>
-      <c r="D47" s="58" t="s">
+      <c r="D47" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="E47" s="46" t="s">
+      <c r="E47" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="F47" s="48" t="s">
+      <c r="F47" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="G47" s="46" t="s">
+      <c r="G47" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="H47" s="58" t="s">
+      <c r="H47" s="55" t="s">
         <v>33</v>
       </c>
       <c r="I47" s="15"/>
     </row>
     <row r="48" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="55"/>
+      <c r="A48" s="47"/>
       <c r="B48" s="33" t="s">
         <v>0</v>
       </c>
       <c r="C48" s="13"/>
       <c r="D48" s="57"/>
-      <c r="E48" s="47"/>
-      <c r="F48" s="47"/>
-      <c r="G48" s="47"/>
+      <c r="E48" s="51"/>
+      <c r="F48" s="51"/>
+      <c r="G48" s="51"/>
       <c r="H48" s="57"/>
       <c r="I48" s="13"/>
     </row>
     <row r="49" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="52">
+      <c r="A49" s="46">
         <v>6</v>
       </c>
       <c r="B49" s="36" t="s">
         <v>8</v>
       </c>
       <c r="C49" s="15"/>
-      <c r="D49" s="58" t="s">
+      <c r="D49" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="E49" s="56" t="s">
+      <c r="E49" s="59" t="s">
         <v>35</v>
       </c>
-      <c r="F49" s="48" t="s">
+      <c r="F49" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="G49" s="46" t="s">
+      <c r="G49" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="H49" s="58" t="s">
+      <c r="H49" s="55" t="s">
         <v>33</v>
       </c>
       <c r="I49" s="15"/>
     </row>
     <row r="50" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="55"/>
+      <c r="A50" s="47"/>
       <c r="B50" s="33" t="s">
         <v>0</v>
       </c>
       <c r="C50" s="13"/>
       <c r="D50" s="57"/>
       <c r="E50" s="57"/>
-      <c r="F50" s="47"/>
-      <c r="G50" s="47"/>
+      <c r="F50" s="51"/>
+      <c r="G50" s="51"/>
       <c r="H50" s="57"/>
       <c r="I50" s="13"/>
     </row>
     <row r="51" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="52">
+      <c r="A51" s="46">
         <v>7</v>
       </c>
       <c r="B51" s="36" t="s">
         <v>8</v>
       </c>
       <c r="C51" s="15"/>
-      <c r="D51" s="46" t="s">
+      <c r="D51" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="E51" s="56" t="s">
+      <c r="E51" s="59" t="s">
         <v>35</v>
       </c>
-      <c r="F51" s="46" t="s">
+      <c r="F51" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="G51" s="46" t="s">
+      <c r="G51" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="H51" s="46" t="s">
+      <c r="H51" s="58" t="s">
         <v>31</v>
       </c>
       <c r="I51" s="15"/>
     </row>
     <row r="52" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="55"/>
+      <c r="A52" s="47"/>
       <c r="B52" s="33" t="s">
         <v>0</v>
       </c>
       <c r="C52" s="13"/>
-      <c r="D52" s="47"/>
+      <c r="D52" s="51"/>
       <c r="E52" s="57"/>
-      <c r="F52" s="47"/>
-      <c r="G52" s="47"/>
-      <c r="H52" s="47"/>
+      <c r="F52" s="51"/>
+      <c r="G52" s="51"/>
+      <c r="H52" s="51"/>
       <c r="I52" s="13"/>
     </row>
     <row r="53" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="52">
+      <c r="A53" s="46">
         <v>8</v>
       </c>
       <c r="B53" s="36" t="s">
@@ -2232,7 +2226,7 @@
       <c r="D53" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="E53" s="56" t="s">
+      <c r="E53" s="59" t="s">
         <v>35</v>
       </c>
       <c r="F53" s="16" t="s">
@@ -2247,7 +2241,7 @@
       <c r="I53" s="15"/>
     </row>
     <row r="54" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="55"/>
+      <c r="A54" s="47"/>
       <c r="B54" s="33" t="s">
         <v>0</v>
       </c>
@@ -2268,130 +2262,47 @@
       <c r="I54" s="13"/>
     </row>
     <row r="55" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="52">
+      <c r="A55" s="46">
         <v>9</v>
       </c>
       <c r="B55" s="36" t="s">
         <v>8</v>
       </c>
       <c r="C55" s="15"/>
-      <c r="D55" s="46" t="s">
+      <c r="D55" s="58" t="s">
         <v>31</v>
       </c>
       <c r="E55" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="F55" s="46" t="s">
+      <c r="F55" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="G55" s="46" t="s">
+      <c r="G55" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="H55" s="46" t="s">
+      <c r="H55" s="58" t="s">
         <v>31</v>
       </c>
       <c r="I55" s="15"/>
     </row>
     <row r="56" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="55"/>
+      <c r="A56" s="47"/>
       <c r="B56" s="33" t="s">
         <v>0</v>
       </c>
       <c r="C56" s="13"/>
-      <c r="D56" s="47"/>
+      <c r="D56" s="51"/>
       <c r="E56" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="F56" s="47"/>
-      <c r="G56" s="47"/>
-      <c r="H56" s="47"/>
+      <c r="F56" s="51"/>
+      <c r="G56" s="51"/>
+      <c r="H56" s="51"/>
       <c r="I56" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="107">
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="D7:D10"/>
-    <mergeCell ref="D11:D14"/>
-    <mergeCell ref="D19:D22"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="D35:D38"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="F7:F10"/>
-    <mergeCell ref="H7:H10"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="E15:E18"/>
-    <mergeCell ref="G15:G18"/>
-    <mergeCell ref="E11:E14"/>
-    <mergeCell ref="F11:F14"/>
-    <mergeCell ref="G11:G14"/>
-    <mergeCell ref="H11:H14"/>
-    <mergeCell ref="F19:F22"/>
-    <mergeCell ref="H19:H22"/>
-    <mergeCell ref="D23:D26"/>
-    <mergeCell ref="F23:F26"/>
-    <mergeCell ref="H23:H26"/>
-    <mergeCell ref="E19:E22"/>
-    <mergeCell ref="G19:G22"/>
-    <mergeCell ref="E23:E26"/>
-    <mergeCell ref="G23:G26"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="H31:H32"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="H33:H34"/>
-    <mergeCell ref="E31:E34"/>
-    <mergeCell ref="G31:G34"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="G51:G52"/>
-    <mergeCell ref="F35:F38"/>
-    <mergeCell ref="H35:H38"/>
-    <mergeCell ref="D43:D46"/>
-    <mergeCell ref="H43:H46"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="H39:H40"/>
-    <mergeCell ref="H41:H42"/>
-    <mergeCell ref="E35:E38"/>
-    <mergeCell ref="G35:G38"/>
     <mergeCell ref="G55:G56"/>
     <mergeCell ref="E53:E54"/>
     <mergeCell ref="D55:D56"/>
@@ -2416,6 +2327,89 @@
     <mergeCell ref="D51:D52"/>
     <mergeCell ref="F51:F52"/>
     <mergeCell ref="H51:H52"/>
+    <mergeCell ref="G51:G52"/>
+    <mergeCell ref="F35:F38"/>
+    <mergeCell ref="H35:H38"/>
+    <mergeCell ref="D43:D46"/>
+    <mergeCell ref="H43:H46"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="E35:E38"/>
+    <mergeCell ref="G35:G38"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="H33:H34"/>
+    <mergeCell ref="E31:E34"/>
+    <mergeCell ref="G31:G34"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="F19:F22"/>
+    <mergeCell ref="H19:H22"/>
+    <mergeCell ref="D23:D26"/>
+    <mergeCell ref="F23:F26"/>
+    <mergeCell ref="H23:H26"/>
+    <mergeCell ref="E19:E22"/>
+    <mergeCell ref="G19:G22"/>
+    <mergeCell ref="E23:E26"/>
+    <mergeCell ref="G23:G26"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="E15:E18"/>
+    <mergeCell ref="G15:G18"/>
+    <mergeCell ref="E11:E14"/>
+    <mergeCell ref="F11:F14"/>
+    <mergeCell ref="G11:G14"/>
+    <mergeCell ref="H11:H14"/>
+    <mergeCell ref="F7:F10"/>
+    <mergeCell ref="H7:H10"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="D7:D10"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="D19:D22"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="D35:D38"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="A43:A44"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -2434,8 +2428,8 @@
   </sheetPr>
   <dimension ref="A1:I56"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F47" sqref="F47:F48"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="H41" sqref="H41:H50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2475,10 +2469,10 @@
       <c r="I2" s="22"/>
     </row>
     <row r="3" spans="1:9" s="23" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="54" t="s">
+      <c r="A3" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="54"/>
+      <c r="B3" s="49"/>
       <c r="G3" s="24" t="s">
         <v>27</v>
       </c>
@@ -2512,79 +2506,79 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="52">
+      <c r="A5" s="46">
         <v>6</v>
       </c>
       <c r="B5" s="36" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="44"/>
-      <c r="D5" s="51" t="s">
+      <c r="D5" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="51" t="s">
+      <c r="E5" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="51" t="s">
+      <c r="F5" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="51" t="s">
+      <c r="G5" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="51" t="s">
+      <c r="H5" s="50" t="s">
         <v>18</v>
       </c>
       <c r="I5" s="44"/>
     </row>
     <row r="6" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="55"/>
+      <c r="A6" s="47"/>
       <c r="B6" s="33" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="45"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="47"/>
-      <c r="H6" s="47"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="51"/>
+      <c r="F6" s="51"/>
+      <c r="G6" s="51"/>
+      <c r="H6" s="51"/>
       <c r="I6" s="45"/>
     </row>
     <row r="7" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="52">
+      <c r="A7" s="46">
         <v>7</v>
       </c>
       <c r="B7" s="36" t="s">
         <v>1</v>
       </c>
       <c r="C7" s="42"/>
-      <c r="D7" s="48" t="s">
+      <c r="D7" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="60" t="s">
+      <c r="E7" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="60" t="s">
+      <c r="F7" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="G7" s="48" t="s">
+      <c r="G7" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="H7" s="48" t="s">
+      <c r="H7" s="52" t="s">
         <v>18</v>
       </c>
       <c r="I7" s="44"/>
     </row>
     <row r="8" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="53"/>
+      <c r="A8" s="48"/>
       <c r="B8" s="26" t="s">
         <v>2</v>
       </c>
       <c r="C8" s="43"/>
-      <c r="D8" s="49"/>
-      <c r="E8" s="61"/>
-      <c r="F8" s="61"/>
-      <c r="G8" s="49"/>
-      <c r="H8" s="49"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="53"/>
+      <c r="G8" s="53"/>
+      <c r="H8" s="53"/>
       <c r="I8" s="43"/>
     </row>
     <row r="9" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -2593,15 +2587,15 @@
         <v>0</v>
       </c>
       <c r="C9" s="43"/>
-      <c r="D9" s="49"/>
-      <c r="E9" s="61" t="s">
+      <c r="D9" s="53"/>
+      <c r="E9" s="56" t="s">
         <v>28</v>
       </c>
-      <c r="F9" s="61"/>
-      <c r="G9" s="61" t="s">
+      <c r="F9" s="53"/>
+      <c r="G9" s="56" t="s">
         <v>28</v>
       </c>
-      <c r="H9" s="49"/>
+      <c r="H9" s="53"/>
       <c r="I9" s="43"/>
     </row>
     <row r="10" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -2610,49 +2604,49 @@
         <v>3</v>
       </c>
       <c r="C10" s="45"/>
-      <c r="D10" s="47"/>
-      <c r="E10" s="62"/>
-      <c r="F10" s="62"/>
-      <c r="G10" s="62"/>
-      <c r="H10" s="47"/>
+      <c r="D10" s="51"/>
+      <c r="E10" s="57"/>
+      <c r="F10" s="51"/>
+      <c r="G10" s="57"/>
+      <c r="H10" s="51"/>
       <c r="I10" s="45"/>
     </row>
     <row r="11" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="52">
+      <c r="A11" s="46">
         <v>8</v>
       </c>
       <c r="B11" s="36" t="s">
         <v>1</v>
       </c>
       <c r="C11" s="42"/>
-      <c r="D11" s="48" t="s">
+      <c r="D11" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="60" t="s">
+      <c r="E11" s="55" t="s">
         <v>36</v>
       </c>
-      <c r="F11" s="60" t="s">
+      <c r="F11" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="G11" s="60" t="s">
+      <c r="G11" s="55" t="s">
         <v>36</v>
       </c>
-      <c r="H11" s="48" t="s">
+      <c r="H11" s="52" t="s">
         <v>18</v>
       </c>
       <c r="I11" s="42"/>
     </row>
     <row r="12" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="53"/>
+      <c r="A12" s="48"/>
       <c r="B12" s="26" t="s">
         <v>2</v>
       </c>
       <c r="C12" s="43"/>
-      <c r="D12" s="49"/>
-      <c r="E12" s="61"/>
-      <c r="F12" s="61"/>
-      <c r="G12" s="61"/>
-      <c r="H12" s="49"/>
+      <c r="D12" s="53"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="53"/>
+      <c r="G12" s="56"/>
+      <c r="H12" s="53"/>
       <c r="I12" s="43"/>
     </row>
     <row r="13" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -2661,11 +2655,11 @@
         <v>0</v>
       </c>
       <c r="C13" s="43"/>
-      <c r="D13" s="49"/>
-      <c r="E13" s="61"/>
-      <c r="F13" s="61"/>
-      <c r="G13" s="61"/>
-      <c r="H13" s="49"/>
+      <c r="D13" s="53"/>
+      <c r="E13" s="56"/>
+      <c r="F13" s="53"/>
+      <c r="G13" s="56"/>
+      <c r="H13" s="53"/>
       <c r="I13" s="43"/>
     </row>
     <row r="14" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -2674,49 +2668,49 @@
         <v>3</v>
       </c>
       <c r="C14" s="45"/>
-      <c r="D14" s="47"/>
-      <c r="E14" s="62"/>
-      <c r="F14" s="62"/>
-      <c r="G14" s="62"/>
-      <c r="H14" s="47"/>
+      <c r="D14" s="51"/>
+      <c r="E14" s="57"/>
+      <c r="F14" s="51"/>
+      <c r="G14" s="57"/>
+      <c r="H14" s="51"/>
       <c r="I14" s="45"/>
     </row>
     <row r="15" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="52">
+      <c r="A15" s="46">
         <v>9</v>
       </c>
       <c r="B15" s="36" t="s">
         <v>1</v>
       </c>
       <c r="C15" s="18"/>
-      <c r="D15" s="48" t="s">
+      <c r="D15" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="E15" s="60" t="s">
+      <c r="E15" s="55" t="s">
         <v>36</v>
       </c>
-      <c r="F15" s="60" t="s">
+      <c r="F15" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="G15" s="60" t="s">
+      <c r="G15" s="55" t="s">
         <v>36</v>
       </c>
-      <c r="H15" s="48" t="s">
+      <c r="H15" s="52" t="s">
         <v>28</v>
       </c>
       <c r="I15" s="42"/>
     </row>
     <row r="16" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="53"/>
+      <c r="A16" s="48"/>
       <c r="B16" s="26" t="s">
         <v>2</v>
       </c>
       <c r="C16" s="17"/>
-      <c r="D16" s="50"/>
-      <c r="E16" s="61"/>
-      <c r="F16" s="63"/>
-      <c r="G16" s="61"/>
-      <c r="H16" s="50"/>
+      <c r="D16" s="54"/>
+      <c r="E16" s="56"/>
+      <c r="F16" s="54"/>
+      <c r="G16" s="56"/>
+      <c r="H16" s="54"/>
       <c r="I16" s="43"/>
     </row>
     <row r="17" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -2725,15 +2719,15 @@
         <v>0</v>
       </c>
       <c r="C17" s="18"/>
-      <c r="D17" s="46" t="s">
+      <c r="D17" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="E17" s="61"/>
-      <c r="F17" s="64" t="s">
+      <c r="E17" s="56"/>
+      <c r="F17" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="G17" s="61"/>
-      <c r="H17" s="46" t="s">
+      <c r="G17" s="56"/>
+      <c r="H17" s="58" t="s">
         <v>29</v>
       </c>
       <c r="I17" s="43"/>
@@ -2744,49 +2738,49 @@
         <v>3</v>
       </c>
       <c r="C18" s="12"/>
-      <c r="D18" s="47"/>
-      <c r="E18" s="62"/>
-      <c r="F18" s="62"/>
-      <c r="G18" s="62"/>
-      <c r="H18" s="47"/>
+      <c r="D18" s="51"/>
+      <c r="E18" s="57"/>
+      <c r="F18" s="51"/>
+      <c r="G18" s="57"/>
+      <c r="H18" s="51"/>
       <c r="I18" s="45"/>
     </row>
     <row r="19" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="52">
+      <c r="A19" s="46">
         <v>10</v>
       </c>
       <c r="B19" s="36" t="s">
         <v>1</v>
       </c>
       <c r="C19" s="18"/>
-      <c r="D19" s="48" t="s">
+      <c r="D19" s="55" t="s">
         <v>30</v>
       </c>
-      <c r="E19" s="60" t="s">
+      <c r="E19" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="F19" s="60" t="s">
+      <c r="F19" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="G19" s="60" t="s">
+      <c r="G19" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="H19" s="48" t="s">
+      <c r="H19" s="52" t="s">
         <v>30</v>
       </c>
       <c r="I19" s="25"/>
     </row>
     <row r="20" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="53"/>
+      <c r="A20" s="48"/>
       <c r="B20" s="26" t="s">
         <v>2</v>
       </c>
       <c r="C20" s="17"/>
-      <c r="D20" s="49"/>
-      <c r="E20" s="61"/>
-      <c r="F20" s="61"/>
-      <c r="G20" s="61"/>
-      <c r="H20" s="49"/>
+      <c r="D20" s="56"/>
+      <c r="E20" s="53"/>
+      <c r="F20" s="53"/>
+      <c r="G20" s="53"/>
+      <c r="H20" s="53"/>
       <c r="I20" s="17"/>
     </row>
     <row r="21" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -2795,11 +2789,11 @@
         <v>0</v>
       </c>
       <c r="C21" s="18"/>
-      <c r="D21" s="49"/>
-      <c r="E21" s="61"/>
-      <c r="F21" s="61"/>
-      <c r="G21" s="61"/>
-      <c r="H21" s="49"/>
+      <c r="D21" s="56"/>
+      <c r="E21" s="53"/>
+      <c r="F21" s="53"/>
+      <c r="G21" s="53"/>
+      <c r="H21" s="53"/>
       <c r="I21" s="18"/>
     </row>
     <row r="22" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -2808,49 +2802,49 @@
         <v>3</v>
       </c>
       <c r="C22" s="12"/>
-      <c r="D22" s="47"/>
-      <c r="E22" s="62"/>
-      <c r="F22" s="62"/>
-      <c r="G22" s="62"/>
-      <c r="H22" s="47"/>
+      <c r="D22" s="57"/>
+      <c r="E22" s="51"/>
+      <c r="F22" s="51"/>
+      <c r="G22" s="51"/>
+      <c r="H22" s="51"/>
       <c r="I22" s="17"/>
     </row>
     <row r="23" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="52">
+      <c r="A23" s="46">
         <v>11</v>
       </c>
       <c r="B23" s="36" t="s">
         <v>1</v>
       </c>
       <c r="C23" s="18"/>
-      <c r="D23" s="48" t="s">
+      <c r="D23" s="55" t="s">
         <v>30</v>
       </c>
-      <c r="E23" s="60" t="s">
+      <c r="E23" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="F23" s="60" t="s">
+      <c r="F23" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="G23" s="60" t="s">
+      <c r="G23" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="H23" s="48" t="s">
+      <c r="H23" s="52" t="s">
         <v>30</v>
       </c>
       <c r="I23" s="25"/>
     </row>
     <row r="24" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="53"/>
+      <c r="A24" s="48"/>
       <c r="B24" s="26" t="s">
         <v>2</v>
       </c>
       <c r="C24" s="17"/>
-      <c r="D24" s="49"/>
-      <c r="E24" s="61"/>
-      <c r="F24" s="61"/>
-      <c r="G24" s="61"/>
-      <c r="H24" s="49"/>
+      <c r="D24" s="56"/>
+      <c r="E24" s="56"/>
+      <c r="F24" s="53"/>
+      <c r="G24" s="56"/>
+      <c r="H24" s="53"/>
       <c r="I24" s="17"/>
     </row>
     <row r="25" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -2859,11 +2853,11 @@
         <v>0</v>
       </c>
       <c r="C25" s="18"/>
-      <c r="D25" s="49"/>
-      <c r="E25" s="61"/>
-      <c r="F25" s="61"/>
-      <c r="G25" s="61"/>
-      <c r="H25" s="49"/>
+      <c r="D25" s="56"/>
+      <c r="E25" s="56"/>
+      <c r="F25" s="53"/>
+      <c r="G25" s="56"/>
+      <c r="H25" s="53"/>
       <c r="I25" s="18"/>
     </row>
     <row r="26" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -2872,49 +2866,49 @@
         <v>3</v>
       </c>
       <c r="C26" s="12"/>
-      <c r="D26" s="47"/>
-      <c r="E26" s="62"/>
-      <c r="F26" s="62"/>
-      <c r="G26" s="62"/>
-      <c r="H26" s="47"/>
+      <c r="D26" s="57"/>
+      <c r="E26" s="57"/>
+      <c r="F26" s="51"/>
+      <c r="G26" s="57"/>
+      <c r="H26" s="51"/>
       <c r="I26" s="17"/>
     </row>
     <row r="27" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="52">
+      <c r="A27" s="46">
         <v>12</v>
       </c>
       <c r="B27" s="36" t="s">
         <v>8</v>
       </c>
       <c r="C27" s="18"/>
-      <c r="D27" s="48" t="s">
+      <c r="D27" s="55" t="s">
         <v>30</v>
       </c>
-      <c r="E27" s="60" t="s">
+      <c r="E27" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="F27" s="60" t="s">
+      <c r="F27" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="G27" s="48" t="s">
+      <c r="G27" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="H27" s="48" t="s">
+      <c r="H27" s="52" t="s">
         <v>30</v>
       </c>
       <c r="I27" s="25"/>
     </row>
     <row r="28" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="53"/>
+      <c r="A28" s="48"/>
       <c r="B28" s="26" t="s">
         <v>2</v>
       </c>
       <c r="C28" s="17"/>
-      <c r="D28" s="50"/>
-      <c r="E28" s="63"/>
-      <c r="F28" s="63"/>
-      <c r="G28" s="50"/>
-      <c r="H28" s="50"/>
+      <c r="D28" s="60"/>
+      <c r="E28" s="54"/>
+      <c r="F28" s="54"/>
+      <c r="G28" s="54"/>
+      <c r="H28" s="54"/>
       <c r="I28" s="17"/>
     </row>
     <row r="29" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -2923,19 +2917,19 @@
         <v>0</v>
       </c>
       <c r="C29" s="18"/>
-      <c r="D29" s="46" t="s">
+      <c r="D29" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="E29" s="60" t="s">
+      <c r="E29" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="F29" s="64" t="s">
+      <c r="F29" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="G29" s="48" t="s">
+      <c r="G29" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="H29" s="46" t="s">
+      <c r="H29" s="58" t="s">
         <v>31</v>
       </c>
       <c r="I29" s="18"/>
@@ -2946,49 +2940,49 @@
         <v>3</v>
       </c>
       <c r="C30" s="12"/>
-      <c r="D30" s="47"/>
-      <c r="E30" s="63"/>
-      <c r="F30" s="62"/>
-      <c r="G30" s="50"/>
-      <c r="H30" s="47"/>
+      <c r="D30" s="51"/>
+      <c r="E30" s="54"/>
+      <c r="F30" s="51"/>
+      <c r="G30" s="54"/>
+      <c r="H30" s="51"/>
       <c r="I30" s="17"/>
     </row>
     <row r="31" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="52">
+      <c r="A31" s="46">
         <v>1</v>
       </c>
       <c r="B31" s="36" t="s">
         <v>8</v>
       </c>
       <c r="C31" s="18"/>
-      <c r="D31" s="60" t="s">
+      <c r="D31" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="E31" s="60" t="s">
+      <c r="E31" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="F31" s="60" t="s">
+      <c r="F31" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="G31" s="48" t="s">
+      <c r="G31" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="H31" s="48" t="s">
+      <c r="H31" s="52" t="s">
         <v>32</v>
       </c>
       <c r="I31" s="25"/>
     </row>
     <row r="32" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="53"/>
+      <c r="A32" s="48"/>
       <c r="B32" s="26" t="s">
         <v>2</v>
       </c>
       <c r="C32" s="17"/>
-      <c r="D32" s="63"/>
-      <c r="E32" s="61"/>
-      <c r="F32" s="63"/>
-      <c r="G32" s="49"/>
-      <c r="H32" s="50"/>
+      <c r="D32" s="54"/>
+      <c r="E32" s="53"/>
+      <c r="F32" s="54"/>
+      <c r="G32" s="53"/>
+      <c r="H32" s="54"/>
       <c r="I32" s="17"/>
     </row>
     <row r="33" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -2997,15 +2991,15 @@
         <v>0</v>
       </c>
       <c r="C33" s="18"/>
-      <c r="D33" s="64" t="s">
+      <c r="D33" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="E33" s="61"/>
-      <c r="F33" s="64" t="s">
+      <c r="E33" s="53"/>
+      <c r="F33" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="G33" s="49"/>
-      <c r="H33" s="46" t="s">
+      <c r="G33" s="53"/>
+      <c r="H33" s="58" t="s">
         <v>29</v>
       </c>
       <c r="I33" s="18"/>
@@ -3016,49 +3010,49 @@
         <v>3</v>
       </c>
       <c r="C34" s="12"/>
-      <c r="D34" s="62"/>
-      <c r="E34" s="62"/>
-      <c r="F34" s="62"/>
-      <c r="G34" s="47"/>
-      <c r="H34" s="47"/>
+      <c r="D34" s="51"/>
+      <c r="E34" s="51"/>
+      <c r="F34" s="51"/>
+      <c r="G34" s="51"/>
+      <c r="H34" s="51"/>
       <c r="I34" s="17"/>
     </row>
     <row r="35" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="52">
+      <c r="A35" s="46">
         <v>2</v>
       </c>
       <c r="B35" s="36" t="s">
         <v>8</v>
       </c>
       <c r="C35" s="18"/>
-      <c r="D35" s="60" t="s">
+      <c r="D35" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="E35" s="60" t="s">
+      <c r="E35" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="F35" s="60" t="s">
+      <c r="F35" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="G35" s="48" t="s">
+      <c r="G35" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="H35" s="48" t="s">
+      <c r="H35" s="52" t="s">
         <v>29</v>
       </c>
       <c r="I35" s="25"/>
     </row>
     <row r="36" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="53"/>
+      <c r="A36" s="48"/>
       <c r="B36" s="26" t="s">
         <v>2</v>
       </c>
       <c r="C36" s="17"/>
-      <c r="D36" s="61"/>
-      <c r="E36" s="61"/>
-      <c r="F36" s="61"/>
-      <c r="G36" s="49"/>
-      <c r="H36" s="49"/>
+      <c r="D36" s="53"/>
+      <c r="E36" s="53"/>
+      <c r="F36" s="53"/>
+      <c r="G36" s="53"/>
+      <c r="H36" s="53"/>
       <c r="I36" s="17"/>
     </row>
     <row r="37" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -3067,11 +3061,11 @@
         <v>0</v>
       </c>
       <c r="C37" s="18"/>
-      <c r="D37" s="61"/>
-      <c r="E37" s="61"/>
-      <c r="F37" s="61"/>
-      <c r="G37" s="49"/>
-      <c r="H37" s="49"/>
+      <c r="D37" s="53"/>
+      <c r="E37" s="53"/>
+      <c r="F37" s="53"/>
+      <c r="G37" s="53"/>
+      <c r="H37" s="53"/>
       <c r="I37" s="18"/>
     </row>
     <row r="38" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -3080,49 +3074,49 @@
         <v>3</v>
       </c>
       <c r="C38" s="12"/>
-      <c r="D38" s="62"/>
-      <c r="E38" s="62"/>
-      <c r="F38" s="62"/>
-      <c r="G38" s="47"/>
-      <c r="H38" s="47"/>
+      <c r="D38" s="51"/>
+      <c r="E38" s="51"/>
+      <c r="F38" s="51"/>
+      <c r="G38" s="51"/>
+      <c r="H38" s="51"/>
       <c r="I38" s="17"/>
     </row>
     <row r="39" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="52">
+      <c r="A39" s="46">
         <v>3</v>
       </c>
       <c r="B39" s="36" t="s">
         <v>8</v>
       </c>
       <c r="C39" s="18"/>
-      <c r="D39" s="64" t="s">
+      <c r="D39" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="E39" s="60" t="s">
+      <c r="E39" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="F39" s="60" t="s">
+      <c r="F39" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="G39" s="48" t="s">
+      <c r="G39" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="H39" s="46" t="s">
+      <c r="H39" s="58" t="s">
         <v>29</v>
       </c>
       <c r="I39" s="25"/>
     </row>
     <row r="40" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="53"/>
+      <c r="A40" s="48"/>
       <c r="B40" s="26" t="s">
         <v>2</v>
       </c>
       <c r="C40" s="17"/>
-      <c r="D40" s="62"/>
-      <c r="E40" s="61"/>
-      <c r="F40" s="61"/>
-      <c r="G40" s="49"/>
-      <c r="H40" s="47"/>
+      <c r="D40" s="51"/>
+      <c r="E40" s="56"/>
+      <c r="F40" s="53"/>
+      <c r="G40" s="56"/>
+      <c r="H40" s="51"/>
       <c r="I40" s="17"/>
     </row>
     <row r="41" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
@@ -3131,13 +3125,13 @@
         <v>0</v>
       </c>
       <c r="C41" s="18"/>
-      <c r="D41" s="60" t="s">
+      <c r="D41" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="E41" s="61"/>
-      <c r="F41" s="61"/>
-      <c r="G41" s="49"/>
-      <c r="H41" s="48" t="s">
+      <c r="E41" s="56"/>
+      <c r="F41" s="53"/>
+      <c r="G41" s="56"/>
+      <c r="H41" s="55" t="s">
         <v>33</v>
       </c>
       <c r="I41" s="18"/>
@@ -3148,49 +3142,49 @@
         <v>3</v>
       </c>
       <c r="C42" s="12"/>
-      <c r="D42" s="62"/>
-      <c r="E42" s="62"/>
-      <c r="F42" s="62"/>
-      <c r="G42" s="47"/>
-      <c r="H42" s="47"/>
+      <c r="D42" s="57"/>
+      <c r="E42" s="57"/>
+      <c r="F42" s="51"/>
+      <c r="G42" s="57"/>
+      <c r="H42" s="57"/>
       <c r="I42" s="17"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A43" s="52">
+      <c r="A43" s="46">
         <v>4</v>
       </c>
       <c r="B43" s="36" t="s">
         <v>8</v>
       </c>
       <c r="C43" s="18"/>
-      <c r="D43" s="60" t="s">
+      <c r="D43" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="E43" s="60" t="s">
+      <c r="E43" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="F43" s="60" t="s">
+      <c r="F43" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="G43" s="48" t="s">
+      <c r="G43" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="H43" s="48" t="s">
+      <c r="H43" s="55" t="s">
         <v>33</v>
       </c>
       <c r="I43" s="25"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A44" s="53"/>
+      <c r="A44" s="48"/>
       <c r="B44" s="26" t="s">
         <v>2</v>
       </c>
       <c r="C44" s="17"/>
-      <c r="D44" s="61"/>
-      <c r="E44" s="61"/>
-      <c r="F44" s="61"/>
-      <c r="G44" s="49"/>
-      <c r="H44" s="49"/>
+      <c r="D44" s="56"/>
+      <c r="E44" s="53"/>
+      <c r="F44" s="53"/>
+      <c r="G44" s="53"/>
+      <c r="H44" s="56"/>
       <c r="I44" s="17"/>
     </row>
     <row r="45" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
@@ -3199,11 +3193,11 @@
         <v>0</v>
       </c>
       <c r="C45" s="18"/>
-      <c r="D45" s="61"/>
-      <c r="E45" s="61"/>
-      <c r="F45" s="61"/>
-      <c r="G45" s="49"/>
-      <c r="H45" s="49"/>
+      <c r="D45" s="56"/>
+      <c r="E45" s="53"/>
+      <c r="F45" s="53"/>
+      <c r="G45" s="53"/>
+      <c r="H45" s="56"/>
       <c r="I45" s="18"/>
     </row>
     <row r="46" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
@@ -3212,129 +3206,129 @@
         <v>3</v>
       </c>
       <c r="C46" s="12"/>
-      <c r="D46" s="62"/>
-      <c r="E46" s="62"/>
-      <c r="F46" s="62"/>
-      <c r="G46" s="47"/>
-      <c r="H46" s="47"/>
+      <c r="D46" s="57"/>
+      <c r="E46" s="51"/>
+      <c r="F46" s="51"/>
+      <c r="G46" s="51"/>
+      <c r="H46" s="57"/>
       <c r="I46" s="17"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A47" s="52">
+      <c r="A47" s="46">
         <v>5</v>
       </c>
       <c r="B47" s="36" t="s">
         <v>8</v>
       </c>
       <c r="C47" s="15"/>
-      <c r="D47" s="60" t="s">
+      <c r="D47" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="E47" s="64" t="s">
+      <c r="E47" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="F47" s="48" t="s">
+      <c r="F47" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="G47" s="46" t="s">
+      <c r="G47" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="H47" s="48" t="s">
+      <c r="H47" s="55" t="s">
         <v>33</v>
       </c>
       <c r="I47" s="15"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A48" s="55"/>
+      <c r="A48" s="47"/>
       <c r="B48" s="33" t="s">
         <v>0</v>
       </c>
       <c r="C48" s="13"/>
-      <c r="D48" s="62"/>
-      <c r="E48" s="62"/>
-      <c r="F48" s="47"/>
-      <c r="G48" s="47"/>
-      <c r="H48" s="47"/>
+      <c r="D48" s="57"/>
+      <c r="E48" s="51"/>
+      <c r="F48" s="51"/>
+      <c r="G48" s="51"/>
+      <c r="H48" s="57"/>
       <c r="I48" s="13"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A49" s="52">
+      <c r="A49" s="46">
         <v>6</v>
       </c>
       <c r="B49" s="36" t="s">
         <v>8</v>
       </c>
       <c r="C49" s="15"/>
-      <c r="D49" s="60" t="s">
+      <c r="D49" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="E49" s="64" t="s">
+      <c r="E49" s="59" t="s">
         <v>35</v>
       </c>
-      <c r="F49" s="48" t="s">
+      <c r="F49" s="61" t="s">
         <v>33</v>
       </c>
-      <c r="G49" s="46" t="s">
+      <c r="G49" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="H49" s="48" t="s">
+      <c r="H49" s="55" t="s">
         <v>33</v>
       </c>
       <c r="I49" s="15"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A50" s="55"/>
+      <c r="A50" s="47"/>
       <c r="B50" s="33" t="s">
         <v>0</v>
       </c>
       <c r="C50" s="13"/>
-      <c r="D50" s="62"/>
-      <c r="E50" s="62"/>
-      <c r="F50" s="47"/>
-      <c r="G50" s="47"/>
-      <c r="H50" s="47"/>
+      <c r="D50" s="57"/>
+      <c r="E50" s="57"/>
+      <c r="F50" s="62"/>
+      <c r="G50" s="51"/>
+      <c r="H50" s="57"/>
       <c r="I50" s="13"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A51" s="52">
+      <c r="A51" s="46">
         <v>7</v>
       </c>
       <c r="B51" s="36" t="s">
         <v>8</v>
       </c>
       <c r="C51" s="15"/>
-      <c r="D51" s="46" t="s">
+      <c r="D51" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="E51" s="64" t="s">
+      <c r="E51" s="59" t="s">
         <v>35</v>
       </c>
-      <c r="F51" s="46" t="s">
+      <c r="F51" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="G51" s="46" t="s">
+      <c r="G51" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="H51" s="46" t="s">
+      <c r="H51" s="58" t="s">
         <v>31</v>
       </c>
       <c r="I51" s="15"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A52" s="55"/>
+      <c r="A52" s="47"/>
       <c r="B52" s="33" t="s">
         <v>0</v>
       </c>
       <c r="C52" s="13"/>
-      <c r="D52" s="47"/>
-      <c r="E52" s="62"/>
-      <c r="F52" s="47"/>
-      <c r="G52" s="47"/>
-      <c r="H52" s="47"/>
+      <c r="D52" s="51"/>
+      <c r="E52" s="57"/>
+      <c r="F52" s="51"/>
+      <c r="G52" s="51"/>
+      <c r="H52" s="51"/>
       <c r="I52" s="13"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A53" s="52">
+      <c r="A53" s="46">
         <v>8</v>
       </c>
       <c r="B53" s="36" t="s">
@@ -3344,7 +3338,7 @@
       <c r="D53" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="E53" s="64" t="s">
+      <c r="E53" s="59" t="s">
         <v>35</v>
       </c>
       <c r="F53" s="16" t="s">
@@ -3359,7 +3353,7 @@
       <c r="I53" s="15"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A54" s="55"/>
+      <c r="A54" s="47"/>
       <c r="B54" s="33" t="s">
         <v>0</v>
       </c>
@@ -3367,7 +3361,7 @@
       <c r="D54" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="E54" s="62"/>
+      <c r="E54" s="57"/>
       <c r="F54" s="14" t="s">
         <v>31</v>
       </c>
@@ -3380,87 +3374,101 @@
       <c r="I54" s="13"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A55" s="52">
+      <c r="A55" s="46">
         <v>9</v>
       </c>
       <c r="B55" s="36" t="s">
         <v>8</v>
       </c>
       <c r="C55" s="15"/>
-      <c r="D55" s="46" t="s">
+      <c r="D55" s="58" t="s">
         <v>31</v>
       </c>
       <c r="E55" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="F55" s="46" t="s">
+      <c r="F55" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="G55" s="46" t="s">
+      <c r="G55" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="H55" s="46" t="s">
+      <c r="H55" s="58" t="s">
         <v>31</v>
       </c>
       <c r="I55" s="15"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A56" s="55"/>
+      <c r="A56" s="47"/>
       <c r="B56" s="33" t="s">
         <v>0</v>
       </c>
       <c r="C56" s="13"/>
-      <c r="D56" s="47"/>
+      <c r="D56" s="51"/>
       <c r="E56" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="F56" s="47"/>
-      <c r="G56" s="47"/>
-      <c r="H56" s="47"/>
+      <c r="F56" s="51"/>
+      <c r="G56" s="51"/>
+      <c r="H56" s="51"/>
       <c r="I56" s="13"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="107">
-    <mergeCell ref="H51:H52"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="F55:F56"/>
-    <mergeCell ref="G55:G56"/>
-    <mergeCell ref="H55:H56"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="G51:G52"/>
-    <mergeCell ref="H47:H48"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="F49:F50"/>
-    <mergeCell ref="G49:G50"/>
-    <mergeCell ref="H49:H50"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="F47:F48"/>
-    <mergeCell ref="G47:G48"/>
-    <mergeCell ref="H39:H40"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="H41:H42"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="D43:D46"/>
-    <mergeCell ref="E43:E46"/>
-    <mergeCell ref="F43:F46"/>
-    <mergeCell ref="G43:G46"/>
-    <mergeCell ref="H43:H46"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="E39:E42"/>
-    <mergeCell ref="F39:F42"/>
-    <mergeCell ref="G39:G42"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="D7:D10"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F10"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="H11:H14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E18"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G15:G18"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="E11:E14"/>
+    <mergeCell ref="F11:F14"/>
+    <mergeCell ref="G11:G14"/>
+    <mergeCell ref="H19:H22"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="D23:D26"/>
+    <mergeCell ref="E23:E26"/>
+    <mergeCell ref="F23:F26"/>
+    <mergeCell ref="G23:G26"/>
+    <mergeCell ref="H23:H26"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="D19:D22"/>
+    <mergeCell ref="E19:E22"/>
+    <mergeCell ref="F19:F22"/>
+    <mergeCell ref="G19:G22"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="G27:G28"/>
     <mergeCell ref="H31:H32"/>
     <mergeCell ref="D33:D34"/>
     <mergeCell ref="F33:F34"/>
@@ -3476,59 +3484,45 @@
     <mergeCell ref="E31:E34"/>
     <mergeCell ref="F31:F32"/>
     <mergeCell ref="G31:G34"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="H19:H22"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="D23:D26"/>
-    <mergeCell ref="E23:E26"/>
-    <mergeCell ref="F23:F26"/>
-    <mergeCell ref="G23:G26"/>
-    <mergeCell ref="H23:H26"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="D19:D22"/>
-    <mergeCell ref="E19:E22"/>
-    <mergeCell ref="F19:F22"/>
-    <mergeCell ref="G19:G22"/>
-    <mergeCell ref="H11:H14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E18"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G15:G18"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="D11:D14"/>
-    <mergeCell ref="E11:E14"/>
-    <mergeCell ref="F11:F14"/>
-    <mergeCell ref="G11:G14"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="D7:D10"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F10"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H7:H10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="D43:D46"/>
+    <mergeCell ref="E43:E46"/>
+    <mergeCell ref="F43:F46"/>
+    <mergeCell ref="G43:G46"/>
+    <mergeCell ref="H43:H46"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="E39:E42"/>
+    <mergeCell ref="F39:F42"/>
+    <mergeCell ref="G39:G42"/>
+    <mergeCell ref="H47:H48"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="H49:H50"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="G47:G48"/>
+    <mergeCell ref="H51:H52"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="G55:G56"/>
+    <mergeCell ref="H55:H56"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="G51:G52"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/Calendario.xlsx
+++ b/Calendario.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SEBAS\Documents\Calendario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{039EEF04-E6E9-4EFA-A6F5-F2754861C8A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B95EC79F-981F-431B-A968-9FE9872F2F8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Semana1" sheetId="3" r:id="rId1"/>
     <sheet name="Semana2" sheetId="2" r:id="rId2"/>
-    <sheet name="©" sheetId="4" r:id="rId3"/>
+    <sheet name="Semana3" sheetId="5" r:id="rId3"/>
+    <sheet name="©" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Semana1!$A$1:$I$56</definedName>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="40">
   <si>
     <t>:30</t>
   </si>
@@ -147,6 +148,9 @@
   </si>
   <si>
     <t>Agenda Semana del 20 al 25</t>
+  </si>
+  <si>
+    <t>Agenda Semana del 27 al 4</t>
   </si>
 </sst>
 </file>
@@ -624,7 +628,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -747,6 +751,39 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
@@ -756,43 +793,31 @@
     <xf numFmtId="0" fontId="19" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1316,7 +1341,7 @@
   </sheetPr>
   <dimension ref="A1:I56"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A40" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
@@ -1357,10 +1382,10 @@
       <c r="I2" s="22"/>
     </row>
     <row r="3" spans="1:9" s="23" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="49" t="s">
+      <c r="A3" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="49"/>
+      <c r="B3" s="56"/>
       <c r="G3" s="24" t="s">
         <v>27</v>
       </c>
@@ -1394,79 +1419,79 @@
       </c>
     </row>
     <row r="5" spans="1:9" s="20" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="46">
+      <c r="A5" s="57">
         <v>6</v>
       </c>
       <c r="B5" s="36" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="44"/>
-      <c r="D5" s="50" t="s">
+      <c r="D5" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="50" t="s">
+      <c r="E5" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="50" t="s">
+      <c r="F5" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="50" t="s">
+      <c r="G5" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="50" t="s">
+      <c r="H5" s="55" t="s">
         <v>18</v>
       </c>
       <c r="I5" s="44"/>
     </row>
     <row r="6" spans="1:9" s="20" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="47"/>
+      <c r="A6" s="58"/>
       <c r="B6" s="33" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="45"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="51"/>
-      <c r="F6" s="51"/>
-      <c r="G6" s="51"/>
-      <c r="H6" s="51"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="47"/>
       <c r="I6" s="45"/>
     </row>
     <row r="7" spans="1:9" s="20" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="46">
+      <c r="A7" s="57">
         <v>7</v>
       </c>
       <c r="B7" s="36" t="s">
         <v>1</v>
       </c>
       <c r="C7" s="42"/>
-      <c r="D7" s="52" t="s">
+      <c r="D7" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="52" t="s">
+      <c r="E7" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="52" t="s">
+      <c r="F7" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="G7" s="52" t="s">
+      <c r="G7" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="H7" s="52" t="s">
+      <c r="H7" s="50" t="s">
         <v>18</v>
       </c>
       <c r="I7" s="44"/>
     </row>
     <row r="8" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="48"/>
+      <c r="A8" s="59"/>
       <c r="B8" s="26" t="s">
         <v>2</v>
       </c>
       <c r="C8" s="43"/>
-      <c r="D8" s="53"/>
-      <c r="E8" s="53"/>
-      <c r="F8" s="53"/>
-      <c r="G8" s="53"/>
-      <c r="H8" s="53"/>
+      <c r="D8" s="51"/>
+      <c r="E8" s="51"/>
+      <c r="F8" s="51"/>
+      <c r="G8" s="51"/>
+      <c r="H8" s="51"/>
       <c r="I8" s="43"/>
     </row>
     <row r="9" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1475,15 +1500,15 @@
         <v>0</v>
       </c>
       <c r="C9" s="43"/>
-      <c r="D9" s="53"/>
-      <c r="E9" s="56" t="s">
+      <c r="D9" s="51"/>
+      <c r="E9" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="F9" s="53"/>
-      <c r="G9" s="56" t="s">
+      <c r="F9" s="51"/>
+      <c r="G9" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="H9" s="53"/>
+      <c r="H9" s="51"/>
       <c r="I9" s="43"/>
     </row>
     <row r="10" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1492,49 +1517,49 @@
         <v>3</v>
       </c>
       <c r="C10" s="45"/>
-      <c r="D10" s="51"/>
-      <c r="E10" s="57"/>
-      <c r="F10" s="51"/>
-      <c r="G10" s="57"/>
-      <c r="H10" s="51"/>
+      <c r="D10" s="47"/>
+      <c r="E10" s="49"/>
+      <c r="F10" s="47"/>
+      <c r="G10" s="49"/>
+      <c r="H10" s="47"/>
       <c r="I10" s="45"/>
     </row>
     <row r="11" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="46">
+      <c r="A11" s="57">
         <v>8</v>
       </c>
       <c r="B11" s="36" t="s">
         <v>1</v>
       </c>
       <c r="C11" s="42"/>
-      <c r="D11" s="52" t="s">
+      <c r="D11" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="55" t="s">
+      <c r="E11" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="F11" s="52" t="s">
+      <c r="F11" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="G11" s="55" t="s">
+      <c r="G11" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="H11" s="52" t="s">
+      <c r="H11" s="50" t="s">
         <v>18</v>
       </c>
       <c r="I11" s="42"/>
     </row>
     <row r="12" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="48"/>
+      <c r="A12" s="59"/>
       <c r="B12" s="26" t="s">
         <v>2</v>
       </c>
       <c r="C12" s="43"/>
-      <c r="D12" s="53"/>
-      <c r="E12" s="56"/>
-      <c r="F12" s="53"/>
-      <c r="G12" s="56"/>
-      <c r="H12" s="53"/>
+      <c r="D12" s="51"/>
+      <c r="E12" s="53"/>
+      <c r="F12" s="51"/>
+      <c r="G12" s="53"/>
+      <c r="H12" s="51"/>
       <c r="I12" s="43"/>
     </row>
     <row r="13" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1543,11 +1568,11 @@
         <v>0</v>
       </c>
       <c r="C13" s="43"/>
-      <c r="D13" s="53"/>
-      <c r="E13" s="56"/>
-      <c r="F13" s="53"/>
-      <c r="G13" s="56"/>
-      <c r="H13" s="53"/>
+      <c r="D13" s="51"/>
+      <c r="E13" s="53"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="53"/>
+      <c r="H13" s="51"/>
       <c r="I13" s="43"/>
     </row>
     <row r="14" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1556,48 +1581,48 @@
         <v>3</v>
       </c>
       <c r="C14" s="45"/>
-      <c r="D14" s="51"/>
-      <c r="E14" s="57"/>
-      <c r="F14" s="51"/>
-      <c r="G14" s="57"/>
-      <c r="H14" s="51"/>
+      <c r="D14" s="47"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="47"/>
+      <c r="G14" s="49"/>
+      <c r="H14" s="47"/>
       <c r="I14" s="45"/>
     </row>
     <row r="15" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="46">
+      <c r="A15" s="57">
         <v>9</v>
       </c>
       <c r="B15" s="36" t="s">
         <v>1</v>
       </c>
       <c r="C15" s="18"/>
-      <c r="D15" s="52" t="s">
+      <c r="D15" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="E15" s="55" t="s">
+      <c r="E15" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="F15" s="52" t="s">
+      <c r="F15" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="G15" s="55" t="s">
+      <c r="G15" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="H15" s="52" t="s">
+      <c r="H15" s="50" t="s">
         <v>28</v>
       </c>
       <c r="I15" s="42"/>
     </row>
     <row r="16" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="48"/>
+      <c r="A16" s="59"/>
       <c r="B16" s="26" t="s">
         <v>2</v>
       </c>
       <c r="C16" s="17"/>
       <c r="D16" s="54"/>
-      <c r="E16" s="56"/>
+      <c r="E16" s="53"/>
       <c r="F16" s="54"/>
-      <c r="G16" s="56"/>
+      <c r="G16" s="53"/>
       <c r="H16" s="54"/>
       <c r="I16" s="43"/>
     </row>
@@ -1607,15 +1632,15 @@
         <v>0</v>
       </c>
       <c r="C17" s="18"/>
-      <c r="D17" s="58" t="s">
+      <c r="D17" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="E17" s="56"/>
-      <c r="F17" s="58" t="s">
+      <c r="E17" s="53"/>
+      <c r="F17" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="G17" s="56"/>
-      <c r="H17" s="58" t="s">
+      <c r="G17" s="53"/>
+      <c r="H17" s="46" t="s">
         <v>29</v>
       </c>
       <c r="I17" s="43"/>
@@ -1626,49 +1651,49 @@
         <v>3</v>
       </c>
       <c r="C18" s="12"/>
-      <c r="D18" s="51"/>
-      <c r="E18" s="57"/>
-      <c r="F18" s="51"/>
-      <c r="G18" s="57"/>
-      <c r="H18" s="51"/>
+      <c r="D18" s="47"/>
+      <c r="E18" s="49"/>
+      <c r="F18" s="47"/>
+      <c r="G18" s="49"/>
+      <c r="H18" s="47"/>
       <c r="I18" s="45"/>
     </row>
     <row r="19" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="46">
+      <c r="A19" s="57">
         <v>10</v>
       </c>
       <c r="B19" s="36" t="s">
         <v>1</v>
       </c>
       <c r="C19" s="18"/>
-      <c r="D19" s="52" t="s">
+      <c r="D19" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="E19" s="52" t="s">
+      <c r="E19" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="F19" s="52" t="s">
+      <c r="F19" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="G19" s="55" t="s">
+      <c r="G19" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="H19" s="52" t="s">
+      <c r="H19" s="50" t="s">
         <v>30</v>
       </c>
       <c r="I19" s="25"/>
     </row>
     <row r="20" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="48"/>
+      <c r="A20" s="59"/>
       <c r="B20" s="26" t="s">
         <v>2</v>
       </c>
       <c r="C20" s="17"/>
-      <c r="D20" s="53"/>
-      <c r="E20" s="53"/>
-      <c r="F20" s="53"/>
-      <c r="G20" s="56"/>
-      <c r="H20" s="53"/>
+      <c r="D20" s="51"/>
+      <c r="E20" s="51"/>
+      <c r="F20" s="51"/>
+      <c r="G20" s="53"/>
+      <c r="H20" s="51"/>
       <c r="I20" s="17"/>
     </row>
     <row r="21" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1677,11 +1702,11 @@
         <v>0</v>
       </c>
       <c r="C21" s="18"/>
-      <c r="D21" s="53"/>
-      <c r="E21" s="53"/>
-      <c r="F21" s="53"/>
-      <c r="G21" s="56"/>
-      <c r="H21" s="53"/>
+      <c r="D21" s="51"/>
+      <c r="E21" s="51"/>
+      <c r="F21" s="51"/>
+      <c r="G21" s="53"/>
+      <c r="H21" s="51"/>
       <c r="I21" s="18"/>
     </row>
     <row r="22" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1690,49 +1715,49 @@
         <v>3</v>
       </c>
       <c r="C22" s="12"/>
-      <c r="D22" s="51"/>
-      <c r="E22" s="51"/>
-      <c r="F22" s="51"/>
-      <c r="G22" s="57"/>
-      <c r="H22" s="51"/>
+      <c r="D22" s="47"/>
+      <c r="E22" s="47"/>
+      <c r="F22" s="47"/>
+      <c r="G22" s="49"/>
+      <c r="H22" s="47"/>
       <c r="I22" s="17"/>
     </row>
     <row r="23" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="46">
+      <c r="A23" s="57">
         <v>11</v>
       </c>
       <c r="B23" s="36" t="s">
         <v>1</v>
       </c>
       <c r="C23" s="18"/>
-      <c r="D23" s="52" t="s">
+      <c r="D23" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="E23" s="55" t="s">
+      <c r="E23" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="F23" s="52" t="s">
+      <c r="F23" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="G23" s="55" t="s">
+      <c r="G23" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="H23" s="52" t="s">
+      <c r="H23" s="50" t="s">
         <v>30</v>
       </c>
       <c r="I23" s="25"/>
     </row>
     <row r="24" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="48"/>
+      <c r="A24" s="59"/>
       <c r="B24" s="26" t="s">
         <v>2</v>
       </c>
       <c r="C24" s="17"/>
-      <c r="D24" s="53"/>
-      <c r="E24" s="56"/>
-      <c r="F24" s="53"/>
-      <c r="G24" s="56"/>
-      <c r="H24" s="53"/>
+      <c r="D24" s="51"/>
+      <c r="E24" s="53"/>
+      <c r="F24" s="51"/>
+      <c r="G24" s="53"/>
+      <c r="H24" s="51"/>
       <c r="I24" s="17"/>
     </row>
     <row r="25" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1741,11 +1766,11 @@
         <v>0</v>
       </c>
       <c r="C25" s="18"/>
-      <c r="D25" s="53"/>
-      <c r="E25" s="56"/>
-      <c r="F25" s="53"/>
-      <c r="G25" s="56"/>
-      <c r="H25" s="53"/>
+      <c r="D25" s="51"/>
+      <c r="E25" s="53"/>
+      <c r="F25" s="51"/>
+      <c r="G25" s="53"/>
+      <c r="H25" s="51"/>
       <c r="I25" s="18"/>
     </row>
     <row r="26" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1754,40 +1779,40 @@
         <v>3</v>
       </c>
       <c r="C26" s="12"/>
-      <c r="D26" s="51"/>
-      <c r="E26" s="57"/>
-      <c r="F26" s="51"/>
-      <c r="G26" s="57"/>
-      <c r="H26" s="51"/>
+      <c r="D26" s="47"/>
+      <c r="E26" s="49"/>
+      <c r="F26" s="47"/>
+      <c r="G26" s="49"/>
+      <c r="H26" s="47"/>
       <c r="I26" s="17"/>
     </row>
     <row r="27" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="46">
+      <c r="A27" s="57">
         <v>12</v>
       </c>
       <c r="B27" s="36" t="s">
         <v>8</v>
       </c>
       <c r="C27" s="18"/>
-      <c r="D27" s="52" t="s">
+      <c r="D27" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="E27" s="52" t="s">
+      <c r="E27" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="F27" s="52" t="s">
+      <c r="F27" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="G27" s="52" t="s">
+      <c r="G27" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="H27" s="52" t="s">
+      <c r="H27" s="50" t="s">
         <v>30</v>
       </c>
       <c r="I27" s="25"/>
     </row>
     <row r="28" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="48"/>
+      <c r="A28" s="59"/>
       <c r="B28" s="26" t="s">
         <v>2</v>
       </c>
@@ -1805,19 +1830,19 @@
         <v>0</v>
       </c>
       <c r="C29" s="18"/>
-      <c r="D29" s="58" t="s">
-        <v>31</v>
-      </c>
-      <c r="E29" s="52" t="s">
+      <c r="D29" s="46" t="s">
+        <v>31</v>
+      </c>
+      <c r="E29" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="F29" s="58" t="s">
-        <v>31</v>
-      </c>
-      <c r="G29" s="52" t="s">
+      <c r="F29" s="46" t="s">
+        <v>31</v>
+      </c>
+      <c r="G29" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="H29" s="58" t="s">
+      <c r="H29" s="46" t="s">
         <v>31</v>
       </c>
       <c r="I29" s="18"/>
@@ -1828,48 +1853,48 @@
         <v>3</v>
       </c>
       <c r="C30" s="12"/>
-      <c r="D30" s="51"/>
+      <c r="D30" s="47"/>
       <c r="E30" s="54"/>
-      <c r="F30" s="51"/>
+      <c r="F30" s="47"/>
       <c r="G30" s="54"/>
-      <c r="H30" s="51"/>
+      <c r="H30" s="47"/>
       <c r="I30" s="17"/>
     </row>
     <row r="31" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="46">
+      <c r="A31" s="57">
         <v>1</v>
       </c>
       <c r="B31" s="36" t="s">
         <v>8</v>
       </c>
       <c r="C31" s="18"/>
-      <c r="D31" s="52" t="s">
+      <c r="D31" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="E31" s="52" t="s">
+      <c r="E31" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="F31" s="52" t="s">
+      <c r="F31" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="G31" s="52" t="s">
+      <c r="G31" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="H31" s="52" t="s">
+      <c r="H31" s="50" t="s">
         <v>32</v>
       </c>
       <c r="I31" s="25"/>
     </row>
     <row r="32" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="48"/>
+      <c r="A32" s="59"/>
       <c r="B32" s="26" t="s">
         <v>2</v>
       </c>
       <c r="C32" s="17"/>
       <c r="D32" s="54"/>
-      <c r="E32" s="53"/>
+      <c r="E32" s="51"/>
       <c r="F32" s="54"/>
-      <c r="G32" s="53"/>
+      <c r="G32" s="51"/>
       <c r="H32" s="54"/>
       <c r="I32" s="17"/>
     </row>
@@ -1879,15 +1904,15 @@
         <v>0</v>
       </c>
       <c r="C33" s="18"/>
-      <c r="D33" s="59" t="s">
+      <c r="D33" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="E33" s="53"/>
-      <c r="F33" s="58" t="s">
+      <c r="E33" s="51"/>
+      <c r="F33" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="G33" s="53"/>
-      <c r="H33" s="58" t="s">
+      <c r="G33" s="51"/>
+      <c r="H33" s="46" t="s">
         <v>29</v>
       </c>
       <c r="I33" s="18"/>
@@ -1898,49 +1923,49 @@
         <v>3</v>
       </c>
       <c r="C34" s="12"/>
-      <c r="D34" s="57"/>
-      <c r="E34" s="51"/>
-      <c r="F34" s="51"/>
-      <c r="G34" s="51"/>
-      <c r="H34" s="51"/>
+      <c r="D34" s="49"/>
+      <c r="E34" s="47"/>
+      <c r="F34" s="47"/>
+      <c r="G34" s="47"/>
+      <c r="H34" s="47"/>
       <c r="I34" s="17"/>
     </row>
     <row r="35" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="46">
+      <c r="A35" s="57">
         <v>2</v>
       </c>
       <c r="B35" s="36" t="s">
         <v>8</v>
       </c>
       <c r="C35" s="18"/>
-      <c r="D35" s="55" t="s">
+      <c r="D35" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="E35" s="52" t="s">
+      <c r="E35" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="F35" s="52" t="s">
+      <c r="F35" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="G35" s="52" t="s">
+      <c r="G35" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="H35" s="52" t="s">
+      <c r="H35" s="50" t="s">
         <v>29</v>
       </c>
       <c r="I35" s="25"/>
     </row>
     <row r="36" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="48"/>
+      <c r="A36" s="59"/>
       <c r="B36" s="26" t="s">
         <v>2</v>
       </c>
       <c r="C36" s="17"/>
-      <c r="D36" s="56"/>
-      <c r="E36" s="53"/>
-      <c r="F36" s="53"/>
-      <c r="G36" s="53"/>
-      <c r="H36" s="53"/>
+      <c r="D36" s="53"/>
+      <c r="E36" s="51"/>
+      <c r="F36" s="51"/>
+      <c r="G36" s="51"/>
+      <c r="H36" s="51"/>
       <c r="I36" s="17"/>
     </row>
     <row r="37" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1949,11 +1974,11 @@
         <v>0</v>
       </c>
       <c r="C37" s="18"/>
-      <c r="D37" s="56"/>
-      <c r="E37" s="53"/>
-      <c r="F37" s="53"/>
-      <c r="G37" s="53"/>
-      <c r="H37" s="53"/>
+      <c r="D37" s="53"/>
+      <c r="E37" s="51"/>
+      <c r="F37" s="51"/>
+      <c r="G37" s="51"/>
+      <c r="H37" s="51"/>
       <c r="I37" s="18"/>
     </row>
     <row r="38" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1962,49 +1987,49 @@
         <v>3</v>
       </c>
       <c r="C38" s="12"/>
-      <c r="D38" s="57"/>
-      <c r="E38" s="51"/>
-      <c r="F38" s="51"/>
-      <c r="G38" s="51"/>
-      <c r="H38" s="51"/>
+      <c r="D38" s="49"/>
+      <c r="E38" s="47"/>
+      <c r="F38" s="47"/>
+      <c r="G38" s="47"/>
+      <c r="H38" s="47"/>
       <c r="I38" s="17"/>
     </row>
     <row r="39" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="46">
+      <c r="A39" s="57">
         <v>3</v>
       </c>
       <c r="B39" s="36" t="s">
         <v>8</v>
       </c>
       <c r="C39" s="18"/>
-      <c r="D39" s="58" t="s">
+      <c r="D39" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="E39" s="55" t="s">
+      <c r="E39" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="F39" s="52" t="s">
+      <c r="F39" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="G39" s="52" t="s">
+      <c r="G39" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="H39" s="58" t="s">
+      <c r="H39" s="46" t="s">
         <v>29</v>
       </c>
       <c r="I39" s="25"/>
     </row>
     <row r="40" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="48"/>
+      <c r="A40" s="59"/>
       <c r="B40" s="26" t="s">
         <v>2</v>
       </c>
       <c r="C40" s="17"/>
-      <c r="D40" s="51"/>
-      <c r="E40" s="56"/>
-      <c r="F40" s="53"/>
-      <c r="G40" s="53"/>
-      <c r="H40" s="51"/>
+      <c r="D40" s="47"/>
+      <c r="E40" s="53"/>
+      <c r="F40" s="51"/>
+      <c r="G40" s="51"/>
+      <c r="H40" s="47"/>
       <c r="I40" s="17"/>
     </row>
     <row r="41" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2013,13 +2038,13 @@
         <v>0</v>
       </c>
       <c r="C41" s="18"/>
-      <c r="D41" s="55" t="s">
+      <c r="D41" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="E41" s="56"/>
-      <c r="F41" s="53"/>
-      <c r="G41" s="53"/>
-      <c r="H41" s="55" t="s">
+      <c r="E41" s="53"/>
+      <c r="F41" s="51"/>
+      <c r="G41" s="51"/>
+      <c r="H41" s="52" t="s">
         <v>33</v>
       </c>
       <c r="I41" s="18"/>
@@ -2030,49 +2055,49 @@
         <v>3</v>
       </c>
       <c r="C42" s="12"/>
-      <c r="D42" s="57"/>
-      <c r="E42" s="57"/>
-      <c r="F42" s="51"/>
-      <c r="G42" s="51"/>
-      <c r="H42" s="57"/>
+      <c r="D42" s="49"/>
+      <c r="E42" s="49"/>
+      <c r="F42" s="47"/>
+      <c r="G42" s="47"/>
+      <c r="H42" s="49"/>
       <c r="I42" s="17"/>
     </row>
     <row r="43" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="46">
+      <c r="A43" s="57">
         <v>4</v>
       </c>
       <c r="B43" s="36" t="s">
         <v>8</v>
       </c>
       <c r="C43" s="18"/>
-      <c r="D43" s="55" t="s">
+      <c r="D43" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="E43" s="55" t="s">
+      <c r="E43" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="F43" s="52" t="s">
+      <c r="F43" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="G43" s="52" t="s">
+      <c r="G43" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="H43" s="55" t="s">
+      <c r="H43" s="52" t="s">
         <v>33</v>
       </c>
       <c r="I43" s="25"/>
     </row>
     <row r="44" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="48"/>
+      <c r="A44" s="59"/>
       <c r="B44" s="26" t="s">
         <v>2</v>
       </c>
       <c r="C44" s="17"/>
-      <c r="D44" s="56"/>
-      <c r="E44" s="56"/>
-      <c r="F44" s="53"/>
-      <c r="G44" s="53"/>
-      <c r="H44" s="56"/>
+      <c r="D44" s="53"/>
+      <c r="E44" s="53"/>
+      <c r="F44" s="51"/>
+      <c r="G44" s="51"/>
+      <c r="H44" s="53"/>
       <c r="I44" s="17"/>
     </row>
     <row r="45" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2081,11 +2106,11 @@
         <v>0</v>
       </c>
       <c r="C45" s="18"/>
-      <c r="D45" s="56"/>
-      <c r="E45" s="56"/>
-      <c r="F45" s="53"/>
-      <c r="G45" s="53"/>
-      <c r="H45" s="56"/>
+      <c r="D45" s="53"/>
+      <c r="E45" s="53"/>
+      <c r="F45" s="51"/>
+      <c r="G45" s="51"/>
+      <c r="H45" s="53"/>
       <c r="I45" s="18"/>
     </row>
     <row r="46" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2094,129 +2119,129 @@
         <v>3</v>
       </c>
       <c r="C46" s="12"/>
-      <c r="D46" s="57"/>
-      <c r="E46" s="57"/>
-      <c r="F46" s="51"/>
-      <c r="G46" s="51"/>
-      <c r="H46" s="57"/>
+      <c r="D46" s="49"/>
+      <c r="E46" s="49"/>
+      <c r="F46" s="47"/>
+      <c r="G46" s="47"/>
+      <c r="H46" s="49"/>
       <c r="I46" s="17"/>
     </row>
     <row r="47" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="46">
+      <c r="A47" s="57">
         <v>5</v>
       </c>
       <c r="B47" s="36" t="s">
         <v>8</v>
       </c>
       <c r="C47" s="15"/>
-      <c r="D47" s="55" t="s">
+      <c r="D47" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="E47" s="58" t="s">
-        <v>31</v>
-      </c>
-      <c r="F47" s="52" t="s">
+      <c r="E47" s="46" t="s">
+        <v>31</v>
+      </c>
+      <c r="F47" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="G47" s="58" t="s">
-        <v>31</v>
-      </c>
-      <c r="H47" s="55" t="s">
+      <c r="G47" s="46" t="s">
+        <v>31</v>
+      </c>
+      <c r="H47" s="52" t="s">
         <v>33</v>
       </c>
       <c r="I47" s="15"/>
     </row>
     <row r="48" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="47"/>
+      <c r="A48" s="58"/>
       <c r="B48" s="33" t="s">
         <v>0</v>
       </c>
       <c r="C48" s="13"/>
-      <c r="D48" s="57"/>
-      <c r="E48" s="51"/>
-      <c r="F48" s="51"/>
-      <c r="G48" s="51"/>
-      <c r="H48" s="57"/>
+      <c r="D48" s="49"/>
+      <c r="E48" s="47"/>
+      <c r="F48" s="47"/>
+      <c r="G48" s="47"/>
+      <c r="H48" s="49"/>
       <c r="I48" s="13"/>
     </row>
     <row r="49" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="46">
+      <c r="A49" s="57">
         <v>6</v>
       </c>
       <c r="B49" s="36" t="s">
         <v>8</v>
       </c>
       <c r="C49" s="15"/>
-      <c r="D49" s="55" t="s">
+      <c r="D49" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="E49" s="59" t="s">
+      <c r="E49" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="F49" s="52" t="s">
+      <c r="F49" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="G49" s="58" t="s">
-        <v>31</v>
-      </c>
-      <c r="H49" s="55" t="s">
+      <c r="G49" s="46" t="s">
+        <v>31</v>
+      </c>
+      <c r="H49" s="52" t="s">
         <v>33</v>
       </c>
       <c r="I49" s="15"/>
     </row>
     <row r="50" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="47"/>
+      <c r="A50" s="58"/>
       <c r="B50" s="33" t="s">
         <v>0</v>
       </c>
       <c r="C50" s="13"/>
-      <c r="D50" s="57"/>
-      <c r="E50" s="57"/>
-      <c r="F50" s="51"/>
-      <c r="G50" s="51"/>
-      <c r="H50" s="57"/>
+      <c r="D50" s="49"/>
+      <c r="E50" s="49"/>
+      <c r="F50" s="47"/>
+      <c r="G50" s="47"/>
+      <c r="H50" s="49"/>
       <c r="I50" s="13"/>
     </row>
     <row r="51" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="46">
+      <c r="A51" s="57">
         <v>7</v>
       </c>
       <c r="B51" s="36" t="s">
         <v>8</v>
       </c>
       <c r="C51" s="15"/>
-      <c r="D51" s="58" t="s">
-        <v>31</v>
-      </c>
-      <c r="E51" s="59" t="s">
+      <c r="D51" s="46" t="s">
+        <v>31</v>
+      </c>
+      <c r="E51" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="F51" s="58" t="s">
-        <v>31</v>
-      </c>
-      <c r="G51" s="58" t="s">
-        <v>31</v>
-      </c>
-      <c r="H51" s="58" t="s">
+      <c r="F51" s="46" t="s">
+        <v>31</v>
+      </c>
+      <c r="G51" s="46" t="s">
+        <v>31</v>
+      </c>
+      <c r="H51" s="46" t="s">
         <v>31</v>
       </c>
       <c r="I51" s="15"/>
     </row>
     <row r="52" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="47"/>
+      <c r="A52" s="58"/>
       <c r="B52" s="33" t="s">
         <v>0</v>
       </c>
       <c r="C52" s="13"/>
-      <c r="D52" s="51"/>
-      <c r="E52" s="57"/>
-      <c r="F52" s="51"/>
-      <c r="G52" s="51"/>
-      <c r="H52" s="51"/>
+      <c r="D52" s="47"/>
+      <c r="E52" s="49"/>
+      <c r="F52" s="47"/>
+      <c r="G52" s="47"/>
+      <c r="H52" s="47"/>
       <c r="I52" s="13"/>
     </row>
     <row r="53" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="46">
+      <c r="A53" s="57">
         <v>8</v>
       </c>
       <c r="B53" s="36" t="s">
@@ -2226,7 +2251,7 @@
       <c r="D53" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="E53" s="59" t="s">
+      <c r="E53" s="48" t="s">
         <v>35</v>
       </c>
       <c r="F53" s="16" t="s">
@@ -2241,7 +2266,7 @@
       <c r="I53" s="15"/>
     </row>
     <row r="54" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="47"/>
+      <c r="A54" s="58"/>
       <c r="B54" s="33" t="s">
         <v>0</v>
       </c>
@@ -2249,7 +2274,7 @@
       <c r="D54" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="E54" s="57"/>
+      <c r="E54" s="49"/>
       <c r="F54" s="14" t="s">
         <v>31</v>
       </c>
@@ -2262,47 +2287,130 @@
       <c r="I54" s="13"/>
     </row>
     <row r="55" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="46">
+      <c r="A55" s="57">
         <v>9</v>
       </c>
       <c r="B55" s="36" t="s">
         <v>8</v>
       </c>
       <c r="C55" s="15"/>
-      <c r="D55" s="58" t="s">
+      <c r="D55" s="46" t="s">
         <v>31</v>
       </c>
       <c r="E55" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="F55" s="58" t="s">
-        <v>31</v>
-      </c>
-      <c r="G55" s="58" t="s">
-        <v>31</v>
-      </c>
-      <c r="H55" s="58" t="s">
+      <c r="F55" s="46" t="s">
+        <v>31</v>
+      </c>
+      <c r="G55" s="46" t="s">
+        <v>31</v>
+      </c>
+      <c r="H55" s="46" t="s">
         <v>31</v>
       </c>
       <c r="I55" s="15"/>
     </row>
     <row r="56" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="47"/>
+      <c r="A56" s="58"/>
       <c r="B56" s="33" t="s">
         <v>0</v>
       </c>
       <c r="C56" s="13"/>
-      <c r="D56" s="51"/>
+      <c r="D56" s="47"/>
       <c r="E56" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="F56" s="51"/>
-      <c r="G56" s="51"/>
-      <c r="H56" s="51"/>
+      <c r="F56" s="47"/>
+      <c r="G56" s="47"/>
+      <c r="H56" s="47"/>
       <c r="I56" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="107">
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="D7:D10"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="D19:D22"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="D35:D38"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="F7:F10"/>
+    <mergeCell ref="H7:H10"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="E15:E18"/>
+    <mergeCell ref="G15:G18"/>
+    <mergeCell ref="E11:E14"/>
+    <mergeCell ref="F11:F14"/>
+    <mergeCell ref="G11:G14"/>
+    <mergeCell ref="H11:H14"/>
+    <mergeCell ref="F19:F22"/>
+    <mergeCell ref="H19:H22"/>
+    <mergeCell ref="D23:D26"/>
+    <mergeCell ref="F23:F26"/>
+    <mergeCell ref="H23:H26"/>
+    <mergeCell ref="E19:E22"/>
+    <mergeCell ref="G19:G22"/>
+    <mergeCell ref="E23:E26"/>
+    <mergeCell ref="G23:G26"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="H33:H34"/>
+    <mergeCell ref="E31:E34"/>
+    <mergeCell ref="G31:G34"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="G51:G52"/>
+    <mergeCell ref="F35:F38"/>
+    <mergeCell ref="H35:H38"/>
+    <mergeCell ref="D43:D46"/>
+    <mergeCell ref="H43:H46"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="E35:E38"/>
+    <mergeCell ref="G35:G38"/>
     <mergeCell ref="G55:G56"/>
     <mergeCell ref="E53:E54"/>
     <mergeCell ref="D55:D56"/>
@@ -2327,89 +2435,6 @@
     <mergeCell ref="D51:D52"/>
     <mergeCell ref="F51:F52"/>
     <mergeCell ref="H51:H52"/>
-    <mergeCell ref="G51:G52"/>
-    <mergeCell ref="F35:F38"/>
-    <mergeCell ref="H35:H38"/>
-    <mergeCell ref="D43:D46"/>
-    <mergeCell ref="H43:H46"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="H39:H40"/>
-    <mergeCell ref="H41:H42"/>
-    <mergeCell ref="E35:E38"/>
-    <mergeCell ref="G35:G38"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="H31:H32"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="H33:H34"/>
-    <mergeCell ref="E31:E34"/>
-    <mergeCell ref="G31:G34"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="F19:F22"/>
-    <mergeCell ref="H19:H22"/>
-    <mergeCell ref="D23:D26"/>
-    <mergeCell ref="F23:F26"/>
-    <mergeCell ref="H23:H26"/>
-    <mergeCell ref="E19:E22"/>
-    <mergeCell ref="G19:G22"/>
-    <mergeCell ref="E23:E26"/>
-    <mergeCell ref="G23:G26"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="E15:E18"/>
-    <mergeCell ref="G15:G18"/>
-    <mergeCell ref="E11:E14"/>
-    <mergeCell ref="F11:F14"/>
-    <mergeCell ref="G11:G14"/>
-    <mergeCell ref="H11:H14"/>
-    <mergeCell ref="F7:F10"/>
-    <mergeCell ref="H7:H10"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="D7:D10"/>
-    <mergeCell ref="D11:D14"/>
-    <mergeCell ref="D19:D22"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="D35:D38"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="A43:A44"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -2428,9 +2453,7 @@
   </sheetPr>
   <dimension ref="A1:I56"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="H41" sqref="H41:H50"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2469,10 +2492,10 @@
       <c r="I2" s="22"/>
     </row>
     <row r="3" spans="1:9" s="23" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="49" t="s">
+      <c r="A3" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="49"/>
+      <c r="B3" s="56"/>
       <c r="G3" s="24" t="s">
         <v>27</v>
       </c>
@@ -2506,79 +2529,79 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="46">
+      <c r="A5" s="57">
         <v>6</v>
       </c>
       <c r="B5" s="36" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="44"/>
-      <c r="D5" s="50" t="s">
+      <c r="D5" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="50" t="s">
+      <c r="E5" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="50" t="s">
+      <c r="F5" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="50" t="s">
+      <c r="G5" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="50" t="s">
+      <c r="H5" s="55" t="s">
         <v>18</v>
       </c>
       <c r="I5" s="44"/>
     </row>
     <row r="6" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="47"/>
+      <c r="A6" s="58"/>
       <c r="B6" s="33" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="45"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="51"/>
-      <c r="F6" s="51"/>
-      <c r="G6" s="51"/>
-      <c r="H6" s="51"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="47"/>
       <c r="I6" s="45"/>
     </row>
     <row r="7" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="46">
+      <c r="A7" s="57">
         <v>7</v>
       </c>
       <c r="B7" s="36" t="s">
         <v>1</v>
       </c>
       <c r="C7" s="42"/>
-      <c r="D7" s="52" t="s">
+      <c r="D7" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="52" t="s">
+      <c r="E7" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="52" t="s">
+      <c r="F7" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="G7" s="52" t="s">
+      <c r="G7" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="H7" s="52" t="s">
+      <c r="H7" s="50" t="s">
         <v>18</v>
       </c>
       <c r="I7" s="44"/>
     </row>
     <row r="8" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="48"/>
+      <c r="A8" s="59"/>
       <c r="B8" s="26" t="s">
         <v>2</v>
       </c>
       <c r="C8" s="43"/>
-      <c r="D8" s="53"/>
-      <c r="E8" s="53"/>
-      <c r="F8" s="53"/>
-      <c r="G8" s="53"/>
-      <c r="H8" s="53"/>
+      <c r="D8" s="51"/>
+      <c r="E8" s="51"/>
+      <c r="F8" s="51"/>
+      <c r="G8" s="51"/>
+      <c r="H8" s="51"/>
       <c r="I8" s="43"/>
     </row>
     <row r="9" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -2587,15 +2610,15 @@
         <v>0</v>
       </c>
       <c r="C9" s="43"/>
-      <c r="D9" s="53"/>
-      <c r="E9" s="56" t="s">
+      <c r="D9" s="51"/>
+      <c r="E9" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="F9" s="53"/>
-      <c r="G9" s="56" t="s">
+      <c r="F9" s="51"/>
+      <c r="G9" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="H9" s="53"/>
+      <c r="H9" s="51"/>
       <c r="I9" s="43"/>
     </row>
     <row r="10" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -2604,49 +2627,49 @@
         <v>3</v>
       </c>
       <c r="C10" s="45"/>
-      <c r="D10" s="51"/>
-      <c r="E10" s="57"/>
-      <c r="F10" s="51"/>
-      <c r="G10" s="57"/>
-      <c r="H10" s="51"/>
+      <c r="D10" s="47"/>
+      <c r="E10" s="49"/>
+      <c r="F10" s="47"/>
+      <c r="G10" s="49"/>
+      <c r="H10" s="47"/>
       <c r="I10" s="45"/>
     </row>
     <row r="11" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="46">
+      <c r="A11" s="57">
         <v>8</v>
       </c>
       <c r="B11" s="36" t="s">
         <v>1</v>
       </c>
       <c r="C11" s="42"/>
-      <c r="D11" s="52" t="s">
+      <c r="D11" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="55" t="s">
+      <c r="E11" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="F11" s="52" t="s">
+      <c r="F11" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="G11" s="55" t="s">
+      <c r="G11" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="H11" s="52" t="s">
+      <c r="H11" s="50" t="s">
         <v>18</v>
       </c>
       <c r="I11" s="42"/>
     </row>
     <row r="12" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="48"/>
+      <c r="A12" s="59"/>
       <c r="B12" s="26" t="s">
         <v>2</v>
       </c>
       <c r="C12" s="43"/>
-      <c r="D12" s="53"/>
-      <c r="E12" s="56"/>
-      <c r="F12" s="53"/>
-      <c r="G12" s="56"/>
-      <c r="H12" s="53"/>
+      <c r="D12" s="51"/>
+      <c r="E12" s="53"/>
+      <c r="F12" s="51"/>
+      <c r="G12" s="53"/>
+      <c r="H12" s="51"/>
       <c r="I12" s="43"/>
     </row>
     <row r="13" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -2655,11 +2678,11 @@
         <v>0</v>
       </c>
       <c r="C13" s="43"/>
-      <c r="D13" s="53"/>
-      <c r="E13" s="56"/>
-      <c r="F13" s="53"/>
-      <c r="G13" s="56"/>
-      <c r="H13" s="53"/>
+      <c r="D13" s="51"/>
+      <c r="E13" s="53"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="53"/>
+      <c r="H13" s="51"/>
       <c r="I13" s="43"/>
     </row>
     <row r="14" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -2668,48 +2691,48 @@
         <v>3</v>
       </c>
       <c r="C14" s="45"/>
-      <c r="D14" s="51"/>
-      <c r="E14" s="57"/>
-      <c r="F14" s="51"/>
-      <c r="G14" s="57"/>
-      <c r="H14" s="51"/>
+      <c r="D14" s="47"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="47"/>
+      <c r="G14" s="49"/>
+      <c r="H14" s="47"/>
       <c r="I14" s="45"/>
     </row>
     <row r="15" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="46">
+      <c r="A15" s="57">
         <v>9</v>
       </c>
       <c r="B15" s="36" t="s">
         <v>1</v>
       </c>
       <c r="C15" s="18"/>
-      <c r="D15" s="52" t="s">
+      <c r="D15" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="E15" s="55" t="s">
+      <c r="E15" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="F15" s="52" t="s">
+      <c r="F15" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="G15" s="55" t="s">
+      <c r="G15" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="H15" s="52" t="s">
+      <c r="H15" s="50" t="s">
         <v>28</v>
       </c>
       <c r="I15" s="42"/>
     </row>
     <row r="16" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="48"/>
+      <c r="A16" s="59"/>
       <c r="B16" s="26" t="s">
         <v>2</v>
       </c>
       <c r="C16" s="17"/>
       <c r="D16" s="54"/>
-      <c r="E16" s="56"/>
+      <c r="E16" s="53"/>
       <c r="F16" s="54"/>
-      <c r="G16" s="56"/>
+      <c r="G16" s="53"/>
       <c r="H16" s="54"/>
       <c r="I16" s="43"/>
     </row>
@@ -2719,15 +2742,15 @@
         <v>0</v>
       </c>
       <c r="C17" s="18"/>
-      <c r="D17" s="58" t="s">
+      <c r="D17" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="E17" s="56"/>
-      <c r="F17" s="58" t="s">
+      <c r="E17" s="53"/>
+      <c r="F17" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="G17" s="56"/>
-      <c r="H17" s="58" t="s">
+      <c r="G17" s="53"/>
+      <c r="H17" s="46" t="s">
         <v>29</v>
       </c>
       <c r="I17" s="43"/>
@@ -2738,49 +2761,49 @@
         <v>3</v>
       </c>
       <c r="C18" s="12"/>
-      <c r="D18" s="51"/>
-      <c r="E18" s="57"/>
-      <c r="F18" s="51"/>
-      <c r="G18" s="57"/>
-      <c r="H18" s="51"/>
+      <c r="D18" s="47"/>
+      <c r="E18" s="49"/>
+      <c r="F18" s="47"/>
+      <c r="G18" s="49"/>
+      <c r="H18" s="47"/>
       <c r="I18" s="45"/>
     </row>
     <row r="19" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="46">
+      <c r="A19" s="57">
         <v>10</v>
       </c>
       <c r="B19" s="36" t="s">
         <v>1</v>
       </c>
       <c r="C19" s="18"/>
-      <c r="D19" s="55" t="s">
+      <c r="D19" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="E19" s="52" t="s">
+      <c r="E19" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="F19" s="52" t="s">
+      <c r="F19" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="G19" s="52" t="s">
+      <c r="G19" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="H19" s="52" t="s">
+      <c r="H19" s="50" t="s">
         <v>30</v>
       </c>
       <c r="I19" s="25"/>
     </row>
     <row r="20" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="48"/>
+      <c r="A20" s="59"/>
       <c r="B20" s="26" t="s">
         <v>2</v>
       </c>
       <c r="C20" s="17"/>
-      <c r="D20" s="56"/>
-      <c r="E20" s="53"/>
-      <c r="F20" s="53"/>
-      <c r="G20" s="53"/>
-      <c r="H20" s="53"/>
+      <c r="D20" s="53"/>
+      <c r="E20" s="51"/>
+      <c r="F20" s="51"/>
+      <c r="G20" s="51"/>
+      <c r="H20" s="51"/>
       <c r="I20" s="17"/>
     </row>
     <row r="21" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -2789,11 +2812,11 @@
         <v>0</v>
       </c>
       <c r="C21" s="18"/>
-      <c r="D21" s="56"/>
-      <c r="E21" s="53"/>
-      <c r="F21" s="53"/>
-      <c r="G21" s="53"/>
-      <c r="H21" s="53"/>
+      <c r="D21" s="53"/>
+      <c r="E21" s="51"/>
+      <c r="F21" s="51"/>
+      <c r="G21" s="51"/>
+      <c r="H21" s="51"/>
       <c r="I21" s="18"/>
     </row>
     <row r="22" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -2802,49 +2825,49 @@
         <v>3</v>
       </c>
       <c r="C22" s="12"/>
-      <c r="D22" s="57"/>
-      <c r="E22" s="51"/>
-      <c r="F22" s="51"/>
-      <c r="G22" s="51"/>
-      <c r="H22" s="51"/>
+      <c r="D22" s="49"/>
+      <c r="E22" s="47"/>
+      <c r="F22" s="47"/>
+      <c r="G22" s="47"/>
+      <c r="H22" s="47"/>
       <c r="I22" s="17"/>
     </row>
     <row r="23" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="46">
+      <c r="A23" s="57">
         <v>11</v>
       </c>
       <c r="B23" s="36" t="s">
         <v>1</v>
       </c>
       <c r="C23" s="18"/>
-      <c r="D23" s="55" t="s">
+      <c r="D23" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="E23" s="55" t="s">
+      <c r="E23" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="F23" s="52" t="s">
+      <c r="F23" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="G23" s="55" t="s">
+      <c r="G23" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="H23" s="52" t="s">
+      <c r="H23" s="50" t="s">
         <v>30</v>
       </c>
       <c r="I23" s="25"/>
     </row>
     <row r="24" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="48"/>
+      <c r="A24" s="59"/>
       <c r="B24" s="26" t="s">
         <v>2</v>
       </c>
       <c r="C24" s="17"/>
-      <c r="D24" s="56"/>
-      <c r="E24" s="56"/>
-      <c r="F24" s="53"/>
-      <c r="G24" s="56"/>
-      <c r="H24" s="53"/>
+      <c r="D24" s="53"/>
+      <c r="E24" s="53"/>
+      <c r="F24" s="51"/>
+      <c r="G24" s="53"/>
+      <c r="H24" s="51"/>
       <c r="I24" s="17"/>
     </row>
     <row r="25" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -2853,11 +2876,11 @@
         <v>0</v>
       </c>
       <c r="C25" s="18"/>
-      <c r="D25" s="56"/>
-      <c r="E25" s="56"/>
-      <c r="F25" s="53"/>
-      <c r="G25" s="56"/>
-      <c r="H25" s="53"/>
+      <c r="D25" s="53"/>
+      <c r="E25" s="53"/>
+      <c r="F25" s="51"/>
+      <c r="G25" s="53"/>
+      <c r="H25" s="51"/>
       <c r="I25" s="18"/>
     </row>
     <row r="26" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -2866,40 +2889,40 @@
         <v>3</v>
       </c>
       <c r="C26" s="12"/>
-      <c r="D26" s="57"/>
-      <c r="E26" s="57"/>
-      <c r="F26" s="51"/>
-      <c r="G26" s="57"/>
-      <c r="H26" s="51"/>
+      <c r="D26" s="49"/>
+      <c r="E26" s="49"/>
+      <c r="F26" s="47"/>
+      <c r="G26" s="49"/>
+      <c r="H26" s="47"/>
       <c r="I26" s="17"/>
     </row>
     <row r="27" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="46">
+      <c r="A27" s="57">
         <v>12</v>
       </c>
       <c r="B27" s="36" t="s">
         <v>8</v>
       </c>
       <c r="C27" s="18"/>
-      <c r="D27" s="55" t="s">
+      <c r="D27" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="E27" s="52" t="s">
+      <c r="E27" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="F27" s="52" t="s">
+      <c r="F27" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="G27" s="52" t="s">
+      <c r="G27" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="H27" s="52" t="s">
+      <c r="H27" s="50" t="s">
         <v>30</v>
       </c>
       <c r="I27" s="25"/>
     </row>
     <row r="28" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="48"/>
+      <c r="A28" s="59"/>
       <c r="B28" s="26" t="s">
         <v>2</v>
       </c>
@@ -2917,19 +2940,19 @@
         <v>0</v>
       </c>
       <c r="C29" s="18"/>
-      <c r="D29" s="58" t="s">
-        <v>31</v>
-      </c>
-      <c r="E29" s="52" t="s">
+      <c r="D29" s="46" t="s">
+        <v>31</v>
+      </c>
+      <c r="E29" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="F29" s="58" t="s">
-        <v>31</v>
-      </c>
-      <c r="G29" s="52" t="s">
+      <c r="F29" s="46" t="s">
+        <v>31</v>
+      </c>
+      <c r="G29" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="H29" s="58" t="s">
+      <c r="H29" s="46" t="s">
         <v>31</v>
       </c>
       <c r="I29" s="18"/>
@@ -2940,48 +2963,48 @@
         <v>3</v>
       </c>
       <c r="C30" s="12"/>
-      <c r="D30" s="51"/>
+      <c r="D30" s="47"/>
       <c r="E30" s="54"/>
-      <c r="F30" s="51"/>
+      <c r="F30" s="47"/>
       <c r="G30" s="54"/>
-      <c r="H30" s="51"/>
+      <c r="H30" s="47"/>
       <c r="I30" s="17"/>
     </row>
     <row r="31" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="46">
+      <c r="A31" s="57">
         <v>1</v>
       </c>
       <c r="B31" s="36" t="s">
         <v>8</v>
       </c>
       <c r="C31" s="18"/>
-      <c r="D31" s="52" t="s">
+      <c r="D31" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="E31" s="52" t="s">
+      <c r="E31" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="F31" s="52" t="s">
+      <c r="F31" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="G31" s="52" t="s">
+      <c r="G31" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="H31" s="52" t="s">
+      <c r="H31" s="50" t="s">
         <v>32</v>
       </c>
       <c r="I31" s="25"/>
     </row>
     <row r="32" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="48"/>
+      <c r="A32" s="59"/>
       <c r="B32" s="26" t="s">
         <v>2</v>
       </c>
       <c r="C32" s="17"/>
       <c r="D32" s="54"/>
-      <c r="E32" s="53"/>
+      <c r="E32" s="51"/>
       <c r="F32" s="54"/>
-      <c r="G32" s="53"/>
+      <c r="G32" s="51"/>
       <c r="H32" s="54"/>
       <c r="I32" s="17"/>
     </row>
@@ -2991,15 +3014,15 @@
         <v>0</v>
       </c>
       <c r="C33" s="18"/>
-      <c r="D33" s="58" t="s">
+      <c r="D33" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="E33" s="53"/>
-      <c r="F33" s="58" t="s">
+      <c r="E33" s="51"/>
+      <c r="F33" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="G33" s="53"/>
-      <c r="H33" s="58" t="s">
+      <c r="G33" s="51"/>
+      <c r="H33" s="46" t="s">
         <v>29</v>
       </c>
       <c r="I33" s="18"/>
@@ -3010,49 +3033,49 @@
         <v>3</v>
       </c>
       <c r="C34" s="12"/>
-      <c r="D34" s="51"/>
-      <c r="E34" s="51"/>
-      <c r="F34" s="51"/>
-      <c r="G34" s="51"/>
-      <c r="H34" s="51"/>
+      <c r="D34" s="47"/>
+      <c r="E34" s="47"/>
+      <c r="F34" s="47"/>
+      <c r="G34" s="47"/>
+      <c r="H34" s="47"/>
       <c r="I34" s="17"/>
     </row>
     <row r="35" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="46">
+      <c r="A35" s="57">
         <v>2</v>
       </c>
       <c r="B35" s="36" t="s">
         <v>8</v>
       </c>
       <c r="C35" s="18"/>
-      <c r="D35" s="52" t="s">
+      <c r="D35" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="E35" s="52" t="s">
+      <c r="E35" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="F35" s="52" t="s">
+      <c r="F35" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="G35" s="52" t="s">
+      <c r="G35" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="H35" s="52" t="s">
+      <c r="H35" s="50" t="s">
         <v>29</v>
       </c>
       <c r="I35" s="25"/>
     </row>
     <row r="36" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="48"/>
+      <c r="A36" s="59"/>
       <c r="B36" s="26" t="s">
         <v>2</v>
       </c>
       <c r="C36" s="17"/>
-      <c r="D36" s="53"/>
-      <c r="E36" s="53"/>
-      <c r="F36" s="53"/>
-      <c r="G36" s="53"/>
-      <c r="H36" s="53"/>
+      <c r="D36" s="51"/>
+      <c r="E36" s="51"/>
+      <c r="F36" s="51"/>
+      <c r="G36" s="51"/>
+      <c r="H36" s="51"/>
       <c r="I36" s="17"/>
     </row>
     <row r="37" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -3061,11 +3084,11 @@
         <v>0</v>
       </c>
       <c r="C37" s="18"/>
-      <c r="D37" s="53"/>
-      <c r="E37" s="53"/>
-      <c r="F37" s="53"/>
-      <c r="G37" s="53"/>
-      <c r="H37" s="53"/>
+      <c r="D37" s="51"/>
+      <c r="E37" s="51"/>
+      <c r="F37" s="51"/>
+      <c r="G37" s="51"/>
+      <c r="H37" s="51"/>
       <c r="I37" s="18"/>
     </row>
     <row r="38" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -3074,49 +3097,49 @@
         <v>3</v>
       </c>
       <c r="C38" s="12"/>
-      <c r="D38" s="51"/>
-      <c r="E38" s="51"/>
-      <c r="F38" s="51"/>
-      <c r="G38" s="51"/>
-      <c r="H38" s="51"/>
+      <c r="D38" s="47"/>
+      <c r="E38" s="47"/>
+      <c r="F38" s="47"/>
+      <c r="G38" s="47"/>
+      <c r="H38" s="47"/>
       <c r="I38" s="17"/>
     </row>
     <row r="39" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="46">
+      <c r="A39" s="57">
         <v>3</v>
       </c>
       <c r="B39" s="36" t="s">
         <v>8</v>
       </c>
       <c r="C39" s="18"/>
-      <c r="D39" s="58" t="s">
+      <c r="D39" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="E39" s="55" t="s">
+      <c r="E39" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="F39" s="52" t="s">
+      <c r="F39" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="G39" s="55" t="s">
+      <c r="G39" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="H39" s="58" t="s">
+      <c r="H39" s="46" t="s">
         <v>29</v>
       </c>
       <c r="I39" s="25"/>
     </row>
     <row r="40" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="48"/>
+      <c r="A40" s="59"/>
       <c r="B40" s="26" t="s">
         <v>2</v>
       </c>
       <c r="C40" s="17"/>
-      <c r="D40" s="51"/>
-      <c r="E40" s="56"/>
-      <c r="F40" s="53"/>
-      <c r="G40" s="56"/>
-      <c r="H40" s="51"/>
+      <c r="D40" s="47"/>
+      <c r="E40" s="53"/>
+      <c r="F40" s="51"/>
+      <c r="G40" s="53"/>
+      <c r="H40" s="47"/>
       <c r="I40" s="17"/>
     </row>
     <row r="41" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
@@ -3125,13 +3148,13 @@
         <v>0</v>
       </c>
       <c r="C41" s="18"/>
-      <c r="D41" s="55" t="s">
+      <c r="D41" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="E41" s="56"/>
-      <c r="F41" s="53"/>
-      <c r="G41" s="56"/>
-      <c r="H41" s="55" t="s">
+      <c r="E41" s="53"/>
+      <c r="F41" s="51"/>
+      <c r="G41" s="53"/>
+      <c r="H41" s="52" t="s">
         <v>33</v>
       </c>
       <c r="I41" s="18"/>
@@ -3142,49 +3165,49 @@
         <v>3</v>
       </c>
       <c r="C42" s="12"/>
-      <c r="D42" s="57"/>
-      <c r="E42" s="57"/>
-      <c r="F42" s="51"/>
-      <c r="G42" s="57"/>
-      <c r="H42" s="57"/>
+      <c r="D42" s="49"/>
+      <c r="E42" s="49"/>
+      <c r="F42" s="47"/>
+      <c r="G42" s="49"/>
+      <c r="H42" s="49"/>
       <c r="I42" s="17"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A43" s="46">
+      <c r="A43" s="57">
         <v>4</v>
       </c>
       <c r="B43" s="36" t="s">
         <v>8</v>
       </c>
       <c r="C43" s="18"/>
-      <c r="D43" s="55" t="s">
+      <c r="D43" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="E43" s="52" t="s">
+      <c r="E43" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="F43" s="52" t="s">
+      <c r="F43" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="G43" s="52" t="s">
+      <c r="G43" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="H43" s="55" t="s">
+      <c r="H43" s="52" t="s">
         <v>33</v>
       </c>
       <c r="I43" s="25"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A44" s="48"/>
+      <c r="A44" s="59"/>
       <c r="B44" s="26" t="s">
         <v>2</v>
       </c>
       <c r="C44" s="17"/>
-      <c r="D44" s="56"/>
-      <c r="E44" s="53"/>
-      <c r="F44" s="53"/>
-      <c r="G44" s="53"/>
-      <c r="H44" s="56"/>
+      <c r="D44" s="53"/>
+      <c r="E44" s="51"/>
+      <c r="F44" s="51"/>
+      <c r="G44" s="51"/>
+      <c r="H44" s="53"/>
       <c r="I44" s="17"/>
     </row>
     <row r="45" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
@@ -3193,11 +3216,11 @@
         <v>0</v>
       </c>
       <c r="C45" s="18"/>
-      <c r="D45" s="56"/>
-      <c r="E45" s="53"/>
-      <c r="F45" s="53"/>
-      <c r="G45" s="53"/>
-      <c r="H45" s="56"/>
+      <c r="D45" s="53"/>
+      <c r="E45" s="51"/>
+      <c r="F45" s="51"/>
+      <c r="G45" s="51"/>
+      <c r="H45" s="53"/>
       <c r="I45" s="18"/>
     </row>
     <row r="46" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
@@ -3206,129 +3229,129 @@
         <v>3</v>
       </c>
       <c r="C46" s="12"/>
-      <c r="D46" s="57"/>
-      <c r="E46" s="51"/>
-      <c r="F46" s="51"/>
-      <c r="G46" s="51"/>
-      <c r="H46" s="57"/>
+      <c r="D46" s="49"/>
+      <c r="E46" s="47"/>
+      <c r="F46" s="47"/>
+      <c r="G46" s="47"/>
+      <c r="H46" s="49"/>
       <c r="I46" s="17"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A47" s="46">
+      <c r="A47" s="57">
         <v>5</v>
       </c>
       <c r="B47" s="36" t="s">
         <v>8</v>
       </c>
       <c r="C47" s="15"/>
-      <c r="D47" s="55" t="s">
+      <c r="D47" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="E47" s="58" t="s">
-        <v>31</v>
-      </c>
-      <c r="F47" s="52" t="s">
+      <c r="E47" s="46" t="s">
+        <v>31</v>
+      </c>
+      <c r="F47" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="G47" s="58" t="s">
-        <v>31</v>
-      </c>
-      <c r="H47" s="55" t="s">
+      <c r="G47" s="46" t="s">
+        <v>31</v>
+      </c>
+      <c r="H47" s="52" t="s">
         <v>33</v>
       </c>
       <c r="I47" s="15"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A48" s="47"/>
+      <c r="A48" s="58"/>
       <c r="B48" s="33" t="s">
         <v>0</v>
       </c>
       <c r="C48" s="13"/>
-      <c r="D48" s="57"/>
-      <c r="E48" s="51"/>
-      <c r="F48" s="51"/>
-      <c r="G48" s="51"/>
-      <c r="H48" s="57"/>
+      <c r="D48" s="49"/>
+      <c r="E48" s="47"/>
+      <c r="F48" s="47"/>
+      <c r="G48" s="47"/>
+      <c r="H48" s="49"/>
       <c r="I48" s="13"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A49" s="46">
+      <c r="A49" s="57">
         <v>6</v>
       </c>
       <c r="B49" s="36" t="s">
         <v>8</v>
       </c>
       <c r="C49" s="15"/>
-      <c r="D49" s="55" t="s">
+      <c r="D49" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="E49" s="59" t="s">
+      <c r="E49" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="F49" s="61" t="s">
+      <c r="F49" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="G49" s="58" t="s">
-        <v>31</v>
-      </c>
-      <c r="H49" s="55" t="s">
+      <c r="G49" s="46" t="s">
+        <v>31</v>
+      </c>
+      <c r="H49" s="52" t="s">
         <v>33</v>
       </c>
       <c r="I49" s="15"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A50" s="47"/>
+      <c r="A50" s="58"/>
       <c r="B50" s="33" t="s">
         <v>0</v>
       </c>
       <c r="C50" s="13"/>
-      <c r="D50" s="57"/>
-      <c r="E50" s="57"/>
-      <c r="F50" s="62"/>
-      <c r="G50" s="51"/>
-      <c r="H50" s="57"/>
+      <c r="D50" s="49"/>
+      <c r="E50" s="49"/>
+      <c r="F50" s="47"/>
+      <c r="G50" s="47"/>
+      <c r="H50" s="49"/>
       <c r="I50" s="13"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A51" s="46">
+      <c r="A51" s="57">
         <v>7</v>
       </c>
       <c r="B51" s="36" t="s">
         <v>8</v>
       </c>
       <c r="C51" s="15"/>
-      <c r="D51" s="58" t="s">
-        <v>31</v>
-      </c>
-      <c r="E51" s="59" t="s">
+      <c r="D51" s="46" t="s">
+        <v>31</v>
+      </c>
+      <c r="E51" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="F51" s="58" t="s">
-        <v>31</v>
-      </c>
-      <c r="G51" s="58" t="s">
-        <v>31</v>
-      </c>
-      <c r="H51" s="58" t="s">
+      <c r="F51" s="46" t="s">
+        <v>31</v>
+      </c>
+      <c r="G51" s="46" t="s">
+        <v>31</v>
+      </c>
+      <c r="H51" s="46" t="s">
         <v>31</v>
       </c>
       <c r="I51" s="15"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A52" s="47"/>
+      <c r="A52" s="58"/>
       <c r="B52" s="33" t="s">
         <v>0</v>
       </c>
       <c r="C52" s="13"/>
-      <c r="D52" s="51"/>
-      <c r="E52" s="57"/>
-      <c r="F52" s="51"/>
-      <c r="G52" s="51"/>
-      <c r="H52" s="51"/>
+      <c r="D52" s="47"/>
+      <c r="E52" s="49"/>
+      <c r="F52" s="47"/>
+      <c r="G52" s="47"/>
+      <c r="H52" s="47"/>
       <c r="I52" s="13"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A53" s="46">
+      <c r="A53" s="57">
         <v>8</v>
       </c>
       <c r="B53" s="36" t="s">
@@ -3338,7 +3361,7 @@
       <c r="D53" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="E53" s="59" t="s">
+      <c r="E53" s="48" t="s">
         <v>35</v>
       </c>
       <c r="F53" s="16" t="s">
@@ -3353,7 +3376,7 @@
       <c r="I53" s="15"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A54" s="47"/>
+      <c r="A54" s="58"/>
       <c r="B54" s="33" t="s">
         <v>0</v>
       </c>
@@ -3361,7 +3384,7 @@
       <c r="D54" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="E54" s="57"/>
+      <c r="E54" s="49"/>
       <c r="F54" s="14" t="s">
         <v>31</v>
       </c>
@@ -3374,48 +3397,140 @@
       <c r="I54" s="13"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A55" s="46">
+      <c r="A55" s="57">
         <v>9</v>
       </c>
       <c r="B55" s="36" t="s">
         <v>8</v>
       </c>
       <c r="C55" s="15"/>
-      <c r="D55" s="58" t="s">
+      <c r="D55" s="46" t="s">
         <v>31</v>
       </c>
       <c r="E55" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="F55" s="58" t="s">
-        <v>31</v>
-      </c>
-      <c r="G55" s="58" t="s">
-        <v>31</v>
-      </c>
-      <c r="H55" s="58" t="s">
+      <c r="F55" s="46" t="s">
+        <v>31</v>
+      </c>
+      <c r="G55" s="46" t="s">
+        <v>31</v>
+      </c>
+      <c r="H55" s="46" t="s">
         <v>31</v>
       </c>
       <c r="I55" s="15"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A56" s="47"/>
+      <c r="A56" s="58"/>
       <c r="B56" s="33" t="s">
         <v>0</v>
       </c>
       <c r="C56" s="13"/>
-      <c r="D56" s="51"/>
+      <c r="D56" s="47"/>
       <c r="E56" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="F56" s="51"/>
-      <c r="G56" s="51"/>
-      <c r="H56" s="51"/>
+      <c r="F56" s="47"/>
+      <c r="G56" s="47"/>
+      <c r="H56" s="47"/>
       <c r="I56" s="13"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="107">
+    <mergeCell ref="H51:H52"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="G55:G56"/>
+    <mergeCell ref="H55:H56"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="G51:G52"/>
+    <mergeCell ref="H47:H48"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="H49:H50"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="G47:G48"/>
+    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="D43:D46"/>
+    <mergeCell ref="E43:E46"/>
+    <mergeCell ref="F43:F46"/>
+    <mergeCell ref="G43:G46"/>
+    <mergeCell ref="H43:H46"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="E39:E42"/>
+    <mergeCell ref="F39:F42"/>
+    <mergeCell ref="G39:G42"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="H33:H34"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="D35:D38"/>
+    <mergeCell ref="E35:E38"/>
+    <mergeCell ref="F35:F38"/>
+    <mergeCell ref="G35:G38"/>
+    <mergeCell ref="H35:H38"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="E31:E34"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="G31:G34"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="H19:H22"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="D23:D26"/>
+    <mergeCell ref="E23:E26"/>
+    <mergeCell ref="F23:F26"/>
+    <mergeCell ref="G23:G26"/>
+    <mergeCell ref="H23:H26"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="D19:D22"/>
+    <mergeCell ref="E19:E22"/>
+    <mergeCell ref="F19:F22"/>
+    <mergeCell ref="G19:G22"/>
+    <mergeCell ref="H11:H14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E18"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G15:G18"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="E11:E14"/>
+    <mergeCell ref="F11:F14"/>
+    <mergeCell ref="G11:G14"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="D5:D6"/>
@@ -3431,7 +3546,1085 @@
     <mergeCell ref="H7:H10"/>
     <mergeCell ref="E9:E10"/>
     <mergeCell ref="G9:G10"/>
-    <mergeCell ref="H11:H14"/>
+  </mergeCells>
+  <phoneticPr fontId="0" type="noConversion"/>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.4" right="0.4" top="0.4" bottom="0.5" header="0.3" footer="0.25"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <headerFooter scaleWithDoc="0">
+    <oddFooter>&amp;L&amp;8&amp;K01+048Class Schedule Template © 2017 by Vertex42.com&amp;R&amp;8&amp;K01+048https://www.vertex42.com/ExcelTemplates/class-schedule-template.html</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA7327CC-5C45-4739-8DE8-8ED482915DCD}">
+  <dimension ref="A1:I56"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="3.75" style="20" customWidth="1"/>
+    <col min="2" max="2" width="3" style="20" customWidth="1"/>
+    <col min="3" max="3" width="8.5" style="20" customWidth="1"/>
+    <col min="4" max="8" width="13.25" style="20" customWidth="1"/>
+    <col min="9" max="9" width="8.5" style="20" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="20"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="23" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="39"/>
+    </row>
+    <row r="2" spans="1:9" s="21" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="G2" s="22">
+        <v>5</v>
+      </c>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+    </row>
+    <row r="3" spans="1:9" s="23" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="56" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="56"/>
+      <c r="G3" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" s="38" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" s="27" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="34"/>
+      <c r="B4" s="35"/>
+      <c r="C4" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" s="31" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="57">
+        <v>6</v>
+      </c>
+      <c r="B5" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="44"/>
+      <c r="D5" s="55" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="55" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="55" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="55" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="55" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" s="44"/>
+    </row>
+    <row r="6" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="58"/>
+      <c r="B6" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="45"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="47"/>
+      <c r="I6" s="45"/>
+    </row>
+    <row r="7" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="57">
+        <v>7</v>
+      </c>
+      <c r="B7" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="42"/>
+      <c r="D7" s="61" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="61" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="61" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="61" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" s="61" t="s">
+        <v>18</v>
+      </c>
+      <c r="I7" s="44"/>
+    </row>
+    <row r="8" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="59"/>
+      <c r="B8" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="43"/>
+      <c r="D8" s="62"/>
+      <c r="E8" s="62"/>
+      <c r="F8" s="62"/>
+      <c r="G8" s="62"/>
+      <c r="H8" s="62"/>
+      <c r="I8" s="43"/>
+    </row>
+    <row r="9" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="32"/>
+      <c r="B9" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="43"/>
+      <c r="D9" s="62"/>
+      <c r="E9" s="62" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="62"/>
+      <c r="G9" s="62" t="s">
+        <v>28</v>
+      </c>
+      <c r="H9" s="62"/>
+      <c r="I9" s="43"/>
+    </row>
+    <row r="10" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="37"/>
+      <c r="B10" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="45"/>
+      <c r="D10" s="63"/>
+      <c r="E10" s="63"/>
+      <c r="F10" s="63"/>
+      <c r="G10" s="63"/>
+      <c r="H10" s="63"/>
+      <c r="I10" s="45"/>
+    </row>
+    <row r="11" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="57">
+        <v>8</v>
+      </c>
+      <c r="B11" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="42"/>
+      <c r="D11" s="61" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="61" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11" s="61" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="61" t="s">
+        <v>36</v>
+      </c>
+      <c r="H11" s="61" t="s">
+        <v>18</v>
+      </c>
+      <c r="I11" s="42"/>
+    </row>
+    <row r="12" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="59"/>
+      <c r="B12" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="43"/>
+      <c r="D12" s="62"/>
+      <c r="E12" s="62"/>
+      <c r="F12" s="62"/>
+      <c r="G12" s="62"/>
+      <c r="H12" s="62"/>
+      <c r="I12" s="43"/>
+    </row>
+    <row r="13" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="32"/>
+      <c r="B13" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="43"/>
+      <c r="D13" s="62"/>
+      <c r="E13" s="62"/>
+      <c r="F13" s="62"/>
+      <c r="G13" s="62"/>
+      <c r="H13" s="62"/>
+      <c r="I13" s="43"/>
+    </row>
+    <row r="14" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="37"/>
+      <c r="B14" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="45"/>
+      <c r="D14" s="63"/>
+      <c r="E14" s="63"/>
+      <c r="F14" s="63"/>
+      <c r="G14" s="63"/>
+      <c r="H14" s="63"/>
+      <c r="I14" s="45"/>
+    </row>
+    <row r="15" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="57">
+        <v>9</v>
+      </c>
+      <c r="B15" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="18"/>
+      <c r="D15" s="61" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" s="61" t="s">
+        <v>36</v>
+      </c>
+      <c r="F15" s="61" t="s">
+        <v>28</v>
+      </c>
+      <c r="G15" s="61" t="s">
+        <v>36</v>
+      </c>
+      <c r="H15" s="61" t="s">
+        <v>28</v>
+      </c>
+      <c r="I15" s="42"/>
+    </row>
+    <row r="16" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="59"/>
+      <c r="B16" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" s="17"/>
+      <c r="D16" s="64"/>
+      <c r="E16" s="62"/>
+      <c r="F16" s="64"/>
+      <c r="G16" s="62"/>
+      <c r="H16" s="64"/>
+      <c r="I16" s="43"/>
+    </row>
+    <row r="17" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="32"/>
+      <c r="B17" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" s="18"/>
+      <c r="D17" s="65" t="s">
+        <v>29</v>
+      </c>
+      <c r="E17" s="62"/>
+      <c r="F17" s="65" t="s">
+        <v>29</v>
+      </c>
+      <c r="G17" s="62"/>
+      <c r="H17" s="65" t="s">
+        <v>29</v>
+      </c>
+      <c r="I17" s="43"/>
+    </row>
+    <row r="18" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="37"/>
+      <c r="B18" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="12"/>
+      <c r="D18" s="63"/>
+      <c r="E18" s="63"/>
+      <c r="F18" s="63"/>
+      <c r="G18" s="63"/>
+      <c r="H18" s="63"/>
+      <c r="I18" s="45"/>
+    </row>
+    <row r="19" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="57">
+        <v>10</v>
+      </c>
+      <c r="B19" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="18"/>
+      <c r="D19" s="61" t="s">
+        <v>30</v>
+      </c>
+      <c r="E19" s="61" t="s">
+        <v>29</v>
+      </c>
+      <c r="F19" s="61" t="s">
+        <v>30</v>
+      </c>
+      <c r="G19" s="61" t="s">
+        <v>29</v>
+      </c>
+      <c r="H19" s="61" t="s">
+        <v>30</v>
+      </c>
+      <c r="I19" s="25"/>
+    </row>
+    <row r="20" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="59"/>
+      <c r="B20" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="C20" s="17"/>
+      <c r="D20" s="62"/>
+      <c r="E20" s="62"/>
+      <c r="F20" s="62"/>
+      <c r="G20" s="62"/>
+      <c r="H20" s="62"/>
+      <c r="I20" s="17"/>
+    </row>
+    <row r="21" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="32"/>
+      <c r="B21" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21" s="18"/>
+      <c r="D21" s="62"/>
+      <c r="E21" s="62"/>
+      <c r="F21" s="62"/>
+      <c r="G21" s="62"/>
+      <c r="H21" s="62"/>
+      <c r="I21" s="18"/>
+    </row>
+    <row r="22" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="37"/>
+      <c r="B22" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" s="12"/>
+      <c r="D22" s="63"/>
+      <c r="E22" s="63"/>
+      <c r="F22" s="63"/>
+      <c r="G22" s="63"/>
+      <c r="H22" s="63"/>
+      <c r="I22" s="17"/>
+    </row>
+    <row r="23" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="57">
+        <v>11</v>
+      </c>
+      <c r="B23" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="18"/>
+      <c r="D23" s="61" t="s">
+        <v>30</v>
+      </c>
+      <c r="E23" s="61" t="s">
+        <v>33</v>
+      </c>
+      <c r="F23" s="61" t="s">
+        <v>30</v>
+      </c>
+      <c r="G23" s="61" t="s">
+        <v>33</v>
+      </c>
+      <c r="H23" s="61" t="s">
+        <v>30</v>
+      </c>
+      <c r="I23" s="25"/>
+    </row>
+    <row r="24" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="59"/>
+      <c r="B24" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="C24" s="17"/>
+      <c r="D24" s="62"/>
+      <c r="E24" s="62"/>
+      <c r="F24" s="62"/>
+      <c r="G24" s="62"/>
+      <c r="H24" s="62"/>
+      <c r="I24" s="17"/>
+    </row>
+    <row r="25" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="32"/>
+      <c r="B25" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="C25" s="18"/>
+      <c r="D25" s="62"/>
+      <c r="E25" s="62"/>
+      <c r="F25" s="62"/>
+      <c r="G25" s="62"/>
+      <c r="H25" s="62"/>
+      <c r="I25" s="18"/>
+    </row>
+    <row r="26" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="37"/>
+      <c r="B26" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="C26" s="12"/>
+      <c r="D26" s="63"/>
+      <c r="E26" s="63"/>
+      <c r="F26" s="63"/>
+      <c r="G26" s="63"/>
+      <c r="H26" s="63"/>
+      <c r="I26" s="17"/>
+    </row>
+    <row r="27" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="57">
+        <v>12</v>
+      </c>
+      <c r="B27" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" s="18"/>
+      <c r="D27" s="61" t="s">
+        <v>30</v>
+      </c>
+      <c r="E27" s="61" t="s">
+        <v>32</v>
+      </c>
+      <c r="F27" s="61" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="61" t="s">
+        <v>32</v>
+      </c>
+      <c r="H27" s="61" t="s">
+        <v>30</v>
+      </c>
+      <c r="I27" s="25"/>
+    </row>
+    <row r="28" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="59"/>
+      <c r="B28" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="C28" s="17"/>
+      <c r="D28" s="64"/>
+      <c r="E28" s="64"/>
+      <c r="F28" s="64"/>
+      <c r="G28" s="64"/>
+      <c r="H28" s="64"/>
+      <c r="I28" s="17"/>
+    </row>
+    <row r="29" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="32"/>
+      <c r="B29" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="C29" s="18"/>
+      <c r="D29" s="65" t="s">
+        <v>31</v>
+      </c>
+      <c r="E29" s="61" t="s">
+        <v>30</v>
+      </c>
+      <c r="F29" s="65" t="s">
+        <v>31</v>
+      </c>
+      <c r="G29" s="61" t="s">
+        <v>30</v>
+      </c>
+      <c r="H29" s="65" t="s">
+        <v>31</v>
+      </c>
+      <c r="I29" s="18"/>
+    </row>
+    <row r="30" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="37"/>
+      <c r="B30" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="C30" s="12"/>
+      <c r="D30" s="63"/>
+      <c r="E30" s="64"/>
+      <c r="F30" s="63"/>
+      <c r="G30" s="64"/>
+      <c r="H30" s="63"/>
+      <c r="I30" s="17"/>
+    </row>
+    <row r="31" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="57">
+        <v>1</v>
+      </c>
+      <c r="B31" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" s="18"/>
+      <c r="D31" s="61" t="s">
+        <v>32</v>
+      </c>
+      <c r="E31" s="61" t="s">
+        <v>30</v>
+      </c>
+      <c r="F31" s="61" t="s">
+        <v>32</v>
+      </c>
+      <c r="G31" s="61" t="s">
+        <v>30</v>
+      </c>
+      <c r="H31" s="61" t="s">
+        <v>32</v>
+      </c>
+      <c r="I31" s="25"/>
+    </row>
+    <row r="32" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="59"/>
+      <c r="B32" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="C32" s="17"/>
+      <c r="D32" s="64"/>
+      <c r="E32" s="62"/>
+      <c r="F32" s="64"/>
+      <c r="G32" s="62"/>
+      <c r="H32" s="64"/>
+      <c r="I32" s="17"/>
+    </row>
+    <row r="33" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="32"/>
+      <c r="B33" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="C33" s="18"/>
+      <c r="D33" s="65" t="s">
+        <v>29</v>
+      </c>
+      <c r="E33" s="62"/>
+      <c r="F33" s="65" t="s">
+        <v>29</v>
+      </c>
+      <c r="G33" s="62"/>
+      <c r="H33" s="65" t="s">
+        <v>29</v>
+      </c>
+      <c r="I33" s="18"/>
+    </row>
+    <row r="34" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="37"/>
+      <c r="B34" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="C34" s="12"/>
+      <c r="D34" s="63"/>
+      <c r="E34" s="63"/>
+      <c r="F34" s="63"/>
+      <c r="G34" s="63"/>
+      <c r="H34" s="63"/>
+      <c r="I34" s="17"/>
+    </row>
+    <row r="35" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="57">
+        <v>2</v>
+      </c>
+      <c r="B35" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35" s="18"/>
+      <c r="D35" s="61" t="s">
+        <v>29</v>
+      </c>
+      <c r="E35" s="61" t="s">
+        <v>30</v>
+      </c>
+      <c r="F35" s="61" t="s">
+        <v>37</v>
+      </c>
+      <c r="G35" s="61" t="s">
+        <v>30</v>
+      </c>
+      <c r="H35" s="61" t="s">
+        <v>29</v>
+      </c>
+      <c r="I35" s="25"/>
+    </row>
+    <row r="36" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="59"/>
+      <c r="B36" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="C36" s="17"/>
+      <c r="D36" s="62"/>
+      <c r="E36" s="62"/>
+      <c r="F36" s="62"/>
+      <c r="G36" s="62"/>
+      <c r="H36" s="62"/>
+      <c r="I36" s="17"/>
+    </row>
+    <row r="37" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="32"/>
+      <c r="B37" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="C37" s="18"/>
+      <c r="D37" s="62"/>
+      <c r="E37" s="62"/>
+      <c r="F37" s="62"/>
+      <c r="G37" s="62"/>
+      <c r="H37" s="62"/>
+      <c r="I37" s="18"/>
+    </row>
+    <row r="38" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="37"/>
+      <c r="B38" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="C38" s="12"/>
+      <c r="D38" s="63"/>
+      <c r="E38" s="63"/>
+      <c r="F38" s="63"/>
+      <c r="G38" s="63"/>
+      <c r="H38" s="63"/>
+      <c r="I38" s="17"/>
+    </row>
+    <row r="39" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="57">
+        <v>3</v>
+      </c>
+      <c r="B39" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="C39" s="18"/>
+      <c r="D39" s="65" t="s">
+        <v>29</v>
+      </c>
+      <c r="E39" s="61" t="s">
+        <v>33</v>
+      </c>
+      <c r="F39" s="61" t="s">
+        <v>37</v>
+      </c>
+      <c r="G39" s="61" t="s">
+        <v>33</v>
+      </c>
+      <c r="H39" s="65" t="s">
+        <v>29</v>
+      </c>
+      <c r="I39" s="25"/>
+    </row>
+    <row r="40" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="59"/>
+      <c r="B40" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="C40" s="17"/>
+      <c r="D40" s="63"/>
+      <c r="E40" s="62"/>
+      <c r="F40" s="62"/>
+      <c r="G40" s="62"/>
+      <c r="H40" s="63"/>
+      <c r="I40" s="17"/>
+    </row>
+    <row r="41" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A41" s="32"/>
+      <c r="B41" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="C41" s="18"/>
+      <c r="D41" s="61" t="s">
+        <v>33</v>
+      </c>
+      <c r="E41" s="62"/>
+      <c r="F41" s="62"/>
+      <c r="G41" s="62"/>
+      <c r="H41" s="61" t="s">
+        <v>33</v>
+      </c>
+      <c r="I41" s="18"/>
+    </row>
+    <row r="42" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A42" s="37"/>
+      <c r="B42" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="C42" s="12"/>
+      <c r="D42" s="63"/>
+      <c r="E42" s="63"/>
+      <c r="F42" s="63"/>
+      <c r="G42" s="63"/>
+      <c r="H42" s="63"/>
+      <c r="I42" s="17"/>
+    </row>
+    <row r="43" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A43" s="57">
+        <v>4</v>
+      </c>
+      <c r="B43" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="C43" s="18"/>
+      <c r="D43" s="61" t="s">
+        <v>33</v>
+      </c>
+      <c r="E43" s="61" t="s">
+        <v>29</v>
+      </c>
+      <c r="F43" s="61" t="s">
+        <v>37</v>
+      </c>
+      <c r="G43" s="61" t="s">
+        <v>29</v>
+      </c>
+      <c r="H43" s="61" t="s">
+        <v>33</v>
+      </c>
+      <c r="I43" s="25"/>
+    </row>
+    <row r="44" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A44" s="59"/>
+      <c r="B44" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="C44" s="17"/>
+      <c r="D44" s="62"/>
+      <c r="E44" s="62"/>
+      <c r="F44" s="62"/>
+      <c r="G44" s="62"/>
+      <c r="H44" s="62"/>
+      <c r="I44" s="17"/>
+    </row>
+    <row r="45" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A45" s="32"/>
+      <c r="B45" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="C45" s="18"/>
+      <c r="D45" s="62"/>
+      <c r="E45" s="62"/>
+      <c r="F45" s="62"/>
+      <c r="G45" s="62"/>
+      <c r="H45" s="62"/>
+      <c r="I45" s="18"/>
+    </row>
+    <row r="46" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A46" s="37"/>
+      <c r="B46" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="C46" s="12"/>
+      <c r="D46" s="63"/>
+      <c r="E46" s="63"/>
+      <c r="F46" s="63"/>
+      <c r="G46" s="63"/>
+      <c r="H46" s="63"/>
+      <c r="I46" s="17"/>
+    </row>
+    <row r="47" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A47" s="57">
+        <v>5</v>
+      </c>
+      <c r="B47" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="C47" s="15"/>
+      <c r="D47" s="61" t="s">
+        <v>33</v>
+      </c>
+      <c r="E47" s="65" t="s">
+        <v>31</v>
+      </c>
+      <c r="F47" s="61" t="s">
+        <v>37</v>
+      </c>
+      <c r="G47" s="65" t="s">
+        <v>31</v>
+      </c>
+      <c r="H47" s="61" t="s">
+        <v>33</v>
+      </c>
+      <c r="I47" s="15"/>
+    </row>
+    <row r="48" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A48" s="58"/>
+      <c r="B48" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="C48" s="13"/>
+      <c r="D48" s="63"/>
+      <c r="E48" s="63"/>
+      <c r="F48" s="63"/>
+      <c r="G48" s="63"/>
+      <c r="H48" s="63"/>
+      <c r="I48" s="13"/>
+    </row>
+    <row r="49" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A49" s="57">
+        <v>6</v>
+      </c>
+      <c r="B49" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="C49" s="15"/>
+      <c r="D49" s="61" t="s">
+        <v>33</v>
+      </c>
+      <c r="E49" s="65" t="s">
+        <v>35</v>
+      </c>
+      <c r="F49" s="61" t="s">
+        <v>33</v>
+      </c>
+      <c r="G49" s="65" t="s">
+        <v>31</v>
+      </c>
+      <c r="H49" s="61" t="s">
+        <v>33</v>
+      </c>
+      <c r="I49" s="15"/>
+    </row>
+    <row r="50" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A50" s="58"/>
+      <c r="B50" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="C50" s="13"/>
+      <c r="D50" s="63"/>
+      <c r="E50" s="63"/>
+      <c r="F50" s="63"/>
+      <c r="G50" s="63"/>
+      <c r="H50" s="63"/>
+      <c r="I50" s="13"/>
+    </row>
+    <row r="51" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A51" s="57">
+        <v>7</v>
+      </c>
+      <c r="B51" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="C51" s="15"/>
+      <c r="D51" s="65" t="s">
+        <v>31</v>
+      </c>
+      <c r="E51" s="65" t="s">
+        <v>35</v>
+      </c>
+      <c r="F51" s="65" t="s">
+        <v>31</v>
+      </c>
+      <c r="G51" s="65" t="s">
+        <v>31</v>
+      </c>
+      <c r="H51" s="65" t="s">
+        <v>31</v>
+      </c>
+      <c r="I51" s="15"/>
+    </row>
+    <row r="52" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A52" s="58"/>
+      <c r="B52" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="C52" s="13"/>
+      <c r="D52" s="63"/>
+      <c r="E52" s="63"/>
+      <c r="F52" s="63"/>
+      <c r="G52" s="63"/>
+      <c r="H52" s="63"/>
+      <c r="I52" s="13"/>
+    </row>
+    <row r="53" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A53" s="57">
+        <v>8</v>
+      </c>
+      <c r="B53" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="C53" s="15"/>
+      <c r="D53" s="66" t="s">
+        <v>34</v>
+      </c>
+      <c r="E53" s="65" t="s">
+        <v>35</v>
+      </c>
+      <c r="F53" s="66" t="s">
+        <v>34</v>
+      </c>
+      <c r="G53" s="66" t="s">
+        <v>34</v>
+      </c>
+      <c r="H53" s="66" t="s">
+        <v>34</v>
+      </c>
+      <c r="I53" s="15"/>
+    </row>
+    <row r="54" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A54" s="58"/>
+      <c r="B54" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="C54" s="13"/>
+      <c r="D54" s="67" t="s">
+        <v>31</v>
+      </c>
+      <c r="E54" s="63"/>
+      <c r="F54" s="67" t="s">
+        <v>31</v>
+      </c>
+      <c r="G54" s="67" t="s">
+        <v>31</v>
+      </c>
+      <c r="H54" s="67" t="s">
+        <v>31</v>
+      </c>
+      <c r="I54" s="13"/>
+    </row>
+    <row r="55" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A55" s="57">
+        <v>9</v>
+      </c>
+      <c r="B55" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="C55" s="15"/>
+      <c r="D55" s="65" t="s">
+        <v>31</v>
+      </c>
+      <c r="E55" s="68" t="s">
+        <v>34</v>
+      </c>
+      <c r="F55" s="65" t="s">
+        <v>31</v>
+      </c>
+      <c r="G55" s="65" t="s">
+        <v>31</v>
+      </c>
+      <c r="H55" s="65" t="s">
+        <v>31</v>
+      </c>
+      <c r="I55" s="15"/>
+    </row>
+    <row r="56" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A56" s="58"/>
+      <c r="B56" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="C56" s="13"/>
+      <c r="D56" s="63"/>
+      <c r="E56" s="69" t="s">
+        <v>31</v>
+      </c>
+      <c r="F56" s="63"/>
+      <c r="G56" s="63"/>
+      <c r="H56" s="63"/>
+      <c r="I56" s="13"/>
+    </row>
+  </sheetData>
+  <mergeCells count="107">
+    <mergeCell ref="H55:H56"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="G55:G56"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="G51:G52"/>
+    <mergeCell ref="H51:H52"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="H49:H50"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="G47:G48"/>
+    <mergeCell ref="H47:H48"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="D43:D46"/>
+    <mergeCell ref="E43:E46"/>
+    <mergeCell ref="F43:F46"/>
+    <mergeCell ref="G43:G46"/>
+    <mergeCell ref="H43:H46"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="E39:E42"/>
+    <mergeCell ref="F39:F42"/>
+    <mergeCell ref="G39:G42"/>
+    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="H33:H34"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="D35:D38"/>
+    <mergeCell ref="E35:E38"/>
+    <mergeCell ref="F35:F38"/>
+    <mergeCell ref="G35:G38"/>
+    <mergeCell ref="H35:H38"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="E31:E34"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="G31:G34"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="D23:D26"/>
+    <mergeCell ref="E23:E26"/>
+    <mergeCell ref="F23:F26"/>
+    <mergeCell ref="G23:G26"/>
+    <mergeCell ref="H23:H26"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="D19:D22"/>
+    <mergeCell ref="E19:E22"/>
+    <mergeCell ref="F19:F22"/>
+    <mergeCell ref="G19:G22"/>
+    <mergeCell ref="H19:H22"/>
     <mergeCell ref="A15:A16"/>
     <mergeCell ref="D15:D16"/>
     <mergeCell ref="E15:E18"/>
@@ -3446,95 +4639,28 @@
     <mergeCell ref="E11:E14"/>
     <mergeCell ref="F11:F14"/>
     <mergeCell ref="G11:G14"/>
-    <mergeCell ref="H19:H22"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="D23:D26"/>
-    <mergeCell ref="E23:E26"/>
-    <mergeCell ref="F23:F26"/>
-    <mergeCell ref="G23:G26"/>
-    <mergeCell ref="H23:H26"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="D19:D22"/>
-    <mergeCell ref="E19:E22"/>
-    <mergeCell ref="F19:F22"/>
-    <mergeCell ref="G19:G22"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="H31:H32"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="H33:H34"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="D35:D38"/>
-    <mergeCell ref="E35:E38"/>
-    <mergeCell ref="F35:F38"/>
-    <mergeCell ref="G35:G38"/>
-    <mergeCell ref="H35:H38"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="E31:E34"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="G31:G34"/>
-    <mergeCell ref="H39:H40"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="H41:H42"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="D43:D46"/>
-    <mergeCell ref="E43:E46"/>
-    <mergeCell ref="F43:F46"/>
-    <mergeCell ref="G43:G46"/>
-    <mergeCell ref="H43:H46"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="E39:E42"/>
-    <mergeCell ref="F39:F42"/>
-    <mergeCell ref="G39:G42"/>
-    <mergeCell ref="H47:H48"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="F49:F50"/>
-    <mergeCell ref="G49:G50"/>
-    <mergeCell ref="H49:H50"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="F47:F48"/>
-    <mergeCell ref="G47:G48"/>
-    <mergeCell ref="H51:H52"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="F55:F56"/>
-    <mergeCell ref="G55:G56"/>
-    <mergeCell ref="H55:H56"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="G51:G52"/>
+    <mergeCell ref="H11:H14"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="D7:D10"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F10"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
   </mergeCells>
-  <phoneticPr fontId="0" type="noConversion"/>
-  <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.4" right="0.4" top="0.4" bottom="0.5" header="0.3" footer="0.25"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <headerFooter scaleWithDoc="0">
-    <oddFooter>&amp;L&amp;8&amp;K01+048Class Schedule Template © 2017 by Vertex42.com&amp;R&amp;8&amp;K01+048https://www.vertex42.com/ExcelTemplates/class-schedule-template.html</oddFooter>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C29"/>
   <sheetViews>

--- a/Calendario.xlsx
+++ b/Calendario.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SEBAS\Documents\Calendario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B95EC79F-981F-431B-A968-9FE9872F2F8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23748C8F-6B36-4DE5-8F2B-3D852D05314B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -628,7 +628,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -751,76 +751,49 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1382,10 +1355,10 @@
       <c r="I2" s="22"/>
     </row>
     <row r="3" spans="1:9" s="23" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="56" t="s">
+      <c r="A3" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="56"/>
+      <c r="B3" s="49"/>
       <c r="G3" s="24" t="s">
         <v>27</v>
       </c>
@@ -1419,79 +1392,79 @@
       </c>
     </row>
     <row r="5" spans="1:9" s="20" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="57">
+      <c r="A5" s="46">
         <v>6</v>
       </c>
       <c r="B5" s="36" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="44"/>
-      <c r="D5" s="55" t="s">
+      <c r="D5" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="55" t="s">
+      <c r="E5" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="55" t="s">
+      <c r="F5" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="55" t="s">
+      <c r="G5" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="55" t="s">
+      <c r="H5" s="50" t="s">
         <v>18</v>
       </c>
       <c r="I5" s="44"/>
     </row>
     <row r="6" spans="1:9" s="20" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="58"/>
+      <c r="A6" s="47"/>
       <c r="B6" s="33" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="45"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="47"/>
-      <c r="H6" s="47"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="51"/>
+      <c r="F6" s="51"/>
+      <c r="G6" s="51"/>
+      <c r="H6" s="51"/>
       <c r="I6" s="45"/>
     </row>
     <row r="7" spans="1:9" s="20" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="57">
+      <c r="A7" s="46">
         <v>7</v>
       </c>
       <c r="B7" s="36" t="s">
         <v>1</v>
       </c>
       <c r="C7" s="42"/>
-      <c r="D7" s="50" t="s">
+      <c r="D7" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="50" t="s">
+      <c r="E7" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="50" t="s">
+      <c r="F7" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="G7" s="50" t="s">
+      <c r="G7" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="H7" s="50" t="s">
+      <c r="H7" s="52" t="s">
         <v>18</v>
       </c>
       <c r="I7" s="44"/>
     </row>
     <row r="8" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="59"/>
+      <c r="A8" s="48"/>
       <c r="B8" s="26" t="s">
         <v>2</v>
       </c>
       <c r="C8" s="43"/>
-      <c r="D8" s="51"/>
-      <c r="E8" s="51"/>
-      <c r="F8" s="51"/>
-      <c r="G8" s="51"/>
-      <c r="H8" s="51"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="53"/>
+      <c r="G8" s="53"/>
+      <c r="H8" s="53"/>
       <c r="I8" s="43"/>
     </row>
     <row r="9" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1500,15 +1473,15 @@
         <v>0</v>
       </c>
       <c r="C9" s="43"/>
-      <c r="D9" s="51"/>
-      <c r="E9" s="53" t="s">
+      <c r="D9" s="53"/>
+      <c r="E9" s="56" t="s">
         <v>28</v>
       </c>
-      <c r="F9" s="51"/>
-      <c r="G9" s="53" t="s">
+      <c r="F9" s="53"/>
+      <c r="G9" s="56" t="s">
         <v>28</v>
       </c>
-      <c r="H9" s="51"/>
+      <c r="H9" s="53"/>
       <c r="I9" s="43"/>
     </row>
     <row r="10" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1517,49 +1490,49 @@
         <v>3</v>
       </c>
       <c r="C10" s="45"/>
-      <c r="D10" s="47"/>
-      <c r="E10" s="49"/>
-      <c r="F10" s="47"/>
-      <c r="G10" s="49"/>
-      <c r="H10" s="47"/>
+      <c r="D10" s="51"/>
+      <c r="E10" s="57"/>
+      <c r="F10" s="51"/>
+      <c r="G10" s="57"/>
+      <c r="H10" s="51"/>
       <c r="I10" s="45"/>
     </row>
     <row r="11" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="57">
+      <c r="A11" s="46">
         <v>8</v>
       </c>
       <c r="B11" s="36" t="s">
         <v>1</v>
       </c>
       <c r="C11" s="42"/>
-      <c r="D11" s="50" t="s">
+      <c r="D11" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="52" t="s">
+      <c r="E11" s="55" t="s">
         <v>36</v>
       </c>
-      <c r="F11" s="50" t="s">
+      <c r="F11" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="G11" s="52" t="s">
+      <c r="G11" s="55" t="s">
         <v>36</v>
       </c>
-      <c r="H11" s="50" t="s">
+      <c r="H11" s="52" t="s">
         <v>18</v>
       </c>
       <c r="I11" s="42"/>
     </row>
     <row r="12" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="59"/>
+      <c r="A12" s="48"/>
       <c r="B12" s="26" t="s">
         <v>2</v>
       </c>
       <c r="C12" s="43"/>
-      <c r="D12" s="51"/>
-      <c r="E12" s="53"/>
-      <c r="F12" s="51"/>
-      <c r="G12" s="53"/>
-      <c r="H12" s="51"/>
+      <c r="D12" s="53"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="53"/>
+      <c r="G12" s="56"/>
+      <c r="H12" s="53"/>
       <c r="I12" s="43"/>
     </row>
     <row r="13" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1568,11 +1541,11 @@
         <v>0</v>
       </c>
       <c r="C13" s="43"/>
-      <c r="D13" s="51"/>
-      <c r="E13" s="53"/>
-      <c r="F13" s="51"/>
-      <c r="G13" s="53"/>
-      <c r="H13" s="51"/>
+      <c r="D13" s="53"/>
+      <c r="E13" s="56"/>
+      <c r="F13" s="53"/>
+      <c r="G13" s="56"/>
+      <c r="H13" s="53"/>
       <c r="I13" s="43"/>
     </row>
     <row r="14" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1581,48 +1554,48 @@
         <v>3</v>
       </c>
       <c r="C14" s="45"/>
-      <c r="D14" s="47"/>
-      <c r="E14" s="49"/>
-      <c r="F14" s="47"/>
-      <c r="G14" s="49"/>
-      <c r="H14" s="47"/>
+      <c r="D14" s="51"/>
+      <c r="E14" s="57"/>
+      <c r="F14" s="51"/>
+      <c r="G14" s="57"/>
+      <c r="H14" s="51"/>
       <c r="I14" s="45"/>
     </row>
     <row r="15" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="57">
+      <c r="A15" s="46">
         <v>9</v>
       </c>
       <c r="B15" s="36" t="s">
         <v>1</v>
       </c>
       <c r="C15" s="18"/>
-      <c r="D15" s="50" t="s">
+      <c r="D15" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="E15" s="52" t="s">
+      <c r="E15" s="55" t="s">
         <v>36</v>
       </c>
-      <c r="F15" s="50" t="s">
+      <c r="F15" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="G15" s="52" t="s">
+      <c r="G15" s="55" t="s">
         <v>36</v>
       </c>
-      <c r="H15" s="50" t="s">
+      <c r="H15" s="52" t="s">
         <v>28</v>
       </c>
       <c r="I15" s="42"/>
     </row>
     <row r="16" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="59"/>
+      <c r="A16" s="48"/>
       <c r="B16" s="26" t="s">
         <v>2</v>
       </c>
       <c r="C16" s="17"/>
       <c r="D16" s="54"/>
-      <c r="E16" s="53"/>
+      <c r="E16" s="56"/>
       <c r="F16" s="54"/>
-      <c r="G16" s="53"/>
+      <c r="G16" s="56"/>
       <c r="H16" s="54"/>
       <c r="I16" s="43"/>
     </row>
@@ -1632,15 +1605,15 @@
         <v>0</v>
       </c>
       <c r="C17" s="18"/>
-      <c r="D17" s="46" t="s">
+      <c r="D17" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="E17" s="53"/>
-      <c r="F17" s="46" t="s">
+      <c r="E17" s="56"/>
+      <c r="F17" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="G17" s="53"/>
-      <c r="H17" s="46" t="s">
+      <c r="G17" s="56"/>
+      <c r="H17" s="58" t="s">
         <v>29</v>
       </c>
       <c r="I17" s="43"/>
@@ -1651,49 +1624,49 @@
         <v>3</v>
       </c>
       <c r="C18" s="12"/>
-      <c r="D18" s="47"/>
-      <c r="E18" s="49"/>
-      <c r="F18" s="47"/>
-      <c r="G18" s="49"/>
-      <c r="H18" s="47"/>
+      <c r="D18" s="51"/>
+      <c r="E18" s="57"/>
+      <c r="F18" s="51"/>
+      <c r="G18" s="57"/>
+      <c r="H18" s="51"/>
       <c r="I18" s="45"/>
     </row>
     <row r="19" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="57">
+      <c r="A19" s="46">
         <v>10</v>
       </c>
       <c r="B19" s="36" t="s">
         <v>1</v>
       </c>
       <c r="C19" s="18"/>
-      <c r="D19" s="50" t="s">
+      <c r="D19" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="E19" s="50" t="s">
+      <c r="E19" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="F19" s="50" t="s">
+      <c r="F19" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="G19" s="52" t="s">
+      <c r="G19" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="H19" s="50" t="s">
+      <c r="H19" s="52" t="s">
         <v>30</v>
       </c>
       <c r="I19" s="25"/>
     </row>
     <row r="20" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="59"/>
+      <c r="A20" s="48"/>
       <c r="B20" s="26" t="s">
         <v>2</v>
       </c>
       <c r="C20" s="17"/>
-      <c r="D20" s="51"/>
-      <c r="E20" s="51"/>
-      <c r="F20" s="51"/>
-      <c r="G20" s="53"/>
-      <c r="H20" s="51"/>
+      <c r="D20" s="53"/>
+      <c r="E20" s="53"/>
+      <c r="F20" s="53"/>
+      <c r="G20" s="56"/>
+      <c r="H20" s="53"/>
       <c r="I20" s="17"/>
     </row>
     <row r="21" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1702,11 +1675,11 @@
         <v>0</v>
       </c>
       <c r="C21" s="18"/>
-      <c r="D21" s="51"/>
-      <c r="E21" s="51"/>
-      <c r="F21" s="51"/>
-      <c r="G21" s="53"/>
-      <c r="H21" s="51"/>
+      <c r="D21" s="53"/>
+      <c r="E21" s="53"/>
+      <c r="F21" s="53"/>
+      <c r="G21" s="56"/>
+      <c r="H21" s="53"/>
       <c r="I21" s="18"/>
     </row>
     <row r="22" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1715,49 +1688,49 @@
         <v>3</v>
       </c>
       <c r="C22" s="12"/>
-      <c r="D22" s="47"/>
-      <c r="E22" s="47"/>
-      <c r="F22" s="47"/>
-      <c r="G22" s="49"/>
-      <c r="H22" s="47"/>
+      <c r="D22" s="51"/>
+      <c r="E22" s="51"/>
+      <c r="F22" s="51"/>
+      <c r="G22" s="57"/>
+      <c r="H22" s="51"/>
       <c r="I22" s="17"/>
     </row>
     <row r="23" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="57">
+      <c r="A23" s="46">
         <v>11</v>
       </c>
       <c r="B23" s="36" t="s">
         <v>1</v>
       </c>
       <c r="C23" s="18"/>
-      <c r="D23" s="50" t="s">
+      <c r="D23" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="E23" s="52" t="s">
+      <c r="E23" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="F23" s="50" t="s">
+      <c r="F23" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="G23" s="52" t="s">
+      <c r="G23" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="H23" s="50" t="s">
+      <c r="H23" s="52" t="s">
         <v>30</v>
       </c>
       <c r="I23" s="25"/>
     </row>
     <row r="24" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="59"/>
+      <c r="A24" s="48"/>
       <c r="B24" s="26" t="s">
         <v>2</v>
       </c>
       <c r="C24" s="17"/>
-      <c r="D24" s="51"/>
-      <c r="E24" s="53"/>
-      <c r="F24" s="51"/>
-      <c r="G24" s="53"/>
-      <c r="H24" s="51"/>
+      <c r="D24" s="53"/>
+      <c r="E24" s="56"/>
+      <c r="F24" s="53"/>
+      <c r="G24" s="56"/>
+      <c r="H24" s="53"/>
       <c r="I24" s="17"/>
     </row>
     <row r="25" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1766,11 +1739,11 @@
         <v>0</v>
       </c>
       <c r="C25" s="18"/>
-      <c r="D25" s="51"/>
-      <c r="E25" s="53"/>
-      <c r="F25" s="51"/>
-      <c r="G25" s="53"/>
-      <c r="H25" s="51"/>
+      <c r="D25" s="53"/>
+      <c r="E25" s="56"/>
+      <c r="F25" s="53"/>
+      <c r="G25" s="56"/>
+      <c r="H25" s="53"/>
       <c r="I25" s="18"/>
     </row>
     <row r="26" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1779,40 +1752,40 @@
         <v>3</v>
       </c>
       <c r="C26" s="12"/>
-      <c r="D26" s="47"/>
-      <c r="E26" s="49"/>
-      <c r="F26" s="47"/>
-      <c r="G26" s="49"/>
-      <c r="H26" s="47"/>
+      <c r="D26" s="51"/>
+      <c r="E26" s="57"/>
+      <c r="F26" s="51"/>
+      <c r="G26" s="57"/>
+      <c r="H26" s="51"/>
       <c r="I26" s="17"/>
     </row>
     <row r="27" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="57">
+      <c r="A27" s="46">
         <v>12</v>
       </c>
       <c r="B27" s="36" t="s">
         <v>8</v>
       </c>
       <c r="C27" s="18"/>
-      <c r="D27" s="50" t="s">
+      <c r="D27" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="E27" s="50" t="s">
+      <c r="E27" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="F27" s="50" t="s">
+      <c r="F27" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="G27" s="50" t="s">
+      <c r="G27" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="H27" s="50" t="s">
+      <c r="H27" s="52" t="s">
         <v>30</v>
       </c>
       <c r="I27" s="25"/>
     </row>
     <row r="28" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="59"/>
+      <c r="A28" s="48"/>
       <c r="B28" s="26" t="s">
         <v>2</v>
       </c>
@@ -1830,19 +1803,19 @@
         <v>0</v>
       </c>
       <c r="C29" s="18"/>
-      <c r="D29" s="46" t="s">
-        <v>31</v>
-      </c>
-      <c r="E29" s="50" t="s">
+      <c r="D29" s="58" t="s">
+        <v>31</v>
+      </c>
+      <c r="E29" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="F29" s="46" t="s">
-        <v>31</v>
-      </c>
-      <c r="G29" s="50" t="s">
+      <c r="F29" s="58" t="s">
+        <v>31</v>
+      </c>
+      <c r="G29" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="H29" s="46" t="s">
+      <c r="H29" s="58" t="s">
         <v>31</v>
       </c>
       <c r="I29" s="18"/>
@@ -1853,48 +1826,48 @@
         <v>3</v>
       </c>
       <c r="C30" s="12"/>
-      <c r="D30" s="47"/>
+      <c r="D30" s="51"/>
       <c r="E30" s="54"/>
-      <c r="F30" s="47"/>
+      <c r="F30" s="51"/>
       <c r="G30" s="54"/>
-      <c r="H30" s="47"/>
+      <c r="H30" s="51"/>
       <c r="I30" s="17"/>
     </row>
     <row r="31" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="57">
+      <c r="A31" s="46">
         <v>1</v>
       </c>
       <c r="B31" s="36" t="s">
         <v>8</v>
       </c>
       <c r="C31" s="18"/>
-      <c r="D31" s="50" t="s">
+      <c r="D31" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="E31" s="50" t="s">
+      <c r="E31" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="F31" s="50" t="s">
+      <c r="F31" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="G31" s="50" t="s">
+      <c r="G31" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="H31" s="50" t="s">
+      <c r="H31" s="52" t="s">
         <v>32</v>
       </c>
       <c r="I31" s="25"/>
     </row>
     <row r="32" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="59"/>
+      <c r="A32" s="48"/>
       <c r="B32" s="26" t="s">
         <v>2</v>
       </c>
       <c r="C32" s="17"/>
       <c r="D32" s="54"/>
-      <c r="E32" s="51"/>
+      <c r="E32" s="53"/>
       <c r="F32" s="54"/>
-      <c r="G32" s="51"/>
+      <c r="G32" s="53"/>
       <c r="H32" s="54"/>
       <c r="I32" s="17"/>
     </row>
@@ -1904,15 +1877,15 @@
         <v>0</v>
       </c>
       <c r="C33" s="18"/>
-      <c r="D33" s="48" t="s">
+      <c r="D33" s="59" t="s">
         <v>29</v>
       </c>
-      <c r="E33" s="51"/>
-      <c r="F33" s="46" t="s">
+      <c r="E33" s="53"/>
+      <c r="F33" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="G33" s="51"/>
-      <c r="H33" s="46" t="s">
+      <c r="G33" s="53"/>
+      <c r="H33" s="58" t="s">
         <v>29</v>
       </c>
       <c r="I33" s="18"/>
@@ -1923,49 +1896,49 @@
         <v>3</v>
       </c>
       <c r="C34" s="12"/>
-      <c r="D34" s="49"/>
-      <c r="E34" s="47"/>
-      <c r="F34" s="47"/>
-      <c r="G34" s="47"/>
-      <c r="H34" s="47"/>
+      <c r="D34" s="57"/>
+      <c r="E34" s="51"/>
+      <c r="F34" s="51"/>
+      <c r="G34" s="51"/>
+      <c r="H34" s="51"/>
       <c r="I34" s="17"/>
     </row>
     <row r="35" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="57">
+      <c r="A35" s="46">
         <v>2</v>
       </c>
       <c r="B35" s="36" t="s">
         <v>8</v>
       </c>
       <c r="C35" s="18"/>
-      <c r="D35" s="52" t="s">
+      <c r="D35" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="E35" s="50" t="s">
+      <c r="E35" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="F35" s="50" t="s">
+      <c r="F35" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="G35" s="50" t="s">
+      <c r="G35" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="H35" s="50" t="s">
+      <c r="H35" s="52" t="s">
         <v>29</v>
       </c>
       <c r="I35" s="25"/>
     </row>
     <row r="36" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="59"/>
+      <c r="A36" s="48"/>
       <c r="B36" s="26" t="s">
         <v>2</v>
       </c>
       <c r="C36" s="17"/>
-      <c r="D36" s="53"/>
-      <c r="E36" s="51"/>
-      <c r="F36" s="51"/>
-      <c r="G36" s="51"/>
-      <c r="H36" s="51"/>
+      <c r="D36" s="56"/>
+      <c r="E36" s="53"/>
+      <c r="F36" s="53"/>
+      <c r="G36" s="53"/>
+      <c r="H36" s="53"/>
       <c r="I36" s="17"/>
     </row>
     <row r="37" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1974,11 +1947,11 @@
         <v>0</v>
       </c>
       <c r="C37" s="18"/>
-      <c r="D37" s="53"/>
-      <c r="E37" s="51"/>
-      <c r="F37" s="51"/>
-      <c r="G37" s="51"/>
-      <c r="H37" s="51"/>
+      <c r="D37" s="56"/>
+      <c r="E37" s="53"/>
+      <c r="F37" s="53"/>
+      <c r="G37" s="53"/>
+      <c r="H37" s="53"/>
       <c r="I37" s="18"/>
     </row>
     <row r="38" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1987,49 +1960,49 @@
         <v>3</v>
       </c>
       <c r="C38" s="12"/>
-      <c r="D38" s="49"/>
-      <c r="E38" s="47"/>
-      <c r="F38" s="47"/>
-      <c r="G38" s="47"/>
-      <c r="H38" s="47"/>
+      <c r="D38" s="57"/>
+      <c r="E38" s="51"/>
+      <c r="F38" s="51"/>
+      <c r="G38" s="51"/>
+      <c r="H38" s="51"/>
       <c r="I38" s="17"/>
     </row>
     <row r="39" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="57">
+      <c r="A39" s="46">
         <v>3</v>
       </c>
       <c r="B39" s="36" t="s">
         <v>8</v>
       </c>
       <c r="C39" s="18"/>
-      <c r="D39" s="46" t="s">
+      <c r="D39" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="E39" s="52" t="s">
+      <c r="E39" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="F39" s="50" t="s">
+      <c r="F39" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="G39" s="50" t="s">
+      <c r="G39" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="H39" s="46" t="s">
+      <c r="H39" s="58" t="s">
         <v>29</v>
       </c>
       <c r="I39" s="25"/>
     </row>
     <row r="40" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="59"/>
+      <c r="A40" s="48"/>
       <c r="B40" s="26" t="s">
         <v>2</v>
       </c>
       <c r="C40" s="17"/>
-      <c r="D40" s="47"/>
-      <c r="E40" s="53"/>
-      <c r="F40" s="51"/>
-      <c r="G40" s="51"/>
-      <c r="H40" s="47"/>
+      <c r="D40" s="51"/>
+      <c r="E40" s="56"/>
+      <c r="F40" s="53"/>
+      <c r="G40" s="53"/>
+      <c r="H40" s="51"/>
       <c r="I40" s="17"/>
     </row>
     <row r="41" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2038,13 +2011,13 @@
         <v>0</v>
       </c>
       <c r="C41" s="18"/>
-      <c r="D41" s="52" t="s">
+      <c r="D41" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="E41" s="53"/>
-      <c r="F41" s="51"/>
-      <c r="G41" s="51"/>
-      <c r="H41" s="52" t="s">
+      <c r="E41" s="56"/>
+      <c r="F41" s="53"/>
+      <c r="G41" s="53"/>
+      <c r="H41" s="55" t="s">
         <v>33</v>
       </c>
       <c r="I41" s="18"/>
@@ -2055,49 +2028,49 @@
         <v>3</v>
       </c>
       <c r="C42" s="12"/>
-      <c r="D42" s="49"/>
-      <c r="E42" s="49"/>
-      <c r="F42" s="47"/>
-      <c r="G42" s="47"/>
-      <c r="H42" s="49"/>
+      <c r="D42" s="57"/>
+      <c r="E42" s="57"/>
+      <c r="F42" s="51"/>
+      <c r="G42" s="51"/>
+      <c r="H42" s="57"/>
       <c r="I42" s="17"/>
     </row>
     <row r="43" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="57">
+      <c r="A43" s="46">
         <v>4</v>
       </c>
       <c r="B43" s="36" t="s">
         <v>8</v>
       </c>
       <c r="C43" s="18"/>
-      <c r="D43" s="52" t="s">
+      <c r="D43" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="E43" s="52" t="s">
+      <c r="E43" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="F43" s="50" t="s">
+      <c r="F43" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="G43" s="50" t="s">
+      <c r="G43" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="H43" s="52" t="s">
+      <c r="H43" s="55" t="s">
         <v>33</v>
       </c>
       <c r="I43" s="25"/>
     </row>
     <row r="44" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="59"/>
+      <c r="A44" s="48"/>
       <c r="B44" s="26" t="s">
         <v>2</v>
       </c>
       <c r="C44" s="17"/>
-      <c r="D44" s="53"/>
-      <c r="E44" s="53"/>
-      <c r="F44" s="51"/>
-      <c r="G44" s="51"/>
-      <c r="H44" s="53"/>
+      <c r="D44" s="56"/>
+      <c r="E44" s="56"/>
+      <c r="F44" s="53"/>
+      <c r="G44" s="53"/>
+      <c r="H44" s="56"/>
       <c r="I44" s="17"/>
     </row>
     <row r="45" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2106,11 +2079,11 @@
         <v>0</v>
       </c>
       <c r="C45" s="18"/>
-      <c r="D45" s="53"/>
-      <c r="E45" s="53"/>
-      <c r="F45" s="51"/>
-      <c r="G45" s="51"/>
-      <c r="H45" s="53"/>
+      <c r="D45" s="56"/>
+      <c r="E45" s="56"/>
+      <c r="F45" s="53"/>
+      <c r="G45" s="53"/>
+      <c r="H45" s="56"/>
       <c r="I45" s="18"/>
     </row>
     <row r="46" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2119,129 +2092,129 @@
         <v>3</v>
       </c>
       <c r="C46" s="12"/>
-      <c r="D46" s="49"/>
-      <c r="E46" s="49"/>
-      <c r="F46" s="47"/>
-      <c r="G46" s="47"/>
-      <c r="H46" s="49"/>
+      <c r="D46" s="57"/>
+      <c r="E46" s="57"/>
+      <c r="F46" s="51"/>
+      <c r="G46" s="51"/>
+      <c r="H46" s="57"/>
       <c r="I46" s="17"/>
     </row>
     <row r="47" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="57">
+      <c r="A47" s="46">
         <v>5</v>
       </c>
       <c r="B47" s="36" t="s">
         <v>8</v>
       </c>
       <c r="C47" s="15"/>
-      <c r="D47" s="52" t="s">
+      <c r="D47" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="E47" s="46" t="s">
-        <v>31</v>
-      </c>
-      <c r="F47" s="50" t="s">
+      <c r="E47" s="58" t="s">
+        <v>31</v>
+      </c>
+      <c r="F47" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="G47" s="46" t="s">
-        <v>31</v>
-      </c>
-      <c r="H47" s="52" t="s">
+      <c r="G47" s="58" t="s">
+        <v>31</v>
+      </c>
+      <c r="H47" s="55" t="s">
         <v>33</v>
       </c>
       <c r="I47" s="15"/>
     </row>
     <row r="48" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="58"/>
+      <c r="A48" s="47"/>
       <c r="B48" s="33" t="s">
         <v>0</v>
       </c>
       <c r="C48" s="13"/>
-      <c r="D48" s="49"/>
-      <c r="E48" s="47"/>
-      <c r="F48" s="47"/>
-      <c r="G48" s="47"/>
-      <c r="H48" s="49"/>
+      <c r="D48" s="57"/>
+      <c r="E48" s="51"/>
+      <c r="F48" s="51"/>
+      <c r="G48" s="51"/>
+      <c r="H48" s="57"/>
       <c r="I48" s="13"/>
     </row>
     <row r="49" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="57">
+      <c r="A49" s="46">
         <v>6</v>
       </c>
       <c r="B49" s="36" t="s">
         <v>8</v>
       </c>
       <c r="C49" s="15"/>
-      <c r="D49" s="52" t="s">
+      <c r="D49" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="E49" s="48" t="s">
+      <c r="E49" s="59" t="s">
         <v>35</v>
       </c>
-      <c r="F49" s="50" t="s">
+      <c r="F49" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="G49" s="46" t="s">
-        <v>31</v>
-      </c>
-      <c r="H49" s="52" t="s">
+      <c r="G49" s="58" t="s">
+        <v>31</v>
+      </c>
+      <c r="H49" s="55" t="s">
         <v>33</v>
       </c>
       <c r="I49" s="15"/>
     </row>
     <row r="50" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="58"/>
+      <c r="A50" s="47"/>
       <c r="B50" s="33" t="s">
         <v>0</v>
       </c>
       <c r="C50" s="13"/>
-      <c r="D50" s="49"/>
-      <c r="E50" s="49"/>
-      <c r="F50" s="47"/>
-      <c r="G50" s="47"/>
-      <c r="H50" s="49"/>
+      <c r="D50" s="57"/>
+      <c r="E50" s="57"/>
+      <c r="F50" s="51"/>
+      <c r="G50" s="51"/>
+      <c r="H50" s="57"/>
       <c r="I50" s="13"/>
     </row>
     <row r="51" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="57">
+      <c r="A51" s="46">
         <v>7</v>
       </c>
       <c r="B51" s="36" t="s">
         <v>8</v>
       </c>
       <c r="C51" s="15"/>
-      <c r="D51" s="46" t="s">
-        <v>31</v>
-      </c>
-      <c r="E51" s="48" t="s">
+      <c r="D51" s="58" t="s">
+        <v>31</v>
+      </c>
+      <c r="E51" s="59" t="s">
         <v>35</v>
       </c>
-      <c r="F51" s="46" t="s">
-        <v>31</v>
-      </c>
-      <c r="G51" s="46" t="s">
-        <v>31</v>
-      </c>
-      <c r="H51" s="46" t="s">
+      <c r="F51" s="58" t="s">
+        <v>31</v>
+      </c>
+      <c r="G51" s="58" t="s">
+        <v>31</v>
+      </c>
+      <c r="H51" s="58" t="s">
         <v>31</v>
       </c>
       <c r="I51" s="15"/>
     </row>
     <row r="52" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="58"/>
+      <c r="A52" s="47"/>
       <c r="B52" s="33" t="s">
         <v>0</v>
       </c>
       <c r="C52" s="13"/>
-      <c r="D52" s="47"/>
-      <c r="E52" s="49"/>
-      <c r="F52" s="47"/>
-      <c r="G52" s="47"/>
-      <c r="H52" s="47"/>
+      <c r="D52" s="51"/>
+      <c r="E52" s="57"/>
+      <c r="F52" s="51"/>
+      <c r="G52" s="51"/>
+      <c r="H52" s="51"/>
       <c r="I52" s="13"/>
     </row>
     <row r="53" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="57">
+      <c r="A53" s="46">
         <v>8</v>
       </c>
       <c r="B53" s="36" t="s">
@@ -2251,7 +2224,7 @@
       <c r="D53" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="E53" s="48" t="s">
+      <c r="E53" s="59" t="s">
         <v>35</v>
       </c>
       <c r="F53" s="16" t="s">
@@ -2266,7 +2239,7 @@
       <c r="I53" s="15"/>
     </row>
     <row r="54" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="58"/>
+      <c r="A54" s="47"/>
       <c r="B54" s="33" t="s">
         <v>0</v>
       </c>
@@ -2274,7 +2247,7 @@
       <c r="D54" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="E54" s="49"/>
+      <c r="E54" s="57"/>
       <c r="F54" s="14" t="s">
         <v>31</v>
       </c>
@@ -2287,130 +2260,47 @@
       <c r="I54" s="13"/>
     </row>
     <row r="55" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="57">
+      <c r="A55" s="46">
         <v>9</v>
       </c>
       <c r="B55" s="36" t="s">
         <v>8</v>
       </c>
       <c r="C55" s="15"/>
-      <c r="D55" s="46" t="s">
+      <c r="D55" s="58" t="s">
         <v>31</v>
       </c>
       <c r="E55" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="F55" s="46" t="s">
-        <v>31</v>
-      </c>
-      <c r="G55" s="46" t="s">
-        <v>31</v>
-      </c>
-      <c r="H55" s="46" t="s">
+      <c r="F55" s="58" t="s">
+        <v>31</v>
+      </c>
+      <c r="G55" s="58" t="s">
+        <v>31</v>
+      </c>
+      <c r="H55" s="58" t="s">
         <v>31</v>
       </c>
       <c r="I55" s="15"/>
     </row>
     <row r="56" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="58"/>
+      <c r="A56" s="47"/>
       <c r="B56" s="33" t="s">
         <v>0</v>
       </c>
       <c r="C56" s="13"/>
-      <c r="D56" s="47"/>
+      <c r="D56" s="51"/>
       <c r="E56" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="F56" s="47"/>
-      <c r="G56" s="47"/>
-      <c r="H56" s="47"/>
+      <c r="F56" s="51"/>
+      <c r="G56" s="51"/>
+      <c r="H56" s="51"/>
       <c r="I56" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="107">
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="D7:D10"/>
-    <mergeCell ref="D11:D14"/>
-    <mergeCell ref="D19:D22"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="D35:D38"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="F7:F10"/>
-    <mergeCell ref="H7:H10"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="E15:E18"/>
-    <mergeCell ref="G15:G18"/>
-    <mergeCell ref="E11:E14"/>
-    <mergeCell ref="F11:F14"/>
-    <mergeCell ref="G11:G14"/>
-    <mergeCell ref="H11:H14"/>
-    <mergeCell ref="F19:F22"/>
-    <mergeCell ref="H19:H22"/>
-    <mergeCell ref="D23:D26"/>
-    <mergeCell ref="F23:F26"/>
-    <mergeCell ref="H23:H26"/>
-    <mergeCell ref="E19:E22"/>
-    <mergeCell ref="G19:G22"/>
-    <mergeCell ref="E23:E26"/>
-    <mergeCell ref="G23:G26"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="H31:H32"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="H33:H34"/>
-    <mergeCell ref="E31:E34"/>
-    <mergeCell ref="G31:G34"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="G51:G52"/>
-    <mergeCell ref="F35:F38"/>
-    <mergeCell ref="H35:H38"/>
-    <mergeCell ref="D43:D46"/>
-    <mergeCell ref="H43:H46"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="H39:H40"/>
-    <mergeCell ref="H41:H42"/>
-    <mergeCell ref="E35:E38"/>
-    <mergeCell ref="G35:G38"/>
     <mergeCell ref="G55:G56"/>
     <mergeCell ref="E53:E54"/>
     <mergeCell ref="D55:D56"/>
@@ -2435,6 +2325,89 @@
     <mergeCell ref="D51:D52"/>
     <mergeCell ref="F51:F52"/>
     <mergeCell ref="H51:H52"/>
+    <mergeCell ref="G51:G52"/>
+    <mergeCell ref="F35:F38"/>
+    <mergeCell ref="H35:H38"/>
+    <mergeCell ref="D43:D46"/>
+    <mergeCell ref="H43:H46"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="E35:E38"/>
+    <mergeCell ref="G35:G38"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="H33:H34"/>
+    <mergeCell ref="E31:E34"/>
+    <mergeCell ref="G31:G34"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="F19:F22"/>
+    <mergeCell ref="H19:H22"/>
+    <mergeCell ref="D23:D26"/>
+    <mergeCell ref="F23:F26"/>
+    <mergeCell ref="H23:H26"/>
+    <mergeCell ref="E19:E22"/>
+    <mergeCell ref="G19:G22"/>
+    <mergeCell ref="E23:E26"/>
+    <mergeCell ref="G23:G26"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="E15:E18"/>
+    <mergeCell ref="G15:G18"/>
+    <mergeCell ref="E11:E14"/>
+    <mergeCell ref="F11:F14"/>
+    <mergeCell ref="G11:G14"/>
+    <mergeCell ref="H11:H14"/>
+    <mergeCell ref="F7:F10"/>
+    <mergeCell ref="H7:H10"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="D7:D10"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="D19:D22"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="D35:D38"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="A43:A44"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -2492,10 +2465,10 @@
       <c r="I2" s="22"/>
     </row>
     <row r="3" spans="1:9" s="23" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="56" t="s">
+      <c r="A3" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="56"/>
+      <c r="B3" s="49"/>
       <c r="G3" s="24" t="s">
         <v>27</v>
       </c>
@@ -2529,79 +2502,79 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="57">
+      <c r="A5" s="46">
         <v>6</v>
       </c>
       <c r="B5" s="36" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="44"/>
-      <c r="D5" s="55" t="s">
+      <c r="D5" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="55" t="s">
+      <c r="E5" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="55" t="s">
+      <c r="F5" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="55" t="s">
+      <c r="G5" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="55" t="s">
+      <c r="H5" s="50" t="s">
         <v>18</v>
       </c>
       <c r="I5" s="44"/>
     </row>
     <row r="6" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="58"/>
+      <c r="A6" s="47"/>
       <c r="B6" s="33" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="45"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="47"/>
-      <c r="H6" s="47"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="51"/>
+      <c r="F6" s="51"/>
+      <c r="G6" s="51"/>
+      <c r="H6" s="51"/>
       <c r="I6" s="45"/>
     </row>
     <row r="7" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="57">
+      <c r="A7" s="46">
         <v>7</v>
       </c>
       <c r="B7" s="36" t="s">
         <v>1</v>
       </c>
       <c r="C7" s="42"/>
-      <c r="D7" s="50" t="s">
+      <c r="D7" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="50" t="s">
+      <c r="E7" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="50" t="s">
+      <c r="F7" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="G7" s="50" t="s">
+      <c r="G7" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="H7" s="50" t="s">
+      <c r="H7" s="52" t="s">
         <v>18</v>
       </c>
       <c r="I7" s="44"/>
     </row>
     <row r="8" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="59"/>
+      <c r="A8" s="48"/>
       <c r="B8" s="26" t="s">
         <v>2</v>
       </c>
       <c r="C8" s="43"/>
-      <c r="D8" s="51"/>
-      <c r="E8" s="51"/>
-      <c r="F8" s="51"/>
-      <c r="G8" s="51"/>
-      <c r="H8" s="51"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="53"/>
+      <c r="G8" s="53"/>
+      <c r="H8" s="53"/>
       <c r="I8" s="43"/>
     </row>
     <row r="9" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -2610,15 +2583,15 @@
         <v>0</v>
       </c>
       <c r="C9" s="43"/>
-      <c r="D9" s="51"/>
-      <c r="E9" s="53" t="s">
+      <c r="D9" s="53"/>
+      <c r="E9" s="56" t="s">
         <v>28</v>
       </c>
-      <c r="F9" s="51"/>
-      <c r="G9" s="53" t="s">
+      <c r="F9" s="53"/>
+      <c r="G9" s="56" t="s">
         <v>28</v>
       </c>
-      <c r="H9" s="51"/>
+      <c r="H9" s="53"/>
       <c r="I9" s="43"/>
     </row>
     <row r="10" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -2627,49 +2600,49 @@
         <v>3</v>
       </c>
       <c r="C10" s="45"/>
-      <c r="D10" s="47"/>
-      <c r="E10" s="49"/>
-      <c r="F10" s="47"/>
-      <c r="G10" s="49"/>
-      <c r="H10" s="47"/>
+      <c r="D10" s="51"/>
+      <c r="E10" s="57"/>
+      <c r="F10" s="51"/>
+      <c r="G10" s="57"/>
+      <c r="H10" s="51"/>
       <c r="I10" s="45"/>
     </row>
     <row r="11" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="57">
+      <c r="A11" s="46">
         <v>8</v>
       </c>
       <c r="B11" s="36" t="s">
         <v>1</v>
       </c>
       <c r="C11" s="42"/>
-      <c r="D11" s="50" t="s">
+      <c r="D11" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="52" t="s">
+      <c r="E11" s="55" t="s">
         <v>36</v>
       </c>
-      <c r="F11" s="50" t="s">
+      <c r="F11" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="G11" s="52" t="s">
+      <c r="G11" s="55" t="s">
         <v>36</v>
       </c>
-      <c r="H11" s="50" t="s">
+      <c r="H11" s="52" t="s">
         <v>18</v>
       </c>
       <c r="I11" s="42"/>
     </row>
     <row r="12" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="59"/>
+      <c r="A12" s="48"/>
       <c r="B12" s="26" t="s">
         <v>2</v>
       </c>
       <c r="C12" s="43"/>
-      <c r="D12" s="51"/>
-      <c r="E12" s="53"/>
-      <c r="F12" s="51"/>
-      <c r="G12" s="53"/>
-      <c r="H12" s="51"/>
+      <c r="D12" s="53"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="53"/>
+      <c r="G12" s="56"/>
+      <c r="H12" s="53"/>
       <c r="I12" s="43"/>
     </row>
     <row r="13" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -2678,11 +2651,11 @@
         <v>0</v>
       </c>
       <c r="C13" s="43"/>
-      <c r="D13" s="51"/>
-      <c r="E13" s="53"/>
-      <c r="F13" s="51"/>
-      <c r="G13" s="53"/>
-      <c r="H13" s="51"/>
+      <c r="D13" s="53"/>
+      <c r="E13" s="56"/>
+      <c r="F13" s="53"/>
+      <c r="G13" s="56"/>
+      <c r="H13" s="53"/>
       <c r="I13" s="43"/>
     </row>
     <row r="14" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -2691,48 +2664,48 @@
         <v>3</v>
       </c>
       <c r="C14" s="45"/>
-      <c r="D14" s="47"/>
-      <c r="E14" s="49"/>
-      <c r="F14" s="47"/>
-      <c r="G14" s="49"/>
-      <c r="H14" s="47"/>
+      <c r="D14" s="51"/>
+      <c r="E14" s="57"/>
+      <c r="F14" s="51"/>
+      <c r="G14" s="57"/>
+      <c r="H14" s="51"/>
       <c r="I14" s="45"/>
     </row>
     <row r="15" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="57">
+      <c r="A15" s="46">
         <v>9</v>
       </c>
       <c r="B15" s="36" t="s">
         <v>1</v>
       </c>
       <c r="C15" s="18"/>
-      <c r="D15" s="50" t="s">
+      <c r="D15" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="E15" s="52" t="s">
+      <c r="E15" s="55" t="s">
         <v>36</v>
       </c>
-      <c r="F15" s="50" t="s">
+      <c r="F15" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="G15" s="52" t="s">
+      <c r="G15" s="55" t="s">
         <v>36</v>
       </c>
-      <c r="H15" s="50" t="s">
+      <c r="H15" s="52" t="s">
         <v>28</v>
       </c>
       <c r="I15" s="42"/>
     </row>
     <row r="16" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="59"/>
+      <c r="A16" s="48"/>
       <c r="B16" s="26" t="s">
         <v>2</v>
       </c>
       <c r="C16" s="17"/>
       <c r="D16" s="54"/>
-      <c r="E16" s="53"/>
+      <c r="E16" s="56"/>
       <c r="F16" s="54"/>
-      <c r="G16" s="53"/>
+      <c r="G16" s="56"/>
       <c r="H16" s="54"/>
       <c r="I16" s="43"/>
     </row>
@@ -2742,15 +2715,15 @@
         <v>0</v>
       </c>
       <c r="C17" s="18"/>
-      <c r="D17" s="46" t="s">
+      <c r="D17" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="E17" s="53"/>
-      <c r="F17" s="46" t="s">
+      <c r="E17" s="56"/>
+      <c r="F17" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="G17" s="53"/>
-      <c r="H17" s="46" t="s">
+      <c r="G17" s="56"/>
+      <c r="H17" s="58" t="s">
         <v>29</v>
       </c>
       <c r="I17" s="43"/>
@@ -2761,49 +2734,49 @@
         <v>3</v>
       </c>
       <c r="C18" s="12"/>
-      <c r="D18" s="47"/>
-      <c r="E18" s="49"/>
-      <c r="F18" s="47"/>
-      <c r="G18" s="49"/>
-      <c r="H18" s="47"/>
+      <c r="D18" s="51"/>
+      <c r="E18" s="57"/>
+      <c r="F18" s="51"/>
+      <c r="G18" s="57"/>
+      <c r="H18" s="51"/>
       <c r="I18" s="45"/>
     </row>
     <row r="19" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="57">
+      <c r="A19" s="46">
         <v>10</v>
       </c>
       <c r="B19" s="36" t="s">
         <v>1</v>
       </c>
       <c r="C19" s="18"/>
-      <c r="D19" s="52" t="s">
+      <c r="D19" s="55" t="s">
         <v>30</v>
       </c>
-      <c r="E19" s="50" t="s">
+      <c r="E19" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="F19" s="50" t="s">
+      <c r="F19" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="G19" s="50" t="s">
+      <c r="G19" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="H19" s="50" t="s">
+      <c r="H19" s="52" t="s">
         <v>30</v>
       </c>
       <c r="I19" s="25"/>
     </row>
     <row r="20" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="59"/>
+      <c r="A20" s="48"/>
       <c r="B20" s="26" t="s">
         <v>2</v>
       </c>
       <c r="C20" s="17"/>
-      <c r="D20" s="53"/>
-      <c r="E20" s="51"/>
-      <c r="F20" s="51"/>
-      <c r="G20" s="51"/>
-      <c r="H20" s="51"/>
+      <c r="D20" s="56"/>
+      <c r="E20" s="53"/>
+      <c r="F20" s="53"/>
+      <c r="G20" s="53"/>
+      <c r="H20" s="53"/>
       <c r="I20" s="17"/>
     </row>
     <row r="21" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -2812,11 +2785,11 @@
         <v>0</v>
       </c>
       <c r="C21" s="18"/>
-      <c r="D21" s="53"/>
-      <c r="E21" s="51"/>
-      <c r="F21" s="51"/>
-      <c r="G21" s="51"/>
-      <c r="H21" s="51"/>
+      <c r="D21" s="56"/>
+      <c r="E21" s="53"/>
+      <c r="F21" s="53"/>
+      <c r="G21" s="53"/>
+      <c r="H21" s="53"/>
       <c r="I21" s="18"/>
     </row>
     <row r="22" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -2825,49 +2798,49 @@
         <v>3</v>
       </c>
       <c r="C22" s="12"/>
-      <c r="D22" s="49"/>
-      <c r="E22" s="47"/>
-      <c r="F22" s="47"/>
-      <c r="G22" s="47"/>
-      <c r="H22" s="47"/>
+      <c r="D22" s="57"/>
+      <c r="E22" s="51"/>
+      <c r="F22" s="51"/>
+      <c r="G22" s="51"/>
+      <c r="H22" s="51"/>
       <c r="I22" s="17"/>
     </row>
     <row r="23" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="57">
+      <c r="A23" s="46">
         <v>11</v>
       </c>
       <c r="B23" s="36" t="s">
         <v>1</v>
       </c>
       <c r="C23" s="18"/>
-      <c r="D23" s="52" t="s">
+      <c r="D23" s="55" t="s">
         <v>30</v>
       </c>
-      <c r="E23" s="52" t="s">
+      <c r="E23" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="F23" s="50" t="s">
+      <c r="F23" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="G23" s="52" t="s">
+      <c r="G23" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="H23" s="50" t="s">
+      <c r="H23" s="52" t="s">
         <v>30</v>
       </c>
       <c r="I23" s="25"/>
     </row>
     <row r="24" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="59"/>
+      <c r="A24" s="48"/>
       <c r="B24" s="26" t="s">
         <v>2</v>
       </c>
       <c r="C24" s="17"/>
-      <c r="D24" s="53"/>
-      <c r="E24" s="53"/>
-      <c r="F24" s="51"/>
-      <c r="G24" s="53"/>
-      <c r="H24" s="51"/>
+      <c r="D24" s="56"/>
+      <c r="E24" s="56"/>
+      <c r="F24" s="53"/>
+      <c r="G24" s="56"/>
+      <c r="H24" s="53"/>
       <c r="I24" s="17"/>
     </row>
     <row r="25" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -2876,11 +2849,11 @@
         <v>0</v>
       </c>
       <c r="C25" s="18"/>
-      <c r="D25" s="53"/>
-      <c r="E25" s="53"/>
-      <c r="F25" s="51"/>
-      <c r="G25" s="53"/>
-      <c r="H25" s="51"/>
+      <c r="D25" s="56"/>
+      <c r="E25" s="56"/>
+      <c r="F25" s="53"/>
+      <c r="G25" s="56"/>
+      <c r="H25" s="53"/>
       <c r="I25" s="18"/>
     </row>
     <row r="26" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -2889,40 +2862,40 @@
         <v>3</v>
       </c>
       <c r="C26" s="12"/>
-      <c r="D26" s="49"/>
-      <c r="E26" s="49"/>
-      <c r="F26" s="47"/>
-      <c r="G26" s="49"/>
-      <c r="H26" s="47"/>
+      <c r="D26" s="57"/>
+      <c r="E26" s="57"/>
+      <c r="F26" s="51"/>
+      <c r="G26" s="57"/>
+      <c r="H26" s="51"/>
       <c r="I26" s="17"/>
     </row>
     <row r="27" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="57">
+      <c r="A27" s="46">
         <v>12</v>
       </c>
       <c r="B27" s="36" t="s">
         <v>8</v>
       </c>
       <c r="C27" s="18"/>
-      <c r="D27" s="52" t="s">
+      <c r="D27" s="55" t="s">
         <v>30</v>
       </c>
-      <c r="E27" s="50" t="s">
+      <c r="E27" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="F27" s="50" t="s">
+      <c r="F27" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="G27" s="50" t="s">
+      <c r="G27" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="H27" s="50" t="s">
+      <c r="H27" s="52" t="s">
         <v>30</v>
       </c>
       <c r="I27" s="25"/>
     </row>
     <row r="28" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="59"/>
+      <c r="A28" s="48"/>
       <c r="B28" s="26" t="s">
         <v>2</v>
       </c>
@@ -2940,19 +2913,19 @@
         <v>0</v>
       </c>
       <c r="C29" s="18"/>
-      <c r="D29" s="46" t="s">
-        <v>31</v>
-      </c>
-      <c r="E29" s="50" t="s">
+      <c r="D29" s="58" t="s">
+        <v>31</v>
+      </c>
+      <c r="E29" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="F29" s="46" t="s">
-        <v>31</v>
-      </c>
-      <c r="G29" s="50" t="s">
+      <c r="F29" s="58" t="s">
+        <v>31</v>
+      </c>
+      <c r="G29" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="H29" s="46" t="s">
+      <c r="H29" s="58" t="s">
         <v>31</v>
       </c>
       <c r="I29" s="18"/>
@@ -2963,48 +2936,48 @@
         <v>3</v>
       </c>
       <c r="C30" s="12"/>
-      <c r="D30" s="47"/>
+      <c r="D30" s="51"/>
       <c r="E30" s="54"/>
-      <c r="F30" s="47"/>
+      <c r="F30" s="51"/>
       <c r="G30" s="54"/>
-      <c r="H30" s="47"/>
+      <c r="H30" s="51"/>
       <c r="I30" s="17"/>
     </row>
     <row r="31" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="57">
+      <c r="A31" s="46">
         <v>1</v>
       </c>
       <c r="B31" s="36" t="s">
         <v>8</v>
       </c>
       <c r="C31" s="18"/>
-      <c r="D31" s="50" t="s">
+      <c r="D31" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="E31" s="50" t="s">
+      <c r="E31" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="F31" s="50" t="s">
+      <c r="F31" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="G31" s="50" t="s">
+      <c r="G31" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="H31" s="50" t="s">
+      <c r="H31" s="52" t="s">
         <v>32</v>
       </c>
       <c r="I31" s="25"/>
     </row>
     <row r="32" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="59"/>
+      <c r="A32" s="48"/>
       <c r="B32" s="26" t="s">
         <v>2</v>
       </c>
       <c r="C32" s="17"/>
       <c r="D32" s="54"/>
-      <c r="E32" s="51"/>
+      <c r="E32" s="53"/>
       <c r="F32" s="54"/>
-      <c r="G32" s="51"/>
+      <c r="G32" s="53"/>
       <c r="H32" s="54"/>
       <c r="I32" s="17"/>
     </row>
@@ -3014,15 +2987,15 @@
         <v>0</v>
       </c>
       <c r="C33" s="18"/>
-      <c r="D33" s="46" t="s">
+      <c r="D33" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="E33" s="51"/>
-      <c r="F33" s="46" t="s">
+      <c r="E33" s="53"/>
+      <c r="F33" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="G33" s="51"/>
-      <c r="H33" s="46" t="s">
+      <c r="G33" s="53"/>
+      <c r="H33" s="58" t="s">
         <v>29</v>
       </c>
       <c r="I33" s="18"/>
@@ -3033,49 +3006,49 @@
         <v>3</v>
       </c>
       <c r="C34" s="12"/>
-      <c r="D34" s="47"/>
-      <c r="E34" s="47"/>
-      <c r="F34" s="47"/>
-      <c r="G34" s="47"/>
-      <c r="H34" s="47"/>
+      <c r="D34" s="51"/>
+      <c r="E34" s="51"/>
+      <c r="F34" s="51"/>
+      <c r="G34" s="51"/>
+      <c r="H34" s="51"/>
       <c r="I34" s="17"/>
     </row>
     <row r="35" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="57">
+      <c r="A35" s="46">
         <v>2</v>
       </c>
       <c r="B35" s="36" t="s">
         <v>8</v>
       </c>
       <c r="C35" s="18"/>
-      <c r="D35" s="50" t="s">
+      <c r="D35" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="E35" s="50" t="s">
+      <c r="E35" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="F35" s="50" t="s">
+      <c r="F35" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="G35" s="50" t="s">
+      <c r="G35" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="H35" s="50" t="s">
+      <c r="H35" s="52" t="s">
         <v>29</v>
       </c>
       <c r="I35" s="25"/>
     </row>
     <row r="36" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="59"/>
+      <c r="A36" s="48"/>
       <c r="B36" s="26" t="s">
         <v>2</v>
       </c>
       <c r="C36" s="17"/>
-      <c r="D36" s="51"/>
-      <c r="E36" s="51"/>
-      <c r="F36" s="51"/>
-      <c r="G36" s="51"/>
-      <c r="H36" s="51"/>
+      <c r="D36" s="53"/>
+      <c r="E36" s="53"/>
+      <c r="F36" s="53"/>
+      <c r="G36" s="53"/>
+      <c r="H36" s="53"/>
       <c r="I36" s="17"/>
     </row>
     <row r="37" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -3084,11 +3057,11 @@
         <v>0</v>
       </c>
       <c r="C37" s="18"/>
-      <c r="D37" s="51"/>
-      <c r="E37" s="51"/>
-      <c r="F37" s="51"/>
-      <c r="G37" s="51"/>
-      <c r="H37" s="51"/>
+      <c r="D37" s="53"/>
+      <c r="E37" s="53"/>
+      <c r="F37" s="53"/>
+      <c r="G37" s="53"/>
+      <c r="H37" s="53"/>
       <c r="I37" s="18"/>
     </row>
     <row r="38" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -3097,49 +3070,49 @@
         <v>3</v>
       </c>
       <c r="C38" s="12"/>
-      <c r="D38" s="47"/>
-      <c r="E38" s="47"/>
-      <c r="F38" s="47"/>
-      <c r="G38" s="47"/>
-      <c r="H38" s="47"/>
+      <c r="D38" s="51"/>
+      <c r="E38" s="51"/>
+      <c r="F38" s="51"/>
+      <c r="G38" s="51"/>
+      <c r="H38" s="51"/>
       <c r="I38" s="17"/>
     </row>
     <row r="39" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="57">
+      <c r="A39" s="46">
         <v>3</v>
       </c>
       <c r="B39" s="36" t="s">
         <v>8</v>
       </c>
       <c r="C39" s="18"/>
-      <c r="D39" s="46" t="s">
+      <c r="D39" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="E39" s="52" t="s">
+      <c r="E39" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="F39" s="50" t="s">
+      <c r="F39" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="G39" s="52" t="s">
+      <c r="G39" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="H39" s="46" t="s">
+      <c r="H39" s="58" t="s">
         <v>29</v>
       </c>
       <c r="I39" s="25"/>
     </row>
     <row r="40" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="59"/>
+      <c r="A40" s="48"/>
       <c r="B40" s="26" t="s">
         <v>2</v>
       </c>
       <c r="C40" s="17"/>
-      <c r="D40" s="47"/>
-      <c r="E40" s="53"/>
-      <c r="F40" s="51"/>
-      <c r="G40" s="53"/>
-      <c r="H40" s="47"/>
+      <c r="D40" s="51"/>
+      <c r="E40" s="56"/>
+      <c r="F40" s="53"/>
+      <c r="G40" s="56"/>
+      <c r="H40" s="51"/>
       <c r="I40" s="17"/>
     </row>
     <row r="41" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
@@ -3148,13 +3121,13 @@
         <v>0</v>
       </c>
       <c r="C41" s="18"/>
-      <c r="D41" s="52" t="s">
+      <c r="D41" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="E41" s="53"/>
-      <c r="F41" s="51"/>
-      <c r="G41" s="53"/>
-      <c r="H41" s="52" t="s">
+      <c r="E41" s="56"/>
+      <c r="F41" s="53"/>
+      <c r="G41" s="56"/>
+      <c r="H41" s="55" t="s">
         <v>33</v>
       </c>
       <c r="I41" s="18"/>
@@ -3165,49 +3138,49 @@
         <v>3</v>
       </c>
       <c r="C42" s="12"/>
-      <c r="D42" s="49"/>
-      <c r="E42" s="49"/>
-      <c r="F42" s="47"/>
-      <c r="G42" s="49"/>
-      <c r="H42" s="49"/>
+      <c r="D42" s="57"/>
+      <c r="E42" s="57"/>
+      <c r="F42" s="51"/>
+      <c r="G42" s="57"/>
+      <c r="H42" s="57"/>
       <c r="I42" s="17"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A43" s="57">
+      <c r="A43" s="46">
         <v>4</v>
       </c>
       <c r="B43" s="36" t="s">
         <v>8</v>
       </c>
       <c r="C43" s="18"/>
-      <c r="D43" s="52" t="s">
+      <c r="D43" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="E43" s="50" t="s">
+      <c r="E43" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="F43" s="50" t="s">
+      <c r="F43" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="G43" s="50" t="s">
+      <c r="G43" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="H43" s="52" t="s">
+      <c r="H43" s="55" t="s">
         <v>33</v>
       </c>
       <c r="I43" s="25"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A44" s="59"/>
+      <c r="A44" s="48"/>
       <c r="B44" s="26" t="s">
         <v>2</v>
       </c>
       <c r="C44" s="17"/>
-      <c r="D44" s="53"/>
-      <c r="E44" s="51"/>
-      <c r="F44" s="51"/>
-      <c r="G44" s="51"/>
-      <c r="H44" s="53"/>
+      <c r="D44" s="56"/>
+      <c r="E44" s="53"/>
+      <c r="F44" s="53"/>
+      <c r="G44" s="53"/>
+      <c r="H44" s="56"/>
       <c r="I44" s="17"/>
     </row>
     <row r="45" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
@@ -3216,11 +3189,11 @@
         <v>0</v>
       </c>
       <c r="C45" s="18"/>
-      <c r="D45" s="53"/>
-      <c r="E45" s="51"/>
-      <c r="F45" s="51"/>
-      <c r="G45" s="51"/>
-      <c r="H45" s="53"/>
+      <c r="D45" s="56"/>
+      <c r="E45" s="53"/>
+      <c r="F45" s="53"/>
+      <c r="G45" s="53"/>
+      <c r="H45" s="56"/>
       <c r="I45" s="18"/>
     </row>
     <row r="46" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
@@ -3229,129 +3202,129 @@
         <v>3</v>
       </c>
       <c r="C46" s="12"/>
-      <c r="D46" s="49"/>
-      <c r="E46" s="47"/>
-      <c r="F46" s="47"/>
-      <c r="G46" s="47"/>
-      <c r="H46" s="49"/>
+      <c r="D46" s="57"/>
+      <c r="E46" s="51"/>
+      <c r="F46" s="51"/>
+      <c r="G46" s="51"/>
+      <c r="H46" s="57"/>
       <c r="I46" s="17"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A47" s="57">
+      <c r="A47" s="46">
         <v>5</v>
       </c>
       <c r="B47" s="36" t="s">
         <v>8</v>
       </c>
       <c r="C47" s="15"/>
-      <c r="D47" s="52" t="s">
+      <c r="D47" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="E47" s="46" t="s">
-        <v>31</v>
-      </c>
-      <c r="F47" s="50" t="s">
+      <c r="E47" s="58" t="s">
+        <v>31</v>
+      </c>
+      <c r="F47" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="G47" s="46" t="s">
-        <v>31</v>
-      </c>
-      <c r="H47" s="52" t="s">
+      <c r="G47" s="58" t="s">
+        <v>31</v>
+      </c>
+      <c r="H47" s="55" t="s">
         <v>33</v>
       </c>
       <c r="I47" s="15"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A48" s="58"/>
+      <c r="A48" s="47"/>
       <c r="B48" s="33" t="s">
         <v>0</v>
       </c>
       <c r="C48" s="13"/>
-      <c r="D48" s="49"/>
-      <c r="E48" s="47"/>
-      <c r="F48" s="47"/>
-      <c r="G48" s="47"/>
-      <c r="H48" s="49"/>
+      <c r="D48" s="57"/>
+      <c r="E48" s="51"/>
+      <c r="F48" s="51"/>
+      <c r="G48" s="51"/>
+      <c r="H48" s="57"/>
       <c r="I48" s="13"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A49" s="57">
+      <c r="A49" s="46">
         <v>6</v>
       </c>
       <c r="B49" s="36" t="s">
         <v>8</v>
       </c>
       <c r="C49" s="15"/>
-      <c r="D49" s="52" t="s">
+      <c r="D49" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="E49" s="48" t="s">
+      <c r="E49" s="59" t="s">
         <v>35</v>
       </c>
-      <c r="F49" s="50" t="s">
+      <c r="F49" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="G49" s="46" t="s">
-        <v>31</v>
-      </c>
-      <c r="H49" s="52" t="s">
+      <c r="G49" s="58" t="s">
+        <v>31</v>
+      </c>
+      <c r="H49" s="55" t="s">
         <v>33</v>
       </c>
       <c r="I49" s="15"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A50" s="58"/>
+      <c r="A50" s="47"/>
       <c r="B50" s="33" t="s">
         <v>0</v>
       </c>
       <c r="C50" s="13"/>
-      <c r="D50" s="49"/>
-      <c r="E50" s="49"/>
-      <c r="F50" s="47"/>
-      <c r="G50" s="47"/>
-      <c r="H50" s="49"/>
+      <c r="D50" s="57"/>
+      <c r="E50" s="57"/>
+      <c r="F50" s="51"/>
+      <c r="G50" s="51"/>
+      <c r="H50" s="57"/>
       <c r="I50" s="13"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A51" s="57">
+      <c r="A51" s="46">
         <v>7</v>
       </c>
       <c r="B51" s="36" t="s">
         <v>8</v>
       </c>
       <c r="C51" s="15"/>
-      <c r="D51" s="46" t="s">
-        <v>31</v>
-      </c>
-      <c r="E51" s="48" t="s">
+      <c r="D51" s="58" t="s">
+        <v>31</v>
+      </c>
+      <c r="E51" s="59" t="s">
         <v>35</v>
       </c>
-      <c r="F51" s="46" t="s">
-        <v>31</v>
-      </c>
-      <c r="G51" s="46" t="s">
-        <v>31</v>
-      </c>
-      <c r="H51" s="46" t="s">
+      <c r="F51" s="58" t="s">
+        <v>31</v>
+      </c>
+      <c r="G51" s="58" t="s">
+        <v>31</v>
+      </c>
+      <c r="H51" s="58" t="s">
         <v>31</v>
       </c>
       <c r="I51" s="15"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A52" s="58"/>
+      <c r="A52" s="47"/>
       <c r="B52" s="33" t="s">
         <v>0</v>
       </c>
       <c r="C52" s="13"/>
-      <c r="D52" s="47"/>
-      <c r="E52" s="49"/>
-      <c r="F52" s="47"/>
-      <c r="G52" s="47"/>
-      <c r="H52" s="47"/>
+      <c r="D52" s="51"/>
+      <c r="E52" s="57"/>
+      <c r="F52" s="51"/>
+      <c r="G52" s="51"/>
+      <c r="H52" s="51"/>
       <c r="I52" s="13"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A53" s="57">
+      <c r="A53" s="46">
         <v>8</v>
       </c>
       <c r="B53" s="36" t="s">
@@ -3361,7 +3334,7 @@
       <c r="D53" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="E53" s="48" t="s">
+      <c r="E53" s="59" t="s">
         <v>35</v>
       </c>
       <c r="F53" s="16" t="s">
@@ -3376,7 +3349,7 @@
       <c r="I53" s="15"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A54" s="58"/>
+      <c r="A54" s="47"/>
       <c r="B54" s="33" t="s">
         <v>0</v>
       </c>
@@ -3384,7 +3357,7 @@
       <c r="D54" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="E54" s="49"/>
+      <c r="E54" s="57"/>
       <c r="F54" s="14" t="s">
         <v>31</v>
       </c>
@@ -3397,87 +3370,101 @@
       <c r="I54" s="13"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A55" s="57">
+      <c r="A55" s="46">
         <v>9</v>
       </c>
       <c r="B55" s="36" t="s">
         <v>8</v>
       </c>
       <c r="C55" s="15"/>
-      <c r="D55" s="46" t="s">
+      <c r="D55" s="58" t="s">
         <v>31</v>
       </c>
       <c r="E55" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="F55" s="46" t="s">
-        <v>31</v>
-      </c>
-      <c r="G55" s="46" t="s">
-        <v>31</v>
-      </c>
-      <c r="H55" s="46" t="s">
+      <c r="F55" s="58" t="s">
+        <v>31</v>
+      </c>
+      <c r="G55" s="58" t="s">
+        <v>31</v>
+      </c>
+      <c r="H55" s="58" t="s">
         <v>31</v>
       </c>
       <c r="I55" s="15"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A56" s="58"/>
+      <c r="A56" s="47"/>
       <c r="B56" s="33" t="s">
         <v>0</v>
       </c>
       <c r="C56" s="13"/>
-      <c r="D56" s="47"/>
+      <c r="D56" s="51"/>
       <c r="E56" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="F56" s="47"/>
-      <c r="G56" s="47"/>
-      <c r="H56" s="47"/>
+      <c r="F56" s="51"/>
+      <c r="G56" s="51"/>
+      <c r="H56" s="51"/>
       <c r="I56" s="13"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="107">
-    <mergeCell ref="H51:H52"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="F55:F56"/>
-    <mergeCell ref="G55:G56"/>
-    <mergeCell ref="H55:H56"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="G51:G52"/>
-    <mergeCell ref="H47:H48"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="F49:F50"/>
-    <mergeCell ref="G49:G50"/>
-    <mergeCell ref="H49:H50"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="F47:F48"/>
-    <mergeCell ref="G47:G48"/>
-    <mergeCell ref="H39:H40"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="H41:H42"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="D43:D46"/>
-    <mergeCell ref="E43:E46"/>
-    <mergeCell ref="F43:F46"/>
-    <mergeCell ref="G43:G46"/>
-    <mergeCell ref="H43:H46"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="E39:E42"/>
-    <mergeCell ref="F39:F42"/>
-    <mergeCell ref="G39:G42"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="D7:D10"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F10"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="H11:H14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E18"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G15:G18"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="E11:E14"/>
+    <mergeCell ref="F11:F14"/>
+    <mergeCell ref="G11:G14"/>
+    <mergeCell ref="H19:H22"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="D23:D26"/>
+    <mergeCell ref="E23:E26"/>
+    <mergeCell ref="F23:F26"/>
+    <mergeCell ref="G23:G26"/>
+    <mergeCell ref="H23:H26"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="D19:D22"/>
+    <mergeCell ref="E19:E22"/>
+    <mergeCell ref="F19:F22"/>
+    <mergeCell ref="G19:G22"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="G27:G28"/>
     <mergeCell ref="H31:H32"/>
     <mergeCell ref="D33:D34"/>
     <mergeCell ref="F33:F34"/>
@@ -3493,59 +3480,45 @@
     <mergeCell ref="E31:E34"/>
     <mergeCell ref="F31:F32"/>
     <mergeCell ref="G31:G34"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="H19:H22"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="D23:D26"/>
-    <mergeCell ref="E23:E26"/>
-    <mergeCell ref="F23:F26"/>
-    <mergeCell ref="G23:G26"/>
-    <mergeCell ref="H23:H26"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="D19:D22"/>
-    <mergeCell ref="E19:E22"/>
-    <mergeCell ref="F19:F22"/>
-    <mergeCell ref="G19:G22"/>
-    <mergeCell ref="H11:H14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E18"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G15:G18"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="D11:D14"/>
-    <mergeCell ref="E11:E14"/>
-    <mergeCell ref="F11:F14"/>
-    <mergeCell ref="G11:G14"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="D7:D10"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F10"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H7:H10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="D43:D46"/>
+    <mergeCell ref="E43:E46"/>
+    <mergeCell ref="F43:F46"/>
+    <mergeCell ref="G43:G46"/>
+    <mergeCell ref="H43:H46"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="E39:E42"/>
+    <mergeCell ref="F39:F42"/>
+    <mergeCell ref="G39:G42"/>
+    <mergeCell ref="H47:H48"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="H49:H50"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="G47:G48"/>
+    <mergeCell ref="H51:H52"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="G55:G56"/>
+    <mergeCell ref="H55:H56"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="G51:G52"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -3562,10 +3535,10 @@
   <dimension ref="A1:I56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.75" style="20" customWidth="1"/>
     <col min="2" max="2" width="3" style="20" customWidth="1"/>
@@ -3602,10 +3575,10 @@
       <c r="I2" s="22"/>
     </row>
     <row r="3" spans="1:9" s="23" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="56" t="s">
+      <c r="A3" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="56"/>
+      <c r="B3" s="49"/>
       <c r="G3" s="24" t="s">
         <v>27</v>
       </c>
@@ -3639,79 +3612,79 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="57">
+      <c r="A5" s="46">
         <v>6</v>
       </c>
       <c r="B5" s="36" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="44"/>
-      <c r="D5" s="55" t="s">
+      <c r="D5" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="55" t="s">
+      <c r="E5" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="55" t="s">
+      <c r="F5" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="55" t="s">
+      <c r="G5" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="55" t="s">
+      <c r="H5" s="50" t="s">
         <v>18</v>
       </c>
       <c r="I5" s="44"/>
     </row>
     <row r="6" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="58"/>
+      <c r="A6" s="47"/>
       <c r="B6" s="33" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="45"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="47"/>
-      <c r="H6" s="47"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="51"/>
+      <c r="F6" s="51"/>
+      <c r="G6" s="51"/>
+      <c r="H6" s="51"/>
       <c r="I6" s="45"/>
     </row>
     <row r="7" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="57">
+      <c r="A7" s="46">
         <v>7</v>
       </c>
       <c r="B7" s="36" t="s">
         <v>1</v>
       </c>
       <c r="C7" s="42"/>
-      <c r="D7" s="61" t="s">
+      <c r="D7" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="61" t="s">
+      <c r="E7" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="61" t="s">
+      <c r="F7" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="G7" s="61" t="s">
+      <c r="G7" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="H7" s="61" t="s">
+      <c r="H7" s="52" t="s">
         <v>18</v>
       </c>
       <c r="I7" s="44"/>
     </row>
     <row r="8" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="59"/>
+      <c r="A8" s="48"/>
       <c r="B8" s="26" t="s">
         <v>2</v>
       </c>
       <c r="C8" s="43"/>
-      <c r="D8" s="62"/>
-      <c r="E8" s="62"/>
-      <c r="F8" s="62"/>
-      <c r="G8" s="62"/>
-      <c r="H8" s="62"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="53"/>
+      <c r="G8" s="53"/>
+      <c r="H8" s="53"/>
       <c r="I8" s="43"/>
     </row>
     <row r="9" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -3720,15 +3693,15 @@
         <v>0</v>
       </c>
       <c r="C9" s="43"/>
-      <c r="D9" s="62"/>
-      <c r="E9" s="62" t="s">
+      <c r="D9" s="53"/>
+      <c r="E9" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="F9" s="62"/>
-      <c r="G9" s="62" t="s">
+      <c r="F9" s="53"/>
+      <c r="G9" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="H9" s="62"/>
+      <c r="H9" s="53"/>
       <c r="I9" s="43"/>
     </row>
     <row r="10" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -3737,49 +3710,49 @@
         <v>3</v>
       </c>
       <c r="C10" s="45"/>
-      <c r="D10" s="63"/>
-      <c r="E10" s="63"/>
-      <c r="F10" s="63"/>
-      <c r="G10" s="63"/>
-      <c r="H10" s="63"/>
+      <c r="D10" s="51"/>
+      <c r="E10" s="51"/>
+      <c r="F10" s="51"/>
+      <c r="G10" s="51"/>
+      <c r="H10" s="51"/>
       <c r="I10" s="45"/>
     </row>
     <row r="11" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="57">
+      <c r="A11" s="46">
         <v>8</v>
       </c>
       <c r="B11" s="36" t="s">
         <v>1</v>
       </c>
       <c r="C11" s="42"/>
-      <c r="D11" s="61" t="s">
+      <c r="D11" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="61" t="s">
+      <c r="E11" s="55" t="s">
         <v>36</v>
       </c>
-      <c r="F11" s="61" t="s">
+      <c r="F11" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="G11" s="61" t="s">
+      <c r="G11" s="55" t="s">
         <v>36</v>
       </c>
-      <c r="H11" s="61" t="s">
+      <c r="H11" s="52" t="s">
         <v>18</v>
       </c>
       <c r="I11" s="42"/>
     </row>
     <row r="12" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="59"/>
+      <c r="A12" s="48"/>
       <c r="B12" s="26" t="s">
         <v>2</v>
       </c>
       <c r="C12" s="43"/>
-      <c r="D12" s="62"/>
-      <c r="E12" s="62"/>
-      <c r="F12" s="62"/>
-      <c r="G12" s="62"/>
-      <c r="H12" s="62"/>
+      <c r="D12" s="53"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="53"/>
+      <c r="G12" s="56"/>
+      <c r="H12" s="53"/>
       <c r="I12" s="43"/>
     </row>
     <row r="13" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -3788,11 +3761,11 @@
         <v>0</v>
       </c>
       <c r="C13" s="43"/>
-      <c r="D13" s="62"/>
-      <c r="E13" s="62"/>
-      <c r="F13" s="62"/>
-      <c r="G13" s="62"/>
-      <c r="H13" s="62"/>
+      <c r="D13" s="53"/>
+      <c r="E13" s="56"/>
+      <c r="F13" s="53"/>
+      <c r="G13" s="56"/>
+      <c r="H13" s="53"/>
       <c r="I13" s="43"/>
     </row>
     <row r="14" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -3801,49 +3774,49 @@
         <v>3</v>
       </c>
       <c r="C14" s="45"/>
-      <c r="D14" s="63"/>
-      <c r="E14" s="63"/>
-      <c r="F14" s="63"/>
-      <c r="G14" s="63"/>
-      <c r="H14" s="63"/>
+      <c r="D14" s="51"/>
+      <c r="E14" s="57"/>
+      <c r="F14" s="51"/>
+      <c r="G14" s="57"/>
+      <c r="H14" s="51"/>
       <c r="I14" s="45"/>
     </row>
     <row r="15" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="57">
+      <c r="A15" s="46">
         <v>9</v>
       </c>
       <c r="B15" s="36" t="s">
         <v>1</v>
       </c>
       <c r="C15" s="18"/>
-      <c r="D15" s="61" t="s">
+      <c r="D15" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="E15" s="61" t="s">
+      <c r="E15" s="55" t="s">
         <v>36</v>
       </c>
-      <c r="F15" s="61" t="s">
+      <c r="F15" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="G15" s="61" t="s">
+      <c r="G15" s="55" t="s">
         <v>36</v>
       </c>
-      <c r="H15" s="61" t="s">
+      <c r="H15" s="52" t="s">
         <v>28</v>
       </c>
       <c r="I15" s="42"/>
     </row>
     <row r="16" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="59"/>
+      <c r="A16" s="48"/>
       <c r="B16" s="26" t="s">
         <v>2</v>
       </c>
       <c r="C16" s="17"/>
-      <c r="D16" s="64"/>
-      <c r="E16" s="62"/>
-      <c r="F16" s="64"/>
-      <c r="G16" s="62"/>
-      <c r="H16" s="64"/>
+      <c r="D16" s="54"/>
+      <c r="E16" s="56"/>
+      <c r="F16" s="54"/>
+      <c r="G16" s="56"/>
+      <c r="H16" s="54"/>
       <c r="I16" s="43"/>
     </row>
     <row r="17" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -3852,15 +3825,15 @@
         <v>0</v>
       </c>
       <c r="C17" s="18"/>
-      <c r="D17" s="65" t="s">
+      <c r="D17" s="59" t="s">
         <v>29</v>
       </c>
-      <c r="E17" s="62"/>
-      <c r="F17" s="65" t="s">
+      <c r="E17" s="56"/>
+      <c r="F17" s="59" t="s">
         <v>29</v>
       </c>
-      <c r="G17" s="62"/>
-      <c r="H17" s="65" t="s">
+      <c r="G17" s="56"/>
+      <c r="H17" s="58" t="s">
         <v>29</v>
       </c>
       <c r="I17" s="43"/>
@@ -3871,49 +3844,49 @@
         <v>3</v>
       </c>
       <c r="C18" s="12"/>
-      <c r="D18" s="63"/>
-      <c r="E18" s="63"/>
-      <c r="F18" s="63"/>
-      <c r="G18" s="63"/>
-      <c r="H18" s="63"/>
+      <c r="D18" s="57"/>
+      <c r="E18" s="57"/>
+      <c r="F18" s="57"/>
+      <c r="G18" s="57"/>
+      <c r="H18" s="51"/>
       <c r="I18" s="45"/>
     </row>
     <row r="19" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="57">
+      <c r="A19" s="46">
         <v>10</v>
       </c>
       <c r="B19" s="36" t="s">
         <v>1</v>
       </c>
       <c r="C19" s="18"/>
-      <c r="D19" s="61" t="s">
+      <c r="D19" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="E19" s="61" t="s">
+      <c r="E19" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="F19" s="61" t="s">
+      <c r="F19" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="G19" s="61" t="s">
+      <c r="G19" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="H19" s="61" t="s">
+      <c r="H19" s="52" t="s">
         <v>30</v>
       </c>
       <c r="I19" s="25"/>
     </row>
     <row r="20" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="59"/>
+      <c r="A20" s="48"/>
       <c r="B20" s="26" t="s">
         <v>2</v>
       </c>
       <c r="C20" s="17"/>
-      <c r="D20" s="62"/>
-      <c r="E20" s="62"/>
-      <c r="F20" s="62"/>
-      <c r="G20" s="62"/>
-      <c r="H20" s="62"/>
+      <c r="D20" s="53"/>
+      <c r="E20" s="53"/>
+      <c r="F20" s="53"/>
+      <c r="G20" s="53"/>
+      <c r="H20" s="53"/>
       <c r="I20" s="17"/>
     </row>
     <row r="21" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -3922,11 +3895,11 @@
         <v>0</v>
       </c>
       <c r="C21" s="18"/>
-      <c r="D21" s="62"/>
-      <c r="E21" s="62"/>
-      <c r="F21" s="62"/>
-      <c r="G21" s="62"/>
-      <c r="H21" s="62"/>
+      <c r="D21" s="53"/>
+      <c r="E21" s="53"/>
+      <c r="F21" s="53"/>
+      <c r="G21" s="53"/>
+      <c r="H21" s="53"/>
       <c r="I21" s="18"/>
     </row>
     <row r="22" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -3935,49 +3908,49 @@
         <v>3</v>
       </c>
       <c r="C22" s="12"/>
-      <c r="D22" s="63"/>
-      <c r="E22" s="63"/>
-      <c r="F22" s="63"/>
-      <c r="G22" s="63"/>
-      <c r="H22" s="63"/>
+      <c r="D22" s="51"/>
+      <c r="E22" s="51"/>
+      <c r="F22" s="51"/>
+      <c r="G22" s="51"/>
+      <c r="H22" s="51"/>
       <c r="I22" s="17"/>
     </row>
     <row r="23" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="57">
+      <c r="A23" s="46">
         <v>11</v>
       </c>
       <c r="B23" s="36" t="s">
         <v>1</v>
       </c>
       <c r="C23" s="18"/>
-      <c r="D23" s="61" t="s">
+      <c r="D23" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="E23" s="61" t="s">
+      <c r="E23" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="F23" s="61" t="s">
+      <c r="F23" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="G23" s="61" t="s">
+      <c r="G23" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="H23" s="61" t="s">
+      <c r="H23" s="52" t="s">
         <v>30</v>
       </c>
       <c r="I23" s="25"/>
     </row>
     <row r="24" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="59"/>
+      <c r="A24" s="48"/>
       <c r="B24" s="26" t="s">
         <v>2</v>
       </c>
       <c r="C24" s="17"/>
-      <c r="D24" s="62"/>
-      <c r="E24" s="62"/>
-      <c r="F24" s="62"/>
-      <c r="G24" s="62"/>
-      <c r="H24" s="62"/>
+      <c r="D24" s="53"/>
+      <c r="E24" s="56"/>
+      <c r="F24" s="53"/>
+      <c r="G24" s="53"/>
+      <c r="H24" s="53"/>
       <c r="I24" s="17"/>
     </row>
     <row r="25" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -3986,11 +3959,11 @@
         <v>0</v>
       </c>
       <c r="C25" s="18"/>
-      <c r="D25" s="62"/>
-      <c r="E25" s="62"/>
-      <c r="F25" s="62"/>
-      <c r="G25" s="62"/>
-      <c r="H25" s="62"/>
+      <c r="D25" s="53"/>
+      <c r="E25" s="56"/>
+      <c r="F25" s="53"/>
+      <c r="G25" s="53"/>
+      <c r="H25" s="53"/>
       <c r="I25" s="18"/>
     </row>
     <row r="26" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -3999,49 +3972,49 @@
         <v>3</v>
       </c>
       <c r="C26" s="12"/>
-      <c r="D26" s="63"/>
-      <c r="E26" s="63"/>
-      <c r="F26" s="63"/>
-      <c r="G26" s="63"/>
-      <c r="H26" s="63"/>
+      <c r="D26" s="51"/>
+      <c r="E26" s="57"/>
+      <c r="F26" s="51"/>
+      <c r="G26" s="51"/>
+      <c r="H26" s="51"/>
       <c r="I26" s="17"/>
     </row>
     <row r="27" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="57">
+      <c r="A27" s="46">
         <v>12</v>
       </c>
       <c r="B27" s="36" t="s">
         <v>8</v>
       </c>
       <c r="C27" s="18"/>
-      <c r="D27" s="61" t="s">
+      <c r="D27" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="E27" s="61" t="s">
+      <c r="E27" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="F27" s="61" t="s">
+      <c r="F27" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="G27" s="61" t="s">
+      <c r="G27" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="H27" s="61" t="s">
+      <c r="H27" s="52" t="s">
         <v>30</v>
       </c>
       <c r="I27" s="25"/>
     </row>
     <row r="28" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="59"/>
+      <c r="A28" s="48"/>
       <c r="B28" s="26" t="s">
         <v>2</v>
       </c>
       <c r="C28" s="17"/>
-      <c r="D28" s="64"/>
-      <c r="E28" s="64"/>
-      <c r="F28" s="64"/>
-      <c r="G28" s="64"/>
-      <c r="H28" s="64"/>
+      <c r="D28" s="54"/>
+      <c r="E28" s="54"/>
+      <c r="F28" s="54"/>
+      <c r="G28" s="54"/>
+      <c r="H28" s="54"/>
       <c r="I28" s="17"/>
     </row>
     <row r="29" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -4050,19 +4023,19 @@
         <v>0</v>
       </c>
       <c r="C29" s="18"/>
-      <c r="D29" s="65" t="s">
-        <v>31</v>
-      </c>
-      <c r="E29" s="61" t="s">
+      <c r="D29" s="58" t="s">
+        <v>31</v>
+      </c>
+      <c r="E29" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="F29" s="65" t="s">
-        <v>31</v>
-      </c>
-      <c r="G29" s="61" t="s">
+      <c r="F29" s="58" t="s">
+        <v>31</v>
+      </c>
+      <c r="G29" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="H29" s="65" t="s">
+      <c r="H29" s="58" t="s">
         <v>31</v>
       </c>
       <c r="I29" s="18"/>
@@ -4073,49 +4046,49 @@
         <v>3</v>
       </c>
       <c r="C30" s="12"/>
-      <c r="D30" s="63"/>
-      <c r="E30" s="64"/>
-      <c r="F30" s="63"/>
-      <c r="G30" s="64"/>
-      <c r="H30" s="63"/>
+      <c r="D30" s="51"/>
+      <c r="E30" s="54"/>
+      <c r="F30" s="51"/>
+      <c r="G30" s="54"/>
+      <c r="H30" s="51"/>
       <c r="I30" s="17"/>
     </row>
     <row r="31" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="57">
+      <c r="A31" s="46">
         <v>1</v>
       </c>
       <c r="B31" s="36" t="s">
         <v>8</v>
       </c>
       <c r="C31" s="18"/>
-      <c r="D31" s="61" t="s">
+      <c r="D31" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="E31" s="61" t="s">
+      <c r="E31" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="F31" s="61" t="s">
+      <c r="F31" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="G31" s="61" t="s">
+      <c r="G31" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="H31" s="61" t="s">
+      <c r="H31" s="52" t="s">
         <v>32</v>
       </c>
       <c r="I31" s="25"/>
     </row>
     <row r="32" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="59"/>
+      <c r="A32" s="48"/>
       <c r="B32" s="26" t="s">
         <v>2</v>
       </c>
       <c r="C32" s="17"/>
-      <c r="D32" s="64"/>
-      <c r="E32" s="62"/>
-      <c r="F32" s="64"/>
-      <c r="G32" s="62"/>
-      <c r="H32" s="64"/>
+      <c r="D32" s="54"/>
+      <c r="E32" s="53"/>
+      <c r="F32" s="54"/>
+      <c r="G32" s="53"/>
+      <c r="H32" s="54"/>
       <c r="I32" s="17"/>
     </row>
     <row r="33" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -4124,15 +4097,15 @@
         <v>0</v>
       </c>
       <c r="C33" s="18"/>
-      <c r="D33" s="65" t="s">
+      <c r="D33" s="59" t="s">
         <v>29</v>
       </c>
-      <c r="E33" s="62"/>
-      <c r="F33" s="65" t="s">
+      <c r="E33" s="53"/>
+      <c r="F33" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="G33" s="62"/>
-      <c r="H33" s="65" t="s">
+      <c r="G33" s="53"/>
+      <c r="H33" s="58" t="s">
         <v>29</v>
       </c>
       <c r="I33" s="18"/>
@@ -4143,49 +4116,49 @@
         <v>3</v>
       </c>
       <c r="C34" s="12"/>
-      <c r="D34" s="63"/>
-      <c r="E34" s="63"/>
-      <c r="F34" s="63"/>
-      <c r="G34" s="63"/>
-      <c r="H34" s="63"/>
+      <c r="D34" s="57"/>
+      <c r="E34" s="51"/>
+      <c r="F34" s="51"/>
+      <c r="G34" s="51"/>
+      <c r="H34" s="51"/>
       <c r="I34" s="17"/>
     </row>
     <row r="35" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="57">
+      <c r="A35" s="46">
         <v>2</v>
       </c>
       <c r="B35" s="36" t="s">
         <v>8</v>
       </c>
       <c r="C35" s="18"/>
-      <c r="D35" s="61" t="s">
+      <c r="D35" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="E35" s="61" t="s">
+      <c r="E35" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="F35" s="61" t="s">
+      <c r="F35" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="G35" s="61" t="s">
+      <c r="G35" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="H35" s="61" t="s">
+      <c r="H35" s="52" t="s">
         <v>29</v>
       </c>
       <c r="I35" s="25"/>
     </row>
     <row r="36" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="59"/>
+      <c r="A36" s="48"/>
       <c r="B36" s="26" t="s">
         <v>2</v>
       </c>
       <c r="C36" s="17"/>
-      <c r="D36" s="62"/>
-      <c r="E36" s="62"/>
-      <c r="F36" s="62"/>
-      <c r="G36" s="62"/>
-      <c r="H36" s="62"/>
+      <c r="D36" s="56"/>
+      <c r="E36" s="53"/>
+      <c r="F36" s="53"/>
+      <c r="G36" s="53"/>
+      <c r="H36" s="53"/>
       <c r="I36" s="17"/>
     </row>
     <row r="37" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -4194,11 +4167,11 @@
         <v>0</v>
       </c>
       <c r="C37" s="18"/>
-      <c r="D37" s="62"/>
-      <c r="E37" s="62"/>
-      <c r="F37" s="62"/>
-      <c r="G37" s="62"/>
-      <c r="H37" s="62"/>
+      <c r="D37" s="56"/>
+      <c r="E37" s="53"/>
+      <c r="F37" s="53"/>
+      <c r="G37" s="53"/>
+      <c r="H37" s="53"/>
       <c r="I37" s="18"/>
     </row>
     <row r="38" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -4207,49 +4180,49 @@
         <v>3</v>
       </c>
       <c r="C38" s="12"/>
-      <c r="D38" s="63"/>
-      <c r="E38" s="63"/>
-      <c r="F38" s="63"/>
-      <c r="G38" s="63"/>
-      <c r="H38" s="63"/>
+      <c r="D38" s="57"/>
+      <c r="E38" s="51"/>
+      <c r="F38" s="51"/>
+      <c r="G38" s="51"/>
+      <c r="H38" s="51"/>
       <c r="I38" s="17"/>
     </row>
     <row r="39" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="57">
+      <c r="A39" s="46">
         <v>3</v>
       </c>
       <c r="B39" s="36" t="s">
         <v>8</v>
       </c>
       <c r="C39" s="18"/>
-      <c r="D39" s="65" t="s">
+      <c r="D39" s="59" t="s">
         <v>29</v>
       </c>
-      <c r="E39" s="61" t="s">
+      <c r="E39" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="F39" s="61" t="s">
+      <c r="F39" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="G39" s="61" t="s">
+      <c r="G39" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="H39" s="65" t="s">
+      <c r="H39" s="58" t="s">
         <v>29</v>
       </c>
       <c r="I39" s="25"/>
     </row>
     <row r="40" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="59"/>
+      <c r="A40" s="48"/>
       <c r="B40" s="26" t="s">
         <v>2</v>
       </c>
       <c r="C40" s="17"/>
-      <c r="D40" s="63"/>
-      <c r="E40" s="62"/>
-      <c r="F40" s="62"/>
-      <c r="G40" s="62"/>
-      <c r="H40" s="63"/>
+      <c r="D40" s="57"/>
+      <c r="E40" s="53"/>
+      <c r="F40" s="53"/>
+      <c r="G40" s="53"/>
+      <c r="H40" s="51"/>
       <c r="I40" s="17"/>
     </row>
     <row r="41" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
@@ -4258,13 +4231,13 @@
         <v>0</v>
       </c>
       <c r="C41" s="18"/>
-      <c r="D41" s="61" t="s">
+      <c r="D41" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="E41" s="62"/>
-      <c r="F41" s="62"/>
-      <c r="G41" s="62"/>
-      <c r="H41" s="61" t="s">
+      <c r="E41" s="53"/>
+      <c r="F41" s="53"/>
+      <c r="G41" s="53"/>
+      <c r="H41" s="52" t="s">
         <v>33</v>
       </c>
       <c r="I41" s="18"/>
@@ -4275,49 +4248,49 @@
         <v>3</v>
       </c>
       <c r="C42" s="12"/>
-      <c r="D42" s="63"/>
-      <c r="E42" s="63"/>
-      <c r="F42" s="63"/>
-      <c r="G42" s="63"/>
-      <c r="H42" s="63"/>
+      <c r="D42" s="57"/>
+      <c r="E42" s="51"/>
+      <c r="F42" s="51"/>
+      <c r="G42" s="51"/>
+      <c r="H42" s="51"/>
       <c r="I42" s="17"/>
     </row>
-    <row r="43" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A43" s="57">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A43" s="46">
         <v>4</v>
       </c>
       <c r="B43" s="36" t="s">
         <v>8</v>
       </c>
       <c r="C43" s="18"/>
-      <c r="D43" s="61" t="s">
+      <c r="D43" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="E43" s="61" t="s">
+      <c r="E43" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="F43" s="61" t="s">
+      <c r="F43" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="G43" s="61" t="s">
+      <c r="G43" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="H43" s="61" t="s">
+      <c r="H43" s="52" t="s">
         <v>33</v>
       </c>
       <c r="I43" s="25"/>
     </row>
-    <row r="44" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A44" s="59"/>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A44" s="48"/>
       <c r="B44" s="26" t="s">
         <v>2</v>
       </c>
       <c r="C44" s="17"/>
-      <c r="D44" s="62"/>
-      <c r="E44" s="62"/>
-      <c r="F44" s="62"/>
-      <c r="G44" s="62"/>
-      <c r="H44" s="62"/>
+      <c r="D44" s="56"/>
+      <c r="E44" s="53"/>
+      <c r="F44" s="53"/>
+      <c r="G44" s="53"/>
+      <c r="H44" s="53"/>
       <c r="I44" s="17"/>
     </row>
     <row r="45" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
@@ -4326,11 +4299,11 @@
         <v>0</v>
       </c>
       <c r="C45" s="18"/>
-      <c r="D45" s="62"/>
-      <c r="E45" s="62"/>
-      <c r="F45" s="62"/>
-      <c r="G45" s="62"/>
-      <c r="H45" s="62"/>
+      <c r="D45" s="56"/>
+      <c r="E45" s="53"/>
+      <c r="F45" s="53"/>
+      <c r="G45" s="53"/>
+      <c r="H45" s="53"/>
       <c r="I45" s="18"/>
     </row>
     <row r="46" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
@@ -4339,286 +4312,236 @@
         <v>3</v>
       </c>
       <c r="C46" s="12"/>
-      <c r="D46" s="63"/>
-      <c r="E46" s="63"/>
-      <c r="F46" s="63"/>
-      <c r="G46" s="63"/>
-      <c r="H46" s="63"/>
+      <c r="D46" s="57"/>
+      <c r="E46" s="51"/>
+      <c r="F46" s="51"/>
+      <c r="G46" s="51"/>
+      <c r="H46" s="51"/>
       <c r="I46" s="17"/>
     </row>
-    <row r="47" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A47" s="57">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A47" s="46">
         <v>5</v>
       </c>
       <c r="B47" s="36" t="s">
         <v>8</v>
       </c>
       <c r="C47" s="15"/>
-      <c r="D47" s="61" t="s">
+      <c r="D47" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="E47" s="65" t="s">
-        <v>31</v>
-      </c>
-      <c r="F47" s="61" t="s">
+      <c r="E47" s="58" t="s">
+        <v>31</v>
+      </c>
+      <c r="F47" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="G47" s="65" t="s">
-        <v>31</v>
-      </c>
-      <c r="H47" s="61" t="s">
+      <c r="G47" s="58" t="s">
+        <v>31</v>
+      </c>
+      <c r="H47" s="55" t="s">
         <v>33</v>
       </c>
       <c r="I47" s="15"/>
     </row>
-    <row r="48" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A48" s="58"/>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A48" s="47"/>
       <c r="B48" s="33" t="s">
         <v>0</v>
       </c>
       <c r="C48" s="13"/>
-      <c r="D48" s="63"/>
-      <c r="E48" s="63"/>
-      <c r="F48" s="63"/>
-      <c r="G48" s="63"/>
-      <c r="H48" s="63"/>
+      <c r="D48" s="57"/>
+      <c r="E48" s="51"/>
+      <c r="F48" s="51"/>
+      <c r="G48" s="51"/>
+      <c r="H48" s="57"/>
       <c r="I48" s="13"/>
     </row>
-    <row r="49" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A49" s="57">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A49" s="46">
         <v>6</v>
       </c>
       <c r="B49" s="36" t="s">
         <v>8</v>
       </c>
       <c r="C49" s="15"/>
-      <c r="D49" s="61" t="s">
+      <c r="D49" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="E49" s="65" t="s">
+      <c r="E49" s="58" t="s">
         <v>35</v>
       </c>
-      <c r="F49" s="61" t="s">
+      <c r="F49" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="G49" s="65" t="s">
-        <v>31</v>
-      </c>
-      <c r="H49" s="61" t="s">
+      <c r="G49" s="58" t="s">
+        <v>31</v>
+      </c>
+      <c r="H49" s="55" t="s">
         <v>33</v>
       </c>
       <c r="I49" s="15"/>
     </row>
-    <row r="50" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A50" s="58"/>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A50" s="47"/>
       <c r="B50" s="33" t="s">
         <v>0</v>
       </c>
       <c r="C50" s="13"/>
-      <c r="D50" s="63"/>
-      <c r="E50" s="63"/>
-      <c r="F50" s="63"/>
-      <c r="G50" s="63"/>
-      <c r="H50" s="63"/>
+      <c r="D50" s="57"/>
+      <c r="E50" s="51"/>
+      <c r="F50" s="51"/>
+      <c r="G50" s="51"/>
+      <c r="H50" s="57"/>
       <c r="I50" s="13"/>
     </row>
-    <row r="51" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A51" s="57">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A51" s="46">
         <v>7</v>
       </c>
       <c r="B51" s="36" t="s">
         <v>8</v>
       </c>
       <c r="C51" s="15"/>
-      <c r="D51" s="65" t="s">
-        <v>31</v>
-      </c>
-      <c r="E51" s="65" t="s">
+      <c r="D51" s="58" t="s">
+        <v>31</v>
+      </c>
+      <c r="E51" s="58" t="s">
         <v>35</v>
       </c>
-      <c r="F51" s="65" t="s">
-        <v>31</v>
-      </c>
-      <c r="G51" s="65" t="s">
-        <v>31</v>
-      </c>
-      <c r="H51" s="65" t="s">
+      <c r="F51" s="58" t="s">
+        <v>31</v>
+      </c>
+      <c r="G51" s="58" t="s">
+        <v>31</v>
+      </c>
+      <c r="H51" s="58" t="s">
         <v>31</v>
       </c>
       <c r="I51" s="15"/>
     </row>
-    <row r="52" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A52" s="58"/>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A52" s="47"/>
       <c r="B52" s="33" t="s">
         <v>0</v>
       </c>
       <c r="C52" s="13"/>
-      <c r="D52" s="63"/>
-      <c r="E52" s="63"/>
-      <c r="F52" s="63"/>
-      <c r="G52" s="63"/>
-      <c r="H52" s="63"/>
+      <c r="D52" s="51"/>
+      <c r="E52" s="51"/>
+      <c r="F52" s="51"/>
+      <c r="G52" s="51"/>
+      <c r="H52" s="51"/>
       <c r="I52" s="13"/>
     </row>
-    <row r="53" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A53" s="57">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A53" s="46">
         <v>8</v>
       </c>
       <c r="B53" s="36" t="s">
         <v>8</v>
       </c>
       <c r="C53" s="15"/>
-      <c r="D53" s="66" t="s">
+      <c r="D53" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="E53" s="65" t="s">
+      <c r="E53" s="58" t="s">
         <v>35</v>
       </c>
-      <c r="F53" s="66" t="s">
+      <c r="F53" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="G53" s="66" t="s">
+      <c r="G53" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="H53" s="66" t="s">
+      <c r="H53" s="16" t="s">
         <v>34</v>
       </c>
       <c r="I53" s="15"/>
     </row>
-    <row r="54" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A54" s="58"/>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A54" s="47"/>
       <c r="B54" s="33" t="s">
         <v>0</v>
       </c>
       <c r="C54" s="13"/>
-      <c r="D54" s="67" t="s">
-        <v>31</v>
-      </c>
-      <c r="E54" s="63"/>
-      <c r="F54" s="67" t="s">
-        <v>31</v>
-      </c>
-      <c r="G54" s="67" t="s">
-        <v>31</v>
-      </c>
-      <c r="H54" s="67" t="s">
+      <c r="D54" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="E54" s="51"/>
+      <c r="F54" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="G54" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="H54" s="14" t="s">
         <v>31</v>
       </c>
       <c r="I54" s="13"/>
     </row>
-    <row r="55" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A55" s="57">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A55" s="46">
         <v>9</v>
       </c>
       <c r="B55" s="36" t="s">
         <v>8</v>
       </c>
       <c r="C55" s="15"/>
-      <c r="D55" s="65" t="s">
-        <v>31</v>
-      </c>
-      <c r="E55" s="68" t="s">
+      <c r="D55" s="58" t="s">
+        <v>31</v>
+      </c>
+      <c r="E55" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="F55" s="65" t="s">
-        <v>31</v>
-      </c>
-      <c r="G55" s="65" t="s">
-        <v>31</v>
-      </c>
-      <c r="H55" s="65" t="s">
+      <c r="F55" s="58" t="s">
+        <v>31</v>
+      </c>
+      <c r="G55" s="58" t="s">
+        <v>31</v>
+      </c>
+      <c r="H55" s="58" t="s">
         <v>31</v>
       </c>
       <c r="I55" s="15"/>
     </row>
-    <row r="56" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A56" s="58"/>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A56" s="47"/>
       <c r="B56" s="33" t="s">
         <v>0</v>
       </c>
       <c r="C56" s="13"/>
-      <c r="D56" s="63"/>
-      <c r="E56" s="69" t="s">
-        <v>31</v>
-      </c>
-      <c r="F56" s="63"/>
-      <c r="G56" s="63"/>
-      <c r="H56" s="63"/>
+      <c r="D56" s="51"/>
+      <c r="E56" s="41" t="s">
+        <v>31</v>
+      </c>
+      <c r="F56" s="51"/>
+      <c r="G56" s="51"/>
+      <c r="H56" s="51"/>
       <c r="I56" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="107">
-    <mergeCell ref="H55:H56"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="F55:F56"/>
-    <mergeCell ref="G55:G56"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="G51:G52"/>
-    <mergeCell ref="H51:H52"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="F49:F50"/>
-    <mergeCell ref="G49:G50"/>
-    <mergeCell ref="H49:H50"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="F47:F48"/>
-    <mergeCell ref="G47:G48"/>
-    <mergeCell ref="H47:H48"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="D43:D46"/>
-    <mergeCell ref="E43:E46"/>
-    <mergeCell ref="F43:F46"/>
-    <mergeCell ref="G43:G46"/>
-    <mergeCell ref="H43:H46"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="E39:E42"/>
-    <mergeCell ref="F39:F42"/>
-    <mergeCell ref="G39:G42"/>
-    <mergeCell ref="H39:H40"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="H41:H42"/>
-    <mergeCell ref="H31:H32"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="H33:H34"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="D35:D38"/>
-    <mergeCell ref="E35:E38"/>
-    <mergeCell ref="F35:F38"/>
-    <mergeCell ref="G35:G38"/>
-    <mergeCell ref="H35:H38"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="E31:E34"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="G31:G34"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="D23:D26"/>
-    <mergeCell ref="E23:E26"/>
-    <mergeCell ref="F23:F26"/>
-    <mergeCell ref="G23:G26"/>
-    <mergeCell ref="H23:H26"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="E11:E14"/>
+    <mergeCell ref="F11:F14"/>
+    <mergeCell ref="G11:G14"/>
+    <mergeCell ref="H11:H14"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="D7:D10"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F10"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="G9:G10"/>
     <mergeCell ref="A19:A20"/>
     <mergeCell ref="D19:D22"/>
     <mergeCell ref="E19:E22"/>
@@ -4634,27 +4557,77 @@
     <mergeCell ref="D17:D18"/>
     <mergeCell ref="F17:F18"/>
     <mergeCell ref="H17:H18"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="D11:D14"/>
-    <mergeCell ref="E11:E14"/>
-    <mergeCell ref="F11:F14"/>
-    <mergeCell ref="G11:G14"/>
-    <mergeCell ref="H11:H14"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="D7:D10"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F10"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H7:H10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="D23:D26"/>
+    <mergeCell ref="E23:E26"/>
+    <mergeCell ref="F23:F26"/>
+    <mergeCell ref="G23:G26"/>
+    <mergeCell ref="H23:H26"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="E31:E34"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="G31:G34"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="H33:H34"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="D35:D38"/>
+    <mergeCell ref="E35:E38"/>
+    <mergeCell ref="F35:F38"/>
+    <mergeCell ref="G35:G38"/>
+    <mergeCell ref="H35:H38"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="D43:D46"/>
+    <mergeCell ref="E43:E46"/>
+    <mergeCell ref="F43:F46"/>
+    <mergeCell ref="G43:G46"/>
+    <mergeCell ref="H43:H46"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="E39:E42"/>
+    <mergeCell ref="F39:F42"/>
+    <mergeCell ref="G39:G42"/>
+    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="H49:H50"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="G47:G48"/>
+    <mergeCell ref="H47:H48"/>
+    <mergeCell ref="H55:H56"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="G55:G56"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="G51:G52"/>
+    <mergeCell ref="H51:H52"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Calendario.xlsx
+++ b/Calendario.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SEBAS\Documents\Calendario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23748C8F-6B36-4DE5-8F2B-3D852D05314B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D391271-30E0-435C-886F-9CA32EA5D1B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Semana1" sheetId="3" r:id="rId1"/>
     <sheet name="Semana2" sheetId="2" r:id="rId2"/>
     <sheet name="Semana3" sheetId="5" r:id="rId3"/>
-    <sheet name="©" sheetId="4" r:id="rId4"/>
+    <sheet name="Semana4" sheetId="6" r:id="rId4"/>
+    <sheet name="©" sheetId="4" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Semana1!$A$1:$I$56</definedName>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="43">
   <si>
     <t>:30</t>
   </si>
@@ -151,6 +152,15 @@
   </si>
   <si>
     <t>Agenda Semana del 27 al 4</t>
+  </si>
+  <si>
+    <t>Agenda Semana del 6 al 10</t>
+  </si>
+  <si>
+    <t>DESAYUNAR</t>
+  </si>
+  <si>
+    <t>LIBRE</t>
   </si>
 </sst>
 </file>
@@ -628,7 +638,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -751,6 +761,39 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
@@ -760,40 +803,22 @@
     <xf numFmtId="0" fontId="19" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1355,10 +1380,10 @@
       <c r="I2" s="22"/>
     </row>
     <row r="3" spans="1:9" s="23" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="49" t="s">
+      <c r="A3" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="49"/>
+      <c r="B3" s="56"/>
       <c r="G3" s="24" t="s">
         <v>27</v>
       </c>
@@ -1392,79 +1417,79 @@
       </c>
     </row>
     <row r="5" spans="1:9" s="20" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="46">
+      <c r="A5" s="57">
         <v>6</v>
       </c>
       <c r="B5" s="36" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="44"/>
-      <c r="D5" s="50" t="s">
+      <c r="D5" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="50" t="s">
+      <c r="E5" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="50" t="s">
+      <c r="F5" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="50" t="s">
+      <c r="G5" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="50" t="s">
+      <c r="H5" s="55" t="s">
         <v>18</v>
       </c>
       <c r="I5" s="44"/>
     </row>
     <row r="6" spans="1:9" s="20" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="47"/>
+      <c r="A6" s="58"/>
       <c r="B6" s="33" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="45"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="51"/>
-      <c r="F6" s="51"/>
-      <c r="G6" s="51"/>
-      <c r="H6" s="51"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="47"/>
       <c r="I6" s="45"/>
     </row>
     <row r="7" spans="1:9" s="20" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="46">
+      <c r="A7" s="57">
         <v>7</v>
       </c>
       <c r="B7" s="36" t="s">
         <v>1</v>
       </c>
       <c r="C7" s="42"/>
-      <c r="D7" s="52" t="s">
+      <c r="D7" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="52" t="s">
+      <c r="E7" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="52" t="s">
+      <c r="F7" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="G7" s="52" t="s">
+      <c r="G7" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="H7" s="52" t="s">
+      <c r="H7" s="50" t="s">
         <v>18</v>
       </c>
       <c r="I7" s="44"/>
     </row>
     <row r="8" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="48"/>
+      <c r="A8" s="59"/>
       <c r="B8" s="26" t="s">
         <v>2</v>
       </c>
       <c r="C8" s="43"/>
-      <c r="D8" s="53"/>
-      <c r="E8" s="53"/>
-      <c r="F8" s="53"/>
-      <c r="G8" s="53"/>
-      <c r="H8" s="53"/>
+      <c r="D8" s="51"/>
+      <c r="E8" s="51"/>
+      <c r="F8" s="51"/>
+      <c r="G8" s="51"/>
+      <c r="H8" s="51"/>
       <c r="I8" s="43"/>
     </row>
     <row r="9" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1473,15 +1498,15 @@
         <v>0</v>
       </c>
       <c r="C9" s="43"/>
-      <c r="D9" s="53"/>
-      <c r="E9" s="56" t="s">
+      <c r="D9" s="51"/>
+      <c r="E9" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="F9" s="53"/>
-      <c r="G9" s="56" t="s">
+      <c r="F9" s="51"/>
+      <c r="G9" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="H9" s="53"/>
+      <c r="H9" s="51"/>
       <c r="I9" s="43"/>
     </row>
     <row r="10" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1490,49 +1515,49 @@
         <v>3</v>
       </c>
       <c r="C10" s="45"/>
-      <c r="D10" s="51"/>
-      <c r="E10" s="57"/>
-      <c r="F10" s="51"/>
-      <c r="G10" s="57"/>
-      <c r="H10" s="51"/>
+      <c r="D10" s="47"/>
+      <c r="E10" s="49"/>
+      <c r="F10" s="47"/>
+      <c r="G10" s="49"/>
+      <c r="H10" s="47"/>
       <c r="I10" s="45"/>
     </row>
     <row r="11" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="46">
+      <c r="A11" s="57">
         <v>8</v>
       </c>
       <c r="B11" s="36" t="s">
         <v>1</v>
       </c>
       <c r="C11" s="42"/>
-      <c r="D11" s="52" t="s">
+      <c r="D11" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="55" t="s">
+      <c r="E11" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="F11" s="52" t="s">
+      <c r="F11" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="G11" s="55" t="s">
+      <c r="G11" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="H11" s="52" t="s">
+      <c r="H11" s="50" t="s">
         <v>18</v>
       </c>
       <c r="I11" s="42"/>
     </row>
     <row r="12" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="48"/>
+      <c r="A12" s="59"/>
       <c r="B12" s="26" t="s">
         <v>2</v>
       </c>
       <c r="C12" s="43"/>
-      <c r="D12" s="53"/>
-      <c r="E12" s="56"/>
-      <c r="F12" s="53"/>
-      <c r="G12" s="56"/>
-      <c r="H12" s="53"/>
+      <c r="D12" s="51"/>
+      <c r="E12" s="53"/>
+      <c r="F12" s="51"/>
+      <c r="G12" s="53"/>
+      <c r="H12" s="51"/>
       <c r="I12" s="43"/>
     </row>
     <row r="13" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1541,11 +1566,11 @@
         <v>0</v>
       </c>
       <c r="C13" s="43"/>
-      <c r="D13" s="53"/>
-      <c r="E13" s="56"/>
-      <c r="F13" s="53"/>
-      <c r="G13" s="56"/>
-      <c r="H13" s="53"/>
+      <c r="D13" s="51"/>
+      <c r="E13" s="53"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="53"/>
+      <c r="H13" s="51"/>
       <c r="I13" s="43"/>
     </row>
     <row r="14" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1554,48 +1579,48 @@
         <v>3</v>
       </c>
       <c r="C14" s="45"/>
-      <c r="D14" s="51"/>
-      <c r="E14" s="57"/>
-      <c r="F14" s="51"/>
-      <c r="G14" s="57"/>
-      <c r="H14" s="51"/>
+      <c r="D14" s="47"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="47"/>
+      <c r="G14" s="49"/>
+      <c r="H14" s="47"/>
       <c r="I14" s="45"/>
     </row>
     <row r="15" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="46">
+      <c r="A15" s="57">
         <v>9</v>
       </c>
       <c r="B15" s="36" t="s">
         <v>1</v>
       </c>
       <c r="C15" s="18"/>
-      <c r="D15" s="52" t="s">
+      <c r="D15" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="E15" s="55" t="s">
+      <c r="E15" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="F15" s="52" t="s">
+      <c r="F15" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="G15" s="55" t="s">
+      <c r="G15" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="H15" s="52" t="s">
+      <c r="H15" s="50" t="s">
         <v>28</v>
       </c>
       <c r="I15" s="42"/>
     </row>
     <row r="16" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="48"/>
+      <c r="A16" s="59"/>
       <c r="B16" s="26" t="s">
         <v>2</v>
       </c>
       <c r="C16" s="17"/>
       <c r="D16" s="54"/>
-      <c r="E16" s="56"/>
+      <c r="E16" s="53"/>
       <c r="F16" s="54"/>
-      <c r="G16" s="56"/>
+      <c r="G16" s="53"/>
       <c r="H16" s="54"/>
       <c r="I16" s="43"/>
     </row>
@@ -1605,15 +1630,15 @@
         <v>0</v>
       </c>
       <c r="C17" s="18"/>
-      <c r="D17" s="58" t="s">
+      <c r="D17" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="E17" s="56"/>
-      <c r="F17" s="58" t="s">
+      <c r="E17" s="53"/>
+      <c r="F17" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="G17" s="56"/>
-      <c r="H17" s="58" t="s">
+      <c r="G17" s="53"/>
+      <c r="H17" s="46" t="s">
         <v>29</v>
       </c>
       <c r="I17" s="43"/>
@@ -1624,49 +1649,49 @@
         <v>3</v>
       </c>
       <c r="C18" s="12"/>
-      <c r="D18" s="51"/>
-      <c r="E18" s="57"/>
-      <c r="F18" s="51"/>
-      <c r="G18" s="57"/>
-      <c r="H18" s="51"/>
+      <c r="D18" s="47"/>
+      <c r="E18" s="49"/>
+      <c r="F18" s="47"/>
+      <c r="G18" s="49"/>
+      <c r="H18" s="47"/>
       <c r="I18" s="45"/>
     </row>
     <row r="19" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="46">
+      <c r="A19" s="57">
         <v>10</v>
       </c>
       <c r="B19" s="36" t="s">
         <v>1</v>
       </c>
       <c r="C19" s="18"/>
-      <c r="D19" s="52" t="s">
+      <c r="D19" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="E19" s="52" t="s">
+      <c r="E19" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="F19" s="52" t="s">
+      <c r="F19" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="G19" s="55" t="s">
+      <c r="G19" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="H19" s="52" t="s">
+      <c r="H19" s="50" t="s">
         <v>30</v>
       </c>
       <c r="I19" s="25"/>
     </row>
     <row r="20" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="48"/>
+      <c r="A20" s="59"/>
       <c r="B20" s="26" t="s">
         <v>2</v>
       </c>
       <c r="C20" s="17"/>
-      <c r="D20" s="53"/>
-      <c r="E20" s="53"/>
-      <c r="F20" s="53"/>
-      <c r="G20" s="56"/>
-      <c r="H20" s="53"/>
+      <c r="D20" s="51"/>
+      <c r="E20" s="51"/>
+      <c r="F20" s="51"/>
+      <c r="G20" s="53"/>
+      <c r="H20" s="51"/>
       <c r="I20" s="17"/>
     </row>
     <row r="21" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1675,11 +1700,11 @@
         <v>0</v>
       </c>
       <c r="C21" s="18"/>
-      <c r="D21" s="53"/>
-      <c r="E21" s="53"/>
-      <c r="F21" s="53"/>
-      <c r="G21" s="56"/>
-      <c r="H21" s="53"/>
+      <c r="D21" s="51"/>
+      <c r="E21" s="51"/>
+      <c r="F21" s="51"/>
+      <c r="G21" s="53"/>
+      <c r="H21" s="51"/>
       <c r="I21" s="18"/>
     </row>
     <row r="22" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1688,49 +1713,49 @@
         <v>3</v>
       </c>
       <c r="C22" s="12"/>
-      <c r="D22" s="51"/>
-      <c r="E22" s="51"/>
-      <c r="F22" s="51"/>
-      <c r="G22" s="57"/>
-      <c r="H22" s="51"/>
+      <c r="D22" s="47"/>
+      <c r="E22" s="47"/>
+      <c r="F22" s="47"/>
+      <c r="G22" s="49"/>
+      <c r="H22" s="47"/>
       <c r="I22" s="17"/>
     </row>
     <row r="23" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="46">
+      <c r="A23" s="57">
         <v>11</v>
       </c>
       <c r="B23" s="36" t="s">
         <v>1</v>
       </c>
       <c r="C23" s="18"/>
-      <c r="D23" s="52" t="s">
+      <c r="D23" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="E23" s="55" t="s">
+      <c r="E23" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="F23" s="52" t="s">
+      <c r="F23" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="G23" s="55" t="s">
+      <c r="G23" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="H23" s="52" t="s">
+      <c r="H23" s="50" t="s">
         <v>30</v>
       </c>
       <c r="I23" s="25"/>
     </row>
     <row r="24" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="48"/>
+      <c r="A24" s="59"/>
       <c r="B24" s="26" t="s">
         <v>2</v>
       </c>
       <c r="C24" s="17"/>
-      <c r="D24" s="53"/>
-      <c r="E24" s="56"/>
-      <c r="F24" s="53"/>
-      <c r="G24" s="56"/>
-      <c r="H24" s="53"/>
+      <c r="D24" s="51"/>
+      <c r="E24" s="53"/>
+      <c r="F24" s="51"/>
+      <c r="G24" s="53"/>
+      <c r="H24" s="51"/>
       <c r="I24" s="17"/>
     </row>
     <row r="25" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1739,11 +1764,11 @@
         <v>0</v>
       </c>
       <c r="C25" s="18"/>
-      <c r="D25" s="53"/>
-      <c r="E25" s="56"/>
-      <c r="F25" s="53"/>
-      <c r="G25" s="56"/>
-      <c r="H25" s="53"/>
+      <c r="D25" s="51"/>
+      <c r="E25" s="53"/>
+      <c r="F25" s="51"/>
+      <c r="G25" s="53"/>
+      <c r="H25" s="51"/>
       <c r="I25" s="18"/>
     </row>
     <row r="26" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1752,40 +1777,40 @@
         <v>3</v>
       </c>
       <c r="C26" s="12"/>
-      <c r="D26" s="51"/>
-      <c r="E26" s="57"/>
-      <c r="F26" s="51"/>
-      <c r="G26" s="57"/>
-      <c r="H26" s="51"/>
+      <c r="D26" s="47"/>
+      <c r="E26" s="49"/>
+      <c r="F26" s="47"/>
+      <c r="G26" s="49"/>
+      <c r="H26" s="47"/>
       <c r="I26" s="17"/>
     </row>
     <row r="27" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="46">
+      <c r="A27" s="57">
         <v>12</v>
       </c>
       <c r="B27" s="36" t="s">
         <v>8</v>
       </c>
       <c r="C27" s="18"/>
-      <c r="D27" s="52" t="s">
+      <c r="D27" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="E27" s="52" t="s">
+      <c r="E27" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="F27" s="52" t="s">
+      <c r="F27" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="G27" s="52" t="s">
+      <c r="G27" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="H27" s="52" t="s">
+      <c r="H27" s="50" t="s">
         <v>30</v>
       </c>
       <c r="I27" s="25"/>
     </row>
     <row r="28" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="48"/>
+      <c r="A28" s="59"/>
       <c r="B28" s="26" t="s">
         <v>2</v>
       </c>
@@ -1803,19 +1828,19 @@
         <v>0</v>
       </c>
       <c r="C29" s="18"/>
-      <c r="D29" s="58" t="s">
-        <v>31</v>
-      </c>
-      <c r="E29" s="52" t="s">
+      <c r="D29" s="46" t="s">
+        <v>31</v>
+      </c>
+      <c r="E29" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="F29" s="58" t="s">
-        <v>31</v>
-      </c>
-      <c r="G29" s="52" t="s">
+      <c r="F29" s="46" t="s">
+        <v>31</v>
+      </c>
+      <c r="G29" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="H29" s="58" t="s">
+      <c r="H29" s="46" t="s">
         <v>31</v>
       </c>
       <c r="I29" s="18"/>
@@ -1826,48 +1851,48 @@
         <v>3</v>
       </c>
       <c r="C30" s="12"/>
-      <c r="D30" s="51"/>
+      <c r="D30" s="47"/>
       <c r="E30" s="54"/>
-      <c r="F30" s="51"/>
+      <c r="F30" s="47"/>
       <c r="G30" s="54"/>
-      <c r="H30" s="51"/>
+      <c r="H30" s="47"/>
       <c r="I30" s="17"/>
     </row>
     <row r="31" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="46">
+      <c r="A31" s="57">
         <v>1</v>
       </c>
       <c r="B31" s="36" t="s">
         <v>8</v>
       </c>
       <c r="C31" s="18"/>
-      <c r="D31" s="52" t="s">
+      <c r="D31" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="E31" s="52" t="s">
+      <c r="E31" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="F31" s="52" t="s">
+      <c r="F31" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="G31" s="52" t="s">
+      <c r="G31" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="H31" s="52" t="s">
+      <c r="H31" s="50" t="s">
         <v>32</v>
       </c>
       <c r="I31" s="25"/>
     </row>
     <row r="32" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="48"/>
+      <c r="A32" s="59"/>
       <c r="B32" s="26" t="s">
         <v>2</v>
       </c>
       <c r="C32" s="17"/>
       <c r="D32" s="54"/>
-      <c r="E32" s="53"/>
+      <c r="E32" s="51"/>
       <c r="F32" s="54"/>
-      <c r="G32" s="53"/>
+      <c r="G32" s="51"/>
       <c r="H32" s="54"/>
       <c r="I32" s="17"/>
     </row>
@@ -1877,15 +1902,15 @@
         <v>0</v>
       </c>
       <c r="C33" s="18"/>
-      <c r="D33" s="59" t="s">
+      <c r="D33" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="E33" s="53"/>
-      <c r="F33" s="58" t="s">
+      <c r="E33" s="51"/>
+      <c r="F33" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="G33" s="53"/>
-      <c r="H33" s="58" t="s">
+      <c r="G33" s="51"/>
+      <c r="H33" s="46" t="s">
         <v>29</v>
       </c>
       <c r="I33" s="18"/>
@@ -1896,49 +1921,49 @@
         <v>3</v>
       </c>
       <c r="C34" s="12"/>
-      <c r="D34" s="57"/>
-      <c r="E34" s="51"/>
-      <c r="F34" s="51"/>
-      <c r="G34" s="51"/>
-      <c r="H34" s="51"/>
+      <c r="D34" s="49"/>
+      <c r="E34" s="47"/>
+      <c r="F34" s="47"/>
+      <c r="G34" s="47"/>
+      <c r="H34" s="47"/>
       <c r="I34" s="17"/>
     </row>
     <row r="35" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="46">
+      <c r="A35" s="57">
         <v>2</v>
       </c>
       <c r="B35" s="36" t="s">
         <v>8</v>
       </c>
       <c r="C35" s="18"/>
-      <c r="D35" s="55" t="s">
+      <c r="D35" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="E35" s="52" t="s">
+      <c r="E35" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="F35" s="52" t="s">
+      <c r="F35" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="G35" s="52" t="s">
+      <c r="G35" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="H35" s="52" t="s">
+      <c r="H35" s="50" t="s">
         <v>29</v>
       </c>
       <c r="I35" s="25"/>
     </row>
     <row r="36" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="48"/>
+      <c r="A36" s="59"/>
       <c r="B36" s="26" t="s">
         <v>2</v>
       </c>
       <c r="C36" s="17"/>
-      <c r="D36" s="56"/>
-      <c r="E36" s="53"/>
-      <c r="F36" s="53"/>
-      <c r="G36" s="53"/>
-      <c r="H36" s="53"/>
+      <c r="D36" s="53"/>
+      <c r="E36" s="51"/>
+      <c r="F36" s="51"/>
+      <c r="G36" s="51"/>
+      <c r="H36" s="51"/>
       <c r="I36" s="17"/>
     </row>
     <row r="37" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1947,11 +1972,11 @@
         <v>0</v>
       </c>
       <c r="C37" s="18"/>
-      <c r="D37" s="56"/>
-      <c r="E37" s="53"/>
-      <c r="F37" s="53"/>
-      <c r="G37" s="53"/>
-      <c r="H37" s="53"/>
+      <c r="D37" s="53"/>
+      <c r="E37" s="51"/>
+      <c r="F37" s="51"/>
+      <c r="G37" s="51"/>
+      <c r="H37" s="51"/>
       <c r="I37" s="18"/>
     </row>
     <row r="38" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1960,49 +1985,49 @@
         <v>3</v>
       </c>
       <c r="C38" s="12"/>
-      <c r="D38" s="57"/>
-      <c r="E38" s="51"/>
-      <c r="F38" s="51"/>
-      <c r="G38" s="51"/>
-      <c r="H38" s="51"/>
+      <c r="D38" s="49"/>
+      <c r="E38" s="47"/>
+      <c r="F38" s="47"/>
+      <c r="G38" s="47"/>
+      <c r="H38" s="47"/>
       <c r="I38" s="17"/>
     </row>
     <row r="39" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="46">
+      <c r="A39" s="57">
         <v>3</v>
       </c>
       <c r="B39" s="36" t="s">
         <v>8</v>
       </c>
       <c r="C39" s="18"/>
-      <c r="D39" s="58" t="s">
+      <c r="D39" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="E39" s="55" t="s">
+      <c r="E39" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="F39" s="52" t="s">
+      <c r="F39" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="G39" s="52" t="s">
+      <c r="G39" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="H39" s="58" t="s">
+      <c r="H39" s="46" t="s">
         <v>29</v>
       </c>
       <c r="I39" s="25"/>
     </row>
     <row r="40" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="48"/>
+      <c r="A40" s="59"/>
       <c r="B40" s="26" t="s">
         <v>2</v>
       </c>
       <c r="C40" s="17"/>
-      <c r="D40" s="51"/>
-      <c r="E40" s="56"/>
-      <c r="F40" s="53"/>
-      <c r="G40" s="53"/>
-      <c r="H40" s="51"/>
+      <c r="D40" s="47"/>
+      <c r="E40" s="53"/>
+      <c r="F40" s="51"/>
+      <c r="G40" s="51"/>
+      <c r="H40" s="47"/>
       <c r="I40" s="17"/>
     </row>
     <row r="41" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2011,13 +2036,13 @@
         <v>0</v>
       </c>
       <c r="C41" s="18"/>
-      <c r="D41" s="55" t="s">
+      <c r="D41" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="E41" s="56"/>
-      <c r="F41" s="53"/>
-      <c r="G41" s="53"/>
-      <c r="H41" s="55" t="s">
+      <c r="E41" s="53"/>
+      <c r="F41" s="51"/>
+      <c r="G41" s="51"/>
+      <c r="H41" s="52" t="s">
         <v>33</v>
       </c>
       <c r="I41" s="18"/>
@@ -2028,49 +2053,49 @@
         <v>3</v>
       </c>
       <c r="C42" s="12"/>
-      <c r="D42" s="57"/>
-      <c r="E42" s="57"/>
-      <c r="F42" s="51"/>
-      <c r="G42" s="51"/>
-      <c r="H42" s="57"/>
+      <c r="D42" s="49"/>
+      <c r="E42" s="49"/>
+      <c r="F42" s="47"/>
+      <c r="G42" s="47"/>
+      <c r="H42" s="49"/>
       <c r="I42" s="17"/>
     </row>
     <row r="43" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="46">
+      <c r="A43" s="57">
         <v>4</v>
       </c>
       <c r="B43" s="36" t="s">
         <v>8</v>
       </c>
       <c r="C43" s="18"/>
-      <c r="D43" s="55" t="s">
+      <c r="D43" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="E43" s="55" t="s">
+      <c r="E43" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="F43" s="52" t="s">
+      <c r="F43" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="G43" s="52" t="s">
+      <c r="G43" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="H43" s="55" t="s">
+      <c r="H43" s="52" t="s">
         <v>33</v>
       </c>
       <c r="I43" s="25"/>
     </row>
     <row r="44" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="48"/>
+      <c r="A44" s="59"/>
       <c r="B44" s="26" t="s">
         <v>2</v>
       </c>
       <c r="C44" s="17"/>
-      <c r="D44" s="56"/>
-      <c r="E44" s="56"/>
-      <c r="F44" s="53"/>
-      <c r="G44" s="53"/>
-      <c r="H44" s="56"/>
+      <c r="D44" s="53"/>
+      <c r="E44" s="53"/>
+      <c r="F44" s="51"/>
+      <c r="G44" s="51"/>
+      <c r="H44" s="53"/>
       <c r="I44" s="17"/>
     </row>
     <row r="45" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2079,11 +2104,11 @@
         <v>0</v>
       </c>
       <c r="C45" s="18"/>
-      <c r="D45" s="56"/>
-      <c r="E45" s="56"/>
-      <c r="F45" s="53"/>
-      <c r="G45" s="53"/>
-      <c r="H45" s="56"/>
+      <c r="D45" s="53"/>
+      <c r="E45" s="53"/>
+      <c r="F45" s="51"/>
+      <c r="G45" s="51"/>
+      <c r="H45" s="53"/>
       <c r="I45" s="18"/>
     </row>
     <row r="46" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2092,129 +2117,129 @@
         <v>3</v>
       </c>
       <c r="C46" s="12"/>
-      <c r="D46" s="57"/>
-      <c r="E46" s="57"/>
-      <c r="F46" s="51"/>
-      <c r="G46" s="51"/>
-      <c r="H46" s="57"/>
+      <c r="D46" s="49"/>
+      <c r="E46" s="49"/>
+      <c r="F46" s="47"/>
+      <c r="G46" s="47"/>
+      <c r="H46" s="49"/>
       <c r="I46" s="17"/>
     </row>
     <row r="47" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="46">
+      <c r="A47" s="57">
         <v>5</v>
       </c>
       <c r="B47" s="36" t="s">
         <v>8</v>
       </c>
       <c r="C47" s="15"/>
-      <c r="D47" s="55" t="s">
+      <c r="D47" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="E47" s="58" t="s">
-        <v>31</v>
-      </c>
-      <c r="F47" s="52" t="s">
+      <c r="E47" s="46" t="s">
+        <v>31</v>
+      </c>
+      <c r="F47" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="G47" s="58" t="s">
-        <v>31</v>
-      </c>
-      <c r="H47" s="55" t="s">
+      <c r="G47" s="46" t="s">
+        <v>31</v>
+      </c>
+      <c r="H47" s="52" t="s">
         <v>33</v>
       </c>
       <c r="I47" s="15"/>
     </row>
     <row r="48" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="47"/>
+      <c r="A48" s="58"/>
       <c r="B48" s="33" t="s">
         <v>0</v>
       </c>
       <c r="C48" s="13"/>
-      <c r="D48" s="57"/>
-      <c r="E48" s="51"/>
-      <c r="F48" s="51"/>
-      <c r="G48" s="51"/>
-      <c r="H48" s="57"/>
+      <c r="D48" s="49"/>
+      <c r="E48" s="47"/>
+      <c r="F48" s="47"/>
+      <c r="G48" s="47"/>
+      <c r="H48" s="49"/>
       <c r="I48" s="13"/>
     </row>
     <row r="49" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="46">
+      <c r="A49" s="57">
         <v>6</v>
       </c>
       <c r="B49" s="36" t="s">
         <v>8</v>
       </c>
       <c r="C49" s="15"/>
-      <c r="D49" s="55" t="s">
+      <c r="D49" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="E49" s="59" t="s">
+      <c r="E49" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="F49" s="52" t="s">
+      <c r="F49" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="G49" s="58" t="s">
-        <v>31</v>
-      </c>
-      <c r="H49" s="55" t="s">
+      <c r="G49" s="46" t="s">
+        <v>31</v>
+      </c>
+      <c r="H49" s="52" t="s">
         <v>33</v>
       </c>
       <c r="I49" s="15"/>
     </row>
     <row r="50" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="47"/>
+      <c r="A50" s="58"/>
       <c r="B50" s="33" t="s">
         <v>0</v>
       </c>
       <c r="C50" s="13"/>
-      <c r="D50" s="57"/>
-      <c r="E50" s="57"/>
-      <c r="F50" s="51"/>
-      <c r="G50" s="51"/>
-      <c r="H50" s="57"/>
+      <c r="D50" s="49"/>
+      <c r="E50" s="49"/>
+      <c r="F50" s="47"/>
+      <c r="G50" s="47"/>
+      <c r="H50" s="49"/>
       <c r="I50" s="13"/>
     </row>
     <row r="51" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="46">
+      <c r="A51" s="57">
         <v>7</v>
       </c>
       <c r="B51" s="36" t="s">
         <v>8</v>
       </c>
       <c r="C51" s="15"/>
-      <c r="D51" s="58" t="s">
-        <v>31</v>
-      </c>
-      <c r="E51" s="59" t="s">
+      <c r="D51" s="46" t="s">
+        <v>31</v>
+      </c>
+      <c r="E51" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="F51" s="58" t="s">
-        <v>31</v>
-      </c>
-      <c r="G51" s="58" t="s">
-        <v>31</v>
-      </c>
-      <c r="H51" s="58" t="s">
+      <c r="F51" s="46" t="s">
+        <v>31</v>
+      </c>
+      <c r="G51" s="46" t="s">
+        <v>31</v>
+      </c>
+      <c r="H51" s="46" t="s">
         <v>31</v>
       </c>
       <c r="I51" s="15"/>
     </row>
     <row r="52" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="47"/>
+      <c r="A52" s="58"/>
       <c r="B52" s="33" t="s">
         <v>0</v>
       </c>
       <c r="C52" s="13"/>
-      <c r="D52" s="51"/>
-      <c r="E52" s="57"/>
-      <c r="F52" s="51"/>
-      <c r="G52" s="51"/>
-      <c r="H52" s="51"/>
+      <c r="D52" s="47"/>
+      <c r="E52" s="49"/>
+      <c r="F52" s="47"/>
+      <c r="G52" s="47"/>
+      <c r="H52" s="47"/>
       <c r="I52" s="13"/>
     </row>
     <row r="53" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="46">
+      <c r="A53" s="57">
         <v>8</v>
       </c>
       <c r="B53" s="36" t="s">
@@ -2224,7 +2249,7 @@
       <c r="D53" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="E53" s="59" t="s">
+      <c r="E53" s="48" t="s">
         <v>35</v>
       </c>
       <c r="F53" s="16" t="s">
@@ -2239,7 +2264,7 @@
       <c r="I53" s="15"/>
     </row>
     <row r="54" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="47"/>
+      <c r="A54" s="58"/>
       <c r="B54" s="33" t="s">
         <v>0</v>
       </c>
@@ -2247,7 +2272,7 @@
       <c r="D54" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="E54" s="57"/>
+      <c r="E54" s="49"/>
       <c r="F54" s="14" t="s">
         <v>31</v>
       </c>
@@ -2260,47 +2285,130 @@
       <c r="I54" s="13"/>
     </row>
     <row r="55" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="46">
+      <c r="A55" s="57">
         <v>9</v>
       </c>
       <c r="B55" s="36" t="s">
         <v>8</v>
       </c>
       <c r="C55" s="15"/>
-      <c r="D55" s="58" t="s">
+      <c r="D55" s="46" t="s">
         <v>31</v>
       </c>
       <c r="E55" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="F55" s="58" t="s">
-        <v>31</v>
-      </c>
-      <c r="G55" s="58" t="s">
-        <v>31</v>
-      </c>
-      <c r="H55" s="58" t="s">
+      <c r="F55" s="46" t="s">
+        <v>31</v>
+      </c>
+      <c r="G55" s="46" t="s">
+        <v>31</v>
+      </c>
+      <c r="H55" s="46" t="s">
         <v>31</v>
       </c>
       <c r="I55" s="15"/>
     </row>
     <row r="56" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="47"/>
+      <c r="A56" s="58"/>
       <c r="B56" s="33" t="s">
         <v>0</v>
       </c>
       <c r="C56" s="13"/>
-      <c r="D56" s="51"/>
+      <c r="D56" s="47"/>
       <c r="E56" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="F56" s="51"/>
-      <c r="G56" s="51"/>
-      <c r="H56" s="51"/>
+      <c r="F56" s="47"/>
+      <c r="G56" s="47"/>
+      <c r="H56" s="47"/>
       <c r="I56" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="107">
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="D7:D10"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="D19:D22"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="D35:D38"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="F7:F10"/>
+    <mergeCell ref="H7:H10"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="E15:E18"/>
+    <mergeCell ref="G15:G18"/>
+    <mergeCell ref="E11:E14"/>
+    <mergeCell ref="F11:F14"/>
+    <mergeCell ref="G11:G14"/>
+    <mergeCell ref="H11:H14"/>
+    <mergeCell ref="F19:F22"/>
+    <mergeCell ref="H19:H22"/>
+    <mergeCell ref="D23:D26"/>
+    <mergeCell ref="F23:F26"/>
+    <mergeCell ref="H23:H26"/>
+    <mergeCell ref="E19:E22"/>
+    <mergeCell ref="G19:G22"/>
+    <mergeCell ref="E23:E26"/>
+    <mergeCell ref="G23:G26"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="H33:H34"/>
+    <mergeCell ref="E31:E34"/>
+    <mergeCell ref="G31:G34"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="G51:G52"/>
+    <mergeCell ref="F35:F38"/>
+    <mergeCell ref="H35:H38"/>
+    <mergeCell ref="D43:D46"/>
+    <mergeCell ref="H43:H46"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="E35:E38"/>
+    <mergeCell ref="G35:G38"/>
     <mergeCell ref="G55:G56"/>
     <mergeCell ref="E53:E54"/>
     <mergeCell ref="D55:D56"/>
@@ -2325,89 +2433,6 @@
     <mergeCell ref="D51:D52"/>
     <mergeCell ref="F51:F52"/>
     <mergeCell ref="H51:H52"/>
-    <mergeCell ref="G51:G52"/>
-    <mergeCell ref="F35:F38"/>
-    <mergeCell ref="H35:H38"/>
-    <mergeCell ref="D43:D46"/>
-    <mergeCell ref="H43:H46"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="H39:H40"/>
-    <mergeCell ref="H41:H42"/>
-    <mergeCell ref="E35:E38"/>
-    <mergeCell ref="G35:G38"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="H31:H32"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="H33:H34"/>
-    <mergeCell ref="E31:E34"/>
-    <mergeCell ref="G31:G34"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="F19:F22"/>
-    <mergeCell ref="H19:H22"/>
-    <mergeCell ref="D23:D26"/>
-    <mergeCell ref="F23:F26"/>
-    <mergeCell ref="H23:H26"/>
-    <mergeCell ref="E19:E22"/>
-    <mergeCell ref="G19:G22"/>
-    <mergeCell ref="E23:E26"/>
-    <mergeCell ref="G23:G26"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="E15:E18"/>
-    <mergeCell ref="G15:G18"/>
-    <mergeCell ref="E11:E14"/>
-    <mergeCell ref="F11:F14"/>
-    <mergeCell ref="G11:G14"/>
-    <mergeCell ref="H11:H14"/>
-    <mergeCell ref="F7:F10"/>
-    <mergeCell ref="H7:H10"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="D7:D10"/>
-    <mergeCell ref="D11:D14"/>
-    <mergeCell ref="D19:D22"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="D35:D38"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="A43:A44"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -2465,10 +2490,10 @@
       <c r="I2" s="22"/>
     </row>
     <row r="3" spans="1:9" s="23" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="49" t="s">
+      <c r="A3" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="49"/>
+      <c r="B3" s="56"/>
       <c r="G3" s="24" t="s">
         <v>27</v>
       </c>
@@ -2502,79 +2527,79 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="46">
+      <c r="A5" s="57">
         <v>6</v>
       </c>
       <c r="B5" s="36" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="44"/>
-      <c r="D5" s="50" t="s">
+      <c r="D5" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="50" t="s">
+      <c r="E5" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="50" t="s">
+      <c r="F5" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="50" t="s">
+      <c r="G5" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="50" t="s">
+      <c r="H5" s="55" t="s">
         <v>18</v>
       </c>
       <c r="I5" s="44"/>
     </row>
     <row r="6" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="47"/>
+      <c r="A6" s="58"/>
       <c r="B6" s="33" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="45"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="51"/>
-      <c r="F6" s="51"/>
-      <c r="G6" s="51"/>
-      <c r="H6" s="51"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="47"/>
       <c r="I6" s="45"/>
     </row>
     <row r="7" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="46">
+      <c r="A7" s="57">
         <v>7</v>
       </c>
       <c r="B7" s="36" t="s">
         <v>1</v>
       </c>
       <c r="C7" s="42"/>
-      <c r="D7" s="52" t="s">
+      <c r="D7" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="52" t="s">
+      <c r="E7" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="52" t="s">
+      <c r="F7" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="G7" s="52" t="s">
+      <c r="G7" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="H7" s="52" t="s">
+      <c r="H7" s="50" t="s">
         <v>18</v>
       </c>
       <c r="I7" s="44"/>
     </row>
     <row r="8" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="48"/>
+      <c r="A8" s="59"/>
       <c r="B8" s="26" t="s">
         <v>2</v>
       </c>
       <c r="C8" s="43"/>
-      <c r="D8" s="53"/>
-      <c r="E8" s="53"/>
-      <c r="F8" s="53"/>
-      <c r="G8" s="53"/>
-      <c r="H8" s="53"/>
+      <c r="D8" s="51"/>
+      <c r="E8" s="51"/>
+      <c r="F8" s="51"/>
+      <c r="G8" s="51"/>
+      <c r="H8" s="51"/>
       <c r="I8" s="43"/>
     </row>
     <row r="9" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -2583,15 +2608,15 @@
         <v>0</v>
       </c>
       <c r="C9" s="43"/>
-      <c r="D9" s="53"/>
-      <c r="E9" s="56" t="s">
+      <c r="D9" s="51"/>
+      <c r="E9" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="F9" s="53"/>
-      <c r="G9" s="56" t="s">
+      <c r="F9" s="51"/>
+      <c r="G9" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="H9" s="53"/>
+      <c r="H9" s="51"/>
       <c r="I9" s="43"/>
     </row>
     <row r="10" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -2600,49 +2625,49 @@
         <v>3</v>
       </c>
       <c r="C10" s="45"/>
-      <c r="D10" s="51"/>
-      <c r="E10" s="57"/>
-      <c r="F10" s="51"/>
-      <c r="G10" s="57"/>
-      <c r="H10" s="51"/>
+      <c r="D10" s="47"/>
+      <c r="E10" s="49"/>
+      <c r="F10" s="47"/>
+      <c r="G10" s="49"/>
+      <c r="H10" s="47"/>
       <c r="I10" s="45"/>
     </row>
     <row r="11" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="46">
+      <c r="A11" s="57">
         <v>8</v>
       </c>
       <c r="B11" s="36" t="s">
         <v>1</v>
       </c>
       <c r="C11" s="42"/>
-      <c r="D11" s="52" t="s">
+      <c r="D11" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="55" t="s">
+      <c r="E11" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="F11" s="52" t="s">
+      <c r="F11" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="G11" s="55" t="s">
+      <c r="G11" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="H11" s="52" t="s">
+      <c r="H11" s="50" t="s">
         <v>18</v>
       </c>
       <c r="I11" s="42"/>
     </row>
     <row r="12" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="48"/>
+      <c r="A12" s="59"/>
       <c r="B12" s="26" t="s">
         <v>2</v>
       </c>
       <c r="C12" s="43"/>
-      <c r="D12" s="53"/>
-      <c r="E12" s="56"/>
-      <c r="F12" s="53"/>
-      <c r="G12" s="56"/>
-      <c r="H12" s="53"/>
+      <c r="D12" s="51"/>
+      <c r="E12" s="53"/>
+      <c r="F12" s="51"/>
+      <c r="G12" s="53"/>
+      <c r="H12" s="51"/>
       <c r="I12" s="43"/>
     </row>
     <row r="13" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -2651,11 +2676,11 @@
         <v>0</v>
       </c>
       <c r="C13" s="43"/>
-      <c r="D13" s="53"/>
-      <c r="E13" s="56"/>
-      <c r="F13" s="53"/>
-      <c r="G13" s="56"/>
-      <c r="H13" s="53"/>
+      <c r="D13" s="51"/>
+      <c r="E13" s="53"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="53"/>
+      <c r="H13" s="51"/>
       <c r="I13" s="43"/>
     </row>
     <row r="14" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -2664,48 +2689,48 @@
         <v>3</v>
       </c>
       <c r="C14" s="45"/>
-      <c r="D14" s="51"/>
-      <c r="E14" s="57"/>
-      <c r="F14" s="51"/>
-      <c r="G14" s="57"/>
-      <c r="H14" s="51"/>
+      <c r="D14" s="47"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="47"/>
+      <c r="G14" s="49"/>
+      <c r="H14" s="47"/>
       <c r="I14" s="45"/>
     </row>
     <row r="15" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="46">
+      <c r="A15" s="57">
         <v>9</v>
       </c>
       <c r="B15" s="36" t="s">
         <v>1</v>
       </c>
       <c r="C15" s="18"/>
-      <c r="D15" s="52" t="s">
+      <c r="D15" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="E15" s="55" t="s">
+      <c r="E15" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="F15" s="52" t="s">
+      <c r="F15" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="G15" s="55" t="s">
+      <c r="G15" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="H15" s="52" t="s">
+      <c r="H15" s="50" t="s">
         <v>28</v>
       </c>
       <c r="I15" s="42"/>
     </row>
     <row r="16" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="48"/>
+      <c r="A16" s="59"/>
       <c r="B16" s="26" t="s">
         <v>2</v>
       </c>
       <c r="C16" s="17"/>
       <c r="D16" s="54"/>
-      <c r="E16" s="56"/>
+      <c r="E16" s="53"/>
       <c r="F16" s="54"/>
-      <c r="G16" s="56"/>
+      <c r="G16" s="53"/>
       <c r="H16" s="54"/>
       <c r="I16" s="43"/>
     </row>
@@ -2715,15 +2740,15 @@
         <v>0</v>
       </c>
       <c r="C17" s="18"/>
-      <c r="D17" s="58" t="s">
+      <c r="D17" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="E17" s="56"/>
-      <c r="F17" s="58" t="s">
+      <c r="E17" s="53"/>
+      <c r="F17" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="G17" s="56"/>
-      <c r="H17" s="58" t="s">
+      <c r="G17" s="53"/>
+      <c r="H17" s="46" t="s">
         <v>29</v>
       </c>
       <c r="I17" s="43"/>
@@ -2734,49 +2759,49 @@
         <v>3</v>
       </c>
       <c r="C18" s="12"/>
-      <c r="D18" s="51"/>
-      <c r="E18" s="57"/>
-      <c r="F18" s="51"/>
-      <c r="G18" s="57"/>
-      <c r="H18" s="51"/>
+      <c r="D18" s="47"/>
+      <c r="E18" s="49"/>
+      <c r="F18" s="47"/>
+      <c r="G18" s="49"/>
+      <c r="H18" s="47"/>
       <c r="I18" s="45"/>
     </row>
     <row r="19" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="46">
+      <c r="A19" s="57">
         <v>10</v>
       </c>
       <c r="B19" s="36" t="s">
         <v>1</v>
       </c>
       <c r="C19" s="18"/>
-      <c r="D19" s="55" t="s">
+      <c r="D19" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="E19" s="52" t="s">
+      <c r="E19" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="F19" s="52" t="s">
+      <c r="F19" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="G19" s="52" t="s">
+      <c r="G19" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="H19" s="52" t="s">
+      <c r="H19" s="50" t="s">
         <v>30</v>
       </c>
       <c r="I19" s="25"/>
     </row>
     <row r="20" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="48"/>
+      <c r="A20" s="59"/>
       <c r="B20" s="26" t="s">
         <v>2</v>
       </c>
       <c r="C20" s="17"/>
-      <c r="D20" s="56"/>
-      <c r="E20" s="53"/>
-      <c r="F20" s="53"/>
-      <c r="G20" s="53"/>
-      <c r="H20" s="53"/>
+      <c r="D20" s="53"/>
+      <c r="E20" s="51"/>
+      <c r="F20" s="51"/>
+      <c r="G20" s="51"/>
+      <c r="H20" s="51"/>
       <c r="I20" s="17"/>
     </row>
     <row r="21" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -2785,11 +2810,11 @@
         <v>0</v>
       </c>
       <c r="C21" s="18"/>
-      <c r="D21" s="56"/>
-      <c r="E21" s="53"/>
-      <c r="F21" s="53"/>
-      <c r="G21" s="53"/>
-      <c r="H21" s="53"/>
+      <c r="D21" s="53"/>
+      <c r="E21" s="51"/>
+      <c r="F21" s="51"/>
+      <c r="G21" s="51"/>
+      <c r="H21" s="51"/>
       <c r="I21" s="18"/>
     </row>
     <row r="22" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -2798,49 +2823,49 @@
         <v>3</v>
       </c>
       <c r="C22" s="12"/>
-      <c r="D22" s="57"/>
-      <c r="E22" s="51"/>
-      <c r="F22" s="51"/>
-      <c r="G22" s="51"/>
-      <c r="H22" s="51"/>
+      <c r="D22" s="49"/>
+      <c r="E22" s="47"/>
+      <c r="F22" s="47"/>
+      <c r="G22" s="47"/>
+      <c r="H22" s="47"/>
       <c r="I22" s="17"/>
     </row>
     <row r="23" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="46">
+      <c r="A23" s="57">
         <v>11</v>
       </c>
       <c r="B23" s="36" t="s">
         <v>1</v>
       </c>
       <c r="C23" s="18"/>
-      <c r="D23" s="55" t="s">
+      <c r="D23" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="E23" s="55" t="s">
+      <c r="E23" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="F23" s="52" t="s">
+      <c r="F23" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="G23" s="55" t="s">
+      <c r="G23" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="H23" s="52" t="s">
+      <c r="H23" s="50" t="s">
         <v>30</v>
       </c>
       <c r="I23" s="25"/>
     </row>
     <row r="24" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="48"/>
+      <c r="A24" s="59"/>
       <c r="B24" s="26" t="s">
         <v>2</v>
       </c>
       <c r="C24" s="17"/>
-      <c r="D24" s="56"/>
-      <c r="E24" s="56"/>
-      <c r="F24" s="53"/>
-      <c r="G24" s="56"/>
-      <c r="H24" s="53"/>
+      <c r="D24" s="53"/>
+      <c r="E24" s="53"/>
+      <c r="F24" s="51"/>
+      <c r="G24" s="53"/>
+      <c r="H24" s="51"/>
       <c r="I24" s="17"/>
     </row>
     <row r="25" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -2849,11 +2874,11 @@
         <v>0</v>
       </c>
       <c r="C25" s="18"/>
-      <c r="D25" s="56"/>
-      <c r="E25" s="56"/>
-      <c r="F25" s="53"/>
-      <c r="G25" s="56"/>
-      <c r="H25" s="53"/>
+      <c r="D25" s="53"/>
+      <c r="E25" s="53"/>
+      <c r="F25" s="51"/>
+      <c r="G25" s="53"/>
+      <c r="H25" s="51"/>
       <c r="I25" s="18"/>
     </row>
     <row r="26" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -2862,40 +2887,40 @@
         <v>3</v>
       </c>
       <c r="C26" s="12"/>
-      <c r="D26" s="57"/>
-      <c r="E26" s="57"/>
-      <c r="F26" s="51"/>
-      <c r="G26" s="57"/>
-      <c r="H26" s="51"/>
+      <c r="D26" s="49"/>
+      <c r="E26" s="49"/>
+      <c r="F26" s="47"/>
+      <c r="G26" s="49"/>
+      <c r="H26" s="47"/>
       <c r="I26" s="17"/>
     </row>
     <row r="27" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="46">
+      <c r="A27" s="57">
         <v>12</v>
       </c>
       <c r="B27" s="36" t="s">
         <v>8</v>
       </c>
       <c r="C27" s="18"/>
-      <c r="D27" s="55" t="s">
+      <c r="D27" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="E27" s="52" t="s">
+      <c r="E27" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="F27" s="52" t="s">
+      <c r="F27" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="G27" s="52" t="s">
+      <c r="G27" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="H27" s="52" t="s">
+      <c r="H27" s="50" t="s">
         <v>30</v>
       </c>
       <c r="I27" s="25"/>
     </row>
     <row r="28" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="48"/>
+      <c r="A28" s="59"/>
       <c r="B28" s="26" t="s">
         <v>2</v>
       </c>
@@ -2913,19 +2938,19 @@
         <v>0</v>
       </c>
       <c r="C29" s="18"/>
-      <c r="D29" s="58" t="s">
-        <v>31</v>
-      </c>
-      <c r="E29" s="52" t="s">
+      <c r="D29" s="46" t="s">
+        <v>31</v>
+      </c>
+      <c r="E29" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="F29" s="58" t="s">
-        <v>31</v>
-      </c>
-      <c r="G29" s="52" t="s">
+      <c r="F29" s="46" t="s">
+        <v>31</v>
+      </c>
+      <c r="G29" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="H29" s="58" t="s">
+      <c r="H29" s="46" t="s">
         <v>31</v>
       </c>
       <c r="I29" s="18"/>
@@ -2936,48 +2961,48 @@
         <v>3</v>
       </c>
       <c r="C30" s="12"/>
-      <c r="D30" s="51"/>
+      <c r="D30" s="47"/>
       <c r="E30" s="54"/>
-      <c r="F30" s="51"/>
+      <c r="F30" s="47"/>
       <c r="G30" s="54"/>
-      <c r="H30" s="51"/>
+      <c r="H30" s="47"/>
       <c r="I30" s="17"/>
     </row>
     <row r="31" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="46">
+      <c r="A31" s="57">
         <v>1</v>
       </c>
       <c r="B31" s="36" t="s">
         <v>8</v>
       </c>
       <c r="C31" s="18"/>
-      <c r="D31" s="52" t="s">
+      <c r="D31" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="E31" s="52" t="s">
+      <c r="E31" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="F31" s="52" t="s">
+      <c r="F31" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="G31" s="52" t="s">
+      <c r="G31" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="H31" s="52" t="s">
+      <c r="H31" s="50" t="s">
         <v>32</v>
       </c>
       <c r="I31" s="25"/>
     </row>
     <row r="32" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="48"/>
+      <c r="A32" s="59"/>
       <c r="B32" s="26" t="s">
         <v>2</v>
       </c>
       <c r="C32" s="17"/>
       <c r="D32" s="54"/>
-      <c r="E32" s="53"/>
+      <c r="E32" s="51"/>
       <c r="F32" s="54"/>
-      <c r="G32" s="53"/>
+      <c r="G32" s="51"/>
       <c r="H32" s="54"/>
       <c r="I32" s="17"/>
     </row>
@@ -2987,15 +3012,15 @@
         <v>0</v>
       </c>
       <c r="C33" s="18"/>
-      <c r="D33" s="58" t="s">
+      <c r="D33" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="E33" s="53"/>
-      <c r="F33" s="58" t="s">
+      <c r="E33" s="51"/>
+      <c r="F33" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="G33" s="53"/>
-      <c r="H33" s="58" t="s">
+      <c r="G33" s="51"/>
+      <c r="H33" s="46" t="s">
         <v>29</v>
       </c>
       <c r="I33" s="18"/>
@@ -3006,49 +3031,49 @@
         <v>3</v>
       </c>
       <c r="C34" s="12"/>
-      <c r="D34" s="51"/>
-      <c r="E34" s="51"/>
-      <c r="F34" s="51"/>
-      <c r="G34" s="51"/>
-      <c r="H34" s="51"/>
+      <c r="D34" s="47"/>
+      <c r="E34" s="47"/>
+      <c r="F34" s="47"/>
+      <c r="G34" s="47"/>
+      <c r="H34" s="47"/>
       <c r="I34" s="17"/>
     </row>
     <row r="35" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="46">
+      <c r="A35" s="57">
         <v>2</v>
       </c>
       <c r="B35" s="36" t="s">
         <v>8</v>
       </c>
       <c r="C35" s="18"/>
-      <c r="D35" s="52" t="s">
+      <c r="D35" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="E35" s="52" t="s">
+      <c r="E35" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="F35" s="52" t="s">
+      <c r="F35" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="G35" s="52" t="s">
+      <c r="G35" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="H35" s="52" t="s">
+      <c r="H35" s="50" t="s">
         <v>29</v>
       </c>
       <c r="I35" s="25"/>
     </row>
     <row r="36" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="48"/>
+      <c r="A36" s="59"/>
       <c r="B36" s="26" t="s">
         <v>2</v>
       </c>
       <c r="C36" s="17"/>
-      <c r="D36" s="53"/>
-      <c r="E36" s="53"/>
-      <c r="F36" s="53"/>
-      <c r="G36" s="53"/>
-      <c r="H36" s="53"/>
+      <c r="D36" s="51"/>
+      <c r="E36" s="51"/>
+      <c r="F36" s="51"/>
+      <c r="G36" s="51"/>
+      <c r="H36" s="51"/>
       <c r="I36" s="17"/>
     </row>
     <row r="37" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -3057,11 +3082,11 @@
         <v>0</v>
       </c>
       <c r="C37" s="18"/>
-      <c r="D37" s="53"/>
-      <c r="E37" s="53"/>
-      <c r="F37" s="53"/>
-      <c r="G37" s="53"/>
-      <c r="H37" s="53"/>
+      <c r="D37" s="51"/>
+      <c r="E37" s="51"/>
+      <c r="F37" s="51"/>
+      <c r="G37" s="51"/>
+      <c r="H37" s="51"/>
       <c r="I37" s="18"/>
     </row>
     <row r="38" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -3070,49 +3095,49 @@
         <v>3</v>
       </c>
       <c r="C38" s="12"/>
-      <c r="D38" s="51"/>
-      <c r="E38" s="51"/>
-      <c r="F38" s="51"/>
-      <c r="G38" s="51"/>
-      <c r="H38" s="51"/>
+      <c r="D38" s="47"/>
+      <c r="E38" s="47"/>
+      <c r="F38" s="47"/>
+      <c r="G38" s="47"/>
+      <c r="H38" s="47"/>
       <c r="I38" s="17"/>
     </row>
     <row r="39" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="46">
+      <c r="A39" s="57">
         <v>3</v>
       </c>
       <c r="B39" s="36" t="s">
         <v>8</v>
       </c>
       <c r="C39" s="18"/>
-      <c r="D39" s="58" t="s">
+      <c r="D39" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="E39" s="55" t="s">
+      <c r="E39" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="F39" s="52" t="s">
+      <c r="F39" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="G39" s="55" t="s">
+      <c r="G39" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="H39" s="58" t="s">
+      <c r="H39" s="46" t="s">
         <v>29</v>
       </c>
       <c r="I39" s="25"/>
     </row>
     <row r="40" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="48"/>
+      <c r="A40" s="59"/>
       <c r="B40" s="26" t="s">
         <v>2</v>
       </c>
       <c r="C40" s="17"/>
-      <c r="D40" s="51"/>
-      <c r="E40" s="56"/>
-      <c r="F40" s="53"/>
-      <c r="G40" s="56"/>
-      <c r="H40" s="51"/>
+      <c r="D40" s="47"/>
+      <c r="E40" s="53"/>
+      <c r="F40" s="51"/>
+      <c r="G40" s="53"/>
+      <c r="H40" s="47"/>
       <c r="I40" s="17"/>
     </row>
     <row r="41" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
@@ -3121,13 +3146,13 @@
         <v>0</v>
       </c>
       <c r="C41" s="18"/>
-      <c r="D41" s="55" t="s">
+      <c r="D41" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="E41" s="56"/>
-      <c r="F41" s="53"/>
-      <c r="G41" s="56"/>
-      <c r="H41" s="55" t="s">
+      <c r="E41" s="53"/>
+      <c r="F41" s="51"/>
+      <c r="G41" s="53"/>
+      <c r="H41" s="52" t="s">
         <v>33</v>
       </c>
       <c r="I41" s="18"/>
@@ -3138,49 +3163,49 @@
         <v>3</v>
       </c>
       <c r="C42" s="12"/>
-      <c r="D42" s="57"/>
-      <c r="E42" s="57"/>
-      <c r="F42" s="51"/>
-      <c r="G42" s="57"/>
-      <c r="H42" s="57"/>
+      <c r="D42" s="49"/>
+      <c r="E42" s="49"/>
+      <c r="F42" s="47"/>
+      <c r="G42" s="49"/>
+      <c r="H42" s="49"/>
       <c r="I42" s="17"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A43" s="46">
+      <c r="A43" s="57">
         <v>4</v>
       </c>
       <c r="B43" s="36" t="s">
         <v>8</v>
       </c>
       <c r="C43" s="18"/>
-      <c r="D43" s="55" t="s">
+      <c r="D43" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="E43" s="52" t="s">
+      <c r="E43" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="F43" s="52" t="s">
+      <c r="F43" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="G43" s="52" t="s">
+      <c r="G43" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="H43" s="55" t="s">
+      <c r="H43" s="52" t="s">
         <v>33</v>
       </c>
       <c r="I43" s="25"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A44" s="48"/>
+      <c r="A44" s="59"/>
       <c r="B44" s="26" t="s">
         <v>2</v>
       </c>
       <c r="C44" s="17"/>
-      <c r="D44" s="56"/>
-      <c r="E44" s="53"/>
-      <c r="F44" s="53"/>
-      <c r="G44" s="53"/>
-      <c r="H44" s="56"/>
+      <c r="D44" s="53"/>
+      <c r="E44" s="51"/>
+      <c r="F44" s="51"/>
+      <c r="G44" s="51"/>
+      <c r="H44" s="53"/>
       <c r="I44" s="17"/>
     </row>
     <row r="45" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
@@ -3189,11 +3214,11 @@
         <v>0</v>
       </c>
       <c r="C45" s="18"/>
-      <c r="D45" s="56"/>
-      <c r="E45" s="53"/>
-      <c r="F45" s="53"/>
-      <c r="G45" s="53"/>
-      <c r="H45" s="56"/>
+      <c r="D45" s="53"/>
+      <c r="E45" s="51"/>
+      <c r="F45" s="51"/>
+      <c r="G45" s="51"/>
+      <c r="H45" s="53"/>
       <c r="I45" s="18"/>
     </row>
     <row r="46" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
@@ -3202,129 +3227,129 @@
         <v>3</v>
       </c>
       <c r="C46" s="12"/>
-      <c r="D46" s="57"/>
-      <c r="E46" s="51"/>
-      <c r="F46" s="51"/>
-      <c r="G46" s="51"/>
-      <c r="H46" s="57"/>
+      <c r="D46" s="49"/>
+      <c r="E46" s="47"/>
+      <c r="F46" s="47"/>
+      <c r="G46" s="47"/>
+      <c r="H46" s="49"/>
       <c r="I46" s="17"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A47" s="46">
+      <c r="A47" s="57">
         <v>5</v>
       </c>
       <c r="B47" s="36" t="s">
         <v>8</v>
       </c>
       <c r="C47" s="15"/>
-      <c r="D47" s="55" t="s">
+      <c r="D47" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="E47" s="58" t="s">
-        <v>31</v>
-      </c>
-      <c r="F47" s="52" t="s">
+      <c r="E47" s="46" t="s">
+        <v>31</v>
+      </c>
+      <c r="F47" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="G47" s="58" t="s">
-        <v>31</v>
-      </c>
-      <c r="H47" s="55" t="s">
+      <c r="G47" s="46" t="s">
+        <v>31</v>
+      </c>
+      <c r="H47" s="52" t="s">
         <v>33</v>
       </c>
       <c r="I47" s="15"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A48" s="47"/>
+      <c r="A48" s="58"/>
       <c r="B48" s="33" t="s">
         <v>0</v>
       </c>
       <c r="C48" s="13"/>
-      <c r="D48" s="57"/>
-      <c r="E48" s="51"/>
-      <c r="F48" s="51"/>
-      <c r="G48" s="51"/>
-      <c r="H48" s="57"/>
+      <c r="D48" s="49"/>
+      <c r="E48" s="47"/>
+      <c r="F48" s="47"/>
+      <c r="G48" s="47"/>
+      <c r="H48" s="49"/>
       <c r="I48" s="13"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A49" s="46">
+      <c r="A49" s="57">
         <v>6</v>
       </c>
       <c r="B49" s="36" t="s">
         <v>8</v>
       </c>
       <c r="C49" s="15"/>
-      <c r="D49" s="55" t="s">
+      <c r="D49" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="E49" s="59" t="s">
+      <c r="E49" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="F49" s="52" t="s">
+      <c r="F49" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="G49" s="58" t="s">
-        <v>31</v>
-      </c>
-      <c r="H49" s="55" t="s">
+      <c r="G49" s="46" t="s">
+        <v>31</v>
+      </c>
+      <c r="H49" s="52" t="s">
         <v>33</v>
       </c>
       <c r="I49" s="15"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A50" s="47"/>
+      <c r="A50" s="58"/>
       <c r="B50" s="33" t="s">
         <v>0</v>
       </c>
       <c r="C50" s="13"/>
-      <c r="D50" s="57"/>
-      <c r="E50" s="57"/>
-      <c r="F50" s="51"/>
-      <c r="G50" s="51"/>
-      <c r="H50" s="57"/>
+      <c r="D50" s="49"/>
+      <c r="E50" s="49"/>
+      <c r="F50" s="47"/>
+      <c r="G50" s="47"/>
+      <c r="H50" s="49"/>
       <c r="I50" s="13"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A51" s="46">
+      <c r="A51" s="57">
         <v>7</v>
       </c>
       <c r="B51" s="36" t="s">
         <v>8</v>
       </c>
       <c r="C51" s="15"/>
-      <c r="D51" s="58" t="s">
-        <v>31</v>
-      </c>
-      <c r="E51" s="59" t="s">
+      <c r="D51" s="46" t="s">
+        <v>31</v>
+      </c>
+      <c r="E51" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="F51" s="58" t="s">
-        <v>31</v>
-      </c>
-      <c r="G51" s="58" t="s">
-        <v>31</v>
-      </c>
-      <c r="H51" s="58" t="s">
+      <c r="F51" s="46" t="s">
+        <v>31</v>
+      </c>
+      <c r="G51" s="46" t="s">
+        <v>31</v>
+      </c>
+      <c r="H51" s="46" t="s">
         <v>31</v>
       </c>
       <c r="I51" s="15"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A52" s="47"/>
+      <c r="A52" s="58"/>
       <c r="B52" s="33" t="s">
         <v>0</v>
       </c>
       <c r="C52" s="13"/>
-      <c r="D52" s="51"/>
-      <c r="E52" s="57"/>
-      <c r="F52" s="51"/>
-      <c r="G52" s="51"/>
-      <c r="H52" s="51"/>
+      <c r="D52" s="47"/>
+      <c r="E52" s="49"/>
+      <c r="F52" s="47"/>
+      <c r="G52" s="47"/>
+      <c r="H52" s="47"/>
       <c r="I52" s="13"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A53" s="46">
+      <c r="A53" s="57">
         <v>8</v>
       </c>
       <c r="B53" s="36" t="s">
@@ -3334,7 +3359,7 @@
       <c r="D53" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="E53" s="59" t="s">
+      <c r="E53" s="48" t="s">
         <v>35</v>
       </c>
       <c r="F53" s="16" t="s">
@@ -3349,7 +3374,7 @@
       <c r="I53" s="15"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A54" s="47"/>
+      <c r="A54" s="58"/>
       <c r="B54" s="33" t="s">
         <v>0</v>
       </c>
@@ -3357,7 +3382,7 @@
       <c r="D54" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="E54" s="57"/>
+      <c r="E54" s="49"/>
       <c r="F54" s="14" t="s">
         <v>31</v>
       </c>
@@ -3370,48 +3395,140 @@
       <c r="I54" s="13"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A55" s="46">
+      <c r="A55" s="57">
         <v>9</v>
       </c>
       <c r="B55" s="36" t="s">
         <v>8</v>
       </c>
       <c r="C55" s="15"/>
-      <c r="D55" s="58" t="s">
+      <c r="D55" s="46" t="s">
         <v>31</v>
       </c>
       <c r="E55" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="F55" s="58" t="s">
-        <v>31</v>
-      </c>
-      <c r="G55" s="58" t="s">
-        <v>31</v>
-      </c>
-      <c r="H55" s="58" t="s">
+      <c r="F55" s="46" t="s">
+        <v>31</v>
+      </c>
+      <c r="G55" s="46" t="s">
+        <v>31</v>
+      </c>
+      <c r="H55" s="46" t="s">
         <v>31</v>
       </c>
       <c r="I55" s="15"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A56" s="47"/>
+      <c r="A56" s="58"/>
       <c r="B56" s="33" t="s">
         <v>0</v>
       </c>
       <c r="C56" s="13"/>
-      <c r="D56" s="51"/>
+      <c r="D56" s="47"/>
       <c r="E56" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="F56" s="51"/>
-      <c r="G56" s="51"/>
-      <c r="H56" s="51"/>
+      <c r="F56" s="47"/>
+      <c r="G56" s="47"/>
+      <c r="H56" s="47"/>
       <c r="I56" s="13"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="107">
+    <mergeCell ref="H51:H52"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="G55:G56"/>
+    <mergeCell ref="H55:H56"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="G51:G52"/>
+    <mergeCell ref="H47:H48"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="H49:H50"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="G47:G48"/>
+    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="D43:D46"/>
+    <mergeCell ref="E43:E46"/>
+    <mergeCell ref="F43:F46"/>
+    <mergeCell ref="G43:G46"/>
+    <mergeCell ref="H43:H46"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="E39:E42"/>
+    <mergeCell ref="F39:F42"/>
+    <mergeCell ref="G39:G42"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="H33:H34"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="D35:D38"/>
+    <mergeCell ref="E35:E38"/>
+    <mergeCell ref="F35:F38"/>
+    <mergeCell ref="G35:G38"/>
+    <mergeCell ref="H35:H38"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="E31:E34"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="G31:G34"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="H19:H22"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="D23:D26"/>
+    <mergeCell ref="E23:E26"/>
+    <mergeCell ref="F23:F26"/>
+    <mergeCell ref="G23:G26"/>
+    <mergeCell ref="H23:H26"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="D19:D22"/>
+    <mergeCell ref="E19:E22"/>
+    <mergeCell ref="F19:F22"/>
+    <mergeCell ref="G19:G22"/>
+    <mergeCell ref="H11:H14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E18"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G15:G18"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="E11:E14"/>
+    <mergeCell ref="F11:F14"/>
+    <mergeCell ref="G11:G14"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="D5:D6"/>
@@ -3427,98 +3544,6 @@
     <mergeCell ref="H7:H10"/>
     <mergeCell ref="E9:E10"/>
     <mergeCell ref="G9:G10"/>
-    <mergeCell ref="H11:H14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E18"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G15:G18"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="D11:D14"/>
-    <mergeCell ref="E11:E14"/>
-    <mergeCell ref="F11:F14"/>
-    <mergeCell ref="G11:G14"/>
-    <mergeCell ref="H19:H22"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="D23:D26"/>
-    <mergeCell ref="E23:E26"/>
-    <mergeCell ref="F23:F26"/>
-    <mergeCell ref="G23:G26"/>
-    <mergeCell ref="H23:H26"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="D19:D22"/>
-    <mergeCell ref="E19:E22"/>
-    <mergeCell ref="F19:F22"/>
-    <mergeCell ref="G19:G22"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="H31:H32"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="H33:H34"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="D35:D38"/>
-    <mergeCell ref="E35:E38"/>
-    <mergeCell ref="F35:F38"/>
-    <mergeCell ref="G35:G38"/>
-    <mergeCell ref="H35:H38"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="E31:E34"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="G31:G34"/>
-    <mergeCell ref="H39:H40"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="H41:H42"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="D43:D46"/>
-    <mergeCell ref="E43:E46"/>
-    <mergeCell ref="F43:F46"/>
-    <mergeCell ref="G43:G46"/>
-    <mergeCell ref="H43:H46"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="E39:E42"/>
-    <mergeCell ref="F39:F42"/>
-    <mergeCell ref="G39:G42"/>
-    <mergeCell ref="H47:H48"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="F49:F50"/>
-    <mergeCell ref="G49:G50"/>
-    <mergeCell ref="H49:H50"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="F47:F48"/>
-    <mergeCell ref="G47:G48"/>
-    <mergeCell ref="H51:H52"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="F55:F56"/>
-    <mergeCell ref="G55:G56"/>
-    <mergeCell ref="H55:H56"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="G51:G52"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -3534,8 +3559,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA7327CC-5C45-4739-8DE8-8ED482915DCD}">
   <dimension ref="A1:I56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q8" sqref="Q8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3575,10 +3600,10 @@
       <c r="I2" s="22"/>
     </row>
     <row r="3" spans="1:9" s="23" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="49" t="s">
+      <c r="A3" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="49"/>
+      <c r="B3" s="56"/>
       <c r="G3" s="24" t="s">
         <v>27</v>
       </c>
@@ -3612,79 +3637,79 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="46">
+      <c r="A5" s="57">
         <v>6</v>
       </c>
       <c r="B5" s="36" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="44"/>
-      <c r="D5" s="50" t="s">
+      <c r="D5" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="50" t="s">
+      <c r="E5" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="50" t="s">
+      <c r="F5" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="50" t="s">
+      <c r="G5" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="50" t="s">
+      <c r="H5" s="55" t="s">
         <v>18</v>
       </c>
       <c r="I5" s="44"/>
     </row>
     <row r="6" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="47"/>
+      <c r="A6" s="58"/>
       <c r="B6" s="33" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="45"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="51"/>
-      <c r="F6" s="51"/>
-      <c r="G6" s="51"/>
-      <c r="H6" s="51"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="47"/>
       <c r="I6" s="45"/>
     </row>
     <row r="7" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="46">
+      <c r="A7" s="57">
         <v>7</v>
       </c>
       <c r="B7" s="36" t="s">
         <v>1</v>
       </c>
       <c r="C7" s="42"/>
-      <c r="D7" s="52" t="s">
+      <c r="D7" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="52" t="s">
+      <c r="E7" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="52" t="s">
+      <c r="F7" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="G7" s="52" t="s">
+      <c r="G7" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="H7" s="52" t="s">
+      <c r="H7" s="50" t="s">
         <v>18</v>
       </c>
       <c r="I7" s="44"/>
     </row>
     <row r="8" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="48"/>
+      <c r="A8" s="59"/>
       <c r="B8" s="26" t="s">
         <v>2</v>
       </c>
       <c r="C8" s="43"/>
-      <c r="D8" s="53"/>
-      <c r="E8" s="53"/>
-      <c r="F8" s="53"/>
-      <c r="G8" s="53"/>
-      <c r="H8" s="53"/>
+      <c r="D8" s="51"/>
+      <c r="E8" s="51"/>
+      <c r="F8" s="51"/>
+      <c r="G8" s="51"/>
+      <c r="H8" s="51"/>
       <c r="I8" s="43"/>
     </row>
     <row r="9" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -3693,15 +3718,15 @@
         <v>0</v>
       </c>
       <c r="C9" s="43"/>
-      <c r="D9" s="53"/>
-      <c r="E9" s="53" t="s">
+      <c r="D9" s="51"/>
+      <c r="E9" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="F9" s="53"/>
-      <c r="G9" s="53" t="s">
+      <c r="F9" s="51"/>
+      <c r="G9" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="H9" s="53"/>
+      <c r="H9" s="51"/>
       <c r="I9" s="43"/>
     </row>
     <row r="10" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -3710,49 +3735,49 @@
         <v>3</v>
       </c>
       <c r="C10" s="45"/>
-      <c r="D10" s="51"/>
-      <c r="E10" s="51"/>
-      <c r="F10" s="51"/>
-      <c r="G10" s="51"/>
-      <c r="H10" s="51"/>
+      <c r="D10" s="47"/>
+      <c r="E10" s="47"/>
+      <c r="F10" s="47"/>
+      <c r="G10" s="47"/>
+      <c r="H10" s="47"/>
       <c r="I10" s="45"/>
     </row>
     <row r="11" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="46">
+      <c r="A11" s="57">
         <v>8</v>
       </c>
       <c r="B11" s="36" t="s">
         <v>1</v>
       </c>
       <c r="C11" s="42"/>
-      <c r="D11" s="52" t="s">
+      <c r="D11" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="55" t="s">
+      <c r="E11" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="F11" s="52" t="s">
+      <c r="F11" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="G11" s="55" t="s">
+      <c r="G11" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="H11" s="52" t="s">
+      <c r="H11" s="50" t="s">
         <v>18</v>
       </c>
       <c r="I11" s="42"/>
     </row>
     <row r="12" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="48"/>
+      <c r="A12" s="59"/>
       <c r="B12" s="26" t="s">
         <v>2</v>
       </c>
       <c r="C12" s="43"/>
-      <c r="D12" s="53"/>
-      <c r="E12" s="56"/>
-      <c r="F12" s="53"/>
-      <c r="G12" s="56"/>
-      <c r="H12" s="53"/>
+      <c r="D12" s="51"/>
+      <c r="E12" s="53"/>
+      <c r="F12" s="51"/>
+      <c r="G12" s="53"/>
+      <c r="H12" s="51"/>
       <c r="I12" s="43"/>
     </row>
     <row r="13" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -3761,11 +3786,11 @@
         <v>0</v>
       </c>
       <c r="C13" s="43"/>
-      <c r="D13" s="53"/>
-      <c r="E13" s="56"/>
-      <c r="F13" s="53"/>
-      <c r="G13" s="56"/>
-      <c r="H13" s="53"/>
+      <c r="D13" s="51"/>
+      <c r="E13" s="53"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="53"/>
+      <c r="H13" s="51"/>
       <c r="I13" s="43"/>
     </row>
     <row r="14" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -3774,48 +3799,48 @@
         <v>3</v>
       </c>
       <c r="C14" s="45"/>
-      <c r="D14" s="51"/>
-      <c r="E14" s="57"/>
-      <c r="F14" s="51"/>
-      <c r="G14" s="57"/>
-      <c r="H14" s="51"/>
+      <c r="D14" s="47"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="47"/>
+      <c r="G14" s="49"/>
+      <c r="H14" s="47"/>
       <c r="I14" s="45"/>
     </row>
     <row r="15" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="46">
+      <c r="A15" s="57">
         <v>9</v>
       </c>
       <c r="B15" s="36" t="s">
         <v>1</v>
       </c>
       <c r="C15" s="18"/>
-      <c r="D15" s="52" t="s">
+      <c r="D15" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="E15" s="55" t="s">
+      <c r="E15" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="F15" s="52" t="s">
+      <c r="F15" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="G15" s="55" t="s">
+      <c r="G15" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="H15" s="52" t="s">
+      <c r="H15" s="50" t="s">
         <v>28</v>
       </c>
       <c r="I15" s="42"/>
     </row>
     <row r="16" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="48"/>
+      <c r="A16" s="59"/>
       <c r="B16" s="26" t="s">
         <v>2</v>
       </c>
       <c r="C16" s="17"/>
       <c r="D16" s="54"/>
-      <c r="E16" s="56"/>
+      <c r="E16" s="53"/>
       <c r="F16" s="54"/>
-      <c r="G16" s="56"/>
+      <c r="G16" s="53"/>
       <c r="H16" s="54"/>
       <c r="I16" s="43"/>
     </row>
@@ -3825,15 +3850,15 @@
         <v>0</v>
       </c>
       <c r="C17" s="18"/>
-      <c r="D17" s="59" t="s">
+      <c r="D17" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="E17" s="56"/>
-      <c r="F17" s="59" t="s">
+      <c r="E17" s="53"/>
+      <c r="F17" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="G17" s="56"/>
-      <c r="H17" s="58" t="s">
+      <c r="G17" s="53"/>
+      <c r="H17" s="46" t="s">
         <v>29</v>
       </c>
       <c r="I17" s="43"/>
@@ -3844,49 +3869,49 @@
         <v>3</v>
       </c>
       <c r="C18" s="12"/>
-      <c r="D18" s="57"/>
-      <c r="E18" s="57"/>
-      <c r="F18" s="57"/>
-      <c r="G18" s="57"/>
-      <c r="H18" s="51"/>
+      <c r="D18" s="49"/>
+      <c r="E18" s="49"/>
+      <c r="F18" s="49"/>
+      <c r="G18" s="49"/>
+      <c r="H18" s="47"/>
       <c r="I18" s="45"/>
     </row>
     <row r="19" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="46">
+      <c r="A19" s="57">
         <v>10</v>
       </c>
       <c r="B19" s="36" t="s">
         <v>1</v>
       </c>
       <c r="C19" s="18"/>
-      <c r="D19" s="52" t="s">
+      <c r="D19" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="E19" s="52" t="s">
+      <c r="E19" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="F19" s="52" t="s">
+      <c r="F19" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="G19" s="52" t="s">
+      <c r="G19" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="H19" s="52" t="s">
+      <c r="H19" s="50" t="s">
         <v>30</v>
       </c>
       <c r="I19" s="25"/>
     </row>
     <row r="20" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="48"/>
+      <c r="A20" s="59"/>
       <c r="B20" s="26" t="s">
         <v>2</v>
       </c>
       <c r="C20" s="17"/>
-      <c r="D20" s="53"/>
-      <c r="E20" s="53"/>
-      <c r="F20" s="53"/>
-      <c r="G20" s="53"/>
-      <c r="H20" s="53"/>
+      <c r="D20" s="51"/>
+      <c r="E20" s="51"/>
+      <c r="F20" s="51"/>
+      <c r="G20" s="51"/>
+      <c r="H20" s="51"/>
       <c r="I20" s="17"/>
     </row>
     <row r="21" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -3895,11 +3920,11 @@
         <v>0</v>
       </c>
       <c r="C21" s="18"/>
-      <c r="D21" s="53"/>
-      <c r="E21" s="53"/>
-      <c r="F21" s="53"/>
-      <c r="G21" s="53"/>
-      <c r="H21" s="53"/>
+      <c r="D21" s="51"/>
+      <c r="E21" s="51"/>
+      <c r="F21" s="51"/>
+      <c r="G21" s="51"/>
+      <c r="H21" s="51"/>
       <c r="I21" s="18"/>
     </row>
     <row r="22" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -3908,49 +3933,49 @@
         <v>3</v>
       </c>
       <c r="C22" s="12"/>
-      <c r="D22" s="51"/>
-      <c r="E22" s="51"/>
-      <c r="F22" s="51"/>
-      <c r="G22" s="51"/>
-      <c r="H22" s="51"/>
+      <c r="D22" s="47"/>
+      <c r="E22" s="47"/>
+      <c r="F22" s="47"/>
+      <c r="G22" s="47"/>
+      <c r="H22" s="47"/>
       <c r="I22" s="17"/>
     </row>
     <row r="23" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="46">
+      <c r="A23" s="57">
         <v>11</v>
       </c>
       <c r="B23" s="36" t="s">
         <v>1</v>
       </c>
       <c r="C23" s="18"/>
-      <c r="D23" s="52" t="s">
+      <c r="D23" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="E23" s="55" t="s">
+      <c r="E23" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="F23" s="52" t="s">
+      <c r="F23" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="G23" s="52" t="s">
+      <c r="G23" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="H23" s="52" t="s">
+      <c r="H23" s="50" t="s">
         <v>30</v>
       </c>
       <c r="I23" s="25"/>
     </row>
     <row r="24" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="48"/>
+      <c r="A24" s="59"/>
       <c r="B24" s="26" t="s">
         <v>2</v>
       </c>
       <c r="C24" s="17"/>
-      <c r="D24" s="53"/>
-      <c r="E24" s="56"/>
-      <c r="F24" s="53"/>
-      <c r="G24" s="53"/>
-      <c r="H24" s="53"/>
+      <c r="D24" s="51"/>
+      <c r="E24" s="53"/>
+      <c r="F24" s="51"/>
+      <c r="G24" s="51"/>
+      <c r="H24" s="51"/>
       <c r="I24" s="17"/>
     </row>
     <row r="25" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -3959,11 +3984,11 @@
         <v>0</v>
       </c>
       <c r="C25" s="18"/>
-      <c r="D25" s="53"/>
-      <c r="E25" s="56"/>
-      <c r="F25" s="53"/>
-      <c r="G25" s="53"/>
-      <c r="H25" s="53"/>
+      <c r="D25" s="51"/>
+      <c r="E25" s="53"/>
+      <c r="F25" s="51"/>
+      <c r="G25" s="51"/>
+      <c r="H25" s="51"/>
       <c r="I25" s="18"/>
     </row>
     <row r="26" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -3972,40 +3997,40 @@
         <v>3</v>
       </c>
       <c r="C26" s="12"/>
-      <c r="D26" s="51"/>
-      <c r="E26" s="57"/>
-      <c r="F26" s="51"/>
-      <c r="G26" s="51"/>
-      <c r="H26" s="51"/>
+      <c r="D26" s="47"/>
+      <c r="E26" s="49"/>
+      <c r="F26" s="47"/>
+      <c r="G26" s="47"/>
+      <c r="H26" s="47"/>
       <c r="I26" s="17"/>
     </row>
     <row r="27" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="46">
+      <c r="A27" s="57">
         <v>12</v>
       </c>
       <c r="B27" s="36" t="s">
         <v>8</v>
       </c>
       <c r="C27" s="18"/>
-      <c r="D27" s="52" t="s">
+      <c r="D27" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="E27" s="52" t="s">
+      <c r="E27" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="F27" s="52" t="s">
+      <c r="F27" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="G27" s="52" t="s">
+      <c r="G27" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="H27" s="52" t="s">
+      <c r="H27" s="50" t="s">
         <v>30</v>
       </c>
       <c r="I27" s="25"/>
     </row>
     <row r="28" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="48"/>
+      <c r="A28" s="59"/>
       <c r="B28" s="26" t="s">
         <v>2</v>
       </c>
@@ -4023,19 +4048,19 @@
         <v>0</v>
       </c>
       <c r="C29" s="18"/>
-      <c r="D29" s="58" t="s">
-        <v>31</v>
-      </c>
-      <c r="E29" s="52" t="s">
+      <c r="D29" s="46" t="s">
+        <v>31</v>
+      </c>
+      <c r="E29" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="F29" s="58" t="s">
-        <v>31</v>
-      </c>
-      <c r="G29" s="52" t="s">
+      <c r="F29" s="46" t="s">
+        <v>31</v>
+      </c>
+      <c r="G29" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="H29" s="58" t="s">
+      <c r="H29" s="46" t="s">
         <v>31</v>
       </c>
       <c r="I29" s="18"/>
@@ -4046,48 +4071,48 @@
         <v>3</v>
       </c>
       <c r="C30" s="12"/>
-      <c r="D30" s="51"/>
+      <c r="D30" s="47"/>
       <c r="E30" s="54"/>
-      <c r="F30" s="51"/>
+      <c r="F30" s="47"/>
       <c r="G30" s="54"/>
-      <c r="H30" s="51"/>
+      <c r="H30" s="47"/>
       <c r="I30" s="17"/>
     </row>
     <row r="31" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="46">
+      <c r="A31" s="57">
         <v>1</v>
       </c>
       <c r="B31" s="36" t="s">
         <v>8</v>
       </c>
       <c r="C31" s="18"/>
-      <c r="D31" s="52" t="s">
+      <c r="D31" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="E31" s="52" t="s">
+      <c r="E31" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="F31" s="52" t="s">
+      <c r="F31" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="G31" s="52" t="s">
+      <c r="G31" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="H31" s="52" t="s">
+      <c r="H31" s="50" t="s">
         <v>32</v>
       </c>
       <c r="I31" s="25"/>
     </row>
     <row r="32" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="48"/>
+      <c r="A32" s="59"/>
       <c r="B32" s="26" t="s">
         <v>2</v>
       </c>
       <c r="C32" s="17"/>
       <c r="D32" s="54"/>
-      <c r="E32" s="53"/>
+      <c r="E32" s="51"/>
       <c r="F32" s="54"/>
-      <c r="G32" s="53"/>
+      <c r="G32" s="51"/>
       <c r="H32" s="54"/>
       <c r="I32" s="17"/>
     </row>
@@ -4097,15 +4122,15 @@
         <v>0</v>
       </c>
       <c r="C33" s="18"/>
-      <c r="D33" s="59" t="s">
+      <c r="D33" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="E33" s="53"/>
-      <c r="F33" s="58" t="s">
+      <c r="E33" s="51"/>
+      <c r="F33" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="G33" s="53"/>
-      <c r="H33" s="58" t="s">
+      <c r="G33" s="51"/>
+      <c r="H33" s="46" t="s">
         <v>29</v>
       </c>
       <c r="I33" s="18"/>
@@ -4116,49 +4141,49 @@
         <v>3</v>
       </c>
       <c r="C34" s="12"/>
-      <c r="D34" s="57"/>
-      <c r="E34" s="51"/>
-      <c r="F34" s="51"/>
-      <c r="G34" s="51"/>
-      <c r="H34" s="51"/>
+      <c r="D34" s="49"/>
+      <c r="E34" s="47"/>
+      <c r="F34" s="47"/>
+      <c r="G34" s="47"/>
+      <c r="H34" s="47"/>
       <c r="I34" s="17"/>
     </row>
     <row r="35" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="46">
+      <c r="A35" s="57">
         <v>2</v>
       </c>
       <c r="B35" s="36" t="s">
         <v>8</v>
       </c>
       <c r="C35" s="18"/>
-      <c r="D35" s="55" t="s">
+      <c r="D35" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="E35" s="52" t="s">
+      <c r="E35" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="F35" s="52" t="s">
+      <c r="F35" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="G35" s="52" t="s">
+      <c r="G35" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="H35" s="52" t="s">
+      <c r="H35" s="50" t="s">
         <v>29</v>
       </c>
       <c r="I35" s="25"/>
     </row>
     <row r="36" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="48"/>
+      <c r="A36" s="59"/>
       <c r="B36" s="26" t="s">
         <v>2</v>
       </c>
       <c r="C36" s="17"/>
-      <c r="D36" s="56"/>
-      <c r="E36" s="53"/>
-      <c r="F36" s="53"/>
-      <c r="G36" s="53"/>
-      <c r="H36" s="53"/>
+      <c r="D36" s="53"/>
+      <c r="E36" s="51"/>
+      <c r="F36" s="51"/>
+      <c r="G36" s="51"/>
+      <c r="H36" s="51"/>
       <c r="I36" s="17"/>
     </row>
     <row r="37" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -4167,11 +4192,11 @@
         <v>0</v>
       </c>
       <c r="C37" s="18"/>
-      <c r="D37" s="56"/>
-      <c r="E37" s="53"/>
-      <c r="F37" s="53"/>
-      <c r="G37" s="53"/>
-      <c r="H37" s="53"/>
+      <c r="D37" s="53"/>
+      <c r="E37" s="51"/>
+      <c r="F37" s="51"/>
+      <c r="G37" s="51"/>
+      <c r="H37" s="51"/>
       <c r="I37" s="18"/>
     </row>
     <row r="38" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -4180,49 +4205,49 @@
         <v>3</v>
       </c>
       <c r="C38" s="12"/>
-      <c r="D38" s="57"/>
-      <c r="E38" s="51"/>
-      <c r="F38" s="51"/>
-      <c r="G38" s="51"/>
-      <c r="H38" s="51"/>
+      <c r="D38" s="49"/>
+      <c r="E38" s="47"/>
+      <c r="F38" s="47"/>
+      <c r="G38" s="47"/>
+      <c r="H38" s="47"/>
       <c r="I38" s="17"/>
     </row>
     <row r="39" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="46">
+      <c r="A39" s="57">
         <v>3</v>
       </c>
       <c r="B39" s="36" t="s">
         <v>8</v>
       </c>
       <c r="C39" s="18"/>
-      <c r="D39" s="59" t="s">
+      <c r="D39" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="E39" s="52" t="s">
+      <c r="E39" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="F39" s="52" t="s">
+      <c r="F39" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="G39" s="52" t="s">
+      <c r="G39" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="H39" s="58" t="s">
+      <c r="H39" s="46" t="s">
         <v>29</v>
       </c>
       <c r="I39" s="25"/>
     </row>
     <row r="40" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="48"/>
+      <c r="A40" s="59"/>
       <c r="B40" s="26" t="s">
         <v>2</v>
       </c>
       <c r="C40" s="17"/>
-      <c r="D40" s="57"/>
-      <c r="E40" s="53"/>
-      <c r="F40" s="53"/>
-      <c r="G40" s="53"/>
-      <c r="H40" s="51"/>
+      <c r="D40" s="49"/>
+      <c r="E40" s="51"/>
+      <c r="F40" s="51"/>
+      <c r="G40" s="51"/>
+      <c r="H40" s="47"/>
       <c r="I40" s="17"/>
     </row>
     <row r="41" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
@@ -4231,13 +4256,13 @@
         <v>0</v>
       </c>
       <c r="C41" s="18"/>
-      <c r="D41" s="55" t="s">
+      <c r="D41" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="E41" s="53"/>
-      <c r="F41" s="53"/>
-      <c r="G41" s="53"/>
-      <c r="H41" s="52" t="s">
+      <c r="E41" s="51"/>
+      <c r="F41" s="51"/>
+      <c r="G41" s="51"/>
+      <c r="H41" s="50" t="s">
         <v>33</v>
       </c>
       <c r="I41" s="18"/>
@@ -4248,49 +4273,49 @@
         <v>3</v>
       </c>
       <c r="C42" s="12"/>
-      <c r="D42" s="57"/>
-      <c r="E42" s="51"/>
-      <c r="F42" s="51"/>
-      <c r="G42" s="51"/>
-      <c r="H42" s="51"/>
+      <c r="D42" s="49"/>
+      <c r="E42" s="47"/>
+      <c r="F42" s="47"/>
+      <c r="G42" s="47"/>
+      <c r="H42" s="47"/>
       <c r="I42" s="17"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A43" s="46">
+      <c r="A43" s="57">
         <v>4</v>
       </c>
       <c r="B43" s="36" t="s">
         <v>8</v>
       </c>
       <c r="C43" s="18"/>
-      <c r="D43" s="55" t="s">
+      <c r="D43" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="E43" s="52" t="s">
+      <c r="E43" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="F43" s="52" t="s">
+      <c r="F43" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="G43" s="52" t="s">
+      <c r="G43" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="H43" s="52" t="s">
+      <c r="H43" s="50" t="s">
         <v>33</v>
       </c>
       <c r="I43" s="25"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A44" s="48"/>
+      <c r="A44" s="59"/>
       <c r="B44" s="26" t="s">
         <v>2</v>
       </c>
       <c r="C44" s="17"/>
-      <c r="D44" s="56"/>
-      <c r="E44" s="53"/>
-      <c r="F44" s="53"/>
-      <c r="G44" s="53"/>
-      <c r="H44" s="53"/>
+      <c r="D44" s="53"/>
+      <c r="E44" s="51"/>
+      <c r="F44" s="51"/>
+      <c r="G44" s="51"/>
+      <c r="H44" s="51"/>
       <c r="I44" s="17"/>
     </row>
     <row r="45" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
@@ -4299,11 +4324,11 @@
         <v>0</v>
       </c>
       <c r="C45" s="18"/>
-      <c r="D45" s="56"/>
-      <c r="E45" s="53"/>
-      <c r="F45" s="53"/>
-      <c r="G45" s="53"/>
-      <c r="H45" s="53"/>
+      <c r="D45" s="53"/>
+      <c r="E45" s="51"/>
+      <c r="F45" s="51"/>
+      <c r="G45" s="51"/>
+      <c r="H45" s="51"/>
       <c r="I45" s="18"/>
     </row>
     <row r="46" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
@@ -4312,129 +4337,129 @@
         <v>3</v>
       </c>
       <c r="C46" s="12"/>
-      <c r="D46" s="57"/>
-      <c r="E46" s="51"/>
-      <c r="F46" s="51"/>
-      <c r="G46" s="51"/>
-      <c r="H46" s="51"/>
+      <c r="D46" s="49"/>
+      <c r="E46" s="47"/>
+      <c r="F46" s="47"/>
+      <c r="G46" s="47"/>
+      <c r="H46" s="47"/>
       <c r="I46" s="17"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A47" s="46">
+      <c r="A47" s="57">
         <v>5</v>
       </c>
       <c r="B47" s="36" t="s">
         <v>8</v>
       </c>
       <c r="C47" s="15"/>
-      <c r="D47" s="55" t="s">
+      <c r="D47" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="E47" s="58" t="s">
-        <v>31</v>
-      </c>
-      <c r="F47" s="52" t="s">
+      <c r="E47" s="46" t="s">
+        <v>31</v>
+      </c>
+      <c r="F47" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="G47" s="58" t="s">
-        <v>31</v>
-      </c>
-      <c r="H47" s="55" t="s">
+      <c r="G47" s="46" t="s">
+        <v>31</v>
+      </c>
+      <c r="H47" s="52" t="s">
         <v>33</v>
       </c>
       <c r="I47" s="15"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A48" s="47"/>
+      <c r="A48" s="58"/>
       <c r="B48" s="33" t="s">
         <v>0</v>
       </c>
       <c r="C48" s="13"/>
-      <c r="D48" s="57"/>
-      <c r="E48" s="51"/>
-      <c r="F48" s="51"/>
-      <c r="G48" s="51"/>
-      <c r="H48" s="57"/>
+      <c r="D48" s="49"/>
+      <c r="E48" s="47"/>
+      <c r="F48" s="47"/>
+      <c r="G48" s="47"/>
+      <c r="H48" s="49"/>
       <c r="I48" s="13"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A49" s="46">
+      <c r="A49" s="57">
         <v>6</v>
       </c>
       <c r="B49" s="36" t="s">
         <v>8</v>
       </c>
       <c r="C49" s="15"/>
-      <c r="D49" s="55" t="s">
+      <c r="D49" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="E49" s="58" t="s">
+      <c r="E49" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="F49" s="52" t="s">
+      <c r="F49" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="G49" s="58" t="s">
-        <v>31</v>
-      </c>
-      <c r="H49" s="55" t="s">
+      <c r="G49" s="46" t="s">
+        <v>31</v>
+      </c>
+      <c r="H49" s="52" t="s">
         <v>33</v>
       </c>
       <c r="I49" s="15"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A50" s="47"/>
+      <c r="A50" s="58"/>
       <c r="B50" s="33" t="s">
         <v>0</v>
       </c>
       <c r="C50" s="13"/>
-      <c r="D50" s="57"/>
-      <c r="E50" s="51"/>
-      <c r="F50" s="51"/>
-      <c r="G50" s="51"/>
-      <c r="H50" s="57"/>
+      <c r="D50" s="49"/>
+      <c r="E50" s="47"/>
+      <c r="F50" s="47"/>
+      <c r="G50" s="47"/>
+      <c r="H50" s="49"/>
       <c r="I50" s="13"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A51" s="46">
+      <c r="A51" s="57">
         <v>7</v>
       </c>
       <c r="B51" s="36" t="s">
         <v>8</v>
       </c>
       <c r="C51" s="15"/>
-      <c r="D51" s="58" t="s">
-        <v>31</v>
-      </c>
-      <c r="E51" s="58" t="s">
+      <c r="D51" s="46" t="s">
+        <v>31</v>
+      </c>
+      <c r="E51" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="F51" s="58" t="s">
-        <v>31</v>
-      </c>
-      <c r="G51" s="58" t="s">
-        <v>31</v>
-      </c>
-      <c r="H51" s="58" t="s">
+      <c r="F51" s="46" t="s">
+        <v>31</v>
+      </c>
+      <c r="G51" s="46" t="s">
+        <v>31</v>
+      </c>
+      <c r="H51" s="46" t="s">
         <v>31</v>
       </c>
       <c r="I51" s="15"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A52" s="47"/>
+      <c r="A52" s="58"/>
       <c r="B52" s="33" t="s">
         <v>0</v>
       </c>
       <c r="C52" s="13"/>
-      <c r="D52" s="51"/>
-      <c r="E52" s="51"/>
-      <c r="F52" s="51"/>
-      <c r="G52" s="51"/>
-      <c r="H52" s="51"/>
+      <c r="D52" s="47"/>
+      <c r="E52" s="47"/>
+      <c r="F52" s="47"/>
+      <c r="G52" s="47"/>
+      <c r="H52" s="47"/>
       <c r="I52" s="13"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A53" s="46">
+      <c r="A53" s="57">
         <v>8</v>
       </c>
       <c r="B53" s="36" t="s">
@@ -4444,7 +4469,7 @@
       <c r="D53" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="E53" s="58" t="s">
+      <c r="E53" s="46" t="s">
         <v>35</v>
       </c>
       <c r="F53" s="16" t="s">
@@ -4459,7 +4484,7 @@
       <c r="I53" s="15"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A54" s="47"/>
+      <c r="A54" s="58"/>
       <c r="B54" s="33" t="s">
         <v>0</v>
       </c>
@@ -4467,7 +4492,7 @@
       <c r="D54" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="E54" s="51"/>
+      <c r="E54" s="47"/>
       <c r="F54" s="14" t="s">
         <v>31</v>
       </c>
@@ -4480,109 +4505,72 @@
       <c r="I54" s="13"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A55" s="46">
+      <c r="A55" s="57">
         <v>9</v>
       </c>
       <c r="B55" s="36" t="s">
         <v>8</v>
       </c>
       <c r="C55" s="15"/>
-      <c r="D55" s="58" t="s">
+      <c r="D55" s="46" t="s">
         <v>31</v>
       </c>
       <c r="E55" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="F55" s="58" t="s">
-        <v>31</v>
-      </c>
-      <c r="G55" s="58" t="s">
-        <v>31</v>
-      </c>
-      <c r="H55" s="58" t="s">
+      <c r="F55" s="46" t="s">
+        <v>31</v>
+      </c>
+      <c r="G55" s="46" t="s">
+        <v>31</v>
+      </c>
+      <c r="H55" s="46" t="s">
         <v>31</v>
       </c>
       <c r="I55" s="15"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A56" s="47"/>
+      <c r="A56" s="58"/>
       <c r="B56" s="33" t="s">
         <v>0</v>
       </c>
       <c r="C56" s="13"/>
-      <c r="D56" s="51"/>
+      <c r="D56" s="47"/>
       <c r="E56" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="F56" s="51"/>
-      <c r="G56" s="51"/>
-      <c r="H56" s="51"/>
+      <c r="F56" s="47"/>
+      <c r="G56" s="47"/>
+      <c r="H56" s="47"/>
       <c r="I56" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="107">
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="D11:D14"/>
-    <mergeCell ref="E11:E14"/>
-    <mergeCell ref="F11:F14"/>
-    <mergeCell ref="G11:G14"/>
-    <mergeCell ref="H11:H14"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="D7:D10"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F10"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H7:H10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="D19:D22"/>
-    <mergeCell ref="E19:E22"/>
-    <mergeCell ref="F19:F22"/>
-    <mergeCell ref="G19:G22"/>
-    <mergeCell ref="H19:H22"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E18"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G15:G18"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="D23:D26"/>
-    <mergeCell ref="E23:E26"/>
-    <mergeCell ref="F23:F26"/>
-    <mergeCell ref="G23:G26"/>
-    <mergeCell ref="H23:H26"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="E31:E34"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="G31:G34"/>
-    <mergeCell ref="H31:H32"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="H33:H34"/>
+    <mergeCell ref="H55:H56"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="G55:G56"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="G51:G52"/>
+    <mergeCell ref="H51:H52"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="H49:H50"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="G47:G48"/>
+    <mergeCell ref="H47:H48"/>
     <mergeCell ref="A35:A36"/>
     <mergeCell ref="D35:D38"/>
     <mergeCell ref="E35:E38"/>
@@ -4603,6 +4591,1096 @@
     <mergeCell ref="H39:H40"/>
     <mergeCell ref="D41:D42"/>
     <mergeCell ref="H41:H42"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="E31:E34"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="G31:G34"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="H33:H34"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="D23:D26"/>
+    <mergeCell ref="E23:E26"/>
+    <mergeCell ref="F23:F26"/>
+    <mergeCell ref="G23:G26"/>
+    <mergeCell ref="H23:H26"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="D19:D22"/>
+    <mergeCell ref="E19:E22"/>
+    <mergeCell ref="F19:F22"/>
+    <mergeCell ref="G19:G22"/>
+    <mergeCell ref="H19:H22"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E18"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G15:G18"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="H11:H14"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="D7:D10"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F10"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="E11:E14"/>
+    <mergeCell ref="F11:F14"/>
+    <mergeCell ref="G11:G14"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9951F56-C369-4E89-ABDA-B5D6171942BD}">
+  <dimension ref="A1:I56"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21:G22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="3.75" style="20" customWidth="1"/>
+    <col min="2" max="2" width="3" style="20" customWidth="1"/>
+    <col min="3" max="3" width="8.5" style="20" customWidth="1"/>
+    <col min="4" max="8" width="13.25" style="20" customWidth="1"/>
+    <col min="9" max="9" width="8.5" style="20" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="20"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="23" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="39"/>
+    </row>
+    <row r="2" spans="1:9" s="21" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="G2" s="22">
+        <v>5</v>
+      </c>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+    </row>
+    <row r="3" spans="1:9" s="23" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="56" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="56"/>
+      <c r="G3" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" s="38" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" s="27" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="34"/>
+      <c r="B4" s="35"/>
+      <c r="C4" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" s="31" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="57">
+        <v>6</v>
+      </c>
+      <c r="B5" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="44"/>
+      <c r="D5" s="55" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="55" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="55" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="55" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="55" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" s="44"/>
+    </row>
+    <row r="6" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="58"/>
+      <c r="B6" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="45"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="47"/>
+      <c r="I6" s="45"/>
+    </row>
+    <row r="7" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="57">
+        <v>7</v>
+      </c>
+      <c r="B7" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="42"/>
+      <c r="D7" s="50" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="50" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="50" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="50" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" s="50" t="s">
+        <v>18</v>
+      </c>
+      <c r="I7" s="44"/>
+    </row>
+    <row r="8" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="59"/>
+      <c r="B8" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="43"/>
+      <c r="D8" s="51"/>
+      <c r="E8" s="51"/>
+      <c r="F8" s="51"/>
+      <c r="G8" s="51"/>
+      <c r="H8" s="51"/>
+      <c r="I8" s="43"/>
+    </row>
+    <row r="9" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="32"/>
+      <c r="B9" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="43"/>
+      <c r="D9" s="51"/>
+      <c r="E9" s="51" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="51"/>
+      <c r="G9" s="51" t="s">
+        <v>28</v>
+      </c>
+      <c r="H9" s="51"/>
+      <c r="I9" s="43"/>
+    </row>
+    <row r="10" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="37"/>
+      <c r="B10" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="45"/>
+      <c r="D10" s="47"/>
+      <c r="E10" s="47"/>
+      <c r="F10" s="47"/>
+      <c r="G10" s="47"/>
+      <c r="H10" s="47"/>
+      <c r="I10" s="45"/>
+    </row>
+    <row r="11" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="57">
+        <v>8</v>
+      </c>
+      <c r="B11" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="42"/>
+      <c r="D11" s="61" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="61" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11" s="61" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="61" t="s">
+        <v>36</v>
+      </c>
+      <c r="H11" s="61" t="s">
+        <v>18</v>
+      </c>
+      <c r="I11" s="42"/>
+    </row>
+    <row r="12" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="59"/>
+      <c r="B12" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="43"/>
+      <c r="D12" s="62"/>
+      <c r="E12" s="62"/>
+      <c r="F12" s="62"/>
+      <c r="G12" s="62"/>
+      <c r="H12" s="62"/>
+      <c r="I12" s="43"/>
+    </row>
+    <row r="13" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="32"/>
+      <c r="B13" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="43"/>
+      <c r="D13" s="62"/>
+      <c r="E13" s="62"/>
+      <c r="F13" s="62"/>
+      <c r="G13" s="62"/>
+      <c r="H13" s="62"/>
+      <c r="I13" s="43"/>
+    </row>
+    <row r="14" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="37"/>
+      <c r="B14" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="45"/>
+      <c r="D14" s="63"/>
+      <c r="E14" s="63"/>
+      <c r="F14" s="63"/>
+      <c r="G14" s="63"/>
+      <c r="H14" s="63"/>
+      <c r="I14" s="45"/>
+    </row>
+    <row r="15" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="57">
+        <v>9</v>
+      </c>
+      <c r="B15" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="18"/>
+      <c r="D15" s="61" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" s="61" t="s">
+        <v>36</v>
+      </c>
+      <c r="F15" s="61" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15" s="61" t="s">
+        <v>36</v>
+      </c>
+      <c r="H15" s="61" t="s">
+        <v>18</v>
+      </c>
+      <c r="I15" s="42"/>
+    </row>
+    <row r="16" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="59"/>
+      <c r="B16" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" s="17"/>
+      <c r="D16" s="62"/>
+      <c r="E16" s="62"/>
+      <c r="F16" s="62"/>
+      <c r="G16" s="62"/>
+      <c r="H16" s="62"/>
+      <c r="I16" s="43"/>
+    </row>
+    <row r="17" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="32"/>
+      <c r="B17" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" s="18"/>
+      <c r="D17" s="62"/>
+      <c r="E17" s="62"/>
+      <c r="F17" s="62"/>
+      <c r="G17" s="62"/>
+      <c r="H17" s="62"/>
+      <c r="I17" s="43"/>
+    </row>
+    <row r="18" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="37"/>
+      <c r="B18" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="12"/>
+      <c r="D18" s="63"/>
+      <c r="E18" s="63"/>
+      <c r="F18" s="63"/>
+      <c r="G18" s="63"/>
+      <c r="H18" s="63"/>
+      <c r="I18" s="45"/>
+    </row>
+    <row r="19" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="57">
+        <v>10</v>
+      </c>
+      <c r="B19" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="18"/>
+      <c r="D19" s="61" t="s">
+        <v>41</v>
+      </c>
+      <c r="E19" s="61" t="s">
+        <v>42</v>
+      </c>
+      <c r="F19" s="61" t="s">
+        <v>41</v>
+      </c>
+      <c r="G19" s="61" t="s">
+        <v>42</v>
+      </c>
+      <c r="H19" s="61" t="s">
+        <v>41</v>
+      </c>
+      <c r="I19" s="25"/>
+    </row>
+    <row r="20" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="59"/>
+      <c r="B20" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="C20" s="17"/>
+      <c r="D20" s="62"/>
+      <c r="E20" s="62"/>
+      <c r="F20" s="62"/>
+      <c r="G20" s="62"/>
+      <c r="H20" s="62"/>
+      <c r="I20" s="17"/>
+    </row>
+    <row r="21" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="32"/>
+      <c r="B21" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21" s="18"/>
+      <c r="D21" s="62" t="s">
+        <v>30</v>
+      </c>
+      <c r="E21" s="62" t="s">
+        <v>30</v>
+      </c>
+      <c r="F21" s="62" t="s">
+        <v>30</v>
+      </c>
+      <c r="G21" s="62" t="s">
+        <v>30</v>
+      </c>
+      <c r="H21" s="62" t="s">
+        <v>30</v>
+      </c>
+      <c r="I21" s="18"/>
+    </row>
+    <row r="22" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="37"/>
+      <c r="B22" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" s="12"/>
+      <c r="D22" s="63"/>
+      <c r="E22" s="63"/>
+      <c r="F22" s="63"/>
+      <c r="G22" s="63"/>
+      <c r="H22" s="63"/>
+      <c r="I22" s="17"/>
+    </row>
+    <row r="23" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="57">
+        <v>11</v>
+      </c>
+      <c r="B23" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="18"/>
+      <c r="D23" s="61" t="s">
+        <v>30</v>
+      </c>
+      <c r="E23" s="61" t="s">
+        <v>30</v>
+      </c>
+      <c r="F23" s="61" t="s">
+        <v>30</v>
+      </c>
+      <c r="G23" s="61" t="s">
+        <v>30</v>
+      </c>
+      <c r="H23" s="61" t="s">
+        <v>30</v>
+      </c>
+      <c r="I23" s="25"/>
+    </row>
+    <row r="24" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="59"/>
+      <c r="B24" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="C24" s="17"/>
+      <c r="D24" s="62"/>
+      <c r="E24" s="62"/>
+      <c r="F24" s="62"/>
+      <c r="G24" s="62"/>
+      <c r="H24" s="62"/>
+      <c r="I24" s="17"/>
+    </row>
+    <row r="25" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="32"/>
+      <c r="B25" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="C25" s="18"/>
+      <c r="D25" s="62"/>
+      <c r="E25" s="62"/>
+      <c r="F25" s="62"/>
+      <c r="G25" s="62"/>
+      <c r="H25" s="62"/>
+      <c r="I25" s="18"/>
+    </row>
+    <row r="26" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="37"/>
+      <c r="B26" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="C26" s="12"/>
+      <c r="D26" s="63"/>
+      <c r="E26" s="63"/>
+      <c r="F26" s="63"/>
+      <c r="G26" s="63"/>
+      <c r="H26" s="63"/>
+      <c r="I26" s="17"/>
+    </row>
+    <row r="27" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="57">
+        <v>12</v>
+      </c>
+      <c r="B27" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" s="18"/>
+      <c r="D27" s="61" t="s">
+        <v>30</v>
+      </c>
+      <c r="E27" s="61" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="61" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="61" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="61" t="s">
+        <v>30</v>
+      </c>
+      <c r="I27" s="25"/>
+    </row>
+    <row r="28" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="59"/>
+      <c r="B28" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="C28" s="17"/>
+      <c r="D28" s="64"/>
+      <c r="E28" s="64"/>
+      <c r="F28" s="64"/>
+      <c r="G28" s="64"/>
+      <c r="H28" s="64"/>
+      <c r="I28" s="17"/>
+    </row>
+    <row r="29" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="32"/>
+      <c r="B29" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="C29" s="18"/>
+      <c r="D29" s="61" t="s">
+        <v>31</v>
+      </c>
+      <c r="E29" s="61" t="s">
+        <v>31</v>
+      </c>
+      <c r="F29" s="61" t="s">
+        <v>31</v>
+      </c>
+      <c r="G29" s="61" t="s">
+        <v>31</v>
+      </c>
+      <c r="H29" s="61" t="s">
+        <v>31</v>
+      </c>
+      <c r="I29" s="18"/>
+    </row>
+    <row r="30" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="37"/>
+      <c r="B30" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="C30" s="12"/>
+      <c r="D30" s="64"/>
+      <c r="E30" s="64"/>
+      <c r="F30" s="64"/>
+      <c r="G30" s="64"/>
+      <c r="H30" s="64"/>
+      <c r="I30" s="17"/>
+    </row>
+    <row r="31" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="57">
+        <v>1</v>
+      </c>
+      <c r="B31" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" s="18"/>
+      <c r="D31" s="61" t="s">
+        <v>31</v>
+      </c>
+      <c r="E31" s="61" t="s">
+        <v>31</v>
+      </c>
+      <c r="F31" s="61" t="s">
+        <v>31</v>
+      </c>
+      <c r="G31" s="61" t="s">
+        <v>31</v>
+      </c>
+      <c r="H31" s="61" t="s">
+        <v>31</v>
+      </c>
+      <c r="I31" s="25"/>
+    </row>
+    <row r="32" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="59"/>
+      <c r="B32" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="C32" s="17"/>
+      <c r="D32" s="64"/>
+      <c r="E32" s="64"/>
+      <c r="F32" s="64"/>
+      <c r="G32" s="64"/>
+      <c r="H32" s="64"/>
+      <c r="I32" s="17"/>
+    </row>
+    <row r="33" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="32"/>
+      <c r="B33" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="C33" s="18"/>
+      <c r="D33" s="65" t="s">
+        <v>32</v>
+      </c>
+      <c r="E33" s="65" t="s">
+        <v>32</v>
+      </c>
+      <c r="F33" s="65" t="s">
+        <v>32</v>
+      </c>
+      <c r="G33" s="65" t="s">
+        <v>32</v>
+      </c>
+      <c r="H33" s="65" t="s">
+        <v>32</v>
+      </c>
+      <c r="I33" s="18"/>
+    </row>
+    <row r="34" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="37"/>
+      <c r="B34" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="C34" s="12"/>
+      <c r="D34" s="63"/>
+      <c r="E34" s="63"/>
+      <c r="F34" s="63"/>
+      <c r="G34" s="63"/>
+      <c r="H34" s="63"/>
+      <c r="I34" s="17"/>
+    </row>
+    <row r="35" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="57">
+        <v>2</v>
+      </c>
+      <c r="B35" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35" s="18"/>
+      <c r="D35" s="61" t="s">
+        <v>29</v>
+      </c>
+      <c r="E35" s="61" t="s">
+        <v>29</v>
+      </c>
+      <c r="F35" s="61" t="s">
+        <v>37</v>
+      </c>
+      <c r="G35" s="61" t="s">
+        <v>29</v>
+      </c>
+      <c r="H35" s="61" t="s">
+        <v>29</v>
+      </c>
+      <c r="I35" s="25"/>
+    </row>
+    <row r="36" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="59"/>
+      <c r="B36" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="C36" s="17"/>
+      <c r="D36" s="62"/>
+      <c r="E36" s="62"/>
+      <c r="F36" s="62"/>
+      <c r="G36" s="62"/>
+      <c r="H36" s="62"/>
+      <c r="I36" s="17"/>
+    </row>
+    <row r="37" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="32"/>
+      <c r="B37" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="C37" s="18"/>
+      <c r="D37" s="62"/>
+      <c r="E37" s="62"/>
+      <c r="F37" s="62"/>
+      <c r="G37" s="62"/>
+      <c r="H37" s="62"/>
+      <c r="I37" s="18"/>
+    </row>
+    <row r="38" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="37"/>
+      <c r="B38" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="C38" s="12"/>
+      <c r="D38" s="63"/>
+      <c r="E38" s="63"/>
+      <c r="F38" s="63"/>
+      <c r="G38" s="63"/>
+      <c r="H38" s="63"/>
+      <c r="I38" s="17"/>
+    </row>
+    <row r="39" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="57">
+        <v>3</v>
+      </c>
+      <c r="B39" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="C39" s="18"/>
+      <c r="D39" s="61" t="s">
+        <v>33</v>
+      </c>
+      <c r="E39" s="61" t="s">
+        <v>33</v>
+      </c>
+      <c r="F39" s="61" t="s">
+        <v>37</v>
+      </c>
+      <c r="G39" s="61" t="s">
+        <v>33</v>
+      </c>
+      <c r="H39" s="61" t="s">
+        <v>33</v>
+      </c>
+      <c r="I39" s="25"/>
+    </row>
+    <row r="40" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="59"/>
+      <c r="B40" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="C40" s="17"/>
+      <c r="D40" s="62"/>
+      <c r="E40" s="62"/>
+      <c r="F40" s="62"/>
+      <c r="G40" s="62"/>
+      <c r="H40" s="62"/>
+      <c r="I40" s="17"/>
+    </row>
+    <row r="41" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A41" s="32"/>
+      <c r="B41" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="C41" s="18"/>
+      <c r="D41" s="62"/>
+      <c r="E41" s="62"/>
+      <c r="F41" s="62"/>
+      <c r="G41" s="62"/>
+      <c r="H41" s="62"/>
+      <c r="I41" s="18"/>
+    </row>
+    <row r="42" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A42" s="37"/>
+      <c r="B42" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="C42" s="12"/>
+      <c r="D42" s="63"/>
+      <c r="E42" s="63"/>
+      <c r="F42" s="63"/>
+      <c r="G42" s="63"/>
+      <c r="H42" s="63"/>
+      <c r="I42" s="17"/>
+    </row>
+    <row r="43" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A43" s="57">
+        <v>4</v>
+      </c>
+      <c r="B43" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="C43" s="18"/>
+      <c r="D43" s="61" t="s">
+        <v>33</v>
+      </c>
+      <c r="E43" s="61" t="s">
+        <v>33</v>
+      </c>
+      <c r="F43" s="61" t="s">
+        <v>37</v>
+      </c>
+      <c r="G43" s="61" t="s">
+        <v>33</v>
+      </c>
+      <c r="H43" s="61" t="s">
+        <v>33</v>
+      </c>
+      <c r="I43" s="25"/>
+    </row>
+    <row r="44" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A44" s="59"/>
+      <c r="B44" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="C44" s="17"/>
+      <c r="D44" s="62"/>
+      <c r="E44" s="62"/>
+      <c r="F44" s="62"/>
+      <c r="G44" s="62"/>
+      <c r="H44" s="62"/>
+      <c r="I44" s="17"/>
+    </row>
+    <row r="45" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A45" s="32"/>
+      <c r="B45" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="C45" s="18"/>
+      <c r="D45" s="62"/>
+      <c r="E45" s="62"/>
+      <c r="F45" s="62"/>
+      <c r="G45" s="62"/>
+      <c r="H45" s="62"/>
+      <c r="I45" s="18"/>
+    </row>
+    <row r="46" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A46" s="37"/>
+      <c r="B46" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="C46" s="12"/>
+      <c r="D46" s="63"/>
+      <c r="E46" s="63"/>
+      <c r="F46" s="63"/>
+      <c r="G46" s="63"/>
+      <c r="H46" s="63"/>
+      <c r="I46" s="17"/>
+    </row>
+    <row r="47" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A47" s="57">
+        <v>5</v>
+      </c>
+      <c r="B47" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="C47" s="15"/>
+      <c r="D47" s="61" t="s">
+        <v>42</v>
+      </c>
+      <c r="E47" s="61" t="s">
+        <v>33</v>
+      </c>
+      <c r="F47" s="61" t="s">
+        <v>42</v>
+      </c>
+      <c r="G47" s="61" t="s">
+        <v>42</v>
+      </c>
+      <c r="H47" s="61" t="s">
+        <v>42</v>
+      </c>
+      <c r="I47" s="15"/>
+    </row>
+    <row r="48" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A48" s="58"/>
+      <c r="B48" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="C48" s="13"/>
+      <c r="D48" s="63"/>
+      <c r="E48" s="63"/>
+      <c r="F48" s="63"/>
+      <c r="G48" s="63"/>
+      <c r="H48" s="63"/>
+      <c r="I48" s="13"/>
+    </row>
+    <row r="49" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A49" s="57">
+        <v>6</v>
+      </c>
+      <c r="B49" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="C49" s="15"/>
+      <c r="D49" s="61" t="s">
+        <v>42</v>
+      </c>
+      <c r="E49" s="65" t="s">
+        <v>35</v>
+      </c>
+      <c r="F49" s="61" t="s">
+        <v>42</v>
+      </c>
+      <c r="G49" s="61" t="s">
+        <v>42</v>
+      </c>
+      <c r="H49" s="61" t="s">
+        <v>42</v>
+      </c>
+      <c r="I49" s="15"/>
+    </row>
+    <row r="50" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A50" s="58"/>
+      <c r="B50" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="C50" s="13"/>
+      <c r="D50" s="63"/>
+      <c r="E50" s="63"/>
+      <c r="F50" s="63"/>
+      <c r="G50" s="63"/>
+      <c r="H50" s="63"/>
+      <c r="I50" s="13"/>
+    </row>
+    <row r="51" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A51" s="57">
+        <v>7</v>
+      </c>
+      <c r="B51" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="C51" s="15"/>
+      <c r="D51" s="61" t="s">
+        <v>42</v>
+      </c>
+      <c r="E51" s="65" t="s">
+        <v>35</v>
+      </c>
+      <c r="F51" s="61" t="s">
+        <v>42</v>
+      </c>
+      <c r="G51" s="61" t="s">
+        <v>42</v>
+      </c>
+      <c r="H51" s="61" t="s">
+        <v>42</v>
+      </c>
+      <c r="I51" s="15"/>
+    </row>
+    <row r="52" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A52" s="58"/>
+      <c r="B52" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="C52" s="13"/>
+      <c r="D52" s="63"/>
+      <c r="E52" s="63"/>
+      <c r="F52" s="63"/>
+      <c r="G52" s="63"/>
+      <c r="H52" s="63"/>
+      <c r="I52" s="13"/>
+    </row>
+    <row r="53" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A53" s="57">
+        <v>8</v>
+      </c>
+      <c r="B53" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="C53" s="15"/>
+      <c r="D53" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="E53" s="46" t="s">
+        <v>35</v>
+      </c>
+      <c r="F53" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="G53" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="H53" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="I53" s="15"/>
+    </row>
+    <row r="54" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A54" s="58"/>
+      <c r="B54" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="C54" s="13"/>
+      <c r="D54" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="E54" s="47"/>
+      <c r="F54" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="G54" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="H54" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="I54" s="13"/>
+    </row>
+    <row r="55" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A55" s="57">
+        <v>9</v>
+      </c>
+      <c r="B55" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="C55" s="15"/>
+      <c r="D55" s="46" t="s">
+        <v>31</v>
+      </c>
+      <c r="E55" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="F55" s="46" t="s">
+        <v>31</v>
+      </c>
+      <c r="G55" s="46" t="s">
+        <v>31</v>
+      </c>
+      <c r="H55" s="46" t="s">
+        <v>31</v>
+      </c>
+      <c r="I55" s="15"/>
+    </row>
+    <row r="56" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A56" s="58"/>
+      <c r="B56" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="C56" s="13"/>
+      <c r="D56" s="47"/>
+      <c r="E56" s="41" t="s">
+        <v>31</v>
+      </c>
+      <c r="F56" s="47"/>
+      <c r="G56" s="47"/>
+      <c r="H56" s="47"/>
+      <c r="I56" s="13"/>
+    </row>
+  </sheetData>
+  <mergeCells count="109">
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="D39:D42"/>
+    <mergeCell ref="H39:H42"/>
+    <mergeCell ref="H55:H56"/>
+    <mergeCell ref="D15:D18"/>
+    <mergeCell ref="F15:F18"/>
+    <mergeCell ref="H15:H18"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="G55:G56"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="G51:G52"/>
+    <mergeCell ref="H51:H52"/>
     <mergeCell ref="A49:A50"/>
     <mergeCell ref="D49:D50"/>
     <mergeCell ref="E49:E50"/>
@@ -4615,25 +5693,81 @@
     <mergeCell ref="F47:F48"/>
     <mergeCell ref="G47:G48"/>
     <mergeCell ref="H47:H48"/>
-    <mergeCell ref="H55:H56"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="F55:F56"/>
-    <mergeCell ref="G55:G56"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="G51:G52"/>
-    <mergeCell ref="H51:H52"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="D43:D46"/>
+    <mergeCell ref="E43:E46"/>
+    <mergeCell ref="F43:F46"/>
+    <mergeCell ref="G43:G46"/>
+    <mergeCell ref="H43:H46"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="E39:E42"/>
+    <mergeCell ref="F39:F42"/>
+    <mergeCell ref="G39:G42"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="H33:H34"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="D35:D38"/>
+    <mergeCell ref="E35:E38"/>
+    <mergeCell ref="F35:F38"/>
+    <mergeCell ref="G35:G38"/>
+    <mergeCell ref="H35:H38"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="D23:D26"/>
+    <mergeCell ref="E23:E26"/>
+    <mergeCell ref="F23:F26"/>
+    <mergeCell ref="G23:G26"/>
+    <mergeCell ref="H23:H26"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="E15:E18"/>
+    <mergeCell ref="G15:G18"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="E11:E14"/>
+    <mergeCell ref="F11:F14"/>
+    <mergeCell ref="G11:G14"/>
+    <mergeCell ref="H11:H14"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="D7:D10"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F10"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C29"/>
   <sheetViews>

--- a/Calendario.xlsx
+++ b/Calendario.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SEBAS\Documents\Calendario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D391271-30E0-435C-886F-9CA32EA5D1B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50F20EB2-B936-4FD2-B24D-F3361629ABF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -167,7 +167,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Arial"/>
@@ -319,8 +319,15 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -354,6 +361,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -638,7 +651,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -761,39 +774,6 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
@@ -803,22 +783,52 @@
     <xf numFmtId="0" fontId="19" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1380,10 +1390,10 @@
       <c r="I2" s="22"/>
     </row>
     <row r="3" spans="1:9" s="23" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="56" t="s">
+      <c r="A3" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="56"/>
+      <c r="B3" s="49"/>
       <c r="G3" s="24" t="s">
         <v>27</v>
       </c>
@@ -1417,79 +1427,79 @@
       </c>
     </row>
     <row r="5" spans="1:9" s="20" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="57">
+      <c r="A5" s="46">
         <v>6</v>
       </c>
       <c r="B5" s="36" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="44"/>
-      <c r="D5" s="55" t="s">
+      <c r="D5" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="55" t="s">
+      <c r="E5" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="55" t="s">
+      <c r="F5" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="55" t="s">
+      <c r="G5" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="55" t="s">
+      <c r="H5" s="50" t="s">
         <v>18</v>
       </c>
       <c r="I5" s="44"/>
     </row>
     <row r="6" spans="1:9" s="20" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="58"/>
+      <c r="A6" s="47"/>
       <c r="B6" s="33" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="45"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="47"/>
-      <c r="H6" s="47"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="51"/>
+      <c r="F6" s="51"/>
+      <c r="G6" s="51"/>
+      <c r="H6" s="51"/>
       <c r="I6" s="45"/>
     </row>
     <row r="7" spans="1:9" s="20" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="57">
+      <c r="A7" s="46">
         <v>7</v>
       </c>
       <c r="B7" s="36" t="s">
         <v>1</v>
       </c>
       <c r="C7" s="42"/>
-      <c r="D7" s="50" t="s">
+      <c r="D7" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="50" t="s">
+      <c r="E7" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="50" t="s">
+      <c r="F7" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="G7" s="50" t="s">
+      <c r="G7" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="H7" s="50" t="s">
+      <c r="H7" s="52" t="s">
         <v>18</v>
       </c>
       <c r="I7" s="44"/>
     </row>
     <row r="8" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="59"/>
+      <c r="A8" s="48"/>
       <c r="B8" s="26" t="s">
         <v>2</v>
       </c>
       <c r="C8" s="43"/>
-      <c r="D8" s="51"/>
-      <c r="E8" s="51"/>
-      <c r="F8" s="51"/>
-      <c r="G8" s="51"/>
-      <c r="H8" s="51"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="53"/>
+      <c r="G8" s="53"/>
+      <c r="H8" s="53"/>
       <c r="I8" s="43"/>
     </row>
     <row r="9" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1498,15 +1508,15 @@
         <v>0</v>
       </c>
       <c r="C9" s="43"/>
-      <c r="D9" s="51"/>
-      <c r="E9" s="53" t="s">
+      <c r="D9" s="53"/>
+      <c r="E9" s="56" t="s">
         <v>28</v>
       </c>
-      <c r="F9" s="51"/>
-      <c r="G9" s="53" t="s">
+      <c r="F9" s="53"/>
+      <c r="G9" s="56" t="s">
         <v>28</v>
       </c>
-      <c r="H9" s="51"/>
+      <c r="H9" s="53"/>
       <c r="I9" s="43"/>
     </row>
     <row r="10" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1515,49 +1525,49 @@
         <v>3</v>
       </c>
       <c r="C10" s="45"/>
-      <c r="D10" s="47"/>
-      <c r="E10" s="49"/>
-      <c r="F10" s="47"/>
-      <c r="G10" s="49"/>
-      <c r="H10" s="47"/>
+      <c r="D10" s="51"/>
+      <c r="E10" s="57"/>
+      <c r="F10" s="51"/>
+      <c r="G10" s="57"/>
+      <c r="H10" s="51"/>
       <c r="I10" s="45"/>
     </row>
     <row r="11" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="57">
+      <c r="A11" s="46">
         <v>8</v>
       </c>
       <c r="B11" s="36" t="s">
         <v>1</v>
       </c>
       <c r="C11" s="42"/>
-      <c r="D11" s="50" t="s">
+      <c r="D11" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="52" t="s">
+      <c r="E11" s="55" t="s">
         <v>36</v>
       </c>
-      <c r="F11" s="50" t="s">
+      <c r="F11" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="G11" s="52" t="s">
+      <c r="G11" s="55" t="s">
         <v>36</v>
       </c>
-      <c r="H11" s="50" t="s">
+      <c r="H11" s="52" t="s">
         <v>18</v>
       </c>
       <c r="I11" s="42"/>
     </row>
     <row r="12" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="59"/>
+      <c r="A12" s="48"/>
       <c r="B12" s="26" t="s">
         <v>2</v>
       </c>
       <c r="C12" s="43"/>
-      <c r="D12" s="51"/>
-      <c r="E12" s="53"/>
-      <c r="F12" s="51"/>
-      <c r="G12" s="53"/>
-      <c r="H12" s="51"/>
+      <c r="D12" s="53"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="53"/>
+      <c r="G12" s="56"/>
+      <c r="H12" s="53"/>
       <c r="I12" s="43"/>
     </row>
     <row r="13" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1566,11 +1576,11 @@
         <v>0</v>
       </c>
       <c r="C13" s="43"/>
-      <c r="D13" s="51"/>
-      <c r="E13" s="53"/>
-      <c r="F13" s="51"/>
-      <c r="G13" s="53"/>
-      <c r="H13" s="51"/>
+      <c r="D13" s="53"/>
+      <c r="E13" s="56"/>
+      <c r="F13" s="53"/>
+      <c r="G13" s="56"/>
+      <c r="H13" s="53"/>
       <c r="I13" s="43"/>
     </row>
     <row r="14" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1579,48 +1589,48 @@
         <v>3</v>
       </c>
       <c r="C14" s="45"/>
-      <c r="D14" s="47"/>
-      <c r="E14" s="49"/>
-      <c r="F14" s="47"/>
-      <c r="G14" s="49"/>
-      <c r="H14" s="47"/>
+      <c r="D14" s="51"/>
+      <c r="E14" s="57"/>
+      <c r="F14" s="51"/>
+      <c r="G14" s="57"/>
+      <c r="H14" s="51"/>
       <c r="I14" s="45"/>
     </row>
     <row r="15" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="57">
+      <c r="A15" s="46">
         <v>9</v>
       </c>
       <c r="B15" s="36" t="s">
         <v>1</v>
       </c>
       <c r="C15" s="18"/>
-      <c r="D15" s="50" t="s">
+      <c r="D15" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="E15" s="52" t="s">
+      <c r="E15" s="55" t="s">
         <v>36</v>
       </c>
-      <c r="F15" s="50" t="s">
+      <c r="F15" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="G15" s="52" t="s">
+      <c r="G15" s="55" t="s">
         <v>36</v>
       </c>
-      <c r="H15" s="50" t="s">
+      <c r="H15" s="52" t="s">
         <v>28</v>
       </c>
       <c r="I15" s="42"/>
     </row>
     <row r="16" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="59"/>
+      <c r="A16" s="48"/>
       <c r="B16" s="26" t="s">
         <v>2</v>
       </c>
       <c r="C16" s="17"/>
       <c r="D16" s="54"/>
-      <c r="E16" s="53"/>
+      <c r="E16" s="56"/>
       <c r="F16" s="54"/>
-      <c r="G16" s="53"/>
+      <c r="G16" s="56"/>
       <c r="H16" s="54"/>
       <c r="I16" s="43"/>
     </row>
@@ -1630,15 +1640,15 @@
         <v>0</v>
       </c>
       <c r="C17" s="18"/>
-      <c r="D17" s="46" t="s">
+      <c r="D17" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="E17" s="53"/>
-      <c r="F17" s="46" t="s">
+      <c r="E17" s="56"/>
+      <c r="F17" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="G17" s="53"/>
-      <c r="H17" s="46" t="s">
+      <c r="G17" s="56"/>
+      <c r="H17" s="58" t="s">
         <v>29</v>
       </c>
       <c r="I17" s="43"/>
@@ -1649,49 +1659,49 @@
         <v>3</v>
       </c>
       <c r="C18" s="12"/>
-      <c r="D18" s="47"/>
-      <c r="E18" s="49"/>
-      <c r="F18" s="47"/>
-      <c r="G18" s="49"/>
-      <c r="H18" s="47"/>
+      <c r="D18" s="51"/>
+      <c r="E18" s="57"/>
+      <c r="F18" s="51"/>
+      <c r="G18" s="57"/>
+      <c r="H18" s="51"/>
       <c r="I18" s="45"/>
     </row>
     <row r="19" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="57">
+      <c r="A19" s="46">
         <v>10</v>
       </c>
       <c r="B19" s="36" t="s">
         <v>1</v>
       </c>
       <c r="C19" s="18"/>
-      <c r="D19" s="50" t="s">
+      <c r="D19" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="E19" s="50" t="s">
+      <c r="E19" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="F19" s="50" t="s">
+      <c r="F19" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="G19" s="52" t="s">
+      <c r="G19" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="H19" s="50" t="s">
+      <c r="H19" s="52" t="s">
         <v>30</v>
       </c>
       <c r="I19" s="25"/>
     </row>
     <row r="20" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="59"/>
+      <c r="A20" s="48"/>
       <c r="B20" s="26" t="s">
         <v>2</v>
       </c>
       <c r="C20" s="17"/>
-      <c r="D20" s="51"/>
-      <c r="E20" s="51"/>
-      <c r="F20" s="51"/>
-      <c r="G20" s="53"/>
-      <c r="H20" s="51"/>
+      <c r="D20" s="53"/>
+      <c r="E20" s="53"/>
+      <c r="F20" s="53"/>
+      <c r="G20" s="56"/>
+      <c r="H20" s="53"/>
       <c r="I20" s="17"/>
     </row>
     <row r="21" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1700,11 +1710,11 @@
         <v>0</v>
       </c>
       <c r="C21" s="18"/>
-      <c r="D21" s="51"/>
-      <c r="E21" s="51"/>
-      <c r="F21" s="51"/>
-      <c r="G21" s="53"/>
-      <c r="H21" s="51"/>
+      <c r="D21" s="53"/>
+      <c r="E21" s="53"/>
+      <c r="F21" s="53"/>
+      <c r="G21" s="56"/>
+      <c r="H21" s="53"/>
       <c r="I21" s="18"/>
     </row>
     <row r="22" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1713,49 +1723,49 @@
         <v>3</v>
       </c>
       <c r="C22" s="12"/>
-      <c r="D22" s="47"/>
-      <c r="E22" s="47"/>
-      <c r="F22" s="47"/>
-      <c r="G22" s="49"/>
-      <c r="H22" s="47"/>
+      <c r="D22" s="51"/>
+      <c r="E22" s="51"/>
+      <c r="F22" s="51"/>
+      <c r="G22" s="57"/>
+      <c r="H22" s="51"/>
       <c r="I22" s="17"/>
     </row>
     <row r="23" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="57">
+      <c r="A23" s="46">
         <v>11</v>
       </c>
       <c r="B23" s="36" t="s">
         <v>1</v>
       </c>
       <c r="C23" s="18"/>
-      <c r="D23" s="50" t="s">
+      <c r="D23" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="E23" s="52" t="s">
+      <c r="E23" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="F23" s="50" t="s">
+      <c r="F23" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="G23" s="52" t="s">
+      <c r="G23" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="H23" s="50" t="s">
+      <c r="H23" s="52" t="s">
         <v>30</v>
       </c>
       <c r="I23" s="25"/>
     </row>
     <row r="24" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="59"/>
+      <c r="A24" s="48"/>
       <c r="B24" s="26" t="s">
         <v>2</v>
       </c>
       <c r="C24" s="17"/>
-      <c r="D24" s="51"/>
-      <c r="E24" s="53"/>
-      <c r="F24" s="51"/>
-      <c r="G24" s="53"/>
-      <c r="H24" s="51"/>
+      <c r="D24" s="53"/>
+      <c r="E24" s="56"/>
+      <c r="F24" s="53"/>
+      <c r="G24" s="56"/>
+      <c r="H24" s="53"/>
       <c r="I24" s="17"/>
     </row>
     <row r="25" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1764,11 +1774,11 @@
         <v>0</v>
       </c>
       <c r="C25" s="18"/>
-      <c r="D25" s="51"/>
-      <c r="E25" s="53"/>
-      <c r="F25" s="51"/>
-      <c r="G25" s="53"/>
-      <c r="H25" s="51"/>
+      <c r="D25" s="53"/>
+      <c r="E25" s="56"/>
+      <c r="F25" s="53"/>
+      <c r="G25" s="56"/>
+      <c r="H25" s="53"/>
       <c r="I25" s="18"/>
     </row>
     <row r="26" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1777,40 +1787,40 @@
         <v>3</v>
       </c>
       <c r="C26" s="12"/>
-      <c r="D26" s="47"/>
-      <c r="E26" s="49"/>
-      <c r="F26" s="47"/>
-      <c r="G26" s="49"/>
-      <c r="H26" s="47"/>
+      <c r="D26" s="51"/>
+      <c r="E26" s="57"/>
+      <c r="F26" s="51"/>
+      <c r="G26" s="57"/>
+      <c r="H26" s="51"/>
       <c r="I26" s="17"/>
     </row>
     <row r="27" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="57">
+      <c r="A27" s="46">
         <v>12</v>
       </c>
       <c r="B27" s="36" t="s">
         <v>8</v>
       </c>
       <c r="C27" s="18"/>
-      <c r="D27" s="50" t="s">
+      <c r="D27" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="E27" s="50" t="s">
+      <c r="E27" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="F27" s="50" t="s">
+      <c r="F27" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="G27" s="50" t="s">
+      <c r="G27" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="H27" s="50" t="s">
+      <c r="H27" s="52" t="s">
         <v>30</v>
       </c>
       <c r="I27" s="25"/>
     </row>
     <row r="28" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="59"/>
+      <c r="A28" s="48"/>
       <c r="B28" s="26" t="s">
         <v>2</v>
       </c>
@@ -1828,19 +1838,19 @@
         <v>0</v>
       </c>
       <c r="C29" s="18"/>
-      <c r="D29" s="46" t="s">
-        <v>31</v>
-      </c>
-      <c r="E29" s="50" t="s">
+      <c r="D29" s="58" t="s">
+        <v>31</v>
+      </c>
+      <c r="E29" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="F29" s="46" t="s">
-        <v>31</v>
-      </c>
-      <c r="G29" s="50" t="s">
+      <c r="F29" s="58" t="s">
+        <v>31</v>
+      </c>
+      <c r="G29" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="H29" s="46" t="s">
+      <c r="H29" s="58" t="s">
         <v>31</v>
       </c>
       <c r="I29" s="18"/>
@@ -1851,48 +1861,48 @@
         <v>3</v>
       </c>
       <c r="C30" s="12"/>
-      <c r="D30" s="47"/>
+      <c r="D30" s="51"/>
       <c r="E30" s="54"/>
-      <c r="F30" s="47"/>
+      <c r="F30" s="51"/>
       <c r="G30" s="54"/>
-      <c r="H30" s="47"/>
+      <c r="H30" s="51"/>
       <c r="I30" s="17"/>
     </row>
     <row r="31" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="57">
+      <c r="A31" s="46">
         <v>1</v>
       </c>
       <c r="B31" s="36" t="s">
         <v>8</v>
       </c>
       <c r="C31" s="18"/>
-      <c r="D31" s="50" t="s">
+      <c r="D31" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="E31" s="50" t="s">
+      <c r="E31" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="F31" s="50" t="s">
+      <c r="F31" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="G31" s="50" t="s">
+      <c r="G31" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="H31" s="50" t="s">
+      <c r="H31" s="52" t="s">
         <v>32</v>
       </c>
       <c r="I31" s="25"/>
     </row>
     <row r="32" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="59"/>
+      <c r="A32" s="48"/>
       <c r="B32" s="26" t="s">
         <v>2</v>
       </c>
       <c r="C32" s="17"/>
       <c r="D32" s="54"/>
-      <c r="E32" s="51"/>
+      <c r="E32" s="53"/>
       <c r="F32" s="54"/>
-      <c r="G32" s="51"/>
+      <c r="G32" s="53"/>
       <c r="H32" s="54"/>
       <c r="I32" s="17"/>
     </row>
@@ -1902,15 +1912,15 @@
         <v>0</v>
       </c>
       <c r="C33" s="18"/>
-      <c r="D33" s="48" t="s">
+      <c r="D33" s="59" t="s">
         <v>29</v>
       </c>
-      <c r="E33" s="51"/>
-      <c r="F33" s="46" t="s">
+      <c r="E33" s="53"/>
+      <c r="F33" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="G33" s="51"/>
-      <c r="H33" s="46" t="s">
+      <c r="G33" s="53"/>
+      <c r="H33" s="58" t="s">
         <v>29</v>
       </c>
       <c r="I33" s="18"/>
@@ -1921,49 +1931,49 @@
         <v>3</v>
       </c>
       <c r="C34" s="12"/>
-      <c r="D34" s="49"/>
-      <c r="E34" s="47"/>
-      <c r="F34" s="47"/>
-      <c r="G34" s="47"/>
-      <c r="H34" s="47"/>
+      <c r="D34" s="57"/>
+      <c r="E34" s="51"/>
+      <c r="F34" s="51"/>
+      <c r="G34" s="51"/>
+      <c r="H34" s="51"/>
       <c r="I34" s="17"/>
     </row>
     <row r="35" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="57">
+      <c r="A35" s="46">
         <v>2</v>
       </c>
       <c r="B35" s="36" t="s">
         <v>8</v>
       </c>
       <c r="C35" s="18"/>
-      <c r="D35" s="52" t="s">
+      <c r="D35" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="E35" s="50" t="s">
+      <c r="E35" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="F35" s="50" t="s">
+      <c r="F35" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="G35" s="50" t="s">
+      <c r="G35" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="H35" s="50" t="s">
+      <c r="H35" s="52" t="s">
         <v>29</v>
       </c>
       <c r="I35" s="25"/>
     </row>
     <row r="36" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="59"/>
+      <c r="A36" s="48"/>
       <c r="B36" s="26" t="s">
         <v>2</v>
       </c>
       <c r="C36" s="17"/>
-      <c r="D36" s="53"/>
-      <c r="E36" s="51"/>
-      <c r="F36" s="51"/>
-      <c r="G36" s="51"/>
-      <c r="H36" s="51"/>
+      <c r="D36" s="56"/>
+      <c r="E36" s="53"/>
+      <c r="F36" s="53"/>
+      <c r="G36" s="53"/>
+      <c r="H36" s="53"/>
       <c r="I36" s="17"/>
     </row>
     <row r="37" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1972,11 +1982,11 @@
         <v>0</v>
       </c>
       <c r="C37" s="18"/>
-      <c r="D37" s="53"/>
-      <c r="E37" s="51"/>
-      <c r="F37" s="51"/>
-      <c r="G37" s="51"/>
-      <c r="H37" s="51"/>
+      <c r="D37" s="56"/>
+      <c r="E37" s="53"/>
+      <c r="F37" s="53"/>
+      <c r="G37" s="53"/>
+      <c r="H37" s="53"/>
       <c r="I37" s="18"/>
     </row>
     <row r="38" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1985,49 +1995,49 @@
         <v>3</v>
       </c>
       <c r="C38" s="12"/>
-      <c r="D38" s="49"/>
-      <c r="E38" s="47"/>
-      <c r="F38" s="47"/>
-      <c r="G38" s="47"/>
-      <c r="H38" s="47"/>
+      <c r="D38" s="57"/>
+      <c r="E38" s="51"/>
+      <c r="F38" s="51"/>
+      <c r="G38" s="51"/>
+      <c r="H38" s="51"/>
       <c r="I38" s="17"/>
     </row>
     <row r="39" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="57">
+      <c r="A39" s="46">
         <v>3</v>
       </c>
       <c r="B39" s="36" t="s">
         <v>8</v>
       </c>
       <c r="C39" s="18"/>
-      <c r="D39" s="46" t="s">
+      <c r="D39" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="E39" s="52" t="s">
+      <c r="E39" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="F39" s="50" t="s">
+      <c r="F39" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="G39" s="50" t="s">
+      <c r="G39" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="H39" s="46" t="s">
+      <c r="H39" s="58" t="s">
         <v>29</v>
       </c>
       <c r="I39" s="25"/>
     </row>
     <row r="40" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="59"/>
+      <c r="A40" s="48"/>
       <c r="B40" s="26" t="s">
         <v>2</v>
       </c>
       <c r="C40" s="17"/>
-      <c r="D40" s="47"/>
-      <c r="E40" s="53"/>
-      <c r="F40" s="51"/>
-      <c r="G40" s="51"/>
-      <c r="H40" s="47"/>
+      <c r="D40" s="51"/>
+      <c r="E40" s="56"/>
+      <c r="F40" s="53"/>
+      <c r="G40" s="53"/>
+      <c r="H40" s="51"/>
       <c r="I40" s="17"/>
     </row>
     <row r="41" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2036,13 +2046,13 @@
         <v>0</v>
       </c>
       <c r="C41" s="18"/>
-      <c r="D41" s="52" t="s">
+      <c r="D41" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="E41" s="53"/>
-      <c r="F41" s="51"/>
-      <c r="G41" s="51"/>
-      <c r="H41" s="52" t="s">
+      <c r="E41" s="56"/>
+      <c r="F41" s="53"/>
+      <c r="G41" s="53"/>
+      <c r="H41" s="55" t="s">
         <v>33</v>
       </c>
       <c r="I41" s="18"/>
@@ -2053,49 +2063,49 @@
         <v>3</v>
       </c>
       <c r="C42" s="12"/>
-      <c r="D42" s="49"/>
-      <c r="E42" s="49"/>
-      <c r="F42" s="47"/>
-      <c r="G42" s="47"/>
-      <c r="H42" s="49"/>
+      <c r="D42" s="57"/>
+      <c r="E42" s="57"/>
+      <c r="F42" s="51"/>
+      <c r="G42" s="51"/>
+      <c r="H42" s="57"/>
       <c r="I42" s="17"/>
     </row>
     <row r="43" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="57">
+      <c r="A43" s="46">
         <v>4</v>
       </c>
       <c r="B43" s="36" t="s">
         <v>8</v>
       </c>
       <c r="C43" s="18"/>
-      <c r="D43" s="52" t="s">
+      <c r="D43" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="E43" s="52" t="s">
+      <c r="E43" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="F43" s="50" t="s">
+      <c r="F43" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="G43" s="50" t="s">
+      <c r="G43" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="H43" s="52" t="s">
+      <c r="H43" s="55" t="s">
         <v>33</v>
       </c>
       <c r="I43" s="25"/>
     </row>
     <row r="44" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="59"/>
+      <c r="A44" s="48"/>
       <c r="B44" s="26" t="s">
         <v>2</v>
       </c>
       <c r="C44" s="17"/>
-      <c r="D44" s="53"/>
-      <c r="E44" s="53"/>
-      <c r="F44" s="51"/>
-      <c r="G44" s="51"/>
-      <c r="H44" s="53"/>
+      <c r="D44" s="56"/>
+      <c r="E44" s="56"/>
+      <c r="F44" s="53"/>
+      <c r="G44" s="53"/>
+      <c r="H44" s="56"/>
       <c r="I44" s="17"/>
     </row>
     <row r="45" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2104,11 +2114,11 @@
         <v>0</v>
       </c>
       <c r="C45" s="18"/>
-      <c r="D45" s="53"/>
-      <c r="E45" s="53"/>
-      <c r="F45" s="51"/>
-      <c r="G45" s="51"/>
-      <c r="H45" s="53"/>
+      <c r="D45" s="56"/>
+      <c r="E45" s="56"/>
+      <c r="F45" s="53"/>
+      <c r="G45" s="53"/>
+      <c r="H45" s="56"/>
       <c r="I45" s="18"/>
     </row>
     <row r="46" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2117,129 +2127,129 @@
         <v>3</v>
       </c>
       <c r="C46" s="12"/>
-      <c r="D46" s="49"/>
-      <c r="E46" s="49"/>
-      <c r="F46" s="47"/>
-      <c r="G46" s="47"/>
-      <c r="H46" s="49"/>
+      <c r="D46" s="57"/>
+      <c r="E46" s="57"/>
+      <c r="F46" s="51"/>
+      <c r="G46" s="51"/>
+      <c r="H46" s="57"/>
       <c r="I46" s="17"/>
     </row>
     <row r="47" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="57">
+      <c r="A47" s="46">
         <v>5</v>
       </c>
       <c r="B47" s="36" t="s">
         <v>8</v>
       </c>
       <c r="C47" s="15"/>
-      <c r="D47" s="52" t="s">
+      <c r="D47" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="E47" s="46" t="s">
-        <v>31</v>
-      </c>
-      <c r="F47" s="50" t="s">
+      <c r="E47" s="58" t="s">
+        <v>31</v>
+      </c>
+      <c r="F47" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="G47" s="46" t="s">
-        <v>31</v>
-      </c>
-      <c r="H47" s="52" t="s">
+      <c r="G47" s="58" t="s">
+        <v>31</v>
+      </c>
+      <c r="H47" s="55" t="s">
         <v>33</v>
       </c>
       <c r="I47" s="15"/>
     </row>
     <row r="48" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="58"/>
+      <c r="A48" s="47"/>
       <c r="B48" s="33" t="s">
         <v>0</v>
       </c>
       <c r="C48" s="13"/>
-      <c r="D48" s="49"/>
-      <c r="E48" s="47"/>
-      <c r="F48" s="47"/>
-      <c r="G48" s="47"/>
-      <c r="H48" s="49"/>
+      <c r="D48" s="57"/>
+      <c r="E48" s="51"/>
+      <c r="F48" s="51"/>
+      <c r="G48" s="51"/>
+      <c r="H48" s="57"/>
       <c r="I48" s="13"/>
     </row>
     <row r="49" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="57">
+      <c r="A49" s="46">
         <v>6</v>
       </c>
       <c r="B49" s="36" t="s">
         <v>8</v>
       </c>
       <c r="C49" s="15"/>
-      <c r="D49" s="52" t="s">
+      <c r="D49" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="E49" s="48" t="s">
+      <c r="E49" s="59" t="s">
         <v>35</v>
       </c>
-      <c r="F49" s="50" t="s">
+      <c r="F49" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="G49" s="46" t="s">
-        <v>31</v>
-      </c>
-      <c r="H49" s="52" t="s">
+      <c r="G49" s="58" t="s">
+        <v>31</v>
+      </c>
+      <c r="H49" s="55" t="s">
         <v>33</v>
       </c>
       <c r="I49" s="15"/>
     </row>
     <row r="50" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="58"/>
+      <c r="A50" s="47"/>
       <c r="B50" s="33" t="s">
         <v>0</v>
       </c>
       <c r="C50" s="13"/>
-      <c r="D50" s="49"/>
-      <c r="E50" s="49"/>
-      <c r="F50" s="47"/>
-      <c r="G50" s="47"/>
-      <c r="H50" s="49"/>
+      <c r="D50" s="57"/>
+      <c r="E50" s="57"/>
+      <c r="F50" s="51"/>
+      <c r="G50" s="51"/>
+      <c r="H50" s="57"/>
       <c r="I50" s="13"/>
     </row>
     <row r="51" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="57">
+      <c r="A51" s="46">
         <v>7</v>
       </c>
       <c r="B51" s="36" t="s">
         <v>8</v>
       </c>
       <c r="C51" s="15"/>
-      <c r="D51" s="46" t="s">
-        <v>31</v>
-      </c>
-      <c r="E51" s="48" t="s">
+      <c r="D51" s="58" t="s">
+        <v>31</v>
+      </c>
+      <c r="E51" s="59" t="s">
         <v>35</v>
       </c>
-      <c r="F51" s="46" t="s">
-        <v>31</v>
-      </c>
-      <c r="G51" s="46" t="s">
-        <v>31</v>
-      </c>
-      <c r="H51" s="46" t="s">
+      <c r="F51" s="58" t="s">
+        <v>31</v>
+      </c>
+      <c r="G51" s="58" t="s">
+        <v>31</v>
+      </c>
+      <c r="H51" s="58" t="s">
         <v>31</v>
       </c>
       <c r="I51" s="15"/>
     </row>
     <row r="52" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="58"/>
+      <c r="A52" s="47"/>
       <c r="B52" s="33" t="s">
         <v>0</v>
       </c>
       <c r="C52" s="13"/>
-      <c r="D52" s="47"/>
-      <c r="E52" s="49"/>
-      <c r="F52" s="47"/>
-      <c r="G52" s="47"/>
-      <c r="H52" s="47"/>
+      <c r="D52" s="51"/>
+      <c r="E52" s="57"/>
+      <c r="F52" s="51"/>
+      <c r="G52" s="51"/>
+      <c r="H52" s="51"/>
       <c r="I52" s="13"/>
     </row>
     <row r="53" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="57">
+      <c r="A53" s="46">
         <v>8</v>
       </c>
       <c r="B53" s="36" t="s">
@@ -2249,7 +2259,7 @@
       <c r="D53" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="E53" s="48" t="s">
+      <c r="E53" s="59" t="s">
         <v>35</v>
       </c>
       <c r="F53" s="16" t="s">
@@ -2264,7 +2274,7 @@
       <c r="I53" s="15"/>
     </row>
     <row r="54" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="58"/>
+      <c r="A54" s="47"/>
       <c r="B54" s="33" t="s">
         <v>0</v>
       </c>
@@ -2272,7 +2282,7 @@
       <c r="D54" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="E54" s="49"/>
+      <c r="E54" s="57"/>
       <c r="F54" s="14" t="s">
         <v>31</v>
       </c>
@@ -2285,130 +2295,47 @@
       <c r="I54" s="13"/>
     </row>
     <row r="55" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="57">
+      <c r="A55" s="46">
         <v>9</v>
       </c>
       <c r="B55" s="36" t="s">
         <v>8</v>
       </c>
       <c r="C55" s="15"/>
-      <c r="D55" s="46" t="s">
+      <c r="D55" s="58" t="s">
         <v>31</v>
       </c>
       <c r="E55" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="F55" s="46" t="s">
-        <v>31</v>
-      </c>
-      <c r="G55" s="46" t="s">
-        <v>31</v>
-      </c>
-      <c r="H55" s="46" t="s">
+      <c r="F55" s="58" t="s">
+        <v>31</v>
+      </c>
+      <c r="G55" s="58" t="s">
+        <v>31</v>
+      </c>
+      <c r="H55" s="58" t="s">
         <v>31</v>
       </c>
       <c r="I55" s="15"/>
     </row>
     <row r="56" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="58"/>
+      <c r="A56" s="47"/>
       <c r="B56" s="33" t="s">
         <v>0</v>
       </c>
       <c r="C56" s="13"/>
-      <c r="D56" s="47"/>
+      <c r="D56" s="51"/>
       <c r="E56" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="F56" s="47"/>
-      <c r="G56" s="47"/>
-      <c r="H56" s="47"/>
+      <c r="F56" s="51"/>
+      <c r="G56" s="51"/>
+      <c r="H56" s="51"/>
       <c r="I56" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="107">
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="D7:D10"/>
-    <mergeCell ref="D11:D14"/>
-    <mergeCell ref="D19:D22"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="D35:D38"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="F7:F10"/>
-    <mergeCell ref="H7:H10"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="E15:E18"/>
-    <mergeCell ref="G15:G18"/>
-    <mergeCell ref="E11:E14"/>
-    <mergeCell ref="F11:F14"/>
-    <mergeCell ref="G11:G14"/>
-    <mergeCell ref="H11:H14"/>
-    <mergeCell ref="F19:F22"/>
-    <mergeCell ref="H19:H22"/>
-    <mergeCell ref="D23:D26"/>
-    <mergeCell ref="F23:F26"/>
-    <mergeCell ref="H23:H26"/>
-    <mergeCell ref="E19:E22"/>
-    <mergeCell ref="G19:G22"/>
-    <mergeCell ref="E23:E26"/>
-    <mergeCell ref="G23:G26"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="H31:H32"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="H33:H34"/>
-    <mergeCell ref="E31:E34"/>
-    <mergeCell ref="G31:G34"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="G51:G52"/>
-    <mergeCell ref="F35:F38"/>
-    <mergeCell ref="H35:H38"/>
-    <mergeCell ref="D43:D46"/>
-    <mergeCell ref="H43:H46"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="H39:H40"/>
-    <mergeCell ref="H41:H42"/>
-    <mergeCell ref="E35:E38"/>
-    <mergeCell ref="G35:G38"/>
     <mergeCell ref="G55:G56"/>
     <mergeCell ref="E53:E54"/>
     <mergeCell ref="D55:D56"/>
@@ -2433,6 +2360,89 @@
     <mergeCell ref="D51:D52"/>
     <mergeCell ref="F51:F52"/>
     <mergeCell ref="H51:H52"/>
+    <mergeCell ref="G51:G52"/>
+    <mergeCell ref="F35:F38"/>
+    <mergeCell ref="H35:H38"/>
+    <mergeCell ref="D43:D46"/>
+    <mergeCell ref="H43:H46"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="E35:E38"/>
+    <mergeCell ref="G35:G38"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="H33:H34"/>
+    <mergeCell ref="E31:E34"/>
+    <mergeCell ref="G31:G34"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="F19:F22"/>
+    <mergeCell ref="H19:H22"/>
+    <mergeCell ref="D23:D26"/>
+    <mergeCell ref="F23:F26"/>
+    <mergeCell ref="H23:H26"/>
+    <mergeCell ref="E19:E22"/>
+    <mergeCell ref="G19:G22"/>
+    <mergeCell ref="E23:E26"/>
+    <mergeCell ref="G23:G26"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="E15:E18"/>
+    <mergeCell ref="G15:G18"/>
+    <mergeCell ref="E11:E14"/>
+    <mergeCell ref="F11:F14"/>
+    <mergeCell ref="G11:G14"/>
+    <mergeCell ref="H11:H14"/>
+    <mergeCell ref="F7:F10"/>
+    <mergeCell ref="H7:H10"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="D7:D10"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="D19:D22"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="D35:D38"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="A43:A44"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -2490,10 +2500,10 @@
       <c r="I2" s="22"/>
     </row>
     <row r="3" spans="1:9" s="23" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="56" t="s">
+      <c r="A3" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="56"/>
+      <c r="B3" s="49"/>
       <c r="G3" s="24" t="s">
         <v>27</v>
       </c>
@@ -2527,79 +2537,79 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="57">
+      <c r="A5" s="46">
         <v>6</v>
       </c>
       <c r="B5" s="36" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="44"/>
-      <c r="D5" s="55" t="s">
+      <c r="D5" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="55" t="s">
+      <c r="E5" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="55" t="s">
+      <c r="F5" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="55" t="s">
+      <c r="G5" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="55" t="s">
+      <c r="H5" s="50" t="s">
         <v>18</v>
       </c>
       <c r="I5" s="44"/>
     </row>
     <row r="6" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="58"/>
+      <c r="A6" s="47"/>
       <c r="B6" s="33" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="45"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="47"/>
-      <c r="H6" s="47"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="51"/>
+      <c r="F6" s="51"/>
+      <c r="G6" s="51"/>
+      <c r="H6" s="51"/>
       <c r="I6" s="45"/>
     </row>
     <row r="7" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="57">
+      <c r="A7" s="46">
         <v>7</v>
       </c>
       <c r="B7" s="36" t="s">
         <v>1</v>
       </c>
       <c r="C7" s="42"/>
-      <c r="D7" s="50" t="s">
+      <c r="D7" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="50" t="s">
+      <c r="E7" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="50" t="s">
+      <c r="F7" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="G7" s="50" t="s">
+      <c r="G7" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="H7" s="50" t="s">
+      <c r="H7" s="52" t="s">
         <v>18</v>
       </c>
       <c r="I7" s="44"/>
     </row>
     <row r="8" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="59"/>
+      <c r="A8" s="48"/>
       <c r="B8" s="26" t="s">
         <v>2</v>
       </c>
       <c r="C8" s="43"/>
-      <c r="D8" s="51"/>
-      <c r="E8" s="51"/>
-      <c r="F8" s="51"/>
-      <c r="G8" s="51"/>
-      <c r="H8" s="51"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="53"/>
+      <c r="G8" s="53"/>
+      <c r="H8" s="53"/>
       <c r="I8" s="43"/>
     </row>
     <row r="9" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -2608,15 +2618,15 @@
         <v>0</v>
       </c>
       <c r="C9" s="43"/>
-      <c r="D9" s="51"/>
-      <c r="E9" s="53" t="s">
+      <c r="D9" s="53"/>
+      <c r="E9" s="56" t="s">
         <v>28</v>
       </c>
-      <c r="F9" s="51"/>
-      <c r="G9" s="53" t="s">
+      <c r="F9" s="53"/>
+      <c r="G9" s="56" t="s">
         <v>28</v>
       </c>
-      <c r="H9" s="51"/>
+      <c r="H9" s="53"/>
       <c r="I9" s="43"/>
     </row>
     <row r="10" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -2625,49 +2635,49 @@
         <v>3</v>
       </c>
       <c r="C10" s="45"/>
-      <c r="D10" s="47"/>
-      <c r="E10" s="49"/>
-      <c r="F10" s="47"/>
-      <c r="G10" s="49"/>
-      <c r="H10" s="47"/>
+      <c r="D10" s="51"/>
+      <c r="E10" s="57"/>
+      <c r="F10" s="51"/>
+      <c r="G10" s="57"/>
+      <c r="H10" s="51"/>
       <c r="I10" s="45"/>
     </row>
     <row r="11" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="57">
+      <c r="A11" s="46">
         <v>8</v>
       </c>
       <c r="B11" s="36" t="s">
         <v>1</v>
       </c>
       <c r="C11" s="42"/>
-      <c r="D11" s="50" t="s">
+      <c r="D11" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="52" t="s">
+      <c r="E11" s="55" t="s">
         <v>36</v>
       </c>
-      <c r="F11" s="50" t="s">
+      <c r="F11" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="G11" s="52" t="s">
+      <c r="G11" s="55" t="s">
         <v>36</v>
       </c>
-      <c r="H11" s="50" t="s">
+      <c r="H11" s="52" t="s">
         <v>18</v>
       </c>
       <c r="I11" s="42"/>
     </row>
     <row r="12" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="59"/>
+      <c r="A12" s="48"/>
       <c r="B12" s="26" t="s">
         <v>2</v>
       </c>
       <c r="C12" s="43"/>
-      <c r="D12" s="51"/>
-      <c r="E12" s="53"/>
-      <c r="F12" s="51"/>
-      <c r="G12" s="53"/>
-      <c r="H12" s="51"/>
+      <c r="D12" s="53"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="53"/>
+      <c r="G12" s="56"/>
+      <c r="H12" s="53"/>
       <c r="I12" s="43"/>
     </row>
     <row r="13" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -2676,11 +2686,11 @@
         <v>0</v>
       </c>
       <c r="C13" s="43"/>
-      <c r="D13" s="51"/>
-      <c r="E13" s="53"/>
-      <c r="F13" s="51"/>
-      <c r="G13" s="53"/>
-      <c r="H13" s="51"/>
+      <c r="D13" s="53"/>
+      <c r="E13" s="56"/>
+      <c r="F13" s="53"/>
+      <c r="G13" s="56"/>
+      <c r="H13" s="53"/>
       <c r="I13" s="43"/>
     </row>
     <row r="14" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -2689,48 +2699,48 @@
         <v>3</v>
       </c>
       <c r="C14" s="45"/>
-      <c r="D14" s="47"/>
-      <c r="E14" s="49"/>
-      <c r="F14" s="47"/>
-      <c r="G14" s="49"/>
-      <c r="H14" s="47"/>
+      <c r="D14" s="51"/>
+      <c r="E14" s="57"/>
+      <c r="F14" s="51"/>
+      <c r="G14" s="57"/>
+      <c r="H14" s="51"/>
       <c r="I14" s="45"/>
     </row>
     <row r="15" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="57">
+      <c r="A15" s="46">
         <v>9</v>
       </c>
       <c r="B15" s="36" t="s">
         <v>1</v>
       </c>
       <c r="C15" s="18"/>
-      <c r="D15" s="50" t="s">
+      <c r="D15" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="E15" s="52" t="s">
+      <c r="E15" s="55" t="s">
         <v>36</v>
       </c>
-      <c r="F15" s="50" t="s">
+      <c r="F15" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="G15" s="52" t="s">
+      <c r="G15" s="55" t="s">
         <v>36</v>
       </c>
-      <c r="H15" s="50" t="s">
+      <c r="H15" s="52" t="s">
         <v>28</v>
       </c>
       <c r="I15" s="42"/>
     </row>
     <row r="16" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="59"/>
+      <c r="A16" s="48"/>
       <c r="B16" s="26" t="s">
         <v>2</v>
       </c>
       <c r="C16" s="17"/>
       <c r="D16" s="54"/>
-      <c r="E16" s="53"/>
+      <c r="E16" s="56"/>
       <c r="F16" s="54"/>
-      <c r="G16" s="53"/>
+      <c r="G16" s="56"/>
       <c r="H16" s="54"/>
       <c r="I16" s="43"/>
     </row>
@@ -2740,15 +2750,15 @@
         <v>0</v>
       </c>
       <c r="C17" s="18"/>
-      <c r="D17" s="46" t="s">
+      <c r="D17" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="E17" s="53"/>
-      <c r="F17" s="46" t="s">
+      <c r="E17" s="56"/>
+      <c r="F17" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="G17" s="53"/>
-      <c r="H17" s="46" t="s">
+      <c r="G17" s="56"/>
+      <c r="H17" s="58" t="s">
         <v>29</v>
       </c>
       <c r="I17" s="43"/>
@@ -2759,49 +2769,49 @@
         <v>3</v>
       </c>
       <c r="C18" s="12"/>
-      <c r="D18" s="47"/>
-      <c r="E18" s="49"/>
-      <c r="F18" s="47"/>
-      <c r="G18" s="49"/>
-      <c r="H18" s="47"/>
+      <c r="D18" s="51"/>
+      <c r="E18" s="57"/>
+      <c r="F18" s="51"/>
+      <c r="G18" s="57"/>
+      <c r="H18" s="51"/>
       <c r="I18" s="45"/>
     </row>
     <row r="19" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="57">
+      <c r="A19" s="46">
         <v>10</v>
       </c>
       <c r="B19" s="36" t="s">
         <v>1</v>
       </c>
       <c r="C19" s="18"/>
-      <c r="D19" s="52" t="s">
+      <c r="D19" s="55" t="s">
         <v>30</v>
       </c>
-      <c r="E19" s="50" t="s">
+      <c r="E19" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="F19" s="50" t="s">
+      <c r="F19" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="G19" s="50" t="s">
+      <c r="G19" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="H19" s="50" t="s">
+      <c r="H19" s="52" t="s">
         <v>30</v>
       </c>
       <c r="I19" s="25"/>
     </row>
     <row r="20" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="59"/>
+      <c r="A20" s="48"/>
       <c r="B20" s="26" t="s">
         <v>2</v>
       </c>
       <c r="C20" s="17"/>
-      <c r="D20" s="53"/>
-      <c r="E20" s="51"/>
-      <c r="F20" s="51"/>
-      <c r="G20" s="51"/>
-      <c r="H20" s="51"/>
+      <c r="D20" s="56"/>
+      <c r="E20" s="53"/>
+      <c r="F20" s="53"/>
+      <c r="G20" s="53"/>
+      <c r="H20" s="53"/>
       <c r="I20" s="17"/>
     </row>
     <row r="21" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -2810,11 +2820,11 @@
         <v>0</v>
       </c>
       <c r="C21" s="18"/>
-      <c r="D21" s="53"/>
-      <c r="E21" s="51"/>
-      <c r="F21" s="51"/>
-      <c r="G21" s="51"/>
-      <c r="H21" s="51"/>
+      <c r="D21" s="56"/>
+      <c r="E21" s="53"/>
+      <c r="F21" s="53"/>
+      <c r="G21" s="53"/>
+      <c r="H21" s="53"/>
       <c r="I21" s="18"/>
     </row>
     <row r="22" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -2823,49 +2833,49 @@
         <v>3</v>
       </c>
       <c r="C22" s="12"/>
-      <c r="D22" s="49"/>
-      <c r="E22" s="47"/>
-      <c r="F22" s="47"/>
-      <c r="G22" s="47"/>
-      <c r="H22" s="47"/>
+      <c r="D22" s="57"/>
+      <c r="E22" s="51"/>
+      <c r="F22" s="51"/>
+      <c r="G22" s="51"/>
+      <c r="H22" s="51"/>
       <c r="I22" s="17"/>
     </row>
     <row r="23" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="57">
+      <c r="A23" s="46">
         <v>11</v>
       </c>
       <c r="B23" s="36" t="s">
         <v>1</v>
       </c>
       <c r="C23" s="18"/>
-      <c r="D23" s="52" t="s">
+      <c r="D23" s="55" t="s">
         <v>30</v>
       </c>
-      <c r="E23" s="52" t="s">
+      <c r="E23" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="F23" s="50" t="s">
+      <c r="F23" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="G23" s="52" t="s">
+      <c r="G23" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="H23" s="50" t="s">
+      <c r="H23" s="52" t="s">
         <v>30</v>
       </c>
       <c r="I23" s="25"/>
     </row>
     <row r="24" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="59"/>
+      <c r="A24" s="48"/>
       <c r="B24" s="26" t="s">
         <v>2</v>
       </c>
       <c r="C24" s="17"/>
-      <c r="D24" s="53"/>
-      <c r="E24" s="53"/>
-      <c r="F24" s="51"/>
-      <c r="G24" s="53"/>
-      <c r="H24" s="51"/>
+      <c r="D24" s="56"/>
+      <c r="E24" s="56"/>
+      <c r="F24" s="53"/>
+      <c r="G24" s="56"/>
+      <c r="H24" s="53"/>
       <c r="I24" s="17"/>
     </row>
     <row r="25" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -2874,11 +2884,11 @@
         <v>0</v>
       </c>
       <c r="C25" s="18"/>
-      <c r="D25" s="53"/>
-      <c r="E25" s="53"/>
-      <c r="F25" s="51"/>
-      <c r="G25" s="53"/>
-      <c r="H25" s="51"/>
+      <c r="D25" s="56"/>
+      <c r="E25" s="56"/>
+      <c r="F25" s="53"/>
+      <c r="G25" s="56"/>
+      <c r="H25" s="53"/>
       <c r="I25" s="18"/>
     </row>
     <row r="26" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -2887,40 +2897,40 @@
         <v>3</v>
       </c>
       <c r="C26" s="12"/>
-      <c r="D26" s="49"/>
-      <c r="E26" s="49"/>
-      <c r="F26" s="47"/>
-      <c r="G26" s="49"/>
-      <c r="H26" s="47"/>
+      <c r="D26" s="57"/>
+      <c r="E26" s="57"/>
+      <c r="F26" s="51"/>
+      <c r="G26" s="57"/>
+      <c r="H26" s="51"/>
       <c r="I26" s="17"/>
     </row>
     <row r="27" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="57">
+      <c r="A27" s="46">
         <v>12</v>
       </c>
       <c r="B27" s="36" t="s">
         <v>8</v>
       </c>
       <c r="C27" s="18"/>
-      <c r="D27" s="52" t="s">
+      <c r="D27" s="55" t="s">
         <v>30</v>
       </c>
-      <c r="E27" s="50" t="s">
+      <c r="E27" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="F27" s="50" t="s">
+      <c r="F27" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="G27" s="50" t="s">
+      <c r="G27" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="H27" s="50" t="s">
+      <c r="H27" s="52" t="s">
         <v>30</v>
       </c>
       <c r="I27" s="25"/>
     </row>
     <row r="28" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="59"/>
+      <c r="A28" s="48"/>
       <c r="B28" s="26" t="s">
         <v>2</v>
       </c>
@@ -2938,19 +2948,19 @@
         <v>0</v>
       </c>
       <c r="C29" s="18"/>
-      <c r="D29" s="46" t="s">
-        <v>31</v>
-      </c>
-      <c r="E29" s="50" t="s">
+      <c r="D29" s="58" t="s">
+        <v>31</v>
+      </c>
+      <c r="E29" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="F29" s="46" t="s">
-        <v>31</v>
-      </c>
-      <c r="G29" s="50" t="s">
+      <c r="F29" s="58" t="s">
+        <v>31</v>
+      </c>
+      <c r="G29" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="H29" s="46" t="s">
+      <c r="H29" s="58" t="s">
         <v>31</v>
       </c>
       <c r="I29" s="18"/>
@@ -2961,48 +2971,48 @@
         <v>3</v>
       </c>
       <c r="C30" s="12"/>
-      <c r="D30" s="47"/>
+      <c r="D30" s="51"/>
       <c r="E30" s="54"/>
-      <c r="F30" s="47"/>
+      <c r="F30" s="51"/>
       <c r="G30" s="54"/>
-      <c r="H30" s="47"/>
+      <c r="H30" s="51"/>
       <c r="I30" s="17"/>
     </row>
     <row r="31" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="57">
+      <c r="A31" s="46">
         <v>1</v>
       </c>
       <c r="B31" s="36" t="s">
         <v>8</v>
       </c>
       <c r="C31" s="18"/>
-      <c r="D31" s="50" t="s">
+      <c r="D31" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="E31" s="50" t="s">
+      <c r="E31" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="F31" s="50" t="s">
+      <c r="F31" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="G31" s="50" t="s">
+      <c r="G31" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="H31" s="50" t="s">
+      <c r="H31" s="52" t="s">
         <v>32</v>
       </c>
       <c r="I31" s="25"/>
     </row>
     <row r="32" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="59"/>
+      <c r="A32" s="48"/>
       <c r="B32" s="26" t="s">
         <v>2</v>
       </c>
       <c r="C32" s="17"/>
       <c r="D32" s="54"/>
-      <c r="E32" s="51"/>
+      <c r="E32" s="53"/>
       <c r="F32" s="54"/>
-      <c r="G32" s="51"/>
+      <c r="G32" s="53"/>
       <c r="H32" s="54"/>
       <c r="I32" s="17"/>
     </row>
@@ -3012,15 +3022,15 @@
         <v>0</v>
       </c>
       <c r="C33" s="18"/>
-      <c r="D33" s="46" t="s">
+      <c r="D33" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="E33" s="51"/>
-      <c r="F33" s="46" t="s">
+      <c r="E33" s="53"/>
+      <c r="F33" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="G33" s="51"/>
-      <c r="H33" s="46" t="s">
+      <c r="G33" s="53"/>
+      <c r="H33" s="58" t="s">
         <v>29</v>
       </c>
       <c r="I33" s="18"/>
@@ -3031,49 +3041,49 @@
         <v>3</v>
       </c>
       <c r="C34" s="12"/>
-      <c r="D34" s="47"/>
-      <c r="E34" s="47"/>
-      <c r="F34" s="47"/>
-      <c r="G34" s="47"/>
-      <c r="H34" s="47"/>
+      <c r="D34" s="51"/>
+      <c r="E34" s="51"/>
+      <c r="F34" s="51"/>
+      <c r="G34" s="51"/>
+      <c r="H34" s="51"/>
       <c r="I34" s="17"/>
     </row>
     <row r="35" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="57">
+      <c r="A35" s="46">
         <v>2</v>
       </c>
       <c r="B35" s="36" t="s">
         <v>8</v>
       </c>
       <c r="C35" s="18"/>
-      <c r="D35" s="50" t="s">
+      <c r="D35" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="E35" s="50" t="s">
+      <c r="E35" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="F35" s="50" t="s">
+      <c r="F35" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="G35" s="50" t="s">
+      <c r="G35" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="H35" s="50" t="s">
+      <c r="H35" s="52" t="s">
         <v>29</v>
       </c>
       <c r="I35" s="25"/>
     </row>
     <row r="36" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="59"/>
+      <c r="A36" s="48"/>
       <c r="B36" s="26" t="s">
         <v>2</v>
       </c>
       <c r="C36" s="17"/>
-      <c r="D36" s="51"/>
-      <c r="E36" s="51"/>
-      <c r="F36" s="51"/>
-      <c r="G36" s="51"/>
-      <c r="H36" s="51"/>
+      <c r="D36" s="53"/>
+      <c r="E36" s="53"/>
+      <c r="F36" s="53"/>
+      <c r="G36" s="53"/>
+      <c r="H36" s="53"/>
       <c r="I36" s="17"/>
     </row>
     <row r="37" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -3082,11 +3092,11 @@
         <v>0</v>
       </c>
       <c r="C37" s="18"/>
-      <c r="D37" s="51"/>
-      <c r="E37" s="51"/>
-      <c r="F37" s="51"/>
-      <c r="G37" s="51"/>
-      <c r="H37" s="51"/>
+      <c r="D37" s="53"/>
+      <c r="E37" s="53"/>
+      <c r="F37" s="53"/>
+      <c r="G37" s="53"/>
+      <c r="H37" s="53"/>
       <c r="I37" s="18"/>
     </row>
     <row r="38" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -3095,49 +3105,49 @@
         <v>3</v>
       </c>
       <c r="C38" s="12"/>
-      <c r="D38" s="47"/>
-      <c r="E38" s="47"/>
-      <c r="F38" s="47"/>
-      <c r="G38" s="47"/>
-      <c r="H38" s="47"/>
+      <c r="D38" s="51"/>
+      <c r="E38" s="51"/>
+      <c r="F38" s="51"/>
+      <c r="G38" s="51"/>
+      <c r="H38" s="51"/>
       <c r="I38" s="17"/>
     </row>
     <row r="39" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="57">
+      <c r="A39" s="46">
         <v>3</v>
       </c>
       <c r="B39" s="36" t="s">
         <v>8</v>
       </c>
       <c r="C39" s="18"/>
-      <c r="D39" s="46" t="s">
+      <c r="D39" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="E39" s="52" t="s">
+      <c r="E39" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="F39" s="50" t="s">
+      <c r="F39" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="G39" s="52" t="s">
+      <c r="G39" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="H39" s="46" t="s">
+      <c r="H39" s="58" t="s">
         <v>29</v>
       </c>
       <c r="I39" s="25"/>
     </row>
     <row r="40" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="59"/>
+      <c r="A40" s="48"/>
       <c r="B40" s="26" t="s">
         <v>2</v>
       </c>
       <c r="C40" s="17"/>
-      <c r="D40" s="47"/>
-      <c r="E40" s="53"/>
-      <c r="F40" s="51"/>
-      <c r="G40" s="53"/>
-      <c r="H40" s="47"/>
+      <c r="D40" s="51"/>
+      <c r="E40" s="56"/>
+      <c r="F40" s="53"/>
+      <c r="G40" s="56"/>
+      <c r="H40" s="51"/>
       <c r="I40" s="17"/>
     </row>
     <row r="41" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
@@ -3146,13 +3156,13 @@
         <v>0</v>
       </c>
       <c r="C41" s="18"/>
-      <c r="D41" s="52" t="s">
+      <c r="D41" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="E41" s="53"/>
-      <c r="F41" s="51"/>
-      <c r="G41" s="53"/>
-      <c r="H41" s="52" t="s">
+      <c r="E41" s="56"/>
+      <c r="F41" s="53"/>
+      <c r="G41" s="56"/>
+      <c r="H41" s="55" t="s">
         <v>33</v>
       </c>
       <c r="I41" s="18"/>
@@ -3163,49 +3173,49 @@
         <v>3</v>
       </c>
       <c r="C42" s="12"/>
-      <c r="D42" s="49"/>
-      <c r="E42" s="49"/>
-      <c r="F42" s="47"/>
-      <c r="G42" s="49"/>
-      <c r="H42" s="49"/>
+      <c r="D42" s="57"/>
+      <c r="E42" s="57"/>
+      <c r="F42" s="51"/>
+      <c r="G42" s="57"/>
+      <c r="H42" s="57"/>
       <c r="I42" s="17"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A43" s="57">
+      <c r="A43" s="46">
         <v>4</v>
       </c>
       <c r="B43" s="36" t="s">
         <v>8</v>
       </c>
       <c r="C43" s="18"/>
-      <c r="D43" s="52" t="s">
+      <c r="D43" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="E43" s="50" t="s">
+      <c r="E43" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="F43" s="50" t="s">
+      <c r="F43" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="G43" s="50" t="s">
+      <c r="G43" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="H43" s="52" t="s">
+      <c r="H43" s="55" t="s">
         <v>33</v>
       </c>
       <c r="I43" s="25"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A44" s="59"/>
+      <c r="A44" s="48"/>
       <c r="B44" s="26" t="s">
         <v>2</v>
       </c>
       <c r="C44" s="17"/>
-      <c r="D44" s="53"/>
-      <c r="E44" s="51"/>
-      <c r="F44" s="51"/>
-      <c r="G44" s="51"/>
-      <c r="H44" s="53"/>
+      <c r="D44" s="56"/>
+      <c r="E44" s="53"/>
+      <c r="F44" s="53"/>
+      <c r="G44" s="53"/>
+      <c r="H44" s="56"/>
       <c r="I44" s="17"/>
     </row>
     <row r="45" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
@@ -3214,11 +3224,11 @@
         <v>0</v>
       </c>
       <c r="C45" s="18"/>
-      <c r="D45" s="53"/>
-      <c r="E45" s="51"/>
-      <c r="F45" s="51"/>
-      <c r="G45" s="51"/>
-      <c r="H45" s="53"/>
+      <c r="D45" s="56"/>
+      <c r="E45" s="53"/>
+      <c r="F45" s="53"/>
+      <c r="G45" s="53"/>
+      <c r="H45" s="56"/>
       <c r="I45" s="18"/>
     </row>
     <row r="46" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
@@ -3227,129 +3237,129 @@
         <v>3</v>
       </c>
       <c r="C46" s="12"/>
-      <c r="D46" s="49"/>
-      <c r="E46" s="47"/>
-      <c r="F46" s="47"/>
-      <c r="G46" s="47"/>
-      <c r="H46" s="49"/>
+      <c r="D46" s="57"/>
+      <c r="E46" s="51"/>
+      <c r="F46" s="51"/>
+      <c r="G46" s="51"/>
+      <c r="H46" s="57"/>
       <c r="I46" s="17"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A47" s="57">
+      <c r="A47" s="46">
         <v>5</v>
       </c>
       <c r="B47" s="36" t="s">
         <v>8</v>
       </c>
       <c r="C47" s="15"/>
-      <c r="D47" s="52" t="s">
+      <c r="D47" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="E47" s="46" t="s">
-        <v>31</v>
-      </c>
-      <c r="F47" s="50" t="s">
+      <c r="E47" s="58" t="s">
+        <v>31</v>
+      </c>
+      <c r="F47" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="G47" s="46" t="s">
-        <v>31</v>
-      </c>
-      <c r="H47" s="52" t="s">
+      <c r="G47" s="58" t="s">
+        <v>31</v>
+      </c>
+      <c r="H47" s="55" t="s">
         <v>33</v>
       </c>
       <c r="I47" s="15"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A48" s="58"/>
+      <c r="A48" s="47"/>
       <c r="B48" s="33" t="s">
         <v>0</v>
       </c>
       <c r="C48" s="13"/>
-      <c r="D48" s="49"/>
-      <c r="E48" s="47"/>
-      <c r="F48" s="47"/>
-      <c r="G48" s="47"/>
-      <c r="H48" s="49"/>
+      <c r="D48" s="57"/>
+      <c r="E48" s="51"/>
+      <c r="F48" s="51"/>
+      <c r="G48" s="51"/>
+      <c r="H48" s="57"/>
       <c r="I48" s="13"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A49" s="57">
+      <c r="A49" s="46">
         <v>6</v>
       </c>
       <c r="B49" s="36" t="s">
         <v>8</v>
       </c>
       <c r="C49" s="15"/>
-      <c r="D49" s="52" t="s">
+      <c r="D49" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="E49" s="48" t="s">
+      <c r="E49" s="59" t="s">
         <v>35</v>
       </c>
-      <c r="F49" s="50" t="s">
+      <c r="F49" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="G49" s="46" t="s">
-        <v>31</v>
-      </c>
-      <c r="H49" s="52" t="s">
+      <c r="G49" s="58" t="s">
+        <v>31</v>
+      </c>
+      <c r="H49" s="55" t="s">
         <v>33</v>
       </c>
       <c r="I49" s="15"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A50" s="58"/>
+      <c r="A50" s="47"/>
       <c r="B50" s="33" t="s">
         <v>0</v>
       </c>
       <c r="C50" s="13"/>
-      <c r="D50" s="49"/>
-      <c r="E50" s="49"/>
-      <c r="F50" s="47"/>
-      <c r="G50" s="47"/>
-      <c r="H50" s="49"/>
+      <c r="D50" s="57"/>
+      <c r="E50" s="57"/>
+      <c r="F50" s="51"/>
+      <c r="G50" s="51"/>
+      <c r="H50" s="57"/>
       <c r="I50" s="13"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A51" s="57">
+      <c r="A51" s="46">
         <v>7</v>
       </c>
       <c r="B51" s="36" t="s">
         <v>8</v>
       </c>
       <c r="C51" s="15"/>
-      <c r="D51" s="46" t="s">
-        <v>31</v>
-      </c>
-      <c r="E51" s="48" t="s">
+      <c r="D51" s="58" t="s">
+        <v>31</v>
+      </c>
+      <c r="E51" s="59" t="s">
         <v>35</v>
       </c>
-      <c r="F51" s="46" t="s">
-        <v>31</v>
-      </c>
-      <c r="G51" s="46" t="s">
-        <v>31</v>
-      </c>
-      <c r="H51" s="46" t="s">
+      <c r="F51" s="58" t="s">
+        <v>31</v>
+      </c>
+      <c r="G51" s="58" t="s">
+        <v>31</v>
+      </c>
+      <c r="H51" s="58" t="s">
         <v>31</v>
       </c>
       <c r="I51" s="15"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A52" s="58"/>
+      <c r="A52" s="47"/>
       <c r="B52" s="33" t="s">
         <v>0</v>
       </c>
       <c r="C52" s="13"/>
-      <c r="D52" s="47"/>
-      <c r="E52" s="49"/>
-      <c r="F52" s="47"/>
-      <c r="G52" s="47"/>
-      <c r="H52" s="47"/>
+      <c r="D52" s="51"/>
+      <c r="E52" s="57"/>
+      <c r="F52" s="51"/>
+      <c r="G52" s="51"/>
+      <c r="H52" s="51"/>
       <c r="I52" s="13"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A53" s="57">
+      <c r="A53" s="46">
         <v>8</v>
       </c>
       <c r="B53" s="36" t="s">
@@ -3359,7 +3369,7 @@
       <c r="D53" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="E53" s="48" t="s">
+      <c r="E53" s="59" t="s">
         <v>35</v>
       </c>
       <c r="F53" s="16" t="s">
@@ -3374,7 +3384,7 @@
       <c r="I53" s="15"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A54" s="58"/>
+      <c r="A54" s="47"/>
       <c r="B54" s="33" t="s">
         <v>0</v>
       </c>
@@ -3382,7 +3392,7 @@
       <c r="D54" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="E54" s="49"/>
+      <c r="E54" s="57"/>
       <c r="F54" s="14" t="s">
         <v>31</v>
       </c>
@@ -3395,87 +3405,101 @@
       <c r="I54" s="13"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A55" s="57">
+      <c r="A55" s="46">
         <v>9</v>
       </c>
       <c r="B55" s="36" t="s">
         <v>8</v>
       </c>
       <c r="C55" s="15"/>
-      <c r="D55" s="46" t="s">
+      <c r="D55" s="58" t="s">
         <v>31</v>
       </c>
       <c r="E55" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="F55" s="46" t="s">
-        <v>31</v>
-      </c>
-      <c r="G55" s="46" t="s">
-        <v>31</v>
-      </c>
-      <c r="H55" s="46" t="s">
+      <c r="F55" s="58" t="s">
+        <v>31</v>
+      </c>
+      <c r="G55" s="58" t="s">
+        <v>31</v>
+      </c>
+      <c r="H55" s="58" t="s">
         <v>31</v>
       </c>
       <c r="I55" s="15"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A56" s="58"/>
+      <c r="A56" s="47"/>
       <c r="B56" s="33" t="s">
         <v>0</v>
       </c>
       <c r="C56" s="13"/>
-      <c r="D56" s="47"/>
+      <c r="D56" s="51"/>
       <c r="E56" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="F56" s="47"/>
-      <c r="G56" s="47"/>
-      <c r="H56" s="47"/>
+      <c r="F56" s="51"/>
+      <c r="G56" s="51"/>
+      <c r="H56" s="51"/>
       <c r="I56" s="13"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="107">
-    <mergeCell ref="H51:H52"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="F55:F56"/>
-    <mergeCell ref="G55:G56"/>
-    <mergeCell ref="H55:H56"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="G51:G52"/>
-    <mergeCell ref="H47:H48"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="F49:F50"/>
-    <mergeCell ref="G49:G50"/>
-    <mergeCell ref="H49:H50"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="F47:F48"/>
-    <mergeCell ref="G47:G48"/>
-    <mergeCell ref="H39:H40"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="H41:H42"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="D43:D46"/>
-    <mergeCell ref="E43:E46"/>
-    <mergeCell ref="F43:F46"/>
-    <mergeCell ref="G43:G46"/>
-    <mergeCell ref="H43:H46"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="E39:E42"/>
-    <mergeCell ref="F39:F42"/>
-    <mergeCell ref="G39:G42"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="D7:D10"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F10"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="H11:H14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E18"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G15:G18"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="E11:E14"/>
+    <mergeCell ref="F11:F14"/>
+    <mergeCell ref="G11:G14"/>
+    <mergeCell ref="H19:H22"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="D23:D26"/>
+    <mergeCell ref="E23:E26"/>
+    <mergeCell ref="F23:F26"/>
+    <mergeCell ref="G23:G26"/>
+    <mergeCell ref="H23:H26"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="D19:D22"/>
+    <mergeCell ref="E19:E22"/>
+    <mergeCell ref="F19:F22"/>
+    <mergeCell ref="G19:G22"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="G27:G28"/>
     <mergeCell ref="H31:H32"/>
     <mergeCell ref="D33:D34"/>
     <mergeCell ref="F33:F34"/>
@@ -3491,59 +3515,45 @@
     <mergeCell ref="E31:E34"/>
     <mergeCell ref="F31:F32"/>
     <mergeCell ref="G31:G34"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="H19:H22"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="D23:D26"/>
-    <mergeCell ref="E23:E26"/>
-    <mergeCell ref="F23:F26"/>
-    <mergeCell ref="G23:G26"/>
-    <mergeCell ref="H23:H26"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="D19:D22"/>
-    <mergeCell ref="E19:E22"/>
-    <mergeCell ref="F19:F22"/>
-    <mergeCell ref="G19:G22"/>
-    <mergeCell ref="H11:H14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E18"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G15:G18"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="D11:D14"/>
-    <mergeCell ref="E11:E14"/>
-    <mergeCell ref="F11:F14"/>
-    <mergeCell ref="G11:G14"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="D7:D10"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F10"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H7:H10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="D43:D46"/>
+    <mergeCell ref="E43:E46"/>
+    <mergeCell ref="F43:F46"/>
+    <mergeCell ref="G43:G46"/>
+    <mergeCell ref="H43:H46"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="E39:E42"/>
+    <mergeCell ref="F39:F42"/>
+    <mergeCell ref="G39:G42"/>
+    <mergeCell ref="H47:H48"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="H49:H50"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="G47:G48"/>
+    <mergeCell ref="H51:H52"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="G55:G56"/>
+    <mergeCell ref="H55:H56"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="G51:G52"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -3600,10 +3610,10 @@
       <c r="I2" s="22"/>
     </row>
     <row r="3" spans="1:9" s="23" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="56" t="s">
+      <c r="A3" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="56"/>
+      <c r="B3" s="49"/>
       <c r="G3" s="24" t="s">
         <v>27</v>
       </c>
@@ -3637,79 +3647,79 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="57">
+      <c r="A5" s="46">
         <v>6</v>
       </c>
       <c r="B5" s="36" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="44"/>
-      <c r="D5" s="55" t="s">
+      <c r="D5" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="55" t="s">
+      <c r="E5" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="55" t="s">
+      <c r="F5" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="55" t="s">
+      <c r="G5" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="55" t="s">
+      <c r="H5" s="50" t="s">
         <v>18</v>
       </c>
       <c r="I5" s="44"/>
     </row>
     <row r="6" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="58"/>
+      <c r="A6" s="47"/>
       <c r="B6" s="33" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="45"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="47"/>
-      <c r="H6" s="47"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="51"/>
+      <c r="F6" s="51"/>
+      <c r="G6" s="51"/>
+      <c r="H6" s="51"/>
       <c r="I6" s="45"/>
     </row>
     <row r="7" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="57">
+      <c r="A7" s="46">
         <v>7</v>
       </c>
       <c r="B7" s="36" t="s">
         <v>1</v>
       </c>
       <c r="C7" s="42"/>
-      <c r="D7" s="50" t="s">
+      <c r="D7" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="50" t="s">
+      <c r="E7" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="50" t="s">
+      <c r="F7" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="G7" s="50" t="s">
+      <c r="G7" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="H7" s="50" t="s">
+      <c r="H7" s="52" t="s">
         <v>18</v>
       </c>
       <c r="I7" s="44"/>
     </row>
     <row r="8" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="59"/>
+      <c r="A8" s="48"/>
       <c r="B8" s="26" t="s">
         <v>2</v>
       </c>
       <c r="C8" s="43"/>
-      <c r="D8" s="51"/>
-      <c r="E8" s="51"/>
-      <c r="F8" s="51"/>
-      <c r="G8" s="51"/>
-      <c r="H8" s="51"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="53"/>
+      <c r="G8" s="53"/>
+      <c r="H8" s="53"/>
       <c r="I8" s="43"/>
     </row>
     <row r="9" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -3718,15 +3728,15 @@
         <v>0</v>
       </c>
       <c r="C9" s="43"/>
-      <c r="D9" s="51"/>
-      <c r="E9" s="51" t="s">
+      <c r="D9" s="53"/>
+      <c r="E9" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="F9" s="51"/>
-      <c r="G9" s="51" t="s">
+      <c r="F9" s="53"/>
+      <c r="G9" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="H9" s="51"/>
+      <c r="H9" s="53"/>
       <c r="I9" s="43"/>
     </row>
     <row r="10" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -3735,49 +3745,49 @@
         <v>3</v>
       </c>
       <c r="C10" s="45"/>
-      <c r="D10" s="47"/>
-      <c r="E10" s="47"/>
-      <c r="F10" s="47"/>
-      <c r="G10" s="47"/>
-      <c r="H10" s="47"/>
+      <c r="D10" s="51"/>
+      <c r="E10" s="51"/>
+      <c r="F10" s="51"/>
+      <c r="G10" s="51"/>
+      <c r="H10" s="51"/>
       <c r="I10" s="45"/>
     </row>
     <row r="11" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="57">
+      <c r="A11" s="46">
         <v>8</v>
       </c>
       <c r="B11" s="36" t="s">
         <v>1</v>
       </c>
       <c r="C11" s="42"/>
-      <c r="D11" s="50" t="s">
+      <c r="D11" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="52" t="s">
+      <c r="E11" s="55" t="s">
         <v>36</v>
       </c>
-      <c r="F11" s="50" t="s">
+      <c r="F11" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="G11" s="52" t="s">
+      <c r="G11" s="55" t="s">
         <v>36</v>
       </c>
-      <c r="H11" s="50" t="s">
+      <c r="H11" s="52" t="s">
         <v>18</v>
       </c>
       <c r="I11" s="42"/>
     </row>
     <row r="12" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="59"/>
+      <c r="A12" s="48"/>
       <c r="B12" s="26" t="s">
         <v>2</v>
       </c>
       <c r="C12" s="43"/>
-      <c r="D12" s="51"/>
-      <c r="E12" s="53"/>
-      <c r="F12" s="51"/>
-      <c r="G12" s="53"/>
-      <c r="H12" s="51"/>
+      <c r="D12" s="53"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="53"/>
+      <c r="G12" s="56"/>
+      <c r="H12" s="53"/>
       <c r="I12" s="43"/>
     </row>
     <row r="13" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -3786,11 +3796,11 @@
         <v>0</v>
       </c>
       <c r="C13" s="43"/>
-      <c r="D13" s="51"/>
-      <c r="E13" s="53"/>
-      <c r="F13" s="51"/>
-      <c r="G13" s="53"/>
-      <c r="H13" s="51"/>
+      <c r="D13" s="53"/>
+      <c r="E13" s="56"/>
+      <c r="F13" s="53"/>
+      <c r="G13" s="56"/>
+      <c r="H13" s="53"/>
       <c r="I13" s="43"/>
     </row>
     <row r="14" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -3799,48 +3809,48 @@
         <v>3</v>
       </c>
       <c r="C14" s="45"/>
-      <c r="D14" s="47"/>
-      <c r="E14" s="49"/>
-      <c r="F14" s="47"/>
-      <c r="G14" s="49"/>
-      <c r="H14" s="47"/>
+      <c r="D14" s="51"/>
+      <c r="E14" s="57"/>
+      <c r="F14" s="51"/>
+      <c r="G14" s="57"/>
+      <c r="H14" s="51"/>
       <c r="I14" s="45"/>
     </row>
     <row r="15" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="57">
+      <c r="A15" s="46">
         <v>9</v>
       </c>
       <c r="B15" s="36" t="s">
         <v>1</v>
       </c>
       <c r="C15" s="18"/>
-      <c r="D15" s="50" t="s">
+      <c r="D15" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="E15" s="52" t="s">
+      <c r="E15" s="55" t="s">
         <v>36</v>
       </c>
-      <c r="F15" s="50" t="s">
+      <c r="F15" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="G15" s="52" t="s">
+      <c r="G15" s="55" t="s">
         <v>36</v>
       </c>
-      <c r="H15" s="50" t="s">
+      <c r="H15" s="52" t="s">
         <v>28</v>
       </c>
       <c r="I15" s="42"/>
     </row>
     <row r="16" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="59"/>
+      <c r="A16" s="48"/>
       <c r="B16" s="26" t="s">
         <v>2</v>
       </c>
       <c r="C16" s="17"/>
       <c r="D16" s="54"/>
-      <c r="E16" s="53"/>
+      <c r="E16" s="56"/>
       <c r="F16" s="54"/>
-      <c r="G16" s="53"/>
+      <c r="G16" s="56"/>
       <c r="H16" s="54"/>
       <c r="I16" s="43"/>
     </row>
@@ -3850,15 +3860,15 @@
         <v>0</v>
       </c>
       <c r="C17" s="18"/>
-      <c r="D17" s="48" t="s">
+      <c r="D17" s="59" t="s">
         <v>29</v>
       </c>
-      <c r="E17" s="53"/>
-      <c r="F17" s="48" t="s">
+      <c r="E17" s="56"/>
+      <c r="F17" s="59" t="s">
         <v>29</v>
       </c>
-      <c r="G17" s="53"/>
-      <c r="H17" s="46" t="s">
+      <c r="G17" s="56"/>
+      <c r="H17" s="58" t="s">
         <v>29</v>
       </c>
       <c r="I17" s="43"/>
@@ -3869,49 +3879,49 @@
         <v>3</v>
       </c>
       <c r="C18" s="12"/>
-      <c r="D18" s="49"/>
-      <c r="E18" s="49"/>
-      <c r="F18" s="49"/>
-      <c r="G18" s="49"/>
-      <c r="H18" s="47"/>
+      <c r="D18" s="57"/>
+      <c r="E18" s="57"/>
+      <c r="F18" s="57"/>
+      <c r="G18" s="57"/>
+      <c r="H18" s="51"/>
       <c r="I18" s="45"/>
     </row>
     <row r="19" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="57">
+      <c r="A19" s="46">
         <v>10</v>
       </c>
       <c r="B19" s="36" t="s">
         <v>1</v>
       </c>
       <c r="C19" s="18"/>
-      <c r="D19" s="50" t="s">
+      <c r="D19" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="E19" s="50" t="s">
+      <c r="E19" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="F19" s="50" t="s">
+      <c r="F19" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="G19" s="50" t="s">
+      <c r="G19" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="H19" s="50" t="s">
+      <c r="H19" s="52" t="s">
         <v>30</v>
       </c>
       <c r="I19" s="25"/>
     </row>
     <row r="20" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="59"/>
+      <c r="A20" s="48"/>
       <c r="B20" s="26" t="s">
         <v>2</v>
       </c>
       <c r="C20" s="17"/>
-      <c r="D20" s="51"/>
-      <c r="E20" s="51"/>
-      <c r="F20" s="51"/>
-      <c r="G20" s="51"/>
-      <c r="H20" s="51"/>
+      <c r="D20" s="53"/>
+      <c r="E20" s="53"/>
+      <c r="F20" s="53"/>
+      <c r="G20" s="53"/>
+      <c r="H20" s="53"/>
       <c r="I20" s="17"/>
     </row>
     <row r="21" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -3920,11 +3930,11 @@
         <v>0</v>
       </c>
       <c r="C21" s="18"/>
-      <c r="D21" s="51"/>
-      <c r="E21" s="51"/>
-      <c r="F21" s="51"/>
-      <c r="G21" s="51"/>
-      <c r="H21" s="51"/>
+      <c r="D21" s="53"/>
+      <c r="E21" s="53"/>
+      <c r="F21" s="53"/>
+      <c r="G21" s="53"/>
+      <c r="H21" s="53"/>
       <c r="I21" s="18"/>
     </row>
     <row r="22" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -3933,49 +3943,49 @@
         <v>3</v>
       </c>
       <c r="C22" s="12"/>
-      <c r="D22" s="47"/>
-      <c r="E22" s="47"/>
-      <c r="F22" s="47"/>
-      <c r="G22" s="47"/>
-      <c r="H22" s="47"/>
+      <c r="D22" s="51"/>
+      <c r="E22" s="51"/>
+      <c r="F22" s="51"/>
+      <c r="G22" s="51"/>
+      <c r="H22" s="51"/>
       <c r="I22" s="17"/>
     </row>
     <row r="23" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="57">
+      <c r="A23" s="46">
         <v>11</v>
       </c>
       <c r="B23" s="36" t="s">
         <v>1</v>
       </c>
       <c r="C23" s="18"/>
-      <c r="D23" s="50" t="s">
+      <c r="D23" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="E23" s="52" t="s">
+      <c r="E23" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="F23" s="50" t="s">
+      <c r="F23" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="G23" s="50" t="s">
+      <c r="G23" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="H23" s="50" t="s">
+      <c r="H23" s="52" t="s">
         <v>30</v>
       </c>
       <c r="I23" s="25"/>
     </row>
     <row r="24" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="59"/>
+      <c r="A24" s="48"/>
       <c r="B24" s="26" t="s">
         <v>2</v>
       </c>
       <c r="C24" s="17"/>
-      <c r="D24" s="51"/>
-      <c r="E24" s="53"/>
-      <c r="F24" s="51"/>
-      <c r="G24" s="51"/>
-      <c r="H24" s="51"/>
+      <c r="D24" s="53"/>
+      <c r="E24" s="56"/>
+      <c r="F24" s="53"/>
+      <c r="G24" s="53"/>
+      <c r="H24" s="53"/>
       <c r="I24" s="17"/>
     </row>
     <row r="25" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -3984,11 +3994,11 @@
         <v>0</v>
       </c>
       <c r="C25" s="18"/>
-      <c r="D25" s="51"/>
-      <c r="E25" s="53"/>
-      <c r="F25" s="51"/>
-      <c r="G25" s="51"/>
-      <c r="H25" s="51"/>
+      <c r="D25" s="53"/>
+      <c r="E25" s="56"/>
+      <c r="F25" s="53"/>
+      <c r="G25" s="53"/>
+      <c r="H25" s="53"/>
       <c r="I25" s="18"/>
     </row>
     <row r="26" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -3997,40 +4007,40 @@
         <v>3</v>
       </c>
       <c r="C26" s="12"/>
-      <c r="D26" s="47"/>
-      <c r="E26" s="49"/>
-      <c r="F26" s="47"/>
-      <c r="G26" s="47"/>
-      <c r="H26" s="47"/>
+      <c r="D26" s="51"/>
+      <c r="E26" s="57"/>
+      <c r="F26" s="51"/>
+      <c r="G26" s="51"/>
+      <c r="H26" s="51"/>
       <c r="I26" s="17"/>
     </row>
     <row r="27" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="57">
+      <c r="A27" s="46">
         <v>12</v>
       </c>
       <c r="B27" s="36" t="s">
         <v>8</v>
       </c>
       <c r="C27" s="18"/>
-      <c r="D27" s="50" t="s">
+      <c r="D27" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="E27" s="50" t="s">
+      <c r="E27" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="F27" s="50" t="s">
+      <c r="F27" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="G27" s="50" t="s">
+      <c r="G27" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="H27" s="50" t="s">
+      <c r="H27" s="52" t="s">
         <v>30</v>
       </c>
       <c r="I27" s="25"/>
     </row>
     <row r="28" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="59"/>
+      <c r="A28" s="48"/>
       <c r="B28" s="26" t="s">
         <v>2</v>
       </c>
@@ -4048,19 +4058,19 @@
         <v>0</v>
       </c>
       <c r="C29" s="18"/>
-      <c r="D29" s="46" t="s">
-        <v>31</v>
-      </c>
-      <c r="E29" s="50" t="s">
+      <c r="D29" s="58" t="s">
+        <v>31</v>
+      </c>
+      <c r="E29" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="F29" s="46" t="s">
-        <v>31</v>
-      </c>
-      <c r="G29" s="50" t="s">
+      <c r="F29" s="58" t="s">
+        <v>31</v>
+      </c>
+      <c r="G29" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="H29" s="46" t="s">
+      <c r="H29" s="58" t="s">
         <v>31</v>
       </c>
       <c r="I29" s="18"/>
@@ -4071,48 +4081,48 @@
         <v>3</v>
       </c>
       <c r="C30" s="12"/>
-      <c r="D30" s="47"/>
+      <c r="D30" s="51"/>
       <c r="E30" s="54"/>
-      <c r="F30" s="47"/>
+      <c r="F30" s="51"/>
       <c r="G30" s="54"/>
-      <c r="H30" s="47"/>
+      <c r="H30" s="51"/>
       <c r="I30" s="17"/>
     </row>
     <row r="31" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="57">
+      <c r="A31" s="46">
         <v>1</v>
       </c>
       <c r="B31" s="36" t="s">
         <v>8</v>
       </c>
       <c r="C31" s="18"/>
-      <c r="D31" s="50" t="s">
+      <c r="D31" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="E31" s="50" t="s">
+      <c r="E31" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="F31" s="50" t="s">
+      <c r="F31" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="G31" s="50" t="s">
+      <c r="G31" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="H31" s="50" t="s">
+      <c r="H31" s="52" t="s">
         <v>32</v>
       </c>
       <c r="I31" s="25"/>
     </row>
     <row r="32" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="59"/>
+      <c r="A32" s="48"/>
       <c r="B32" s="26" t="s">
         <v>2</v>
       </c>
       <c r="C32" s="17"/>
       <c r="D32" s="54"/>
-      <c r="E32" s="51"/>
+      <c r="E32" s="53"/>
       <c r="F32" s="54"/>
-      <c r="G32" s="51"/>
+      <c r="G32" s="53"/>
       <c r="H32" s="54"/>
       <c r="I32" s="17"/>
     </row>
@@ -4122,15 +4132,15 @@
         <v>0</v>
       </c>
       <c r="C33" s="18"/>
-      <c r="D33" s="48" t="s">
+      <c r="D33" s="59" t="s">
         <v>29</v>
       </c>
-      <c r="E33" s="51"/>
-      <c r="F33" s="46" t="s">
+      <c r="E33" s="53"/>
+      <c r="F33" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="G33" s="51"/>
-      <c r="H33" s="46" t="s">
+      <c r="G33" s="53"/>
+      <c r="H33" s="58" t="s">
         <v>29</v>
       </c>
       <c r="I33" s="18"/>
@@ -4141,49 +4151,49 @@
         <v>3</v>
       </c>
       <c r="C34" s="12"/>
-      <c r="D34" s="49"/>
-      <c r="E34" s="47"/>
-      <c r="F34" s="47"/>
-      <c r="G34" s="47"/>
-      <c r="H34" s="47"/>
+      <c r="D34" s="57"/>
+      <c r="E34" s="51"/>
+      <c r="F34" s="51"/>
+      <c r="G34" s="51"/>
+      <c r="H34" s="51"/>
       <c r="I34" s="17"/>
     </row>
     <row r="35" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="57">
+      <c r="A35" s="46">
         <v>2</v>
       </c>
       <c r="B35" s="36" t="s">
         <v>8</v>
       </c>
       <c r="C35" s="18"/>
-      <c r="D35" s="52" t="s">
+      <c r="D35" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="E35" s="50" t="s">
+      <c r="E35" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="F35" s="50" t="s">
+      <c r="F35" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="G35" s="50" t="s">
+      <c r="G35" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="H35" s="50" t="s">
+      <c r="H35" s="52" t="s">
         <v>29</v>
       </c>
       <c r="I35" s="25"/>
     </row>
     <row r="36" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="59"/>
+      <c r="A36" s="48"/>
       <c r="B36" s="26" t="s">
         <v>2</v>
       </c>
       <c r="C36" s="17"/>
-      <c r="D36" s="53"/>
-      <c r="E36" s="51"/>
-      <c r="F36" s="51"/>
-      <c r="G36" s="51"/>
-      <c r="H36" s="51"/>
+      <c r="D36" s="56"/>
+      <c r="E36" s="53"/>
+      <c r="F36" s="53"/>
+      <c r="G36" s="53"/>
+      <c r="H36" s="53"/>
       <c r="I36" s="17"/>
     </row>
     <row r="37" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -4192,11 +4202,11 @@
         <v>0</v>
       </c>
       <c r="C37" s="18"/>
-      <c r="D37" s="53"/>
-      <c r="E37" s="51"/>
-      <c r="F37" s="51"/>
-      <c r="G37" s="51"/>
-      <c r="H37" s="51"/>
+      <c r="D37" s="56"/>
+      <c r="E37" s="53"/>
+      <c r="F37" s="53"/>
+      <c r="G37" s="53"/>
+      <c r="H37" s="53"/>
       <c r="I37" s="18"/>
     </row>
     <row r="38" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -4205,49 +4215,49 @@
         <v>3</v>
       </c>
       <c r="C38" s="12"/>
-      <c r="D38" s="49"/>
-      <c r="E38" s="47"/>
-      <c r="F38" s="47"/>
-      <c r="G38" s="47"/>
-      <c r="H38" s="47"/>
+      <c r="D38" s="57"/>
+      <c r="E38" s="51"/>
+      <c r="F38" s="51"/>
+      <c r="G38" s="51"/>
+      <c r="H38" s="51"/>
       <c r="I38" s="17"/>
     </row>
     <row r="39" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="57">
+      <c r="A39" s="46">
         <v>3</v>
       </c>
       <c r="B39" s="36" t="s">
         <v>8</v>
       </c>
       <c r="C39" s="18"/>
-      <c r="D39" s="48" t="s">
+      <c r="D39" s="59" t="s">
         <v>29</v>
       </c>
-      <c r="E39" s="50" t="s">
+      <c r="E39" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="F39" s="50" t="s">
+      <c r="F39" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="G39" s="50" t="s">
+      <c r="G39" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="H39" s="46" t="s">
+      <c r="H39" s="58" t="s">
         <v>29</v>
       </c>
       <c r="I39" s="25"/>
     </row>
     <row r="40" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="59"/>
+      <c r="A40" s="48"/>
       <c r="B40" s="26" t="s">
         <v>2</v>
       </c>
       <c r="C40" s="17"/>
-      <c r="D40" s="49"/>
-      <c r="E40" s="51"/>
-      <c r="F40" s="51"/>
-      <c r="G40" s="51"/>
-      <c r="H40" s="47"/>
+      <c r="D40" s="57"/>
+      <c r="E40" s="53"/>
+      <c r="F40" s="53"/>
+      <c r="G40" s="53"/>
+      <c r="H40" s="51"/>
       <c r="I40" s="17"/>
     </row>
     <row r="41" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
@@ -4256,13 +4266,13 @@
         <v>0</v>
       </c>
       <c r="C41" s="18"/>
-      <c r="D41" s="52" t="s">
+      <c r="D41" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="E41" s="51"/>
-      <c r="F41" s="51"/>
-      <c r="G41" s="51"/>
-      <c r="H41" s="50" t="s">
+      <c r="E41" s="53"/>
+      <c r="F41" s="53"/>
+      <c r="G41" s="53"/>
+      <c r="H41" s="52" t="s">
         <v>33</v>
       </c>
       <c r="I41" s="18"/>
@@ -4273,49 +4283,49 @@
         <v>3</v>
       </c>
       <c r="C42" s="12"/>
-      <c r="D42" s="49"/>
-      <c r="E42" s="47"/>
-      <c r="F42" s="47"/>
-      <c r="G42" s="47"/>
-      <c r="H42" s="47"/>
+      <c r="D42" s="57"/>
+      <c r="E42" s="51"/>
+      <c r="F42" s="51"/>
+      <c r="G42" s="51"/>
+      <c r="H42" s="51"/>
       <c r="I42" s="17"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A43" s="57">
+      <c r="A43" s="46">
         <v>4</v>
       </c>
       <c r="B43" s="36" t="s">
         <v>8</v>
       </c>
       <c r="C43" s="18"/>
-      <c r="D43" s="52" t="s">
+      <c r="D43" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="E43" s="50" t="s">
+      <c r="E43" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="F43" s="50" t="s">
+      <c r="F43" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="G43" s="50" t="s">
+      <c r="G43" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="H43" s="50" t="s">
+      <c r="H43" s="52" t="s">
         <v>33</v>
       </c>
       <c r="I43" s="25"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A44" s="59"/>
+      <c r="A44" s="48"/>
       <c r="B44" s="26" t="s">
         <v>2</v>
       </c>
       <c r="C44" s="17"/>
-      <c r="D44" s="53"/>
-      <c r="E44" s="51"/>
-      <c r="F44" s="51"/>
-      <c r="G44" s="51"/>
-      <c r="H44" s="51"/>
+      <c r="D44" s="56"/>
+      <c r="E44" s="53"/>
+      <c r="F44" s="53"/>
+      <c r="G44" s="53"/>
+      <c r="H44" s="53"/>
       <c r="I44" s="17"/>
     </row>
     <row r="45" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
@@ -4324,11 +4334,11 @@
         <v>0</v>
       </c>
       <c r="C45" s="18"/>
-      <c r="D45" s="53"/>
-      <c r="E45" s="51"/>
-      <c r="F45" s="51"/>
-      <c r="G45" s="51"/>
-      <c r="H45" s="51"/>
+      <c r="D45" s="56"/>
+      <c r="E45" s="53"/>
+      <c r="F45" s="53"/>
+      <c r="G45" s="53"/>
+      <c r="H45" s="53"/>
       <c r="I45" s="18"/>
     </row>
     <row r="46" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
@@ -4337,129 +4347,129 @@
         <v>3</v>
       </c>
       <c r="C46" s="12"/>
-      <c r="D46" s="49"/>
-      <c r="E46" s="47"/>
-      <c r="F46" s="47"/>
-      <c r="G46" s="47"/>
-      <c r="H46" s="47"/>
+      <c r="D46" s="57"/>
+      <c r="E46" s="51"/>
+      <c r="F46" s="51"/>
+      <c r="G46" s="51"/>
+      <c r="H46" s="51"/>
       <c r="I46" s="17"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A47" s="57">
+      <c r="A47" s="46">
         <v>5</v>
       </c>
       <c r="B47" s="36" t="s">
         <v>8</v>
       </c>
       <c r="C47" s="15"/>
-      <c r="D47" s="52" t="s">
+      <c r="D47" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="E47" s="46" t="s">
-        <v>31</v>
-      </c>
-      <c r="F47" s="50" t="s">
+      <c r="E47" s="58" t="s">
+        <v>31</v>
+      </c>
+      <c r="F47" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="G47" s="46" t="s">
-        <v>31</v>
-      </c>
-      <c r="H47" s="52" t="s">
+      <c r="G47" s="58" t="s">
+        <v>31</v>
+      </c>
+      <c r="H47" s="55" t="s">
         <v>33</v>
       </c>
       <c r="I47" s="15"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A48" s="58"/>
+      <c r="A48" s="47"/>
       <c r="B48" s="33" t="s">
         <v>0</v>
       </c>
       <c r="C48" s="13"/>
-      <c r="D48" s="49"/>
-      <c r="E48" s="47"/>
-      <c r="F48" s="47"/>
-      <c r="G48" s="47"/>
-      <c r="H48" s="49"/>
+      <c r="D48" s="57"/>
+      <c r="E48" s="51"/>
+      <c r="F48" s="51"/>
+      <c r="G48" s="51"/>
+      <c r="H48" s="57"/>
       <c r="I48" s="13"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A49" s="57">
+      <c r="A49" s="46">
         <v>6</v>
       </c>
       <c r="B49" s="36" t="s">
         <v>8</v>
       </c>
       <c r="C49" s="15"/>
-      <c r="D49" s="52" t="s">
+      <c r="D49" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="E49" s="46" t="s">
+      <c r="E49" s="58" t="s">
         <v>35</v>
       </c>
-      <c r="F49" s="50" t="s">
+      <c r="F49" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="G49" s="46" t="s">
-        <v>31</v>
-      </c>
-      <c r="H49" s="52" t="s">
+      <c r="G49" s="58" t="s">
+        <v>31</v>
+      </c>
+      <c r="H49" s="55" t="s">
         <v>33</v>
       </c>
       <c r="I49" s="15"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A50" s="58"/>
+      <c r="A50" s="47"/>
       <c r="B50" s="33" t="s">
         <v>0</v>
       </c>
       <c r="C50" s="13"/>
-      <c r="D50" s="49"/>
-      <c r="E50" s="47"/>
-      <c r="F50" s="47"/>
-      <c r="G50" s="47"/>
-      <c r="H50" s="49"/>
+      <c r="D50" s="57"/>
+      <c r="E50" s="51"/>
+      <c r="F50" s="51"/>
+      <c r="G50" s="51"/>
+      <c r="H50" s="57"/>
       <c r="I50" s="13"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A51" s="57">
+      <c r="A51" s="46">
         <v>7</v>
       </c>
       <c r="B51" s="36" t="s">
         <v>8</v>
       </c>
       <c r="C51" s="15"/>
-      <c r="D51" s="46" t="s">
-        <v>31</v>
-      </c>
-      <c r="E51" s="46" t="s">
+      <c r="D51" s="58" t="s">
+        <v>31</v>
+      </c>
+      <c r="E51" s="58" t="s">
         <v>35</v>
       </c>
-      <c r="F51" s="46" t="s">
-        <v>31</v>
-      </c>
-      <c r="G51" s="46" t="s">
-        <v>31</v>
-      </c>
-      <c r="H51" s="46" t="s">
+      <c r="F51" s="58" t="s">
+        <v>31</v>
+      </c>
+      <c r="G51" s="58" t="s">
+        <v>31</v>
+      </c>
+      <c r="H51" s="58" t="s">
         <v>31</v>
       </c>
       <c r="I51" s="15"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A52" s="58"/>
+      <c r="A52" s="47"/>
       <c r="B52" s="33" t="s">
         <v>0</v>
       </c>
       <c r="C52" s="13"/>
-      <c r="D52" s="47"/>
-      <c r="E52" s="47"/>
-      <c r="F52" s="47"/>
-      <c r="G52" s="47"/>
-      <c r="H52" s="47"/>
+      <c r="D52" s="51"/>
+      <c r="E52" s="51"/>
+      <c r="F52" s="51"/>
+      <c r="G52" s="51"/>
+      <c r="H52" s="51"/>
       <c r="I52" s="13"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A53" s="57">
+      <c r="A53" s="46">
         <v>8</v>
       </c>
       <c r="B53" s="36" t="s">
@@ -4469,7 +4479,7 @@
       <c r="D53" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="E53" s="46" t="s">
+      <c r="E53" s="58" t="s">
         <v>35</v>
       </c>
       <c r="F53" s="16" t="s">
@@ -4484,7 +4494,7 @@
       <c r="I53" s="15"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A54" s="58"/>
+      <c r="A54" s="47"/>
       <c r="B54" s="33" t="s">
         <v>0</v>
       </c>
@@ -4492,7 +4502,7 @@
       <c r="D54" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="E54" s="47"/>
+      <c r="E54" s="51"/>
       <c r="F54" s="14" t="s">
         <v>31</v>
       </c>
@@ -4505,72 +4515,109 @@
       <c r="I54" s="13"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A55" s="57">
+      <c r="A55" s="46">
         <v>9</v>
       </c>
       <c r="B55" s="36" t="s">
         <v>8</v>
       </c>
       <c r="C55" s="15"/>
-      <c r="D55" s="46" t="s">
+      <c r="D55" s="58" t="s">
         <v>31</v>
       </c>
       <c r="E55" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="F55" s="46" t="s">
-        <v>31</v>
-      </c>
-      <c r="G55" s="46" t="s">
-        <v>31</v>
-      </c>
-      <c r="H55" s="46" t="s">
+      <c r="F55" s="58" t="s">
+        <v>31</v>
+      </c>
+      <c r="G55" s="58" t="s">
+        <v>31</v>
+      </c>
+      <c r="H55" s="58" t="s">
         <v>31</v>
       </c>
       <c r="I55" s="15"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A56" s="58"/>
+      <c r="A56" s="47"/>
       <c r="B56" s="33" t="s">
         <v>0</v>
       </c>
       <c r="C56" s="13"/>
-      <c r="D56" s="47"/>
+      <c r="D56" s="51"/>
       <c r="E56" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="F56" s="47"/>
-      <c r="G56" s="47"/>
-      <c r="H56" s="47"/>
+      <c r="F56" s="51"/>
+      <c r="G56" s="51"/>
+      <c r="H56" s="51"/>
       <c r="I56" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="107">
-    <mergeCell ref="H55:H56"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="F55:F56"/>
-    <mergeCell ref="G55:G56"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="G51:G52"/>
-    <mergeCell ref="H51:H52"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="F49:F50"/>
-    <mergeCell ref="G49:G50"/>
-    <mergeCell ref="H49:H50"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="F47:F48"/>
-    <mergeCell ref="G47:G48"/>
-    <mergeCell ref="H47:H48"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="E11:E14"/>
+    <mergeCell ref="F11:F14"/>
+    <mergeCell ref="G11:G14"/>
+    <mergeCell ref="H11:H14"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="D7:D10"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F10"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="D19:D22"/>
+    <mergeCell ref="E19:E22"/>
+    <mergeCell ref="F19:F22"/>
+    <mergeCell ref="G19:G22"/>
+    <mergeCell ref="H19:H22"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E18"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G15:G18"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="D23:D26"/>
+    <mergeCell ref="E23:E26"/>
+    <mergeCell ref="F23:F26"/>
+    <mergeCell ref="G23:G26"/>
+    <mergeCell ref="H23:H26"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="E31:E34"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="G31:G34"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="H33:H34"/>
     <mergeCell ref="A35:A36"/>
     <mergeCell ref="D35:D38"/>
     <mergeCell ref="E35:E38"/>
@@ -4591,20 +4638,1060 @@
     <mergeCell ref="H39:H40"/>
     <mergeCell ref="D41:D42"/>
     <mergeCell ref="H41:H42"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="E31:E34"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="G31:G34"/>
-    <mergeCell ref="H31:H32"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="H33:H34"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="H49:H50"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="G47:G48"/>
+    <mergeCell ref="H47:H48"/>
+    <mergeCell ref="H55:H56"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="G55:G56"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="G51:G52"/>
+    <mergeCell ref="H51:H52"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9951F56-C369-4E89-ABDA-B5D6171942BD}">
+  <dimension ref="A1:I56"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="E39" sqref="E39:E42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="3.75" style="20" customWidth="1"/>
+    <col min="2" max="2" width="3" style="20" customWidth="1"/>
+    <col min="3" max="3" width="8.5" style="20" customWidth="1"/>
+    <col min="4" max="8" width="13.25" style="20" customWidth="1"/>
+    <col min="9" max="9" width="8.5" style="20" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="20"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="23" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="39"/>
+    </row>
+    <row r="2" spans="1:9" s="21" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="G2" s="22">
+        <v>5</v>
+      </c>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+    </row>
+    <row r="3" spans="1:9" s="23" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="49" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="49"/>
+      <c r="G3" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" s="38" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" s="27" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="34"/>
+      <c r="B4" s="35"/>
+      <c r="C4" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" s="31" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="46">
+        <v>6</v>
+      </c>
+      <c r="B5" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="44"/>
+      <c r="D5" s="50" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="50" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="50" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="50" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="50" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" s="44"/>
+    </row>
+    <row r="6" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="47"/>
+      <c r="B6" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="45"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="51"/>
+      <c r="F6" s="51"/>
+      <c r="G6" s="51"/>
+      <c r="H6" s="51"/>
+      <c r="I6" s="45"/>
+    </row>
+    <row r="7" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="46">
+        <v>7</v>
+      </c>
+      <c r="B7" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="42"/>
+      <c r="D7" s="52" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="52" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="52" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="52" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" s="52" t="s">
+        <v>18</v>
+      </c>
+      <c r="I7" s="44"/>
+    </row>
+    <row r="8" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="48"/>
+      <c r="B8" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="43"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="53"/>
+      <c r="G8" s="53"/>
+      <c r="H8" s="53"/>
+      <c r="I8" s="43"/>
+    </row>
+    <row r="9" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="32"/>
+      <c r="B9" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="43"/>
+      <c r="D9" s="53"/>
+      <c r="E9" s="63" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="53"/>
+      <c r="G9" s="61" t="s">
+        <v>28</v>
+      </c>
+      <c r="H9" s="53"/>
+      <c r="I9" s="43"/>
+    </row>
+    <row r="10" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="37"/>
+      <c r="B10" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="45"/>
+      <c r="D10" s="51"/>
+      <c r="E10" s="64"/>
+      <c r="F10" s="51"/>
+      <c r="G10" s="62"/>
+      <c r="H10" s="51"/>
+      <c r="I10" s="45"/>
+    </row>
+    <row r="11" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="46">
+        <v>8</v>
+      </c>
+      <c r="B11" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="42"/>
+      <c r="D11" s="52" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="55" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11" s="52" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="55" t="s">
+        <v>36</v>
+      </c>
+      <c r="H11" s="52" t="s">
+        <v>18</v>
+      </c>
+      <c r="I11" s="42"/>
+    </row>
+    <row r="12" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="48"/>
+      <c r="B12" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="43"/>
+      <c r="D12" s="53"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="53"/>
+      <c r="G12" s="56"/>
+      <c r="H12" s="53"/>
+      <c r="I12" s="43"/>
+    </row>
+    <row r="13" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="32"/>
+      <c r="B13" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="43"/>
+      <c r="D13" s="53"/>
+      <c r="E13" s="56"/>
+      <c r="F13" s="53"/>
+      <c r="G13" s="56"/>
+      <c r="H13" s="53"/>
+      <c r="I13" s="43"/>
+    </row>
+    <row r="14" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="37"/>
+      <c r="B14" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="45"/>
+      <c r="D14" s="51"/>
+      <c r="E14" s="57"/>
+      <c r="F14" s="51"/>
+      <c r="G14" s="57"/>
+      <c r="H14" s="51"/>
+      <c r="I14" s="45"/>
+    </row>
+    <row r="15" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="46">
+        <v>9</v>
+      </c>
+      <c r="B15" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="18"/>
+      <c r="D15" s="52" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" s="55" t="s">
+        <v>36</v>
+      </c>
+      <c r="F15" s="52" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15" s="55" t="s">
+        <v>36</v>
+      </c>
+      <c r="H15" s="52" t="s">
+        <v>18</v>
+      </c>
+      <c r="I15" s="42"/>
+    </row>
+    <row r="16" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="48"/>
+      <c r="B16" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" s="17"/>
+      <c r="D16" s="53"/>
+      <c r="E16" s="56"/>
+      <c r="F16" s="53"/>
+      <c r="G16" s="56"/>
+      <c r="H16" s="53"/>
+      <c r="I16" s="43"/>
+    </row>
+    <row r="17" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="32"/>
+      <c r="B17" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" s="18"/>
+      <c r="D17" s="53"/>
+      <c r="E17" s="56"/>
+      <c r="F17" s="53"/>
+      <c r="G17" s="56"/>
+      <c r="H17" s="53"/>
+      <c r="I17" s="43"/>
+    </row>
+    <row r="18" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="37"/>
+      <c r="B18" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="12"/>
+      <c r="D18" s="51"/>
+      <c r="E18" s="57"/>
+      <c r="F18" s="51"/>
+      <c r="G18" s="57"/>
+      <c r="H18" s="51"/>
+      <c r="I18" s="45"/>
+    </row>
+    <row r="19" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="46">
+        <v>10</v>
+      </c>
+      <c r="B19" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="18"/>
+      <c r="D19" s="52" t="s">
+        <v>41</v>
+      </c>
+      <c r="E19" s="52" t="s">
+        <v>42</v>
+      </c>
+      <c r="F19" s="52" t="s">
+        <v>41</v>
+      </c>
+      <c r="G19" s="52" t="s">
+        <v>42</v>
+      </c>
+      <c r="H19" s="52" t="s">
+        <v>41</v>
+      </c>
+      <c r="I19" s="25"/>
+    </row>
+    <row r="20" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="48"/>
+      <c r="B20" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="C20" s="17"/>
+      <c r="D20" s="53"/>
+      <c r="E20" s="53"/>
+      <c r="F20" s="53"/>
+      <c r="G20" s="53"/>
+      <c r="H20" s="53"/>
+      <c r="I20" s="17"/>
+    </row>
+    <row r="21" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="32"/>
+      <c r="B21" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21" s="18"/>
+      <c r="D21" s="53" t="s">
+        <v>30</v>
+      </c>
+      <c r="E21" s="53" t="s">
+        <v>30</v>
+      </c>
+      <c r="F21" s="53" t="s">
+        <v>30</v>
+      </c>
+      <c r="G21" s="53" t="s">
+        <v>30</v>
+      </c>
+      <c r="H21" s="53" t="s">
+        <v>30</v>
+      </c>
+      <c r="I21" s="18"/>
+    </row>
+    <row r="22" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="37"/>
+      <c r="B22" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" s="12"/>
+      <c r="D22" s="51"/>
+      <c r="E22" s="51"/>
+      <c r="F22" s="51"/>
+      <c r="G22" s="51"/>
+      <c r="H22" s="51"/>
+      <c r="I22" s="17"/>
+    </row>
+    <row r="23" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="46">
+        <v>11</v>
+      </c>
+      <c r="B23" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="18"/>
+      <c r="D23" s="52" t="s">
+        <v>30</v>
+      </c>
+      <c r="E23" s="52" t="s">
+        <v>30</v>
+      </c>
+      <c r="F23" s="52" t="s">
+        <v>30</v>
+      </c>
+      <c r="G23" s="52" t="s">
+        <v>30</v>
+      </c>
+      <c r="H23" s="52" t="s">
+        <v>30</v>
+      </c>
+      <c r="I23" s="25"/>
+    </row>
+    <row r="24" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="48"/>
+      <c r="B24" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="C24" s="17"/>
+      <c r="D24" s="53"/>
+      <c r="E24" s="53"/>
+      <c r="F24" s="53"/>
+      <c r="G24" s="53"/>
+      <c r="H24" s="53"/>
+      <c r="I24" s="17"/>
+    </row>
+    <row r="25" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="32"/>
+      <c r="B25" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="C25" s="18"/>
+      <c r="D25" s="53"/>
+      <c r="E25" s="53"/>
+      <c r="F25" s="53"/>
+      <c r="G25" s="53"/>
+      <c r="H25" s="53"/>
+      <c r="I25" s="18"/>
+    </row>
+    <row r="26" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="37"/>
+      <c r="B26" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="C26" s="12"/>
+      <c r="D26" s="51"/>
+      <c r="E26" s="51"/>
+      <c r="F26" s="51"/>
+      <c r="G26" s="51"/>
+      <c r="H26" s="51"/>
+      <c r="I26" s="17"/>
+    </row>
+    <row r="27" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="46">
+        <v>12</v>
+      </c>
+      <c r="B27" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" s="18"/>
+      <c r="D27" s="52" t="s">
+        <v>30</v>
+      </c>
+      <c r="E27" s="52" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="52" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="52" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="52" t="s">
+        <v>30</v>
+      </c>
+      <c r="I27" s="25"/>
+    </row>
+    <row r="28" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="48"/>
+      <c r="B28" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="C28" s="17"/>
+      <c r="D28" s="54"/>
+      <c r="E28" s="54"/>
+      <c r="F28" s="54"/>
+      <c r="G28" s="54"/>
+      <c r="H28" s="54"/>
+      <c r="I28" s="17"/>
+    </row>
+    <row r="29" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="32"/>
+      <c r="B29" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="C29" s="18"/>
+      <c r="D29" s="52" t="s">
+        <v>31</v>
+      </c>
+      <c r="E29" s="52" t="s">
+        <v>31</v>
+      </c>
+      <c r="F29" s="52" t="s">
+        <v>31</v>
+      </c>
+      <c r="G29" s="52" t="s">
+        <v>31</v>
+      </c>
+      <c r="H29" s="52" t="s">
+        <v>31</v>
+      </c>
+      <c r="I29" s="18"/>
+    </row>
+    <row r="30" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="37"/>
+      <c r="B30" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="C30" s="12"/>
+      <c r="D30" s="54"/>
+      <c r="E30" s="54"/>
+      <c r="F30" s="54"/>
+      <c r="G30" s="54"/>
+      <c r="H30" s="54"/>
+      <c r="I30" s="17"/>
+    </row>
+    <row r="31" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="46">
+        <v>1</v>
+      </c>
+      <c r="B31" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" s="18"/>
+      <c r="D31" s="52" t="s">
+        <v>31</v>
+      </c>
+      <c r="E31" s="52" t="s">
+        <v>31</v>
+      </c>
+      <c r="F31" s="52" t="s">
+        <v>31</v>
+      </c>
+      <c r="G31" s="52" t="s">
+        <v>31</v>
+      </c>
+      <c r="H31" s="52" t="s">
+        <v>31</v>
+      </c>
+      <c r="I31" s="25"/>
+    </row>
+    <row r="32" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="48"/>
+      <c r="B32" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="C32" s="17"/>
+      <c r="D32" s="54"/>
+      <c r="E32" s="54"/>
+      <c r="F32" s="54"/>
+      <c r="G32" s="54"/>
+      <c r="H32" s="54"/>
+      <c r="I32" s="17"/>
+    </row>
+    <row r="33" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="32"/>
+      <c r="B33" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="C33" s="18"/>
+      <c r="D33" s="58" t="s">
+        <v>32</v>
+      </c>
+      <c r="E33" s="58" t="s">
+        <v>32</v>
+      </c>
+      <c r="F33" s="58" t="s">
+        <v>32</v>
+      </c>
+      <c r="G33" s="58" t="s">
+        <v>32</v>
+      </c>
+      <c r="H33" s="58" t="s">
+        <v>32</v>
+      </c>
+      <c r="I33" s="18"/>
+    </row>
+    <row r="34" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="37"/>
+      <c r="B34" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="C34" s="12"/>
+      <c r="D34" s="51"/>
+      <c r="E34" s="51"/>
+      <c r="F34" s="51"/>
+      <c r="G34" s="51"/>
+      <c r="H34" s="51"/>
+      <c r="I34" s="17"/>
+    </row>
+    <row r="35" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="46">
+        <v>2</v>
+      </c>
+      <c r="B35" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35" s="18"/>
+      <c r="D35" s="52" t="s">
+        <v>29</v>
+      </c>
+      <c r="E35" s="52" t="s">
+        <v>29</v>
+      </c>
+      <c r="F35" s="52" t="s">
+        <v>37</v>
+      </c>
+      <c r="G35" s="52" t="s">
+        <v>29</v>
+      </c>
+      <c r="H35" s="55" t="s">
+        <v>29</v>
+      </c>
+      <c r="I35" s="25"/>
+    </row>
+    <row r="36" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="48"/>
+      <c r="B36" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="C36" s="17"/>
+      <c r="D36" s="53"/>
+      <c r="E36" s="53"/>
+      <c r="F36" s="53"/>
+      <c r="G36" s="53"/>
+      <c r="H36" s="56"/>
+      <c r="I36" s="17"/>
+    </row>
+    <row r="37" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="32"/>
+      <c r="B37" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="C37" s="18"/>
+      <c r="D37" s="53"/>
+      <c r="E37" s="53"/>
+      <c r="F37" s="53"/>
+      <c r="G37" s="53"/>
+      <c r="H37" s="56"/>
+      <c r="I37" s="18"/>
+    </row>
+    <row r="38" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="37"/>
+      <c r="B38" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="C38" s="12"/>
+      <c r="D38" s="51"/>
+      <c r="E38" s="51"/>
+      <c r="F38" s="51"/>
+      <c r="G38" s="51"/>
+      <c r="H38" s="57"/>
+      <c r="I38" s="17"/>
+    </row>
+    <row r="39" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="46">
+        <v>3</v>
+      </c>
+      <c r="B39" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="C39" s="18"/>
+      <c r="D39" s="55" t="s">
+        <v>33</v>
+      </c>
+      <c r="E39" s="55" t="s">
+        <v>33</v>
+      </c>
+      <c r="F39" s="52" t="s">
+        <v>37</v>
+      </c>
+      <c r="G39" s="55" t="s">
+        <v>33</v>
+      </c>
+      <c r="H39" s="55" t="s">
+        <v>33</v>
+      </c>
+      <c r="I39" s="25"/>
+    </row>
+    <row r="40" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="48"/>
+      <c r="B40" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="C40" s="17"/>
+      <c r="D40" s="56"/>
+      <c r="E40" s="56"/>
+      <c r="F40" s="53"/>
+      <c r="G40" s="56"/>
+      <c r="H40" s="56"/>
+      <c r="I40" s="17"/>
+    </row>
+    <row r="41" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A41" s="32"/>
+      <c r="B41" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="C41" s="18"/>
+      <c r="D41" s="56"/>
+      <c r="E41" s="56"/>
+      <c r="F41" s="53"/>
+      <c r="G41" s="56"/>
+      <c r="H41" s="56"/>
+      <c r="I41" s="18"/>
+    </row>
+    <row r="42" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A42" s="37"/>
+      <c r="B42" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="C42" s="12"/>
+      <c r="D42" s="57"/>
+      <c r="E42" s="57"/>
+      <c r="F42" s="51"/>
+      <c r="G42" s="57"/>
+      <c r="H42" s="57"/>
+      <c r="I42" s="17"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A43" s="46">
+        <v>4</v>
+      </c>
+      <c r="B43" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="C43" s="18"/>
+      <c r="D43" s="55" t="s">
+        <v>33</v>
+      </c>
+      <c r="E43" s="52" t="s">
+        <v>33</v>
+      </c>
+      <c r="F43" s="52" t="s">
+        <v>37</v>
+      </c>
+      <c r="G43" s="55" t="s">
+        <v>33</v>
+      </c>
+      <c r="H43" s="55" t="s">
+        <v>33</v>
+      </c>
+      <c r="I43" s="25"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A44" s="48"/>
+      <c r="B44" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="C44" s="17"/>
+      <c r="D44" s="56"/>
+      <c r="E44" s="53"/>
+      <c r="F44" s="53"/>
+      <c r="G44" s="56"/>
+      <c r="H44" s="56"/>
+      <c r="I44" s="17"/>
+    </row>
+    <row r="45" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A45" s="32"/>
+      <c r="B45" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="C45" s="18"/>
+      <c r="D45" s="56"/>
+      <c r="E45" s="53"/>
+      <c r="F45" s="53"/>
+      <c r="G45" s="56"/>
+      <c r="H45" s="56"/>
+      <c r="I45" s="18"/>
+    </row>
+    <row r="46" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A46" s="37"/>
+      <c r="B46" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="C46" s="12"/>
+      <c r="D46" s="57"/>
+      <c r="E46" s="51"/>
+      <c r="F46" s="51"/>
+      <c r="G46" s="57"/>
+      <c r="H46" s="57"/>
+      <c r="I46" s="17"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A47" s="46">
+        <v>5</v>
+      </c>
+      <c r="B47" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="C47" s="15"/>
+      <c r="D47" s="52" t="s">
+        <v>42</v>
+      </c>
+      <c r="E47" s="52" t="s">
+        <v>33</v>
+      </c>
+      <c r="F47" s="52" t="s">
+        <v>42</v>
+      </c>
+      <c r="G47" s="52" t="s">
+        <v>42</v>
+      </c>
+      <c r="H47" s="52" t="s">
+        <v>42</v>
+      </c>
+      <c r="I47" s="15"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A48" s="47"/>
+      <c r="B48" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="C48" s="13"/>
+      <c r="D48" s="51"/>
+      <c r="E48" s="51"/>
+      <c r="F48" s="51"/>
+      <c r="G48" s="51"/>
+      <c r="H48" s="51"/>
+      <c r="I48" s="13"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A49" s="46">
+        <v>6</v>
+      </c>
+      <c r="B49" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="C49" s="15"/>
+      <c r="D49" s="52" t="s">
+        <v>42</v>
+      </c>
+      <c r="E49" s="58" t="s">
+        <v>35</v>
+      </c>
+      <c r="F49" s="52" t="s">
+        <v>42</v>
+      </c>
+      <c r="G49" s="52" t="s">
+        <v>42</v>
+      </c>
+      <c r="H49" s="52" t="s">
+        <v>42</v>
+      </c>
+      <c r="I49" s="15"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A50" s="47"/>
+      <c r="B50" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="C50" s="13"/>
+      <c r="D50" s="51"/>
+      <c r="E50" s="51"/>
+      <c r="F50" s="51"/>
+      <c r="G50" s="51"/>
+      <c r="H50" s="51"/>
+      <c r="I50" s="13"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A51" s="46">
+        <v>7</v>
+      </c>
+      <c r="B51" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="C51" s="15"/>
+      <c r="D51" s="52" t="s">
+        <v>42</v>
+      </c>
+      <c r="E51" s="58" t="s">
+        <v>35</v>
+      </c>
+      <c r="F51" s="52" t="s">
+        <v>42</v>
+      </c>
+      <c r="G51" s="52" t="s">
+        <v>42</v>
+      </c>
+      <c r="H51" s="52" t="s">
+        <v>42</v>
+      </c>
+      <c r="I51" s="15"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A52" s="47"/>
+      <c r="B52" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="C52" s="13"/>
+      <c r="D52" s="51"/>
+      <c r="E52" s="51"/>
+      <c r="F52" s="51"/>
+      <c r="G52" s="51"/>
+      <c r="H52" s="51"/>
+      <c r="I52" s="13"/>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A53" s="46">
+        <v>8</v>
+      </c>
+      <c r="B53" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="C53" s="15"/>
+      <c r="D53" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="E53" s="58" t="s">
+        <v>35</v>
+      </c>
+      <c r="F53" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="G53" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="H53" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="I53" s="15"/>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A54" s="47"/>
+      <c r="B54" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="C54" s="13"/>
+      <c r="D54" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="E54" s="51"/>
+      <c r="F54" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="G54" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="H54" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="I54" s="13"/>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A55" s="46">
+        <v>9</v>
+      </c>
+      <c r="B55" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="C55" s="15"/>
+      <c r="D55" s="58" t="s">
+        <v>31</v>
+      </c>
+      <c r="E55" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="F55" s="58" t="s">
+        <v>31</v>
+      </c>
+      <c r="G55" s="58" t="s">
+        <v>31</v>
+      </c>
+      <c r="H55" s="58" t="s">
+        <v>31</v>
+      </c>
+      <c r="I55" s="15"/>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A56" s="47"/>
+      <c r="B56" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="C56" s="13"/>
+      <c r="D56" s="51"/>
+      <c r="E56" s="41" t="s">
+        <v>31</v>
+      </c>
+      <c r="F56" s="51"/>
+      <c r="G56" s="51"/>
+      <c r="H56" s="51"/>
+      <c r="I56" s="13"/>
+    </row>
+  </sheetData>
+  <mergeCells count="109">
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="D7:D10"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F10"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="E15:E18"/>
+    <mergeCell ref="G15:G18"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="E11:E14"/>
+    <mergeCell ref="F11:F14"/>
+    <mergeCell ref="G11:G14"/>
+    <mergeCell ref="H11:H14"/>
     <mergeCell ref="A27:A28"/>
     <mergeCell ref="D27:D28"/>
     <mergeCell ref="E27:E28"/>
@@ -4617,1042 +5704,53 @@
     <mergeCell ref="F23:F26"/>
     <mergeCell ref="G23:G26"/>
     <mergeCell ref="H23:H26"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="D19:D22"/>
-    <mergeCell ref="E19:E22"/>
-    <mergeCell ref="F19:F22"/>
-    <mergeCell ref="G19:G22"/>
-    <mergeCell ref="H19:H22"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E18"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G15:G18"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="H11:H14"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="D7:D10"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F10"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H7:H10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="D11:D14"/>
-    <mergeCell ref="E11:E14"/>
-    <mergeCell ref="F11:F14"/>
-    <mergeCell ref="G11:G14"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9951F56-C369-4E89-ABDA-B5D6171942BD}">
-  <dimension ref="A1:I56"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21:G22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="3.75" style="20" customWidth="1"/>
-    <col min="2" max="2" width="3" style="20" customWidth="1"/>
-    <col min="3" max="3" width="8.5" style="20" customWidth="1"/>
-    <col min="4" max="8" width="13.25" style="20" customWidth="1"/>
-    <col min="9" max="9" width="8.5" style="20" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="20"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" s="23" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="39"/>
-    </row>
-    <row r="2" spans="1:9" s="21" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="G2" s="22">
-        <v>5</v>
-      </c>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-    </row>
-    <row r="3" spans="1:9" s="23" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="56" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" s="56"/>
-      <c r="G3" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="I3" s="38" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" s="27" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="34"/>
-      <c r="B4" s="35"/>
-      <c r="C4" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="H4" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="I4" s="31" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="57">
-        <v>6</v>
-      </c>
-      <c r="B5" s="36" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="44"/>
-      <c r="D5" s="55" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="55" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="55" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" s="55" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5" s="55" t="s">
-        <v>18</v>
-      </c>
-      <c r="I5" s="44"/>
-    </row>
-    <row r="6" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="58"/>
-      <c r="B6" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="45"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="47"/>
-      <c r="H6" s="47"/>
-      <c r="I6" s="45"/>
-    </row>
-    <row r="7" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="57">
-        <v>7</v>
-      </c>
-      <c r="B7" s="36" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="42"/>
-      <c r="D7" s="50" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="50" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" s="50" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" s="50" t="s">
-        <v>18</v>
-      </c>
-      <c r="H7" s="50" t="s">
-        <v>18</v>
-      </c>
-      <c r="I7" s="44"/>
-    </row>
-    <row r="8" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="59"/>
-      <c r="B8" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="43"/>
-      <c r="D8" s="51"/>
-      <c r="E8" s="51"/>
-      <c r="F8" s="51"/>
-      <c r="G8" s="51"/>
-      <c r="H8" s="51"/>
-      <c r="I8" s="43"/>
-    </row>
-    <row r="9" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="32"/>
-      <c r="B9" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="C9" s="43"/>
-      <c r="D9" s="51"/>
-      <c r="E9" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="F9" s="51"/>
-      <c r="G9" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="H9" s="51"/>
-      <c r="I9" s="43"/>
-    </row>
-    <row r="10" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="37"/>
-      <c r="B10" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" s="45"/>
-      <c r="D10" s="47"/>
-      <c r="E10" s="47"/>
-      <c r="F10" s="47"/>
-      <c r="G10" s="47"/>
-      <c r="H10" s="47"/>
-      <c r="I10" s="45"/>
-    </row>
-    <row r="11" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="57">
-        <v>8</v>
-      </c>
-      <c r="B11" s="36" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" s="42"/>
-      <c r="D11" s="61" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11" s="61" t="s">
-        <v>36</v>
-      </c>
-      <c r="F11" s="61" t="s">
-        <v>18</v>
-      </c>
-      <c r="G11" s="61" t="s">
-        <v>36</v>
-      </c>
-      <c r="H11" s="61" t="s">
-        <v>18</v>
-      </c>
-      <c r="I11" s="42"/>
-    </row>
-    <row r="12" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="59"/>
-      <c r="B12" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="C12" s="43"/>
-      <c r="D12" s="62"/>
-      <c r="E12" s="62"/>
-      <c r="F12" s="62"/>
-      <c r="G12" s="62"/>
-      <c r="H12" s="62"/>
-      <c r="I12" s="43"/>
-    </row>
-    <row r="13" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="32"/>
-      <c r="B13" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="C13" s="43"/>
-      <c r="D13" s="62"/>
-      <c r="E13" s="62"/>
-      <c r="F13" s="62"/>
-      <c r="G13" s="62"/>
-      <c r="H13" s="62"/>
-      <c r="I13" s="43"/>
-    </row>
-    <row r="14" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="37"/>
-      <c r="B14" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="C14" s="45"/>
-      <c r="D14" s="63"/>
-      <c r="E14" s="63"/>
-      <c r="F14" s="63"/>
-      <c r="G14" s="63"/>
-      <c r="H14" s="63"/>
-      <c r="I14" s="45"/>
-    </row>
-    <row r="15" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="57">
-        <v>9</v>
-      </c>
-      <c r="B15" s="36" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" s="18"/>
-      <c r="D15" s="61" t="s">
-        <v>18</v>
-      </c>
-      <c r="E15" s="61" t="s">
-        <v>36</v>
-      </c>
-      <c r="F15" s="61" t="s">
-        <v>18</v>
-      </c>
-      <c r="G15" s="61" t="s">
-        <v>36</v>
-      </c>
-      <c r="H15" s="61" t="s">
-        <v>18</v>
-      </c>
-      <c r="I15" s="42"/>
-    </row>
-    <row r="16" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="59"/>
-      <c r="B16" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="C16" s="17"/>
-      <c r="D16" s="62"/>
-      <c r="E16" s="62"/>
-      <c r="F16" s="62"/>
-      <c r="G16" s="62"/>
-      <c r="H16" s="62"/>
-      <c r="I16" s="43"/>
-    </row>
-    <row r="17" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="32"/>
-      <c r="B17" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="C17" s="18"/>
-      <c r="D17" s="62"/>
-      <c r="E17" s="62"/>
-      <c r="F17" s="62"/>
-      <c r="G17" s="62"/>
-      <c r="H17" s="62"/>
-      <c r="I17" s="43"/>
-    </row>
-    <row r="18" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="37"/>
-      <c r="B18" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="12"/>
-      <c r="D18" s="63"/>
-      <c r="E18" s="63"/>
-      <c r="F18" s="63"/>
-      <c r="G18" s="63"/>
-      <c r="H18" s="63"/>
-      <c r="I18" s="45"/>
-    </row>
-    <row r="19" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="57">
-        <v>10</v>
-      </c>
-      <c r="B19" s="36" t="s">
-        <v>1</v>
-      </c>
-      <c r="C19" s="18"/>
-      <c r="D19" s="61" t="s">
-        <v>41</v>
-      </c>
-      <c r="E19" s="61" t="s">
-        <v>42</v>
-      </c>
-      <c r="F19" s="61" t="s">
-        <v>41</v>
-      </c>
-      <c r="G19" s="61" t="s">
-        <v>42</v>
-      </c>
-      <c r="H19" s="61" t="s">
-        <v>41</v>
-      </c>
-      <c r="I19" s="25"/>
-    </row>
-    <row r="20" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="59"/>
-      <c r="B20" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="C20" s="17"/>
-      <c r="D20" s="62"/>
-      <c r="E20" s="62"/>
-      <c r="F20" s="62"/>
-      <c r="G20" s="62"/>
-      <c r="H20" s="62"/>
-      <c r="I20" s="17"/>
-    </row>
-    <row r="21" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="32"/>
-      <c r="B21" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="C21" s="18"/>
-      <c r="D21" s="62" t="s">
-        <v>30</v>
-      </c>
-      <c r="E21" s="62" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="62" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="62" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="62" t="s">
-        <v>30</v>
-      </c>
-      <c r="I21" s="18"/>
-    </row>
-    <row r="22" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="37"/>
-      <c r="B22" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="C22" s="12"/>
-      <c r="D22" s="63"/>
-      <c r="E22" s="63"/>
-      <c r="F22" s="63"/>
-      <c r="G22" s="63"/>
-      <c r="H22" s="63"/>
-      <c r="I22" s="17"/>
-    </row>
-    <row r="23" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="57">
-        <v>11</v>
-      </c>
-      <c r="B23" s="36" t="s">
-        <v>1</v>
-      </c>
-      <c r="C23" s="18"/>
-      <c r="D23" s="61" t="s">
-        <v>30</v>
-      </c>
-      <c r="E23" s="61" t="s">
-        <v>30</v>
-      </c>
-      <c r="F23" s="61" t="s">
-        <v>30</v>
-      </c>
-      <c r="G23" s="61" t="s">
-        <v>30</v>
-      </c>
-      <c r="H23" s="61" t="s">
-        <v>30</v>
-      </c>
-      <c r="I23" s="25"/>
-    </row>
-    <row r="24" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="59"/>
-      <c r="B24" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="C24" s="17"/>
-      <c r="D24" s="62"/>
-      <c r="E24" s="62"/>
-      <c r="F24" s="62"/>
-      <c r="G24" s="62"/>
-      <c r="H24" s="62"/>
-      <c r="I24" s="17"/>
-    </row>
-    <row r="25" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="32"/>
-      <c r="B25" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="C25" s="18"/>
-      <c r="D25" s="62"/>
-      <c r="E25" s="62"/>
-      <c r="F25" s="62"/>
-      <c r="G25" s="62"/>
-      <c r="H25" s="62"/>
-      <c r="I25" s="18"/>
-    </row>
-    <row r="26" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="37"/>
-      <c r="B26" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="C26" s="12"/>
-      <c r="D26" s="63"/>
-      <c r="E26" s="63"/>
-      <c r="F26" s="63"/>
-      <c r="G26" s="63"/>
-      <c r="H26" s="63"/>
-      <c r="I26" s="17"/>
-    </row>
-    <row r="27" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="57">
-        <v>12</v>
-      </c>
-      <c r="B27" s="36" t="s">
-        <v>8</v>
-      </c>
-      <c r="C27" s="18"/>
-      <c r="D27" s="61" t="s">
-        <v>30</v>
-      </c>
-      <c r="E27" s="61" t="s">
-        <v>30</v>
-      </c>
-      <c r="F27" s="61" t="s">
-        <v>30</v>
-      </c>
-      <c r="G27" s="61" t="s">
-        <v>30</v>
-      </c>
-      <c r="H27" s="61" t="s">
-        <v>30</v>
-      </c>
-      <c r="I27" s="25"/>
-    </row>
-    <row r="28" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="59"/>
-      <c r="B28" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="C28" s="17"/>
-      <c r="D28" s="64"/>
-      <c r="E28" s="64"/>
-      <c r="F28" s="64"/>
-      <c r="G28" s="64"/>
-      <c r="H28" s="64"/>
-      <c r="I28" s="17"/>
-    </row>
-    <row r="29" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="32"/>
-      <c r="B29" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="C29" s="18"/>
-      <c r="D29" s="61" t="s">
-        <v>31</v>
-      </c>
-      <c r="E29" s="61" t="s">
-        <v>31</v>
-      </c>
-      <c r="F29" s="61" t="s">
-        <v>31</v>
-      </c>
-      <c r="G29" s="61" t="s">
-        <v>31</v>
-      </c>
-      <c r="H29" s="61" t="s">
-        <v>31</v>
-      </c>
-      <c r="I29" s="18"/>
-    </row>
-    <row r="30" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="37"/>
-      <c r="B30" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="C30" s="12"/>
-      <c r="D30" s="64"/>
-      <c r="E30" s="64"/>
-      <c r="F30" s="64"/>
-      <c r="G30" s="64"/>
-      <c r="H30" s="64"/>
-      <c r="I30" s="17"/>
-    </row>
-    <row r="31" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="57">
-        <v>1</v>
-      </c>
-      <c r="B31" s="36" t="s">
-        <v>8</v>
-      </c>
-      <c r="C31" s="18"/>
-      <c r="D31" s="61" t="s">
-        <v>31</v>
-      </c>
-      <c r="E31" s="61" t="s">
-        <v>31</v>
-      </c>
-      <c r="F31" s="61" t="s">
-        <v>31</v>
-      </c>
-      <c r="G31" s="61" t="s">
-        <v>31</v>
-      </c>
-      <c r="H31" s="61" t="s">
-        <v>31</v>
-      </c>
-      <c r="I31" s="25"/>
-    </row>
-    <row r="32" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="59"/>
-      <c r="B32" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="C32" s="17"/>
-      <c r="D32" s="64"/>
-      <c r="E32" s="64"/>
-      <c r="F32" s="64"/>
-      <c r="G32" s="64"/>
-      <c r="H32" s="64"/>
-      <c r="I32" s="17"/>
-    </row>
-    <row r="33" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="32"/>
-      <c r="B33" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="C33" s="18"/>
-      <c r="D33" s="65" t="s">
-        <v>32</v>
-      </c>
-      <c r="E33" s="65" t="s">
-        <v>32</v>
-      </c>
-      <c r="F33" s="65" t="s">
-        <v>32</v>
-      </c>
-      <c r="G33" s="65" t="s">
-        <v>32</v>
-      </c>
-      <c r="H33" s="65" t="s">
-        <v>32</v>
-      </c>
-      <c r="I33" s="18"/>
-    </row>
-    <row r="34" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="37"/>
-      <c r="B34" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="C34" s="12"/>
-      <c r="D34" s="63"/>
-      <c r="E34" s="63"/>
-      <c r="F34" s="63"/>
-      <c r="G34" s="63"/>
-      <c r="H34" s="63"/>
-      <c r="I34" s="17"/>
-    </row>
-    <row r="35" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="57">
-        <v>2</v>
-      </c>
-      <c r="B35" s="36" t="s">
-        <v>8</v>
-      </c>
-      <c r="C35" s="18"/>
-      <c r="D35" s="61" t="s">
-        <v>29</v>
-      </c>
-      <c r="E35" s="61" t="s">
-        <v>29</v>
-      </c>
-      <c r="F35" s="61" t="s">
-        <v>37</v>
-      </c>
-      <c r="G35" s="61" t="s">
-        <v>29</v>
-      </c>
-      <c r="H35" s="61" t="s">
-        <v>29</v>
-      </c>
-      <c r="I35" s="25"/>
-    </row>
-    <row r="36" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="59"/>
-      <c r="B36" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="C36" s="17"/>
-      <c r="D36" s="62"/>
-      <c r="E36" s="62"/>
-      <c r="F36" s="62"/>
-      <c r="G36" s="62"/>
-      <c r="H36" s="62"/>
-      <c r="I36" s="17"/>
-    </row>
-    <row r="37" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="32"/>
-      <c r="B37" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="C37" s="18"/>
-      <c r="D37" s="62"/>
-      <c r="E37" s="62"/>
-      <c r="F37" s="62"/>
-      <c r="G37" s="62"/>
-      <c r="H37" s="62"/>
-      <c r="I37" s="18"/>
-    </row>
-    <row r="38" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="37"/>
-      <c r="B38" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="C38" s="12"/>
-      <c r="D38" s="63"/>
-      <c r="E38" s="63"/>
-      <c r="F38" s="63"/>
-      <c r="G38" s="63"/>
-      <c r="H38" s="63"/>
-      <c r="I38" s="17"/>
-    </row>
-    <row r="39" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="57">
-        <v>3</v>
-      </c>
-      <c r="B39" s="36" t="s">
-        <v>8</v>
-      </c>
-      <c r="C39" s="18"/>
-      <c r="D39" s="61" t="s">
-        <v>33</v>
-      </c>
-      <c r="E39" s="61" t="s">
-        <v>33</v>
-      </c>
-      <c r="F39" s="61" t="s">
-        <v>37</v>
-      </c>
-      <c r="G39" s="61" t="s">
-        <v>33</v>
-      </c>
-      <c r="H39" s="61" t="s">
-        <v>33</v>
-      </c>
-      <c r="I39" s="25"/>
-    </row>
-    <row r="40" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="59"/>
-      <c r="B40" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="C40" s="17"/>
-      <c r="D40" s="62"/>
-      <c r="E40" s="62"/>
-      <c r="F40" s="62"/>
-      <c r="G40" s="62"/>
-      <c r="H40" s="62"/>
-      <c r="I40" s="17"/>
-    </row>
-    <row r="41" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A41" s="32"/>
-      <c r="B41" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="C41" s="18"/>
-      <c r="D41" s="62"/>
-      <c r="E41" s="62"/>
-      <c r="F41" s="62"/>
-      <c r="G41" s="62"/>
-      <c r="H41" s="62"/>
-      <c r="I41" s="18"/>
-    </row>
-    <row r="42" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A42" s="37"/>
-      <c r="B42" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="C42" s="12"/>
-      <c r="D42" s="63"/>
-      <c r="E42" s="63"/>
-      <c r="F42" s="63"/>
-      <c r="G42" s="63"/>
-      <c r="H42" s="63"/>
-      <c r="I42" s="17"/>
-    </row>
-    <row r="43" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A43" s="57">
-        <v>4</v>
-      </c>
-      <c r="B43" s="36" t="s">
-        <v>8</v>
-      </c>
-      <c r="C43" s="18"/>
-      <c r="D43" s="61" t="s">
-        <v>33</v>
-      </c>
-      <c r="E43" s="61" t="s">
-        <v>33</v>
-      </c>
-      <c r="F43" s="61" t="s">
-        <v>37</v>
-      </c>
-      <c r="G43" s="61" t="s">
-        <v>33</v>
-      </c>
-      <c r="H43" s="61" t="s">
-        <v>33</v>
-      </c>
-      <c r="I43" s="25"/>
-    </row>
-    <row r="44" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A44" s="59"/>
-      <c r="B44" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="C44" s="17"/>
-      <c r="D44" s="62"/>
-      <c r="E44" s="62"/>
-      <c r="F44" s="62"/>
-      <c r="G44" s="62"/>
-      <c r="H44" s="62"/>
-      <c r="I44" s="17"/>
-    </row>
-    <row r="45" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A45" s="32"/>
-      <c r="B45" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="C45" s="18"/>
-      <c r="D45" s="62"/>
-      <c r="E45" s="62"/>
-      <c r="F45" s="62"/>
-      <c r="G45" s="62"/>
-      <c r="H45" s="62"/>
-      <c r="I45" s="18"/>
-    </row>
-    <row r="46" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A46" s="37"/>
-      <c r="B46" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="C46" s="12"/>
-      <c r="D46" s="63"/>
-      <c r="E46" s="63"/>
-      <c r="F46" s="63"/>
-      <c r="G46" s="63"/>
-      <c r="H46" s="63"/>
-      <c r="I46" s="17"/>
-    </row>
-    <row r="47" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A47" s="57">
-        <v>5</v>
-      </c>
-      <c r="B47" s="36" t="s">
-        <v>8</v>
-      </c>
-      <c r="C47" s="15"/>
-      <c r="D47" s="61" t="s">
-        <v>42</v>
-      </c>
-      <c r="E47" s="61" t="s">
-        <v>33</v>
-      </c>
-      <c r="F47" s="61" t="s">
-        <v>42</v>
-      </c>
-      <c r="G47" s="61" t="s">
-        <v>42</v>
-      </c>
-      <c r="H47" s="61" t="s">
-        <v>42</v>
-      </c>
-      <c r="I47" s="15"/>
-    </row>
-    <row r="48" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A48" s="58"/>
-      <c r="B48" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="C48" s="13"/>
-      <c r="D48" s="63"/>
-      <c r="E48" s="63"/>
-      <c r="F48" s="63"/>
-      <c r="G48" s="63"/>
-      <c r="H48" s="63"/>
-      <c r="I48" s="13"/>
-    </row>
-    <row r="49" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A49" s="57">
-        <v>6</v>
-      </c>
-      <c r="B49" s="36" t="s">
-        <v>8</v>
-      </c>
-      <c r="C49" s="15"/>
-      <c r="D49" s="61" t="s">
-        <v>42</v>
-      </c>
-      <c r="E49" s="65" t="s">
-        <v>35</v>
-      </c>
-      <c r="F49" s="61" t="s">
-        <v>42</v>
-      </c>
-      <c r="G49" s="61" t="s">
-        <v>42</v>
-      </c>
-      <c r="H49" s="61" t="s">
-        <v>42</v>
-      </c>
-      <c r="I49" s="15"/>
-    </row>
-    <row r="50" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A50" s="58"/>
-      <c r="B50" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="C50" s="13"/>
-      <c r="D50" s="63"/>
-      <c r="E50" s="63"/>
-      <c r="F50" s="63"/>
-      <c r="G50" s="63"/>
-      <c r="H50" s="63"/>
-      <c r="I50" s="13"/>
-    </row>
-    <row r="51" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A51" s="57">
-        <v>7</v>
-      </c>
-      <c r="B51" s="36" t="s">
-        <v>8</v>
-      </c>
-      <c r="C51" s="15"/>
-      <c r="D51" s="61" t="s">
-        <v>42</v>
-      </c>
-      <c r="E51" s="65" t="s">
-        <v>35</v>
-      </c>
-      <c r="F51" s="61" t="s">
-        <v>42</v>
-      </c>
-      <c r="G51" s="61" t="s">
-        <v>42</v>
-      </c>
-      <c r="H51" s="61" t="s">
-        <v>42</v>
-      </c>
-      <c r="I51" s="15"/>
-    </row>
-    <row r="52" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A52" s="58"/>
-      <c r="B52" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="C52" s="13"/>
-      <c r="D52" s="63"/>
-      <c r="E52" s="63"/>
-      <c r="F52" s="63"/>
-      <c r="G52" s="63"/>
-      <c r="H52" s="63"/>
-      <c r="I52" s="13"/>
-    </row>
-    <row r="53" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A53" s="57">
-        <v>8</v>
-      </c>
-      <c r="B53" s="36" t="s">
-        <v>8</v>
-      </c>
-      <c r="C53" s="15"/>
-      <c r="D53" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="E53" s="46" t="s">
-        <v>35</v>
-      </c>
-      <c r="F53" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="G53" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="H53" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="I53" s="15"/>
-    </row>
-    <row r="54" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A54" s="58"/>
-      <c r="B54" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="C54" s="13"/>
-      <c r="D54" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="E54" s="47"/>
-      <c r="F54" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="G54" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="H54" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="I54" s="13"/>
-    </row>
-    <row r="55" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A55" s="57">
-        <v>9</v>
-      </c>
-      <c r="B55" s="36" t="s">
-        <v>8</v>
-      </c>
-      <c r="C55" s="15"/>
-      <c r="D55" s="46" t="s">
-        <v>31</v>
-      </c>
-      <c r="E55" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="F55" s="46" t="s">
-        <v>31</v>
-      </c>
-      <c r="G55" s="46" t="s">
-        <v>31</v>
-      </c>
-      <c r="H55" s="46" t="s">
-        <v>31</v>
-      </c>
-      <c r="I55" s="15"/>
-    </row>
-    <row r="56" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A56" s="58"/>
-      <c r="B56" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="C56" s="13"/>
-      <c r="D56" s="47"/>
-      <c r="E56" s="41" t="s">
-        <v>31</v>
-      </c>
-      <c r="F56" s="47"/>
-      <c r="G56" s="47"/>
-      <c r="H56" s="47"/>
-      <c r="I56" s="13"/>
-    </row>
-  </sheetData>
-  <mergeCells count="109">
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="D35:D38"/>
+    <mergeCell ref="E35:E38"/>
+    <mergeCell ref="F35:F38"/>
+    <mergeCell ref="G35:G38"/>
+    <mergeCell ref="H35:H38"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="D43:D46"/>
+    <mergeCell ref="E43:E46"/>
+    <mergeCell ref="F43:F46"/>
+    <mergeCell ref="G43:G46"/>
+    <mergeCell ref="H43:H46"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="E39:E42"/>
+    <mergeCell ref="F39:F42"/>
+    <mergeCell ref="G39:G42"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="H49:H50"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="G47:G48"/>
+    <mergeCell ref="H47:H48"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="G55:G56"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="G51:G52"/>
     <mergeCell ref="E31:E32"/>
     <mergeCell ref="E33:E34"/>
     <mergeCell ref="G31:G32"/>
@@ -5669,101 +5767,14 @@
     <mergeCell ref="E21:E22"/>
     <mergeCell ref="F19:F20"/>
     <mergeCell ref="F21:F22"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="F55:F56"/>
-    <mergeCell ref="G55:G56"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="G51:G52"/>
     <mergeCell ref="H51:H52"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="F49:F50"/>
-    <mergeCell ref="G49:G50"/>
-    <mergeCell ref="H49:H50"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="F47:F48"/>
-    <mergeCell ref="G47:G48"/>
-    <mergeCell ref="H47:H48"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="D43:D46"/>
-    <mergeCell ref="E43:E46"/>
-    <mergeCell ref="F43:F46"/>
-    <mergeCell ref="G43:G46"/>
-    <mergeCell ref="H43:H46"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="E39:E42"/>
-    <mergeCell ref="F39:F42"/>
-    <mergeCell ref="G39:G42"/>
     <mergeCell ref="H31:H32"/>
     <mergeCell ref="D33:D34"/>
     <mergeCell ref="F33:F34"/>
     <mergeCell ref="H33:H34"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="D35:D38"/>
-    <mergeCell ref="E35:E38"/>
-    <mergeCell ref="F35:F38"/>
-    <mergeCell ref="G35:G38"/>
-    <mergeCell ref="H35:H38"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="D23:D26"/>
-    <mergeCell ref="E23:E26"/>
-    <mergeCell ref="F23:F26"/>
-    <mergeCell ref="G23:G26"/>
-    <mergeCell ref="H23:H26"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="E15:E18"/>
-    <mergeCell ref="G15:G18"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="D11:D14"/>
-    <mergeCell ref="E11:E14"/>
-    <mergeCell ref="F11:F14"/>
-    <mergeCell ref="G11:G14"/>
-    <mergeCell ref="H11:H14"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="D7:D10"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F10"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H7:H10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Calendario.xlsx
+++ b/Calendario.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SEBAS\Documents\Calendario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50F20EB2-B936-4FD2-B24D-F3361629ABF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C195788-4D5D-4D19-8E9F-EEC6D9114D30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Semana1" sheetId="3" r:id="rId1"/>
     <sheet name="Semana2" sheetId="2" r:id="rId2"/>
     <sheet name="Semana3" sheetId="5" r:id="rId3"/>
     <sheet name="Semana4" sheetId="6" r:id="rId4"/>
-    <sheet name="©" sheetId="4" r:id="rId5"/>
+    <sheet name="Semana5" sheetId="7" r:id="rId5"/>
+    <sheet name="©" sheetId="4" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Semana1!$A$1:$I$56</definedName>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="834" uniqueCount="44">
   <si>
     <t>:30</t>
   </si>
@@ -161,6 +162,9 @@
   </si>
   <si>
     <t>LIBRE</t>
+  </si>
+  <si>
+    <t>Agenda Semana del 13 al 17</t>
   </si>
 </sst>
 </file>
@@ -651,7 +655,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -774,6 +778,39 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
@@ -783,40 +820,13 @@
     <xf numFmtId="0" fontId="19" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -825,10 +835,25 @@
     <xf numFmtId="0" fontId="23" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1390,10 +1415,10 @@
       <c r="I2" s="22"/>
     </row>
     <row r="3" spans="1:9" s="23" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="49" t="s">
+      <c r="A3" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="49"/>
+      <c r="B3" s="56"/>
       <c r="G3" s="24" t="s">
         <v>27</v>
       </c>
@@ -1427,79 +1452,79 @@
       </c>
     </row>
     <row r="5" spans="1:9" s="20" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="46">
+      <c r="A5" s="57">
         <v>6</v>
       </c>
       <c r="B5" s="36" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="44"/>
-      <c r="D5" s="50" t="s">
+      <c r="D5" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="50" t="s">
+      <c r="E5" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="50" t="s">
+      <c r="F5" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="50" t="s">
+      <c r="G5" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="50" t="s">
+      <c r="H5" s="55" t="s">
         <v>18</v>
       </c>
       <c r="I5" s="44"/>
     </row>
     <row r="6" spans="1:9" s="20" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="47"/>
+      <c r="A6" s="58"/>
       <c r="B6" s="33" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="45"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="51"/>
-      <c r="F6" s="51"/>
-      <c r="G6" s="51"/>
-      <c r="H6" s="51"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="47"/>
       <c r="I6" s="45"/>
     </row>
     <row r="7" spans="1:9" s="20" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="46">
+      <c r="A7" s="57">
         <v>7</v>
       </c>
       <c r="B7" s="36" t="s">
         <v>1</v>
       </c>
       <c r="C7" s="42"/>
-      <c r="D7" s="52" t="s">
+      <c r="D7" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="52" t="s">
+      <c r="E7" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="52" t="s">
+      <c r="F7" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="G7" s="52" t="s">
+      <c r="G7" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="H7" s="52" t="s">
+      <c r="H7" s="50" t="s">
         <v>18</v>
       </c>
       <c r="I7" s="44"/>
     </row>
     <row r="8" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="48"/>
+      <c r="A8" s="59"/>
       <c r="B8" s="26" t="s">
         <v>2</v>
       </c>
       <c r="C8" s="43"/>
-      <c r="D8" s="53"/>
-      <c r="E8" s="53"/>
-      <c r="F8" s="53"/>
-      <c r="G8" s="53"/>
-      <c r="H8" s="53"/>
+      <c r="D8" s="51"/>
+      <c r="E8" s="51"/>
+      <c r="F8" s="51"/>
+      <c r="G8" s="51"/>
+      <c r="H8" s="51"/>
       <c r="I8" s="43"/>
     </row>
     <row r="9" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1508,15 +1533,15 @@
         <v>0</v>
       </c>
       <c r="C9" s="43"/>
-      <c r="D9" s="53"/>
-      <c r="E9" s="56" t="s">
+      <c r="D9" s="51"/>
+      <c r="E9" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="F9" s="53"/>
-      <c r="G9" s="56" t="s">
+      <c r="F9" s="51"/>
+      <c r="G9" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="H9" s="53"/>
+      <c r="H9" s="51"/>
       <c r="I9" s="43"/>
     </row>
     <row r="10" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1525,49 +1550,49 @@
         <v>3</v>
       </c>
       <c r="C10" s="45"/>
-      <c r="D10" s="51"/>
-      <c r="E10" s="57"/>
-      <c r="F10" s="51"/>
-      <c r="G10" s="57"/>
-      <c r="H10" s="51"/>
+      <c r="D10" s="47"/>
+      <c r="E10" s="49"/>
+      <c r="F10" s="47"/>
+      <c r="G10" s="49"/>
+      <c r="H10" s="47"/>
       <c r="I10" s="45"/>
     </row>
     <row r="11" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="46">
+      <c r="A11" s="57">
         <v>8</v>
       </c>
       <c r="B11" s="36" t="s">
         <v>1</v>
       </c>
       <c r="C11" s="42"/>
-      <c r="D11" s="52" t="s">
+      <c r="D11" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="55" t="s">
+      <c r="E11" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="F11" s="52" t="s">
+      <c r="F11" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="G11" s="55" t="s">
+      <c r="G11" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="H11" s="52" t="s">
+      <c r="H11" s="50" t="s">
         <v>18</v>
       </c>
       <c r="I11" s="42"/>
     </row>
     <row r="12" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="48"/>
+      <c r="A12" s="59"/>
       <c r="B12" s="26" t="s">
         <v>2</v>
       </c>
       <c r="C12" s="43"/>
-      <c r="D12" s="53"/>
-      <c r="E12" s="56"/>
-      <c r="F12" s="53"/>
-      <c r="G12" s="56"/>
-      <c r="H12" s="53"/>
+      <c r="D12" s="51"/>
+      <c r="E12" s="53"/>
+      <c r="F12" s="51"/>
+      <c r="G12" s="53"/>
+      <c r="H12" s="51"/>
       <c r="I12" s="43"/>
     </row>
     <row r="13" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1576,11 +1601,11 @@
         <v>0</v>
       </c>
       <c r="C13" s="43"/>
-      <c r="D13" s="53"/>
-      <c r="E13" s="56"/>
-      <c r="F13" s="53"/>
-      <c r="G13" s="56"/>
-      <c r="H13" s="53"/>
+      <c r="D13" s="51"/>
+      <c r="E13" s="53"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="53"/>
+      <c r="H13" s="51"/>
       <c r="I13" s="43"/>
     </row>
     <row r="14" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1589,48 +1614,48 @@
         <v>3</v>
       </c>
       <c r="C14" s="45"/>
-      <c r="D14" s="51"/>
-      <c r="E14" s="57"/>
-      <c r="F14" s="51"/>
-      <c r="G14" s="57"/>
-      <c r="H14" s="51"/>
+      <c r="D14" s="47"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="47"/>
+      <c r="G14" s="49"/>
+      <c r="H14" s="47"/>
       <c r="I14" s="45"/>
     </row>
     <row r="15" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="46">
+      <c r="A15" s="57">
         <v>9</v>
       </c>
       <c r="B15" s="36" t="s">
         <v>1</v>
       </c>
       <c r="C15" s="18"/>
-      <c r="D15" s="52" t="s">
+      <c r="D15" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="E15" s="55" t="s">
+      <c r="E15" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="F15" s="52" t="s">
+      <c r="F15" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="G15" s="55" t="s">
+      <c r="G15" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="H15" s="52" t="s">
+      <c r="H15" s="50" t="s">
         <v>28</v>
       </c>
       <c r="I15" s="42"/>
     </row>
     <row r="16" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="48"/>
+      <c r="A16" s="59"/>
       <c r="B16" s="26" t="s">
         <v>2</v>
       </c>
       <c r="C16" s="17"/>
       <c r="D16" s="54"/>
-      <c r="E16" s="56"/>
+      <c r="E16" s="53"/>
       <c r="F16" s="54"/>
-      <c r="G16" s="56"/>
+      <c r="G16" s="53"/>
       <c r="H16" s="54"/>
       <c r="I16" s="43"/>
     </row>
@@ -1640,15 +1665,15 @@
         <v>0</v>
       </c>
       <c r="C17" s="18"/>
-      <c r="D17" s="58" t="s">
+      <c r="D17" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="E17" s="56"/>
-      <c r="F17" s="58" t="s">
+      <c r="E17" s="53"/>
+      <c r="F17" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="G17" s="56"/>
-      <c r="H17" s="58" t="s">
+      <c r="G17" s="53"/>
+      <c r="H17" s="46" t="s">
         <v>29</v>
       </c>
       <c r="I17" s="43"/>
@@ -1659,49 +1684,49 @@
         <v>3</v>
       </c>
       <c r="C18" s="12"/>
-      <c r="D18" s="51"/>
-      <c r="E18" s="57"/>
-      <c r="F18" s="51"/>
-      <c r="G18" s="57"/>
-      <c r="H18" s="51"/>
+      <c r="D18" s="47"/>
+      <c r="E18" s="49"/>
+      <c r="F18" s="47"/>
+      <c r="G18" s="49"/>
+      <c r="H18" s="47"/>
       <c r="I18" s="45"/>
     </row>
     <row r="19" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="46">
+      <c r="A19" s="57">
         <v>10</v>
       </c>
       <c r="B19" s="36" t="s">
         <v>1</v>
       </c>
       <c r="C19" s="18"/>
-      <c r="D19" s="52" t="s">
-        <v>30</v>
-      </c>
-      <c r="E19" s="52" t="s">
+      <c r="D19" s="50" t="s">
+        <v>30</v>
+      </c>
+      <c r="E19" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="F19" s="52" t="s">
-        <v>30</v>
-      </c>
-      <c r="G19" s="55" t="s">
+      <c r="F19" s="50" t="s">
+        <v>30</v>
+      </c>
+      <c r="G19" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="H19" s="52" t="s">
+      <c r="H19" s="50" t="s">
         <v>30</v>
       </c>
       <c r="I19" s="25"/>
     </row>
     <row r="20" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="48"/>
+      <c r="A20" s="59"/>
       <c r="B20" s="26" t="s">
         <v>2</v>
       </c>
       <c r="C20" s="17"/>
-      <c r="D20" s="53"/>
-      <c r="E20" s="53"/>
-      <c r="F20" s="53"/>
-      <c r="G20" s="56"/>
-      <c r="H20" s="53"/>
+      <c r="D20" s="51"/>
+      <c r="E20" s="51"/>
+      <c r="F20" s="51"/>
+      <c r="G20" s="53"/>
+      <c r="H20" s="51"/>
       <c r="I20" s="17"/>
     </row>
     <row r="21" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1710,11 +1735,11 @@
         <v>0</v>
       </c>
       <c r="C21" s="18"/>
-      <c r="D21" s="53"/>
-      <c r="E21" s="53"/>
-      <c r="F21" s="53"/>
-      <c r="G21" s="56"/>
-      <c r="H21" s="53"/>
+      <c r="D21" s="51"/>
+      <c r="E21" s="51"/>
+      <c r="F21" s="51"/>
+      <c r="G21" s="53"/>
+      <c r="H21" s="51"/>
       <c r="I21" s="18"/>
     </row>
     <row r="22" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1723,49 +1748,49 @@
         <v>3</v>
       </c>
       <c r="C22" s="12"/>
-      <c r="D22" s="51"/>
-      <c r="E22" s="51"/>
-      <c r="F22" s="51"/>
-      <c r="G22" s="57"/>
-      <c r="H22" s="51"/>
+      <c r="D22" s="47"/>
+      <c r="E22" s="47"/>
+      <c r="F22" s="47"/>
+      <c r="G22" s="49"/>
+      <c r="H22" s="47"/>
       <c r="I22" s="17"/>
     </row>
     <row r="23" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="46">
+      <c r="A23" s="57">
         <v>11</v>
       </c>
       <c r="B23" s="36" t="s">
         <v>1</v>
       </c>
       <c r="C23" s="18"/>
-      <c r="D23" s="52" t="s">
-        <v>30</v>
-      </c>
-      <c r="E23" s="55" t="s">
+      <c r="D23" s="50" t="s">
+        <v>30</v>
+      </c>
+      <c r="E23" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="F23" s="52" t="s">
-        <v>30</v>
-      </c>
-      <c r="G23" s="55" t="s">
+      <c r="F23" s="50" t="s">
+        <v>30</v>
+      </c>
+      <c r="G23" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="H23" s="52" t="s">
+      <c r="H23" s="50" t="s">
         <v>30</v>
       </c>
       <c r="I23" s="25"/>
     </row>
     <row r="24" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="48"/>
+      <c r="A24" s="59"/>
       <c r="B24" s="26" t="s">
         <v>2</v>
       </c>
       <c r="C24" s="17"/>
-      <c r="D24" s="53"/>
-      <c r="E24" s="56"/>
-      <c r="F24" s="53"/>
-      <c r="G24" s="56"/>
-      <c r="H24" s="53"/>
+      <c r="D24" s="51"/>
+      <c r="E24" s="53"/>
+      <c r="F24" s="51"/>
+      <c r="G24" s="53"/>
+      <c r="H24" s="51"/>
       <c r="I24" s="17"/>
     </row>
     <row r="25" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1774,11 +1799,11 @@
         <v>0</v>
       </c>
       <c r="C25" s="18"/>
-      <c r="D25" s="53"/>
-      <c r="E25" s="56"/>
-      <c r="F25" s="53"/>
-      <c r="G25" s="56"/>
-      <c r="H25" s="53"/>
+      <c r="D25" s="51"/>
+      <c r="E25" s="53"/>
+      <c r="F25" s="51"/>
+      <c r="G25" s="53"/>
+      <c r="H25" s="51"/>
       <c r="I25" s="18"/>
     </row>
     <row r="26" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1787,40 +1812,40 @@
         <v>3</v>
       </c>
       <c r="C26" s="12"/>
-      <c r="D26" s="51"/>
-      <c r="E26" s="57"/>
-      <c r="F26" s="51"/>
-      <c r="G26" s="57"/>
-      <c r="H26" s="51"/>
+      <c r="D26" s="47"/>
+      <c r="E26" s="49"/>
+      <c r="F26" s="47"/>
+      <c r="G26" s="49"/>
+      <c r="H26" s="47"/>
       <c r="I26" s="17"/>
     </row>
     <row r="27" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="46">
+      <c r="A27" s="57">
         <v>12</v>
       </c>
       <c r="B27" s="36" t="s">
         <v>8</v>
       </c>
       <c r="C27" s="18"/>
-      <c r="D27" s="52" t="s">
-        <v>30</v>
-      </c>
-      <c r="E27" s="52" t="s">
+      <c r="D27" s="50" t="s">
+        <v>30</v>
+      </c>
+      <c r="E27" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="F27" s="52" t="s">
-        <v>30</v>
-      </c>
-      <c r="G27" s="52" t="s">
+      <c r="F27" s="50" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="H27" s="52" t="s">
+      <c r="H27" s="50" t="s">
         <v>30</v>
       </c>
       <c r="I27" s="25"/>
     </row>
     <row r="28" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="48"/>
+      <c r="A28" s="59"/>
       <c r="B28" s="26" t="s">
         <v>2</v>
       </c>
@@ -1838,19 +1863,19 @@
         <v>0</v>
       </c>
       <c r="C29" s="18"/>
-      <c r="D29" s="58" t="s">
-        <v>31</v>
-      </c>
-      <c r="E29" s="52" t="s">
-        <v>30</v>
-      </c>
-      <c r="F29" s="58" t="s">
-        <v>31</v>
-      </c>
-      <c r="G29" s="52" t="s">
-        <v>30</v>
-      </c>
-      <c r="H29" s="58" t="s">
+      <c r="D29" s="46" t="s">
+        <v>31</v>
+      </c>
+      <c r="E29" s="50" t="s">
+        <v>30</v>
+      </c>
+      <c r="F29" s="46" t="s">
+        <v>31</v>
+      </c>
+      <c r="G29" s="50" t="s">
+        <v>30</v>
+      </c>
+      <c r="H29" s="46" t="s">
         <v>31</v>
       </c>
       <c r="I29" s="18"/>
@@ -1861,48 +1886,48 @@
         <v>3</v>
       </c>
       <c r="C30" s="12"/>
-      <c r="D30" s="51"/>
+      <c r="D30" s="47"/>
       <c r="E30" s="54"/>
-      <c r="F30" s="51"/>
+      <c r="F30" s="47"/>
       <c r="G30" s="54"/>
-      <c r="H30" s="51"/>
+      <c r="H30" s="47"/>
       <c r="I30" s="17"/>
     </row>
     <row r="31" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="46">
+      <c r="A31" s="57">
         <v>1</v>
       </c>
       <c r="B31" s="36" t="s">
         <v>8</v>
       </c>
       <c r="C31" s="18"/>
-      <c r="D31" s="52" t="s">
+      <c r="D31" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="E31" s="52" t="s">
-        <v>30</v>
-      </c>
-      <c r="F31" s="52" t="s">
+      <c r="E31" s="50" t="s">
+        <v>30</v>
+      </c>
+      <c r="F31" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="G31" s="52" t="s">
-        <v>30</v>
-      </c>
-      <c r="H31" s="52" t="s">
+      <c r="G31" s="50" t="s">
+        <v>30</v>
+      </c>
+      <c r="H31" s="50" t="s">
         <v>32</v>
       </c>
       <c r="I31" s="25"/>
     </row>
     <row r="32" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="48"/>
+      <c r="A32" s="59"/>
       <c r="B32" s="26" t="s">
         <v>2</v>
       </c>
       <c r="C32" s="17"/>
       <c r="D32" s="54"/>
-      <c r="E32" s="53"/>
+      <c r="E32" s="51"/>
       <c r="F32" s="54"/>
-      <c r="G32" s="53"/>
+      <c r="G32" s="51"/>
       <c r="H32" s="54"/>
       <c r="I32" s="17"/>
     </row>
@@ -1912,15 +1937,15 @@
         <v>0</v>
       </c>
       <c r="C33" s="18"/>
-      <c r="D33" s="59" t="s">
+      <c r="D33" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="E33" s="53"/>
-      <c r="F33" s="58" t="s">
+      <c r="E33" s="51"/>
+      <c r="F33" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="G33" s="53"/>
-      <c r="H33" s="58" t="s">
+      <c r="G33" s="51"/>
+      <c r="H33" s="46" t="s">
         <v>29</v>
       </c>
       <c r="I33" s="18"/>
@@ -1931,49 +1956,49 @@
         <v>3</v>
       </c>
       <c r="C34" s="12"/>
-      <c r="D34" s="57"/>
-      <c r="E34" s="51"/>
-      <c r="F34" s="51"/>
-      <c r="G34" s="51"/>
-      <c r="H34" s="51"/>
+      <c r="D34" s="49"/>
+      <c r="E34" s="47"/>
+      <c r="F34" s="47"/>
+      <c r="G34" s="47"/>
+      <c r="H34" s="47"/>
       <c r="I34" s="17"/>
     </row>
     <row r="35" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="46">
+      <c r="A35" s="57">
         <v>2</v>
       </c>
       <c r="B35" s="36" t="s">
         <v>8</v>
       </c>
       <c r="C35" s="18"/>
-      <c r="D35" s="55" t="s">
+      <c r="D35" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="E35" s="52" t="s">
-        <v>30</v>
-      </c>
-      <c r="F35" s="52" t="s">
+      <c r="E35" s="50" t="s">
+        <v>30</v>
+      </c>
+      <c r="F35" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="G35" s="52" t="s">
-        <v>30</v>
-      </c>
-      <c r="H35" s="52" t="s">
+      <c r="G35" s="50" t="s">
+        <v>30</v>
+      </c>
+      <c r="H35" s="50" t="s">
         <v>29</v>
       </c>
       <c r="I35" s="25"/>
     </row>
     <row r="36" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="48"/>
+      <c r="A36" s="59"/>
       <c r="B36" s="26" t="s">
         <v>2</v>
       </c>
       <c r="C36" s="17"/>
-      <c r="D36" s="56"/>
-      <c r="E36" s="53"/>
-      <c r="F36" s="53"/>
-      <c r="G36" s="53"/>
-      <c r="H36" s="53"/>
+      <c r="D36" s="53"/>
+      <c r="E36" s="51"/>
+      <c r="F36" s="51"/>
+      <c r="G36" s="51"/>
+      <c r="H36" s="51"/>
       <c r="I36" s="17"/>
     </row>
     <row r="37" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1982,11 +2007,11 @@
         <v>0</v>
       </c>
       <c r="C37" s="18"/>
-      <c r="D37" s="56"/>
-      <c r="E37" s="53"/>
-      <c r="F37" s="53"/>
-      <c r="G37" s="53"/>
-      <c r="H37" s="53"/>
+      <c r="D37" s="53"/>
+      <c r="E37" s="51"/>
+      <c r="F37" s="51"/>
+      <c r="G37" s="51"/>
+      <c r="H37" s="51"/>
       <c r="I37" s="18"/>
     </row>
     <row r="38" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1995,49 +2020,49 @@
         <v>3</v>
       </c>
       <c r="C38" s="12"/>
-      <c r="D38" s="57"/>
-      <c r="E38" s="51"/>
-      <c r="F38" s="51"/>
-      <c r="G38" s="51"/>
-      <c r="H38" s="51"/>
+      <c r="D38" s="49"/>
+      <c r="E38" s="47"/>
+      <c r="F38" s="47"/>
+      <c r="G38" s="47"/>
+      <c r="H38" s="47"/>
       <c r="I38" s="17"/>
     </row>
     <row r="39" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="46">
+      <c r="A39" s="57">
         <v>3</v>
       </c>
       <c r="B39" s="36" t="s">
         <v>8</v>
       </c>
       <c r="C39" s="18"/>
-      <c r="D39" s="58" t="s">
+      <c r="D39" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="E39" s="55" t="s">
+      <c r="E39" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="F39" s="52" t="s">
+      <c r="F39" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="G39" s="52" t="s">
+      <c r="G39" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="H39" s="58" t="s">
+      <c r="H39" s="46" t="s">
         <v>29</v>
       </c>
       <c r="I39" s="25"/>
     </row>
     <row r="40" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="48"/>
+      <c r="A40" s="59"/>
       <c r="B40" s="26" t="s">
         <v>2</v>
       </c>
       <c r="C40" s="17"/>
-      <c r="D40" s="51"/>
-      <c r="E40" s="56"/>
-      <c r="F40" s="53"/>
-      <c r="G40" s="53"/>
-      <c r="H40" s="51"/>
+      <c r="D40" s="47"/>
+      <c r="E40" s="53"/>
+      <c r="F40" s="51"/>
+      <c r="G40" s="51"/>
+      <c r="H40" s="47"/>
       <c r="I40" s="17"/>
     </row>
     <row r="41" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2046,13 +2071,13 @@
         <v>0</v>
       </c>
       <c r="C41" s="18"/>
-      <c r="D41" s="55" t="s">
+      <c r="D41" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="E41" s="56"/>
-      <c r="F41" s="53"/>
-      <c r="G41" s="53"/>
-      <c r="H41" s="55" t="s">
+      <c r="E41" s="53"/>
+      <c r="F41" s="51"/>
+      <c r="G41" s="51"/>
+      <c r="H41" s="52" t="s">
         <v>33</v>
       </c>
       <c r="I41" s="18"/>
@@ -2063,49 +2088,49 @@
         <v>3</v>
       </c>
       <c r="C42" s="12"/>
-      <c r="D42" s="57"/>
-      <c r="E42" s="57"/>
-      <c r="F42" s="51"/>
-      <c r="G42" s="51"/>
-      <c r="H42" s="57"/>
+      <c r="D42" s="49"/>
+      <c r="E42" s="49"/>
+      <c r="F42" s="47"/>
+      <c r="G42" s="47"/>
+      <c r="H42" s="49"/>
       <c r="I42" s="17"/>
     </row>
     <row r="43" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="46">
+      <c r="A43" s="57">
         <v>4</v>
       </c>
       <c r="B43" s="36" t="s">
         <v>8</v>
       </c>
       <c r="C43" s="18"/>
-      <c r="D43" s="55" t="s">
+      <c r="D43" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="E43" s="55" t="s">
+      <c r="E43" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="F43" s="52" t="s">
+      <c r="F43" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="G43" s="52" t="s">
+      <c r="G43" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="H43" s="55" t="s">
+      <c r="H43" s="52" t="s">
         <v>33</v>
       </c>
       <c r="I43" s="25"/>
     </row>
     <row r="44" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="48"/>
+      <c r="A44" s="59"/>
       <c r="B44" s="26" t="s">
         <v>2</v>
       </c>
       <c r="C44" s="17"/>
-      <c r="D44" s="56"/>
-      <c r="E44" s="56"/>
-      <c r="F44" s="53"/>
-      <c r="G44" s="53"/>
-      <c r="H44" s="56"/>
+      <c r="D44" s="53"/>
+      <c r="E44" s="53"/>
+      <c r="F44" s="51"/>
+      <c r="G44" s="51"/>
+      <c r="H44" s="53"/>
       <c r="I44" s="17"/>
     </row>
     <row r="45" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2114,11 +2139,11 @@
         <v>0</v>
       </c>
       <c r="C45" s="18"/>
-      <c r="D45" s="56"/>
-      <c r="E45" s="56"/>
-      <c r="F45" s="53"/>
-      <c r="G45" s="53"/>
-      <c r="H45" s="56"/>
+      <c r="D45" s="53"/>
+      <c r="E45" s="53"/>
+      <c r="F45" s="51"/>
+      <c r="G45" s="51"/>
+      <c r="H45" s="53"/>
       <c r="I45" s="18"/>
     </row>
     <row r="46" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2127,129 +2152,129 @@
         <v>3</v>
       </c>
       <c r="C46" s="12"/>
-      <c r="D46" s="57"/>
-      <c r="E46" s="57"/>
-      <c r="F46" s="51"/>
-      <c r="G46" s="51"/>
-      <c r="H46" s="57"/>
+      <c r="D46" s="49"/>
+      <c r="E46" s="49"/>
+      <c r="F46" s="47"/>
+      <c r="G46" s="47"/>
+      <c r="H46" s="49"/>
       <c r="I46" s="17"/>
     </row>
     <row r="47" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="46">
+      <c r="A47" s="57">
         <v>5</v>
       </c>
       <c r="B47" s="36" t="s">
         <v>8</v>
       </c>
       <c r="C47" s="15"/>
-      <c r="D47" s="55" t="s">
+      <c r="D47" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="E47" s="58" t="s">
-        <v>31</v>
-      </c>
-      <c r="F47" s="52" t="s">
+      <c r="E47" s="46" t="s">
+        <v>31</v>
+      </c>
+      <c r="F47" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="G47" s="58" t="s">
-        <v>31</v>
-      </c>
-      <c r="H47" s="55" t="s">
+      <c r="G47" s="46" t="s">
+        <v>31</v>
+      </c>
+      <c r="H47" s="52" t="s">
         <v>33</v>
       </c>
       <c r="I47" s="15"/>
     </row>
     <row r="48" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="47"/>
+      <c r="A48" s="58"/>
       <c r="B48" s="33" t="s">
         <v>0</v>
       </c>
       <c r="C48" s="13"/>
-      <c r="D48" s="57"/>
-      <c r="E48" s="51"/>
-      <c r="F48" s="51"/>
-      <c r="G48" s="51"/>
-      <c r="H48" s="57"/>
+      <c r="D48" s="49"/>
+      <c r="E48" s="47"/>
+      <c r="F48" s="47"/>
+      <c r="G48" s="47"/>
+      <c r="H48" s="49"/>
       <c r="I48" s="13"/>
     </row>
     <row r="49" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="46">
+      <c r="A49" s="57">
         <v>6</v>
       </c>
       <c r="B49" s="36" t="s">
         <v>8</v>
       </c>
       <c r="C49" s="15"/>
-      <c r="D49" s="55" t="s">
+      <c r="D49" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="E49" s="59" t="s">
+      <c r="E49" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="F49" s="52" t="s">
+      <c r="F49" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="G49" s="58" t="s">
-        <v>31</v>
-      </c>
-      <c r="H49" s="55" t="s">
+      <c r="G49" s="46" t="s">
+        <v>31</v>
+      </c>
+      <c r="H49" s="52" t="s">
         <v>33</v>
       </c>
       <c r="I49" s="15"/>
     </row>
     <row r="50" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="47"/>
+      <c r="A50" s="58"/>
       <c r="B50" s="33" t="s">
         <v>0</v>
       </c>
       <c r="C50" s="13"/>
-      <c r="D50" s="57"/>
-      <c r="E50" s="57"/>
-      <c r="F50" s="51"/>
-      <c r="G50" s="51"/>
-      <c r="H50" s="57"/>
+      <c r="D50" s="49"/>
+      <c r="E50" s="49"/>
+      <c r="F50" s="47"/>
+      <c r="G50" s="47"/>
+      <c r="H50" s="49"/>
       <c r="I50" s="13"/>
     </row>
     <row r="51" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="46">
+      <c r="A51" s="57">
         <v>7</v>
       </c>
       <c r="B51" s="36" t="s">
         <v>8</v>
       </c>
       <c r="C51" s="15"/>
-      <c r="D51" s="58" t="s">
-        <v>31</v>
-      </c>
-      <c r="E51" s="59" t="s">
+      <c r="D51" s="46" t="s">
+        <v>31</v>
+      </c>
+      <c r="E51" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="F51" s="58" t="s">
-        <v>31</v>
-      </c>
-      <c r="G51" s="58" t="s">
-        <v>31</v>
-      </c>
-      <c r="H51" s="58" t="s">
+      <c r="F51" s="46" t="s">
+        <v>31</v>
+      </c>
+      <c r="G51" s="46" t="s">
+        <v>31</v>
+      </c>
+      <c r="H51" s="46" t="s">
         <v>31</v>
       </c>
       <c r="I51" s="15"/>
     </row>
     <row r="52" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="47"/>
+      <c r="A52" s="58"/>
       <c r="B52" s="33" t="s">
         <v>0</v>
       </c>
       <c r="C52" s="13"/>
-      <c r="D52" s="51"/>
-      <c r="E52" s="57"/>
-      <c r="F52" s="51"/>
-      <c r="G52" s="51"/>
-      <c r="H52" s="51"/>
+      <c r="D52" s="47"/>
+      <c r="E52" s="49"/>
+      <c r="F52" s="47"/>
+      <c r="G52" s="47"/>
+      <c r="H52" s="47"/>
       <c r="I52" s="13"/>
     </row>
     <row r="53" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="46">
+      <c r="A53" s="57">
         <v>8</v>
       </c>
       <c r="B53" s="36" t="s">
@@ -2259,7 +2284,7 @@
       <c r="D53" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="E53" s="59" t="s">
+      <c r="E53" s="48" t="s">
         <v>35</v>
       </c>
       <c r="F53" s="16" t="s">
@@ -2274,7 +2299,7 @@
       <c r="I53" s="15"/>
     </row>
     <row r="54" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="47"/>
+      <c r="A54" s="58"/>
       <c r="B54" s="33" t="s">
         <v>0</v>
       </c>
@@ -2282,7 +2307,7 @@
       <c r="D54" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="E54" s="57"/>
+      <c r="E54" s="49"/>
       <c r="F54" s="14" t="s">
         <v>31</v>
       </c>
@@ -2295,47 +2320,130 @@
       <c r="I54" s="13"/>
     </row>
     <row r="55" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="46">
+      <c r="A55" s="57">
         <v>9</v>
       </c>
       <c r="B55" s="36" t="s">
         <v>8</v>
       </c>
       <c r="C55" s="15"/>
-      <c r="D55" s="58" t="s">
+      <c r="D55" s="46" t="s">
         <v>31</v>
       </c>
       <c r="E55" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="F55" s="58" t="s">
-        <v>31</v>
-      </c>
-      <c r="G55" s="58" t="s">
-        <v>31</v>
-      </c>
-      <c r="H55" s="58" t="s">
+      <c r="F55" s="46" t="s">
+        <v>31</v>
+      </c>
+      <c r="G55" s="46" t="s">
+        <v>31</v>
+      </c>
+      <c r="H55" s="46" t="s">
         <v>31</v>
       </c>
       <c r="I55" s="15"/>
     </row>
     <row r="56" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="47"/>
+      <c r="A56" s="58"/>
       <c r="B56" s="33" t="s">
         <v>0</v>
       </c>
       <c r="C56" s="13"/>
-      <c r="D56" s="51"/>
+      <c r="D56" s="47"/>
       <c r="E56" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="F56" s="51"/>
-      <c r="G56" s="51"/>
-      <c r="H56" s="51"/>
+      <c r="F56" s="47"/>
+      <c r="G56" s="47"/>
+      <c r="H56" s="47"/>
       <c r="I56" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="107">
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="D7:D10"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="D19:D22"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="D35:D38"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="F7:F10"/>
+    <mergeCell ref="H7:H10"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="E15:E18"/>
+    <mergeCell ref="G15:G18"/>
+    <mergeCell ref="E11:E14"/>
+    <mergeCell ref="F11:F14"/>
+    <mergeCell ref="G11:G14"/>
+    <mergeCell ref="H11:H14"/>
+    <mergeCell ref="F19:F22"/>
+    <mergeCell ref="H19:H22"/>
+    <mergeCell ref="D23:D26"/>
+    <mergeCell ref="F23:F26"/>
+    <mergeCell ref="H23:H26"/>
+    <mergeCell ref="E19:E22"/>
+    <mergeCell ref="G19:G22"/>
+    <mergeCell ref="E23:E26"/>
+    <mergeCell ref="G23:G26"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="H33:H34"/>
+    <mergeCell ref="E31:E34"/>
+    <mergeCell ref="G31:G34"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="G51:G52"/>
+    <mergeCell ref="F35:F38"/>
+    <mergeCell ref="H35:H38"/>
+    <mergeCell ref="D43:D46"/>
+    <mergeCell ref="H43:H46"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="E35:E38"/>
+    <mergeCell ref="G35:G38"/>
     <mergeCell ref="G55:G56"/>
     <mergeCell ref="E53:E54"/>
     <mergeCell ref="D55:D56"/>
@@ -2360,89 +2468,6 @@
     <mergeCell ref="D51:D52"/>
     <mergeCell ref="F51:F52"/>
     <mergeCell ref="H51:H52"/>
-    <mergeCell ref="G51:G52"/>
-    <mergeCell ref="F35:F38"/>
-    <mergeCell ref="H35:H38"/>
-    <mergeCell ref="D43:D46"/>
-    <mergeCell ref="H43:H46"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="H39:H40"/>
-    <mergeCell ref="H41:H42"/>
-    <mergeCell ref="E35:E38"/>
-    <mergeCell ref="G35:G38"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="H31:H32"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="H33:H34"/>
-    <mergeCell ref="E31:E34"/>
-    <mergeCell ref="G31:G34"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="F19:F22"/>
-    <mergeCell ref="H19:H22"/>
-    <mergeCell ref="D23:D26"/>
-    <mergeCell ref="F23:F26"/>
-    <mergeCell ref="H23:H26"/>
-    <mergeCell ref="E19:E22"/>
-    <mergeCell ref="G19:G22"/>
-    <mergeCell ref="E23:E26"/>
-    <mergeCell ref="G23:G26"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="E15:E18"/>
-    <mergeCell ref="G15:G18"/>
-    <mergeCell ref="E11:E14"/>
-    <mergeCell ref="F11:F14"/>
-    <mergeCell ref="G11:G14"/>
-    <mergeCell ref="H11:H14"/>
-    <mergeCell ref="F7:F10"/>
-    <mergeCell ref="H7:H10"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="D7:D10"/>
-    <mergeCell ref="D11:D14"/>
-    <mergeCell ref="D19:D22"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="D35:D38"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="A43:A44"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -2500,10 +2525,10 @@
       <c r="I2" s="22"/>
     </row>
     <row r="3" spans="1:9" s="23" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="49" t="s">
+      <c r="A3" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="49"/>
+      <c r="B3" s="56"/>
       <c r="G3" s="24" t="s">
         <v>27</v>
       </c>
@@ -2537,79 +2562,79 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="46">
+      <c r="A5" s="57">
         <v>6</v>
       </c>
       <c r="B5" s="36" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="44"/>
-      <c r="D5" s="50" t="s">
+      <c r="D5" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="50" t="s">
+      <c r="E5" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="50" t="s">
+      <c r="F5" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="50" t="s">
+      <c r="G5" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="50" t="s">
+      <c r="H5" s="55" t="s">
         <v>18</v>
       </c>
       <c r="I5" s="44"/>
     </row>
     <row r="6" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="47"/>
+      <c r="A6" s="58"/>
       <c r="B6" s="33" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="45"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="51"/>
-      <c r="F6" s="51"/>
-      <c r="G6" s="51"/>
-      <c r="H6" s="51"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="47"/>
       <c r="I6" s="45"/>
     </row>
     <row r="7" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="46">
+      <c r="A7" s="57">
         <v>7</v>
       </c>
       <c r="B7" s="36" t="s">
         <v>1</v>
       </c>
       <c r="C7" s="42"/>
-      <c r="D7" s="52" t="s">
+      <c r="D7" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="52" t="s">
+      <c r="E7" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="52" t="s">
+      <c r="F7" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="G7" s="52" t="s">
+      <c r="G7" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="H7" s="52" t="s">
+      <c r="H7" s="50" t="s">
         <v>18</v>
       </c>
       <c r="I7" s="44"/>
     </row>
     <row r="8" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="48"/>
+      <c r="A8" s="59"/>
       <c r="B8" s="26" t="s">
         <v>2</v>
       </c>
       <c r="C8" s="43"/>
-      <c r="D8" s="53"/>
-      <c r="E8" s="53"/>
-      <c r="F8" s="53"/>
-      <c r="G8" s="53"/>
-      <c r="H8" s="53"/>
+      <c r="D8" s="51"/>
+      <c r="E8" s="51"/>
+      <c r="F8" s="51"/>
+      <c r="G8" s="51"/>
+      <c r="H8" s="51"/>
       <c r="I8" s="43"/>
     </row>
     <row r="9" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -2618,15 +2643,15 @@
         <v>0</v>
       </c>
       <c r="C9" s="43"/>
-      <c r="D9" s="53"/>
-      <c r="E9" s="56" t="s">
+      <c r="D9" s="51"/>
+      <c r="E9" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="F9" s="53"/>
-      <c r="G9" s="56" t="s">
+      <c r="F9" s="51"/>
+      <c r="G9" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="H9" s="53"/>
+      <c r="H9" s="51"/>
       <c r="I9" s="43"/>
     </row>
     <row r="10" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -2635,49 +2660,49 @@
         <v>3</v>
       </c>
       <c r="C10" s="45"/>
-      <c r="D10" s="51"/>
-      <c r="E10" s="57"/>
-      <c r="F10" s="51"/>
-      <c r="G10" s="57"/>
-      <c r="H10" s="51"/>
+      <c r="D10" s="47"/>
+      <c r="E10" s="49"/>
+      <c r="F10" s="47"/>
+      <c r="G10" s="49"/>
+      <c r="H10" s="47"/>
       <c r="I10" s="45"/>
     </row>
     <row r="11" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="46">
+      <c r="A11" s="57">
         <v>8</v>
       </c>
       <c r="B11" s="36" t="s">
         <v>1</v>
       </c>
       <c r="C11" s="42"/>
-      <c r="D11" s="52" t="s">
+      <c r="D11" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="55" t="s">
+      <c r="E11" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="F11" s="52" t="s">
+      <c r="F11" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="G11" s="55" t="s">
+      <c r="G11" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="H11" s="52" t="s">
+      <c r="H11" s="50" t="s">
         <v>18</v>
       </c>
       <c r="I11" s="42"/>
     </row>
     <row r="12" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="48"/>
+      <c r="A12" s="59"/>
       <c r="B12" s="26" t="s">
         <v>2</v>
       </c>
       <c r="C12" s="43"/>
-      <c r="D12" s="53"/>
-      <c r="E12" s="56"/>
-      <c r="F12" s="53"/>
-      <c r="G12" s="56"/>
-      <c r="H12" s="53"/>
+      <c r="D12" s="51"/>
+      <c r="E12" s="53"/>
+      <c r="F12" s="51"/>
+      <c r="G12" s="53"/>
+      <c r="H12" s="51"/>
       <c r="I12" s="43"/>
     </row>
     <row r="13" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -2686,11 +2711,11 @@
         <v>0</v>
       </c>
       <c r="C13" s="43"/>
-      <c r="D13" s="53"/>
-      <c r="E13" s="56"/>
-      <c r="F13" s="53"/>
-      <c r="G13" s="56"/>
-      <c r="H13" s="53"/>
+      <c r="D13" s="51"/>
+      <c r="E13" s="53"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="53"/>
+      <c r="H13" s="51"/>
       <c r="I13" s="43"/>
     </row>
     <row r="14" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -2699,48 +2724,48 @@
         <v>3</v>
       </c>
       <c r="C14" s="45"/>
-      <c r="D14" s="51"/>
-      <c r="E14" s="57"/>
-      <c r="F14" s="51"/>
-      <c r="G14" s="57"/>
-      <c r="H14" s="51"/>
+      <c r="D14" s="47"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="47"/>
+      <c r="G14" s="49"/>
+      <c r="H14" s="47"/>
       <c r="I14" s="45"/>
     </row>
     <row r="15" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="46">
+      <c r="A15" s="57">
         <v>9</v>
       </c>
       <c r="B15" s="36" t="s">
         <v>1</v>
       </c>
       <c r="C15" s="18"/>
-      <c r="D15" s="52" t="s">
+      <c r="D15" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="E15" s="55" t="s">
+      <c r="E15" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="F15" s="52" t="s">
+      <c r="F15" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="G15" s="55" t="s">
+      <c r="G15" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="H15" s="52" t="s">
+      <c r="H15" s="50" t="s">
         <v>28</v>
       </c>
       <c r="I15" s="42"/>
     </row>
     <row r="16" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="48"/>
+      <c r="A16" s="59"/>
       <c r="B16" s="26" t="s">
         <v>2</v>
       </c>
       <c r="C16" s="17"/>
       <c r="D16" s="54"/>
-      <c r="E16" s="56"/>
+      <c r="E16" s="53"/>
       <c r="F16" s="54"/>
-      <c r="G16" s="56"/>
+      <c r="G16" s="53"/>
       <c r="H16" s="54"/>
       <c r="I16" s="43"/>
     </row>
@@ -2750,15 +2775,15 @@
         <v>0</v>
       </c>
       <c r="C17" s="18"/>
-      <c r="D17" s="58" t="s">
+      <c r="D17" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="E17" s="56"/>
-      <c r="F17" s="58" t="s">
+      <c r="E17" s="53"/>
+      <c r="F17" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="G17" s="56"/>
-      <c r="H17" s="58" t="s">
+      <c r="G17" s="53"/>
+      <c r="H17" s="46" t="s">
         <v>29</v>
       </c>
       <c r="I17" s="43"/>
@@ -2769,49 +2794,49 @@
         <v>3</v>
       </c>
       <c r="C18" s="12"/>
-      <c r="D18" s="51"/>
-      <c r="E18" s="57"/>
-      <c r="F18" s="51"/>
-      <c r="G18" s="57"/>
-      <c r="H18" s="51"/>
+      <c r="D18" s="47"/>
+      <c r="E18" s="49"/>
+      <c r="F18" s="47"/>
+      <c r="G18" s="49"/>
+      <c r="H18" s="47"/>
       <c r="I18" s="45"/>
     </row>
     <row r="19" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="46">
+      <c r="A19" s="57">
         <v>10</v>
       </c>
       <c r="B19" s="36" t="s">
         <v>1</v>
       </c>
       <c r="C19" s="18"/>
-      <c r="D19" s="55" t="s">
-        <v>30</v>
-      </c>
-      <c r="E19" s="52" t="s">
+      <c r="D19" s="52" t="s">
+        <v>30</v>
+      </c>
+      <c r="E19" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="F19" s="52" t="s">
-        <v>30</v>
-      </c>
-      <c r="G19" s="52" t="s">
+      <c r="F19" s="50" t="s">
+        <v>30</v>
+      </c>
+      <c r="G19" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="H19" s="52" t="s">
+      <c r="H19" s="50" t="s">
         <v>30</v>
       </c>
       <c r="I19" s="25"/>
     </row>
     <row r="20" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="48"/>
+      <c r="A20" s="59"/>
       <c r="B20" s="26" t="s">
         <v>2</v>
       </c>
       <c r="C20" s="17"/>
-      <c r="D20" s="56"/>
-      <c r="E20" s="53"/>
-      <c r="F20" s="53"/>
-      <c r="G20" s="53"/>
-      <c r="H20" s="53"/>
+      <c r="D20" s="53"/>
+      <c r="E20" s="51"/>
+      <c r="F20" s="51"/>
+      <c r="G20" s="51"/>
+      <c r="H20" s="51"/>
       <c r="I20" s="17"/>
     </row>
     <row r="21" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -2820,11 +2845,11 @@
         <v>0</v>
       </c>
       <c r="C21" s="18"/>
-      <c r="D21" s="56"/>
-      <c r="E21" s="53"/>
-      <c r="F21" s="53"/>
-      <c r="G21" s="53"/>
-      <c r="H21" s="53"/>
+      <c r="D21" s="53"/>
+      <c r="E21" s="51"/>
+      <c r="F21" s="51"/>
+      <c r="G21" s="51"/>
+      <c r="H21" s="51"/>
       <c r="I21" s="18"/>
     </row>
     <row r="22" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -2833,49 +2858,49 @@
         <v>3</v>
       </c>
       <c r="C22" s="12"/>
-      <c r="D22" s="57"/>
-      <c r="E22" s="51"/>
-      <c r="F22" s="51"/>
-      <c r="G22" s="51"/>
-      <c r="H22" s="51"/>
+      <c r="D22" s="49"/>
+      <c r="E22" s="47"/>
+      <c r="F22" s="47"/>
+      <c r="G22" s="47"/>
+      <c r="H22" s="47"/>
       <c r="I22" s="17"/>
     </row>
     <row r="23" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="46">
+      <c r="A23" s="57">
         <v>11</v>
       </c>
       <c r="B23" s="36" t="s">
         <v>1</v>
       </c>
       <c r="C23" s="18"/>
-      <c r="D23" s="55" t="s">
-        <v>30</v>
-      </c>
-      <c r="E23" s="55" t="s">
+      <c r="D23" s="52" t="s">
+        <v>30</v>
+      </c>
+      <c r="E23" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="F23" s="52" t="s">
-        <v>30</v>
-      </c>
-      <c r="G23" s="55" t="s">
+      <c r="F23" s="50" t="s">
+        <v>30</v>
+      </c>
+      <c r="G23" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="H23" s="52" t="s">
+      <c r="H23" s="50" t="s">
         <v>30</v>
       </c>
       <c r="I23" s="25"/>
     </row>
     <row r="24" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="48"/>
+      <c r="A24" s="59"/>
       <c r="B24" s="26" t="s">
         <v>2</v>
       </c>
       <c r="C24" s="17"/>
-      <c r="D24" s="56"/>
-      <c r="E24" s="56"/>
-      <c r="F24" s="53"/>
-      <c r="G24" s="56"/>
-      <c r="H24" s="53"/>
+      <c r="D24" s="53"/>
+      <c r="E24" s="53"/>
+      <c r="F24" s="51"/>
+      <c r="G24" s="53"/>
+      <c r="H24" s="51"/>
       <c r="I24" s="17"/>
     </row>
     <row r="25" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -2884,11 +2909,11 @@
         <v>0</v>
       </c>
       <c r="C25" s="18"/>
-      <c r="D25" s="56"/>
-      <c r="E25" s="56"/>
-      <c r="F25" s="53"/>
-      <c r="G25" s="56"/>
-      <c r="H25" s="53"/>
+      <c r="D25" s="53"/>
+      <c r="E25" s="53"/>
+      <c r="F25" s="51"/>
+      <c r="G25" s="53"/>
+      <c r="H25" s="51"/>
       <c r="I25" s="18"/>
     </row>
     <row r="26" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -2897,40 +2922,40 @@
         <v>3</v>
       </c>
       <c r="C26" s="12"/>
-      <c r="D26" s="57"/>
-      <c r="E26" s="57"/>
-      <c r="F26" s="51"/>
-      <c r="G26" s="57"/>
-      <c r="H26" s="51"/>
+      <c r="D26" s="49"/>
+      <c r="E26" s="49"/>
+      <c r="F26" s="47"/>
+      <c r="G26" s="49"/>
+      <c r="H26" s="47"/>
       <c r="I26" s="17"/>
     </row>
     <row r="27" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="46">
+      <c r="A27" s="57">
         <v>12</v>
       </c>
       <c r="B27" s="36" t="s">
         <v>8</v>
       </c>
       <c r="C27" s="18"/>
-      <c r="D27" s="55" t="s">
-        <v>30</v>
-      </c>
-      <c r="E27" s="52" t="s">
+      <c r="D27" s="52" t="s">
+        <v>30</v>
+      </c>
+      <c r="E27" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="F27" s="52" t="s">
-        <v>30</v>
-      </c>
-      <c r="G27" s="52" t="s">
+      <c r="F27" s="50" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="H27" s="52" t="s">
+      <c r="H27" s="50" t="s">
         <v>30</v>
       </c>
       <c r="I27" s="25"/>
     </row>
     <row r="28" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="48"/>
+      <c r="A28" s="59"/>
       <c r="B28" s="26" t="s">
         <v>2</v>
       </c>
@@ -2948,19 +2973,19 @@
         <v>0</v>
       </c>
       <c r="C29" s="18"/>
-      <c r="D29" s="58" t="s">
-        <v>31</v>
-      </c>
-      <c r="E29" s="52" t="s">
-        <v>30</v>
-      </c>
-      <c r="F29" s="58" t="s">
-        <v>31</v>
-      </c>
-      <c r="G29" s="52" t="s">
-        <v>30</v>
-      </c>
-      <c r="H29" s="58" t="s">
+      <c r="D29" s="46" t="s">
+        <v>31</v>
+      </c>
+      <c r="E29" s="50" t="s">
+        <v>30</v>
+      </c>
+      <c r="F29" s="46" t="s">
+        <v>31</v>
+      </c>
+      <c r="G29" s="50" t="s">
+        <v>30</v>
+      </c>
+      <c r="H29" s="46" t="s">
         <v>31</v>
       </c>
       <c r="I29" s="18"/>
@@ -2971,48 +2996,48 @@
         <v>3</v>
       </c>
       <c r="C30" s="12"/>
-      <c r="D30" s="51"/>
+      <c r="D30" s="47"/>
       <c r="E30" s="54"/>
-      <c r="F30" s="51"/>
+      <c r="F30" s="47"/>
       <c r="G30" s="54"/>
-      <c r="H30" s="51"/>
+      <c r="H30" s="47"/>
       <c r="I30" s="17"/>
     </row>
     <row r="31" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="46">
+      <c r="A31" s="57">
         <v>1</v>
       </c>
       <c r="B31" s="36" t="s">
         <v>8</v>
       </c>
       <c r="C31" s="18"/>
-      <c r="D31" s="52" t="s">
+      <c r="D31" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="E31" s="52" t="s">
-        <v>30</v>
-      </c>
-      <c r="F31" s="52" t="s">
+      <c r="E31" s="50" t="s">
+        <v>30</v>
+      </c>
+      <c r="F31" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="G31" s="52" t="s">
-        <v>30</v>
-      </c>
-      <c r="H31" s="52" t="s">
+      <c r="G31" s="50" t="s">
+        <v>30</v>
+      </c>
+      <c r="H31" s="50" t="s">
         <v>32</v>
       </c>
       <c r="I31" s="25"/>
     </row>
     <row r="32" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="48"/>
+      <c r="A32" s="59"/>
       <c r="B32" s="26" t="s">
         <v>2</v>
       </c>
       <c r="C32" s="17"/>
       <c r="D32" s="54"/>
-      <c r="E32" s="53"/>
+      <c r="E32" s="51"/>
       <c r="F32" s="54"/>
-      <c r="G32" s="53"/>
+      <c r="G32" s="51"/>
       <c r="H32" s="54"/>
       <c r="I32" s="17"/>
     </row>
@@ -3022,15 +3047,15 @@
         <v>0</v>
       </c>
       <c r="C33" s="18"/>
-      <c r="D33" s="58" t="s">
+      <c r="D33" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="E33" s="53"/>
-      <c r="F33" s="58" t="s">
+      <c r="E33" s="51"/>
+      <c r="F33" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="G33" s="53"/>
-      <c r="H33" s="58" t="s">
+      <c r="G33" s="51"/>
+      <c r="H33" s="46" t="s">
         <v>29</v>
       </c>
       <c r="I33" s="18"/>
@@ -3041,49 +3066,49 @@
         <v>3</v>
       </c>
       <c r="C34" s="12"/>
-      <c r="D34" s="51"/>
-      <c r="E34" s="51"/>
-      <c r="F34" s="51"/>
-      <c r="G34" s="51"/>
-      <c r="H34" s="51"/>
+      <c r="D34" s="47"/>
+      <c r="E34" s="47"/>
+      <c r="F34" s="47"/>
+      <c r="G34" s="47"/>
+      <c r="H34" s="47"/>
       <c r="I34" s="17"/>
     </row>
     <row r="35" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="46">
+      <c r="A35" s="57">
         <v>2</v>
       </c>
       <c r="B35" s="36" t="s">
         <v>8</v>
       </c>
       <c r="C35" s="18"/>
-      <c r="D35" s="52" t="s">
+      <c r="D35" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="E35" s="52" t="s">
-        <v>30</v>
-      </c>
-      <c r="F35" s="52" t="s">
+      <c r="E35" s="50" t="s">
+        <v>30</v>
+      </c>
+      <c r="F35" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="G35" s="52" t="s">
-        <v>30</v>
-      </c>
-      <c r="H35" s="52" t="s">
+      <c r="G35" s="50" t="s">
+        <v>30</v>
+      </c>
+      <c r="H35" s="50" t="s">
         <v>29</v>
       </c>
       <c r="I35" s="25"/>
     </row>
     <row r="36" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="48"/>
+      <c r="A36" s="59"/>
       <c r="B36" s="26" t="s">
         <v>2</v>
       </c>
       <c r="C36" s="17"/>
-      <c r="D36" s="53"/>
-      <c r="E36" s="53"/>
-      <c r="F36" s="53"/>
-      <c r="G36" s="53"/>
-      <c r="H36" s="53"/>
+      <c r="D36" s="51"/>
+      <c r="E36" s="51"/>
+      <c r="F36" s="51"/>
+      <c r="G36" s="51"/>
+      <c r="H36" s="51"/>
       <c r="I36" s="17"/>
     </row>
     <row r="37" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -3092,11 +3117,11 @@
         <v>0</v>
       </c>
       <c r="C37" s="18"/>
-      <c r="D37" s="53"/>
-      <c r="E37" s="53"/>
-      <c r="F37" s="53"/>
-      <c r="G37" s="53"/>
-      <c r="H37" s="53"/>
+      <c r="D37" s="51"/>
+      <c r="E37" s="51"/>
+      <c r="F37" s="51"/>
+      <c r="G37" s="51"/>
+      <c r="H37" s="51"/>
       <c r="I37" s="18"/>
     </row>
     <row r="38" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -3105,49 +3130,49 @@
         <v>3</v>
       </c>
       <c r="C38" s="12"/>
-      <c r="D38" s="51"/>
-      <c r="E38" s="51"/>
-      <c r="F38" s="51"/>
-      <c r="G38" s="51"/>
-      <c r="H38" s="51"/>
+      <c r="D38" s="47"/>
+      <c r="E38" s="47"/>
+      <c r="F38" s="47"/>
+      <c r="G38" s="47"/>
+      <c r="H38" s="47"/>
       <c r="I38" s="17"/>
     </row>
     <row r="39" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="46">
+      <c r="A39" s="57">
         <v>3</v>
       </c>
       <c r="B39" s="36" t="s">
         <v>8</v>
       </c>
       <c r="C39" s="18"/>
-      <c r="D39" s="58" t="s">
+      <c r="D39" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="E39" s="55" t="s">
+      <c r="E39" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="F39" s="52" t="s">
+      <c r="F39" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="G39" s="55" t="s">
+      <c r="G39" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="H39" s="58" t="s">
+      <c r="H39" s="46" t="s">
         <v>29</v>
       </c>
       <c r="I39" s="25"/>
     </row>
     <row r="40" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="48"/>
+      <c r="A40" s="59"/>
       <c r="B40" s="26" t="s">
         <v>2</v>
       </c>
       <c r="C40" s="17"/>
-      <c r="D40" s="51"/>
-      <c r="E40" s="56"/>
-      <c r="F40" s="53"/>
-      <c r="G40" s="56"/>
-      <c r="H40" s="51"/>
+      <c r="D40" s="47"/>
+      <c r="E40" s="53"/>
+      <c r="F40" s="51"/>
+      <c r="G40" s="53"/>
+      <c r="H40" s="47"/>
       <c r="I40" s="17"/>
     </row>
     <row r="41" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
@@ -3156,13 +3181,13 @@
         <v>0</v>
       </c>
       <c r="C41" s="18"/>
-      <c r="D41" s="55" t="s">
+      <c r="D41" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="E41" s="56"/>
-      <c r="F41" s="53"/>
-      <c r="G41" s="56"/>
-      <c r="H41" s="55" t="s">
+      <c r="E41" s="53"/>
+      <c r="F41" s="51"/>
+      <c r="G41" s="53"/>
+      <c r="H41" s="52" t="s">
         <v>33</v>
       </c>
       <c r="I41" s="18"/>
@@ -3173,49 +3198,49 @@
         <v>3</v>
       </c>
       <c r="C42" s="12"/>
-      <c r="D42" s="57"/>
-      <c r="E42" s="57"/>
-      <c r="F42" s="51"/>
-      <c r="G42" s="57"/>
-      <c r="H42" s="57"/>
+      <c r="D42" s="49"/>
+      <c r="E42" s="49"/>
+      <c r="F42" s="47"/>
+      <c r="G42" s="49"/>
+      <c r="H42" s="49"/>
       <c r="I42" s="17"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A43" s="46">
+      <c r="A43" s="57">
         <v>4</v>
       </c>
       <c r="B43" s="36" t="s">
         <v>8</v>
       </c>
       <c r="C43" s="18"/>
-      <c r="D43" s="55" t="s">
+      <c r="D43" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="E43" s="52" t="s">
+      <c r="E43" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="F43" s="52" t="s">
+      <c r="F43" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="G43" s="52" t="s">
+      <c r="G43" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="H43" s="55" t="s">
+      <c r="H43" s="52" t="s">
         <v>33</v>
       </c>
       <c r="I43" s="25"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A44" s="48"/>
+      <c r="A44" s="59"/>
       <c r="B44" s="26" t="s">
         <v>2</v>
       </c>
       <c r="C44" s="17"/>
-      <c r="D44" s="56"/>
-      <c r="E44" s="53"/>
-      <c r="F44" s="53"/>
-      <c r="G44" s="53"/>
-      <c r="H44" s="56"/>
+      <c r="D44" s="53"/>
+      <c r="E44" s="51"/>
+      <c r="F44" s="51"/>
+      <c r="G44" s="51"/>
+      <c r="H44" s="53"/>
       <c r="I44" s="17"/>
     </row>
     <row r="45" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
@@ -3224,11 +3249,11 @@
         <v>0</v>
       </c>
       <c r="C45" s="18"/>
-      <c r="D45" s="56"/>
-      <c r="E45" s="53"/>
-      <c r="F45" s="53"/>
-      <c r="G45" s="53"/>
-      <c r="H45" s="56"/>
+      <c r="D45" s="53"/>
+      <c r="E45" s="51"/>
+      <c r="F45" s="51"/>
+      <c r="G45" s="51"/>
+      <c r="H45" s="53"/>
       <c r="I45" s="18"/>
     </row>
     <row r="46" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
@@ -3237,129 +3262,129 @@
         <v>3</v>
       </c>
       <c r="C46" s="12"/>
-      <c r="D46" s="57"/>
-      <c r="E46" s="51"/>
-      <c r="F46" s="51"/>
-      <c r="G46" s="51"/>
-      <c r="H46" s="57"/>
+      <c r="D46" s="49"/>
+      <c r="E46" s="47"/>
+      <c r="F46" s="47"/>
+      <c r="G46" s="47"/>
+      <c r="H46" s="49"/>
       <c r="I46" s="17"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A47" s="46">
+      <c r="A47" s="57">
         <v>5</v>
       </c>
       <c r="B47" s="36" t="s">
         <v>8</v>
       </c>
       <c r="C47" s="15"/>
-      <c r="D47" s="55" t="s">
+      <c r="D47" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="E47" s="58" t="s">
-        <v>31</v>
-      </c>
-      <c r="F47" s="52" t="s">
+      <c r="E47" s="46" t="s">
+        <v>31</v>
+      </c>
+      <c r="F47" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="G47" s="58" t="s">
-        <v>31</v>
-      </c>
-      <c r="H47" s="55" t="s">
+      <c r="G47" s="46" t="s">
+        <v>31</v>
+      </c>
+      <c r="H47" s="52" t="s">
         <v>33</v>
       </c>
       <c r="I47" s="15"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A48" s="47"/>
+      <c r="A48" s="58"/>
       <c r="B48" s="33" t="s">
         <v>0</v>
       </c>
       <c r="C48" s="13"/>
-      <c r="D48" s="57"/>
-      <c r="E48" s="51"/>
-      <c r="F48" s="51"/>
-      <c r="G48" s="51"/>
-      <c r="H48" s="57"/>
+      <c r="D48" s="49"/>
+      <c r="E48" s="47"/>
+      <c r="F48" s="47"/>
+      <c r="G48" s="47"/>
+      <c r="H48" s="49"/>
       <c r="I48" s="13"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A49" s="46">
+      <c r="A49" s="57">
         <v>6</v>
       </c>
       <c r="B49" s="36" t="s">
         <v>8</v>
       </c>
       <c r="C49" s="15"/>
-      <c r="D49" s="55" t="s">
+      <c r="D49" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="E49" s="59" t="s">
+      <c r="E49" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="F49" s="52" t="s">
+      <c r="F49" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="G49" s="58" t="s">
-        <v>31</v>
-      </c>
-      <c r="H49" s="55" t="s">
+      <c r="G49" s="46" t="s">
+        <v>31</v>
+      </c>
+      <c r="H49" s="52" t="s">
         <v>33</v>
       </c>
       <c r="I49" s="15"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A50" s="47"/>
+      <c r="A50" s="58"/>
       <c r="B50" s="33" t="s">
         <v>0</v>
       </c>
       <c r="C50" s="13"/>
-      <c r="D50" s="57"/>
-      <c r="E50" s="57"/>
-      <c r="F50" s="51"/>
-      <c r="G50" s="51"/>
-      <c r="H50" s="57"/>
+      <c r="D50" s="49"/>
+      <c r="E50" s="49"/>
+      <c r="F50" s="47"/>
+      <c r="G50" s="47"/>
+      <c r="H50" s="49"/>
       <c r="I50" s="13"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A51" s="46">
+      <c r="A51" s="57">
         <v>7</v>
       </c>
       <c r="B51" s="36" t="s">
         <v>8</v>
       </c>
       <c r="C51" s="15"/>
-      <c r="D51" s="58" t="s">
-        <v>31</v>
-      </c>
-      <c r="E51" s="59" t="s">
+      <c r="D51" s="46" t="s">
+        <v>31</v>
+      </c>
+      <c r="E51" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="F51" s="58" t="s">
-        <v>31</v>
-      </c>
-      <c r="G51" s="58" t="s">
-        <v>31</v>
-      </c>
-      <c r="H51" s="58" t="s">
+      <c r="F51" s="46" t="s">
+        <v>31</v>
+      </c>
+      <c r="G51" s="46" t="s">
+        <v>31</v>
+      </c>
+      <c r="H51" s="46" t="s">
         <v>31</v>
       </c>
       <c r="I51" s="15"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A52" s="47"/>
+      <c r="A52" s="58"/>
       <c r="B52" s="33" t="s">
         <v>0</v>
       </c>
       <c r="C52" s="13"/>
-      <c r="D52" s="51"/>
-      <c r="E52" s="57"/>
-      <c r="F52" s="51"/>
-      <c r="G52" s="51"/>
-      <c r="H52" s="51"/>
+      <c r="D52" s="47"/>
+      <c r="E52" s="49"/>
+      <c r="F52" s="47"/>
+      <c r="G52" s="47"/>
+      <c r="H52" s="47"/>
       <c r="I52" s="13"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A53" s="46">
+      <c r="A53" s="57">
         <v>8</v>
       </c>
       <c r="B53" s="36" t="s">
@@ -3369,7 +3394,7 @@
       <c r="D53" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="E53" s="59" t="s">
+      <c r="E53" s="48" t="s">
         <v>35</v>
       </c>
       <c r="F53" s="16" t="s">
@@ -3384,7 +3409,7 @@
       <c r="I53" s="15"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A54" s="47"/>
+      <c r="A54" s="58"/>
       <c r="B54" s="33" t="s">
         <v>0</v>
       </c>
@@ -3392,7 +3417,7 @@
       <c r="D54" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="E54" s="57"/>
+      <c r="E54" s="49"/>
       <c r="F54" s="14" t="s">
         <v>31</v>
       </c>
@@ -3405,48 +3430,140 @@
       <c r="I54" s="13"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A55" s="46">
+      <c r="A55" s="57">
         <v>9</v>
       </c>
       <c r="B55" s="36" t="s">
         <v>8</v>
       </c>
       <c r="C55" s="15"/>
-      <c r="D55" s="58" t="s">
+      <c r="D55" s="46" t="s">
         <v>31</v>
       </c>
       <c r="E55" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="F55" s="58" t="s">
-        <v>31</v>
-      </c>
-      <c r="G55" s="58" t="s">
-        <v>31</v>
-      </c>
-      <c r="H55" s="58" t="s">
+      <c r="F55" s="46" t="s">
+        <v>31</v>
+      </c>
+      <c r="G55" s="46" t="s">
+        <v>31</v>
+      </c>
+      <c r="H55" s="46" t="s">
         <v>31</v>
       </c>
       <c r="I55" s="15"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A56" s="47"/>
+      <c r="A56" s="58"/>
       <c r="B56" s="33" t="s">
         <v>0</v>
       </c>
       <c r="C56" s="13"/>
-      <c r="D56" s="51"/>
+      <c r="D56" s="47"/>
       <c r="E56" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="F56" s="51"/>
-      <c r="G56" s="51"/>
-      <c r="H56" s="51"/>
+      <c r="F56" s="47"/>
+      <c r="G56" s="47"/>
+      <c r="H56" s="47"/>
       <c r="I56" s="13"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="107">
+    <mergeCell ref="H51:H52"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="G55:G56"/>
+    <mergeCell ref="H55:H56"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="G51:G52"/>
+    <mergeCell ref="H47:H48"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="H49:H50"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="G47:G48"/>
+    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="D43:D46"/>
+    <mergeCell ref="E43:E46"/>
+    <mergeCell ref="F43:F46"/>
+    <mergeCell ref="G43:G46"/>
+    <mergeCell ref="H43:H46"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="E39:E42"/>
+    <mergeCell ref="F39:F42"/>
+    <mergeCell ref="G39:G42"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="H33:H34"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="D35:D38"/>
+    <mergeCell ref="E35:E38"/>
+    <mergeCell ref="F35:F38"/>
+    <mergeCell ref="G35:G38"/>
+    <mergeCell ref="H35:H38"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="E31:E34"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="G31:G34"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="H19:H22"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="D23:D26"/>
+    <mergeCell ref="E23:E26"/>
+    <mergeCell ref="F23:F26"/>
+    <mergeCell ref="G23:G26"/>
+    <mergeCell ref="H23:H26"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="D19:D22"/>
+    <mergeCell ref="E19:E22"/>
+    <mergeCell ref="F19:F22"/>
+    <mergeCell ref="G19:G22"/>
+    <mergeCell ref="H11:H14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E18"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G15:G18"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="E11:E14"/>
+    <mergeCell ref="F11:F14"/>
+    <mergeCell ref="G11:G14"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="D5:D6"/>
@@ -3462,98 +3579,6 @@
     <mergeCell ref="H7:H10"/>
     <mergeCell ref="E9:E10"/>
     <mergeCell ref="G9:G10"/>
-    <mergeCell ref="H11:H14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E18"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G15:G18"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="D11:D14"/>
-    <mergeCell ref="E11:E14"/>
-    <mergeCell ref="F11:F14"/>
-    <mergeCell ref="G11:G14"/>
-    <mergeCell ref="H19:H22"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="D23:D26"/>
-    <mergeCell ref="E23:E26"/>
-    <mergeCell ref="F23:F26"/>
-    <mergeCell ref="G23:G26"/>
-    <mergeCell ref="H23:H26"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="D19:D22"/>
-    <mergeCell ref="E19:E22"/>
-    <mergeCell ref="F19:F22"/>
-    <mergeCell ref="G19:G22"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="H31:H32"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="H33:H34"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="D35:D38"/>
-    <mergeCell ref="E35:E38"/>
-    <mergeCell ref="F35:F38"/>
-    <mergeCell ref="G35:G38"/>
-    <mergeCell ref="H35:H38"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="E31:E34"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="G31:G34"/>
-    <mergeCell ref="H39:H40"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="H41:H42"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="D43:D46"/>
-    <mergeCell ref="E43:E46"/>
-    <mergeCell ref="F43:F46"/>
-    <mergeCell ref="G43:G46"/>
-    <mergeCell ref="H43:H46"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="E39:E42"/>
-    <mergeCell ref="F39:F42"/>
-    <mergeCell ref="G39:G42"/>
-    <mergeCell ref="H47:H48"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="F49:F50"/>
-    <mergeCell ref="G49:G50"/>
-    <mergeCell ref="H49:H50"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="F47:F48"/>
-    <mergeCell ref="G47:G48"/>
-    <mergeCell ref="H51:H52"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="F55:F56"/>
-    <mergeCell ref="G55:G56"/>
-    <mergeCell ref="H55:H56"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="G51:G52"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -3610,10 +3635,10 @@
       <c r="I2" s="22"/>
     </row>
     <row r="3" spans="1:9" s="23" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="49" t="s">
+      <c r="A3" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="49"/>
+      <c r="B3" s="56"/>
       <c r="G3" s="24" t="s">
         <v>27</v>
       </c>
@@ -3647,79 +3672,79 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="46">
+      <c r="A5" s="57">
         <v>6</v>
       </c>
       <c r="B5" s="36" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="44"/>
-      <c r="D5" s="50" t="s">
+      <c r="D5" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="50" t="s">
+      <c r="E5" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="50" t="s">
+      <c r="F5" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="50" t="s">
+      <c r="G5" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="50" t="s">
+      <c r="H5" s="55" t="s">
         <v>18</v>
       </c>
       <c r="I5" s="44"/>
     </row>
     <row r="6" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="47"/>
+      <c r="A6" s="58"/>
       <c r="B6" s="33" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="45"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="51"/>
-      <c r="F6" s="51"/>
-      <c r="G6" s="51"/>
-      <c r="H6" s="51"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="47"/>
       <c r="I6" s="45"/>
     </row>
     <row r="7" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="46">
+      <c r="A7" s="57">
         <v>7</v>
       </c>
       <c r="B7" s="36" t="s">
         <v>1</v>
       </c>
       <c r="C7" s="42"/>
-      <c r="D7" s="52" t="s">
+      <c r="D7" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="52" t="s">
+      <c r="E7" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="52" t="s">
+      <c r="F7" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="G7" s="52" t="s">
+      <c r="G7" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="H7" s="52" t="s">
+      <c r="H7" s="50" t="s">
         <v>18</v>
       </c>
       <c r="I7" s="44"/>
     </row>
     <row r="8" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="48"/>
+      <c r="A8" s="59"/>
       <c r="B8" s="26" t="s">
         <v>2</v>
       </c>
       <c r="C8" s="43"/>
-      <c r="D8" s="53"/>
-      <c r="E8" s="53"/>
-      <c r="F8" s="53"/>
-      <c r="G8" s="53"/>
-      <c r="H8" s="53"/>
+      <c r="D8" s="51"/>
+      <c r="E8" s="51"/>
+      <c r="F8" s="51"/>
+      <c r="G8" s="51"/>
+      <c r="H8" s="51"/>
       <c r="I8" s="43"/>
     </row>
     <row r="9" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -3728,15 +3753,15 @@
         <v>0</v>
       </c>
       <c r="C9" s="43"/>
-      <c r="D9" s="53"/>
-      <c r="E9" s="53" t="s">
+      <c r="D9" s="51"/>
+      <c r="E9" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="F9" s="53"/>
-      <c r="G9" s="53" t="s">
+      <c r="F9" s="51"/>
+      <c r="G9" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="H9" s="53"/>
+      <c r="H9" s="51"/>
       <c r="I9" s="43"/>
     </row>
     <row r="10" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -3745,49 +3770,49 @@
         <v>3</v>
       </c>
       <c r="C10" s="45"/>
-      <c r="D10" s="51"/>
-      <c r="E10" s="51"/>
-      <c r="F10" s="51"/>
-      <c r="G10" s="51"/>
-      <c r="H10" s="51"/>
+      <c r="D10" s="47"/>
+      <c r="E10" s="47"/>
+      <c r="F10" s="47"/>
+      <c r="G10" s="47"/>
+      <c r="H10" s="47"/>
       <c r="I10" s="45"/>
     </row>
     <row r="11" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="46">
+      <c r="A11" s="57">
         <v>8</v>
       </c>
       <c r="B11" s="36" t="s">
         <v>1</v>
       </c>
       <c r="C11" s="42"/>
-      <c r="D11" s="52" t="s">
+      <c r="D11" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="55" t="s">
+      <c r="E11" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="F11" s="52" t="s">
+      <c r="F11" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="G11" s="55" t="s">
+      <c r="G11" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="H11" s="52" t="s">
+      <c r="H11" s="50" t="s">
         <v>18</v>
       </c>
       <c r="I11" s="42"/>
     </row>
     <row r="12" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="48"/>
+      <c r="A12" s="59"/>
       <c r="B12" s="26" t="s">
         <v>2</v>
       </c>
       <c r="C12" s="43"/>
-      <c r="D12" s="53"/>
-      <c r="E12" s="56"/>
-      <c r="F12" s="53"/>
-      <c r="G12" s="56"/>
-      <c r="H12" s="53"/>
+      <c r="D12" s="51"/>
+      <c r="E12" s="53"/>
+      <c r="F12" s="51"/>
+      <c r="G12" s="53"/>
+      <c r="H12" s="51"/>
       <c r="I12" s="43"/>
     </row>
     <row r="13" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -3796,11 +3821,11 @@
         <v>0</v>
       </c>
       <c r="C13" s="43"/>
-      <c r="D13" s="53"/>
-      <c r="E13" s="56"/>
-      <c r="F13" s="53"/>
-      <c r="G13" s="56"/>
-      <c r="H13" s="53"/>
+      <c r="D13" s="51"/>
+      <c r="E13" s="53"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="53"/>
+      <c r="H13" s="51"/>
       <c r="I13" s="43"/>
     </row>
     <row r="14" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -3809,48 +3834,48 @@
         <v>3</v>
       </c>
       <c r="C14" s="45"/>
-      <c r="D14" s="51"/>
-      <c r="E14" s="57"/>
-      <c r="F14" s="51"/>
-      <c r="G14" s="57"/>
-      <c r="H14" s="51"/>
+      <c r="D14" s="47"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="47"/>
+      <c r="G14" s="49"/>
+      <c r="H14" s="47"/>
       <c r="I14" s="45"/>
     </row>
     <row r="15" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="46">
+      <c r="A15" s="57">
         <v>9</v>
       </c>
       <c r="B15" s="36" t="s">
         <v>1</v>
       </c>
       <c r="C15" s="18"/>
-      <c r="D15" s="52" t="s">
+      <c r="D15" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="E15" s="55" t="s">
+      <c r="E15" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="F15" s="52" t="s">
+      <c r="F15" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="G15" s="55" t="s">
+      <c r="G15" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="H15" s="52" t="s">
+      <c r="H15" s="50" t="s">
         <v>28</v>
       </c>
       <c r="I15" s="42"/>
     </row>
     <row r="16" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="48"/>
+      <c r="A16" s="59"/>
       <c r="B16" s="26" t="s">
         <v>2</v>
       </c>
       <c r="C16" s="17"/>
       <c r="D16" s="54"/>
-      <c r="E16" s="56"/>
+      <c r="E16" s="53"/>
       <c r="F16" s="54"/>
-      <c r="G16" s="56"/>
+      <c r="G16" s="53"/>
       <c r="H16" s="54"/>
       <c r="I16" s="43"/>
     </row>
@@ -3860,15 +3885,15 @@
         <v>0</v>
       </c>
       <c r="C17" s="18"/>
-      <c r="D17" s="59" t="s">
+      <c r="D17" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="E17" s="56"/>
-      <c r="F17" s="59" t="s">
+      <c r="E17" s="53"/>
+      <c r="F17" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="G17" s="56"/>
-      <c r="H17" s="58" t="s">
+      <c r="G17" s="53"/>
+      <c r="H17" s="46" t="s">
         <v>29</v>
       </c>
       <c r="I17" s="43"/>
@@ -3879,49 +3904,49 @@
         <v>3</v>
       </c>
       <c r="C18" s="12"/>
-      <c r="D18" s="57"/>
-      <c r="E18" s="57"/>
-      <c r="F18" s="57"/>
-      <c r="G18" s="57"/>
-      <c r="H18" s="51"/>
+      <c r="D18" s="49"/>
+      <c r="E18" s="49"/>
+      <c r="F18" s="49"/>
+      <c r="G18" s="49"/>
+      <c r="H18" s="47"/>
       <c r="I18" s="45"/>
     </row>
     <row r="19" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="46">
+      <c r="A19" s="57">
         <v>10</v>
       </c>
       <c r="B19" s="36" t="s">
         <v>1</v>
       </c>
       <c r="C19" s="18"/>
-      <c r="D19" s="52" t="s">
-        <v>30</v>
-      </c>
-      <c r="E19" s="52" t="s">
+      <c r="D19" s="50" t="s">
+        <v>30</v>
+      </c>
+      <c r="E19" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="F19" s="52" t="s">
-        <v>30</v>
-      </c>
-      <c r="G19" s="52" t="s">
+      <c r="F19" s="50" t="s">
+        <v>30</v>
+      </c>
+      <c r="G19" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="H19" s="52" t="s">
+      <c r="H19" s="50" t="s">
         <v>30</v>
       </c>
       <c r="I19" s="25"/>
     </row>
     <row r="20" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="48"/>
+      <c r="A20" s="59"/>
       <c r="B20" s="26" t="s">
         <v>2</v>
       </c>
       <c r="C20" s="17"/>
-      <c r="D20" s="53"/>
-      <c r="E20" s="53"/>
-      <c r="F20" s="53"/>
-      <c r="G20" s="53"/>
-      <c r="H20" s="53"/>
+      <c r="D20" s="51"/>
+      <c r="E20" s="51"/>
+      <c r="F20" s="51"/>
+      <c r="G20" s="51"/>
+      <c r="H20" s="51"/>
       <c r="I20" s="17"/>
     </row>
     <row r="21" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -3930,11 +3955,11 @@
         <v>0</v>
       </c>
       <c r="C21" s="18"/>
-      <c r="D21" s="53"/>
-      <c r="E21" s="53"/>
-      <c r="F21" s="53"/>
-      <c r="G21" s="53"/>
-      <c r="H21" s="53"/>
+      <c r="D21" s="51"/>
+      <c r="E21" s="51"/>
+      <c r="F21" s="51"/>
+      <c r="G21" s="51"/>
+      <c r="H21" s="51"/>
       <c r="I21" s="18"/>
     </row>
     <row r="22" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -3943,49 +3968,49 @@
         <v>3</v>
       </c>
       <c r="C22" s="12"/>
-      <c r="D22" s="51"/>
-      <c r="E22" s="51"/>
-      <c r="F22" s="51"/>
-      <c r="G22" s="51"/>
-      <c r="H22" s="51"/>
+      <c r="D22" s="47"/>
+      <c r="E22" s="47"/>
+      <c r="F22" s="47"/>
+      <c r="G22" s="47"/>
+      <c r="H22" s="47"/>
       <c r="I22" s="17"/>
     </row>
     <row r="23" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="46">
+      <c r="A23" s="57">
         <v>11</v>
       </c>
       <c r="B23" s="36" t="s">
         <v>1</v>
       </c>
       <c r="C23" s="18"/>
-      <c r="D23" s="52" t="s">
-        <v>30</v>
-      </c>
-      <c r="E23" s="55" t="s">
+      <c r="D23" s="50" t="s">
+        <v>30</v>
+      </c>
+      <c r="E23" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="F23" s="52" t="s">
-        <v>30</v>
-      </c>
-      <c r="G23" s="52" t="s">
+      <c r="F23" s="50" t="s">
+        <v>30</v>
+      </c>
+      <c r="G23" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="H23" s="52" t="s">
+      <c r="H23" s="50" t="s">
         <v>30</v>
       </c>
       <c r="I23" s="25"/>
     </row>
     <row r="24" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="48"/>
+      <c r="A24" s="59"/>
       <c r="B24" s="26" t="s">
         <v>2</v>
       </c>
       <c r="C24" s="17"/>
-      <c r="D24" s="53"/>
-      <c r="E24" s="56"/>
-      <c r="F24" s="53"/>
-      <c r="G24" s="53"/>
-      <c r="H24" s="53"/>
+      <c r="D24" s="51"/>
+      <c r="E24" s="53"/>
+      <c r="F24" s="51"/>
+      <c r="G24" s="51"/>
+      <c r="H24" s="51"/>
       <c r="I24" s="17"/>
     </row>
     <row r="25" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -3994,11 +4019,11 @@
         <v>0</v>
       </c>
       <c r="C25" s="18"/>
-      <c r="D25" s="53"/>
-      <c r="E25" s="56"/>
-      <c r="F25" s="53"/>
-      <c r="G25" s="53"/>
-      <c r="H25" s="53"/>
+      <c r="D25" s="51"/>
+      <c r="E25" s="53"/>
+      <c r="F25" s="51"/>
+      <c r="G25" s="51"/>
+      <c r="H25" s="51"/>
       <c r="I25" s="18"/>
     </row>
     <row r="26" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -4007,40 +4032,40 @@
         <v>3</v>
       </c>
       <c r="C26" s="12"/>
-      <c r="D26" s="51"/>
-      <c r="E26" s="57"/>
-      <c r="F26" s="51"/>
-      <c r="G26" s="51"/>
-      <c r="H26" s="51"/>
+      <c r="D26" s="47"/>
+      <c r="E26" s="49"/>
+      <c r="F26" s="47"/>
+      <c r="G26" s="47"/>
+      <c r="H26" s="47"/>
       <c r="I26" s="17"/>
     </row>
     <row r="27" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="46">
+      <c r="A27" s="57">
         <v>12</v>
       </c>
       <c r="B27" s="36" t="s">
         <v>8</v>
       </c>
       <c r="C27" s="18"/>
-      <c r="D27" s="52" t="s">
-        <v>30</v>
-      </c>
-      <c r="E27" s="52" t="s">
+      <c r="D27" s="50" t="s">
+        <v>30</v>
+      </c>
+      <c r="E27" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="F27" s="52" t="s">
-        <v>30</v>
-      </c>
-      <c r="G27" s="52" t="s">
+      <c r="F27" s="50" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="H27" s="52" t="s">
+      <c r="H27" s="50" t="s">
         <v>30</v>
       </c>
       <c r="I27" s="25"/>
     </row>
     <row r="28" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="48"/>
+      <c r="A28" s="59"/>
       <c r="B28" s="26" t="s">
         <v>2</v>
       </c>
@@ -4058,19 +4083,19 @@
         <v>0</v>
       </c>
       <c r="C29" s="18"/>
-      <c r="D29" s="58" t="s">
-        <v>31</v>
-      </c>
-      <c r="E29" s="52" t="s">
-        <v>30</v>
-      </c>
-      <c r="F29" s="58" t="s">
-        <v>31</v>
-      </c>
-      <c r="G29" s="52" t="s">
-        <v>30</v>
-      </c>
-      <c r="H29" s="58" t="s">
+      <c r="D29" s="46" t="s">
+        <v>31</v>
+      </c>
+      <c r="E29" s="50" t="s">
+        <v>30</v>
+      </c>
+      <c r="F29" s="46" t="s">
+        <v>31</v>
+      </c>
+      <c r="G29" s="50" t="s">
+        <v>30</v>
+      </c>
+      <c r="H29" s="46" t="s">
         <v>31</v>
       </c>
       <c r="I29" s="18"/>
@@ -4081,48 +4106,48 @@
         <v>3</v>
       </c>
       <c r="C30" s="12"/>
-      <c r="D30" s="51"/>
+      <c r="D30" s="47"/>
       <c r="E30" s="54"/>
-      <c r="F30" s="51"/>
+      <c r="F30" s="47"/>
       <c r="G30" s="54"/>
-      <c r="H30" s="51"/>
+      <c r="H30" s="47"/>
       <c r="I30" s="17"/>
     </row>
     <row r="31" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="46">
+      <c r="A31" s="57">
         <v>1</v>
       </c>
       <c r="B31" s="36" t="s">
         <v>8</v>
       </c>
       <c r="C31" s="18"/>
-      <c r="D31" s="52" t="s">
+      <c r="D31" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="E31" s="52" t="s">
-        <v>30</v>
-      </c>
-      <c r="F31" s="52" t="s">
+      <c r="E31" s="50" t="s">
+        <v>30</v>
+      </c>
+      <c r="F31" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="G31" s="52" t="s">
-        <v>30</v>
-      </c>
-      <c r="H31" s="52" t="s">
+      <c r="G31" s="50" t="s">
+        <v>30</v>
+      </c>
+      <c r="H31" s="50" t="s">
         <v>32</v>
       </c>
       <c r="I31" s="25"/>
     </row>
     <row r="32" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="48"/>
+      <c r="A32" s="59"/>
       <c r="B32" s="26" t="s">
         <v>2</v>
       </c>
       <c r="C32" s="17"/>
       <c r="D32" s="54"/>
-      <c r="E32" s="53"/>
+      <c r="E32" s="51"/>
       <c r="F32" s="54"/>
-      <c r="G32" s="53"/>
+      <c r="G32" s="51"/>
       <c r="H32" s="54"/>
       <c r="I32" s="17"/>
     </row>
@@ -4132,15 +4157,15 @@
         <v>0</v>
       </c>
       <c r="C33" s="18"/>
-      <c r="D33" s="59" t="s">
+      <c r="D33" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="E33" s="53"/>
-      <c r="F33" s="58" t="s">
+      <c r="E33" s="51"/>
+      <c r="F33" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="G33" s="53"/>
-      <c r="H33" s="58" t="s">
+      <c r="G33" s="51"/>
+      <c r="H33" s="46" t="s">
         <v>29</v>
       </c>
       <c r="I33" s="18"/>
@@ -4151,49 +4176,49 @@
         <v>3</v>
       </c>
       <c r="C34" s="12"/>
-      <c r="D34" s="57"/>
-      <c r="E34" s="51"/>
-      <c r="F34" s="51"/>
-      <c r="G34" s="51"/>
-      <c r="H34" s="51"/>
+      <c r="D34" s="49"/>
+      <c r="E34" s="47"/>
+      <c r="F34" s="47"/>
+      <c r="G34" s="47"/>
+      <c r="H34" s="47"/>
       <c r="I34" s="17"/>
     </row>
     <row r="35" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="46">
+      <c r="A35" s="57">
         <v>2</v>
       </c>
       <c r="B35" s="36" t="s">
         <v>8</v>
       </c>
       <c r="C35" s="18"/>
-      <c r="D35" s="55" t="s">
+      <c r="D35" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="E35" s="52" t="s">
-        <v>30</v>
-      </c>
-      <c r="F35" s="52" t="s">
+      <c r="E35" s="50" t="s">
+        <v>30</v>
+      </c>
+      <c r="F35" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="G35" s="52" t="s">
-        <v>30</v>
-      </c>
-      <c r="H35" s="52" t="s">
+      <c r="G35" s="50" t="s">
+        <v>30</v>
+      </c>
+      <c r="H35" s="50" t="s">
         <v>29</v>
       </c>
       <c r="I35" s="25"/>
     </row>
     <row r="36" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="48"/>
+      <c r="A36" s="59"/>
       <c r="B36" s="26" t="s">
         <v>2</v>
       </c>
       <c r="C36" s="17"/>
-      <c r="D36" s="56"/>
-      <c r="E36" s="53"/>
-      <c r="F36" s="53"/>
-      <c r="G36" s="53"/>
-      <c r="H36" s="53"/>
+      <c r="D36" s="53"/>
+      <c r="E36" s="51"/>
+      <c r="F36" s="51"/>
+      <c r="G36" s="51"/>
+      <c r="H36" s="51"/>
       <c r="I36" s="17"/>
     </row>
     <row r="37" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -4202,11 +4227,11 @@
         <v>0</v>
       </c>
       <c r="C37" s="18"/>
-      <c r="D37" s="56"/>
-      <c r="E37" s="53"/>
-      <c r="F37" s="53"/>
-      <c r="G37" s="53"/>
-      <c r="H37" s="53"/>
+      <c r="D37" s="53"/>
+      <c r="E37" s="51"/>
+      <c r="F37" s="51"/>
+      <c r="G37" s="51"/>
+      <c r="H37" s="51"/>
       <c r="I37" s="18"/>
     </row>
     <row r="38" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -4215,49 +4240,49 @@
         <v>3</v>
       </c>
       <c r="C38" s="12"/>
-      <c r="D38" s="57"/>
-      <c r="E38" s="51"/>
-      <c r="F38" s="51"/>
-      <c r="G38" s="51"/>
-      <c r="H38" s="51"/>
+      <c r="D38" s="49"/>
+      <c r="E38" s="47"/>
+      <c r="F38" s="47"/>
+      <c r="G38" s="47"/>
+      <c r="H38" s="47"/>
       <c r="I38" s="17"/>
     </row>
     <row r="39" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="46">
+      <c r="A39" s="57">
         <v>3</v>
       </c>
       <c r="B39" s="36" t="s">
         <v>8</v>
       </c>
       <c r="C39" s="18"/>
-      <c r="D39" s="59" t="s">
+      <c r="D39" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="E39" s="52" t="s">
+      <c r="E39" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="F39" s="52" t="s">
+      <c r="F39" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="G39" s="52" t="s">
+      <c r="G39" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="H39" s="58" t="s">
+      <c r="H39" s="46" t="s">
         <v>29</v>
       </c>
       <c r="I39" s="25"/>
     </row>
     <row r="40" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="48"/>
+      <c r="A40" s="59"/>
       <c r="B40" s="26" t="s">
         <v>2</v>
       </c>
       <c r="C40" s="17"/>
-      <c r="D40" s="57"/>
-      <c r="E40" s="53"/>
-      <c r="F40" s="53"/>
-      <c r="G40" s="53"/>
-      <c r="H40" s="51"/>
+      <c r="D40" s="49"/>
+      <c r="E40" s="51"/>
+      <c r="F40" s="51"/>
+      <c r="G40" s="51"/>
+      <c r="H40" s="47"/>
       <c r="I40" s="17"/>
     </row>
     <row r="41" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
@@ -4266,13 +4291,13 @@
         <v>0</v>
       </c>
       <c r="C41" s="18"/>
-      <c r="D41" s="55" t="s">
+      <c r="D41" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="E41" s="53"/>
-      <c r="F41" s="53"/>
-      <c r="G41" s="53"/>
-      <c r="H41" s="52" t="s">
+      <c r="E41" s="51"/>
+      <c r="F41" s="51"/>
+      <c r="G41" s="51"/>
+      <c r="H41" s="50" t="s">
         <v>33</v>
       </c>
       <c r="I41" s="18"/>
@@ -4283,49 +4308,49 @@
         <v>3</v>
       </c>
       <c r="C42" s="12"/>
-      <c r="D42" s="57"/>
-      <c r="E42" s="51"/>
-      <c r="F42" s="51"/>
-      <c r="G42" s="51"/>
-      <c r="H42" s="51"/>
+      <c r="D42" s="49"/>
+      <c r="E42" s="47"/>
+      <c r="F42" s="47"/>
+      <c r="G42" s="47"/>
+      <c r="H42" s="47"/>
       <c r="I42" s="17"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A43" s="46">
+      <c r="A43" s="57">
         <v>4</v>
       </c>
       <c r="B43" s="36" t="s">
         <v>8</v>
       </c>
       <c r="C43" s="18"/>
-      <c r="D43" s="55" t="s">
+      <c r="D43" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="E43" s="52" t="s">
+      <c r="E43" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="F43" s="52" t="s">
+      <c r="F43" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="G43" s="52" t="s">
+      <c r="G43" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="H43" s="52" t="s">
+      <c r="H43" s="50" t="s">
         <v>33</v>
       </c>
       <c r="I43" s="25"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A44" s="48"/>
+      <c r="A44" s="59"/>
       <c r="B44" s="26" t="s">
         <v>2</v>
       </c>
       <c r="C44" s="17"/>
-      <c r="D44" s="56"/>
-      <c r="E44" s="53"/>
-      <c r="F44" s="53"/>
-      <c r="G44" s="53"/>
-      <c r="H44" s="53"/>
+      <c r="D44" s="53"/>
+      <c r="E44" s="51"/>
+      <c r="F44" s="51"/>
+      <c r="G44" s="51"/>
+      <c r="H44" s="51"/>
       <c r="I44" s="17"/>
     </row>
     <row r="45" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
@@ -4334,11 +4359,11 @@
         <v>0</v>
       </c>
       <c r="C45" s="18"/>
-      <c r="D45" s="56"/>
-      <c r="E45" s="53"/>
-      <c r="F45" s="53"/>
-      <c r="G45" s="53"/>
-      <c r="H45" s="53"/>
+      <c r="D45" s="53"/>
+      <c r="E45" s="51"/>
+      <c r="F45" s="51"/>
+      <c r="G45" s="51"/>
+      <c r="H45" s="51"/>
       <c r="I45" s="18"/>
     </row>
     <row r="46" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
@@ -4347,129 +4372,129 @@
         <v>3</v>
       </c>
       <c r="C46" s="12"/>
-      <c r="D46" s="57"/>
-      <c r="E46" s="51"/>
-      <c r="F46" s="51"/>
-      <c r="G46" s="51"/>
-      <c r="H46" s="51"/>
+      <c r="D46" s="49"/>
+      <c r="E46" s="47"/>
+      <c r="F46" s="47"/>
+      <c r="G46" s="47"/>
+      <c r="H46" s="47"/>
       <c r="I46" s="17"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A47" s="46">
+      <c r="A47" s="57">
         <v>5</v>
       </c>
       <c r="B47" s="36" t="s">
         <v>8</v>
       </c>
       <c r="C47" s="15"/>
-      <c r="D47" s="55" t="s">
+      <c r="D47" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="E47" s="58" t="s">
-        <v>31</v>
-      </c>
-      <c r="F47" s="52" t="s">
+      <c r="E47" s="46" t="s">
+        <v>31</v>
+      </c>
+      <c r="F47" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="G47" s="58" t="s">
-        <v>31</v>
-      </c>
-      <c r="H47" s="55" t="s">
+      <c r="G47" s="46" t="s">
+        <v>31</v>
+      </c>
+      <c r="H47" s="52" t="s">
         <v>33</v>
       </c>
       <c r="I47" s="15"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A48" s="47"/>
+      <c r="A48" s="58"/>
       <c r="B48" s="33" t="s">
         <v>0</v>
       </c>
       <c r="C48" s="13"/>
-      <c r="D48" s="57"/>
-      <c r="E48" s="51"/>
-      <c r="F48" s="51"/>
-      <c r="G48" s="51"/>
-      <c r="H48" s="57"/>
+      <c r="D48" s="49"/>
+      <c r="E48" s="47"/>
+      <c r="F48" s="47"/>
+      <c r="G48" s="47"/>
+      <c r="H48" s="49"/>
       <c r="I48" s="13"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A49" s="46">
+      <c r="A49" s="57">
         <v>6</v>
       </c>
       <c r="B49" s="36" t="s">
         <v>8</v>
       </c>
       <c r="C49" s="15"/>
-      <c r="D49" s="55" t="s">
+      <c r="D49" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="E49" s="58" t="s">
+      <c r="E49" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="F49" s="52" t="s">
+      <c r="F49" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="G49" s="58" t="s">
-        <v>31</v>
-      </c>
-      <c r="H49" s="55" t="s">
+      <c r="G49" s="46" t="s">
+        <v>31</v>
+      </c>
+      <c r="H49" s="52" t="s">
         <v>33</v>
       </c>
       <c r="I49" s="15"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A50" s="47"/>
+      <c r="A50" s="58"/>
       <c r="B50" s="33" t="s">
         <v>0</v>
       </c>
       <c r="C50" s="13"/>
-      <c r="D50" s="57"/>
-      <c r="E50" s="51"/>
-      <c r="F50" s="51"/>
-      <c r="G50" s="51"/>
-      <c r="H50" s="57"/>
+      <c r="D50" s="49"/>
+      <c r="E50" s="47"/>
+      <c r="F50" s="47"/>
+      <c r="G50" s="47"/>
+      <c r="H50" s="49"/>
       <c r="I50" s="13"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A51" s="46">
+      <c r="A51" s="57">
         <v>7</v>
       </c>
       <c r="B51" s="36" t="s">
         <v>8</v>
       </c>
       <c r="C51" s="15"/>
-      <c r="D51" s="58" t="s">
-        <v>31</v>
-      </c>
-      <c r="E51" s="58" t="s">
+      <c r="D51" s="46" t="s">
+        <v>31</v>
+      </c>
+      <c r="E51" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="F51" s="58" t="s">
-        <v>31</v>
-      </c>
-      <c r="G51" s="58" t="s">
-        <v>31</v>
-      </c>
-      <c r="H51" s="58" t="s">
+      <c r="F51" s="46" t="s">
+        <v>31</v>
+      </c>
+      <c r="G51" s="46" t="s">
+        <v>31</v>
+      </c>
+      <c r="H51" s="46" t="s">
         <v>31</v>
       </c>
       <c r="I51" s="15"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A52" s="47"/>
+      <c r="A52" s="58"/>
       <c r="B52" s="33" t="s">
         <v>0</v>
       </c>
       <c r="C52" s="13"/>
-      <c r="D52" s="51"/>
-      <c r="E52" s="51"/>
-      <c r="F52" s="51"/>
-      <c r="G52" s="51"/>
-      <c r="H52" s="51"/>
+      <c r="D52" s="47"/>
+      <c r="E52" s="47"/>
+      <c r="F52" s="47"/>
+      <c r="G52" s="47"/>
+      <c r="H52" s="47"/>
       <c r="I52" s="13"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A53" s="46">
+      <c r="A53" s="57">
         <v>8</v>
       </c>
       <c r="B53" s="36" t="s">
@@ -4479,7 +4504,7 @@
       <c r="D53" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="E53" s="58" t="s">
+      <c r="E53" s="46" t="s">
         <v>35</v>
       </c>
       <c r="F53" s="16" t="s">
@@ -4494,7 +4519,7 @@
       <c r="I53" s="15"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A54" s="47"/>
+      <c r="A54" s="58"/>
       <c r="B54" s="33" t="s">
         <v>0</v>
       </c>
@@ -4502,7 +4527,7 @@
       <c r="D54" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="E54" s="51"/>
+      <c r="E54" s="47"/>
       <c r="F54" s="14" t="s">
         <v>31</v>
       </c>
@@ -4515,109 +4540,72 @@
       <c r="I54" s="13"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A55" s="46">
+      <c r="A55" s="57">
         <v>9</v>
       </c>
       <c r="B55" s="36" t="s">
         <v>8</v>
       </c>
       <c r="C55" s="15"/>
-      <c r="D55" s="58" t="s">
+      <c r="D55" s="46" t="s">
         <v>31</v>
       </c>
       <c r="E55" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="F55" s="58" t="s">
-        <v>31</v>
-      </c>
-      <c r="G55" s="58" t="s">
-        <v>31</v>
-      </c>
-      <c r="H55" s="58" t="s">
+      <c r="F55" s="46" t="s">
+        <v>31</v>
+      </c>
+      <c r="G55" s="46" t="s">
+        <v>31</v>
+      </c>
+      <c r="H55" s="46" t="s">
         <v>31</v>
       </c>
       <c r="I55" s="15"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A56" s="47"/>
+      <c r="A56" s="58"/>
       <c r="B56" s="33" t="s">
         <v>0</v>
       </c>
       <c r="C56" s="13"/>
-      <c r="D56" s="51"/>
+      <c r="D56" s="47"/>
       <c r="E56" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="F56" s="51"/>
-      <c r="G56" s="51"/>
-      <c r="H56" s="51"/>
+      <c r="F56" s="47"/>
+      <c r="G56" s="47"/>
+      <c r="H56" s="47"/>
       <c r="I56" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="107">
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="D11:D14"/>
-    <mergeCell ref="E11:E14"/>
-    <mergeCell ref="F11:F14"/>
-    <mergeCell ref="G11:G14"/>
-    <mergeCell ref="H11:H14"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="D7:D10"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F10"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H7:H10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="D19:D22"/>
-    <mergeCell ref="E19:E22"/>
-    <mergeCell ref="F19:F22"/>
-    <mergeCell ref="G19:G22"/>
-    <mergeCell ref="H19:H22"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E18"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G15:G18"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="D23:D26"/>
-    <mergeCell ref="E23:E26"/>
-    <mergeCell ref="F23:F26"/>
-    <mergeCell ref="G23:G26"/>
-    <mergeCell ref="H23:H26"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="E31:E34"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="G31:G34"/>
-    <mergeCell ref="H31:H32"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="H33:H34"/>
+    <mergeCell ref="H55:H56"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="G55:G56"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="G51:G52"/>
+    <mergeCell ref="H51:H52"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="H49:H50"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="G47:G48"/>
+    <mergeCell ref="H47:H48"/>
     <mergeCell ref="A35:A36"/>
     <mergeCell ref="D35:D38"/>
     <mergeCell ref="E35:E38"/>
@@ -4638,31 +4626,68 @@
     <mergeCell ref="H39:H40"/>
     <mergeCell ref="D41:D42"/>
     <mergeCell ref="H41:H42"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="F49:F50"/>
-    <mergeCell ref="G49:G50"/>
-    <mergeCell ref="H49:H50"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="F47:F48"/>
-    <mergeCell ref="G47:G48"/>
-    <mergeCell ref="H47:H48"/>
-    <mergeCell ref="H55:H56"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="F55:F56"/>
-    <mergeCell ref="G55:G56"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="G51:G52"/>
-    <mergeCell ref="H51:H52"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="E31:E34"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="G31:G34"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="H33:H34"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="D23:D26"/>
+    <mergeCell ref="E23:E26"/>
+    <mergeCell ref="F23:F26"/>
+    <mergeCell ref="G23:G26"/>
+    <mergeCell ref="H23:H26"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="D19:D22"/>
+    <mergeCell ref="E19:E22"/>
+    <mergeCell ref="F19:F22"/>
+    <mergeCell ref="G19:G22"/>
+    <mergeCell ref="H19:H22"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E18"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G15:G18"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="H11:H14"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="D7:D10"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F10"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="E11:E14"/>
+    <mergeCell ref="F11:F14"/>
+    <mergeCell ref="G11:G14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4672,8 +4697,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9951F56-C369-4E89-ABDA-B5D6171942BD}">
   <dimension ref="A1:I56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39:E42"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4713,10 +4738,10 @@
       <c r="I2" s="22"/>
     </row>
     <row r="3" spans="1:9" s="23" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="49" t="s">
+      <c r="A3" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="49"/>
+      <c r="B3" s="56"/>
       <c r="G3" s="24" t="s">
         <v>27</v>
       </c>
@@ -4750,79 +4775,79 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="46">
+      <c r="A5" s="57">
         <v>6</v>
       </c>
       <c r="B5" s="36" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="44"/>
-      <c r="D5" s="50" t="s">
+      <c r="D5" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="50" t="s">
+      <c r="E5" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="50" t="s">
+      <c r="F5" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="50" t="s">
+      <c r="G5" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="50" t="s">
+      <c r="H5" s="55" t="s">
         <v>18</v>
       </c>
       <c r="I5" s="44"/>
     </row>
     <row r="6" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="47"/>
+      <c r="A6" s="58"/>
       <c r="B6" s="33" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="45"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="51"/>
-      <c r="F6" s="51"/>
-      <c r="G6" s="51"/>
-      <c r="H6" s="51"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="47"/>
       <c r="I6" s="45"/>
     </row>
     <row r="7" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="46">
+      <c r="A7" s="57">
         <v>7</v>
       </c>
       <c r="B7" s="36" t="s">
         <v>1</v>
       </c>
       <c r="C7" s="42"/>
-      <c r="D7" s="52" t="s">
+      <c r="D7" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="52" t="s">
+      <c r="E7" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="52" t="s">
+      <c r="F7" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="G7" s="52" t="s">
+      <c r="G7" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="H7" s="52" t="s">
+      <c r="H7" s="50" t="s">
         <v>18</v>
       </c>
       <c r="I7" s="44"/>
     </row>
     <row r="8" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="48"/>
+      <c r="A8" s="59"/>
       <c r="B8" s="26" t="s">
         <v>2</v>
       </c>
       <c r="C8" s="43"/>
-      <c r="D8" s="53"/>
-      <c r="E8" s="53"/>
-      <c r="F8" s="53"/>
-      <c r="G8" s="53"/>
-      <c r="H8" s="53"/>
+      <c r="D8" s="51"/>
+      <c r="E8" s="51"/>
+      <c r="F8" s="51"/>
+      <c r="G8" s="51"/>
+      <c r="H8" s="51"/>
       <c r="I8" s="43"/>
     </row>
     <row r="9" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -4831,15 +4856,15 @@
         <v>0</v>
       </c>
       <c r="C9" s="43"/>
-      <c r="D9" s="53"/>
-      <c r="E9" s="63" t="s">
+      <c r="D9" s="51"/>
+      <c r="E9" s="61" t="s">
         <v>28</v>
       </c>
-      <c r="F9" s="53"/>
-      <c r="G9" s="61" t="s">
+      <c r="F9" s="51"/>
+      <c r="G9" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="H9" s="53"/>
+      <c r="H9" s="51"/>
       <c r="I9" s="43"/>
     </row>
     <row r="10" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -4848,49 +4873,49 @@
         <v>3</v>
       </c>
       <c r="C10" s="45"/>
-      <c r="D10" s="51"/>
-      <c r="E10" s="64"/>
-      <c r="F10" s="51"/>
-      <c r="G10" s="62"/>
-      <c r="H10" s="51"/>
+      <c r="D10" s="47"/>
+      <c r="E10" s="62"/>
+      <c r="F10" s="47"/>
+      <c r="G10" s="64"/>
+      <c r="H10" s="47"/>
       <c r="I10" s="45"/>
     </row>
     <row r="11" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="46">
+      <c r="A11" s="57">
         <v>8</v>
       </c>
       <c r="B11" s="36" t="s">
         <v>1</v>
       </c>
       <c r="C11" s="42"/>
-      <c r="D11" s="52" t="s">
+      <c r="D11" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="55" t="s">
+      <c r="E11" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="F11" s="52" t="s">
+      <c r="F11" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="G11" s="55" t="s">
+      <c r="G11" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="H11" s="52" t="s">
+      <c r="H11" s="50" t="s">
         <v>18</v>
       </c>
       <c r="I11" s="42"/>
     </row>
     <row r="12" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="48"/>
+      <c r="A12" s="59"/>
       <c r="B12" s="26" t="s">
         <v>2</v>
       </c>
       <c r="C12" s="43"/>
-      <c r="D12" s="53"/>
-      <c r="E12" s="56"/>
-      <c r="F12" s="53"/>
-      <c r="G12" s="56"/>
-      <c r="H12" s="53"/>
+      <c r="D12" s="51"/>
+      <c r="E12" s="53"/>
+      <c r="F12" s="51"/>
+      <c r="G12" s="53"/>
+      <c r="H12" s="51"/>
       <c r="I12" s="43"/>
     </row>
     <row r="13" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -4899,11 +4924,11 @@
         <v>0</v>
       </c>
       <c r="C13" s="43"/>
-      <c r="D13" s="53"/>
-      <c r="E13" s="56"/>
-      <c r="F13" s="53"/>
-      <c r="G13" s="56"/>
-      <c r="H13" s="53"/>
+      <c r="D13" s="51"/>
+      <c r="E13" s="53"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="53"/>
+      <c r="H13" s="51"/>
       <c r="I13" s="43"/>
     </row>
     <row r="14" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -4912,49 +4937,49 @@
         <v>3</v>
       </c>
       <c r="C14" s="45"/>
-      <c r="D14" s="51"/>
-      <c r="E14" s="57"/>
-      <c r="F14" s="51"/>
-      <c r="G14" s="57"/>
-      <c r="H14" s="51"/>
+      <c r="D14" s="47"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="47"/>
+      <c r="G14" s="49"/>
+      <c r="H14" s="47"/>
       <c r="I14" s="45"/>
     </row>
     <row r="15" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="46">
+      <c r="A15" s="57">
         <v>9</v>
       </c>
       <c r="B15" s="36" t="s">
         <v>1</v>
       </c>
       <c r="C15" s="18"/>
-      <c r="D15" s="52" t="s">
+      <c r="D15" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="E15" s="55" t="s">
+      <c r="E15" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="F15" s="52" t="s">
+      <c r="F15" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="G15" s="55" t="s">
+      <c r="G15" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="H15" s="52" t="s">
+      <c r="H15" s="50" t="s">
         <v>18</v>
       </c>
       <c r="I15" s="42"/>
     </row>
     <row r="16" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="48"/>
+      <c r="A16" s="59"/>
       <c r="B16" s="26" t="s">
         <v>2</v>
       </c>
       <c r="C16" s="17"/>
-      <c r="D16" s="53"/>
-      <c r="E16" s="56"/>
-      <c r="F16" s="53"/>
-      <c r="G16" s="56"/>
-      <c r="H16" s="53"/>
+      <c r="D16" s="51"/>
+      <c r="E16" s="53"/>
+      <c r="F16" s="51"/>
+      <c r="G16" s="53"/>
+      <c r="H16" s="51"/>
       <c r="I16" s="43"/>
     </row>
     <row r="17" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -4963,11 +4988,11 @@
         <v>0</v>
       </c>
       <c r="C17" s="18"/>
-      <c r="D17" s="53"/>
-      <c r="E17" s="56"/>
-      <c r="F17" s="53"/>
-      <c r="G17" s="56"/>
-      <c r="H17" s="53"/>
+      <c r="D17" s="51"/>
+      <c r="E17" s="53"/>
+      <c r="F17" s="51"/>
+      <c r="G17" s="53"/>
+      <c r="H17" s="51"/>
       <c r="I17" s="43"/>
     </row>
     <row r="18" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -4976,49 +5001,49 @@
         <v>3</v>
       </c>
       <c r="C18" s="12"/>
-      <c r="D18" s="51"/>
-      <c r="E18" s="57"/>
-      <c r="F18" s="51"/>
-      <c r="G18" s="57"/>
-      <c r="H18" s="51"/>
+      <c r="D18" s="47"/>
+      <c r="E18" s="49"/>
+      <c r="F18" s="47"/>
+      <c r="G18" s="49"/>
+      <c r="H18" s="47"/>
       <c r="I18" s="45"/>
     </row>
     <row r="19" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="46">
+      <c r="A19" s="57">
         <v>10</v>
       </c>
       <c r="B19" s="36" t="s">
         <v>1</v>
       </c>
       <c r="C19" s="18"/>
-      <c r="D19" s="52" t="s">
+      <c r="D19" s="50" t="s">
         <v>41</v>
       </c>
-      <c r="E19" s="52" t="s">
+      <c r="E19" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="F19" s="52" t="s">
+      <c r="F19" s="50" t="s">
         <v>41</v>
       </c>
-      <c r="G19" s="52" t="s">
+      <c r="G19" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="H19" s="52" t="s">
+      <c r="H19" s="50" t="s">
         <v>41</v>
       </c>
       <c r="I19" s="25"/>
     </row>
     <row r="20" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="48"/>
+      <c r="A20" s="59"/>
       <c r="B20" s="26" t="s">
         <v>2</v>
       </c>
       <c r="C20" s="17"/>
-      <c r="D20" s="53"/>
-      <c r="E20" s="53"/>
-      <c r="F20" s="53"/>
-      <c r="G20" s="53"/>
-      <c r="H20" s="53"/>
+      <c r="D20" s="51"/>
+      <c r="E20" s="51"/>
+      <c r="F20" s="51"/>
+      <c r="G20" s="51"/>
+      <c r="H20" s="51"/>
       <c r="I20" s="17"/>
     </row>
     <row r="21" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -5027,19 +5052,19 @@
         <v>0</v>
       </c>
       <c r="C21" s="18"/>
-      <c r="D21" s="53" t="s">
-        <v>30</v>
-      </c>
-      <c r="E21" s="53" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="53" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="53" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="53" t="s">
+      <c r="D21" s="51" t="s">
+        <v>30</v>
+      </c>
+      <c r="E21" s="51" t="s">
+        <v>30</v>
+      </c>
+      <c r="F21" s="51" t="s">
+        <v>30</v>
+      </c>
+      <c r="G21" s="51" t="s">
+        <v>30</v>
+      </c>
+      <c r="H21" s="51" t="s">
         <v>30</v>
       </c>
       <c r="I21" s="18"/>
@@ -5050,49 +5075,49 @@
         <v>3</v>
       </c>
       <c r="C22" s="12"/>
-      <c r="D22" s="51"/>
-      <c r="E22" s="51"/>
-      <c r="F22" s="51"/>
-      <c r="G22" s="51"/>
-      <c r="H22" s="51"/>
+      <c r="D22" s="47"/>
+      <c r="E22" s="47"/>
+      <c r="F22" s="47"/>
+      <c r="G22" s="47"/>
+      <c r="H22" s="47"/>
       <c r="I22" s="17"/>
     </row>
     <row r="23" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="46">
+      <c r="A23" s="57">
         <v>11</v>
       </c>
       <c r="B23" s="36" t="s">
         <v>1</v>
       </c>
       <c r="C23" s="18"/>
-      <c r="D23" s="52" t="s">
-        <v>30</v>
-      </c>
-      <c r="E23" s="52" t="s">
-        <v>30</v>
-      </c>
-      <c r="F23" s="52" t="s">
-        <v>30</v>
-      </c>
-      <c r="G23" s="52" t="s">
-        <v>30</v>
-      </c>
-      <c r="H23" s="52" t="s">
+      <c r="D23" s="50" t="s">
+        <v>30</v>
+      </c>
+      <c r="E23" s="50" t="s">
+        <v>30</v>
+      </c>
+      <c r="F23" s="50" t="s">
+        <v>30</v>
+      </c>
+      <c r="G23" s="50" t="s">
+        <v>30</v>
+      </c>
+      <c r="H23" s="50" t="s">
         <v>30</v>
       </c>
       <c r="I23" s="25"/>
     </row>
     <row r="24" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="48"/>
+      <c r="A24" s="59"/>
       <c r="B24" s="26" t="s">
         <v>2</v>
       </c>
       <c r="C24" s="17"/>
-      <c r="D24" s="53"/>
-      <c r="E24" s="53"/>
-      <c r="F24" s="53"/>
-      <c r="G24" s="53"/>
-      <c r="H24" s="53"/>
+      <c r="D24" s="51"/>
+      <c r="E24" s="51"/>
+      <c r="F24" s="51"/>
+      <c r="G24" s="51"/>
+      <c r="H24" s="51"/>
       <c r="I24" s="17"/>
     </row>
     <row r="25" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -5101,11 +5126,11 @@
         <v>0</v>
       </c>
       <c r="C25" s="18"/>
-      <c r="D25" s="53"/>
-      <c r="E25" s="53"/>
-      <c r="F25" s="53"/>
-      <c r="G25" s="53"/>
-      <c r="H25" s="53"/>
+      <c r="D25" s="51"/>
+      <c r="E25" s="51"/>
+      <c r="F25" s="51"/>
+      <c r="G25" s="51"/>
+      <c r="H25" s="51"/>
       <c r="I25" s="18"/>
     </row>
     <row r="26" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -5114,40 +5139,40 @@
         <v>3</v>
       </c>
       <c r="C26" s="12"/>
-      <c r="D26" s="51"/>
-      <c r="E26" s="51"/>
-      <c r="F26" s="51"/>
-      <c r="G26" s="51"/>
-      <c r="H26" s="51"/>
+      <c r="D26" s="47"/>
+      <c r="E26" s="47"/>
+      <c r="F26" s="47"/>
+      <c r="G26" s="47"/>
+      <c r="H26" s="47"/>
       <c r="I26" s="17"/>
     </row>
     <row r="27" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="46">
+      <c r="A27" s="57">
         <v>12</v>
       </c>
       <c r="B27" s="36" t="s">
         <v>8</v>
       </c>
       <c r="C27" s="18"/>
-      <c r="D27" s="52" t="s">
-        <v>30</v>
-      </c>
-      <c r="E27" s="52" t="s">
-        <v>30</v>
-      </c>
-      <c r="F27" s="52" t="s">
-        <v>30</v>
-      </c>
-      <c r="G27" s="52" t="s">
-        <v>30</v>
-      </c>
-      <c r="H27" s="52" t="s">
+      <c r="D27" s="50" t="s">
+        <v>30</v>
+      </c>
+      <c r="E27" s="50" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="50" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="50" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="50" t="s">
         <v>30</v>
       </c>
       <c r="I27" s="25"/>
     </row>
     <row r="28" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="48"/>
+      <c r="A28" s="59"/>
       <c r="B28" s="26" t="s">
         <v>2</v>
       </c>
@@ -5165,19 +5190,19 @@
         <v>0</v>
       </c>
       <c r="C29" s="18"/>
-      <c r="D29" s="52" t="s">
-        <v>31</v>
-      </c>
-      <c r="E29" s="52" t="s">
-        <v>31</v>
-      </c>
-      <c r="F29" s="52" t="s">
-        <v>31</v>
-      </c>
-      <c r="G29" s="52" t="s">
-        <v>31</v>
-      </c>
-      <c r="H29" s="52" t="s">
+      <c r="D29" s="50" t="s">
+        <v>31</v>
+      </c>
+      <c r="E29" s="50" t="s">
+        <v>31</v>
+      </c>
+      <c r="F29" s="50" t="s">
+        <v>31</v>
+      </c>
+      <c r="G29" s="50" t="s">
+        <v>31</v>
+      </c>
+      <c r="H29" s="50" t="s">
         <v>31</v>
       </c>
       <c r="I29" s="18"/>
@@ -5196,32 +5221,32 @@
       <c r="I30" s="17"/>
     </row>
     <row r="31" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="46">
+      <c r="A31" s="57">
         <v>1</v>
       </c>
       <c r="B31" s="36" t="s">
         <v>8</v>
       </c>
       <c r="C31" s="18"/>
-      <c r="D31" s="52" t="s">
-        <v>31</v>
-      </c>
-      <c r="E31" s="52" t="s">
-        <v>31</v>
-      </c>
-      <c r="F31" s="52" t="s">
-        <v>31</v>
-      </c>
-      <c r="G31" s="52" t="s">
-        <v>31</v>
-      </c>
-      <c r="H31" s="52" t="s">
+      <c r="D31" s="50" t="s">
+        <v>31</v>
+      </c>
+      <c r="E31" s="50" t="s">
+        <v>31</v>
+      </c>
+      <c r="F31" s="50" t="s">
+        <v>31</v>
+      </c>
+      <c r="G31" s="50" t="s">
+        <v>31</v>
+      </c>
+      <c r="H31" s="50" t="s">
         <v>31</v>
       </c>
       <c r="I31" s="25"/>
     </row>
     <row r="32" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="48"/>
+      <c r="A32" s="59"/>
       <c r="B32" s="26" t="s">
         <v>2</v>
       </c>
@@ -5239,19 +5264,19 @@
         <v>0</v>
       </c>
       <c r="C33" s="18"/>
-      <c r="D33" s="58" t="s">
+      <c r="D33" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="E33" s="58" t="s">
+      <c r="E33" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="F33" s="58" t="s">
+      <c r="F33" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="G33" s="58" t="s">
+      <c r="G33" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="H33" s="58" t="s">
+      <c r="H33" s="46" t="s">
         <v>32</v>
       </c>
       <c r="I33" s="18"/>
@@ -5262,49 +5287,49 @@
         <v>3</v>
       </c>
       <c r="C34" s="12"/>
-      <c r="D34" s="51"/>
-      <c r="E34" s="51"/>
-      <c r="F34" s="51"/>
-      <c r="G34" s="51"/>
-      <c r="H34" s="51"/>
+      <c r="D34" s="47"/>
+      <c r="E34" s="47"/>
+      <c r="F34" s="47"/>
+      <c r="G34" s="47"/>
+      <c r="H34" s="47"/>
       <c r="I34" s="17"/>
     </row>
     <row r="35" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="46">
+      <c r="A35" s="57">
         <v>2</v>
       </c>
       <c r="B35" s="36" t="s">
         <v>8</v>
       </c>
       <c r="C35" s="18"/>
-      <c r="D35" s="52" t="s">
+      <c r="D35" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="E35" s="52" t="s">
+      <c r="E35" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="F35" s="52" t="s">
+      <c r="F35" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="G35" s="52" t="s">
+      <c r="G35" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="H35" s="55" t="s">
+      <c r="H35" s="52" t="s">
         <v>29</v>
       </c>
       <c r="I35" s="25"/>
     </row>
     <row r="36" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="48"/>
+      <c r="A36" s="59"/>
       <c r="B36" s="26" t="s">
         <v>2</v>
       </c>
       <c r="C36" s="17"/>
-      <c r="D36" s="53"/>
-      <c r="E36" s="53"/>
-      <c r="F36" s="53"/>
-      <c r="G36" s="53"/>
-      <c r="H36" s="56"/>
+      <c r="D36" s="51"/>
+      <c r="E36" s="51"/>
+      <c r="F36" s="51"/>
+      <c r="G36" s="51"/>
+      <c r="H36" s="53"/>
       <c r="I36" s="17"/>
     </row>
     <row r="37" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -5313,11 +5338,11 @@
         <v>0</v>
       </c>
       <c r="C37" s="18"/>
-      <c r="D37" s="53"/>
-      <c r="E37" s="53"/>
-      <c r="F37" s="53"/>
-      <c r="G37" s="53"/>
-      <c r="H37" s="56"/>
+      <c r="D37" s="51"/>
+      <c r="E37" s="51"/>
+      <c r="F37" s="51"/>
+      <c r="G37" s="51"/>
+      <c r="H37" s="53"/>
       <c r="I37" s="18"/>
     </row>
     <row r="38" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -5326,49 +5351,49 @@
         <v>3</v>
       </c>
       <c r="C38" s="12"/>
-      <c r="D38" s="51"/>
-      <c r="E38" s="51"/>
-      <c r="F38" s="51"/>
-      <c r="G38" s="51"/>
-      <c r="H38" s="57"/>
+      <c r="D38" s="47"/>
+      <c r="E38" s="47"/>
+      <c r="F38" s="47"/>
+      <c r="G38" s="47"/>
+      <c r="H38" s="49"/>
       <c r="I38" s="17"/>
     </row>
     <row r="39" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="46">
+      <c r="A39" s="57">
         <v>3</v>
       </c>
       <c r="B39" s="36" t="s">
         <v>8</v>
       </c>
       <c r="C39" s="18"/>
-      <c r="D39" s="55" t="s">
+      <c r="D39" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="E39" s="55" t="s">
+      <c r="E39" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="F39" s="52" t="s">
+      <c r="F39" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="G39" s="55" t="s">
+      <c r="G39" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="H39" s="55" t="s">
+      <c r="H39" s="52" t="s">
         <v>33</v>
       </c>
       <c r="I39" s="25"/>
     </row>
     <row r="40" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="48"/>
+      <c r="A40" s="59"/>
       <c r="B40" s="26" t="s">
         <v>2</v>
       </c>
       <c r="C40" s="17"/>
-      <c r="D40" s="56"/>
-      <c r="E40" s="56"/>
-      <c r="F40" s="53"/>
-      <c r="G40" s="56"/>
-      <c r="H40" s="56"/>
+      <c r="D40" s="53"/>
+      <c r="E40" s="53"/>
+      <c r="F40" s="51"/>
+      <c r="G40" s="53"/>
+      <c r="H40" s="53"/>
       <c r="I40" s="17"/>
     </row>
     <row r="41" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
@@ -5377,11 +5402,11 @@
         <v>0</v>
       </c>
       <c r="C41" s="18"/>
-      <c r="D41" s="56"/>
-      <c r="E41" s="56"/>
-      <c r="F41" s="53"/>
-      <c r="G41" s="56"/>
-      <c r="H41" s="56"/>
+      <c r="D41" s="53"/>
+      <c r="E41" s="53"/>
+      <c r="F41" s="51"/>
+      <c r="G41" s="53"/>
+      <c r="H41" s="53"/>
       <c r="I41" s="18"/>
     </row>
     <row r="42" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
@@ -5390,49 +5415,49 @@
         <v>3</v>
       </c>
       <c r="C42" s="12"/>
-      <c r="D42" s="57"/>
-      <c r="E42" s="57"/>
-      <c r="F42" s="51"/>
-      <c r="G42" s="57"/>
-      <c r="H42" s="57"/>
+      <c r="D42" s="49"/>
+      <c r="E42" s="49"/>
+      <c r="F42" s="47"/>
+      <c r="G42" s="49"/>
+      <c r="H42" s="49"/>
       <c r="I42" s="17"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A43" s="46">
+      <c r="A43" s="57">
         <v>4</v>
       </c>
       <c r="B43" s="36" t="s">
         <v>8</v>
       </c>
       <c r="C43" s="18"/>
-      <c r="D43" s="55" t="s">
+      <c r="D43" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="E43" s="52" t="s">
+      <c r="E43" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="F43" s="52" t="s">
+      <c r="F43" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="G43" s="55" t="s">
+      <c r="G43" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="H43" s="55" t="s">
+      <c r="H43" s="52" t="s">
         <v>33</v>
       </c>
       <c r="I43" s="25"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A44" s="48"/>
+      <c r="A44" s="59"/>
       <c r="B44" s="26" t="s">
         <v>2</v>
       </c>
       <c r="C44" s="17"/>
-      <c r="D44" s="56"/>
-      <c r="E44" s="53"/>
-      <c r="F44" s="53"/>
-      <c r="G44" s="56"/>
-      <c r="H44" s="56"/>
+      <c r="D44" s="53"/>
+      <c r="E44" s="51"/>
+      <c r="F44" s="51"/>
+      <c r="G44" s="53"/>
+      <c r="H44" s="53"/>
       <c r="I44" s="17"/>
     </row>
     <row r="45" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
@@ -5441,11 +5466,11 @@
         <v>0</v>
       </c>
       <c r="C45" s="18"/>
-      <c r="D45" s="56"/>
-      <c r="E45" s="53"/>
-      <c r="F45" s="53"/>
-      <c r="G45" s="56"/>
-      <c r="H45" s="56"/>
+      <c r="D45" s="53"/>
+      <c r="E45" s="51"/>
+      <c r="F45" s="51"/>
+      <c r="G45" s="53"/>
+      <c r="H45" s="53"/>
       <c r="I45" s="18"/>
     </row>
     <row r="46" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
@@ -5454,129 +5479,129 @@
         <v>3</v>
       </c>
       <c r="C46" s="12"/>
-      <c r="D46" s="57"/>
-      <c r="E46" s="51"/>
-      <c r="F46" s="51"/>
-      <c r="G46" s="57"/>
-      <c r="H46" s="57"/>
+      <c r="D46" s="49"/>
+      <c r="E46" s="47"/>
+      <c r="F46" s="47"/>
+      <c r="G46" s="49"/>
+      <c r="H46" s="49"/>
       <c r="I46" s="17"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A47" s="46">
+      <c r="A47" s="57">
         <v>5</v>
       </c>
       <c r="B47" s="36" t="s">
         <v>8</v>
       </c>
       <c r="C47" s="15"/>
-      <c r="D47" s="52" t="s">
+      <c r="D47" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="E47" s="52" t="s">
+      <c r="E47" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="F47" s="52" t="s">
+      <c r="F47" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="G47" s="52" t="s">
+      <c r="G47" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="H47" s="52" t="s">
+      <c r="H47" s="50" t="s">
         <v>42</v>
       </c>
       <c r="I47" s="15"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A48" s="47"/>
+      <c r="A48" s="58"/>
       <c r="B48" s="33" t="s">
         <v>0</v>
       </c>
       <c r="C48" s="13"/>
-      <c r="D48" s="51"/>
-      <c r="E48" s="51"/>
-      <c r="F48" s="51"/>
-      <c r="G48" s="51"/>
-      <c r="H48" s="51"/>
+      <c r="D48" s="47"/>
+      <c r="E48" s="47"/>
+      <c r="F48" s="47"/>
+      <c r="G48" s="47"/>
+      <c r="H48" s="47"/>
       <c r="I48" s="13"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A49" s="46">
+      <c r="A49" s="57">
         <v>6</v>
       </c>
       <c r="B49" s="36" t="s">
         <v>8</v>
       </c>
       <c r="C49" s="15"/>
-      <c r="D49" s="52" t="s">
+      <c r="D49" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="E49" s="58" t="s">
+      <c r="E49" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="F49" s="52" t="s">
+      <c r="F49" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="G49" s="52" t="s">
+      <c r="G49" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="H49" s="52" t="s">
+      <c r="H49" s="50" t="s">
         <v>42</v>
       </c>
       <c r="I49" s="15"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A50" s="47"/>
+      <c r="A50" s="58"/>
       <c r="B50" s="33" t="s">
         <v>0</v>
       </c>
       <c r="C50" s="13"/>
-      <c r="D50" s="51"/>
-      <c r="E50" s="51"/>
-      <c r="F50" s="51"/>
-      <c r="G50" s="51"/>
-      <c r="H50" s="51"/>
+      <c r="D50" s="47"/>
+      <c r="E50" s="47"/>
+      <c r="F50" s="47"/>
+      <c r="G50" s="47"/>
+      <c r="H50" s="47"/>
       <c r="I50" s="13"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A51" s="46">
+      <c r="A51" s="57">
         <v>7</v>
       </c>
       <c r="B51" s="36" t="s">
         <v>8</v>
       </c>
       <c r="C51" s="15"/>
-      <c r="D51" s="52" t="s">
+      <c r="D51" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="E51" s="58" t="s">
+      <c r="E51" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="F51" s="52" t="s">
+      <c r="F51" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="G51" s="52" t="s">
+      <c r="G51" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="H51" s="52" t="s">
+      <c r="H51" s="50" t="s">
         <v>42</v>
       </c>
       <c r="I51" s="15"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A52" s="47"/>
+      <c r="A52" s="58"/>
       <c r="B52" s="33" t="s">
         <v>0</v>
       </c>
       <c r="C52" s="13"/>
-      <c r="D52" s="51"/>
-      <c r="E52" s="51"/>
-      <c r="F52" s="51"/>
-      <c r="G52" s="51"/>
-      <c r="H52" s="51"/>
+      <c r="D52" s="47"/>
+      <c r="E52" s="47"/>
+      <c r="F52" s="47"/>
+      <c r="G52" s="47"/>
+      <c r="H52" s="47"/>
       <c r="I52" s="13"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A53" s="46">
+      <c r="A53" s="57">
         <v>8</v>
       </c>
       <c r="B53" s="36" t="s">
@@ -5586,7 +5611,7 @@
       <c r="D53" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="E53" s="58" t="s">
+      <c r="E53" s="46" t="s">
         <v>35</v>
       </c>
       <c r="F53" s="16" t="s">
@@ -5601,7 +5626,7 @@
       <c r="I53" s="15"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A54" s="47"/>
+      <c r="A54" s="58"/>
       <c r="B54" s="33" t="s">
         <v>0</v>
       </c>
@@ -5609,7 +5634,7 @@
       <c r="D54" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="E54" s="51"/>
+      <c r="E54" s="47"/>
       <c r="F54" s="14" t="s">
         <v>31</v>
       </c>
@@ -5622,47 +5647,141 @@
       <c r="I54" s="13"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A55" s="46">
+      <c r="A55" s="57">
         <v>9</v>
       </c>
       <c r="B55" s="36" t="s">
         <v>8</v>
       </c>
       <c r="C55" s="15"/>
-      <c r="D55" s="58" t="s">
+      <c r="D55" s="46" t="s">
         <v>31</v>
       </c>
       <c r="E55" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="F55" s="58" t="s">
-        <v>31</v>
-      </c>
-      <c r="G55" s="58" t="s">
-        <v>31</v>
-      </c>
-      <c r="H55" s="58" t="s">
+      <c r="F55" s="46" t="s">
+        <v>31</v>
+      </c>
+      <c r="G55" s="46" t="s">
+        <v>31</v>
+      </c>
+      <c r="H55" s="46" t="s">
         <v>31</v>
       </c>
       <c r="I55" s="15"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A56" s="47"/>
+      <c r="A56" s="58"/>
       <c r="B56" s="33" t="s">
         <v>0</v>
       </c>
       <c r="C56" s="13"/>
-      <c r="D56" s="51"/>
+      <c r="D56" s="47"/>
       <c r="E56" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="F56" s="51"/>
-      <c r="G56" s="51"/>
-      <c r="H56" s="51"/>
+      <c r="F56" s="47"/>
+      <c r="G56" s="47"/>
+      <c r="H56" s="47"/>
       <c r="I56" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="109">
+    <mergeCell ref="H55:H56"/>
+    <mergeCell ref="D15:D18"/>
+    <mergeCell ref="F15:F18"/>
+    <mergeCell ref="H15:H18"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="H51:H52"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="H33:H34"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="G55:G56"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="G51:G52"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="H49:H50"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="G47:G48"/>
+    <mergeCell ref="H47:H48"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="D43:D46"/>
+    <mergeCell ref="E43:E46"/>
+    <mergeCell ref="F43:F46"/>
+    <mergeCell ref="G43:G46"/>
+    <mergeCell ref="H43:H46"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="E39:E42"/>
+    <mergeCell ref="F39:F42"/>
+    <mergeCell ref="G39:G42"/>
+    <mergeCell ref="D39:D42"/>
+    <mergeCell ref="H39:H42"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="D35:D38"/>
+    <mergeCell ref="E35:E38"/>
+    <mergeCell ref="F35:F38"/>
+    <mergeCell ref="G35:G38"/>
+    <mergeCell ref="H35:H38"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="D23:D26"/>
+    <mergeCell ref="E23:E26"/>
+    <mergeCell ref="F23:F26"/>
+    <mergeCell ref="G23:G26"/>
+    <mergeCell ref="H23:H26"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="E15:E18"/>
+    <mergeCell ref="G15:G18"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="E11:E14"/>
+    <mergeCell ref="F11:F14"/>
+    <mergeCell ref="G11:G14"/>
+    <mergeCell ref="H11:H14"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="D5:D6"/>
@@ -5678,56 +5797,1030 @@
     <mergeCell ref="H7:H10"/>
     <mergeCell ref="E9:E10"/>
     <mergeCell ref="G9:G10"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="E15:E18"/>
-    <mergeCell ref="G15:G18"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="D11:D14"/>
-    <mergeCell ref="E11:E14"/>
-    <mergeCell ref="F11:F14"/>
-    <mergeCell ref="G11:G14"/>
-    <mergeCell ref="H11:H14"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="D23:D26"/>
-    <mergeCell ref="E23:E26"/>
-    <mergeCell ref="F23:F26"/>
-    <mergeCell ref="G23:G26"/>
-    <mergeCell ref="H23:H26"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="D35:D38"/>
-    <mergeCell ref="E35:E38"/>
-    <mergeCell ref="F35:F38"/>
-    <mergeCell ref="G35:G38"/>
-    <mergeCell ref="H35:H38"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="D43:D46"/>
-    <mergeCell ref="E43:E46"/>
-    <mergeCell ref="F43:F46"/>
-    <mergeCell ref="G43:G46"/>
-    <mergeCell ref="H43:H46"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="E39:E42"/>
-    <mergeCell ref="F39:F42"/>
-    <mergeCell ref="G39:G42"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{498D38BE-669B-4C7E-82AF-3880CEFEE6B7}">
+  <dimension ref="A1:I56"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="3.25" customWidth="1"/>
+    <col min="2" max="2" width="3.375" customWidth="1"/>
+    <col min="3" max="3" width="4.375" customWidth="1"/>
+    <col min="4" max="4" width="13.25" customWidth="1"/>
+    <col min="5" max="5" width="13.75" customWidth="1"/>
+    <col min="6" max="6" width="12.625" customWidth="1"/>
+    <col min="7" max="7" width="12.875" customWidth="1"/>
+    <col min="8" max="8" width="13.5" customWidth="1"/>
+    <col min="9" max="9" width="4" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27.75" x14ac:dyDescent="0.2">
+      <c r="A1" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="39"/>
+    </row>
+    <row r="2" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A2" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="22">
+        <v>5</v>
+      </c>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="56" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="56"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" s="23"/>
+      <c r="I3" s="38" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="34"/>
+      <c r="B4" s="35"/>
+      <c r="C4" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" s="31" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="57">
+        <v>6</v>
+      </c>
+      <c r="B5" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="44"/>
+      <c r="D5" s="55" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="55" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="55" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="55" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="55" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" s="44"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="58"/>
+      <c r="B6" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="45"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="47"/>
+      <c r="I6" s="45"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="57">
+        <v>7</v>
+      </c>
+      <c r="B7" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="42"/>
+      <c r="D7" s="65" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="65" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="65" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="65" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" s="65" t="s">
+        <v>18</v>
+      </c>
+      <c r="I7" s="44"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="59"/>
+      <c r="B8" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="43"/>
+      <c r="D8" s="66"/>
+      <c r="E8" s="66"/>
+      <c r="F8" s="66"/>
+      <c r="G8" s="66"/>
+      <c r="H8" s="66"/>
+      <c r="I8" s="43"/>
+    </row>
+    <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A9" s="32"/>
+      <c r="B9" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="43"/>
+      <c r="D9" s="66"/>
+      <c r="E9" s="66" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="66"/>
+      <c r="G9" s="67" t="s">
+        <v>28</v>
+      </c>
+      <c r="H9" s="66"/>
+      <c r="I9" s="43"/>
+    </row>
+    <row r="10" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A10" s="37"/>
+      <c r="B10" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="45"/>
+      <c r="D10" s="68"/>
+      <c r="E10" s="68"/>
+      <c r="F10" s="68"/>
+      <c r="G10" s="69"/>
+      <c r="H10" s="68"/>
+      <c r="I10" s="45"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="57">
+        <v>8</v>
+      </c>
+      <c r="B11" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="42"/>
+      <c r="D11" s="65" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="65" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11" s="65" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="65" t="s">
+        <v>36</v>
+      </c>
+      <c r="H11" s="65" t="s">
+        <v>18</v>
+      </c>
+      <c r="I11" s="42"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="59"/>
+      <c r="B12" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="43"/>
+      <c r="D12" s="66"/>
+      <c r="E12" s="66"/>
+      <c r="F12" s="66"/>
+      <c r="G12" s="66"/>
+      <c r="H12" s="66"/>
+      <c r="I12" s="43"/>
+    </row>
+    <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A13" s="32"/>
+      <c r="B13" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="43"/>
+      <c r="D13" s="66"/>
+      <c r="E13" s="66"/>
+      <c r="F13" s="66"/>
+      <c r="G13" s="66"/>
+      <c r="H13" s="66"/>
+      <c r="I13" s="43"/>
+    </row>
+    <row r="14" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A14" s="37"/>
+      <c r="B14" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="45"/>
+      <c r="D14" s="68"/>
+      <c r="E14" s="68"/>
+      <c r="F14" s="68"/>
+      <c r="G14" s="68"/>
+      <c r="H14" s="68"/>
+      <c r="I14" s="45"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="57">
+        <v>9</v>
+      </c>
+      <c r="B15" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="18"/>
+      <c r="D15" s="65" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" s="65" t="s">
+        <v>36</v>
+      </c>
+      <c r="F15" s="65" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15" s="65" t="s">
+        <v>36</v>
+      </c>
+      <c r="H15" s="65" t="s">
+        <v>18</v>
+      </c>
+      <c r="I15" s="42"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="59"/>
+      <c r="B16" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" s="17"/>
+      <c r="D16" s="66"/>
+      <c r="E16" s="66"/>
+      <c r="F16" s="66"/>
+      <c r="G16" s="66"/>
+      <c r="H16" s="66"/>
+      <c r="I16" s="43"/>
+    </row>
+    <row r="17" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A17" s="32"/>
+      <c r="B17" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" s="18"/>
+      <c r="D17" s="66"/>
+      <c r="E17" s="66"/>
+      <c r="F17" s="66"/>
+      <c r="G17" s="66"/>
+      <c r="H17" s="66"/>
+      <c r="I17" s="43"/>
+    </row>
+    <row r="18" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A18" s="37"/>
+      <c r="B18" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="12"/>
+      <c r="D18" s="68"/>
+      <c r="E18" s="68"/>
+      <c r="F18" s="68"/>
+      <c r="G18" s="68"/>
+      <c r="H18" s="68"/>
+      <c r="I18" s="45"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="57">
+        <v>10</v>
+      </c>
+      <c r="B19" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="18"/>
+      <c r="D19" s="65" t="s">
+        <v>41</v>
+      </c>
+      <c r="E19" s="65" t="s">
+        <v>42</v>
+      </c>
+      <c r="F19" s="65" t="s">
+        <v>41</v>
+      </c>
+      <c r="G19" s="65" t="s">
+        <v>42</v>
+      </c>
+      <c r="H19" s="65" t="s">
+        <v>41</v>
+      </c>
+      <c r="I19" s="25"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="59"/>
+      <c r="B20" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="C20" s="17"/>
+      <c r="D20" s="66"/>
+      <c r="E20" s="66"/>
+      <c r="F20" s="66"/>
+      <c r="G20" s="66"/>
+      <c r="H20" s="66"/>
+      <c r="I20" s="17"/>
+    </row>
+    <row r="21" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A21" s="32"/>
+      <c r="B21" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21" s="18"/>
+      <c r="D21" s="66" t="s">
+        <v>30</v>
+      </c>
+      <c r="E21" s="66" t="s">
+        <v>30</v>
+      </c>
+      <c r="F21" s="66" t="s">
+        <v>30</v>
+      </c>
+      <c r="G21" s="66" t="s">
+        <v>30</v>
+      </c>
+      <c r="H21" s="66" t="s">
+        <v>30</v>
+      </c>
+      <c r="I21" s="18"/>
+    </row>
+    <row r="22" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A22" s="37"/>
+      <c r="B22" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" s="12"/>
+      <c r="D22" s="68"/>
+      <c r="E22" s="68"/>
+      <c r="F22" s="68"/>
+      <c r="G22" s="68"/>
+      <c r="H22" s="68"/>
+      <c r="I22" s="17"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" s="57">
+        <v>11</v>
+      </c>
+      <c r="B23" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="18"/>
+      <c r="D23" s="65" t="s">
+        <v>30</v>
+      </c>
+      <c r="E23" s="65" t="s">
+        <v>30</v>
+      </c>
+      <c r="F23" s="65" t="s">
+        <v>30</v>
+      </c>
+      <c r="G23" s="65" t="s">
+        <v>30</v>
+      </c>
+      <c r="H23" s="65" t="s">
+        <v>30</v>
+      </c>
+      <c r="I23" s="25"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" s="59"/>
+      <c r="B24" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="C24" s="17"/>
+      <c r="D24" s="66"/>
+      <c r="E24" s="66"/>
+      <c r="F24" s="66"/>
+      <c r="G24" s="66"/>
+      <c r="H24" s="66"/>
+      <c r="I24" s="17"/>
+    </row>
+    <row r="25" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A25" s="32"/>
+      <c r="B25" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="C25" s="18"/>
+      <c r="D25" s="66"/>
+      <c r="E25" s="66"/>
+      <c r="F25" s="66"/>
+      <c r="G25" s="66"/>
+      <c r="H25" s="66"/>
+      <c r="I25" s="18"/>
+    </row>
+    <row r="26" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A26" s="37"/>
+      <c r="B26" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="C26" s="12"/>
+      <c r="D26" s="68"/>
+      <c r="E26" s="68"/>
+      <c r="F26" s="68"/>
+      <c r="G26" s="68"/>
+      <c r="H26" s="68"/>
+      <c r="I26" s="17"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" s="57">
+        <v>12</v>
+      </c>
+      <c r="B27" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" s="18"/>
+      <c r="D27" s="65" t="s">
+        <v>30</v>
+      </c>
+      <c r="E27" s="65" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="65" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="65" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="65" t="s">
+        <v>30</v>
+      </c>
+      <c r="I27" s="25"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" s="59"/>
+      <c r="B28" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="C28" s="17"/>
+      <c r="D28" s="70"/>
+      <c r="E28" s="70"/>
+      <c r="F28" s="70"/>
+      <c r="G28" s="70"/>
+      <c r="H28" s="70"/>
+      <c r="I28" s="17"/>
+    </row>
+    <row r="29" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A29" s="32"/>
+      <c r="B29" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="C29" s="18"/>
+      <c r="D29" s="65" t="s">
+        <v>31</v>
+      </c>
+      <c r="E29" s="65" t="s">
+        <v>31</v>
+      </c>
+      <c r="F29" s="65" t="s">
+        <v>31</v>
+      </c>
+      <c r="G29" s="65" t="s">
+        <v>31</v>
+      </c>
+      <c r="H29" s="65" t="s">
+        <v>31</v>
+      </c>
+      <c r="I29" s="18"/>
+    </row>
+    <row r="30" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A30" s="37"/>
+      <c r="B30" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="C30" s="12"/>
+      <c r="D30" s="70"/>
+      <c r="E30" s="70"/>
+      <c r="F30" s="70"/>
+      <c r="G30" s="70"/>
+      <c r="H30" s="70"/>
+      <c r="I30" s="17"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" s="57">
+        <v>1</v>
+      </c>
+      <c r="B31" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" s="18"/>
+      <c r="D31" s="65" t="s">
+        <v>31</v>
+      </c>
+      <c r="E31" s="65" t="s">
+        <v>31</v>
+      </c>
+      <c r="F31" s="65" t="s">
+        <v>31</v>
+      </c>
+      <c r="G31" s="65" t="s">
+        <v>31</v>
+      </c>
+      <c r="H31" s="65" t="s">
+        <v>31</v>
+      </c>
+      <c r="I31" s="25"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32" s="59"/>
+      <c r="B32" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="C32" s="17"/>
+      <c r="D32" s="70"/>
+      <c r="E32" s="70"/>
+      <c r="F32" s="70"/>
+      <c r="G32" s="70"/>
+      <c r="H32" s="70"/>
+      <c r="I32" s="17"/>
+    </row>
+    <row r="33" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A33" s="32"/>
+      <c r="B33" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="C33" s="18"/>
+      <c r="D33" s="71" t="s">
+        <v>32</v>
+      </c>
+      <c r="E33" s="71" t="s">
+        <v>32</v>
+      </c>
+      <c r="F33" s="71" t="s">
+        <v>32</v>
+      </c>
+      <c r="G33" s="71" t="s">
+        <v>32</v>
+      </c>
+      <c r="H33" s="71" t="s">
+        <v>32</v>
+      </c>
+      <c r="I33" s="18"/>
+    </row>
+    <row r="34" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A34" s="37"/>
+      <c r="B34" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="C34" s="12"/>
+      <c r="D34" s="68"/>
+      <c r="E34" s="68"/>
+      <c r="F34" s="68"/>
+      <c r="G34" s="68"/>
+      <c r="H34" s="68"/>
+      <c r="I34" s="17"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A35" s="57">
+        <v>2</v>
+      </c>
+      <c r="B35" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35" s="18"/>
+      <c r="D35" s="65" t="s">
+        <v>29</v>
+      </c>
+      <c r="E35" s="65" t="s">
+        <v>29</v>
+      </c>
+      <c r="F35" s="65" t="s">
+        <v>37</v>
+      </c>
+      <c r="G35" s="65" t="s">
+        <v>29</v>
+      </c>
+      <c r="H35" s="65" t="s">
+        <v>29</v>
+      </c>
+      <c r="I35" s="25"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A36" s="59"/>
+      <c r="B36" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="C36" s="17"/>
+      <c r="D36" s="66"/>
+      <c r="E36" s="66"/>
+      <c r="F36" s="66"/>
+      <c r="G36" s="66"/>
+      <c r="H36" s="66"/>
+      <c r="I36" s="17"/>
+    </row>
+    <row r="37" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A37" s="32"/>
+      <c r="B37" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="C37" s="18"/>
+      <c r="D37" s="66"/>
+      <c r="E37" s="66"/>
+      <c r="F37" s="66"/>
+      <c r="G37" s="66"/>
+      <c r="H37" s="66"/>
+      <c r="I37" s="18"/>
+    </row>
+    <row r="38" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A38" s="37"/>
+      <c r="B38" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="C38" s="12"/>
+      <c r="D38" s="68"/>
+      <c r="E38" s="68"/>
+      <c r="F38" s="68"/>
+      <c r="G38" s="68"/>
+      <c r="H38" s="68"/>
+      <c r="I38" s="17"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A39" s="57">
+        <v>3</v>
+      </c>
+      <c r="B39" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="C39" s="18"/>
+      <c r="D39" s="65" t="s">
+        <v>33</v>
+      </c>
+      <c r="E39" s="65" t="s">
+        <v>33</v>
+      </c>
+      <c r="F39" s="65" t="s">
+        <v>37</v>
+      </c>
+      <c r="G39" s="65" t="s">
+        <v>33</v>
+      </c>
+      <c r="H39" s="65" t="s">
+        <v>33</v>
+      </c>
+      <c r="I39" s="25"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A40" s="59"/>
+      <c r="B40" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="C40" s="17"/>
+      <c r="D40" s="66"/>
+      <c r="E40" s="66"/>
+      <c r="F40" s="66"/>
+      <c r="G40" s="66"/>
+      <c r="H40" s="66"/>
+      <c r="I40" s="17"/>
+    </row>
+    <row r="41" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A41" s="32"/>
+      <c r="B41" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="C41" s="18"/>
+      <c r="D41" s="66"/>
+      <c r="E41" s="66"/>
+      <c r="F41" s="66"/>
+      <c r="G41" s="66"/>
+      <c r="H41" s="66"/>
+      <c r="I41" s="18"/>
+    </row>
+    <row r="42" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A42" s="37"/>
+      <c r="B42" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="C42" s="12"/>
+      <c r="D42" s="68"/>
+      <c r="E42" s="68"/>
+      <c r="F42" s="68"/>
+      <c r="G42" s="68"/>
+      <c r="H42" s="68"/>
+      <c r="I42" s="17"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A43" s="57">
+        <v>4</v>
+      </c>
+      <c r="B43" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="C43" s="18"/>
+      <c r="D43" s="65" t="s">
+        <v>33</v>
+      </c>
+      <c r="E43" s="65" t="s">
+        <v>33</v>
+      </c>
+      <c r="F43" s="65" t="s">
+        <v>37</v>
+      </c>
+      <c r="G43" s="65" t="s">
+        <v>33</v>
+      </c>
+      <c r="H43" s="65" t="s">
+        <v>33</v>
+      </c>
+      <c r="I43" s="25"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A44" s="59"/>
+      <c r="B44" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="C44" s="17"/>
+      <c r="D44" s="66"/>
+      <c r="E44" s="66"/>
+      <c r="F44" s="66"/>
+      <c r="G44" s="66"/>
+      <c r="H44" s="66"/>
+      <c r="I44" s="17"/>
+    </row>
+    <row r="45" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A45" s="32"/>
+      <c r="B45" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="C45" s="18"/>
+      <c r="D45" s="66"/>
+      <c r="E45" s="66"/>
+      <c r="F45" s="66"/>
+      <c r="G45" s="66"/>
+      <c r="H45" s="66"/>
+      <c r="I45" s="18"/>
+    </row>
+    <row r="46" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A46" s="37"/>
+      <c r="B46" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="C46" s="12"/>
+      <c r="D46" s="68"/>
+      <c r="E46" s="68"/>
+      <c r="F46" s="68"/>
+      <c r="G46" s="68"/>
+      <c r="H46" s="68"/>
+      <c r="I46" s="17"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A47" s="57">
+        <v>5</v>
+      </c>
+      <c r="B47" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="C47" s="15"/>
+      <c r="D47" s="65" t="s">
+        <v>42</v>
+      </c>
+      <c r="E47" s="65" t="s">
+        <v>33</v>
+      </c>
+      <c r="F47" s="65" t="s">
+        <v>42</v>
+      </c>
+      <c r="G47" s="65" t="s">
+        <v>42</v>
+      </c>
+      <c r="H47" s="65" t="s">
+        <v>42</v>
+      </c>
+      <c r="I47" s="15"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A48" s="58"/>
+      <c r="B48" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="C48" s="13"/>
+      <c r="D48" s="68"/>
+      <c r="E48" s="68"/>
+      <c r="F48" s="68"/>
+      <c r="G48" s="68"/>
+      <c r="H48" s="68"/>
+      <c r="I48" s="13"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A49" s="57">
+        <v>6</v>
+      </c>
+      <c r="B49" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="C49" s="15"/>
+      <c r="D49" s="65" t="s">
+        <v>42</v>
+      </c>
+      <c r="E49" s="71" t="s">
+        <v>35</v>
+      </c>
+      <c r="F49" s="65" t="s">
+        <v>42</v>
+      </c>
+      <c r="G49" s="65" t="s">
+        <v>42</v>
+      </c>
+      <c r="H49" s="65" t="s">
+        <v>42</v>
+      </c>
+      <c r="I49" s="15"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A50" s="58"/>
+      <c r="B50" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="C50" s="13"/>
+      <c r="D50" s="68"/>
+      <c r="E50" s="68"/>
+      <c r="F50" s="68"/>
+      <c r="G50" s="68"/>
+      <c r="H50" s="68"/>
+      <c r="I50" s="13"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A51" s="57">
+        <v>7</v>
+      </c>
+      <c r="B51" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="C51" s="15"/>
+      <c r="D51" s="50" t="s">
+        <v>42</v>
+      </c>
+      <c r="E51" s="46" t="s">
+        <v>35</v>
+      </c>
+      <c r="F51" s="50" t="s">
+        <v>42</v>
+      </c>
+      <c r="G51" s="50" t="s">
+        <v>42</v>
+      </c>
+      <c r="H51" s="50" t="s">
+        <v>42</v>
+      </c>
+      <c r="I51" s="15"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A52" s="58"/>
+      <c r="B52" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="C52" s="13"/>
+      <c r="D52" s="47"/>
+      <c r="E52" s="47"/>
+      <c r="F52" s="47"/>
+      <c r="G52" s="47"/>
+      <c r="H52" s="47"/>
+      <c r="I52" s="13"/>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A53" s="57">
+        <v>8</v>
+      </c>
+      <c r="B53" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="C53" s="15"/>
+      <c r="D53" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="E53" s="46" t="s">
+        <v>35</v>
+      </c>
+      <c r="F53" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="G53" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="H53" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="I53" s="15"/>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A54" s="58"/>
+      <c r="B54" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="C54" s="13"/>
+      <c r="D54" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="E54" s="47"/>
+      <c r="F54" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="G54" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="H54" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="I54" s="13"/>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A55" s="57">
+        <v>9</v>
+      </c>
+      <c r="B55" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="C55" s="15"/>
+      <c r="D55" s="46" t="s">
+        <v>31</v>
+      </c>
+      <c r="E55" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="F55" s="46" t="s">
+        <v>31</v>
+      </c>
+      <c r="G55" s="46" t="s">
+        <v>31</v>
+      </c>
+      <c r="H55" s="46" t="s">
+        <v>31</v>
+      </c>
+      <c r="I55" s="15"/>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A56" s="58"/>
+      <c r="B56" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="C56" s="13"/>
+      <c r="D56" s="47"/>
+      <c r="E56" s="41" t="s">
+        <v>31</v>
+      </c>
+      <c r="F56" s="47"/>
+      <c r="G56" s="47"/>
+      <c r="H56" s="47"/>
+      <c r="I56" s="13"/>
+    </row>
+  </sheetData>
+  <mergeCells count="109">
+    <mergeCell ref="H55:H56"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="G55:G56"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="G51:G52"/>
+    <mergeCell ref="H51:H52"/>
     <mergeCell ref="A49:A50"/>
     <mergeCell ref="D49:D50"/>
     <mergeCell ref="E49:E50"/>
@@ -5740,45 +6833,96 @@
     <mergeCell ref="F47:F48"/>
     <mergeCell ref="G47:G48"/>
     <mergeCell ref="H47:H48"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="F55:F56"/>
-    <mergeCell ref="G55:G56"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="G51:G52"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="D43:D46"/>
+    <mergeCell ref="E43:E46"/>
+    <mergeCell ref="F43:F46"/>
+    <mergeCell ref="G43:G46"/>
+    <mergeCell ref="H43:H46"/>
+    <mergeCell ref="A39:A40"/>
     <mergeCell ref="D39:D42"/>
+    <mergeCell ref="E39:E42"/>
+    <mergeCell ref="F39:F42"/>
+    <mergeCell ref="G39:G42"/>
     <mergeCell ref="H39:H42"/>
-    <mergeCell ref="H55:H56"/>
-    <mergeCell ref="D15:D18"/>
-    <mergeCell ref="F15:F18"/>
-    <mergeCell ref="H15:H18"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="H51:H52"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="D35:D38"/>
+    <mergeCell ref="E35:E38"/>
+    <mergeCell ref="F35:F38"/>
+    <mergeCell ref="G35:G38"/>
+    <mergeCell ref="H35:H38"/>
     <mergeCell ref="H31:H32"/>
     <mergeCell ref="D33:D34"/>
+    <mergeCell ref="E33:E34"/>
     <mergeCell ref="F33:F34"/>
+    <mergeCell ref="G33:G34"/>
     <mergeCell ref="H33:H34"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="H23:H26"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="D23:D26"/>
+    <mergeCell ref="E23:E26"/>
+    <mergeCell ref="F23:F26"/>
+    <mergeCell ref="G23:G26"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="D15:D18"/>
+    <mergeCell ref="E15:E18"/>
+    <mergeCell ref="F15:F18"/>
+    <mergeCell ref="G15:G18"/>
+    <mergeCell ref="H15:H18"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="E11:E14"/>
+    <mergeCell ref="F11:F14"/>
+    <mergeCell ref="G11:G14"/>
+    <mergeCell ref="H11:H14"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="D7:D10"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F10"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C29"/>
   <sheetViews>

--- a/Calendario.xlsx
+++ b/Calendario.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SEBAS\Documents\Calendario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C195788-4D5D-4D19-8E9F-EEC6D9114D30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0627A443-53DB-4A08-9795-F5705A86717B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -655,7 +655,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -778,16 +778,22 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -796,29 +802,23 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -833,27 +833,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1415,10 +1394,10 @@
       <c r="I2" s="22"/>
     </row>
     <row r="3" spans="1:9" s="23" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="56" t="s">
+      <c r="A3" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="56"/>
+      <c r="B3" s="49"/>
       <c r="G3" s="24" t="s">
         <v>27</v>
       </c>
@@ -1452,79 +1431,79 @@
       </c>
     </row>
     <row r="5" spans="1:9" s="20" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="57">
+      <c r="A5" s="46">
         <v>6</v>
       </c>
       <c r="B5" s="36" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="44"/>
-      <c r="D5" s="55" t="s">
+      <c r="D5" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="55" t="s">
+      <c r="E5" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="55" t="s">
+      <c r="F5" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="55" t="s">
+      <c r="G5" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="55" t="s">
+      <c r="H5" s="50" t="s">
         <v>18</v>
       </c>
       <c r="I5" s="44"/>
     </row>
     <row r="6" spans="1:9" s="20" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="58"/>
+      <c r="A6" s="47"/>
       <c r="B6" s="33" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="45"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="47"/>
-      <c r="H6" s="47"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="51"/>
+      <c r="F6" s="51"/>
+      <c r="G6" s="51"/>
+      <c r="H6" s="51"/>
       <c r="I6" s="45"/>
     </row>
     <row r="7" spans="1:9" s="20" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="57">
+      <c r="A7" s="46">
         <v>7</v>
       </c>
       <c r="B7" s="36" t="s">
         <v>1</v>
       </c>
       <c r="C7" s="42"/>
-      <c r="D7" s="50" t="s">
+      <c r="D7" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="50" t="s">
+      <c r="E7" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="50" t="s">
+      <c r="F7" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="G7" s="50" t="s">
+      <c r="G7" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="H7" s="50" t="s">
+      <c r="H7" s="52" t="s">
         <v>18</v>
       </c>
       <c r="I7" s="44"/>
     </row>
     <row r="8" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="59"/>
+      <c r="A8" s="48"/>
       <c r="B8" s="26" t="s">
         <v>2</v>
       </c>
       <c r="C8" s="43"/>
-      <c r="D8" s="51"/>
-      <c r="E8" s="51"/>
-      <c r="F8" s="51"/>
-      <c r="G8" s="51"/>
-      <c r="H8" s="51"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="53"/>
+      <c r="G8" s="53"/>
+      <c r="H8" s="53"/>
       <c r="I8" s="43"/>
     </row>
     <row r="9" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1533,15 +1512,15 @@
         <v>0</v>
       </c>
       <c r="C9" s="43"/>
-      <c r="D9" s="51"/>
-      <c r="E9" s="53" t="s">
+      <c r="D9" s="53"/>
+      <c r="E9" s="56" t="s">
         <v>28</v>
       </c>
-      <c r="F9" s="51"/>
-      <c r="G9" s="53" t="s">
+      <c r="F9" s="53"/>
+      <c r="G9" s="56" t="s">
         <v>28</v>
       </c>
-      <c r="H9" s="51"/>
+      <c r="H9" s="53"/>
       <c r="I9" s="43"/>
     </row>
     <row r="10" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1550,49 +1529,49 @@
         <v>3</v>
       </c>
       <c r="C10" s="45"/>
-      <c r="D10" s="47"/>
-      <c r="E10" s="49"/>
-      <c r="F10" s="47"/>
-      <c r="G10" s="49"/>
-      <c r="H10" s="47"/>
+      <c r="D10" s="51"/>
+      <c r="E10" s="57"/>
+      <c r="F10" s="51"/>
+      <c r="G10" s="57"/>
+      <c r="H10" s="51"/>
       <c r="I10" s="45"/>
     </row>
     <row r="11" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="57">
+      <c r="A11" s="46">
         <v>8</v>
       </c>
       <c r="B11" s="36" t="s">
         <v>1</v>
       </c>
       <c r="C11" s="42"/>
-      <c r="D11" s="50" t="s">
+      <c r="D11" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="52" t="s">
+      <c r="E11" s="55" t="s">
         <v>36</v>
       </c>
-      <c r="F11" s="50" t="s">
+      <c r="F11" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="G11" s="52" t="s">
+      <c r="G11" s="55" t="s">
         <v>36</v>
       </c>
-      <c r="H11" s="50" t="s">
+      <c r="H11" s="52" t="s">
         <v>18</v>
       </c>
       <c r="I11" s="42"/>
     </row>
     <row r="12" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="59"/>
+      <c r="A12" s="48"/>
       <c r="B12" s="26" t="s">
         <v>2</v>
       </c>
       <c r="C12" s="43"/>
-      <c r="D12" s="51"/>
-      <c r="E12" s="53"/>
-      <c r="F12" s="51"/>
-      <c r="G12" s="53"/>
-      <c r="H12" s="51"/>
+      <c r="D12" s="53"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="53"/>
+      <c r="G12" s="56"/>
+      <c r="H12" s="53"/>
       <c r="I12" s="43"/>
     </row>
     <row r="13" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1601,11 +1580,11 @@
         <v>0</v>
       </c>
       <c r="C13" s="43"/>
-      <c r="D13" s="51"/>
-      <c r="E13" s="53"/>
-      <c r="F13" s="51"/>
-      <c r="G13" s="53"/>
-      <c r="H13" s="51"/>
+      <c r="D13" s="53"/>
+      <c r="E13" s="56"/>
+      <c r="F13" s="53"/>
+      <c r="G13" s="56"/>
+      <c r="H13" s="53"/>
       <c r="I13" s="43"/>
     </row>
     <row r="14" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1614,48 +1593,48 @@
         <v>3</v>
       </c>
       <c r="C14" s="45"/>
-      <c r="D14" s="47"/>
-      <c r="E14" s="49"/>
-      <c r="F14" s="47"/>
-      <c r="G14" s="49"/>
-      <c r="H14" s="47"/>
+      <c r="D14" s="51"/>
+      <c r="E14" s="57"/>
+      <c r="F14" s="51"/>
+      <c r="G14" s="57"/>
+      <c r="H14" s="51"/>
       <c r="I14" s="45"/>
     </row>
     <row r="15" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="57">
+      <c r="A15" s="46">
         <v>9</v>
       </c>
       <c r="B15" s="36" t="s">
         <v>1</v>
       </c>
       <c r="C15" s="18"/>
-      <c r="D15" s="50" t="s">
+      <c r="D15" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="E15" s="52" t="s">
+      <c r="E15" s="55" t="s">
         <v>36</v>
       </c>
-      <c r="F15" s="50" t="s">
+      <c r="F15" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="G15" s="52" t="s">
+      <c r="G15" s="55" t="s">
         <v>36</v>
       </c>
-      <c r="H15" s="50" t="s">
+      <c r="H15" s="52" t="s">
         <v>28</v>
       </c>
       <c r="I15" s="42"/>
     </row>
     <row r="16" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="59"/>
+      <c r="A16" s="48"/>
       <c r="B16" s="26" t="s">
         <v>2</v>
       </c>
       <c r="C16" s="17"/>
       <c r="D16" s="54"/>
-      <c r="E16" s="53"/>
+      <c r="E16" s="56"/>
       <c r="F16" s="54"/>
-      <c r="G16" s="53"/>
+      <c r="G16" s="56"/>
       <c r="H16" s="54"/>
       <c r="I16" s="43"/>
     </row>
@@ -1665,15 +1644,15 @@
         <v>0</v>
       </c>
       <c r="C17" s="18"/>
-      <c r="D17" s="46" t="s">
+      <c r="D17" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="E17" s="53"/>
-      <c r="F17" s="46" t="s">
+      <c r="E17" s="56"/>
+      <c r="F17" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="G17" s="53"/>
-      <c r="H17" s="46" t="s">
+      <c r="G17" s="56"/>
+      <c r="H17" s="58" t="s">
         <v>29</v>
       </c>
       <c r="I17" s="43"/>
@@ -1684,49 +1663,49 @@
         <v>3</v>
       </c>
       <c r="C18" s="12"/>
-      <c r="D18" s="47"/>
-      <c r="E18" s="49"/>
-      <c r="F18" s="47"/>
-      <c r="G18" s="49"/>
-      <c r="H18" s="47"/>
+      <c r="D18" s="51"/>
+      <c r="E18" s="57"/>
+      <c r="F18" s="51"/>
+      <c r="G18" s="57"/>
+      <c r="H18" s="51"/>
       <c r="I18" s="45"/>
     </row>
     <row r="19" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="57">
+      <c r="A19" s="46">
         <v>10</v>
       </c>
       <c r="B19" s="36" t="s">
         <v>1</v>
       </c>
       <c r="C19" s="18"/>
-      <c r="D19" s="50" t="s">
-        <v>30</v>
-      </c>
-      <c r="E19" s="50" t="s">
+      <c r="D19" s="52" t="s">
+        <v>30</v>
+      </c>
+      <c r="E19" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="F19" s="50" t="s">
-        <v>30</v>
-      </c>
-      <c r="G19" s="52" t="s">
+      <c r="F19" s="52" t="s">
+        <v>30</v>
+      </c>
+      <c r="G19" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="H19" s="50" t="s">
+      <c r="H19" s="52" t="s">
         <v>30</v>
       </c>
       <c r="I19" s="25"/>
     </row>
     <row r="20" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="59"/>
+      <c r="A20" s="48"/>
       <c r="B20" s="26" t="s">
         <v>2</v>
       </c>
       <c r="C20" s="17"/>
-      <c r="D20" s="51"/>
-      <c r="E20" s="51"/>
-      <c r="F20" s="51"/>
-      <c r="G20" s="53"/>
-      <c r="H20" s="51"/>
+      <c r="D20" s="53"/>
+      <c r="E20" s="53"/>
+      <c r="F20" s="53"/>
+      <c r="G20" s="56"/>
+      <c r="H20" s="53"/>
       <c r="I20" s="17"/>
     </row>
     <row r="21" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1735,11 +1714,11 @@
         <v>0</v>
       </c>
       <c r="C21" s="18"/>
-      <c r="D21" s="51"/>
-      <c r="E21" s="51"/>
-      <c r="F21" s="51"/>
-      <c r="G21" s="53"/>
-      <c r="H21" s="51"/>
+      <c r="D21" s="53"/>
+      <c r="E21" s="53"/>
+      <c r="F21" s="53"/>
+      <c r="G21" s="56"/>
+      <c r="H21" s="53"/>
       <c r="I21" s="18"/>
     </row>
     <row r="22" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1748,49 +1727,49 @@
         <v>3</v>
       </c>
       <c r="C22" s="12"/>
-      <c r="D22" s="47"/>
-      <c r="E22" s="47"/>
-      <c r="F22" s="47"/>
-      <c r="G22" s="49"/>
-      <c r="H22" s="47"/>
+      <c r="D22" s="51"/>
+      <c r="E22" s="51"/>
+      <c r="F22" s="51"/>
+      <c r="G22" s="57"/>
+      <c r="H22" s="51"/>
       <c r="I22" s="17"/>
     </row>
     <row r="23" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="57">
+      <c r="A23" s="46">
         <v>11</v>
       </c>
       <c r="B23" s="36" t="s">
         <v>1</v>
       </c>
       <c r="C23" s="18"/>
-      <c r="D23" s="50" t="s">
-        <v>30</v>
-      </c>
-      <c r="E23" s="52" t="s">
+      <c r="D23" s="52" t="s">
+        <v>30</v>
+      </c>
+      <c r="E23" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="F23" s="50" t="s">
-        <v>30</v>
-      </c>
-      <c r="G23" s="52" t="s">
+      <c r="F23" s="52" t="s">
+        <v>30</v>
+      </c>
+      <c r="G23" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="H23" s="50" t="s">
+      <c r="H23" s="52" t="s">
         <v>30</v>
       </c>
       <c r="I23" s="25"/>
     </row>
     <row r="24" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="59"/>
+      <c r="A24" s="48"/>
       <c r="B24" s="26" t="s">
         <v>2</v>
       </c>
       <c r="C24" s="17"/>
-      <c r="D24" s="51"/>
-      <c r="E24" s="53"/>
-      <c r="F24" s="51"/>
-      <c r="G24" s="53"/>
-      <c r="H24" s="51"/>
+      <c r="D24" s="53"/>
+      <c r="E24" s="56"/>
+      <c r="F24" s="53"/>
+      <c r="G24" s="56"/>
+      <c r="H24" s="53"/>
       <c r="I24" s="17"/>
     </row>
     <row r="25" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1799,11 +1778,11 @@
         <v>0</v>
       </c>
       <c r="C25" s="18"/>
-      <c r="D25" s="51"/>
-      <c r="E25" s="53"/>
-      <c r="F25" s="51"/>
-      <c r="G25" s="53"/>
-      <c r="H25" s="51"/>
+      <c r="D25" s="53"/>
+      <c r="E25" s="56"/>
+      <c r="F25" s="53"/>
+      <c r="G25" s="56"/>
+      <c r="H25" s="53"/>
       <c r="I25" s="18"/>
     </row>
     <row r="26" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1812,40 +1791,40 @@
         <v>3</v>
       </c>
       <c r="C26" s="12"/>
-      <c r="D26" s="47"/>
-      <c r="E26" s="49"/>
-      <c r="F26" s="47"/>
-      <c r="G26" s="49"/>
-      <c r="H26" s="47"/>
+      <c r="D26" s="51"/>
+      <c r="E26" s="57"/>
+      <c r="F26" s="51"/>
+      <c r="G26" s="57"/>
+      <c r="H26" s="51"/>
       <c r="I26" s="17"/>
     </row>
     <row r="27" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="57">
+      <c r="A27" s="46">
         <v>12</v>
       </c>
       <c r="B27" s="36" t="s">
         <v>8</v>
       </c>
       <c r="C27" s="18"/>
-      <c r="D27" s="50" t="s">
-        <v>30</v>
-      </c>
-      <c r="E27" s="50" t="s">
+      <c r="D27" s="52" t="s">
+        <v>30</v>
+      </c>
+      <c r="E27" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="F27" s="50" t="s">
-        <v>30</v>
-      </c>
-      <c r="G27" s="50" t="s">
+      <c r="F27" s="52" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="H27" s="50" t="s">
+      <c r="H27" s="52" t="s">
         <v>30</v>
       </c>
       <c r="I27" s="25"/>
     </row>
     <row r="28" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="59"/>
+      <c r="A28" s="48"/>
       <c r="B28" s="26" t="s">
         <v>2</v>
       </c>
@@ -1863,19 +1842,19 @@
         <v>0</v>
       </c>
       <c r="C29" s="18"/>
-      <c r="D29" s="46" t="s">
-        <v>31</v>
-      </c>
-      <c r="E29" s="50" t="s">
-        <v>30</v>
-      </c>
-      <c r="F29" s="46" t="s">
-        <v>31</v>
-      </c>
-      <c r="G29" s="50" t="s">
-        <v>30</v>
-      </c>
-      <c r="H29" s="46" t="s">
+      <c r="D29" s="58" t="s">
+        <v>31</v>
+      </c>
+      <c r="E29" s="52" t="s">
+        <v>30</v>
+      </c>
+      <c r="F29" s="58" t="s">
+        <v>31</v>
+      </c>
+      <c r="G29" s="52" t="s">
+        <v>30</v>
+      </c>
+      <c r="H29" s="58" t="s">
         <v>31</v>
       </c>
       <c r="I29" s="18"/>
@@ -1886,48 +1865,48 @@
         <v>3</v>
       </c>
       <c r="C30" s="12"/>
-      <c r="D30" s="47"/>
+      <c r="D30" s="51"/>
       <c r="E30" s="54"/>
-      <c r="F30" s="47"/>
+      <c r="F30" s="51"/>
       <c r="G30" s="54"/>
-      <c r="H30" s="47"/>
+      <c r="H30" s="51"/>
       <c r="I30" s="17"/>
     </row>
     <row r="31" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="57">
+      <c r="A31" s="46">
         <v>1</v>
       </c>
       <c r="B31" s="36" t="s">
         <v>8</v>
       </c>
       <c r="C31" s="18"/>
-      <c r="D31" s="50" t="s">
+      <c r="D31" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="E31" s="50" t="s">
-        <v>30</v>
-      </c>
-      <c r="F31" s="50" t="s">
+      <c r="E31" s="52" t="s">
+        <v>30</v>
+      </c>
+      <c r="F31" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="G31" s="50" t="s">
-        <v>30</v>
-      </c>
-      <c r="H31" s="50" t="s">
+      <c r="G31" s="52" t="s">
+        <v>30</v>
+      </c>
+      <c r="H31" s="52" t="s">
         <v>32</v>
       </c>
       <c r="I31" s="25"/>
     </row>
     <row r="32" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="59"/>
+      <c r="A32" s="48"/>
       <c r="B32" s="26" t="s">
         <v>2</v>
       </c>
       <c r="C32" s="17"/>
       <c r="D32" s="54"/>
-      <c r="E32" s="51"/>
+      <c r="E32" s="53"/>
       <c r="F32" s="54"/>
-      <c r="G32" s="51"/>
+      <c r="G32" s="53"/>
       <c r="H32" s="54"/>
       <c r="I32" s="17"/>
     </row>
@@ -1937,15 +1916,15 @@
         <v>0</v>
       </c>
       <c r="C33" s="18"/>
-      <c r="D33" s="48" t="s">
+      <c r="D33" s="59" t="s">
         <v>29</v>
       </c>
-      <c r="E33" s="51"/>
-      <c r="F33" s="46" t="s">
+      <c r="E33" s="53"/>
+      <c r="F33" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="G33" s="51"/>
-      <c r="H33" s="46" t="s">
+      <c r="G33" s="53"/>
+      <c r="H33" s="58" t="s">
         <v>29</v>
       </c>
       <c r="I33" s="18"/>
@@ -1956,49 +1935,49 @@
         <v>3</v>
       </c>
       <c r="C34" s="12"/>
-      <c r="D34" s="49"/>
-      <c r="E34" s="47"/>
-      <c r="F34" s="47"/>
-      <c r="G34" s="47"/>
-      <c r="H34" s="47"/>
+      <c r="D34" s="57"/>
+      <c r="E34" s="51"/>
+      <c r="F34" s="51"/>
+      <c r="G34" s="51"/>
+      <c r="H34" s="51"/>
       <c r="I34" s="17"/>
     </row>
     <row r="35" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="57">
+      <c r="A35" s="46">
         <v>2</v>
       </c>
       <c r="B35" s="36" t="s">
         <v>8</v>
       </c>
       <c r="C35" s="18"/>
-      <c r="D35" s="52" t="s">
+      <c r="D35" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="E35" s="50" t="s">
-        <v>30</v>
-      </c>
-      <c r="F35" s="50" t="s">
+      <c r="E35" s="52" t="s">
+        <v>30</v>
+      </c>
+      <c r="F35" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="G35" s="50" t="s">
-        <v>30</v>
-      </c>
-      <c r="H35" s="50" t="s">
+      <c r="G35" s="52" t="s">
+        <v>30</v>
+      </c>
+      <c r="H35" s="52" t="s">
         <v>29</v>
       </c>
       <c r="I35" s="25"/>
     </row>
     <row r="36" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="59"/>
+      <c r="A36" s="48"/>
       <c r="B36" s="26" t="s">
         <v>2</v>
       </c>
       <c r="C36" s="17"/>
-      <c r="D36" s="53"/>
-      <c r="E36" s="51"/>
-      <c r="F36" s="51"/>
-      <c r="G36" s="51"/>
-      <c r="H36" s="51"/>
+      <c r="D36" s="56"/>
+      <c r="E36" s="53"/>
+      <c r="F36" s="53"/>
+      <c r="G36" s="53"/>
+      <c r="H36" s="53"/>
       <c r="I36" s="17"/>
     </row>
     <row r="37" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2007,11 +1986,11 @@
         <v>0</v>
       </c>
       <c r="C37" s="18"/>
-      <c r="D37" s="53"/>
-      <c r="E37" s="51"/>
-      <c r="F37" s="51"/>
-      <c r="G37" s="51"/>
-      <c r="H37" s="51"/>
+      <c r="D37" s="56"/>
+      <c r="E37" s="53"/>
+      <c r="F37" s="53"/>
+      <c r="G37" s="53"/>
+      <c r="H37" s="53"/>
       <c r="I37" s="18"/>
     </row>
     <row r="38" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2020,49 +1999,49 @@
         <v>3</v>
       </c>
       <c r="C38" s="12"/>
-      <c r="D38" s="49"/>
-      <c r="E38" s="47"/>
-      <c r="F38" s="47"/>
-      <c r="G38" s="47"/>
-      <c r="H38" s="47"/>
+      <c r="D38" s="57"/>
+      <c r="E38" s="51"/>
+      <c r="F38" s="51"/>
+      <c r="G38" s="51"/>
+      <c r="H38" s="51"/>
       <c r="I38" s="17"/>
     </row>
     <row r="39" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="57">
+      <c r="A39" s="46">
         <v>3</v>
       </c>
       <c r="B39" s="36" t="s">
         <v>8</v>
       </c>
       <c r="C39" s="18"/>
-      <c r="D39" s="46" t="s">
+      <c r="D39" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="E39" s="52" t="s">
+      <c r="E39" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="F39" s="50" t="s">
+      <c r="F39" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="G39" s="50" t="s">
+      <c r="G39" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="H39" s="46" t="s">
+      <c r="H39" s="58" t="s">
         <v>29</v>
       </c>
       <c r="I39" s="25"/>
     </row>
     <row r="40" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="59"/>
+      <c r="A40" s="48"/>
       <c r="B40" s="26" t="s">
         <v>2</v>
       </c>
       <c r="C40" s="17"/>
-      <c r="D40" s="47"/>
-      <c r="E40" s="53"/>
-      <c r="F40" s="51"/>
-      <c r="G40" s="51"/>
-      <c r="H40" s="47"/>
+      <c r="D40" s="51"/>
+      <c r="E40" s="56"/>
+      <c r="F40" s="53"/>
+      <c r="G40" s="53"/>
+      <c r="H40" s="51"/>
       <c r="I40" s="17"/>
     </row>
     <row r="41" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2071,13 +2050,13 @@
         <v>0</v>
       </c>
       <c r="C41" s="18"/>
-      <c r="D41" s="52" t="s">
+      <c r="D41" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="E41" s="53"/>
-      <c r="F41" s="51"/>
-      <c r="G41" s="51"/>
-      <c r="H41" s="52" t="s">
+      <c r="E41" s="56"/>
+      <c r="F41" s="53"/>
+      <c r="G41" s="53"/>
+      <c r="H41" s="55" t="s">
         <v>33</v>
       </c>
       <c r="I41" s="18"/>
@@ -2088,49 +2067,49 @@
         <v>3</v>
       </c>
       <c r="C42" s="12"/>
-      <c r="D42" s="49"/>
-      <c r="E42" s="49"/>
-      <c r="F42" s="47"/>
-      <c r="G42" s="47"/>
-      <c r="H42" s="49"/>
+      <c r="D42" s="57"/>
+      <c r="E42" s="57"/>
+      <c r="F42" s="51"/>
+      <c r="G42" s="51"/>
+      <c r="H42" s="57"/>
       <c r="I42" s="17"/>
     </row>
     <row r="43" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="57">
+      <c r="A43" s="46">
         <v>4</v>
       </c>
       <c r="B43" s="36" t="s">
         <v>8</v>
       </c>
       <c r="C43" s="18"/>
-      <c r="D43" s="52" t="s">
+      <c r="D43" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="E43" s="52" t="s">
+      <c r="E43" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="F43" s="50" t="s">
+      <c r="F43" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="G43" s="50" t="s">
+      <c r="G43" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="H43" s="52" t="s">
+      <c r="H43" s="55" t="s">
         <v>33</v>
       </c>
       <c r="I43" s="25"/>
     </row>
     <row r="44" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="59"/>
+      <c r="A44" s="48"/>
       <c r="B44" s="26" t="s">
         <v>2</v>
       </c>
       <c r="C44" s="17"/>
-      <c r="D44" s="53"/>
-      <c r="E44" s="53"/>
-      <c r="F44" s="51"/>
-      <c r="G44" s="51"/>
-      <c r="H44" s="53"/>
+      <c r="D44" s="56"/>
+      <c r="E44" s="56"/>
+      <c r="F44" s="53"/>
+      <c r="G44" s="53"/>
+      <c r="H44" s="56"/>
       <c r="I44" s="17"/>
     </row>
     <row r="45" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2139,11 +2118,11 @@
         <v>0</v>
       </c>
       <c r="C45" s="18"/>
-      <c r="D45" s="53"/>
-      <c r="E45" s="53"/>
-      <c r="F45" s="51"/>
-      <c r="G45" s="51"/>
-      <c r="H45" s="53"/>
+      <c r="D45" s="56"/>
+      <c r="E45" s="56"/>
+      <c r="F45" s="53"/>
+      <c r="G45" s="53"/>
+      <c r="H45" s="56"/>
       <c r="I45" s="18"/>
     </row>
     <row r="46" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2152,129 +2131,129 @@
         <v>3</v>
       </c>
       <c r="C46" s="12"/>
-      <c r="D46" s="49"/>
-      <c r="E46" s="49"/>
-      <c r="F46" s="47"/>
-      <c r="G46" s="47"/>
-      <c r="H46" s="49"/>
+      <c r="D46" s="57"/>
+      <c r="E46" s="57"/>
+      <c r="F46" s="51"/>
+      <c r="G46" s="51"/>
+      <c r="H46" s="57"/>
       <c r="I46" s="17"/>
     </row>
     <row r="47" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="57">
+      <c r="A47" s="46">
         <v>5</v>
       </c>
       <c r="B47" s="36" t="s">
         <v>8</v>
       </c>
       <c r="C47" s="15"/>
-      <c r="D47" s="52" t="s">
+      <c r="D47" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="E47" s="46" t="s">
-        <v>31</v>
-      </c>
-      <c r="F47" s="50" t="s">
+      <c r="E47" s="58" t="s">
+        <v>31</v>
+      </c>
+      <c r="F47" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="G47" s="46" t="s">
-        <v>31</v>
-      </c>
-      <c r="H47" s="52" t="s">
+      <c r="G47" s="58" t="s">
+        <v>31</v>
+      </c>
+      <c r="H47" s="55" t="s">
         <v>33</v>
       </c>
       <c r="I47" s="15"/>
     </row>
     <row r="48" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="58"/>
+      <c r="A48" s="47"/>
       <c r="B48" s="33" t="s">
         <v>0</v>
       </c>
       <c r="C48" s="13"/>
-      <c r="D48" s="49"/>
-      <c r="E48" s="47"/>
-      <c r="F48" s="47"/>
-      <c r="G48" s="47"/>
-      <c r="H48" s="49"/>
+      <c r="D48" s="57"/>
+      <c r="E48" s="51"/>
+      <c r="F48" s="51"/>
+      <c r="G48" s="51"/>
+      <c r="H48" s="57"/>
       <c r="I48" s="13"/>
     </row>
     <row r="49" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="57">
+      <c r="A49" s="46">
         <v>6</v>
       </c>
       <c r="B49" s="36" t="s">
         <v>8</v>
       </c>
       <c r="C49" s="15"/>
-      <c r="D49" s="52" t="s">
+      <c r="D49" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="E49" s="48" t="s">
+      <c r="E49" s="59" t="s">
         <v>35</v>
       </c>
-      <c r="F49" s="50" t="s">
+      <c r="F49" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="G49" s="46" t="s">
-        <v>31</v>
-      </c>
-      <c r="H49" s="52" t="s">
+      <c r="G49" s="58" t="s">
+        <v>31</v>
+      </c>
+      <c r="H49" s="55" t="s">
         <v>33</v>
       </c>
       <c r="I49" s="15"/>
     </row>
     <row r="50" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="58"/>
+      <c r="A50" s="47"/>
       <c r="B50" s="33" t="s">
         <v>0</v>
       </c>
       <c r="C50" s="13"/>
-      <c r="D50" s="49"/>
-      <c r="E50" s="49"/>
-      <c r="F50" s="47"/>
-      <c r="G50" s="47"/>
-      <c r="H50" s="49"/>
+      <c r="D50" s="57"/>
+      <c r="E50" s="57"/>
+      <c r="F50" s="51"/>
+      <c r="G50" s="51"/>
+      <c r="H50" s="57"/>
       <c r="I50" s="13"/>
     </row>
     <row r="51" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="57">
+      <c r="A51" s="46">
         <v>7</v>
       </c>
       <c r="B51" s="36" t="s">
         <v>8</v>
       </c>
       <c r="C51" s="15"/>
-      <c r="D51" s="46" t="s">
-        <v>31</v>
-      </c>
-      <c r="E51" s="48" t="s">
+      <c r="D51" s="58" t="s">
+        <v>31</v>
+      </c>
+      <c r="E51" s="59" t="s">
         <v>35</v>
       </c>
-      <c r="F51" s="46" t="s">
-        <v>31</v>
-      </c>
-      <c r="G51" s="46" t="s">
-        <v>31</v>
-      </c>
-      <c r="H51" s="46" t="s">
+      <c r="F51" s="58" t="s">
+        <v>31</v>
+      </c>
+      <c r="G51" s="58" t="s">
+        <v>31</v>
+      </c>
+      <c r="H51" s="58" t="s">
         <v>31</v>
       </c>
       <c r="I51" s="15"/>
     </row>
     <row r="52" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="58"/>
+      <c r="A52" s="47"/>
       <c r="B52" s="33" t="s">
         <v>0</v>
       </c>
       <c r="C52" s="13"/>
-      <c r="D52" s="47"/>
-      <c r="E52" s="49"/>
-      <c r="F52" s="47"/>
-      <c r="G52" s="47"/>
-      <c r="H52" s="47"/>
+      <c r="D52" s="51"/>
+      <c r="E52" s="57"/>
+      <c r="F52" s="51"/>
+      <c r="G52" s="51"/>
+      <c r="H52" s="51"/>
       <c r="I52" s="13"/>
     </row>
     <row r="53" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="57">
+      <c r="A53" s="46">
         <v>8</v>
       </c>
       <c r="B53" s="36" t="s">
@@ -2284,7 +2263,7 @@
       <c r="D53" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="E53" s="48" t="s">
+      <c r="E53" s="59" t="s">
         <v>35</v>
       </c>
       <c r="F53" s="16" t="s">
@@ -2299,7 +2278,7 @@
       <c r="I53" s="15"/>
     </row>
     <row r="54" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="58"/>
+      <c r="A54" s="47"/>
       <c r="B54" s="33" t="s">
         <v>0</v>
       </c>
@@ -2307,7 +2286,7 @@
       <c r="D54" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="E54" s="49"/>
+      <c r="E54" s="57"/>
       <c r="F54" s="14" t="s">
         <v>31</v>
       </c>
@@ -2320,130 +2299,47 @@
       <c r="I54" s="13"/>
     </row>
     <row r="55" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="57">
+      <c r="A55" s="46">
         <v>9</v>
       </c>
       <c r="B55" s="36" t="s">
         <v>8</v>
       </c>
       <c r="C55" s="15"/>
-      <c r="D55" s="46" t="s">
+      <c r="D55" s="58" t="s">
         <v>31</v>
       </c>
       <c r="E55" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="F55" s="46" t="s">
-        <v>31</v>
-      </c>
-      <c r="G55" s="46" t="s">
-        <v>31</v>
-      </c>
-      <c r="H55" s="46" t="s">
+      <c r="F55" s="58" t="s">
+        <v>31</v>
+      </c>
+      <c r="G55" s="58" t="s">
+        <v>31</v>
+      </c>
+      <c r="H55" s="58" t="s">
         <v>31</v>
       </c>
       <c r="I55" s="15"/>
     </row>
     <row r="56" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="58"/>
+      <c r="A56" s="47"/>
       <c r="B56" s="33" t="s">
         <v>0</v>
       </c>
       <c r="C56" s="13"/>
-      <c r="D56" s="47"/>
+      <c r="D56" s="51"/>
       <c r="E56" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="F56" s="47"/>
-      <c r="G56" s="47"/>
-      <c r="H56" s="47"/>
+      <c r="F56" s="51"/>
+      <c r="G56" s="51"/>
+      <c r="H56" s="51"/>
       <c r="I56" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="107">
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="D7:D10"/>
-    <mergeCell ref="D11:D14"/>
-    <mergeCell ref="D19:D22"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="D35:D38"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="F7:F10"/>
-    <mergeCell ref="H7:H10"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="E15:E18"/>
-    <mergeCell ref="G15:G18"/>
-    <mergeCell ref="E11:E14"/>
-    <mergeCell ref="F11:F14"/>
-    <mergeCell ref="G11:G14"/>
-    <mergeCell ref="H11:H14"/>
-    <mergeCell ref="F19:F22"/>
-    <mergeCell ref="H19:H22"/>
-    <mergeCell ref="D23:D26"/>
-    <mergeCell ref="F23:F26"/>
-    <mergeCell ref="H23:H26"/>
-    <mergeCell ref="E19:E22"/>
-    <mergeCell ref="G19:G22"/>
-    <mergeCell ref="E23:E26"/>
-    <mergeCell ref="G23:G26"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="H31:H32"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="H33:H34"/>
-    <mergeCell ref="E31:E34"/>
-    <mergeCell ref="G31:G34"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="G51:G52"/>
-    <mergeCell ref="F35:F38"/>
-    <mergeCell ref="H35:H38"/>
-    <mergeCell ref="D43:D46"/>
-    <mergeCell ref="H43:H46"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="H39:H40"/>
-    <mergeCell ref="H41:H42"/>
-    <mergeCell ref="E35:E38"/>
-    <mergeCell ref="G35:G38"/>
     <mergeCell ref="G55:G56"/>
     <mergeCell ref="E53:E54"/>
     <mergeCell ref="D55:D56"/>
@@ -2468,6 +2364,89 @@
     <mergeCell ref="D51:D52"/>
     <mergeCell ref="F51:F52"/>
     <mergeCell ref="H51:H52"/>
+    <mergeCell ref="G51:G52"/>
+    <mergeCell ref="F35:F38"/>
+    <mergeCell ref="H35:H38"/>
+    <mergeCell ref="D43:D46"/>
+    <mergeCell ref="H43:H46"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="E35:E38"/>
+    <mergeCell ref="G35:G38"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="H33:H34"/>
+    <mergeCell ref="E31:E34"/>
+    <mergeCell ref="G31:G34"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="F19:F22"/>
+    <mergeCell ref="H19:H22"/>
+    <mergeCell ref="D23:D26"/>
+    <mergeCell ref="F23:F26"/>
+    <mergeCell ref="H23:H26"/>
+    <mergeCell ref="E19:E22"/>
+    <mergeCell ref="G19:G22"/>
+    <mergeCell ref="E23:E26"/>
+    <mergeCell ref="G23:G26"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="E15:E18"/>
+    <mergeCell ref="G15:G18"/>
+    <mergeCell ref="E11:E14"/>
+    <mergeCell ref="F11:F14"/>
+    <mergeCell ref="G11:G14"/>
+    <mergeCell ref="H11:H14"/>
+    <mergeCell ref="F7:F10"/>
+    <mergeCell ref="H7:H10"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="D7:D10"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="D19:D22"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="D35:D38"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="A43:A44"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -2525,10 +2504,10 @@
       <c r="I2" s="22"/>
     </row>
     <row r="3" spans="1:9" s="23" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="56" t="s">
+      <c r="A3" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="56"/>
+      <c r="B3" s="49"/>
       <c r="G3" s="24" t="s">
         <v>27</v>
       </c>
@@ -2562,79 +2541,79 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="57">
+      <c r="A5" s="46">
         <v>6</v>
       </c>
       <c r="B5" s="36" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="44"/>
-      <c r="D5" s="55" t="s">
+      <c r="D5" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="55" t="s">
+      <c r="E5" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="55" t="s">
+      <c r="F5" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="55" t="s">
+      <c r="G5" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="55" t="s">
+      <c r="H5" s="50" t="s">
         <v>18</v>
       </c>
       <c r="I5" s="44"/>
     </row>
     <row r="6" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="58"/>
+      <c r="A6" s="47"/>
       <c r="B6" s="33" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="45"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="47"/>
-      <c r="H6" s="47"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="51"/>
+      <c r="F6" s="51"/>
+      <c r="G6" s="51"/>
+      <c r="H6" s="51"/>
       <c r="I6" s="45"/>
     </row>
     <row r="7" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="57">
+      <c r="A7" s="46">
         <v>7</v>
       </c>
       <c r="B7" s="36" t="s">
         <v>1</v>
       </c>
       <c r="C7" s="42"/>
-      <c r="D7" s="50" t="s">
+      <c r="D7" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="50" t="s">
+      <c r="E7" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="50" t="s">
+      <c r="F7" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="G7" s="50" t="s">
+      <c r="G7" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="H7" s="50" t="s">
+      <c r="H7" s="52" t="s">
         <v>18</v>
       </c>
       <c r="I7" s="44"/>
     </row>
     <row r="8" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="59"/>
+      <c r="A8" s="48"/>
       <c r="B8" s="26" t="s">
         <v>2</v>
       </c>
       <c r="C8" s="43"/>
-      <c r="D8" s="51"/>
-      <c r="E8" s="51"/>
-      <c r="F8" s="51"/>
-      <c r="G8" s="51"/>
-      <c r="H8" s="51"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="53"/>
+      <c r="G8" s="53"/>
+      <c r="H8" s="53"/>
       <c r="I8" s="43"/>
     </row>
     <row r="9" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -2643,15 +2622,15 @@
         <v>0</v>
       </c>
       <c r="C9" s="43"/>
-      <c r="D9" s="51"/>
-      <c r="E9" s="53" t="s">
+      <c r="D9" s="53"/>
+      <c r="E9" s="56" t="s">
         <v>28</v>
       </c>
-      <c r="F9" s="51"/>
-      <c r="G9" s="53" t="s">
+      <c r="F9" s="53"/>
+      <c r="G9" s="56" t="s">
         <v>28</v>
       </c>
-      <c r="H9" s="51"/>
+      <c r="H9" s="53"/>
       <c r="I9" s="43"/>
     </row>
     <row r="10" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -2660,49 +2639,49 @@
         <v>3</v>
       </c>
       <c r="C10" s="45"/>
-      <c r="D10" s="47"/>
-      <c r="E10" s="49"/>
-      <c r="F10" s="47"/>
-      <c r="G10" s="49"/>
-      <c r="H10" s="47"/>
+      <c r="D10" s="51"/>
+      <c r="E10" s="57"/>
+      <c r="F10" s="51"/>
+      <c r="G10" s="57"/>
+      <c r="H10" s="51"/>
       <c r="I10" s="45"/>
     </row>
     <row r="11" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="57">
+      <c r="A11" s="46">
         <v>8</v>
       </c>
       <c r="B11" s="36" t="s">
         <v>1</v>
       </c>
       <c r="C11" s="42"/>
-      <c r="D11" s="50" t="s">
+      <c r="D11" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="52" t="s">
+      <c r="E11" s="55" t="s">
         <v>36</v>
       </c>
-      <c r="F11" s="50" t="s">
+      <c r="F11" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="G11" s="52" t="s">
+      <c r="G11" s="55" t="s">
         <v>36</v>
       </c>
-      <c r="H11" s="50" t="s">
+      <c r="H11" s="52" t="s">
         <v>18</v>
       </c>
       <c r="I11" s="42"/>
     </row>
     <row r="12" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="59"/>
+      <c r="A12" s="48"/>
       <c r="B12" s="26" t="s">
         <v>2</v>
       </c>
       <c r="C12" s="43"/>
-      <c r="D12" s="51"/>
-      <c r="E12" s="53"/>
-      <c r="F12" s="51"/>
-      <c r="G12" s="53"/>
-      <c r="H12" s="51"/>
+      <c r="D12" s="53"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="53"/>
+      <c r="G12" s="56"/>
+      <c r="H12" s="53"/>
       <c r="I12" s="43"/>
     </row>
     <row r="13" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -2711,11 +2690,11 @@
         <v>0</v>
       </c>
       <c r="C13" s="43"/>
-      <c r="D13" s="51"/>
-      <c r="E13" s="53"/>
-      <c r="F13" s="51"/>
-      <c r="G13" s="53"/>
-      <c r="H13" s="51"/>
+      <c r="D13" s="53"/>
+      <c r="E13" s="56"/>
+      <c r="F13" s="53"/>
+      <c r="G13" s="56"/>
+      <c r="H13" s="53"/>
       <c r="I13" s="43"/>
     </row>
     <row r="14" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -2724,48 +2703,48 @@
         <v>3</v>
       </c>
       <c r="C14" s="45"/>
-      <c r="D14" s="47"/>
-      <c r="E14" s="49"/>
-      <c r="F14" s="47"/>
-      <c r="G14" s="49"/>
-      <c r="H14" s="47"/>
+      <c r="D14" s="51"/>
+      <c r="E14" s="57"/>
+      <c r="F14" s="51"/>
+      <c r="G14" s="57"/>
+      <c r="H14" s="51"/>
       <c r="I14" s="45"/>
     </row>
     <row r="15" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="57">
+      <c r="A15" s="46">
         <v>9</v>
       </c>
       <c r="B15" s="36" t="s">
         <v>1</v>
       </c>
       <c r="C15" s="18"/>
-      <c r="D15" s="50" t="s">
+      <c r="D15" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="E15" s="52" t="s">
+      <c r="E15" s="55" t="s">
         <v>36</v>
       </c>
-      <c r="F15" s="50" t="s">
+      <c r="F15" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="G15" s="52" t="s">
+      <c r="G15" s="55" t="s">
         <v>36</v>
       </c>
-      <c r="H15" s="50" t="s">
+      <c r="H15" s="52" t="s">
         <v>28</v>
       </c>
       <c r="I15" s="42"/>
     </row>
     <row r="16" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="59"/>
+      <c r="A16" s="48"/>
       <c r="B16" s="26" t="s">
         <v>2</v>
       </c>
       <c r="C16" s="17"/>
       <c r="D16" s="54"/>
-      <c r="E16" s="53"/>
+      <c r="E16" s="56"/>
       <c r="F16" s="54"/>
-      <c r="G16" s="53"/>
+      <c r="G16" s="56"/>
       <c r="H16" s="54"/>
       <c r="I16" s="43"/>
     </row>
@@ -2775,15 +2754,15 @@
         <v>0</v>
       </c>
       <c r="C17" s="18"/>
-      <c r="D17" s="46" t="s">
+      <c r="D17" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="E17" s="53"/>
-      <c r="F17" s="46" t="s">
+      <c r="E17" s="56"/>
+      <c r="F17" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="G17" s="53"/>
-      <c r="H17" s="46" t="s">
+      <c r="G17" s="56"/>
+      <c r="H17" s="58" t="s">
         <v>29</v>
       </c>
       <c r="I17" s="43"/>
@@ -2794,49 +2773,49 @@
         <v>3</v>
       </c>
       <c r="C18" s="12"/>
-      <c r="D18" s="47"/>
-      <c r="E18" s="49"/>
-      <c r="F18" s="47"/>
-      <c r="G18" s="49"/>
-      <c r="H18" s="47"/>
+      <c r="D18" s="51"/>
+      <c r="E18" s="57"/>
+      <c r="F18" s="51"/>
+      <c r="G18" s="57"/>
+      <c r="H18" s="51"/>
       <c r="I18" s="45"/>
     </row>
     <row r="19" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="57">
+      <c r="A19" s="46">
         <v>10</v>
       </c>
       <c r="B19" s="36" t="s">
         <v>1</v>
       </c>
       <c r="C19" s="18"/>
-      <c r="D19" s="52" t="s">
-        <v>30</v>
-      </c>
-      <c r="E19" s="50" t="s">
+      <c r="D19" s="55" t="s">
+        <v>30</v>
+      </c>
+      <c r="E19" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="F19" s="50" t="s">
-        <v>30</v>
-      </c>
-      <c r="G19" s="50" t="s">
+      <c r="F19" s="52" t="s">
+        <v>30</v>
+      </c>
+      <c r="G19" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="H19" s="50" t="s">
+      <c r="H19" s="52" t="s">
         <v>30</v>
       </c>
       <c r="I19" s="25"/>
     </row>
     <row r="20" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="59"/>
+      <c r="A20" s="48"/>
       <c r="B20" s="26" t="s">
         <v>2</v>
       </c>
       <c r="C20" s="17"/>
-      <c r="D20" s="53"/>
-      <c r="E20" s="51"/>
-      <c r="F20" s="51"/>
-      <c r="G20" s="51"/>
-      <c r="H20" s="51"/>
+      <c r="D20" s="56"/>
+      <c r="E20" s="53"/>
+      <c r="F20" s="53"/>
+      <c r="G20" s="53"/>
+      <c r="H20" s="53"/>
       <c r="I20" s="17"/>
     </row>
     <row r="21" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -2845,11 +2824,11 @@
         <v>0</v>
       </c>
       <c r="C21" s="18"/>
-      <c r="D21" s="53"/>
-      <c r="E21" s="51"/>
-      <c r="F21" s="51"/>
-      <c r="G21" s="51"/>
-      <c r="H21" s="51"/>
+      <c r="D21" s="56"/>
+      <c r="E21" s="53"/>
+      <c r="F21" s="53"/>
+      <c r="G21" s="53"/>
+      <c r="H21" s="53"/>
       <c r="I21" s="18"/>
     </row>
     <row r="22" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -2858,49 +2837,49 @@
         <v>3</v>
       </c>
       <c r="C22" s="12"/>
-      <c r="D22" s="49"/>
-      <c r="E22" s="47"/>
-      <c r="F22" s="47"/>
-      <c r="G22" s="47"/>
-      <c r="H22" s="47"/>
+      <c r="D22" s="57"/>
+      <c r="E22" s="51"/>
+      <c r="F22" s="51"/>
+      <c r="G22" s="51"/>
+      <c r="H22" s="51"/>
       <c r="I22" s="17"/>
     </row>
     <row r="23" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="57">
+      <c r="A23" s="46">
         <v>11</v>
       </c>
       <c r="B23" s="36" t="s">
         <v>1</v>
       </c>
       <c r="C23" s="18"/>
-      <c r="D23" s="52" t="s">
-        <v>30</v>
-      </c>
-      <c r="E23" s="52" t="s">
+      <c r="D23" s="55" t="s">
+        <v>30</v>
+      </c>
+      <c r="E23" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="F23" s="50" t="s">
-        <v>30</v>
-      </c>
-      <c r="G23" s="52" t="s">
+      <c r="F23" s="52" t="s">
+        <v>30</v>
+      </c>
+      <c r="G23" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="H23" s="50" t="s">
+      <c r="H23" s="52" t="s">
         <v>30</v>
       </c>
       <c r="I23" s="25"/>
     </row>
     <row r="24" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="59"/>
+      <c r="A24" s="48"/>
       <c r="B24" s="26" t="s">
         <v>2</v>
       </c>
       <c r="C24" s="17"/>
-      <c r="D24" s="53"/>
-      <c r="E24" s="53"/>
-      <c r="F24" s="51"/>
-      <c r="G24" s="53"/>
-      <c r="H24" s="51"/>
+      <c r="D24" s="56"/>
+      <c r="E24" s="56"/>
+      <c r="F24" s="53"/>
+      <c r="G24" s="56"/>
+      <c r="H24" s="53"/>
       <c r="I24" s="17"/>
     </row>
     <row r="25" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -2909,11 +2888,11 @@
         <v>0</v>
       </c>
       <c r="C25" s="18"/>
-      <c r="D25" s="53"/>
-      <c r="E25" s="53"/>
-      <c r="F25" s="51"/>
-      <c r="G25" s="53"/>
-      <c r="H25" s="51"/>
+      <c r="D25" s="56"/>
+      <c r="E25" s="56"/>
+      <c r="F25" s="53"/>
+      <c r="G25" s="56"/>
+      <c r="H25" s="53"/>
       <c r="I25" s="18"/>
     </row>
     <row r="26" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -2922,40 +2901,40 @@
         <v>3</v>
       </c>
       <c r="C26" s="12"/>
-      <c r="D26" s="49"/>
-      <c r="E26" s="49"/>
-      <c r="F26" s="47"/>
-      <c r="G26" s="49"/>
-      <c r="H26" s="47"/>
+      <c r="D26" s="57"/>
+      <c r="E26" s="57"/>
+      <c r="F26" s="51"/>
+      <c r="G26" s="57"/>
+      <c r="H26" s="51"/>
       <c r="I26" s="17"/>
     </row>
     <row r="27" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="57">
+      <c r="A27" s="46">
         <v>12</v>
       </c>
       <c r="B27" s="36" t="s">
         <v>8</v>
       </c>
       <c r="C27" s="18"/>
-      <c r="D27" s="52" t="s">
-        <v>30</v>
-      </c>
-      <c r="E27" s="50" t="s">
+      <c r="D27" s="55" t="s">
+        <v>30</v>
+      </c>
+      <c r="E27" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="F27" s="50" t="s">
-        <v>30</v>
-      </c>
-      <c r="G27" s="50" t="s">
+      <c r="F27" s="52" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="H27" s="50" t="s">
+      <c r="H27" s="52" t="s">
         <v>30</v>
       </c>
       <c r="I27" s="25"/>
     </row>
     <row r="28" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="59"/>
+      <c r="A28" s="48"/>
       <c r="B28" s="26" t="s">
         <v>2</v>
       </c>
@@ -2973,19 +2952,19 @@
         <v>0</v>
       </c>
       <c r="C29" s="18"/>
-      <c r="D29" s="46" t="s">
-        <v>31</v>
-      </c>
-      <c r="E29" s="50" t="s">
-        <v>30</v>
-      </c>
-      <c r="F29" s="46" t="s">
-        <v>31</v>
-      </c>
-      <c r="G29" s="50" t="s">
-        <v>30</v>
-      </c>
-      <c r="H29" s="46" t="s">
+      <c r="D29" s="58" t="s">
+        <v>31</v>
+      </c>
+      <c r="E29" s="52" t="s">
+        <v>30</v>
+      </c>
+      <c r="F29" s="58" t="s">
+        <v>31</v>
+      </c>
+      <c r="G29" s="52" t="s">
+        <v>30</v>
+      </c>
+      <c r="H29" s="58" t="s">
         <v>31</v>
       </c>
       <c r="I29" s="18"/>
@@ -2996,48 +2975,48 @@
         <v>3</v>
       </c>
       <c r="C30" s="12"/>
-      <c r="D30" s="47"/>
+      <c r="D30" s="51"/>
       <c r="E30" s="54"/>
-      <c r="F30" s="47"/>
+      <c r="F30" s="51"/>
       <c r="G30" s="54"/>
-      <c r="H30" s="47"/>
+      <c r="H30" s="51"/>
       <c r="I30" s="17"/>
     </row>
     <row r="31" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="57">
+      <c r="A31" s="46">
         <v>1</v>
       </c>
       <c r="B31" s="36" t="s">
         <v>8</v>
       </c>
       <c r="C31" s="18"/>
-      <c r="D31" s="50" t="s">
+      <c r="D31" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="E31" s="50" t="s">
-        <v>30</v>
-      </c>
-      <c r="F31" s="50" t="s">
+      <c r="E31" s="52" t="s">
+        <v>30</v>
+      </c>
+      <c r="F31" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="G31" s="50" t="s">
-        <v>30</v>
-      </c>
-      <c r="H31" s="50" t="s">
+      <c r="G31" s="52" t="s">
+        <v>30</v>
+      </c>
+      <c r="H31" s="52" t="s">
         <v>32</v>
       </c>
       <c r="I31" s="25"/>
     </row>
     <row r="32" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="59"/>
+      <c r="A32" s="48"/>
       <c r="B32" s="26" t="s">
         <v>2</v>
       </c>
       <c r="C32" s="17"/>
       <c r="D32" s="54"/>
-      <c r="E32" s="51"/>
+      <c r="E32" s="53"/>
       <c r="F32" s="54"/>
-      <c r="G32" s="51"/>
+      <c r="G32" s="53"/>
       <c r="H32" s="54"/>
       <c r="I32" s="17"/>
     </row>
@@ -3047,15 +3026,15 @@
         <v>0</v>
       </c>
       <c r="C33" s="18"/>
-      <c r="D33" s="46" t="s">
+      <c r="D33" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="E33" s="51"/>
-      <c r="F33" s="46" t="s">
+      <c r="E33" s="53"/>
+      <c r="F33" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="G33" s="51"/>
-      <c r="H33" s="46" t="s">
+      <c r="G33" s="53"/>
+      <c r="H33" s="58" t="s">
         <v>29</v>
       </c>
       <c r="I33" s="18"/>
@@ -3066,49 +3045,49 @@
         <v>3</v>
       </c>
       <c r="C34" s="12"/>
-      <c r="D34" s="47"/>
-      <c r="E34" s="47"/>
-      <c r="F34" s="47"/>
-      <c r="G34" s="47"/>
-      <c r="H34" s="47"/>
+      <c r="D34" s="51"/>
+      <c r="E34" s="51"/>
+      <c r="F34" s="51"/>
+      <c r="G34" s="51"/>
+      <c r="H34" s="51"/>
       <c r="I34" s="17"/>
     </row>
     <row r="35" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="57">
+      <c r="A35" s="46">
         <v>2</v>
       </c>
       <c r="B35" s="36" t="s">
         <v>8</v>
       </c>
       <c r="C35" s="18"/>
-      <c r="D35" s="50" t="s">
+      <c r="D35" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="E35" s="50" t="s">
-        <v>30</v>
-      </c>
-      <c r="F35" s="50" t="s">
+      <c r="E35" s="52" t="s">
+        <v>30</v>
+      </c>
+      <c r="F35" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="G35" s="50" t="s">
-        <v>30</v>
-      </c>
-      <c r="H35" s="50" t="s">
+      <c r="G35" s="52" t="s">
+        <v>30</v>
+      </c>
+      <c r="H35" s="52" t="s">
         <v>29</v>
       </c>
       <c r="I35" s="25"/>
     </row>
     <row r="36" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="59"/>
+      <c r="A36" s="48"/>
       <c r="B36" s="26" t="s">
         <v>2</v>
       </c>
       <c r="C36" s="17"/>
-      <c r="D36" s="51"/>
-      <c r="E36" s="51"/>
-      <c r="F36" s="51"/>
-      <c r="G36" s="51"/>
-      <c r="H36" s="51"/>
+      <c r="D36" s="53"/>
+      <c r="E36" s="53"/>
+      <c r="F36" s="53"/>
+      <c r="G36" s="53"/>
+      <c r="H36" s="53"/>
       <c r="I36" s="17"/>
     </row>
     <row r="37" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -3117,11 +3096,11 @@
         <v>0</v>
       </c>
       <c r="C37" s="18"/>
-      <c r="D37" s="51"/>
-      <c r="E37" s="51"/>
-      <c r="F37" s="51"/>
-      <c r="G37" s="51"/>
-      <c r="H37" s="51"/>
+      <c r="D37" s="53"/>
+      <c r="E37" s="53"/>
+      <c r="F37" s="53"/>
+      <c r="G37" s="53"/>
+      <c r="H37" s="53"/>
       <c r="I37" s="18"/>
     </row>
     <row r="38" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -3130,49 +3109,49 @@
         <v>3</v>
       </c>
       <c r="C38" s="12"/>
-      <c r="D38" s="47"/>
-      <c r="E38" s="47"/>
-      <c r="F38" s="47"/>
-      <c r="G38" s="47"/>
-      <c r="H38" s="47"/>
+      <c r="D38" s="51"/>
+      <c r="E38" s="51"/>
+      <c r="F38" s="51"/>
+      <c r="G38" s="51"/>
+      <c r="H38" s="51"/>
       <c r="I38" s="17"/>
     </row>
     <row r="39" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="57">
+      <c r="A39" s="46">
         <v>3</v>
       </c>
       <c r="B39" s="36" t="s">
         <v>8</v>
       </c>
       <c r="C39" s="18"/>
-      <c r="D39" s="46" t="s">
+      <c r="D39" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="E39" s="52" t="s">
+      <c r="E39" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="F39" s="50" t="s">
+      <c r="F39" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="G39" s="52" t="s">
+      <c r="G39" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="H39" s="46" t="s">
+      <c r="H39" s="58" t="s">
         <v>29</v>
       </c>
       <c r="I39" s="25"/>
     </row>
     <row r="40" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="59"/>
+      <c r="A40" s="48"/>
       <c r="B40" s="26" t="s">
         <v>2</v>
       </c>
       <c r="C40" s="17"/>
-      <c r="D40" s="47"/>
-      <c r="E40" s="53"/>
-      <c r="F40" s="51"/>
-      <c r="G40" s="53"/>
-      <c r="H40" s="47"/>
+      <c r="D40" s="51"/>
+      <c r="E40" s="56"/>
+      <c r="F40" s="53"/>
+      <c r="G40" s="56"/>
+      <c r="H40" s="51"/>
       <c r="I40" s="17"/>
     </row>
     <row r="41" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
@@ -3181,13 +3160,13 @@
         <v>0</v>
       </c>
       <c r="C41" s="18"/>
-      <c r="D41" s="52" t="s">
+      <c r="D41" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="E41" s="53"/>
-      <c r="F41" s="51"/>
-      <c r="G41" s="53"/>
-      <c r="H41" s="52" t="s">
+      <c r="E41" s="56"/>
+      <c r="F41" s="53"/>
+      <c r="G41" s="56"/>
+      <c r="H41" s="55" t="s">
         <v>33</v>
       </c>
       <c r="I41" s="18"/>
@@ -3198,49 +3177,49 @@
         <v>3</v>
       </c>
       <c r="C42" s="12"/>
-      <c r="D42" s="49"/>
-      <c r="E42" s="49"/>
-      <c r="F42" s="47"/>
-      <c r="G42" s="49"/>
-      <c r="H42" s="49"/>
+      <c r="D42" s="57"/>
+      <c r="E42" s="57"/>
+      <c r="F42" s="51"/>
+      <c r="G42" s="57"/>
+      <c r="H42" s="57"/>
       <c r="I42" s="17"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A43" s="57">
+      <c r="A43" s="46">
         <v>4</v>
       </c>
       <c r="B43" s="36" t="s">
         <v>8</v>
       </c>
       <c r="C43" s="18"/>
-      <c r="D43" s="52" t="s">
+      <c r="D43" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="E43" s="50" t="s">
+      <c r="E43" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="F43" s="50" t="s">
+      <c r="F43" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="G43" s="50" t="s">
+      <c r="G43" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="H43" s="52" t="s">
+      <c r="H43" s="55" t="s">
         <v>33</v>
       </c>
       <c r="I43" s="25"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A44" s="59"/>
+      <c r="A44" s="48"/>
       <c r="B44" s="26" t="s">
         <v>2</v>
       </c>
       <c r="C44" s="17"/>
-      <c r="D44" s="53"/>
-      <c r="E44" s="51"/>
-      <c r="F44" s="51"/>
-      <c r="G44" s="51"/>
-      <c r="H44" s="53"/>
+      <c r="D44" s="56"/>
+      <c r="E44" s="53"/>
+      <c r="F44" s="53"/>
+      <c r="G44" s="53"/>
+      <c r="H44" s="56"/>
       <c r="I44" s="17"/>
     </row>
     <row r="45" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
@@ -3249,11 +3228,11 @@
         <v>0</v>
       </c>
       <c r="C45" s="18"/>
-      <c r="D45" s="53"/>
-      <c r="E45" s="51"/>
-      <c r="F45" s="51"/>
-      <c r="G45" s="51"/>
-      <c r="H45" s="53"/>
+      <c r="D45" s="56"/>
+      <c r="E45" s="53"/>
+      <c r="F45" s="53"/>
+      <c r="G45" s="53"/>
+      <c r="H45" s="56"/>
       <c r="I45" s="18"/>
     </row>
     <row r="46" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
@@ -3262,129 +3241,129 @@
         <v>3</v>
       </c>
       <c r="C46" s="12"/>
-      <c r="D46" s="49"/>
-      <c r="E46" s="47"/>
-      <c r="F46" s="47"/>
-      <c r="G46" s="47"/>
-      <c r="H46" s="49"/>
+      <c r="D46" s="57"/>
+      <c r="E46" s="51"/>
+      <c r="F46" s="51"/>
+      <c r="G46" s="51"/>
+      <c r="H46" s="57"/>
       <c r="I46" s="17"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A47" s="57">
+      <c r="A47" s="46">
         <v>5</v>
       </c>
       <c r="B47" s="36" t="s">
         <v>8</v>
       </c>
       <c r="C47" s="15"/>
-      <c r="D47" s="52" t="s">
+      <c r="D47" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="E47" s="46" t="s">
-        <v>31</v>
-      </c>
-      <c r="F47" s="50" t="s">
+      <c r="E47" s="58" t="s">
+        <v>31</v>
+      </c>
+      <c r="F47" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="G47" s="46" t="s">
-        <v>31</v>
-      </c>
-      <c r="H47" s="52" t="s">
+      <c r="G47" s="58" t="s">
+        <v>31</v>
+      </c>
+      <c r="H47" s="55" t="s">
         <v>33</v>
       </c>
       <c r="I47" s="15"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A48" s="58"/>
+      <c r="A48" s="47"/>
       <c r="B48" s="33" t="s">
         <v>0</v>
       </c>
       <c r="C48" s="13"/>
-      <c r="D48" s="49"/>
-      <c r="E48" s="47"/>
-      <c r="F48" s="47"/>
-      <c r="G48" s="47"/>
-      <c r="H48" s="49"/>
+      <c r="D48" s="57"/>
+      <c r="E48" s="51"/>
+      <c r="F48" s="51"/>
+      <c r="G48" s="51"/>
+      <c r="H48" s="57"/>
       <c r="I48" s="13"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A49" s="57">
+      <c r="A49" s="46">
         <v>6</v>
       </c>
       <c r="B49" s="36" t="s">
         <v>8</v>
       </c>
       <c r="C49" s="15"/>
-      <c r="D49" s="52" t="s">
+      <c r="D49" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="E49" s="48" t="s">
+      <c r="E49" s="59" t="s">
         <v>35</v>
       </c>
-      <c r="F49" s="50" t="s">
+      <c r="F49" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="G49" s="46" t="s">
-        <v>31</v>
-      </c>
-      <c r="H49" s="52" t="s">
+      <c r="G49" s="58" t="s">
+        <v>31</v>
+      </c>
+      <c r="H49" s="55" t="s">
         <v>33</v>
       </c>
       <c r="I49" s="15"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A50" s="58"/>
+      <c r="A50" s="47"/>
       <c r="B50" s="33" t="s">
         <v>0</v>
       </c>
       <c r="C50" s="13"/>
-      <c r="D50" s="49"/>
-      <c r="E50" s="49"/>
-      <c r="F50" s="47"/>
-      <c r="G50" s="47"/>
-      <c r="H50" s="49"/>
+      <c r="D50" s="57"/>
+      <c r="E50" s="57"/>
+      <c r="F50" s="51"/>
+      <c r="G50" s="51"/>
+      <c r="H50" s="57"/>
       <c r="I50" s="13"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A51" s="57">
+      <c r="A51" s="46">
         <v>7</v>
       </c>
       <c r="B51" s="36" t="s">
         <v>8</v>
       </c>
       <c r="C51" s="15"/>
-      <c r="D51" s="46" t="s">
-        <v>31</v>
-      </c>
-      <c r="E51" s="48" t="s">
+      <c r="D51" s="58" t="s">
+        <v>31</v>
+      </c>
+      <c r="E51" s="59" t="s">
         <v>35</v>
       </c>
-      <c r="F51" s="46" t="s">
-        <v>31</v>
-      </c>
-      <c r="G51" s="46" t="s">
-        <v>31</v>
-      </c>
-      <c r="H51" s="46" t="s">
+      <c r="F51" s="58" t="s">
+        <v>31</v>
+      </c>
+      <c r="G51" s="58" t="s">
+        <v>31</v>
+      </c>
+      <c r="H51" s="58" t="s">
         <v>31</v>
       </c>
       <c r="I51" s="15"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A52" s="58"/>
+      <c r="A52" s="47"/>
       <c r="B52" s="33" t="s">
         <v>0</v>
       </c>
       <c r="C52" s="13"/>
-      <c r="D52" s="47"/>
-      <c r="E52" s="49"/>
-      <c r="F52" s="47"/>
-      <c r="G52" s="47"/>
-      <c r="H52" s="47"/>
+      <c r="D52" s="51"/>
+      <c r="E52" s="57"/>
+      <c r="F52" s="51"/>
+      <c r="G52" s="51"/>
+      <c r="H52" s="51"/>
       <c r="I52" s="13"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A53" s="57">
+      <c r="A53" s="46">
         <v>8</v>
       </c>
       <c r="B53" s="36" t="s">
@@ -3394,7 +3373,7 @@
       <c r="D53" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="E53" s="48" t="s">
+      <c r="E53" s="59" t="s">
         <v>35</v>
       </c>
       <c r="F53" s="16" t="s">
@@ -3409,7 +3388,7 @@
       <c r="I53" s="15"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A54" s="58"/>
+      <c r="A54" s="47"/>
       <c r="B54" s="33" t="s">
         <v>0</v>
       </c>
@@ -3417,7 +3396,7 @@
       <c r="D54" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="E54" s="49"/>
+      <c r="E54" s="57"/>
       <c r="F54" s="14" t="s">
         <v>31</v>
       </c>
@@ -3430,87 +3409,101 @@
       <c r="I54" s="13"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A55" s="57">
+      <c r="A55" s="46">
         <v>9</v>
       </c>
       <c r="B55" s="36" t="s">
         <v>8</v>
       </c>
       <c r="C55" s="15"/>
-      <c r="D55" s="46" t="s">
+      <c r="D55" s="58" t="s">
         <v>31</v>
       </c>
       <c r="E55" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="F55" s="46" t="s">
-        <v>31</v>
-      </c>
-      <c r="G55" s="46" t="s">
-        <v>31</v>
-      </c>
-      <c r="H55" s="46" t="s">
+      <c r="F55" s="58" t="s">
+        <v>31</v>
+      </c>
+      <c r="G55" s="58" t="s">
+        <v>31</v>
+      </c>
+      <c r="H55" s="58" t="s">
         <v>31</v>
       </c>
       <c r="I55" s="15"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A56" s="58"/>
+      <c r="A56" s="47"/>
       <c r="B56" s="33" t="s">
         <v>0</v>
       </c>
       <c r="C56" s="13"/>
-      <c r="D56" s="47"/>
+      <c r="D56" s="51"/>
       <c r="E56" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="F56" s="47"/>
-      <c r="G56" s="47"/>
-      <c r="H56" s="47"/>
+      <c r="F56" s="51"/>
+      <c r="G56" s="51"/>
+      <c r="H56" s="51"/>
       <c r="I56" s="13"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="107">
-    <mergeCell ref="H51:H52"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="F55:F56"/>
-    <mergeCell ref="G55:G56"/>
-    <mergeCell ref="H55:H56"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="G51:G52"/>
-    <mergeCell ref="H47:H48"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="F49:F50"/>
-    <mergeCell ref="G49:G50"/>
-    <mergeCell ref="H49:H50"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="F47:F48"/>
-    <mergeCell ref="G47:G48"/>
-    <mergeCell ref="H39:H40"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="H41:H42"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="D43:D46"/>
-    <mergeCell ref="E43:E46"/>
-    <mergeCell ref="F43:F46"/>
-    <mergeCell ref="G43:G46"/>
-    <mergeCell ref="H43:H46"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="E39:E42"/>
-    <mergeCell ref="F39:F42"/>
-    <mergeCell ref="G39:G42"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="D7:D10"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F10"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="H11:H14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E18"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G15:G18"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="E11:E14"/>
+    <mergeCell ref="F11:F14"/>
+    <mergeCell ref="G11:G14"/>
+    <mergeCell ref="H19:H22"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="D23:D26"/>
+    <mergeCell ref="E23:E26"/>
+    <mergeCell ref="F23:F26"/>
+    <mergeCell ref="G23:G26"/>
+    <mergeCell ref="H23:H26"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="D19:D22"/>
+    <mergeCell ref="E19:E22"/>
+    <mergeCell ref="F19:F22"/>
+    <mergeCell ref="G19:G22"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="G27:G28"/>
     <mergeCell ref="H31:H32"/>
     <mergeCell ref="D33:D34"/>
     <mergeCell ref="F33:F34"/>
@@ -3526,59 +3519,45 @@
     <mergeCell ref="E31:E34"/>
     <mergeCell ref="F31:F32"/>
     <mergeCell ref="G31:G34"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="H19:H22"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="D23:D26"/>
-    <mergeCell ref="E23:E26"/>
-    <mergeCell ref="F23:F26"/>
-    <mergeCell ref="G23:G26"/>
-    <mergeCell ref="H23:H26"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="D19:D22"/>
-    <mergeCell ref="E19:E22"/>
-    <mergeCell ref="F19:F22"/>
-    <mergeCell ref="G19:G22"/>
-    <mergeCell ref="H11:H14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E18"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G15:G18"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="D11:D14"/>
-    <mergeCell ref="E11:E14"/>
-    <mergeCell ref="F11:F14"/>
-    <mergeCell ref="G11:G14"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="D7:D10"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F10"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H7:H10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="D43:D46"/>
+    <mergeCell ref="E43:E46"/>
+    <mergeCell ref="F43:F46"/>
+    <mergeCell ref="G43:G46"/>
+    <mergeCell ref="H43:H46"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="E39:E42"/>
+    <mergeCell ref="F39:F42"/>
+    <mergeCell ref="G39:G42"/>
+    <mergeCell ref="H47:H48"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="H49:H50"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="G47:G48"/>
+    <mergeCell ref="H51:H52"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="G55:G56"/>
+    <mergeCell ref="H55:H56"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="G51:G52"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -3635,10 +3614,10 @@
       <c r="I2" s="22"/>
     </row>
     <row r="3" spans="1:9" s="23" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="56" t="s">
+      <c r="A3" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="56"/>
+      <c r="B3" s="49"/>
       <c r="G3" s="24" t="s">
         <v>27</v>
       </c>
@@ -3672,79 +3651,79 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="57">
+      <c r="A5" s="46">
         <v>6</v>
       </c>
       <c r="B5" s="36" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="44"/>
-      <c r="D5" s="55" t="s">
+      <c r="D5" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="55" t="s">
+      <c r="E5" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="55" t="s">
+      <c r="F5" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="55" t="s">
+      <c r="G5" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="55" t="s">
+      <c r="H5" s="50" t="s">
         <v>18</v>
       </c>
       <c r="I5" s="44"/>
     </row>
     <row r="6" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="58"/>
+      <c r="A6" s="47"/>
       <c r="B6" s="33" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="45"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="47"/>
-      <c r="H6" s="47"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="51"/>
+      <c r="F6" s="51"/>
+      <c r="G6" s="51"/>
+      <c r="H6" s="51"/>
       <c r="I6" s="45"/>
     </row>
     <row r="7" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="57">
+      <c r="A7" s="46">
         <v>7</v>
       </c>
       <c r="B7" s="36" t="s">
         <v>1</v>
       </c>
       <c r="C7" s="42"/>
-      <c r="D7" s="50" t="s">
+      <c r="D7" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="50" t="s">
+      <c r="E7" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="50" t="s">
+      <c r="F7" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="G7" s="50" t="s">
+      <c r="G7" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="H7" s="50" t="s">
+      <c r="H7" s="52" t="s">
         <v>18</v>
       </c>
       <c r="I7" s="44"/>
     </row>
     <row r="8" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="59"/>
+      <c r="A8" s="48"/>
       <c r="B8" s="26" t="s">
         <v>2</v>
       </c>
       <c r="C8" s="43"/>
-      <c r="D8" s="51"/>
-      <c r="E8" s="51"/>
-      <c r="F8" s="51"/>
-      <c r="G8" s="51"/>
-      <c r="H8" s="51"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="53"/>
+      <c r="G8" s="53"/>
+      <c r="H8" s="53"/>
       <c r="I8" s="43"/>
     </row>
     <row r="9" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -3753,15 +3732,15 @@
         <v>0</v>
       </c>
       <c r="C9" s="43"/>
-      <c r="D9" s="51"/>
-      <c r="E9" s="51" t="s">
+      <c r="D9" s="53"/>
+      <c r="E9" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="F9" s="51"/>
-      <c r="G9" s="51" t="s">
+      <c r="F9" s="53"/>
+      <c r="G9" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="H9" s="51"/>
+      <c r="H9" s="53"/>
       <c r="I9" s="43"/>
     </row>
     <row r="10" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -3770,49 +3749,49 @@
         <v>3</v>
       </c>
       <c r="C10" s="45"/>
-      <c r="D10" s="47"/>
-      <c r="E10" s="47"/>
-      <c r="F10" s="47"/>
-      <c r="G10" s="47"/>
-      <c r="H10" s="47"/>
+      <c r="D10" s="51"/>
+      <c r="E10" s="51"/>
+      <c r="F10" s="51"/>
+      <c r="G10" s="51"/>
+      <c r="H10" s="51"/>
       <c r="I10" s="45"/>
     </row>
     <row r="11" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="57">
+      <c r="A11" s="46">
         <v>8</v>
       </c>
       <c r="B11" s="36" t="s">
         <v>1</v>
       </c>
       <c r="C11" s="42"/>
-      <c r="D11" s="50" t="s">
+      <c r="D11" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="52" t="s">
+      <c r="E11" s="55" t="s">
         <v>36</v>
       </c>
-      <c r="F11" s="50" t="s">
+      <c r="F11" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="G11" s="52" t="s">
+      <c r="G11" s="55" t="s">
         <v>36</v>
       </c>
-      <c r="H11" s="50" t="s">
+      <c r="H11" s="52" t="s">
         <v>18</v>
       </c>
       <c r="I11" s="42"/>
     </row>
     <row r="12" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="59"/>
+      <c r="A12" s="48"/>
       <c r="B12" s="26" t="s">
         <v>2</v>
       </c>
       <c r="C12" s="43"/>
-      <c r="D12" s="51"/>
-      <c r="E12" s="53"/>
-      <c r="F12" s="51"/>
-      <c r="G12" s="53"/>
-      <c r="H12" s="51"/>
+      <c r="D12" s="53"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="53"/>
+      <c r="G12" s="56"/>
+      <c r="H12" s="53"/>
       <c r="I12" s="43"/>
     </row>
     <row r="13" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -3821,11 +3800,11 @@
         <v>0</v>
       </c>
       <c r="C13" s="43"/>
-      <c r="D13" s="51"/>
-      <c r="E13" s="53"/>
-      <c r="F13" s="51"/>
-      <c r="G13" s="53"/>
-      <c r="H13" s="51"/>
+      <c r="D13" s="53"/>
+      <c r="E13" s="56"/>
+      <c r="F13" s="53"/>
+      <c r="G13" s="56"/>
+      <c r="H13" s="53"/>
       <c r="I13" s="43"/>
     </row>
     <row r="14" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -3834,48 +3813,48 @@
         <v>3</v>
       </c>
       <c r="C14" s="45"/>
-      <c r="D14" s="47"/>
-      <c r="E14" s="49"/>
-      <c r="F14" s="47"/>
-      <c r="G14" s="49"/>
-      <c r="H14" s="47"/>
+      <c r="D14" s="51"/>
+      <c r="E14" s="57"/>
+      <c r="F14" s="51"/>
+      <c r="G14" s="57"/>
+      <c r="H14" s="51"/>
       <c r="I14" s="45"/>
     </row>
     <row r="15" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="57">
+      <c r="A15" s="46">
         <v>9</v>
       </c>
       <c r="B15" s="36" t="s">
         <v>1</v>
       </c>
       <c r="C15" s="18"/>
-      <c r="D15" s="50" t="s">
+      <c r="D15" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="E15" s="52" t="s">
+      <c r="E15" s="55" t="s">
         <v>36</v>
       </c>
-      <c r="F15" s="50" t="s">
+      <c r="F15" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="G15" s="52" t="s">
+      <c r="G15" s="55" t="s">
         <v>36</v>
       </c>
-      <c r="H15" s="50" t="s">
+      <c r="H15" s="52" t="s">
         <v>28</v>
       </c>
       <c r="I15" s="42"/>
     </row>
     <row r="16" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="59"/>
+      <c r="A16" s="48"/>
       <c r="B16" s="26" t="s">
         <v>2</v>
       </c>
       <c r="C16" s="17"/>
       <c r="D16" s="54"/>
-      <c r="E16" s="53"/>
+      <c r="E16" s="56"/>
       <c r="F16" s="54"/>
-      <c r="G16" s="53"/>
+      <c r="G16" s="56"/>
       <c r="H16" s="54"/>
       <c r="I16" s="43"/>
     </row>
@@ -3885,15 +3864,15 @@
         <v>0</v>
       </c>
       <c r="C17" s="18"/>
-      <c r="D17" s="48" t="s">
+      <c r="D17" s="59" t="s">
         <v>29</v>
       </c>
-      <c r="E17" s="53"/>
-      <c r="F17" s="48" t="s">
+      <c r="E17" s="56"/>
+      <c r="F17" s="59" t="s">
         <v>29</v>
       </c>
-      <c r="G17" s="53"/>
-      <c r="H17" s="46" t="s">
+      <c r="G17" s="56"/>
+      <c r="H17" s="58" t="s">
         <v>29</v>
       </c>
       <c r="I17" s="43"/>
@@ -3904,49 +3883,49 @@
         <v>3</v>
       </c>
       <c r="C18" s="12"/>
-      <c r="D18" s="49"/>
-      <c r="E18" s="49"/>
-      <c r="F18" s="49"/>
-      <c r="G18" s="49"/>
-      <c r="H18" s="47"/>
+      <c r="D18" s="57"/>
+      <c r="E18" s="57"/>
+      <c r="F18" s="57"/>
+      <c r="G18" s="57"/>
+      <c r="H18" s="51"/>
       <c r="I18" s="45"/>
     </row>
     <row r="19" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="57">
+      <c r="A19" s="46">
         <v>10</v>
       </c>
       <c r="B19" s="36" t="s">
         <v>1</v>
       </c>
       <c r="C19" s="18"/>
-      <c r="D19" s="50" t="s">
-        <v>30</v>
-      </c>
-      <c r="E19" s="50" t="s">
+      <c r="D19" s="52" t="s">
+        <v>30</v>
+      </c>
+      <c r="E19" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="F19" s="50" t="s">
-        <v>30</v>
-      </c>
-      <c r="G19" s="50" t="s">
+      <c r="F19" s="52" t="s">
+        <v>30</v>
+      </c>
+      <c r="G19" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="H19" s="50" t="s">
+      <c r="H19" s="52" t="s">
         <v>30</v>
       </c>
       <c r="I19" s="25"/>
     </row>
     <row r="20" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="59"/>
+      <c r="A20" s="48"/>
       <c r="B20" s="26" t="s">
         <v>2</v>
       </c>
       <c r="C20" s="17"/>
-      <c r="D20" s="51"/>
-      <c r="E20" s="51"/>
-      <c r="F20" s="51"/>
-      <c r="G20" s="51"/>
-      <c r="H20" s="51"/>
+      <c r="D20" s="53"/>
+      <c r="E20" s="53"/>
+      <c r="F20" s="53"/>
+      <c r="G20" s="53"/>
+      <c r="H20" s="53"/>
       <c r="I20" s="17"/>
     </row>
     <row r="21" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -3955,11 +3934,11 @@
         <v>0</v>
       </c>
       <c r="C21" s="18"/>
-      <c r="D21" s="51"/>
-      <c r="E21" s="51"/>
-      <c r="F21" s="51"/>
-      <c r="G21" s="51"/>
-      <c r="H21" s="51"/>
+      <c r="D21" s="53"/>
+      <c r="E21" s="53"/>
+      <c r="F21" s="53"/>
+      <c r="G21" s="53"/>
+      <c r="H21" s="53"/>
       <c r="I21" s="18"/>
     </row>
     <row r="22" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -3968,49 +3947,49 @@
         <v>3</v>
       </c>
       <c r="C22" s="12"/>
-      <c r="D22" s="47"/>
-      <c r="E22" s="47"/>
-      <c r="F22" s="47"/>
-      <c r="G22" s="47"/>
-      <c r="H22" s="47"/>
+      <c r="D22" s="51"/>
+      <c r="E22" s="51"/>
+      <c r="F22" s="51"/>
+      <c r="G22" s="51"/>
+      <c r="H22" s="51"/>
       <c r="I22" s="17"/>
     </row>
     <row r="23" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="57">
+      <c r="A23" s="46">
         <v>11</v>
       </c>
       <c r="B23" s="36" t="s">
         <v>1</v>
       </c>
       <c r="C23" s="18"/>
-      <c r="D23" s="50" t="s">
-        <v>30</v>
-      </c>
-      <c r="E23" s="52" t="s">
+      <c r="D23" s="52" t="s">
+        <v>30</v>
+      </c>
+      <c r="E23" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="F23" s="50" t="s">
-        <v>30</v>
-      </c>
-      <c r="G23" s="50" t="s">
+      <c r="F23" s="52" t="s">
+        <v>30</v>
+      </c>
+      <c r="G23" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="H23" s="50" t="s">
+      <c r="H23" s="52" t="s">
         <v>30</v>
       </c>
       <c r="I23" s="25"/>
     </row>
     <row r="24" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="59"/>
+      <c r="A24" s="48"/>
       <c r="B24" s="26" t="s">
         <v>2</v>
       </c>
       <c r="C24" s="17"/>
-      <c r="D24" s="51"/>
-      <c r="E24" s="53"/>
-      <c r="F24" s="51"/>
-      <c r="G24" s="51"/>
-      <c r="H24" s="51"/>
+      <c r="D24" s="53"/>
+      <c r="E24" s="56"/>
+      <c r="F24" s="53"/>
+      <c r="G24" s="53"/>
+      <c r="H24" s="53"/>
       <c r="I24" s="17"/>
     </row>
     <row r="25" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -4019,11 +3998,11 @@
         <v>0</v>
       </c>
       <c r="C25" s="18"/>
-      <c r="D25" s="51"/>
-      <c r="E25" s="53"/>
-      <c r="F25" s="51"/>
-      <c r="G25" s="51"/>
-      <c r="H25" s="51"/>
+      <c r="D25" s="53"/>
+      <c r="E25" s="56"/>
+      <c r="F25" s="53"/>
+      <c r="G25" s="53"/>
+      <c r="H25" s="53"/>
       <c r="I25" s="18"/>
     </row>
     <row r="26" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -4032,40 +4011,40 @@
         <v>3</v>
       </c>
       <c r="C26" s="12"/>
-      <c r="D26" s="47"/>
-      <c r="E26" s="49"/>
-      <c r="F26" s="47"/>
-      <c r="G26" s="47"/>
-      <c r="H26" s="47"/>
+      <c r="D26" s="51"/>
+      <c r="E26" s="57"/>
+      <c r="F26" s="51"/>
+      <c r="G26" s="51"/>
+      <c r="H26" s="51"/>
       <c r="I26" s="17"/>
     </row>
     <row r="27" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="57">
+      <c r="A27" s="46">
         <v>12</v>
       </c>
       <c r="B27" s="36" t="s">
         <v>8</v>
       </c>
       <c r="C27" s="18"/>
-      <c r="D27" s="50" t="s">
-        <v>30</v>
-      </c>
-      <c r="E27" s="50" t="s">
+      <c r="D27" s="52" t="s">
+        <v>30</v>
+      </c>
+      <c r="E27" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="F27" s="50" t="s">
-        <v>30</v>
-      </c>
-      <c r="G27" s="50" t="s">
+      <c r="F27" s="52" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="H27" s="50" t="s">
+      <c r="H27" s="52" t="s">
         <v>30</v>
       </c>
       <c r="I27" s="25"/>
     </row>
     <row r="28" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="59"/>
+      <c r="A28" s="48"/>
       <c r="B28" s="26" t="s">
         <v>2</v>
       </c>
@@ -4083,19 +4062,19 @@
         <v>0</v>
       </c>
       <c r="C29" s="18"/>
-      <c r="D29" s="46" t="s">
-        <v>31</v>
-      </c>
-      <c r="E29" s="50" t="s">
-        <v>30</v>
-      </c>
-      <c r="F29" s="46" t="s">
-        <v>31</v>
-      </c>
-      <c r="G29" s="50" t="s">
-        <v>30</v>
-      </c>
-      <c r="H29" s="46" t="s">
+      <c r="D29" s="58" t="s">
+        <v>31</v>
+      </c>
+      <c r="E29" s="52" t="s">
+        <v>30</v>
+      </c>
+      <c r="F29" s="58" t="s">
+        <v>31</v>
+      </c>
+      <c r="G29" s="52" t="s">
+        <v>30</v>
+      </c>
+      <c r="H29" s="58" t="s">
         <v>31</v>
       </c>
       <c r="I29" s="18"/>
@@ -4106,48 +4085,48 @@
         <v>3</v>
       </c>
       <c r="C30" s="12"/>
-      <c r="D30" s="47"/>
+      <c r="D30" s="51"/>
       <c r="E30" s="54"/>
-      <c r="F30" s="47"/>
+      <c r="F30" s="51"/>
       <c r="G30" s="54"/>
-      <c r="H30" s="47"/>
+      <c r="H30" s="51"/>
       <c r="I30" s="17"/>
     </row>
     <row r="31" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="57">
+      <c r="A31" s="46">
         <v>1</v>
       </c>
       <c r="B31" s="36" t="s">
         <v>8</v>
       </c>
       <c r="C31" s="18"/>
-      <c r="D31" s="50" t="s">
+      <c r="D31" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="E31" s="50" t="s">
-        <v>30</v>
-      </c>
-      <c r="F31" s="50" t="s">
+      <c r="E31" s="52" t="s">
+        <v>30</v>
+      </c>
+      <c r="F31" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="G31" s="50" t="s">
-        <v>30</v>
-      </c>
-      <c r="H31" s="50" t="s">
+      <c r="G31" s="52" t="s">
+        <v>30</v>
+      </c>
+      <c r="H31" s="52" t="s">
         <v>32</v>
       </c>
       <c r="I31" s="25"/>
     </row>
     <row r="32" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="59"/>
+      <c r="A32" s="48"/>
       <c r="B32" s="26" t="s">
         <v>2</v>
       </c>
       <c r="C32" s="17"/>
       <c r="D32" s="54"/>
-      <c r="E32" s="51"/>
+      <c r="E32" s="53"/>
       <c r="F32" s="54"/>
-      <c r="G32" s="51"/>
+      <c r="G32" s="53"/>
       <c r="H32" s="54"/>
       <c r="I32" s="17"/>
     </row>
@@ -4157,15 +4136,15 @@
         <v>0</v>
       </c>
       <c r="C33" s="18"/>
-      <c r="D33" s="48" t="s">
+      <c r="D33" s="59" t="s">
         <v>29</v>
       </c>
-      <c r="E33" s="51"/>
-      <c r="F33" s="46" t="s">
+      <c r="E33" s="53"/>
+      <c r="F33" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="G33" s="51"/>
-      <c r="H33" s="46" t="s">
+      <c r="G33" s="53"/>
+      <c r="H33" s="58" t="s">
         <v>29</v>
       </c>
       <c r="I33" s="18"/>
@@ -4176,49 +4155,49 @@
         <v>3</v>
       </c>
       <c r="C34" s="12"/>
-      <c r="D34" s="49"/>
-      <c r="E34" s="47"/>
-      <c r="F34" s="47"/>
-      <c r="G34" s="47"/>
-      <c r="H34" s="47"/>
+      <c r="D34" s="57"/>
+      <c r="E34" s="51"/>
+      <c r="F34" s="51"/>
+      <c r="G34" s="51"/>
+      <c r="H34" s="51"/>
       <c r="I34" s="17"/>
     </row>
     <row r="35" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="57">
+      <c r="A35" s="46">
         <v>2</v>
       </c>
       <c r="B35" s="36" t="s">
         <v>8</v>
       </c>
       <c r="C35" s="18"/>
-      <c r="D35" s="52" t="s">
+      <c r="D35" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="E35" s="50" t="s">
-        <v>30</v>
-      </c>
-      <c r="F35" s="50" t="s">
+      <c r="E35" s="52" t="s">
+        <v>30</v>
+      </c>
+      <c r="F35" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="G35" s="50" t="s">
-        <v>30</v>
-      </c>
-      <c r="H35" s="50" t="s">
+      <c r="G35" s="52" t="s">
+        <v>30</v>
+      </c>
+      <c r="H35" s="52" t="s">
         <v>29</v>
       </c>
       <c r="I35" s="25"/>
     </row>
     <row r="36" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="59"/>
+      <c r="A36" s="48"/>
       <c r="B36" s="26" t="s">
         <v>2</v>
       </c>
       <c r="C36" s="17"/>
-      <c r="D36" s="53"/>
-      <c r="E36" s="51"/>
-      <c r="F36" s="51"/>
-      <c r="G36" s="51"/>
-      <c r="H36" s="51"/>
+      <c r="D36" s="56"/>
+      <c r="E36" s="53"/>
+      <c r="F36" s="53"/>
+      <c r="G36" s="53"/>
+      <c r="H36" s="53"/>
       <c r="I36" s="17"/>
     </row>
     <row r="37" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -4227,11 +4206,11 @@
         <v>0</v>
       </c>
       <c r="C37" s="18"/>
-      <c r="D37" s="53"/>
-      <c r="E37" s="51"/>
-      <c r="F37" s="51"/>
-      <c r="G37" s="51"/>
-      <c r="H37" s="51"/>
+      <c r="D37" s="56"/>
+      <c r="E37" s="53"/>
+      <c r="F37" s="53"/>
+      <c r="G37" s="53"/>
+      <c r="H37" s="53"/>
       <c r="I37" s="18"/>
     </row>
     <row r="38" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -4240,49 +4219,49 @@
         <v>3</v>
       </c>
       <c r="C38" s="12"/>
-      <c r="D38" s="49"/>
-      <c r="E38" s="47"/>
-      <c r="F38" s="47"/>
-      <c r="G38" s="47"/>
-      <c r="H38" s="47"/>
+      <c r="D38" s="57"/>
+      <c r="E38" s="51"/>
+      <c r="F38" s="51"/>
+      <c r="G38" s="51"/>
+      <c r="H38" s="51"/>
       <c r="I38" s="17"/>
     </row>
     <row r="39" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="57">
+      <c r="A39" s="46">
         <v>3</v>
       </c>
       <c r="B39" s="36" t="s">
         <v>8</v>
       </c>
       <c r="C39" s="18"/>
-      <c r="D39" s="48" t="s">
+      <c r="D39" s="59" t="s">
         <v>29</v>
       </c>
-      <c r="E39" s="50" t="s">
+      <c r="E39" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="F39" s="50" t="s">
+      <c r="F39" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="G39" s="50" t="s">
+      <c r="G39" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="H39" s="46" t="s">
+      <c r="H39" s="58" t="s">
         <v>29</v>
       </c>
       <c r="I39" s="25"/>
     </row>
     <row r="40" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="59"/>
+      <c r="A40" s="48"/>
       <c r="B40" s="26" t="s">
         <v>2</v>
       </c>
       <c r="C40" s="17"/>
-      <c r="D40" s="49"/>
-      <c r="E40" s="51"/>
-      <c r="F40" s="51"/>
-      <c r="G40" s="51"/>
-      <c r="H40" s="47"/>
+      <c r="D40" s="57"/>
+      <c r="E40" s="53"/>
+      <c r="F40" s="53"/>
+      <c r="G40" s="53"/>
+      <c r="H40" s="51"/>
       <c r="I40" s="17"/>
     </row>
     <row r="41" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
@@ -4291,13 +4270,13 @@
         <v>0</v>
       </c>
       <c r="C41" s="18"/>
-      <c r="D41" s="52" t="s">
+      <c r="D41" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="E41" s="51"/>
-      <c r="F41" s="51"/>
-      <c r="G41" s="51"/>
-      <c r="H41" s="50" t="s">
+      <c r="E41" s="53"/>
+      <c r="F41" s="53"/>
+      <c r="G41" s="53"/>
+      <c r="H41" s="52" t="s">
         <v>33</v>
       </c>
       <c r="I41" s="18"/>
@@ -4308,49 +4287,49 @@
         <v>3</v>
       </c>
       <c r="C42" s="12"/>
-      <c r="D42" s="49"/>
-      <c r="E42" s="47"/>
-      <c r="F42" s="47"/>
-      <c r="G42" s="47"/>
-      <c r="H42" s="47"/>
+      <c r="D42" s="57"/>
+      <c r="E42" s="51"/>
+      <c r="F42" s="51"/>
+      <c r="G42" s="51"/>
+      <c r="H42" s="51"/>
       <c r="I42" s="17"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A43" s="57">
+      <c r="A43" s="46">
         <v>4</v>
       </c>
       <c r="B43" s="36" t="s">
         <v>8</v>
       </c>
       <c r="C43" s="18"/>
-      <c r="D43" s="52" t="s">
+      <c r="D43" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="E43" s="50" t="s">
+      <c r="E43" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="F43" s="50" t="s">
+      <c r="F43" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="G43" s="50" t="s">
+      <c r="G43" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="H43" s="50" t="s">
+      <c r="H43" s="52" t="s">
         <v>33</v>
       </c>
       <c r="I43" s="25"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A44" s="59"/>
+      <c r="A44" s="48"/>
       <c r="B44" s="26" t="s">
         <v>2</v>
       </c>
       <c r="C44" s="17"/>
-      <c r="D44" s="53"/>
-      <c r="E44" s="51"/>
-      <c r="F44" s="51"/>
-      <c r="G44" s="51"/>
-      <c r="H44" s="51"/>
+      <c r="D44" s="56"/>
+      <c r="E44" s="53"/>
+      <c r="F44" s="53"/>
+      <c r="G44" s="53"/>
+      <c r="H44" s="53"/>
       <c r="I44" s="17"/>
     </row>
     <row r="45" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
@@ -4359,11 +4338,11 @@
         <v>0</v>
       </c>
       <c r="C45" s="18"/>
-      <c r="D45" s="53"/>
-      <c r="E45" s="51"/>
-      <c r="F45" s="51"/>
-      <c r="G45" s="51"/>
-      <c r="H45" s="51"/>
+      <c r="D45" s="56"/>
+      <c r="E45" s="53"/>
+      <c r="F45" s="53"/>
+      <c r="G45" s="53"/>
+      <c r="H45" s="53"/>
       <c r="I45" s="18"/>
     </row>
     <row r="46" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
@@ -4372,129 +4351,129 @@
         <v>3</v>
       </c>
       <c r="C46" s="12"/>
-      <c r="D46" s="49"/>
-      <c r="E46" s="47"/>
-      <c r="F46" s="47"/>
-      <c r="G46" s="47"/>
-      <c r="H46" s="47"/>
+      <c r="D46" s="57"/>
+      <c r="E46" s="51"/>
+      <c r="F46" s="51"/>
+      <c r="G46" s="51"/>
+      <c r="H46" s="51"/>
       <c r="I46" s="17"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A47" s="57">
+      <c r="A47" s="46">
         <v>5</v>
       </c>
       <c r="B47" s="36" t="s">
         <v>8</v>
       </c>
       <c r="C47" s="15"/>
-      <c r="D47" s="52" t="s">
+      <c r="D47" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="E47" s="46" t="s">
-        <v>31</v>
-      </c>
-      <c r="F47" s="50" t="s">
+      <c r="E47" s="58" t="s">
+        <v>31</v>
+      </c>
+      <c r="F47" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="G47" s="46" t="s">
-        <v>31</v>
-      </c>
-      <c r="H47" s="52" t="s">
+      <c r="G47" s="58" t="s">
+        <v>31</v>
+      </c>
+      <c r="H47" s="55" t="s">
         <v>33</v>
       </c>
       <c r="I47" s="15"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A48" s="58"/>
+      <c r="A48" s="47"/>
       <c r="B48" s="33" t="s">
         <v>0</v>
       </c>
       <c r="C48" s="13"/>
-      <c r="D48" s="49"/>
-      <c r="E48" s="47"/>
-      <c r="F48" s="47"/>
-      <c r="G48" s="47"/>
-      <c r="H48" s="49"/>
+      <c r="D48" s="57"/>
+      <c r="E48" s="51"/>
+      <c r="F48" s="51"/>
+      <c r="G48" s="51"/>
+      <c r="H48" s="57"/>
       <c r="I48" s="13"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A49" s="57">
+      <c r="A49" s="46">
         <v>6</v>
       </c>
       <c r="B49" s="36" t="s">
         <v>8</v>
       </c>
       <c r="C49" s="15"/>
-      <c r="D49" s="52" t="s">
+      <c r="D49" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="E49" s="46" t="s">
+      <c r="E49" s="58" t="s">
         <v>35</v>
       </c>
-      <c r="F49" s="50" t="s">
+      <c r="F49" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="G49" s="46" t="s">
-        <v>31</v>
-      </c>
-      <c r="H49" s="52" t="s">
+      <c r="G49" s="58" t="s">
+        <v>31</v>
+      </c>
+      <c r="H49" s="55" t="s">
         <v>33</v>
       </c>
       <c r="I49" s="15"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A50" s="58"/>
+      <c r="A50" s="47"/>
       <c r="B50" s="33" t="s">
         <v>0</v>
       </c>
       <c r="C50" s="13"/>
-      <c r="D50" s="49"/>
-      <c r="E50" s="47"/>
-      <c r="F50" s="47"/>
-      <c r="G50" s="47"/>
-      <c r="H50" s="49"/>
+      <c r="D50" s="57"/>
+      <c r="E50" s="51"/>
+      <c r="F50" s="51"/>
+      <c r="G50" s="51"/>
+      <c r="H50" s="57"/>
       <c r="I50" s="13"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A51" s="57">
+      <c r="A51" s="46">
         <v>7</v>
       </c>
       <c r="B51" s="36" t="s">
         <v>8</v>
       </c>
       <c r="C51" s="15"/>
-      <c r="D51" s="46" t="s">
-        <v>31</v>
-      </c>
-      <c r="E51" s="46" t="s">
+      <c r="D51" s="58" t="s">
+        <v>31</v>
+      </c>
+      <c r="E51" s="58" t="s">
         <v>35</v>
       </c>
-      <c r="F51" s="46" t="s">
-        <v>31</v>
-      </c>
-      <c r="G51" s="46" t="s">
-        <v>31</v>
-      </c>
-      <c r="H51" s="46" t="s">
+      <c r="F51" s="58" t="s">
+        <v>31</v>
+      </c>
+      <c r="G51" s="58" t="s">
+        <v>31</v>
+      </c>
+      <c r="H51" s="58" t="s">
         <v>31</v>
       </c>
       <c r="I51" s="15"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A52" s="58"/>
+      <c r="A52" s="47"/>
       <c r="B52" s="33" t="s">
         <v>0</v>
       </c>
       <c r="C52" s="13"/>
-      <c r="D52" s="47"/>
-      <c r="E52" s="47"/>
-      <c r="F52" s="47"/>
-      <c r="G52" s="47"/>
-      <c r="H52" s="47"/>
+      <c r="D52" s="51"/>
+      <c r="E52" s="51"/>
+      <c r="F52" s="51"/>
+      <c r="G52" s="51"/>
+      <c r="H52" s="51"/>
       <c r="I52" s="13"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A53" s="57">
+      <c r="A53" s="46">
         <v>8</v>
       </c>
       <c r="B53" s="36" t="s">
@@ -4504,7 +4483,7 @@
       <c r="D53" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="E53" s="46" t="s">
+      <c r="E53" s="58" t="s">
         <v>35</v>
       </c>
       <c r="F53" s="16" t="s">
@@ -4519,7 +4498,7 @@
       <c r="I53" s="15"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A54" s="58"/>
+      <c r="A54" s="47"/>
       <c r="B54" s="33" t="s">
         <v>0</v>
       </c>
@@ -4527,7 +4506,7 @@
       <c r="D54" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="E54" s="47"/>
+      <c r="E54" s="51"/>
       <c r="F54" s="14" t="s">
         <v>31</v>
       </c>
@@ -4540,72 +4519,109 @@
       <c r="I54" s="13"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A55" s="57">
+      <c r="A55" s="46">
         <v>9</v>
       </c>
       <c r="B55" s="36" t="s">
         <v>8</v>
       </c>
       <c r="C55" s="15"/>
-      <c r="D55" s="46" t="s">
+      <c r="D55" s="58" t="s">
         <v>31</v>
       </c>
       <c r="E55" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="F55" s="46" t="s">
-        <v>31</v>
-      </c>
-      <c r="G55" s="46" t="s">
-        <v>31</v>
-      </c>
-      <c r="H55" s="46" t="s">
+      <c r="F55" s="58" t="s">
+        <v>31</v>
+      </c>
+      <c r="G55" s="58" t="s">
+        <v>31</v>
+      </c>
+      <c r="H55" s="58" t="s">
         <v>31</v>
       </c>
       <c r="I55" s="15"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A56" s="58"/>
+      <c r="A56" s="47"/>
       <c r="B56" s="33" t="s">
         <v>0</v>
       </c>
       <c r="C56" s="13"/>
-      <c r="D56" s="47"/>
+      <c r="D56" s="51"/>
       <c r="E56" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="F56" s="47"/>
-      <c r="G56" s="47"/>
-      <c r="H56" s="47"/>
+      <c r="F56" s="51"/>
+      <c r="G56" s="51"/>
+      <c r="H56" s="51"/>
       <c r="I56" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="107">
-    <mergeCell ref="H55:H56"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="F55:F56"/>
-    <mergeCell ref="G55:G56"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="G51:G52"/>
-    <mergeCell ref="H51:H52"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="F49:F50"/>
-    <mergeCell ref="G49:G50"/>
-    <mergeCell ref="H49:H50"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="F47:F48"/>
-    <mergeCell ref="G47:G48"/>
-    <mergeCell ref="H47:H48"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="E11:E14"/>
+    <mergeCell ref="F11:F14"/>
+    <mergeCell ref="G11:G14"/>
+    <mergeCell ref="H11:H14"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="D7:D10"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F10"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="D19:D22"/>
+    <mergeCell ref="E19:E22"/>
+    <mergeCell ref="F19:F22"/>
+    <mergeCell ref="G19:G22"/>
+    <mergeCell ref="H19:H22"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E18"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G15:G18"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="D23:D26"/>
+    <mergeCell ref="E23:E26"/>
+    <mergeCell ref="F23:F26"/>
+    <mergeCell ref="G23:G26"/>
+    <mergeCell ref="H23:H26"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="E31:E34"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="G31:G34"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="H33:H34"/>
     <mergeCell ref="A35:A36"/>
     <mergeCell ref="D35:D38"/>
     <mergeCell ref="E35:E38"/>
@@ -4626,68 +4642,31 @@
     <mergeCell ref="H39:H40"/>
     <mergeCell ref="D41:D42"/>
     <mergeCell ref="H41:H42"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="E31:E34"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="G31:G34"/>
-    <mergeCell ref="H31:H32"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="H33:H34"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="D23:D26"/>
-    <mergeCell ref="E23:E26"/>
-    <mergeCell ref="F23:F26"/>
-    <mergeCell ref="G23:G26"/>
-    <mergeCell ref="H23:H26"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="D19:D22"/>
-    <mergeCell ref="E19:E22"/>
-    <mergeCell ref="F19:F22"/>
-    <mergeCell ref="G19:G22"/>
-    <mergeCell ref="H19:H22"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E18"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G15:G18"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="H11:H14"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="D7:D10"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F10"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H7:H10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="D11:D14"/>
-    <mergeCell ref="E11:E14"/>
-    <mergeCell ref="F11:F14"/>
-    <mergeCell ref="G11:G14"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="H49:H50"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="G47:G48"/>
+    <mergeCell ref="H47:H48"/>
+    <mergeCell ref="H55:H56"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="G55:G56"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="G51:G52"/>
+    <mergeCell ref="H51:H52"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4738,10 +4717,10 @@
       <c r="I2" s="22"/>
     </row>
     <row r="3" spans="1:9" s="23" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="56" t="s">
+      <c r="A3" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="56"/>
+      <c r="B3" s="49"/>
       <c r="G3" s="24" t="s">
         <v>27</v>
       </c>
@@ -4775,79 +4754,79 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="57">
+      <c r="A5" s="46">
         <v>6</v>
       </c>
       <c r="B5" s="36" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="44"/>
-      <c r="D5" s="55" t="s">
+      <c r="D5" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="55" t="s">
+      <c r="E5" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="55" t="s">
+      <c r="F5" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="55" t="s">
+      <c r="G5" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="55" t="s">
+      <c r="H5" s="50" t="s">
         <v>18</v>
       </c>
       <c r="I5" s="44"/>
     </row>
     <row r="6" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="58"/>
+      <c r="A6" s="47"/>
       <c r="B6" s="33" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="45"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="47"/>
-      <c r="H6" s="47"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="51"/>
+      <c r="F6" s="51"/>
+      <c r="G6" s="51"/>
+      <c r="H6" s="51"/>
       <c r="I6" s="45"/>
     </row>
     <row r="7" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="57">
+      <c r="A7" s="46">
         <v>7</v>
       </c>
       <c r="B7" s="36" t="s">
         <v>1</v>
       </c>
       <c r="C7" s="42"/>
-      <c r="D7" s="50" t="s">
+      <c r="D7" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="50" t="s">
+      <c r="E7" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="50" t="s">
+      <c r="F7" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="G7" s="50" t="s">
+      <c r="G7" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="H7" s="50" t="s">
+      <c r="H7" s="52" t="s">
         <v>18</v>
       </c>
       <c r="I7" s="44"/>
     </row>
     <row r="8" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="59"/>
+      <c r="A8" s="48"/>
       <c r="B8" s="26" t="s">
         <v>2</v>
       </c>
       <c r="C8" s="43"/>
-      <c r="D8" s="51"/>
-      <c r="E8" s="51"/>
-      <c r="F8" s="51"/>
-      <c r="G8" s="51"/>
-      <c r="H8" s="51"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="53"/>
+      <c r="G8" s="53"/>
+      <c r="H8" s="53"/>
       <c r="I8" s="43"/>
     </row>
     <row r="9" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -4856,15 +4835,15 @@
         <v>0</v>
       </c>
       <c r="C9" s="43"/>
-      <c r="D9" s="51"/>
+      <c r="D9" s="53"/>
       <c r="E9" s="61" t="s">
         <v>28</v>
       </c>
-      <c r="F9" s="51"/>
+      <c r="F9" s="53"/>
       <c r="G9" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="H9" s="51"/>
+      <c r="H9" s="53"/>
       <c r="I9" s="43"/>
     </row>
     <row r="10" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -4873,49 +4852,49 @@
         <v>3</v>
       </c>
       <c r="C10" s="45"/>
-      <c r="D10" s="47"/>
+      <c r="D10" s="51"/>
       <c r="E10" s="62"/>
-      <c r="F10" s="47"/>
+      <c r="F10" s="51"/>
       <c r="G10" s="64"/>
-      <c r="H10" s="47"/>
+      <c r="H10" s="51"/>
       <c r="I10" s="45"/>
     </row>
     <row r="11" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="57">
+      <c r="A11" s="46">
         <v>8</v>
       </c>
       <c r="B11" s="36" t="s">
         <v>1</v>
       </c>
       <c r="C11" s="42"/>
-      <c r="D11" s="50" t="s">
+      <c r="D11" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="52" t="s">
+      <c r="E11" s="55" t="s">
         <v>36</v>
       </c>
-      <c r="F11" s="50" t="s">
+      <c r="F11" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="G11" s="52" t="s">
+      <c r="G11" s="55" t="s">
         <v>36</v>
       </c>
-      <c r="H11" s="50" t="s">
+      <c r="H11" s="52" t="s">
         <v>18</v>
       </c>
       <c r="I11" s="42"/>
     </row>
     <row r="12" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="59"/>
+      <c r="A12" s="48"/>
       <c r="B12" s="26" t="s">
         <v>2</v>
       </c>
       <c r="C12" s="43"/>
-      <c r="D12" s="51"/>
-      <c r="E12" s="53"/>
-      <c r="F12" s="51"/>
-      <c r="G12" s="53"/>
-      <c r="H12" s="51"/>
+      <c r="D12" s="53"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="53"/>
+      <c r="G12" s="56"/>
+      <c r="H12" s="53"/>
       <c r="I12" s="43"/>
     </row>
     <row r="13" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -4924,11 +4903,11 @@
         <v>0</v>
       </c>
       <c r="C13" s="43"/>
-      <c r="D13" s="51"/>
-      <c r="E13" s="53"/>
-      <c r="F13" s="51"/>
-      <c r="G13" s="53"/>
-      <c r="H13" s="51"/>
+      <c r="D13" s="53"/>
+      <c r="E13" s="56"/>
+      <c r="F13" s="53"/>
+      <c r="G13" s="56"/>
+      <c r="H13" s="53"/>
       <c r="I13" s="43"/>
     </row>
     <row r="14" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -4937,49 +4916,49 @@
         <v>3</v>
       </c>
       <c r="C14" s="45"/>
-      <c r="D14" s="47"/>
-      <c r="E14" s="49"/>
-      <c r="F14" s="47"/>
-      <c r="G14" s="49"/>
-      <c r="H14" s="47"/>
+      <c r="D14" s="51"/>
+      <c r="E14" s="57"/>
+      <c r="F14" s="51"/>
+      <c r="G14" s="57"/>
+      <c r="H14" s="51"/>
       <c r="I14" s="45"/>
     </row>
     <row r="15" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="57">
+      <c r="A15" s="46">
         <v>9</v>
       </c>
       <c r="B15" s="36" t="s">
         <v>1</v>
       </c>
       <c r="C15" s="18"/>
-      <c r="D15" s="50" t="s">
+      <c r="D15" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="E15" s="52" t="s">
+      <c r="E15" s="55" t="s">
         <v>36</v>
       </c>
-      <c r="F15" s="50" t="s">
+      <c r="F15" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="G15" s="52" t="s">
+      <c r="G15" s="55" t="s">
         <v>36</v>
       </c>
-      <c r="H15" s="50" t="s">
+      <c r="H15" s="52" t="s">
         <v>18</v>
       </c>
       <c r="I15" s="42"/>
     </row>
     <row r="16" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="59"/>
+      <c r="A16" s="48"/>
       <c r="B16" s="26" t="s">
         <v>2</v>
       </c>
       <c r="C16" s="17"/>
-      <c r="D16" s="51"/>
-      <c r="E16" s="53"/>
-      <c r="F16" s="51"/>
-      <c r="G16" s="53"/>
-      <c r="H16" s="51"/>
+      <c r="D16" s="53"/>
+      <c r="E16" s="56"/>
+      <c r="F16" s="53"/>
+      <c r="G16" s="56"/>
+      <c r="H16" s="53"/>
       <c r="I16" s="43"/>
     </row>
     <row r="17" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -4988,11 +4967,11 @@
         <v>0</v>
       </c>
       <c r="C17" s="18"/>
-      <c r="D17" s="51"/>
-      <c r="E17" s="53"/>
-      <c r="F17" s="51"/>
-      <c r="G17" s="53"/>
-      <c r="H17" s="51"/>
+      <c r="D17" s="53"/>
+      <c r="E17" s="56"/>
+      <c r="F17" s="53"/>
+      <c r="G17" s="56"/>
+      <c r="H17" s="53"/>
       <c r="I17" s="43"/>
     </row>
     <row r="18" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -5001,49 +4980,49 @@
         <v>3</v>
       </c>
       <c r="C18" s="12"/>
-      <c r="D18" s="47"/>
-      <c r="E18" s="49"/>
-      <c r="F18" s="47"/>
-      <c r="G18" s="49"/>
-      <c r="H18" s="47"/>
+      <c r="D18" s="51"/>
+      <c r="E18" s="57"/>
+      <c r="F18" s="51"/>
+      <c r="G18" s="57"/>
+      <c r="H18" s="51"/>
       <c r="I18" s="45"/>
     </row>
     <row r="19" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="57">
+      <c r="A19" s="46">
         <v>10</v>
       </c>
       <c r="B19" s="36" t="s">
         <v>1</v>
       </c>
       <c r="C19" s="18"/>
-      <c r="D19" s="50" t="s">
+      <c r="D19" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="E19" s="50" t="s">
+      <c r="E19" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="F19" s="50" t="s">
+      <c r="F19" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="G19" s="50" t="s">
+      <c r="G19" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="H19" s="50" t="s">
+      <c r="H19" s="52" t="s">
         <v>41</v>
       </c>
       <c r="I19" s="25"/>
     </row>
     <row r="20" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="59"/>
+      <c r="A20" s="48"/>
       <c r="B20" s="26" t="s">
         <v>2</v>
       </c>
       <c r="C20" s="17"/>
-      <c r="D20" s="51"/>
-      <c r="E20" s="51"/>
-      <c r="F20" s="51"/>
-      <c r="G20" s="51"/>
-      <c r="H20" s="51"/>
+      <c r="D20" s="53"/>
+      <c r="E20" s="53"/>
+      <c r="F20" s="53"/>
+      <c r="G20" s="53"/>
+      <c r="H20" s="53"/>
       <c r="I20" s="17"/>
     </row>
     <row r="21" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -5052,19 +5031,19 @@
         <v>0</v>
       </c>
       <c r="C21" s="18"/>
-      <c r="D21" s="51" t="s">
-        <v>30</v>
-      </c>
-      <c r="E21" s="51" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="51" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="51" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="51" t="s">
+      <c r="D21" s="53" t="s">
+        <v>30</v>
+      </c>
+      <c r="E21" s="53" t="s">
+        <v>30</v>
+      </c>
+      <c r="F21" s="53" t="s">
+        <v>30</v>
+      </c>
+      <c r="G21" s="53" t="s">
+        <v>30</v>
+      </c>
+      <c r="H21" s="53" t="s">
         <v>30</v>
       </c>
       <c r="I21" s="18"/>
@@ -5075,49 +5054,49 @@
         <v>3</v>
       </c>
       <c r="C22" s="12"/>
-      <c r="D22" s="47"/>
-      <c r="E22" s="47"/>
-      <c r="F22" s="47"/>
-      <c r="G22" s="47"/>
-      <c r="H22" s="47"/>
+      <c r="D22" s="51"/>
+      <c r="E22" s="51"/>
+      <c r="F22" s="51"/>
+      <c r="G22" s="51"/>
+      <c r="H22" s="51"/>
       <c r="I22" s="17"/>
     </row>
     <row r="23" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="57">
+      <c r="A23" s="46">
         <v>11</v>
       </c>
       <c r="B23" s="36" t="s">
         <v>1</v>
       </c>
       <c r="C23" s="18"/>
-      <c r="D23" s="50" t="s">
-        <v>30</v>
-      </c>
-      <c r="E23" s="50" t="s">
-        <v>30</v>
-      </c>
-      <c r="F23" s="50" t="s">
-        <v>30</v>
-      </c>
-      <c r="G23" s="50" t="s">
-        <v>30</v>
-      </c>
-      <c r="H23" s="50" t="s">
+      <c r="D23" s="52" t="s">
+        <v>30</v>
+      </c>
+      <c r="E23" s="52" t="s">
+        <v>30</v>
+      </c>
+      <c r="F23" s="52" t="s">
+        <v>30</v>
+      </c>
+      <c r="G23" s="52" t="s">
+        <v>30</v>
+      </c>
+      <c r="H23" s="52" t="s">
         <v>30</v>
       </c>
       <c r="I23" s="25"/>
     </row>
     <row r="24" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="59"/>
+      <c r="A24" s="48"/>
       <c r="B24" s="26" t="s">
         <v>2</v>
       </c>
       <c r="C24" s="17"/>
-      <c r="D24" s="51"/>
-      <c r="E24" s="51"/>
-      <c r="F24" s="51"/>
-      <c r="G24" s="51"/>
-      <c r="H24" s="51"/>
+      <c r="D24" s="53"/>
+      <c r="E24" s="53"/>
+      <c r="F24" s="53"/>
+      <c r="G24" s="53"/>
+      <c r="H24" s="53"/>
       <c r="I24" s="17"/>
     </row>
     <row r="25" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -5126,11 +5105,11 @@
         <v>0</v>
       </c>
       <c r="C25" s="18"/>
-      <c r="D25" s="51"/>
-      <c r="E25" s="51"/>
-      <c r="F25" s="51"/>
-      <c r="G25" s="51"/>
-      <c r="H25" s="51"/>
+      <c r="D25" s="53"/>
+      <c r="E25" s="53"/>
+      <c r="F25" s="53"/>
+      <c r="G25" s="53"/>
+      <c r="H25" s="53"/>
       <c r="I25" s="18"/>
     </row>
     <row r="26" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -5139,40 +5118,40 @@
         <v>3</v>
       </c>
       <c r="C26" s="12"/>
-      <c r="D26" s="47"/>
-      <c r="E26" s="47"/>
-      <c r="F26" s="47"/>
-      <c r="G26" s="47"/>
-      <c r="H26" s="47"/>
+      <c r="D26" s="51"/>
+      <c r="E26" s="51"/>
+      <c r="F26" s="51"/>
+      <c r="G26" s="51"/>
+      <c r="H26" s="51"/>
       <c r="I26" s="17"/>
     </row>
     <row r="27" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="57">
+      <c r="A27" s="46">
         <v>12</v>
       </c>
       <c r="B27" s="36" t="s">
         <v>8</v>
       </c>
       <c r="C27" s="18"/>
-      <c r="D27" s="50" t="s">
-        <v>30</v>
-      </c>
-      <c r="E27" s="50" t="s">
-        <v>30</v>
-      </c>
-      <c r="F27" s="50" t="s">
-        <v>30</v>
-      </c>
-      <c r="G27" s="50" t="s">
-        <v>30</v>
-      </c>
-      <c r="H27" s="50" t="s">
+      <c r="D27" s="52" t="s">
+        <v>30</v>
+      </c>
+      <c r="E27" s="52" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="52" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="52" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="52" t="s">
         <v>30</v>
       </c>
       <c r="I27" s="25"/>
     </row>
     <row r="28" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="59"/>
+      <c r="A28" s="48"/>
       <c r="B28" s="26" t="s">
         <v>2</v>
       </c>
@@ -5190,19 +5169,19 @@
         <v>0</v>
       </c>
       <c r="C29" s="18"/>
-      <c r="D29" s="50" t="s">
-        <v>31</v>
-      </c>
-      <c r="E29" s="50" t="s">
-        <v>31</v>
-      </c>
-      <c r="F29" s="50" t="s">
-        <v>31</v>
-      </c>
-      <c r="G29" s="50" t="s">
-        <v>31</v>
-      </c>
-      <c r="H29" s="50" t="s">
+      <c r="D29" s="52" t="s">
+        <v>31</v>
+      </c>
+      <c r="E29" s="52" t="s">
+        <v>31</v>
+      </c>
+      <c r="F29" s="52" t="s">
+        <v>31</v>
+      </c>
+      <c r="G29" s="52" t="s">
+        <v>31</v>
+      </c>
+      <c r="H29" s="52" t="s">
         <v>31</v>
       </c>
       <c r="I29" s="18"/>
@@ -5221,32 +5200,32 @@
       <c r="I30" s="17"/>
     </row>
     <row r="31" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="57">
+      <c r="A31" s="46">
         <v>1</v>
       </c>
       <c r="B31" s="36" t="s">
         <v>8</v>
       </c>
       <c r="C31" s="18"/>
-      <c r="D31" s="50" t="s">
-        <v>31</v>
-      </c>
-      <c r="E31" s="50" t="s">
-        <v>31</v>
-      </c>
-      <c r="F31" s="50" t="s">
-        <v>31</v>
-      </c>
-      <c r="G31" s="50" t="s">
-        <v>31</v>
-      </c>
-      <c r="H31" s="50" t="s">
+      <c r="D31" s="52" t="s">
+        <v>31</v>
+      </c>
+      <c r="E31" s="52" t="s">
+        <v>31</v>
+      </c>
+      <c r="F31" s="52" t="s">
+        <v>31</v>
+      </c>
+      <c r="G31" s="52" t="s">
+        <v>31</v>
+      </c>
+      <c r="H31" s="52" t="s">
         <v>31</v>
       </c>
       <c r="I31" s="25"/>
     </row>
     <row r="32" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="59"/>
+      <c r="A32" s="48"/>
       <c r="B32" s="26" t="s">
         <v>2</v>
       </c>
@@ -5264,19 +5243,19 @@
         <v>0</v>
       </c>
       <c r="C33" s="18"/>
-      <c r="D33" s="46" t="s">
+      <c r="D33" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="E33" s="46" t="s">
+      <c r="E33" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="F33" s="46" t="s">
+      <c r="F33" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="G33" s="46" t="s">
+      <c r="G33" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="H33" s="46" t="s">
+      <c r="H33" s="58" t="s">
         <v>32</v>
       </c>
       <c r="I33" s="18"/>
@@ -5287,49 +5266,49 @@
         <v>3</v>
       </c>
       <c r="C34" s="12"/>
-      <c r="D34" s="47"/>
-      <c r="E34" s="47"/>
-      <c r="F34" s="47"/>
-      <c r="G34" s="47"/>
-      <c r="H34" s="47"/>
+      <c r="D34" s="51"/>
+      <c r="E34" s="51"/>
+      <c r="F34" s="51"/>
+      <c r="G34" s="51"/>
+      <c r="H34" s="51"/>
       <c r="I34" s="17"/>
     </row>
     <row r="35" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="57">
+      <c r="A35" s="46">
         <v>2</v>
       </c>
       <c r="B35" s="36" t="s">
         <v>8</v>
       </c>
       <c r="C35" s="18"/>
-      <c r="D35" s="50" t="s">
+      <c r="D35" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="E35" s="50" t="s">
+      <c r="E35" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="F35" s="50" t="s">
+      <c r="F35" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="G35" s="50" t="s">
+      <c r="G35" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="H35" s="52" t="s">
+      <c r="H35" s="55" t="s">
         <v>29</v>
       </c>
       <c r="I35" s="25"/>
     </row>
     <row r="36" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="59"/>
+      <c r="A36" s="48"/>
       <c r="B36" s="26" t="s">
         <v>2</v>
       </c>
       <c r="C36" s="17"/>
-      <c r="D36" s="51"/>
-      <c r="E36" s="51"/>
-      <c r="F36" s="51"/>
-      <c r="G36" s="51"/>
-      <c r="H36" s="53"/>
+      <c r="D36" s="53"/>
+      <c r="E36" s="53"/>
+      <c r="F36" s="53"/>
+      <c r="G36" s="53"/>
+      <c r="H36" s="56"/>
       <c r="I36" s="17"/>
     </row>
     <row r="37" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -5338,11 +5317,11 @@
         <v>0</v>
       </c>
       <c r="C37" s="18"/>
-      <c r="D37" s="51"/>
-      <c r="E37" s="51"/>
-      <c r="F37" s="51"/>
-      <c r="G37" s="51"/>
-      <c r="H37" s="53"/>
+      <c r="D37" s="53"/>
+      <c r="E37" s="53"/>
+      <c r="F37" s="53"/>
+      <c r="G37" s="53"/>
+      <c r="H37" s="56"/>
       <c r="I37" s="18"/>
     </row>
     <row r="38" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -5351,49 +5330,49 @@
         <v>3</v>
       </c>
       <c r="C38" s="12"/>
-      <c r="D38" s="47"/>
-      <c r="E38" s="47"/>
-      <c r="F38" s="47"/>
-      <c r="G38" s="47"/>
-      <c r="H38" s="49"/>
+      <c r="D38" s="51"/>
+      <c r="E38" s="51"/>
+      <c r="F38" s="51"/>
+      <c r="G38" s="51"/>
+      <c r="H38" s="57"/>
       <c r="I38" s="17"/>
     </row>
     <row r="39" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="57">
+      <c r="A39" s="46">
         <v>3</v>
       </c>
       <c r="B39" s="36" t="s">
         <v>8</v>
       </c>
       <c r="C39" s="18"/>
-      <c r="D39" s="52" t="s">
+      <c r="D39" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="E39" s="52" t="s">
+      <c r="E39" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="F39" s="50" t="s">
+      <c r="F39" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="G39" s="52" t="s">
+      <c r="G39" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="H39" s="52" t="s">
+      <c r="H39" s="55" t="s">
         <v>33</v>
       </c>
       <c r="I39" s="25"/>
     </row>
     <row r="40" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="59"/>
+      <c r="A40" s="48"/>
       <c r="B40" s="26" t="s">
         <v>2</v>
       </c>
       <c r="C40" s="17"/>
-      <c r="D40" s="53"/>
-      <c r="E40" s="53"/>
-      <c r="F40" s="51"/>
-      <c r="G40" s="53"/>
-      <c r="H40" s="53"/>
+      <c r="D40" s="56"/>
+      <c r="E40" s="56"/>
+      <c r="F40" s="53"/>
+      <c r="G40" s="56"/>
+      <c r="H40" s="56"/>
       <c r="I40" s="17"/>
     </row>
     <row r="41" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
@@ -5402,11 +5381,11 @@
         <v>0</v>
       </c>
       <c r="C41" s="18"/>
-      <c r="D41" s="53"/>
-      <c r="E41" s="53"/>
-      <c r="F41" s="51"/>
-      <c r="G41" s="53"/>
-      <c r="H41" s="53"/>
+      <c r="D41" s="56"/>
+      <c r="E41" s="56"/>
+      <c r="F41" s="53"/>
+      <c r="G41" s="56"/>
+      <c r="H41" s="56"/>
       <c r="I41" s="18"/>
     </row>
     <row r="42" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
@@ -5415,49 +5394,49 @@
         <v>3</v>
       </c>
       <c r="C42" s="12"/>
-      <c r="D42" s="49"/>
-      <c r="E42" s="49"/>
-      <c r="F42" s="47"/>
-      <c r="G42" s="49"/>
-      <c r="H42" s="49"/>
+      <c r="D42" s="57"/>
+      <c r="E42" s="57"/>
+      <c r="F42" s="51"/>
+      <c r="G42" s="57"/>
+      <c r="H42" s="57"/>
       <c r="I42" s="17"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A43" s="57">
+      <c r="A43" s="46">
         <v>4</v>
       </c>
       <c r="B43" s="36" t="s">
         <v>8</v>
       </c>
       <c r="C43" s="18"/>
-      <c r="D43" s="52" t="s">
+      <c r="D43" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="E43" s="50" t="s">
+      <c r="E43" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="F43" s="50" t="s">
+      <c r="F43" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="G43" s="52" t="s">
+      <c r="G43" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="H43" s="52" t="s">
+      <c r="H43" s="55" t="s">
         <v>33</v>
       </c>
       <c r="I43" s="25"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A44" s="59"/>
+      <c r="A44" s="48"/>
       <c r="B44" s="26" t="s">
         <v>2</v>
       </c>
       <c r="C44" s="17"/>
-      <c r="D44" s="53"/>
-      <c r="E44" s="51"/>
-      <c r="F44" s="51"/>
-      <c r="G44" s="53"/>
-      <c r="H44" s="53"/>
+      <c r="D44" s="56"/>
+      <c r="E44" s="53"/>
+      <c r="F44" s="53"/>
+      <c r="G44" s="56"/>
+      <c r="H44" s="56"/>
       <c r="I44" s="17"/>
     </row>
     <row r="45" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
@@ -5466,11 +5445,11 @@
         <v>0</v>
       </c>
       <c r="C45" s="18"/>
-      <c r="D45" s="53"/>
-      <c r="E45" s="51"/>
-      <c r="F45" s="51"/>
-      <c r="G45" s="53"/>
-      <c r="H45" s="53"/>
+      <c r="D45" s="56"/>
+      <c r="E45" s="53"/>
+      <c r="F45" s="53"/>
+      <c r="G45" s="56"/>
+      <c r="H45" s="56"/>
       <c r="I45" s="18"/>
     </row>
     <row r="46" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
@@ -5479,129 +5458,129 @@
         <v>3</v>
       </c>
       <c r="C46" s="12"/>
-      <c r="D46" s="49"/>
-      <c r="E46" s="47"/>
-      <c r="F46" s="47"/>
-      <c r="G46" s="49"/>
-      <c r="H46" s="49"/>
+      <c r="D46" s="57"/>
+      <c r="E46" s="51"/>
+      <c r="F46" s="51"/>
+      <c r="G46" s="57"/>
+      <c r="H46" s="57"/>
       <c r="I46" s="17"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A47" s="57">
+      <c r="A47" s="46">
         <v>5</v>
       </c>
       <c r="B47" s="36" t="s">
         <v>8</v>
       </c>
       <c r="C47" s="15"/>
-      <c r="D47" s="50" t="s">
+      <c r="D47" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="E47" s="50" t="s">
+      <c r="E47" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="F47" s="50" t="s">
+      <c r="F47" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="G47" s="50" t="s">
+      <c r="G47" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="H47" s="50" t="s">
+      <c r="H47" s="52" t="s">
         <v>42</v>
       </c>
       <c r="I47" s="15"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A48" s="58"/>
+      <c r="A48" s="47"/>
       <c r="B48" s="33" t="s">
         <v>0</v>
       </c>
       <c r="C48" s="13"/>
-      <c r="D48" s="47"/>
-      <c r="E48" s="47"/>
-      <c r="F48" s="47"/>
-      <c r="G48" s="47"/>
-      <c r="H48" s="47"/>
+      <c r="D48" s="51"/>
+      <c r="E48" s="51"/>
+      <c r="F48" s="51"/>
+      <c r="G48" s="51"/>
+      <c r="H48" s="51"/>
       <c r="I48" s="13"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A49" s="57">
+      <c r="A49" s="46">
         <v>6</v>
       </c>
       <c r="B49" s="36" t="s">
         <v>8</v>
       </c>
       <c r="C49" s="15"/>
-      <c r="D49" s="50" t="s">
+      <c r="D49" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="E49" s="46" t="s">
+      <c r="E49" s="58" t="s">
         <v>35</v>
       </c>
-      <c r="F49" s="50" t="s">
+      <c r="F49" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="G49" s="50" t="s">
+      <c r="G49" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="H49" s="50" t="s">
+      <c r="H49" s="52" t="s">
         <v>42</v>
       </c>
       <c r="I49" s="15"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A50" s="58"/>
+      <c r="A50" s="47"/>
       <c r="B50" s="33" t="s">
         <v>0</v>
       </c>
       <c r="C50" s="13"/>
-      <c r="D50" s="47"/>
-      <c r="E50" s="47"/>
-      <c r="F50" s="47"/>
-      <c r="G50" s="47"/>
-      <c r="H50" s="47"/>
+      <c r="D50" s="51"/>
+      <c r="E50" s="51"/>
+      <c r="F50" s="51"/>
+      <c r="G50" s="51"/>
+      <c r="H50" s="51"/>
       <c r="I50" s="13"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A51" s="57">
+      <c r="A51" s="46">
         <v>7</v>
       </c>
       <c r="B51" s="36" t="s">
         <v>8</v>
       </c>
       <c r="C51" s="15"/>
-      <c r="D51" s="50" t="s">
+      <c r="D51" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="E51" s="46" t="s">
+      <c r="E51" s="58" t="s">
         <v>35</v>
       </c>
-      <c r="F51" s="50" t="s">
+      <c r="F51" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="G51" s="50" t="s">
+      <c r="G51" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="H51" s="50" t="s">
+      <c r="H51" s="52" t="s">
         <v>42</v>
       </c>
       <c r="I51" s="15"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A52" s="58"/>
+      <c r="A52" s="47"/>
       <c r="B52" s="33" t="s">
         <v>0</v>
       </c>
       <c r="C52" s="13"/>
-      <c r="D52" s="47"/>
-      <c r="E52" s="47"/>
-      <c r="F52" s="47"/>
-      <c r="G52" s="47"/>
-      <c r="H52" s="47"/>
+      <c r="D52" s="51"/>
+      <c r="E52" s="51"/>
+      <c r="F52" s="51"/>
+      <c r="G52" s="51"/>
+      <c r="H52" s="51"/>
       <c r="I52" s="13"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A53" s="57">
+      <c r="A53" s="46">
         <v>8</v>
       </c>
       <c r="B53" s="36" t="s">
@@ -5611,7 +5590,7 @@
       <c r="D53" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="E53" s="46" t="s">
+      <c r="E53" s="58" t="s">
         <v>35</v>
       </c>
       <c r="F53" s="16" t="s">
@@ -5626,7 +5605,7 @@
       <c r="I53" s="15"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A54" s="58"/>
+      <c r="A54" s="47"/>
       <c r="B54" s="33" t="s">
         <v>0</v>
       </c>
@@ -5634,7 +5613,7 @@
       <c r="D54" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="E54" s="47"/>
+      <c r="E54" s="51"/>
       <c r="F54" s="14" t="s">
         <v>31</v>
       </c>
@@ -5647,97 +5626,88 @@
       <c r="I54" s="13"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A55" s="57">
+      <c r="A55" s="46">
         <v>9</v>
       </c>
       <c r="B55" s="36" t="s">
         <v>8</v>
       </c>
       <c r="C55" s="15"/>
-      <c r="D55" s="46" t="s">
+      <c r="D55" s="58" t="s">
         <v>31</v>
       </c>
       <c r="E55" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="F55" s="46" t="s">
-        <v>31</v>
-      </c>
-      <c r="G55" s="46" t="s">
-        <v>31</v>
-      </c>
-      <c r="H55" s="46" t="s">
+      <c r="F55" s="58" t="s">
+        <v>31</v>
+      </c>
+      <c r="G55" s="58" t="s">
+        <v>31</v>
+      </c>
+      <c r="H55" s="58" t="s">
         <v>31</v>
       </c>
       <c r="I55" s="15"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A56" s="58"/>
+      <c r="A56" s="47"/>
       <c r="B56" s="33" t="s">
         <v>0</v>
       </c>
       <c r="C56" s="13"/>
-      <c r="D56" s="47"/>
+      <c r="D56" s="51"/>
       <c r="E56" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="F56" s="47"/>
-      <c r="G56" s="47"/>
-      <c r="H56" s="47"/>
+      <c r="F56" s="51"/>
+      <c r="G56" s="51"/>
+      <c r="H56" s="51"/>
       <c r="I56" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="109">
-    <mergeCell ref="H55:H56"/>
-    <mergeCell ref="D15:D18"/>
-    <mergeCell ref="F15:F18"/>
-    <mergeCell ref="H15:H18"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="H51:H52"/>
-    <mergeCell ref="H31:H32"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="H33:H34"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="F55:F56"/>
-    <mergeCell ref="G55:G56"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="G51:G52"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="F49:F50"/>
-    <mergeCell ref="G49:G50"/>
-    <mergeCell ref="H49:H50"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="F47:F48"/>
-    <mergeCell ref="G47:G48"/>
-    <mergeCell ref="H47:H48"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="D43:D46"/>
-    <mergeCell ref="E43:E46"/>
-    <mergeCell ref="F43:F46"/>
-    <mergeCell ref="G43:G46"/>
-    <mergeCell ref="H43:H46"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="E39:E42"/>
-    <mergeCell ref="F39:F42"/>
-    <mergeCell ref="G39:G42"/>
-    <mergeCell ref="D39:D42"/>
-    <mergeCell ref="H39:H42"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="D7:D10"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F10"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="E15:E18"/>
+    <mergeCell ref="G15:G18"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="E11:E14"/>
+    <mergeCell ref="F11:F14"/>
+    <mergeCell ref="G11:G14"/>
+    <mergeCell ref="H11:H14"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="D23:D26"/>
+    <mergeCell ref="E23:E26"/>
+    <mergeCell ref="F23:F26"/>
+    <mergeCell ref="G23:G26"/>
+    <mergeCell ref="H23:H26"/>
     <mergeCell ref="A35:A36"/>
     <mergeCell ref="D35:D38"/>
     <mergeCell ref="E35:E38"/>
@@ -5756,47 +5726,56 @@
     <mergeCell ref="E33:E34"/>
     <mergeCell ref="G31:G32"/>
     <mergeCell ref="G33:G34"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="D23:D26"/>
-    <mergeCell ref="E23:E26"/>
-    <mergeCell ref="F23:F26"/>
-    <mergeCell ref="G23:G26"/>
-    <mergeCell ref="H23:H26"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="E15:E18"/>
-    <mergeCell ref="G15:G18"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="D11:D14"/>
-    <mergeCell ref="E11:E14"/>
-    <mergeCell ref="F11:F14"/>
-    <mergeCell ref="G11:G14"/>
-    <mergeCell ref="H11:H14"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="D7:D10"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F10"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H7:H10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="D43:D46"/>
+    <mergeCell ref="E43:E46"/>
+    <mergeCell ref="F43:F46"/>
+    <mergeCell ref="G43:G46"/>
+    <mergeCell ref="H43:H46"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="E39:E42"/>
+    <mergeCell ref="F39:F42"/>
+    <mergeCell ref="G39:G42"/>
+    <mergeCell ref="D39:D42"/>
+    <mergeCell ref="H39:H42"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="H49:H50"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="G47:G48"/>
+    <mergeCell ref="H47:H48"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="G55:G56"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="G51:G52"/>
+    <mergeCell ref="H55:H56"/>
+    <mergeCell ref="D15:D18"/>
+    <mergeCell ref="F15:F18"/>
+    <mergeCell ref="H15:H18"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="H51:H52"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="H33:H34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5807,8 +5786,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{498D38BE-669B-4C7E-82AF-3880CEFEE6B7}">
   <dimension ref="A1:I56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="F43" sqref="F43:F46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5853,10 +5832,10 @@
       <c r="I2" s="22"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="56" t="s">
+      <c r="A3" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="56"/>
+      <c r="B3" s="49"/>
       <c r="C3" s="23"/>
       <c r="D3" s="23"/>
       <c r="E3" s="23"/>
@@ -5895,79 +5874,79 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="57">
+      <c r="A5" s="46">
         <v>6</v>
       </c>
       <c r="B5" s="36" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="44"/>
-      <c r="D5" s="55" t="s">
+      <c r="D5" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="55" t="s">
+      <c r="E5" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="55" t="s">
+      <c r="F5" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="55" t="s">
+      <c r="G5" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="55" t="s">
+      <c r="H5" s="50" t="s">
         <v>18</v>
       </c>
       <c r="I5" s="44"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="58"/>
+      <c r="A6" s="47"/>
       <c r="B6" s="33" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="45"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="47"/>
-      <c r="H6" s="47"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="51"/>
+      <c r="F6" s="51"/>
+      <c r="G6" s="51"/>
+      <c r="H6" s="51"/>
       <c r="I6" s="45"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="57">
+      <c r="A7" s="46">
         <v>7</v>
       </c>
       <c r="B7" s="36" t="s">
         <v>1</v>
       </c>
       <c r="C7" s="42"/>
-      <c r="D7" s="65" t="s">
+      <c r="D7" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="65" t="s">
+      <c r="E7" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="65" t="s">
+      <c r="F7" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="G7" s="65" t="s">
+      <c r="G7" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="H7" s="65" t="s">
+      <c r="H7" s="52" t="s">
         <v>18</v>
       </c>
       <c r="I7" s="44"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="59"/>
+      <c r="A8" s="48"/>
       <c r="B8" s="26" t="s">
         <v>2</v>
       </c>
       <c r="C8" s="43"/>
-      <c r="D8" s="66"/>
-      <c r="E8" s="66"/>
-      <c r="F8" s="66"/>
-      <c r="G8" s="66"/>
-      <c r="H8" s="66"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="53"/>
+      <c r="G8" s="53"/>
+      <c r="H8" s="53"/>
       <c r="I8" s="43"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
@@ -5976,15 +5955,15 @@
         <v>0</v>
       </c>
       <c r="C9" s="43"/>
-      <c r="D9" s="66"/>
-      <c r="E9" s="66" t="s">
+      <c r="D9" s="53"/>
+      <c r="E9" s="61" t="s">
         <v>28</v>
       </c>
-      <c r="F9" s="66"/>
-      <c r="G9" s="67" t="s">
+      <c r="F9" s="53"/>
+      <c r="G9" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="H9" s="66"/>
+      <c r="H9" s="53"/>
       <c r="I9" s="43"/>
     </row>
     <row r="10" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
@@ -5993,49 +5972,49 @@
         <v>3</v>
       </c>
       <c r="C10" s="45"/>
-      <c r="D10" s="68"/>
-      <c r="E10" s="68"/>
-      <c r="F10" s="68"/>
-      <c r="G10" s="69"/>
-      <c r="H10" s="68"/>
+      <c r="D10" s="51"/>
+      <c r="E10" s="62"/>
+      <c r="F10" s="51"/>
+      <c r="G10" s="64"/>
+      <c r="H10" s="51"/>
       <c r="I10" s="45"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="57">
+      <c r="A11" s="46">
         <v>8</v>
       </c>
       <c r="B11" s="36" t="s">
         <v>1</v>
       </c>
       <c r="C11" s="42"/>
-      <c r="D11" s="65" t="s">
+      <c r="D11" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="65" t="s">
+      <c r="E11" s="55" t="s">
         <v>36</v>
       </c>
-      <c r="F11" s="65" t="s">
+      <c r="F11" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="G11" s="65" t="s">
+      <c r="G11" s="55" t="s">
         <v>36</v>
       </c>
-      <c r="H11" s="65" t="s">
+      <c r="H11" s="52" t="s">
         <v>18</v>
       </c>
       <c r="I11" s="42"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="59"/>
+      <c r="A12" s="48"/>
       <c r="B12" s="26" t="s">
         <v>2</v>
       </c>
       <c r="C12" s="43"/>
-      <c r="D12" s="66"/>
-      <c r="E12" s="66"/>
-      <c r="F12" s="66"/>
-      <c r="G12" s="66"/>
-      <c r="H12" s="66"/>
+      <c r="D12" s="53"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="53"/>
+      <c r="G12" s="56"/>
+      <c r="H12" s="53"/>
       <c r="I12" s="43"/>
     </row>
     <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
@@ -6044,11 +6023,11 @@
         <v>0</v>
       </c>
       <c r="C13" s="43"/>
-      <c r="D13" s="66"/>
-      <c r="E13" s="66"/>
-      <c r="F13" s="66"/>
-      <c r="G13" s="66"/>
-      <c r="H13" s="66"/>
+      <c r="D13" s="53"/>
+      <c r="E13" s="56"/>
+      <c r="F13" s="53"/>
+      <c r="G13" s="56"/>
+      <c r="H13" s="53"/>
       <c r="I13" s="43"/>
     </row>
     <row r="14" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
@@ -6057,49 +6036,49 @@
         <v>3</v>
       </c>
       <c r="C14" s="45"/>
-      <c r="D14" s="68"/>
-      <c r="E14" s="68"/>
-      <c r="F14" s="68"/>
-      <c r="G14" s="68"/>
-      <c r="H14" s="68"/>
+      <c r="D14" s="51"/>
+      <c r="E14" s="57"/>
+      <c r="F14" s="51"/>
+      <c r="G14" s="57"/>
+      <c r="H14" s="51"/>
       <c r="I14" s="45"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="57">
+      <c r="A15" s="46">
         <v>9</v>
       </c>
       <c r="B15" s="36" t="s">
         <v>1</v>
       </c>
       <c r="C15" s="18"/>
-      <c r="D15" s="65" t="s">
+      <c r="D15" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="E15" s="65" t="s">
+      <c r="E15" s="55" t="s">
         <v>36</v>
       </c>
-      <c r="F15" s="65" t="s">
+      <c r="F15" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="G15" s="65" t="s">
+      <c r="G15" s="55" t="s">
         <v>36</v>
       </c>
-      <c r="H15" s="65" t="s">
+      <c r="H15" s="52" t="s">
         <v>18</v>
       </c>
       <c r="I15" s="42"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="59"/>
+      <c r="A16" s="48"/>
       <c r="B16" s="26" t="s">
         <v>2</v>
       </c>
       <c r="C16" s="17"/>
-      <c r="D16" s="66"/>
-      <c r="E16" s="66"/>
-      <c r="F16" s="66"/>
-      <c r="G16" s="66"/>
-      <c r="H16" s="66"/>
+      <c r="D16" s="53"/>
+      <c r="E16" s="56"/>
+      <c r="F16" s="53"/>
+      <c r="G16" s="56"/>
+      <c r="H16" s="53"/>
       <c r="I16" s="43"/>
     </row>
     <row r="17" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
@@ -6108,11 +6087,11 @@
         <v>0</v>
       </c>
       <c r="C17" s="18"/>
-      <c r="D17" s="66"/>
-      <c r="E17" s="66"/>
-      <c r="F17" s="66"/>
-      <c r="G17" s="66"/>
-      <c r="H17" s="66"/>
+      <c r="D17" s="53"/>
+      <c r="E17" s="56"/>
+      <c r="F17" s="53"/>
+      <c r="G17" s="56"/>
+      <c r="H17" s="53"/>
       <c r="I17" s="43"/>
     </row>
     <row r="18" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
@@ -6121,49 +6100,49 @@
         <v>3</v>
       </c>
       <c r="C18" s="12"/>
-      <c r="D18" s="68"/>
-      <c r="E18" s="68"/>
-      <c r="F18" s="68"/>
-      <c r="G18" s="68"/>
-      <c r="H18" s="68"/>
+      <c r="D18" s="51"/>
+      <c r="E18" s="57"/>
+      <c r="F18" s="51"/>
+      <c r="G18" s="57"/>
+      <c r="H18" s="51"/>
       <c r="I18" s="45"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="57">
+      <c r="A19" s="46">
         <v>10</v>
       </c>
       <c r="B19" s="36" t="s">
         <v>1</v>
       </c>
       <c r="C19" s="18"/>
-      <c r="D19" s="65" t="s">
+      <c r="D19" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="E19" s="65" t="s">
+      <c r="E19" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="F19" s="65" t="s">
+      <c r="F19" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="G19" s="65" t="s">
+      <c r="G19" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="H19" s="65" t="s">
+      <c r="H19" s="52" t="s">
         <v>41</v>
       </c>
       <c r="I19" s="25"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="59"/>
+      <c r="A20" s="48"/>
       <c r="B20" s="26" t="s">
         <v>2</v>
       </c>
       <c r="C20" s="17"/>
-      <c r="D20" s="66"/>
-      <c r="E20" s="66"/>
-      <c r="F20" s="66"/>
-      <c r="G20" s="66"/>
-      <c r="H20" s="66"/>
+      <c r="D20" s="53"/>
+      <c r="E20" s="53"/>
+      <c r="F20" s="53"/>
+      <c r="G20" s="53"/>
+      <c r="H20" s="53"/>
       <c r="I20" s="17"/>
     </row>
     <row r="21" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
@@ -6172,19 +6151,19 @@
         <v>0</v>
       </c>
       <c r="C21" s="18"/>
-      <c r="D21" s="66" t="s">
-        <v>30</v>
-      </c>
-      <c r="E21" s="66" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="66" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="66" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="66" t="s">
+      <c r="D21" s="56" t="s">
+        <v>30</v>
+      </c>
+      <c r="E21" s="53" t="s">
+        <v>30</v>
+      </c>
+      <c r="F21" s="53" t="s">
+        <v>30</v>
+      </c>
+      <c r="G21" s="53" t="s">
+        <v>30</v>
+      </c>
+      <c r="H21" s="53" t="s">
         <v>30</v>
       </c>
       <c r="I21" s="18"/>
@@ -6195,49 +6174,49 @@
         <v>3</v>
       </c>
       <c r="C22" s="12"/>
-      <c r="D22" s="68"/>
-      <c r="E22" s="68"/>
-      <c r="F22" s="68"/>
-      <c r="G22" s="68"/>
-      <c r="H22" s="68"/>
+      <c r="D22" s="57"/>
+      <c r="E22" s="51"/>
+      <c r="F22" s="51"/>
+      <c r="G22" s="51"/>
+      <c r="H22" s="51"/>
       <c r="I22" s="17"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" s="57">
+      <c r="A23" s="46">
         <v>11</v>
       </c>
       <c r="B23" s="36" t="s">
         <v>1</v>
       </c>
       <c r="C23" s="18"/>
-      <c r="D23" s="65" t="s">
-        <v>30</v>
-      </c>
-      <c r="E23" s="65" t="s">
-        <v>30</v>
-      </c>
-      <c r="F23" s="65" t="s">
-        <v>30</v>
-      </c>
-      <c r="G23" s="65" t="s">
-        <v>30</v>
-      </c>
-      <c r="H23" s="65" t="s">
+      <c r="D23" s="55" t="s">
+        <v>30</v>
+      </c>
+      <c r="E23" s="52" t="s">
+        <v>30</v>
+      </c>
+      <c r="F23" s="52" t="s">
+        <v>30</v>
+      </c>
+      <c r="G23" s="52" t="s">
+        <v>30</v>
+      </c>
+      <c r="H23" s="52" t="s">
         <v>30</v>
       </c>
       <c r="I23" s="25"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" s="59"/>
+      <c r="A24" s="48"/>
       <c r="B24" s="26" t="s">
         <v>2</v>
       </c>
       <c r="C24" s="17"/>
-      <c r="D24" s="66"/>
-      <c r="E24" s="66"/>
-      <c r="F24" s="66"/>
-      <c r="G24" s="66"/>
-      <c r="H24" s="66"/>
+      <c r="D24" s="56"/>
+      <c r="E24" s="53"/>
+      <c r="F24" s="53"/>
+      <c r="G24" s="53"/>
+      <c r="H24" s="53"/>
       <c r="I24" s="17"/>
     </row>
     <row r="25" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
@@ -6246,11 +6225,11 @@
         <v>0</v>
       </c>
       <c r="C25" s="18"/>
-      <c r="D25" s="66"/>
-      <c r="E25" s="66"/>
-      <c r="F25" s="66"/>
-      <c r="G25" s="66"/>
-      <c r="H25" s="66"/>
+      <c r="D25" s="56"/>
+      <c r="E25" s="53"/>
+      <c r="F25" s="53"/>
+      <c r="G25" s="53"/>
+      <c r="H25" s="53"/>
       <c r="I25" s="18"/>
     </row>
     <row r="26" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
@@ -6259,49 +6238,49 @@
         <v>3</v>
       </c>
       <c r="C26" s="12"/>
-      <c r="D26" s="68"/>
-      <c r="E26" s="68"/>
-      <c r="F26" s="68"/>
-      <c r="G26" s="68"/>
-      <c r="H26" s="68"/>
+      <c r="D26" s="57"/>
+      <c r="E26" s="51"/>
+      <c r="F26" s="51"/>
+      <c r="G26" s="51"/>
+      <c r="H26" s="51"/>
       <c r="I26" s="17"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A27" s="57">
+      <c r="A27" s="46">
         <v>12</v>
       </c>
       <c r="B27" s="36" t="s">
         <v>8</v>
       </c>
       <c r="C27" s="18"/>
-      <c r="D27" s="65" t="s">
-        <v>30</v>
-      </c>
-      <c r="E27" s="65" t="s">
-        <v>30</v>
-      </c>
-      <c r="F27" s="65" t="s">
-        <v>30</v>
-      </c>
-      <c r="G27" s="65" t="s">
-        <v>30</v>
-      </c>
-      <c r="H27" s="65" t="s">
+      <c r="D27" s="55" t="s">
+        <v>30</v>
+      </c>
+      <c r="E27" s="52" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="52" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="52" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="52" t="s">
         <v>30</v>
       </c>
       <c r="I27" s="25"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A28" s="59"/>
+      <c r="A28" s="48"/>
       <c r="B28" s="26" t="s">
         <v>2</v>
       </c>
       <c r="C28" s="17"/>
-      <c r="D28" s="70"/>
-      <c r="E28" s="70"/>
-      <c r="F28" s="70"/>
-      <c r="G28" s="70"/>
-      <c r="H28" s="70"/>
+      <c r="D28" s="60"/>
+      <c r="E28" s="54"/>
+      <c r="F28" s="54"/>
+      <c r="G28" s="54"/>
+      <c r="H28" s="54"/>
       <c r="I28" s="17"/>
     </row>
     <row r="29" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
@@ -6310,19 +6289,19 @@
         <v>0</v>
       </c>
       <c r="C29" s="18"/>
-      <c r="D29" s="65" t="s">
-        <v>31</v>
-      </c>
-      <c r="E29" s="65" t="s">
-        <v>31</v>
-      </c>
-      <c r="F29" s="65" t="s">
-        <v>31</v>
-      </c>
-      <c r="G29" s="65" t="s">
-        <v>31</v>
-      </c>
-      <c r="H29" s="65" t="s">
+      <c r="D29" s="52" t="s">
+        <v>31</v>
+      </c>
+      <c r="E29" s="52" t="s">
+        <v>31</v>
+      </c>
+      <c r="F29" s="52" t="s">
+        <v>31</v>
+      </c>
+      <c r="G29" s="52" t="s">
+        <v>31</v>
+      </c>
+      <c r="H29" s="52" t="s">
         <v>31</v>
       </c>
       <c r="I29" s="18"/>
@@ -6333,49 +6312,49 @@
         <v>3</v>
       </c>
       <c r="C30" s="12"/>
-      <c r="D30" s="70"/>
-      <c r="E30" s="70"/>
-      <c r="F30" s="70"/>
-      <c r="G30" s="70"/>
-      <c r="H30" s="70"/>
+      <c r="D30" s="54"/>
+      <c r="E30" s="54"/>
+      <c r="F30" s="54"/>
+      <c r="G30" s="54"/>
+      <c r="H30" s="54"/>
       <c r="I30" s="17"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A31" s="57">
+      <c r="A31" s="46">
         <v>1</v>
       </c>
       <c r="B31" s="36" t="s">
         <v>8</v>
       </c>
       <c r="C31" s="18"/>
-      <c r="D31" s="65" t="s">
-        <v>31</v>
-      </c>
-      <c r="E31" s="65" t="s">
-        <v>31</v>
-      </c>
-      <c r="F31" s="65" t="s">
-        <v>31</v>
-      </c>
-      <c r="G31" s="65" t="s">
-        <v>31</v>
-      </c>
-      <c r="H31" s="65" t="s">
+      <c r="D31" s="52" t="s">
+        <v>31</v>
+      </c>
+      <c r="E31" s="52" t="s">
+        <v>31</v>
+      </c>
+      <c r="F31" s="52" t="s">
+        <v>31</v>
+      </c>
+      <c r="G31" s="52" t="s">
+        <v>31</v>
+      </c>
+      <c r="H31" s="52" t="s">
         <v>31</v>
       </c>
       <c r="I31" s="25"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A32" s="59"/>
+      <c r="A32" s="48"/>
       <c r="B32" s="26" t="s">
         <v>2</v>
       </c>
       <c r="C32" s="17"/>
-      <c r="D32" s="70"/>
-      <c r="E32" s="70"/>
-      <c r="F32" s="70"/>
-      <c r="G32" s="70"/>
-      <c r="H32" s="70"/>
+      <c r="D32" s="54"/>
+      <c r="E32" s="54"/>
+      <c r="F32" s="54"/>
+      <c r="G32" s="54"/>
+      <c r="H32" s="54"/>
       <c r="I32" s="17"/>
     </row>
     <row r="33" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
@@ -6384,19 +6363,19 @@
         <v>0</v>
       </c>
       <c r="C33" s="18"/>
-      <c r="D33" s="71" t="s">
+      <c r="D33" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="E33" s="71" t="s">
+      <c r="E33" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="F33" s="71" t="s">
+      <c r="F33" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="G33" s="71" t="s">
+      <c r="G33" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="H33" s="71" t="s">
+      <c r="H33" s="58" t="s">
         <v>32</v>
       </c>
       <c r="I33" s="18"/>
@@ -6407,49 +6386,49 @@
         <v>3</v>
       </c>
       <c r="C34" s="12"/>
-      <c r="D34" s="68"/>
-      <c r="E34" s="68"/>
-      <c r="F34" s="68"/>
-      <c r="G34" s="68"/>
-      <c r="H34" s="68"/>
+      <c r="D34" s="51"/>
+      <c r="E34" s="51"/>
+      <c r="F34" s="51"/>
+      <c r="G34" s="51"/>
+      <c r="H34" s="51"/>
       <c r="I34" s="17"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A35" s="57">
+      <c r="A35" s="46">
         <v>2</v>
       </c>
       <c r="B35" s="36" t="s">
         <v>8</v>
       </c>
       <c r="C35" s="18"/>
-      <c r="D35" s="65" t="s">
+      <c r="D35" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="E35" s="65" t="s">
+      <c r="E35" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="F35" s="65" t="s">
+      <c r="F35" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="G35" s="65" t="s">
+      <c r="G35" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="H35" s="65" t="s">
+      <c r="H35" s="52" t="s">
         <v>29</v>
       </c>
       <c r="I35" s="25"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A36" s="59"/>
+      <c r="A36" s="48"/>
       <c r="B36" s="26" t="s">
         <v>2</v>
       </c>
       <c r="C36" s="17"/>
-      <c r="D36" s="66"/>
-      <c r="E36" s="66"/>
-      <c r="F36" s="66"/>
-      <c r="G36" s="66"/>
-      <c r="H36" s="66"/>
+      <c r="D36" s="53"/>
+      <c r="E36" s="53"/>
+      <c r="F36" s="53"/>
+      <c r="G36" s="53"/>
+      <c r="H36" s="53"/>
       <c r="I36" s="17"/>
     </row>
     <row r="37" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
@@ -6458,11 +6437,11 @@
         <v>0</v>
       </c>
       <c r="C37" s="18"/>
-      <c r="D37" s="66"/>
-      <c r="E37" s="66"/>
-      <c r="F37" s="66"/>
-      <c r="G37" s="66"/>
-      <c r="H37" s="66"/>
+      <c r="D37" s="53"/>
+      <c r="E37" s="53"/>
+      <c r="F37" s="53"/>
+      <c r="G37" s="53"/>
+      <c r="H37" s="53"/>
       <c r="I37" s="18"/>
     </row>
     <row r="38" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
@@ -6471,49 +6450,49 @@
         <v>3</v>
       </c>
       <c r="C38" s="12"/>
-      <c r="D38" s="68"/>
-      <c r="E38" s="68"/>
-      <c r="F38" s="68"/>
-      <c r="G38" s="68"/>
-      <c r="H38" s="68"/>
+      <c r="D38" s="51"/>
+      <c r="E38" s="51"/>
+      <c r="F38" s="51"/>
+      <c r="G38" s="51"/>
+      <c r="H38" s="51"/>
       <c r="I38" s="17"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A39" s="57">
+      <c r="A39" s="46">
         <v>3</v>
       </c>
       <c r="B39" s="36" t="s">
         <v>8</v>
       </c>
       <c r="C39" s="18"/>
-      <c r="D39" s="65" t="s">
+      <c r="D39" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="E39" s="65" t="s">
+      <c r="E39" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="F39" s="65" t="s">
+      <c r="F39" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="G39" s="65" t="s">
+      <c r="G39" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="H39" s="65" t="s">
+      <c r="H39" s="55" t="s">
         <v>33</v>
       </c>
       <c r="I39" s="25"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A40" s="59"/>
+      <c r="A40" s="48"/>
       <c r="B40" s="26" t="s">
         <v>2</v>
       </c>
       <c r="C40" s="17"/>
-      <c r="D40" s="66"/>
-      <c r="E40" s="66"/>
-      <c r="F40" s="66"/>
-      <c r="G40" s="66"/>
-      <c r="H40" s="66"/>
+      <c r="D40" s="53"/>
+      <c r="E40" s="53"/>
+      <c r="F40" s="53"/>
+      <c r="G40" s="56"/>
+      <c r="H40" s="56"/>
       <c r="I40" s="17"/>
     </row>
     <row r="41" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
@@ -6522,11 +6501,11 @@
         <v>0</v>
       </c>
       <c r="C41" s="18"/>
-      <c r="D41" s="66"/>
-      <c r="E41" s="66"/>
-      <c r="F41" s="66"/>
-      <c r="G41" s="66"/>
-      <c r="H41" s="66"/>
+      <c r="D41" s="53"/>
+      <c r="E41" s="53"/>
+      <c r="F41" s="53"/>
+      <c r="G41" s="56"/>
+      <c r="H41" s="56"/>
       <c r="I41" s="18"/>
     </row>
     <row r="42" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
@@ -6535,49 +6514,49 @@
         <v>3</v>
       </c>
       <c r="C42" s="12"/>
-      <c r="D42" s="68"/>
-      <c r="E42" s="68"/>
-      <c r="F42" s="68"/>
-      <c r="G42" s="68"/>
-      <c r="H42" s="68"/>
+      <c r="D42" s="51"/>
+      <c r="E42" s="51"/>
+      <c r="F42" s="51"/>
+      <c r="G42" s="57"/>
+      <c r="H42" s="57"/>
       <c r="I42" s="17"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A43" s="57">
+      <c r="A43" s="46">
         <v>4</v>
       </c>
       <c r="B43" s="36" t="s">
         <v>8</v>
       </c>
       <c r="C43" s="18"/>
-      <c r="D43" s="65" t="s">
+      <c r="D43" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="E43" s="65" t="s">
+      <c r="E43" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="F43" s="65" t="s">
+      <c r="F43" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="G43" s="65" t="s">
+      <c r="G43" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="H43" s="65" t="s">
+      <c r="H43" s="55" t="s">
         <v>33</v>
       </c>
       <c r="I43" s="25"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A44" s="59"/>
+      <c r="A44" s="48"/>
       <c r="B44" s="26" t="s">
         <v>2</v>
       </c>
       <c r="C44" s="17"/>
-      <c r="D44" s="66"/>
-      <c r="E44" s="66"/>
-      <c r="F44" s="66"/>
-      <c r="G44" s="66"/>
-      <c r="H44" s="66"/>
+      <c r="D44" s="53"/>
+      <c r="E44" s="53"/>
+      <c r="F44" s="53"/>
+      <c r="G44" s="56"/>
+      <c r="H44" s="56"/>
       <c r="I44" s="17"/>
     </row>
     <row r="45" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
@@ -6586,11 +6565,11 @@
         <v>0</v>
       </c>
       <c r="C45" s="18"/>
-      <c r="D45" s="66"/>
-      <c r="E45" s="66"/>
-      <c r="F45" s="66"/>
-      <c r="G45" s="66"/>
-      <c r="H45" s="66"/>
+      <c r="D45" s="53"/>
+      <c r="E45" s="53"/>
+      <c r="F45" s="53"/>
+      <c r="G45" s="56"/>
+      <c r="H45" s="56"/>
       <c r="I45" s="18"/>
     </row>
     <row r="46" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
@@ -6599,129 +6578,129 @@
         <v>3</v>
       </c>
       <c r="C46" s="12"/>
-      <c r="D46" s="68"/>
-      <c r="E46" s="68"/>
-      <c r="F46" s="68"/>
-      <c r="G46" s="68"/>
-      <c r="H46" s="68"/>
+      <c r="D46" s="51"/>
+      <c r="E46" s="51"/>
+      <c r="F46" s="51"/>
+      <c r="G46" s="57"/>
+      <c r="H46" s="57"/>
       <c r="I46" s="17"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A47" s="57">
+      <c r="A47" s="46">
         <v>5</v>
       </c>
       <c r="B47" s="36" t="s">
         <v>8</v>
       </c>
       <c r="C47" s="15"/>
-      <c r="D47" s="65" t="s">
+      <c r="D47" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="E47" s="65" t="s">
+      <c r="E47" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="F47" s="65" t="s">
+      <c r="F47" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="G47" s="65" t="s">
+      <c r="G47" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="H47" s="65" t="s">
+      <c r="H47" s="52" t="s">
         <v>42</v>
       </c>
       <c r="I47" s="15"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A48" s="58"/>
+      <c r="A48" s="47"/>
       <c r="B48" s="33" t="s">
         <v>0</v>
       </c>
       <c r="C48" s="13"/>
-      <c r="D48" s="68"/>
-      <c r="E48" s="68"/>
-      <c r="F48" s="68"/>
-      <c r="G48" s="68"/>
-      <c r="H48" s="68"/>
+      <c r="D48" s="51"/>
+      <c r="E48" s="51"/>
+      <c r="F48" s="51"/>
+      <c r="G48" s="51"/>
+      <c r="H48" s="51"/>
       <c r="I48" s="13"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A49" s="57">
+      <c r="A49" s="46">
         <v>6</v>
       </c>
       <c r="B49" s="36" t="s">
         <v>8</v>
       </c>
       <c r="C49" s="15"/>
-      <c r="D49" s="65" t="s">
+      <c r="D49" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="E49" s="71" t="s">
+      <c r="E49" s="58" t="s">
         <v>35</v>
       </c>
-      <c r="F49" s="65" t="s">
+      <c r="F49" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="G49" s="65" t="s">
+      <c r="G49" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="H49" s="65" t="s">
+      <c r="H49" s="52" t="s">
         <v>42</v>
       </c>
       <c r="I49" s="15"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A50" s="58"/>
+      <c r="A50" s="47"/>
       <c r="B50" s="33" t="s">
         <v>0</v>
       </c>
       <c r="C50" s="13"/>
-      <c r="D50" s="68"/>
-      <c r="E50" s="68"/>
-      <c r="F50" s="68"/>
-      <c r="G50" s="68"/>
-      <c r="H50" s="68"/>
+      <c r="D50" s="51"/>
+      <c r="E50" s="51"/>
+      <c r="F50" s="51"/>
+      <c r="G50" s="51"/>
+      <c r="H50" s="51"/>
       <c r="I50" s="13"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A51" s="57">
+      <c r="A51" s="46">
         <v>7</v>
       </c>
       <c r="B51" s="36" t="s">
         <v>8</v>
       </c>
       <c r="C51" s="15"/>
-      <c r="D51" s="50" t="s">
+      <c r="D51" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="E51" s="46" t="s">
+      <c r="E51" s="58" t="s">
         <v>35</v>
       </c>
-      <c r="F51" s="50" t="s">
+      <c r="F51" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="G51" s="50" t="s">
+      <c r="G51" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="H51" s="50" t="s">
+      <c r="H51" s="52" t="s">
         <v>42</v>
       </c>
       <c r="I51" s="15"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A52" s="58"/>
+      <c r="A52" s="47"/>
       <c r="B52" s="33" t="s">
         <v>0</v>
       </c>
       <c r="C52" s="13"/>
-      <c r="D52" s="47"/>
-      <c r="E52" s="47"/>
-      <c r="F52" s="47"/>
-      <c r="G52" s="47"/>
-      <c r="H52" s="47"/>
+      <c r="D52" s="51"/>
+      <c r="E52" s="51"/>
+      <c r="F52" s="51"/>
+      <c r="G52" s="51"/>
+      <c r="H52" s="51"/>
       <c r="I52" s="13"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A53" s="57">
+      <c r="A53" s="46">
         <v>8</v>
       </c>
       <c r="B53" s="36" t="s">
@@ -6731,7 +6710,7 @@
       <c r="D53" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="E53" s="46" t="s">
+      <c r="E53" s="58" t="s">
         <v>35</v>
       </c>
       <c r="F53" s="16" t="s">
@@ -6746,7 +6725,7 @@
       <c r="I53" s="15"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A54" s="58"/>
+      <c r="A54" s="47"/>
       <c r="B54" s="33" t="s">
         <v>0</v>
       </c>
@@ -6754,7 +6733,7 @@
       <c r="D54" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="E54" s="47"/>
+      <c r="E54" s="51"/>
       <c r="F54" s="14" t="s">
         <v>31</v>
       </c>
@@ -6767,106 +6746,80 @@
       <c r="I54" s="13"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A55" s="57">
+      <c r="A55" s="46">
         <v>9</v>
       </c>
       <c r="B55" s="36" t="s">
         <v>8</v>
       </c>
       <c r="C55" s="15"/>
-      <c r="D55" s="46" t="s">
+      <c r="D55" s="58" t="s">
         <v>31</v>
       </c>
       <c r="E55" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="F55" s="46" t="s">
-        <v>31</v>
-      </c>
-      <c r="G55" s="46" t="s">
-        <v>31</v>
-      </c>
-      <c r="H55" s="46" t="s">
+      <c r="F55" s="58" t="s">
+        <v>31</v>
+      </c>
+      <c r="G55" s="58" t="s">
+        <v>31</v>
+      </c>
+      <c r="H55" s="58" t="s">
         <v>31</v>
       </c>
       <c r="I55" s="15"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A56" s="58"/>
+      <c r="A56" s="47"/>
       <c r="B56" s="33" t="s">
         <v>0</v>
       </c>
       <c r="C56" s="13"/>
-      <c r="D56" s="47"/>
+      <c r="D56" s="51"/>
       <c r="E56" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="F56" s="47"/>
-      <c r="G56" s="47"/>
-      <c r="H56" s="47"/>
+      <c r="F56" s="51"/>
+      <c r="G56" s="51"/>
+      <c r="H56" s="51"/>
       <c r="I56" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="109">
-    <mergeCell ref="H55:H56"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="F55:F56"/>
-    <mergeCell ref="G55:G56"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="G51:G52"/>
-    <mergeCell ref="H51:H52"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="F49:F50"/>
-    <mergeCell ref="G49:G50"/>
-    <mergeCell ref="H49:H50"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="F47:F48"/>
-    <mergeCell ref="G47:G48"/>
-    <mergeCell ref="H47:H48"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="D43:D46"/>
-    <mergeCell ref="E43:E46"/>
-    <mergeCell ref="F43:F46"/>
-    <mergeCell ref="G43:G46"/>
-    <mergeCell ref="H43:H46"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="D39:D42"/>
-    <mergeCell ref="E39:E42"/>
-    <mergeCell ref="F39:F42"/>
-    <mergeCell ref="G39:G42"/>
-    <mergeCell ref="H39:H42"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="D35:D38"/>
-    <mergeCell ref="E35:E38"/>
-    <mergeCell ref="F35:F38"/>
-    <mergeCell ref="G35:G38"/>
-    <mergeCell ref="H35:H38"/>
-    <mergeCell ref="H31:H32"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="H33:H34"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="E11:E14"/>
+    <mergeCell ref="F11:F14"/>
+    <mergeCell ref="G11:G14"/>
+    <mergeCell ref="H11:H14"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="D7:D10"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F10"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="D15:D18"/>
+    <mergeCell ref="E15:E18"/>
+    <mergeCell ref="F15:F18"/>
+    <mergeCell ref="G15:G18"/>
+    <mergeCell ref="H15:H18"/>
     <mergeCell ref="H23:H26"/>
     <mergeCell ref="A27:A28"/>
     <mergeCell ref="D27:D28"/>
@@ -6884,39 +6837,65 @@
     <mergeCell ref="E23:E26"/>
     <mergeCell ref="F23:F26"/>
     <mergeCell ref="G23:G26"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="D15:D18"/>
-    <mergeCell ref="E15:E18"/>
-    <mergeCell ref="F15:F18"/>
-    <mergeCell ref="G15:G18"/>
-    <mergeCell ref="H15:H18"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="D11:D14"/>
-    <mergeCell ref="E11:E14"/>
-    <mergeCell ref="F11:F14"/>
-    <mergeCell ref="G11:G14"/>
-    <mergeCell ref="H11:H14"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="D7:D10"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F10"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H7:H10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="D35:D38"/>
+    <mergeCell ref="E35:E38"/>
+    <mergeCell ref="F35:F38"/>
+    <mergeCell ref="G35:G38"/>
+    <mergeCell ref="H35:H38"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="H33:H34"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="D43:D46"/>
+    <mergeCell ref="E43:E46"/>
+    <mergeCell ref="F43:F46"/>
+    <mergeCell ref="G43:G46"/>
+    <mergeCell ref="H43:H46"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="D39:D42"/>
+    <mergeCell ref="E39:E42"/>
+    <mergeCell ref="F39:F42"/>
+    <mergeCell ref="G39:G42"/>
+    <mergeCell ref="H39:H42"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="H49:H50"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="G47:G48"/>
+    <mergeCell ref="H47:H48"/>
+    <mergeCell ref="H55:H56"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="G55:G56"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="G51:G52"/>
+    <mergeCell ref="H51:H52"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
